--- a/TestData.xlsx
+++ b/TestData.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="20225"/>
   <workbookPr autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="25600" windowHeight="14460" tabRatio="990" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="25600" windowHeight="14460" tabRatio="990"/>
   </bookViews>
   <sheets>
     <sheet name="Login_Credentials" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="818" uniqueCount="475">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="818" uniqueCount="476">
   <si>
     <t>TEST CASE NAME</t>
   </si>
@@ -1461,6 +1461,9 @@
   </si>
   <si>
     <t>Ageeee5</t>
+  </si>
+  <si>
+    <t>https://offshore-qa-playpen.grovo.net</t>
   </si>
 </sst>
 </file>
@@ -1804,13 +1807,13 @@
     <xf numFmtId="0" fontId="13" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="13" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="13" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -2217,8 +2220,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AMK6"/>
   <sheetViews>
-    <sheetView zoomScale="77" zoomScaleNormal="77" zoomScalePageLayoutView="77" workbookViewId="0">
-      <selection activeCell="H25" sqref="H25"/>
+    <sheetView tabSelected="1" zoomScale="77" zoomScaleNormal="77" zoomScalePageLayoutView="77" workbookViewId="0">
+      <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="20" x14ac:dyDescent="0"/>
@@ -2250,7 +2253,7 @@
         <v>4</v>
       </c>
       <c r="B2" s="12" t="s">
-        <v>5</v>
+        <v>475</v>
       </c>
       <c r="C2" s="11"/>
       <c r="D2" s="11"/>
@@ -2287,7 +2290,7 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="B2" r:id="rId1"/>
+    <hyperlink ref="B2" r:id="rId1" display="https://optislabs-playpen.grovo.com/"/>
     <hyperlink ref="B4" r:id="rId2" display="jibim@grovo.com"/>
     <hyperlink ref="C4" r:id="rId3"/>
   </hyperlinks>
@@ -2304,7 +2307,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:H5"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="D19" sqref="D19"/>
     </sheetView>
   </sheetViews>
@@ -2897,7 +2900,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="3" spans="1:4" ht="36">
+    <row r="3" spans="1:4">
       <c r="A3" s="16" t="s">
         <v>102</v>
       </c>
@@ -2963,7 +2966,7 @@
         <v>113</v>
       </c>
     </row>
-    <row r="12" spans="1:4" ht="36">
+    <row r="12" spans="1:4">
       <c r="A12" s="16" t="s">
         <v>102</v>
       </c>
@@ -3041,7 +3044,7 @@
         <v>123</v>
       </c>
     </row>
-    <row r="20" spans="1:4" ht="36">
+    <row r="20" spans="1:4">
       <c r="A20" s="16" t="s">
         <v>102</v>
       </c>
@@ -3111,7 +3114,7 @@
         <v>129</v>
       </c>
     </row>
-    <row r="28" spans="1:4" ht="36">
+    <row r="28" spans="1:4">
       <c r="A28" s="16" t="s">
         <v>102</v>
       </c>
@@ -3185,7 +3188,7 @@
         <v>136</v>
       </c>
     </row>
-    <row r="36" spans="1:4" ht="36">
+    <row r="36" spans="1:4">
       <c r="A36" s="16" t="s">
         <v>102</v>
       </c>
@@ -3259,7 +3262,7 @@
         <v>143</v>
       </c>
     </row>
-    <row r="45" spans="1:4" ht="36">
+    <row r="45" spans="1:4">
       <c r="A45" s="16" t="s">
         <v>102</v>
       </c>
@@ -3353,7 +3356,7 @@
         <v>157</v>
       </c>
     </row>
-    <row r="54" spans="1:5" ht="36">
+    <row r="54" spans="1:5">
       <c r="A54" s="16" t="s">
         <v>102</v>
       </c>
@@ -3450,7 +3453,7 @@
         <v>164</v>
       </c>
     </row>
-    <row r="62" spans="1:5" ht="36">
+    <row r="62" spans="1:5">
       <c r="A62" s="16" t="s">
         <v>102</v>
       </c>
@@ -3527,10 +3530,10 @@
       </c>
     </row>
     <row r="70" spans="1:4" ht="14" customHeight="1">
-      <c r="A70" s="42" t="s">
+      <c r="A70" s="41" t="s">
         <v>169</v>
       </c>
-      <c r="B70" s="43"/>
+      <c r="B70" s="42"/>
       <c r="C70" s="38" t="s">
         <v>170</v>
       </c>
@@ -3550,7 +3553,7 @@
         <v>173</v>
       </c>
     </row>
-    <row r="72" spans="1:4" ht="36">
+    <row r="72" spans="1:4">
       <c r="A72" s="16" t="s">
         <v>102</v>
       </c>
@@ -3617,10 +3620,10 @@
       <c r="D77" s="16"/>
     </row>
     <row r="79" spans="1:4" ht="14" customHeight="1">
-      <c r="A79" s="42" t="s">
+      <c r="A79" s="41" t="s">
         <v>181</v>
       </c>
-      <c r="B79" s="43"/>
+      <c r="B79" s="42"/>
       <c r="C79" s="38" t="s">
         <v>182</v>
       </c>
@@ -3640,7 +3643,7 @@
         <v>185</v>
       </c>
     </row>
-    <row r="81" spans="1:4" ht="36">
+    <row r="81" spans="1:4">
       <c r="A81" s="16" t="s">
         <v>102</v>
       </c>
@@ -3728,7 +3731,7 @@
         <v>194</v>
       </c>
     </row>
-    <row r="90" spans="1:4" ht="36">
+    <row r="90" spans="1:4">
       <c r="A90" s="16" t="s">
         <v>102</v>
       </c>
@@ -3874,7 +3877,7 @@
         <v>230</v>
       </c>
     </row>
-    <row r="105" spans="1:4" ht="36">
+    <row r="105" spans="1:4">
       <c r="A105" s="16" t="s">
         <v>102</v>
       </c>
@@ -4022,7 +4025,7 @@
         <v>241</v>
       </c>
     </row>
-    <row r="120" spans="1:4" ht="36">
+    <row r="120" spans="1:4">
       <c r="A120" s="16" t="s">
         <v>102</v>
       </c>
@@ -4089,7 +4092,7 @@
       </c>
     </row>
     <row r="125" spans="1:4">
-      <c r="A125" s="41" t="s">
+      <c r="A125" s="43" t="s">
         <v>244</v>
       </c>
       <c r="B125" s="39"/>
@@ -4162,7 +4165,7 @@
         <v>237</v>
       </c>
     </row>
-    <row r="133" spans="1:4" ht="36">
+    <row r="133" spans="1:4">
       <c r="A133" s="16" t="s">
         <v>102</v>
       </c>
@@ -4300,7 +4303,7 @@
         <v>237</v>
       </c>
     </row>
-    <row r="146" spans="1:4" ht="36">
+    <row r="146" spans="1:4">
       <c r="A146" s="16" t="s">
         <v>102</v>
       </c>
@@ -4434,7 +4437,7 @@
         <v>275</v>
       </c>
     </row>
-    <row r="159" spans="1:4" ht="36">
+    <row r="159" spans="1:4">
       <c r="A159" s="16" t="s">
         <v>102</v>
       </c>
@@ -4552,6 +4555,34 @@
     </row>
   </sheetData>
   <mergeCells count="38">
+    <mergeCell ref="A144:B144"/>
+    <mergeCell ref="C144:D144"/>
+    <mergeCell ref="A157:B157"/>
+    <mergeCell ref="C157:D157"/>
+    <mergeCell ref="C105:D105"/>
+    <mergeCell ref="A118:B118"/>
+    <mergeCell ref="C118:D118"/>
+    <mergeCell ref="A125:B125"/>
+    <mergeCell ref="A131:B131"/>
+    <mergeCell ref="C131:D131"/>
+    <mergeCell ref="A1:B1"/>
+    <mergeCell ref="C1:D1"/>
+    <mergeCell ref="A10:B10"/>
+    <mergeCell ref="C10:D10"/>
+    <mergeCell ref="A18:B18"/>
+    <mergeCell ref="C18:D18"/>
+    <mergeCell ref="A26:B26"/>
+    <mergeCell ref="C26:D26"/>
+    <mergeCell ref="A34:B34"/>
+    <mergeCell ref="C34:D34"/>
+    <mergeCell ref="A43:B43"/>
+    <mergeCell ref="C43:D43"/>
+    <mergeCell ref="A52:B52"/>
+    <mergeCell ref="C52:D52"/>
+    <mergeCell ref="A60:B60"/>
+    <mergeCell ref="C60:D60"/>
+    <mergeCell ref="A70:B70"/>
+    <mergeCell ref="C70:D70"/>
     <mergeCell ref="C92:D92"/>
     <mergeCell ref="C96:D96"/>
     <mergeCell ref="A103:B103"/>
@@ -4562,34 +4593,6 @@
     <mergeCell ref="C82:D82"/>
     <mergeCell ref="A88:B88"/>
     <mergeCell ref="C88:D88"/>
-    <mergeCell ref="A52:B52"/>
-    <mergeCell ref="C52:D52"/>
-    <mergeCell ref="A60:B60"/>
-    <mergeCell ref="C60:D60"/>
-    <mergeCell ref="A70:B70"/>
-    <mergeCell ref="C70:D70"/>
-    <mergeCell ref="A26:B26"/>
-    <mergeCell ref="C26:D26"/>
-    <mergeCell ref="A34:B34"/>
-    <mergeCell ref="C34:D34"/>
-    <mergeCell ref="A43:B43"/>
-    <mergeCell ref="C43:D43"/>
-    <mergeCell ref="A1:B1"/>
-    <mergeCell ref="C1:D1"/>
-    <mergeCell ref="A10:B10"/>
-    <mergeCell ref="C10:D10"/>
-    <mergeCell ref="A18:B18"/>
-    <mergeCell ref="C18:D18"/>
-    <mergeCell ref="A144:B144"/>
-    <mergeCell ref="C144:D144"/>
-    <mergeCell ref="A157:B157"/>
-    <mergeCell ref="C157:D157"/>
-    <mergeCell ref="C105:D105"/>
-    <mergeCell ref="A118:B118"/>
-    <mergeCell ref="C118:D118"/>
-    <mergeCell ref="A125:B125"/>
-    <mergeCell ref="A131:B131"/>
-    <mergeCell ref="C131:D131"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <extLst>

--- a/TestData.xlsx
+++ b/TestData.xlsx
@@ -1394,9 +1394,6 @@
     <t>Lesson Limited multiple card lesson 3</t>
   </si>
   <si>
-    <t>testadmin@grovo.com</t>
-  </si>
-  <si>
     <t>Title for Introduce A Topics</t>
   </si>
   <si>
@@ -1464,6 +1461,9 @@
   </si>
   <si>
     <t>https://offshore-qa-playpen.grovo.net</t>
+  </si>
+  <si>
+    <t>jibim@grovo.com</t>
   </si>
 </sst>
 </file>
@@ -1727,7 +1727,7 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="44">
+  <cellXfs count="45">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
@@ -1816,6 +1816,7 @@
     <xf numFmtId="0" fontId="11" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="1" applyBorder="1" applyProtection="1"/>
   </cellXfs>
   <cellStyles count="4">
     <cellStyle name="Followed Hyperlink" xfId="3" builtinId="9" hidden="1"/>
@@ -2221,7 +2222,7 @@
   <dimension ref="A1:AMK6"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="77" zoomScaleNormal="77" zoomScalePageLayoutView="77" workbookViewId="0">
-      <selection activeCell="B2" sqref="B2"/>
+      <selection activeCell="D10" sqref="D10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="20" x14ac:dyDescent="0"/>
@@ -2253,7 +2254,7 @@
         <v>4</v>
       </c>
       <c r="B2" s="12" t="s">
-        <v>475</v>
+        <v>474</v>
       </c>
       <c r="C2" s="11"/>
       <c r="D2" s="11"/>
@@ -2268,8 +2269,8 @@
       <c r="A4" s="11" t="s">
         <v>6</v>
       </c>
-      <c r="B4" s="12" t="s">
-        <v>452</v>
+      <c r="B4" s="44" t="s">
+        <v>475</v>
       </c>
       <c r="C4" s="12" t="s">
         <v>7</v>
@@ -2291,8 +2292,8 @@
   </sheetData>
   <hyperlinks>
     <hyperlink ref="B2" r:id="rId1" display="https://optislabs-playpen.grovo.com/"/>
-    <hyperlink ref="B4" r:id="rId2" display="jibim@grovo.com"/>
-    <hyperlink ref="C4" r:id="rId3"/>
+    <hyperlink ref="C4" r:id="rId2"/>
+    <hyperlink ref="B4" r:id="rId3"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.51180555555555496" footer="0.51180555555555496"/>
   <extLst>
@@ -2354,16 +2355,16 @@
         <v>16</v>
       </c>
       <c r="B2" s="3" t="s">
-        <v>467</v>
+        <v>466</v>
       </c>
       <c r="C2" s="3" t="s">
-        <v>471</v>
+        <v>470</v>
       </c>
       <c r="D2" s="14" t="s">
-        <v>456</v>
+        <v>455</v>
       </c>
       <c r="E2" s="3" t="s">
-        <v>460</v>
+        <v>459</v>
       </c>
       <c r="G2" s="4" t="s">
         <v>7</v>
@@ -2377,16 +2378,16 @@
         <v>17</v>
       </c>
       <c r="B3" s="3" t="s">
-        <v>468</v>
+        <v>467</v>
       </c>
       <c r="C3" s="3" t="s">
-        <v>472</v>
+        <v>471</v>
       </c>
       <c r="D3" s="14" t="s">
-        <v>457</v>
+        <v>456</v>
       </c>
       <c r="E3" s="3" t="s">
-        <v>461</v>
+        <v>460</v>
       </c>
       <c r="F3" s="3" t="s">
         <v>18</v>
@@ -2403,16 +2404,16 @@
         <v>19</v>
       </c>
       <c r="B4" s="3" t="s">
-        <v>469</v>
+        <v>468</v>
       </c>
       <c r="C4" s="3" t="s">
-        <v>473</v>
+        <v>472</v>
       </c>
       <c r="D4" s="14" t="s">
-        <v>458</v>
+        <v>457</v>
       </c>
       <c r="E4" s="3" t="s">
-        <v>462</v>
+        <v>461</v>
       </c>
       <c r="F4" s="3" t="s">
         <v>20</v>
@@ -2429,16 +2430,16 @@
         <v>21</v>
       </c>
       <c r="B5" s="3" t="s">
-        <v>470</v>
+        <v>469</v>
       </c>
       <c r="C5" s="3" t="s">
-        <v>474</v>
+        <v>473</v>
       </c>
       <c r="D5" s="14" t="s">
-        <v>459</v>
+        <v>458</v>
       </c>
       <c r="E5" s="3" t="s">
-        <v>463</v>
+        <v>462</v>
       </c>
       <c r="F5" s="3" t="s">
         <v>22</v>
@@ -2753,7 +2754,7 @@
         <v>222</v>
       </c>
       <c r="B16" s="17" t="s">
-        <v>464</v>
+        <v>463</v>
       </c>
     </row>
     <row r="17" spans="1:2">
@@ -2783,7 +2784,7 @@
         <v>225</v>
       </c>
       <c r="B22" s="17" t="s">
-        <v>465</v>
+        <v>464</v>
       </c>
     </row>
     <row r="23" spans="1:2">
@@ -2817,7 +2818,7 @@
         <v>225</v>
       </c>
       <c r="B28" s="17" t="s">
-        <v>466</v>
+        <v>465</v>
       </c>
     </row>
     <row r="29" spans="1:2">
@@ -2905,7 +2906,7 @@
         <v>102</v>
       </c>
       <c r="B3" s="17" t="s">
-        <v>464</v>
+        <v>463</v>
       </c>
       <c r="C3" s="16" t="s">
         <v>103</v>
@@ -2971,7 +2972,7 @@
         <v>102</v>
       </c>
       <c r="B12" s="17" t="s">
-        <v>464</v>
+        <v>463</v>
       </c>
       <c r="C12" s="16" t="s">
         <v>114</v>
@@ -3049,13 +3050,13 @@
         <v>102</v>
       </c>
       <c r="B20" s="17" t="s">
-        <v>464</v>
+        <v>463</v>
       </c>
       <c r="C20" s="18" t="s">
         <v>124</v>
       </c>
       <c r="D20" s="19" t="s">
-        <v>464</v>
+        <v>463</v>
       </c>
     </row>
     <row r="21" spans="1:4">
@@ -3119,13 +3120,13 @@
         <v>102</v>
       </c>
       <c r="B28" s="17" t="s">
-        <v>464</v>
+        <v>463</v>
       </c>
       <c r="C28" s="16" t="s">
         <v>130</v>
       </c>
       <c r="D28" s="17" t="s">
-        <v>465</v>
+        <v>464</v>
       </c>
     </row>
     <row r="29" spans="1:4">
@@ -3193,13 +3194,13 @@
         <v>102</v>
       </c>
       <c r="B36" s="17" t="s">
-        <v>464</v>
+        <v>463</v>
       </c>
       <c r="C36" s="16" t="s">
         <v>137</v>
       </c>
       <c r="D36" s="17" t="s">
-        <v>466</v>
+        <v>465</v>
       </c>
     </row>
     <row r="37" spans="1:4">
@@ -3267,7 +3268,7 @@
         <v>102</v>
       </c>
       <c r="B45" s="17" t="s">
-        <v>464</v>
+        <v>463</v>
       </c>
       <c r="C45" s="16" t="s">
         <v>144</v>
@@ -3287,7 +3288,7 @@
         <v>147</v>
       </c>
       <c r="D46" s="17" t="s">
-        <v>464</v>
+        <v>463</v>
       </c>
     </row>
     <row r="47" spans="1:4">
@@ -3361,13 +3362,13 @@
         <v>102</v>
       </c>
       <c r="B54" s="17" t="s">
-        <v>464</v>
+        <v>463</v>
       </c>
       <c r="C54" s="16" t="s">
         <v>158</v>
       </c>
       <c r="D54" s="17" t="s">
-        <v>465</v>
+        <v>464</v>
       </c>
       <c r="E54" s="17">
         <v>200</v>
@@ -3384,7 +3385,7 @@
         <v>160</v>
       </c>
       <c r="D55" s="17" t="s">
-        <v>466</v>
+        <v>465</v>
       </c>
       <c r="E55" s="16"/>
     </row>
@@ -3458,7 +3459,7 @@
         <v>102</v>
       </c>
       <c r="B62" s="17" t="s">
-        <v>464</v>
+        <v>463</v>
       </c>
       <c r="C62" s="16" t="s">
         <v>165</v>
@@ -3478,7 +3479,7 @@
         <v>158</v>
       </c>
       <c r="D63" s="17" t="s">
-        <v>465</v>
+        <v>464</v>
       </c>
     </row>
     <row r="64" spans="1:5">
@@ -3558,7 +3559,7 @@
         <v>102</v>
       </c>
       <c r="B72" s="17" t="s">
-        <v>464</v>
+        <v>463</v>
       </c>
       <c r="C72" s="16" t="s">
         <v>103</v>
@@ -3604,7 +3605,7 @@
         <v>180</v>
       </c>
       <c r="D75" s="17" t="s">
-        <v>464</v>
+        <v>463</v>
       </c>
     </row>
     <row r="76" spans="1:4">
@@ -3648,13 +3649,13 @@
         <v>102</v>
       </c>
       <c r="B81" s="17" t="s">
-        <v>464</v>
+        <v>463</v>
       </c>
       <c r="C81" s="16" t="s">
         <v>102</v>
       </c>
       <c r="D81" s="17" t="s">
-        <v>464</v>
+        <v>463</v>
       </c>
     </row>
     <row r="82" spans="1:4">
@@ -3694,7 +3695,7 @@
         <v>191</v>
       </c>
       <c r="D84" s="17" t="s">
-        <v>465</v>
+        <v>464</v>
       </c>
     </row>
     <row r="85" spans="1:4">
@@ -3736,13 +3737,13 @@
         <v>102</v>
       </c>
       <c r="B90" s="17" t="s">
-        <v>464</v>
+        <v>463</v>
       </c>
       <c r="C90" s="16" t="s">
         <v>191</v>
       </c>
       <c r="D90" s="17" t="s">
-        <v>465</v>
+        <v>464</v>
       </c>
     </row>
     <row r="91" spans="1:4">
@@ -3792,7 +3793,7 @@
         <v>200</v>
       </c>
       <c r="D94" s="17" t="s">
-        <v>466</v>
+        <v>465</v>
       </c>
     </row>
     <row r="95" spans="1:4">
@@ -3882,7 +3883,7 @@
         <v>102</v>
       </c>
       <c r="B105" s="17" t="s">
-        <v>464</v>
+        <v>463</v>
       </c>
       <c r="C105" s="38" t="s">
         <v>231</v>
@@ -3938,7 +3939,7 @@
         <v>102</v>
       </c>
       <c r="D109" s="17" t="s">
-        <v>464</v>
+        <v>463</v>
       </c>
     </row>
     <row r="110" spans="1:4">
@@ -3948,7 +3949,7 @@
         <v>158</v>
       </c>
       <c r="D110" s="17" t="s">
-        <v>465</v>
+        <v>464</v>
       </c>
     </row>
     <row r="111" spans="1:4">
@@ -3968,7 +3969,7 @@
         <v>200</v>
       </c>
       <c r="D112" s="17" t="s">
-        <v>466</v>
+        <v>465</v>
       </c>
     </row>
     <row r="113" spans="1:4">
@@ -4030,7 +4031,7 @@
         <v>102</v>
       </c>
       <c r="B120" s="17" t="s">
-        <v>464</v>
+        <v>463</v>
       </c>
       <c r="C120" s="16" t="s">
         <v>236</v>
@@ -4050,7 +4051,7 @@
         <v>102</v>
       </c>
       <c r="D121" s="17" t="s">
-        <v>464</v>
+        <v>463</v>
       </c>
     </row>
     <row r="122" spans="1:4">
@@ -4064,7 +4065,7 @@
         <v>158</v>
       </c>
       <c r="D122" s="17" t="s">
-        <v>465</v>
+        <v>464</v>
       </c>
     </row>
     <row r="123" spans="1:4">
@@ -4088,7 +4089,7 @@
         <v>200</v>
       </c>
       <c r="D124" s="17" t="s">
-        <v>466</v>
+        <v>465</v>
       </c>
     </row>
     <row r="125" spans="1:4">
@@ -4170,13 +4171,13 @@
         <v>102</v>
       </c>
       <c r="B133" s="17" t="s">
-        <v>464</v>
+        <v>463</v>
       </c>
       <c r="C133" s="16" t="s">
         <v>102</v>
       </c>
       <c r="D133" s="17" t="s">
-        <v>464</v>
+        <v>463</v>
       </c>
     </row>
     <row r="134" spans="1:4">
@@ -4190,7 +4191,7 @@
         <v>158</v>
       </c>
       <c r="D134" s="17" t="s">
-        <v>465</v>
+        <v>464</v>
       </c>
     </row>
     <row r="135" spans="1:4">
@@ -4218,7 +4219,7 @@
         <v>200</v>
       </c>
       <c r="D136" s="17" t="s">
-        <v>466</v>
+        <v>465</v>
       </c>
     </row>
     <row r="137" spans="1:4">
@@ -4308,13 +4309,13 @@
         <v>102</v>
       </c>
       <c r="B146" s="17" t="s">
-        <v>464</v>
+        <v>463</v>
       </c>
       <c r="C146" s="16" t="s">
         <v>102</v>
       </c>
       <c r="D146" s="17" t="s">
-        <v>464</v>
+        <v>463</v>
       </c>
     </row>
     <row r="147" spans="1:4">
@@ -4328,7 +4329,7 @@
         <v>158</v>
       </c>
       <c r="D147" s="17" t="s">
-        <v>465</v>
+        <v>464</v>
       </c>
     </row>
     <row r="148" spans="1:4">
@@ -4442,13 +4443,13 @@
         <v>102</v>
       </c>
       <c r="B159" s="17" t="s">
-        <v>464</v>
+        <v>463</v>
       </c>
       <c r="C159" s="16" t="s">
         <v>102</v>
       </c>
       <c r="D159" s="17" t="s">
-        <v>464</v>
+        <v>463</v>
       </c>
     </row>
     <row r="160" spans="1:4">
@@ -4462,7 +4463,7 @@
         <v>158</v>
       </c>
       <c r="D160" s="17" t="s">
-        <v>465</v>
+        <v>464</v>
       </c>
     </row>
     <row r="161" spans="1:4">
@@ -4490,7 +4491,7 @@
         <v>277</v>
       </c>
       <c r="D162" s="17" t="s">
-        <v>466</v>
+        <v>465</v>
       </c>
     </row>
     <row r="163" spans="1:4">
@@ -4675,19 +4676,19 @@
         <v>40</v>
       </c>
       <c r="F2" s="3" t="s">
-        <v>464</v>
+        <v>463</v>
       </c>
       <c r="G2" s="3" t="s">
         <v>41</v>
       </c>
       <c r="H2" s="3" t="s">
+        <v>463</v>
+      </c>
+      <c r="I2" s="3" t="s">
         <v>464</v>
       </c>
-      <c r="I2" s="3" t="s">
+      <c r="J2" s="3" t="s">
         <v>465</v>
-      </c>
-      <c r="J2" s="3" t="s">
-        <v>466</v>
       </c>
     </row>
     <row r="3" spans="1:10">
@@ -4911,7 +4912,7 @@
     </row>
     <row r="31" spans="1:7">
       <c r="A31" s="15" t="s">
-        <v>455</v>
+        <v>454</v>
       </c>
     </row>
     <row r="33" spans="1:9">
@@ -4927,7 +4928,7 @@
         <v>314</v>
       </c>
       <c r="C34" s="3" t="s">
-        <v>454</v>
+        <v>453</v>
       </c>
       <c r="D34" s="15" t="s">
         <v>315</v>
@@ -5071,7 +5072,7 @@
         <v>349</v>
       </c>
       <c r="C46" s="15" t="s">
-        <v>453</v>
+        <v>452</v>
       </c>
       <c r="D46" s="15" t="s">
         <v>350</v>

--- a/TestData.xlsx
+++ b/TestData.xlsx
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="818" uniqueCount="476">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="818" uniqueCount="475">
   <si>
     <t>TEST CASE NAME</t>
   </si>
@@ -1394,6 +1394,9 @@
     <t>Lesson Limited multiple card lesson 3</t>
   </si>
   <si>
+    <t>testadmin@grovo.com</t>
+  </si>
+  <si>
     <t>Title for Introduce A Topics</t>
   </si>
   <si>
@@ -1403,74 +1406,68 @@
     <t>TitleForExplainAConcepts</t>
   </si>
   <si>
-    <t>aleeex5@grovo.com</t>
-  </si>
-  <si>
-    <t>jameees5@grovo.com</t>
-  </si>
-  <si>
-    <t>jiooob5@grovo.com</t>
-  </si>
-  <si>
-    <t>leonnna5@grovo.com</t>
-  </si>
-  <si>
-    <t>Empl#15</t>
-  </si>
-  <si>
-    <t>Empl#26</t>
-  </si>
-  <si>
-    <t>Empl#37</t>
-  </si>
-  <si>
-    <t>Empl#48</t>
-  </si>
-  <si>
-    <t>/home/ubuntu/Grovo_Automation/TestData/test.jpg</t>
-  </si>
-  <si>
-    <t>/home/ubuntu/Grovo_Automation/TestData/test.wmv</t>
-  </si>
-  <si>
-    <t>/home/ubuntu/Grovo_Automation/TestData/test.pdf</t>
-  </si>
-  <si>
-    <t>Aleeex5</t>
-  </si>
-  <si>
-    <t>Jameees5</t>
-  </si>
-  <si>
-    <t>Jibbbbi5</t>
-  </si>
-  <si>
-    <t>Leooon5</t>
-  </si>
-  <si>
-    <t>Matheeew5</t>
-  </si>
-  <si>
-    <t>kattlllle5</t>
-  </si>
-  <si>
-    <t>Tesssst5</t>
-  </si>
-  <si>
-    <t>Ageeee5</t>
-  </si>
-  <si>
-    <t>https://offshore-qa-playpen.grovo.net</t>
-  </si>
-  <si>
-    <t>jibim@grovo.com</t>
+    <t>/Users/automation/Desktop/TestCases/test.jpg</t>
+  </si>
+  <si>
+    <t>/Users/automation/Desktop/TestCases/test.wmv</t>
+  </si>
+  <si>
+    <t>/Users/automation/Desktop/TestCases/test.pdf</t>
+  </si>
+  <si>
+    <t>Aleeex7</t>
+  </si>
+  <si>
+    <t>Jameees7</t>
+  </si>
+  <si>
+    <t>Jibbbbi7</t>
+  </si>
+  <si>
+    <t>Leooon7</t>
+  </si>
+  <si>
+    <t>Matheeew7</t>
+  </si>
+  <si>
+    <t>kattlllle7</t>
+  </si>
+  <si>
+    <t>Tesssst7</t>
+  </si>
+  <si>
+    <t>Ageeee7</t>
+  </si>
+  <si>
+    <t>aleeex7@grovo.com</t>
+  </si>
+  <si>
+    <t>jameees7@grovo.com</t>
+  </si>
+  <si>
+    <t>jiooob7@grovo.com</t>
+  </si>
+  <si>
+    <t>leonnna7@grovo.com</t>
+  </si>
+  <si>
+    <t>Empl#17</t>
+  </si>
+  <si>
+    <t>Empl#28</t>
+  </si>
+  <si>
+    <t>Empl#39</t>
+  </si>
+  <si>
+    <t>Empl#40</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="18" x14ac:knownFonts="1">
+  <fonts count="19" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color rgb="FF000000"/>
@@ -1588,6 +1585,10 @@
       <color rgb="FFFF0000"/>
       <name val="Arial"/>
       <family val="2"/>
+    </font>
+    <font>
+      <sz val="14"/>
+      <name val="Calibri"/>
     </font>
   </fonts>
   <fills count="8">
@@ -1795,6 +1796,7 @@
     </xf>
     <xf numFmtId="0" fontId="16" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="15" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="11" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
@@ -1816,7 +1818,6 @@
     <xf numFmtId="0" fontId="11" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="1" applyBorder="1" applyProtection="1"/>
   </cellXfs>
   <cellStyles count="4">
     <cellStyle name="Followed Hyperlink" xfId="3" builtinId="9" hidden="1"/>
@@ -2222,7 +2223,7 @@
   <dimension ref="A1:AMK6"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="77" zoomScaleNormal="77" zoomScalePageLayoutView="77" workbookViewId="0">
-      <selection activeCell="D10" sqref="D10"/>
+      <selection activeCell="B4" sqref="B4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="20" x14ac:dyDescent="0"/>
@@ -2254,7 +2255,7 @@
         <v>4</v>
       </c>
       <c r="B2" s="12" t="s">
-        <v>474</v>
+        <v>5</v>
       </c>
       <c r="C2" s="11"/>
       <c r="D2" s="11"/>
@@ -2269,8 +2270,8 @@
       <c r="A4" s="11" t="s">
         <v>6</v>
       </c>
-      <c r="B4" s="44" t="s">
-        <v>475</v>
+      <c r="B4" s="12" t="s">
+        <v>452</v>
       </c>
       <c r="C4" s="12" t="s">
         <v>7</v>
@@ -2291,9 +2292,9 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="B2" r:id="rId1" display="https://optislabs-playpen.grovo.com/"/>
-    <hyperlink ref="C4" r:id="rId2"/>
-    <hyperlink ref="B4" r:id="rId3"/>
+    <hyperlink ref="B2" r:id="rId1"/>
+    <hyperlink ref="B4" r:id="rId2" display="jibim@grovo.com"/>
+    <hyperlink ref="C4" r:id="rId3"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.51180555555555496" footer="0.51180555555555496"/>
   <extLst>
@@ -2309,7 +2310,7 @@
   <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D19" sqref="D19"/>
+      <selection activeCell="E13" sqref="E13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="38" defaultRowHeight="18" x14ac:dyDescent="0"/>
@@ -2355,16 +2356,16 @@
         <v>16</v>
       </c>
       <c r="B2" s="3" t="s">
-        <v>466</v>
+        <v>459</v>
       </c>
       <c r="C2" s="3" t="s">
-        <v>470</v>
+        <v>463</v>
       </c>
       <c r="D2" s="14" t="s">
-        <v>455</v>
+        <v>467</v>
       </c>
       <c r="E2" s="3" t="s">
-        <v>459</v>
+        <v>471</v>
       </c>
       <c r="G2" s="4" t="s">
         <v>7</v>
@@ -2378,16 +2379,16 @@
         <v>17</v>
       </c>
       <c r="B3" s="3" t="s">
-        <v>467</v>
+        <v>460</v>
       </c>
       <c r="C3" s="3" t="s">
-        <v>471</v>
+        <v>464</v>
       </c>
       <c r="D3" s="14" t="s">
-        <v>456</v>
-      </c>
-      <c r="E3" s="3" t="s">
-        <v>460</v>
+        <v>468</v>
+      </c>
+      <c r="E3" s="37" t="s">
+        <v>472</v>
       </c>
       <c r="F3" s="3" t="s">
         <v>18</v>
@@ -2404,16 +2405,16 @@
         <v>19</v>
       </c>
       <c r="B4" s="3" t="s">
-        <v>468</v>
+        <v>461</v>
       </c>
       <c r="C4" s="3" t="s">
-        <v>472</v>
+        <v>465</v>
       </c>
       <c r="D4" s="14" t="s">
-        <v>457</v>
+        <v>469</v>
       </c>
       <c r="E4" s="3" t="s">
-        <v>461</v>
+        <v>473</v>
       </c>
       <c r="F4" s="3" t="s">
         <v>20</v>
@@ -2430,16 +2431,16 @@
         <v>21</v>
       </c>
       <c r="B5" s="3" t="s">
-        <v>469</v>
+        <v>462</v>
       </c>
       <c r="C5" s="3" t="s">
-        <v>473</v>
+        <v>466</v>
       </c>
       <c r="D5" s="14" t="s">
-        <v>458</v>
+        <v>470</v>
       </c>
       <c r="E5" s="3" t="s">
-        <v>462</v>
+        <v>474</v>
       </c>
       <c r="F5" s="3" t="s">
         <v>22</v>
@@ -2479,7 +2480,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D15"/>
   <sheetViews>
-    <sheetView topLeftCell="A2" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="C24" sqref="C24"/>
     </sheetView>
   </sheetViews>
@@ -2647,8 +2648,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AMK103"/>
   <sheetViews>
-    <sheetView topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="C18" sqref="C18"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B16" sqref="B16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="60" defaultRowHeight="18" x14ac:dyDescent="0"/>
@@ -2660,10 +2661,10 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:2" ht="15" customHeight="1">
-      <c r="A1" s="38" t="s">
+      <c r="A1" s="39" t="s">
         <v>207</v>
       </c>
-      <c r="B1" s="39"/>
+      <c r="B1" s="40"/>
     </row>
     <row r="2" spans="1:2">
       <c r="A2" s="16" t="s">
@@ -2686,10 +2687,10 @@
       <c r="B4" s="17"/>
     </row>
     <row r="6" spans="1:2" ht="14" customHeight="1">
-      <c r="A6" s="38" t="s">
+      <c r="A6" s="39" t="s">
         <v>211</v>
       </c>
-      <c r="B6" s="39"/>
+      <c r="B6" s="40"/>
     </row>
     <row r="7" spans="1:2">
       <c r="A7" s="16" t="s">
@@ -2736,10 +2737,10 @@
       <c r="B12" s="17"/>
     </row>
     <row r="14" spans="1:2">
-      <c r="A14" s="37" t="s">
+      <c r="A14" s="38" t="s">
         <v>220</v>
       </c>
-      <c r="B14" s="37"/>
+      <c r="B14" s="38"/>
     </row>
     <row r="15" spans="1:2">
       <c r="A15" s="16" t="s">
@@ -2754,7 +2755,7 @@
         <v>222</v>
       </c>
       <c r="B16" s="17" t="s">
-        <v>463</v>
+        <v>456</v>
       </c>
     </row>
     <row r="17" spans="1:2">
@@ -2766,10 +2767,10 @@
       <c r="B18" s="17"/>
     </row>
     <row r="20" spans="1:2">
-      <c r="A20" s="37" t="s">
+      <c r="A20" s="38" t="s">
         <v>223</v>
       </c>
-      <c r="B20" s="37"/>
+      <c r="B20" s="38"/>
     </row>
     <row r="21" spans="1:2">
       <c r="A21" s="16" t="s">
@@ -2784,7 +2785,7 @@
         <v>225</v>
       </c>
       <c r="B22" s="17" t="s">
-        <v>464</v>
+        <v>457</v>
       </c>
     </row>
     <row r="23" spans="1:2">
@@ -2800,10 +2801,10 @@
       <c r="B24" s="17"/>
     </row>
     <row r="26" spans="1:2" ht="15" customHeight="1">
-      <c r="A26" s="37" t="s">
+      <c r="A26" s="38" t="s">
         <v>227</v>
       </c>
-      <c r="B26" s="37"/>
+      <c r="B26" s="38"/>
     </row>
     <row r="27" spans="1:2">
       <c r="A27" s="16" t="s">
@@ -2818,7 +2819,7 @@
         <v>225</v>
       </c>
       <c r="B28" s="17" t="s">
-        <v>465</v>
+        <v>458</v>
       </c>
     </row>
     <row r="29" spans="1:2">
@@ -2863,7 +2864,7 @@
   <dimension ref="A1:E167"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D9" sqref="D9"/>
+      <selection activeCell="F11" sqref="F11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="18" x14ac:dyDescent="0"/>
@@ -2878,14 +2879,14 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:4" ht="14" customHeight="1">
-      <c r="A1" s="38" t="s">
+      <c r="A1" s="39" t="s">
         <v>97</v>
       </c>
-      <c r="B1" s="39"/>
-      <c r="C1" s="38" t="s">
+      <c r="B1" s="40"/>
+      <c r="C1" s="39" t="s">
         <v>98</v>
       </c>
-      <c r="D1" s="39"/>
+      <c r="D1" s="40"/>
     </row>
     <row r="2" spans="1:4">
       <c r="A2" s="16" t="s">
@@ -2906,7 +2907,7 @@
         <v>102</v>
       </c>
       <c r="B3" s="17" t="s">
-        <v>463</v>
+        <v>456</v>
       </c>
       <c r="C3" s="16" t="s">
         <v>103</v>
@@ -2944,14 +2945,14 @@
       <c r="B7" s="16"/>
     </row>
     <row r="10" spans="1:4" ht="14" customHeight="1">
-      <c r="A10" s="38" t="s">
+      <c r="A10" s="39" t="s">
         <v>111</v>
       </c>
-      <c r="B10" s="39"/>
-      <c r="C10" s="38" t="s">
+      <c r="B10" s="40"/>
+      <c r="C10" s="39" t="s">
         <v>98</v>
       </c>
-      <c r="D10" s="39"/>
+      <c r="D10" s="40"/>
     </row>
     <row r="11" spans="1:4">
       <c r="A11" s="16" t="s">
@@ -2972,7 +2973,7 @@
         <v>102</v>
       </c>
       <c r="B12" s="17" t="s">
-        <v>463</v>
+        <v>456</v>
       </c>
       <c r="C12" s="16" t="s">
         <v>114</v>
@@ -3022,14 +3023,14 @@
       <c r="B16" s="16"/>
     </row>
     <row r="18" spans="1:4" ht="14" customHeight="1">
-      <c r="A18" s="38" t="s">
+      <c r="A18" s="39" t="s">
         <v>121</v>
       </c>
-      <c r="B18" s="39"/>
-      <c r="C18" s="38" t="s">
+      <c r="B18" s="40"/>
+      <c r="C18" s="39" t="s">
         <v>98</v>
       </c>
-      <c r="D18" s="39"/>
+      <c r="D18" s="40"/>
     </row>
     <row r="19" spans="1:4">
       <c r="A19" s="16" t="s">
@@ -3050,13 +3051,13 @@
         <v>102</v>
       </c>
       <c r="B20" s="17" t="s">
-        <v>463</v>
+        <v>456</v>
       </c>
       <c r="C20" s="18" t="s">
         <v>124</v>
       </c>
       <c r="D20" s="19" t="s">
-        <v>463</v>
+        <v>456</v>
       </c>
     </row>
     <row r="21" spans="1:4">
@@ -3092,14 +3093,14 @@
       <c r="B24" s="16"/>
     </row>
     <row r="26" spans="1:4" ht="14" customHeight="1">
-      <c r="A26" s="38" t="s">
+      <c r="A26" s="39" t="s">
         <v>127</v>
       </c>
-      <c r="B26" s="39"/>
-      <c r="C26" s="38" t="s">
+      <c r="B26" s="40"/>
+      <c r="C26" s="39" t="s">
         <v>98</v>
       </c>
-      <c r="D26" s="39"/>
+      <c r="D26" s="40"/>
     </row>
     <row r="27" spans="1:4">
       <c r="A27" s="16" t="s">
@@ -3120,13 +3121,13 @@
         <v>102</v>
       </c>
       <c r="B28" s="17" t="s">
-        <v>463</v>
+        <v>456</v>
       </c>
       <c r="C28" s="16" t="s">
         <v>130</v>
       </c>
       <c r="D28" s="17" t="s">
-        <v>464</v>
+        <v>457</v>
       </c>
     </row>
     <row r="29" spans="1:4">
@@ -3166,14 +3167,14 @@
       <c r="B32" s="16"/>
     </row>
     <row r="34" spans="1:4" ht="14" customHeight="1">
-      <c r="A34" s="38" t="s">
+      <c r="A34" s="39" t="s">
         <v>134</v>
       </c>
-      <c r="B34" s="39"/>
-      <c r="C34" s="38" t="s">
+      <c r="B34" s="40"/>
+      <c r="C34" s="39" t="s">
         <v>98</v>
       </c>
-      <c r="D34" s="39"/>
+      <c r="D34" s="40"/>
     </row>
     <row r="35" spans="1:4">
       <c r="A35" s="16" t="s">
@@ -3194,13 +3195,13 @@
         <v>102</v>
       </c>
       <c r="B36" s="17" t="s">
-        <v>463</v>
+        <v>456</v>
       </c>
       <c r="C36" s="16" t="s">
         <v>137</v>
       </c>
       <c r="D36" s="17" t="s">
-        <v>465</v>
+        <v>458</v>
       </c>
     </row>
     <row r="37" spans="1:4">
@@ -3240,14 +3241,14 @@
       <c r="B40" s="16"/>
     </row>
     <row r="43" spans="1:4" ht="14" customHeight="1">
-      <c r="A43" s="38" t="s">
+      <c r="A43" s="39" t="s">
         <v>141</v>
       </c>
-      <c r="B43" s="39"/>
-      <c r="C43" s="38" t="s">
+      <c r="B43" s="40"/>
+      <c r="C43" s="39" t="s">
         <v>98</v>
       </c>
-      <c r="D43" s="39"/>
+      <c r="D43" s="40"/>
     </row>
     <row r="44" spans="1:4">
       <c r="A44" s="16" t="s">
@@ -3268,7 +3269,7 @@
         <v>102</v>
       </c>
       <c r="B45" s="17" t="s">
-        <v>463</v>
+        <v>456</v>
       </c>
       <c r="C45" s="16" t="s">
         <v>144</v>
@@ -3288,7 +3289,7 @@
         <v>147</v>
       </c>
       <c r="D46" s="17" t="s">
-        <v>463</v>
+        <v>456</v>
       </c>
     </row>
     <row r="47" spans="1:4">
@@ -3330,14 +3331,14 @@
       </c>
     </row>
     <row r="52" spans="1:5" ht="14" customHeight="1">
-      <c r="A52" s="38" t="s">
+      <c r="A52" s="39" t="s">
         <v>154</v>
       </c>
-      <c r="B52" s="39"/>
-      <c r="C52" s="38" t="s">
+      <c r="B52" s="40"/>
+      <c r="C52" s="39" t="s">
         <v>98</v>
       </c>
-      <c r="D52" s="39"/>
+      <c r="D52" s="40"/>
       <c r="E52" s="16"/>
     </row>
     <row r="53" spans="1:5" ht="54">
@@ -3362,13 +3363,13 @@
         <v>102</v>
       </c>
       <c r="B54" s="17" t="s">
-        <v>463</v>
+        <v>456</v>
       </c>
       <c r="C54" s="16" t="s">
         <v>158</v>
       </c>
       <c r="D54" s="17" t="s">
-        <v>464</v>
+        <v>457</v>
       </c>
       <c r="E54" s="17">
         <v>200</v>
@@ -3385,7 +3386,7 @@
         <v>160</v>
       </c>
       <c r="D55" s="17" t="s">
-        <v>465</v>
+        <v>458</v>
       </c>
       <c r="E55" s="16"/>
     </row>
@@ -3431,14 +3432,14 @@
       <c r="E58" s="16"/>
     </row>
     <row r="60" spans="1:5" ht="14" customHeight="1">
-      <c r="A60" s="38" t="s">
+      <c r="A60" s="39" t="s">
         <v>162</v>
       </c>
-      <c r="B60" s="39"/>
-      <c r="C60" s="38" t="s">
+      <c r="B60" s="40"/>
+      <c r="C60" s="39" t="s">
         <v>98</v>
       </c>
-      <c r="D60" s="39"/>
+      <c r="D60" s="40"/>
     </row>
     <row r="61" spans="1:5">
       <c r="A61" s="16" t="s">
@@ -3459,7 +3460,7 @@
         <v>102</v>
       </c>
       <c r="B62" s="17" t="s">
-        <v>463</v>
+        <v>456</v>
       </c>
       <c r="C62" s="16" t="s">
         <v>165</v>
@@ -3479,7 +3480,7 @@
         <v>158</v>
       </c>
       <c r="D63" s="17" t="s">
-        <v>464</v>
+        <v>457</v>
       </c>
     </row>
     <row r="64" spans="1:5">
@@ -3531,14 +3532,14 @@
       </c>
     </row>
     <row r="70" spans="1:4" ht="14" customHeight="1">
-      <c r="A70" s="41" t="s">
+      <c r="A70" s="42" t="s">
         <v>169</v>
       </c>
-      <c r="B70" s="42"/>
-      <c r="C70" s="38" t="s">
+      <c r="B70" s="43"/>
+      <c r="C70" s="39" t="s">
         <v>170</v>
       </c>
-      <c r="D70" s="39"/>
+      <c r="D70" s="40"/>
     </row>
     <row r="71" spans="1:4">
       <c r="A71" s="16" t="s">
@@ -3559,7 +3560,7 @@
         <v>102</v>
       </c>
       <c r="B72" s="17" t="s">
-        <v>463</v>
+        <v>456</v>
       </c>
       <c r="C72" s="16" t="s">
         <v>103</v>
@@ -3575,10 +3576,10 @@
       <c r="B73" s="17" t="s">
         <v>175</v>
       </c>
-      <c r="C73" s="38" t="s">
+      <c r="C73" s="39" t="s">
         <v>176</v>
       </c>
-      <c r="D73" s="39"/>
+      <c r="D73" s="40"/>
     </row>
     <row r="74" spans="1:4">
       <c r="A74" s="16" t="s">
@@ -3605,7 +3606,7 @@
         <v>180</v>
       </c>
       <c r="D75" s="17" t="s">
-        <v>463</v>
+        <v>456</v>
       </c>
     </row>
     <row r="76" spans="1:4">
@@ -3621,14 +3622,14 @@
       <c r="D77" s="16"/>
     </row>
     <row r="79" spans="1:4" ht="14" customHeight="1">
-      <c r="A79" s="41" t="s">
+      <c r="A79" s="42" t="s">
         <v>181</v>
       </c>
-      <c r="B79" s="42"/>
-      <c r="C79" s="38" t="s">
+      <c r="B79" s="43"/>
+      <c r="C79" s="39" t="s">
         <v>182</v>
       </c>
-      <c r="D79" s="39"/>
+      <c r="D79" s="40"/>
     </row>
     <row r="80" spans="1:4">
       <c r="A80" s="16" t="s">
@@ -3649,13 +3650,13 @@
         <v>102</v>
       </c>
       <c r="B81" s="17" t="s">
-        <v>463</v>
+        <v>456</v>
       </c>
       <c r="C81" s="16" t="s">
         <v>102</v>
       </c>
       <c r="D81" s="17" t="s">
-        <v>463</v>
+        <v>456</v>
       </c>
     </row>
     <row r="82" spans="1:4">
@@ -3665,10 +3666,10 @@
       <c r="B82" s="17" t="s">
         <v>186</v>
       </c>
-      <c r="C82" s="38" t="s">
+      <c r="C82" s="39" t="s">
         <v>187</v>
       </c>
-      <c r="D82" s="39"/>
+      <c r="D82" s="40"/>
     </row>
     <row r="83" spans="1:4">
       <c r="A83" s="16" t="s">
@@ -3695,7 +3696,7 @@
         <v>191</v>
       </c>
       <c r="D84" s="17" t="s">
-        <v>464</v>
+        <v>457</v>
       </c>
     </row>
     <row r="85" spans="1:4">
@@ -3709,14 +3710,14 @@
       </c>
     </row>
     <row r="88" spans="1:4" ht="14" customHeight="1">
-      <c r="A88" s="40" t="s">
+      <c r="A88" s="41" t="s">
         <v>192</v>
       </c>
-      <c r="B88" s="40"/>
-      <c r="C88" s="37" t="s">
+      <c r="B88" s="41"/>
+      <c r="C88" s="38" t="s">
         <v>187</v>
       </c>
-      <c r="D88" s="37"/>
+      <c r="D88" s="38"/>
     </row>
     <row r="89" spans="1:4">
       <c r="A89" s="16" t="s">
@@ -3737,13 +3738,13 @@
         <v>102</v>
       </c>
       <c r="B90" s="17" t="s">
-        <v>463</v>
+        <v>456</v>
       </c>
       <c r="C90" s="16" t="s">
         <v>191</v>
       </c>
       <c r="D90" s="17" t="s">
-        <v>464</v>
+        <v>457</v>
       </c>
     </row>
     <row r="91" spans="1:4">
@@ -3767,10 +3768,10 @@
       <c r="B92" s="17" t="s">
         <v>148</v>
       </c>
-      <c r="C92" s="37" t="s">
+      <c r="C92" s="38" t="s">
         <v>196</v>
       </c>
-      <c r="D92" s="37"/>
+      <c r="D92" s="38"/>
     </row>
     <row r="93" spans="1:4" ht="36">
       <c r="A93" s="16" t="s">
@@ -3793,7 +3794,7 @@
         <v>200</v>
       </c>
       <c r="D94" s="17" t="s">
-        <v>465</v>
+        <v>458</v>
       </c>
     </row>
     <row r="95" spans="1:4">
@@ -3809,10 +3810,10 @@
     <row r="96" spans="1:4">
       <c r="A96" s="16"/>
       <c r="B96" s="16"/>
-      <c r="C96" s="37" t="s">
+      <c r="C96" s="38" t="s">
         <v>201</v>
       </c>
-      <c r="D96" s="37"/>
+      <c r="D96" s="38"/>
     </row>
     <row r="97" spans="1:4">
       <c r="A97" s="16"/>
@@ -3855,14 +3856,14 @@
       </c>
     </row>
     <row r="103" spans="1:4" ht="14" customHeight="1">
-      <c r="A103" s="40" t="s">
+      <c r="A103" s="41" t="s">
         <v>204</v>
       </c>
-      <c r="B103" s="40"/>
-      <c r="C103" s="37" t="s">
+      <c r="B103" s="41"/>
+      <c r="C103" s="38" t="s">
         <v>229</v>
       </c>
-      <c r="D103" s="37"/>
+      <c r="D103" s="38"/>
     </row>
     <row r="104" spans="1:4">
       <c r="A104" s="16" t="s">
@@ -3883,12 +3884,12 @@
         <v>102</v>
       </c>
       <c r="B105" s="17" t="s">
-        <v>463</v>
-      </c>
-      <c r="C105" s="38" t="s">
+        <v>456</v>
+      </c>
+      <c r="C105" s="39" t="s">
         <v>231</v>
       </c>
-      <c r="D105" s="39"/>
+      <c r="D105" s="40"/>
     </row>
     <row r="106" spans="1:4" ht="36">
       <c r="A106" s="16" t="s">
@@ -3939,7 +3940,7 @@
         <v>102</v>
       </c>
       <c r="D109" s="17" t="s">
-        <v>463</v>
+        <v>456</v>
       </c>
     </row>
     <row r="110" spans="1:4">
@@ -3949,7 +3950,7 @@
         <v>158</v>
       </c>
       <c r="D110" s="17" t="s">
-        <v>464</v>
+        <v>457</v>
       </c>
     </row>
     <row r="111" spans="1:4">
@@ -3969,7 +3970,7 @@
         <v>200</v>
       </c>
       <c r="D112" s="17" t="s">
-        <v>465</v>
+        <v>458</v>
       </c>
     </row>
     <row r="113" spans="1:4">
@@ -4003,14 +4004,14 @@
       </c>
     </row>
     <row r="118" spans="1:4">
-      <c r="A118" s="40" t="s">
+      <c r="A118" s="41" t="s">
         <v>238</v>
       </c>
-      <c r="B118" s="40"/>
-      <c r="C118" s="37" t="s">
+      <c r="B118" s="41"/>
+      <c r="C118" s="38" t="s">
         <v>239</v>
       </c>
-      <c r="D118" s="37"/>
+      <c r="D118" s="38"/>
     </row>
     <row r="119" spans="1:4">
       <c r="A119" s="16" t="s">
@@ -4031,7 +4032,7 @@
         <v>102</v>
       </c>
       <c r="B120" s="17" t="s">
-        <v>463</v>
+        <v>456</v>
       </c>
       <c r="C120" s="16" t="s">
         <v>236</v>
@@ -4051,7 +4052,7 @@
         <v>102</v>
       </c>
       <c r="D121" s="17" t="s">
-        <v>463</v>
+        <v>456</v>
       </c>
     </row>
     <row r="122" spans="1:4">
@@ -4065,7 +4066,7 @@
         <v>158</v>
       </c>
       <c r="D122" s="17" t="s">
-        <v>464</v>
+        <v>457</v>
       </c>
     </row>
     <row r="123" spans="1:4">
@@ -4089,14 +4090,14 @@
         <v>200</v>
       </c>
       <c r="D124" s="17" t="s">
-        <v>465</v>
+        <v>458</v>
       </c>
     </row>
     <row r="125" spans="1:4">
-      <c r="A125" s="43" t="s">
+      <c r="A125" s="44" t="s">
         <v>244</v>
       </c>
-      <c r="B125" s="39"/>
+      <c r="B125" s="40"/>
       <c r="C125" s="16" t="s">
         <v>24</v>
       </c>
@@ -4143,14 +4144,14 @@
       <c r="D128" s="17"/>
     </row>
     <row r="131" spans="1:4">
-      <c r="A131" s="40" t="s">
+      <c r="A131" s="41" t="s">
         <v>249</v>
       </c>
-      <c r="B131" s="40"/>
-      <c r="C131" s="37" t="s">
+      <c r="B131" s="41"/>
+      <c r="C131" s="38" t="s">
         <v>250</v>
       </c>
-      <c r="D131" s="37"/>
+      <c r="D131" s="38"/>
     </row>
     <row r="132" spans="1:4">
       <c r="A132" s="16" t="s">
@@ -4171,13 +4172,13 @@
         <v>102</v>
       </c>
       <c r="B133" s="17" t="s">
-        <v>463</v>
+        <v>456</v>
       </c>
       <c r="C133" s="16" t="s">
         <v>102</v>
       </c>
       <c r="D133" s="17" t="s">
-        <v>463</v>
+        <v>456</v>
       </c>
     </row>
     <row r="134" spans="1:4">
@@ -4191,7 +4192,7 @@
         <v>158</v>
       </c>
       <c r="D134" s="17" t="s">
-        <v>464</v>
+        <v>457</v>
       </c>
     </row>
     <row r="135" spans="1:4">
@@ -4219,7 +4220,7 @@
         <v>200</v>
       </c>
       <c r="D136" s="17" t="s">
-        <v>465</v>
+        <v>458</v>
       </c>
     </row>
     <row r="137" spans="1:4">
@@ -4281,14 +4282,14 @@
       <c r="D141" s="16"/>
     </row>
     <row r="144" spans="1:4">
-      <c r="A144" s="40" t="s">
+      <c r="A144" s="41" t="s">
         <v>262</v>
       </c>
-      <c r="B144" s="40"/>
-      <c r="C144" s="37" t="s">
+      <c r="B144" s="41"/>
+      <c r="C144" s="38" t="s">
         <v>250</v>
       </c>
-      <c r="D144" s="37"/>
+      <c r="D144" s="38"/>
     </row>
     <row r="145" spans="1:4">
       <c r="A145" s="16" t="s">
@@ -4309,13 +4310,13 @@
         <v>102</v>
       </c>
       <c r="B146" s="17" t="s">
-        <v>463</v>
+        <v>456</v>
       </c>
       <c r="C146" s="16" t="s">
         <v>102</v>
       </c>
       <c r="D146" s="17" t="s">
-        <v>463</v>
+        <v>456</v>
       </c>
     </row>
     <row r="147" spans="1:4">
@@ -4329,7 +4330,7 @@
         <v>158</v>
       </c>
       <c r="D147" s="17" t="s">
-        <v>464</v>
+        <v>457</v>
       </c>
     </row>
     <row r="148" spans="1:4">
@@ -4415,14 +4416,14 @@
       <c r="D154" s="16"/>
     </row>
     <row r="157" spans="1:4">
-      <c r="A157" s="40" t="s">
+      <c r="A157" s="41" t="s">
         <v>273</v>
       </c>
-      <c r="B157" s="40"/>
-      <c r="C157" s="37" t="s">
+      <c r="B157" s="41"/>
+      <c r="C157" s="38" t="s">
         <v>250</v>
       </c>
-      <c r="D157" s="37"/>
+      <c r="D157" s="38"/>
     </row>
     <row r="158" spans="1:4">
       <c r="A158" s="16" t="s">
@@ -4443,13 +4444,13 @@
         <v>102</v>
       </c>
       <c r="B159" s="17" t="s">
-        <v>463</v>
+        <v>456</v>
       </c>
       <c r="C159" s="16" t="s">
         <v>102</v>
       </c>
       <c r="D159" s="17" t="s">
-        <v>463</v>
+        <v>456</v>
       </c>
     </row>
     <row r="160" spans="1:4">
@@ -4463,7 +4464,7 @@
         <v>158</v>
       </c>
       <c r="D160" s="17" t="s">
-        <v>464</v>
+        <v>457</v>
       </c>
     </row>
     <row r="161" spans="1:4">
@@ -4491,7 +4492,7 @@
         <v>277</v>
       </c>
       <c r="D162" s="17" t="s">
-        <v>465</v>
+        <v>458</v>
       </c>
     </row>
     <row r="163" spans="1:4">
@@ -4609,7 +4610,7 @@
   <dimension ref="A1:J52"/>
   <sheetViews>
     <sheetView topLeftCell="A29" workbookViewId="0">
-      <selection activeCell="A31" sqref="A31"/>
+      <selection activeCell="D30" sqref="D30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="18" x14ac:dyDescent="0"/>
@@ -4676,19 +4677,19 @@
         <v>40</v>
       </c>
       <c r="F2" s="3" t="s">
-        <v>463</v>
+        <v>456</v>
       </c>
       <c r="G2" s="3" t="s">
         <v>41</v>
       </c>
       <c r="H2" s="3" t="s">
-        <v>463</v>
+        <v>456</v>
       </c>
       <c r="I2" s="3" t="s">
-        <v>464</v>
+        <v>457</v>
       </c>
       <c r="J2" s="3" t="s">
-        <v>465</v>
+        <v>458</v>
       </c>
     </row>
     <row r="3" spans="1:10">
@@ -4912,7 +4913,7 @@
     </row>
     <row r="31" spans="1:7">
       <c r="A31" s="15" t="s">
-        <v>454</v>
+        <v>455</v>
       </c>
     </row>
     <row r="33" spans="1:9">
@@ -4928,7 +4929,7 @@
         <v>314</v>
       </c>
       <c r="C34" s="3" t="s">
-        <v>453</v>
+        <v>454</v>
       </c>
       <c r="D34" s="15" t="s">
         <v>315</v>
@@ -5072,7 +5073,7 @@
         <v>349</v>
       </c>
       <c r="C46" s="15" t="s">
-        <v>452</v>
+        <v>453</v>
       </c>
       <c r="D46" s="15" t="s">
         <v>350</v>
@@ -5200,8 +5201,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E35"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A7" sqref="A7"/>
+    <sheetView topLeftCell="C1" workbookViewId="0">
+      <selection activeCell="I10" sqref="I10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="18" x14ac:dyDescent="0"/>

--- a/TestData.xlsx
+++ b/TestData.xlsx
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="818" uniqueCount="475">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="818" uniqueCount="476">
   <si>
     <t>TEST CASE NAME</t>
   </si>
@@ -1394,9 +1394,6 @@
     <t>Lesson Limited multiple card lesson 3</t>
   </si>
   <si>
-    <t>testadmin@grovo.com</t>
-  </si>
-  <si>
     <t>Title for Introduce A Topics</t>
   </si>
   <si>
@@ -1406,68 +1403,74 @@
     <t>TitleForExplainAConcepts</t>
   </si>
   <si>
-    <t>/Users/automation/Desktop/TestCases/test.jpg</t>
-  </si>
-  <si>
-    <t>/Users/automation/Desktop/TestCases/test.wmv</t>
-  </si>
-  <si>
-    <t>/Users/automation/Desktop/TestCases/test.pdf</t>
-  </si>
-  <si>
-    <t>Aleeex7</t>
-  </si>
-  <si>
-    <t>Jameees7</t>
-  </si>
-  <si>
-    <t>Jibbbbi7</t>
-  </si>
-  <si>
-    <t>Leooon7</t>
-  </si>
-  <si>
-    <t>Matheeew7</t>
-  </si>
-  <si>
-    <t>kattlllle7</t>
-  </si>
-  <si>
-    <t>Tesssst7</t>
-  </si>
-  <si>
-    <t>Ageeee7</t>
-  </si>
-  <si>
-    <t>aleeex7@grovo.com</t>
-  </si>
-  <si>
-    <t>jameees7@grovo.com</t>
-  </si>
-  <si>
-    <t>jiooob7@grovo.com</t>
-  </si>
-  <si>
-    <t>leonnna7@grovo.com</t>
-  </si>
-  <si>
-    <t>Empl#17</t>
-  </si>
-  <si>
-    <t>Empl#28</t>
-  </si>
-  <si>
-    <t>Empl#39</t>
-  </si>
-  <si>
-    <t>Empl#40</t>
+    <t>aleeex5@grovo.com</t>
+  </si>
+  <si>
+    <t>jameees5@grovo.com</t>
+  </si>
+  <si>
+    <t>jiooob5@grovo.com</t>
+  </si>
+  <si>
+    <t>leonnna5@grovo.com</t>
+  </si>
+  <si>
+    <t>Empl#15</t>
+  </si>
+  <si>
+    <t>Empl#26</t>
+  </si>
+  <si>
+    <t>Empl#37</t>
+  </si>
+  <si>
+    <t>Empl#48</t>
+  </si>
+  <si>
+    <t>/home/ubuntu/Grovo_Automation/TestData/test.jpg</t>
+  </si>
+  <si>
+    <t>/home/ubuntu/Grovo_Automation/TestData/test.wmv</t>
+  </si>
+  <si>
+    <t>/home/ubuntu/Grovo_Automation/TestData/test.pdf</t>
+  </si>
+  <si>
+    <t>Aleeex5</t>
+  </si>
+  <si>
+    <t>Jameees5</t>
+  </si>
+  <si>
+    <t>Jibbbbi5</t>
+  </si>
+  <si>
+    <t>Leooon5</t>
+  </si>
+  <si>
+    <t>Matheeew5</t>
+  </si>
+  <si>
+    <t>kattlllle5</t>
+  </si>
+  <si>
+    <t>Tesssst5</t>
+  </si>
+  <si>
+    <t>Ageeee5</t>
+  </si>
+  <si>
+    <t>https://offshore-qa-playpen.grovo.net</t>
+  </si>
+  <si>
+    <t>jibim@grovo.com</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="19" x14ac:knownFonts="1">
+  <fonts count="18" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color rgb="FF000000"/>
@@ -1585,10 +1588,6 @@
       <color rgb="FFFF0000"/>
       <name val="Arial"/>
       <family val="2"/>
-    </font>
-    <font>
-      <sz val="14"/>
-      <name val="Calibri"/>
     </font>
   </fonts>
   <fills count="8">
@@ -1796,7 +1795,6 @@
     </xf>
     <xf numFmtId="0" fontId="16" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="15" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="11" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
@@ -1818,6 +1816,7 @@
     <xf numFmtId="0" fontId="11" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="1" applyBorder="1" applyProtection="1"/>
   </cellXfs>
   <cellStyles count="4">
     <cellStyle name="Followed Hyperlink" xfId="3" builtinId="9" hidden="1"/>
@@ -2223,7 +2222,7 @@
   <dimension ref="A1:AMK6"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="77" zoomScaleNormal="77" zoomScalePageLayoutView="77" workbookViewId="0">
-      <selection activeCell="B4" sqref="B4"/>
+      <selection activeCell="D10" sqref="D10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="20" x14ac:dyDescent="0"/>
@@ -2255,7 +2254,7 @@
         <v>4</v>
       </c>
       <c r="B2" s="12" t="s">
-        <v>5</v>
+        <v>474</v>
       </c>
       <c r="C2" s="11"/>
       <c r="D2" s="11"/>
@@ -2270,8 +2269,8 @@
       <c r="A4" s="11" t="s">
         <v>6</v>
       </c>
-      <c r="B4" s="12" t="s">
-        <v>452</v>
+      <c r="B4" s="44" t="s">
+        <v>475</v>
       </c>
       <c r="C4" s="12" t="s">
         <v>7</v>
@@ -2292,9 +2291,9 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="B2" r:id="rId1"/>
-    <hyperlink ref="B4" r:id="rId2" display="jibim@grovo.com"/>
-    <hyperlink ref="C4" r:id="rId3"/>
+    <hyperlink ref="B2" r:id="rId1" display="https://optislabs-playpen.grovo.com/"/>
+    <hyperlink ref="C4" r:id="rId2"/>
+    <hyperlink ref="B4" r:id="rId3"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.51180555555555496" footer="0.51180555555555496"/>
   <extLst>
@@ -2310,7 +2309,7 @@
   <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E13" sqref="E13"/>
+      <selection activeCell="D19" sqref="D19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="38" defaultRowHeight="18" x14ac:dyDescent="0"/>
@@ -2356,16 +2355,16 @@
         <v>16</v>
       </c>
       <c r="B2" s="3" t="s">
+        <v>466</v>
+      </c>
+      <c r="C2" s="3" t="s">
+        <v>470</v>
+      </c>
+      <c r="D2" s="14" t="s">
+        <v>455</v>
+      </c>
+      <c r="E2" s="3" t="s">
         <v>459</v>
-      </c>
-      <c r="C2" s="3" t="s">
-        <v>463</v>
-      </c>
-      <c r="D2" s="14" t="s">
-        <v>467</v>
-      </c>
-      <c r="E2" s="3" t="s">
-        <v>471</v>
       </c>
       <c r="G2" s="4" t="s">
         <v>7</v>
@@ -2379,16 +2378,16 @@
         <v>17</v>
       </c>
       <c r="B3" s="3" t="s">
+        <v>467</v>
+      </c>
+      <c r="C3" s="3" t="s">
+        <v>471</v>
+      </c>
+      <c r="D3" s="14" t="s">
+        <v>456</v>
+      </c>
+      <c r="E3" s="3" t="s">
         <v>460</v>
-      </c>
-      <c r="C3" s="3" t="s">
-        <v>464</v>
-      </c>
-      <c r="D3" s="14" t="s">
-        <v>468</v>
-      </c>
-      <c r="E3" s="37" t="s">
-        <v>472</v>
       </c>
       <c r="F3" s="3" t="s">
         <v>18</v>
@@ -2405,16 +2404,16 @@
         <v>19</v>
       </c>
       <c r="B4" s="3" t="s">
+        <v>468</v>
+      </c>
+      <c r="C4" s="3" t="s">
+        <v>472</v>
+      </c>
+      <c r="D4" s="14" t="s">
+        <v>457</v>
+      </c>
+      <c r="E4" s="3" t="s">
         <v>461</v>
-      </c>
-      <c r="C4" s="3" t="s">
-        <v>465</v>
-      </c>
-      <c r="D4" s="14" t="s">
-        <v>469</v>
-      </c>
-      <c r="E4" s="3" t="s">
-        <v>473</v>
       </c>
       <c r="F4" s="3" t="s">
         <v>20</v>
@@ -2431,16 +2430,16 @@
         <v>21</v>
       </c>
       <c r="B5" s="3" t="s">
+        <v>469</v>
+      </c>
+      <c r="C5" s="3" t="s">
+        <v>473</v>
+      </c>
+      <c r="D5" s="14" t="s">
+        <v>458</v>
+      </c>
+      <c r="E5" s="3" t="s">
         <v>462</v>
-      </c>
-      <c r="C5" s="3" t="s">
-        <v>466</v>
-      </c>
-      <c r="D5" s="14" t="s">
-        <v>470</v>
-      </c>
-      <c r="E5" s="3" t="s">
-        <v>474</v>
       </c>
       <c r="F5" s="3" t="s">
         <v>22</v>
@@ -2480,7 +2479,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D15"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView topLeftCell="A2" workbookViewId="0">
       <selection activeCell="C24" sqref="C24"/>
     </sheetView>
   </sheetViews>
@@ -2648,8 +2647,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AMK103"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B16" sqref="B16"/>
+    <sheetView topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="C18" sqref="C18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="60" defaultRowHeight="18" x14ac:dyDescent="0"/>
@@ -2661,10 +2660,10 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:2" ht="15" customHeight="1">
-      <c r="A1" s="39" t="s">
+      <c r="A1" s="38" t="s">
         <v>207</v>
       </c>
-      <c r="B1" s="40"/>
+      <c r="B1" s="39"/>
     </row>
     <row r="2" spans="1:2">
       <c r="A2" s="16" t="s">
@@ -2687,10 +2686,10 @@
       <c r="B4" s="17"/>
     </row>
     <row r="6" spans="1:2" ht="14" customHeight="1">
-      <c r="A6" s="39" t="s">
+      <c r="A6" s="38" t="s">
         <v>211</v>
       </c>
-      <c r="B6" s="40"/>
+      <c r="B6" s="39"/>
     </row>
     <row r="7" spans="1:2">
       <c r="A7" s="16" t="s">
@@ -2737,10 +2736,10 @@
       <c r="B12" s="17"/>
     </row>
     <row r="14" spans="1:2">
-      <c r="A14" s="38" t="s">
+      <c r="A14" s="37" t="s">
         <v>220</v>
       </c>
-      <c r="B14" s="38"/>
+      <c r="B14" s="37"/>
     </row>
     <row r="15" spans="1:2">
       <c r="A15" s="16" t="s">
@@ -2755,7 +2754,7 @@
         <v>222</v>
       </c>
       <c r="B16" s="17" t="s">
-        <v>456</v>
+        <v>463</v>
       </c>
     </row>
     <row r="17" spans="1:2">
@@ -2767,10 +2766,10 @@
       <c r="B18" s="17"/>
     </row>
     <row r="20" spans="1:2">
-      <c r="A20" s="38" t="s">
+      <c r="A20" s="37" t="s">
         <v>223</v>
       </c>
-      <c r="B20" s="38"/>
+      <c r="B20" s="37"/>
     </row>
     <row r="21" spans="1:2">
       <c r="A21" s="16" t="s">
@@ -2785,7 +2784,7 @@
         <v>225</v>
       </c>
       <c r="B22" s="17" t="s">
-        <v>457</v>
+        <v>464</v>
       </c>
     </row>
     <row r="23" spans="1:2">
@@ -2801,10 +2800,10 @@
       <c r="B24" s="17"/>
     </row>
     <row r="26" spans="1:2" ht="15" customHeight="1">
-      <c r="A26" s="38" t="s">
+      <c r="A26" s="37" t="s">
         <v>227</v>
       </c>
-      <c r="B26" s="38"/>
+      <c r="B26" s="37"/>
     </row>
     <row r="27" spans="1:2">
       <c r="A27" s="16" t="s">
@@ -2819,7 +2818,7 @@
         <v>225</v>
       </c>
       <c r="B28" s="17" t="s">
-        <v>458</v>
+        <v>465</v>
       </c>
     </row>
     <row r="29" spans="1:2">
@@ -2864,7 +2863,7 @@
   <dimension ref="A1:E167"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="F11" sqref="F11"/>
+      <selection activeCell="D9" sqref="D9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="18" x14ac:dyDescent="0"/>
@@ -2879,14 +2878,14 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:4" ht="14" customHeight="1">
-      <c r="A1" s="39" t="s">
+      <c r="A1" s="38" t="s">
         <v>97</v>
       </c>
-      <c r="B1" s="40"/>
-      <c r="C1" s="39" t="s">
+      <c r="B1" s="39"/>
+      <c r="C1" s="38" t="s">
         <v>98</v>
       </c>
-      <c r="D1" s="40"/>
+      <c r="D1" s="39"/>
     </row>
     <row r="2" spans="1:4">
       <c r="A2" s="16" t="s">
@@ -2907,7 +2906,7 @@
         <v>102</v>
       </c>
       <c r="B3" s="17" t="s">
-        <v>456</v>
+        <v>463</v>
       </c>
       <c r="C3" s="16" t="s">
         <v>103</v>
@@ -2945,14 +2944,14 @@
       <c r="B7" s="16"/>
     </row>
     <row r="10" spans="1:4" ht="14" customHeight="1">
-      <c r="A10" s="39" t="s">
+      <c r="A10" s="38" t="s">
         <v>111</v>
       </c>
-      <c r="B10" s="40"/>
-      <c r="C10" s="39" t="s">
+      <c r="B10" s="39"/>
+      <c r="C10" s="38" t="s">
         <v>98</v>
       </c>
-      <c r="D10" s="40"/>
+      <c r="D10" s="39"/>
     </row>
     <row r="11" spans="1:4">
       <c r="A11" s="16" t="s">
@@ -2973,7 +2972,7 @@
         <v>102</v>
       </c>
       <c r="B12" s="17" t="s">
-        <v>456</v>
+        <v>463</v>
       </c>
       <c r="C12" s="16" t="s">
         <v>114</v>
@@ -3023,14 +3022,14 @@
       <c r="B16" s="16"/>
     </row>
     <row r="18" spans="1:4" ht="14" customHeight="1">
-      <c r="A18" s="39" t="s">
+      <c r="A18" s="38" t="s">
         <v>121</v>
       </c>
-      <c r="B18" s="40"/>
-      <c r="C18" s="39" t="s">
+      <c r="B18" s="39"/>
+      <c r="C18" s="38" t="s">
         <v>98</v>
       </c>
-      <c r="D18" s="40"/>
+      <c r="D18" s="39"/>
     </row>
     <row r="19" spans="1:4">
       <c r="A19" s="16" t="s">
@@ -3051,13 +3050,13 @@
         <v>102</v>
       </c>
       <c r="B20" s="17" t="s">
-        <v>456</v>
+        <v>463</v>
       </c>
       <c r="C20" s="18" t="s">
         <v>124</v>
       </c>
       <c r="D20" s="19" t="s">
-        <v>456</v>
+        <v>463</v>
       </c>
     </row>
     <row r="21" spans="1:4">
@@ -3093,14 +3092,14 @@
       <c r="B24" s="16"/>
     </row>
     <row r="26" spans="1:4" ht="14" customHeight="1">
-      <c r="A26" s="39" t="s">
+      <c r="A26" s="38" t="s">
         <v>127</v>
       </c>
-      <c r="B26" s="40"/>
-      <c r="C26" s="39" t="s">
+      <c r="B26" s="39"/>
+      <c r="C26" s="38" t="s">
         <v>98</v>
       </c>
-      <c r="D26" s="40"/>
+      <c r="D26" s="39"/>
     </row>
     <row r="27" spans="1:4">
       <c r="A27" s="16" t="s">
@@ -3121,13 +3120,13 @@
         <v>102</v>
       </c>
       <c r="B28" s="17" t="s">
-        <v>456</v>
+        <v>463</v>
       </c>
       <c r="C28" s="16" t="s">
         <v>130</v>
       </c>
       <c r="D28" s="17" t="s">
-        <v>457</v>
+        <v>464</v>
       </c>
     </row>
     <row r="29" spans="1:4">
@@ -3167,14 +3166,14 @@
       <c r="B32" s="16"/>
     </row>
     <row r="34" spans="1:4" ht="14" customHeight="1">
-      <c r="A34" s="39" t="s">
+      <c r="A34" s="38" t="s">
         <v>134</v>
       </c>
-      <c r="B34" s="40"/>
-      <c r="C34" s="39" t="s">
+      <c r="B34" s="39"/>
+      <c r="C34" s="38" t="s">
         <v>98</v>
       </c>
-      <c r="D34" s="40"/>
+      <c r="D34" s="39"/>
     </row>
     <row r="35" spans="1:4">
       <c r="A35" s="16" t="s">
@@ -3195,13 +3194,13 @@
         <v>102</v>
       </c>
       <c r="B36" s="17" t="s">
-        <v>456</v>
+        <v>463</v>
       </c>
       <c r="C36" s="16" t="s">
         <v>137</v>
       </c>
       <c r="D36" s="17" t="s">
-        <v>458</v>
+        <v>465</v>
       </c>
     </row>
     <row r="37" spans="1:4">
@@ -3241,14 +3240,14 @@
       <c r="B40" s="16"/>
     </row>
     <row r="43" spans="1:4" ht="14" customHeight="1">
-      <c r="A43" s="39" t="s">
+      <c r="A43" s="38" t="s">
         <v>141</v>
       </c>
-      <c r="B43" s="40"/>
-      <c r="C43" s="39" t="s">
+      <c r="B43" s="39"/>
+      <c r="C43" s="38" t="s">
         <v>98</v>
       </c>
-      <c r="D43" s="40"/>
+      <c r="D43" s="39"/>
     </row>
     <row r="44" spans="1:4">
       <c r="A44" s="16" t="s">
@@ -3269,7 +3268,7 @@
         <v>102</v>
       </c>
       <c r="B45" s="17" t="s">
-        <v>456</v>
+        <v>463</v>
       </c>
       <c r="C45" s="16" t="s">
         <v>144</v>
@@ -3289,7 +3288,7 @@
         <v>147</v>
       </c>
       <c r="D46" s="17" t="s">
-        <v>456</v>
+        <v>463</v>
       </c>
     </row>
     <row r="47" spans="1:4">
@@ -3331,14 +3330,14 @@
       </c>
     </row>
     <row r="52" spans="1:5" ht="14" customHeight="1">
-      <c r="A52" s="39" t="s">
+      <c r="A52" s="38" t="s">
         <v>154</v>
       </c>
-      <c r="B52" s="40"/>
-      <c r="C52" s="39" t="s">
+      <c r="B52" s="39"/>
+      <c r="C52" s="38" t="s">
         <v>98</v>
       </c>
-      <c r="D52" s="40"/>
+      <c r="D52" s="39"/>
       <c r="E52" s="16"/>
     </row>
     <row r="53" spans="1:5" ht="54">
@@ -3363,13 +3362,13 @@
         <v>102</v>
       </c>
       <c r="B54" s="17" t="s">
-        <v>456</v>
+        <v>463</v>
       </c>
       <c r="C54" s="16" t="s">
         <v>158</v>
       </c>
       <c r="D54" s="17" t="s">
-        <v>457</v>
+        <v>464</v>
       </c>
       <c r="E54" s="17">
         <v>200</v>
@@ -3386,7 +3385,7 @@
         <v>160</v>
       </c>
       <c r="D55" s="17" t="s">
-        <v>458</v>
+        <v>465</v>
       </c>
       <c r="E55" s="16"/>
     </row>
@@ -3432,14 +3431,14 @@
       <c r="E58" s="16"/>
     </row>
     <row r="60" spans="1:5" ht="14" customHeight="1">
-      <c r="A60" s="39" t="s">
+      <c r="A60" s="38" t="s">
         <v>162</v>
       </c>
-      <c r="B60" s="40"/>
-      <c r="C60" s="39" t="s">
+      <c r="B60" s="39"/>
+      <c r="C60" s="38" t="s">
         <v>98</v>
       </c>
-      <c r="D60" s="40"/>
+      <c r="D60" s="39"/>
     </row>
     <row r="61" spans="1:5">
       <c r="A61" s="16" t="s">
@@ -3460,7 +3459,7 @@
         <v>102</v>
       </c>
       <c r="B62" s="17" t="s">
-        <v>456</v>
+        <v>463</v>
       </c>
       <c r="C62" s="16" t="s">
         <v>165</v>
@@ -3480,7 +3479,7 @@
         <v>158</v>
       </c>
       <c r="D63" s="17" t="s">
-        <v>457</v>
+        <v>464</v>
       </c>
     </row>
     <row r="64" spans="1:5">
@@ -3532,14 +3531,14 @@
       </c>
     </row>
     <row r="70" spans="1:4" ht="14" customHeight="1">
-      <c r="A70" s="42" t="s">
+      <c r="A70" s="41" t="s">
         <v>169</v>
       </c>
-      <c r="B70" s="43"/>
-      <c r="C70" s="39" t="s">
+      <c r="B70" s="42"/>
+      <c r="C70" s="38" t="s">
         <v>170</v>
       </c>
-      <c r="D70" s="40"/>
+      <c r="D70" s="39"/>
     </row>
     <row r="71" spans="1:4">
       <c r="A71" s="16" t="s">
@@ -3560,7 +3559,7 @@
         <v>102</v>
       </c>
       <c r="B72" s="17" t="s">
-        <v>456</v>
+        <v>463</v>
       </c>
       <c r="C72" s="16" t="s">
         <v>103</v>
@@ -3576,10 +3575,10 @@
       <c r="B73" s="17" t="s">
         <v>175</v>
       </c>
-      <c r="C73" s="39" t="s">
+      <c r="C73" s="38" t="s">
         <v>176</v>
       </c>
-      <c r="D73" s="40"/>
+      <c r="D73" s="39"/>
     </row>
     <row r="74" spans="1:4">
       <c r="A74" s="16" t="s">
@@ -3606,7 +3605,7 @@
         <v>180</v>
       </c>
       <c r="D75" s="17" t="s">
-        <v>456</v>
+        <v>463</v>
       </c>
     </row>
     <row r="76" spans="1:4">
@@ -3622,14 +3621,14 @@
       <c r="D77" s="16"/>
     </row>
     <row r="79" spans="1:4" ht="14" customHeight="1">
-      <c r="A79" s="42" t="s">
+      <c r="A79" s="41" t="s">
         <v>181</v>
       </c>
-      <c r="B79" s="43"/>
-      <c r="C79" s="39" t="s">
+      <c r="B79" s="42"/>
+      <c r="C79" s="38" t="s">
         <v>182</v>
       </c>
-      <c r="D79" s="40"/>
+      <c r="D79" s="39"/>
     </row>
     <row r="80" spans="1:4">
       <c r="A80" s="16" t="s">
@@ -3650,13 +3649,13 @@
         <v>102</v>
       </c>
       <c r="B81" s="17" t="s">
-        <v>456</v>
+        <v>463</v>
       </c>
       <c r="C81" s="16" t="s">
         <v>102</v>
       </c>
       <c r="D81" s="17" t="s">
-        <v>456</v>
+        <v>463</v>
       </c>
     </row>
     <row r="82" spans="1:4">
@@ -3666,10 +3665,10 @@
       <c r="B82" s="17" t="s">
         <v>186</v>
       </c>
-      <c r="C82" s="39" t="s">
+      <c r="C82" s="38" t="s">
         <v>187</v>
       </c>
-      <c r="D82" s="40"/>
+      <c r="D82" s="39"/>
     </row>
     <row r="83" spans="1:4">
       <c r="A83" s="16" t="s">
@@ -3696,7 +3695,7 @@
         <v>191</v>
       </c>
       <c r="D84" s="17" t="s">
-        <v>457</v>
+        <v>464</v>
       </c>
     </row>
     <row r="85" spans="1:4">
@@ -3710,14 +3709,14 @@
       </c>
     </row>
     <row r="88" spans="1:4" ht="14" customHeight="1">
-      <c r="A88" s="41" t="s">
+      <c r="A88" s="40" t="s">
         <v>192</v>
       </c>
-      <c r="B88" s="41"/>
-      <c r="C88" s="38" t="s">
+      <c r="B88" s="40"/>
+      <c r="C88" s="37" t="s">
         <v>187</v>
       </c>
-      <c r="D88" s="38"/>
+      <c r="D88" s="37"/>
     </row>
     <row r="89" spans="1:4">
       <c r="A89" s="16" t="s">
@@ -3738,13 +3737,13 @@
         <v>102</v>
       </c>
       <c r="B90" s="17" t="s">
-        <v>456</v>
+        <v>463</v>
       </c>
       <c r="C90" s="16" t="s">
         <v>191</v>
       </c>
       <c r="D90" s="17" t="s">
-        <v>457</v>
+        <v>464</v>
       </c>
     </row>
     <row r="91" spans="1:4">
@@ -3768,10 +3767,10 @@
       <c r="B92" s="17" t="s">
         <v>148</v>
       </c>
-      <c r="C92" s="38" t="s">
+      <c r="C92" s="37" t="s">
         <v>196</v>
       </c>
-      <c r="D92" s="38"/>
+      <c r="D92" s="37"/>
     </row>
     <row r="93" spans="1:4" ht="36">
       <c r="A93" s="16" t="s">
@@ -3794,7 +3793,7 @@
         <v>200</v>
       </c>
       <c r="D94" s="17" t="s">
-        <v>458</v>
+        <v>465</v>
       </c>
     </row>
     <row r="95" spans="1:4">
@@ -3810,10 +3809,10 @@
     <row r="96" spans="1:4">
       <c r="A96" s="16"/>
       <c r="B96" s="16"/>
-      <c r="C96" s="38" t="s">
+      <c r="C96" s="37" t="s">
         <v>201</v>
       </c>
-      <c r="D96" s="38"/>
+      <c r="D96" s="37"/>
     </row>
     <row r="97" spans="1:4">
       <c r="A97" s="16"/>
@@ -3856,14 +3855,14 @@
       </c>
     </row>
     <row r="103" spans="1:4" ht="14" customHeight="1">
-      <c r="A103" s="41" t="s">
+      <c r="A103" s="40" t="s">
         <v>204</v>
       </c>
-      <c r="B103" s="41"/>
-      <c r="C103" s="38" t="s">
+      <c r="B103" s="40"/>
+      <c r="C103" s="37" t="s">
         <v>229</v>
       </c>
-      <c r="D103" s="38"/>
+      <c r="D103" s="37"/>
     </row>
     <row r="104" spans="1:4">
       <c r="A104" s="16" t="s">
@@ -3884,12 +3883,12 @@
         <v>102</v>
       </c>
       <c r="B105" s="17" t="s">
-        <v>456</v>
-      </c>
-      <c r="C105" s="39" t="s">
+        <v>463</v>
+      </c>
+      <c r="C105" s="38" t="s">
         <v>231</v>
       </c>
-      <c r="D105" s="40"/>
+      <c r="D105" s="39"/>
     </row>
     <row r="106" spans="1:4" ht="36">
       <c r="A106" s="16" t="s">
@@ -3940,7 +3939,7 @@
         <v>102</v>
       </c>
       <c r="D109" s="17" t="s">
-        <v>456</v>
+        <v>463</v>
       </c>
     </row>
     <row r="110" spans="1:4">
@@ -3950,7 +3949,7 @@
         <v>158</v>
       </c>
       <c r="D110" s="17" t="s">
-        <v>457</v>
+        <v>464</v>
       </c>
     </row>
     <row r="111" spans="1:4">
@@ -3970,7 +3969,7 @@
         <v>200</v>
       </c>
       <c r="D112" s="17" t="s">
-        <v>458</v>
+        <v>465</v>
       </c>
     </row>
     <row r="113" spans="1:4">
@@ -4004,14 +4003,14 @@
       </c>
     </row>
     <row r="118" spans="1:4">
-      <c r="A118" s="41" t="s">
+      <c r="A118" s="40" t="s">
         <v>238</v>
       </c>
-      <c r="B118" s="41"/>
-      <c r="C118" s="38" t="s">
+      <c r="B118" s="40"/>
+      <c r="C118" s="37" t="s">
         <v>239</v>
       </c>
-      <c r="D118" s="38"/>
+      <c r="D118" s="37"/>
     </row>
     <row r="119" spans="1:4">
       <c r="A119" s="16" t="s">
@@ -4032,7 +4031,7 @@
         <v>102</v>
       </c>
       <c r="B120" s="17" t="s">
-        <v>456</v>
+        <v>463</v>
       </c>
       <c r="C120" s="16" t="s">
         <v>236</v>
@@ -4052,7 +4051,7 @@
         <v>102</v>
       </c>
       <c r="D121" s="17" t="s">
-        <v>456</v>
+        <v>463</v>
       </c>
     </row>
     <row r="122" spans="1:4">
@@ -4066,7 +4065,7 @@
         <v>158</v>
       </c>
       <c r="D122" s="17" t="s">
-        <v>457</v>
+        <v>464</v>
       </c>
     </row>
     <row r="123" spans="1:4">
@@ -4090,14 +4089,14 @@
         <v>200</v>
       </c>
       <c r="D124" s="17" t="s">
-        <v>458</v>
+        <v>465</v>
       </c>
     </row>
     <row r="125" spans="1:4">
-      <c r="A125" s="44" t="s">
+      <c r="A125" s="43" t="s">
         <v>244</v>
       </c>
-      <c r="B125" s="40"/>
+      <c r="B125" s="39"/>
       <c r="C125" s="16" t="s">
         <v>24</v>
       </c>
@@ -4144,14 +4143,14 @@
       <c r="D128" s="17"/>
     </row>
     <row r="131" spans="1:4">
-      <c r="A131" s="41" t="s">
+      <c r="A131" s="40" t="s">
         <v>249</v>
       </c>
-      <c r="B131" s="41"/>
-      <c r="C131" s="38" t="s">
+      <c r="B131" s="40"/>
+      <c r="C131" s="37" t="s">
         <v>250</v>
       </c>
-      <c r="D131" s="38"/>
+      <c r="D131" s="37"/>
     </row>
     <row r="132" spans="1:4">
       <c r="A132" s="16" t="s">
@@ -4172,13 +4171,13 @@
         <v>102</v>
       </c>
       <c r="B133" s="17" t="s">
-        <v>456</v>
+        <v>463</v>
       </c>
       <c r="C133" s="16" t="s">
         <v>102</v>
       </c>
       <c r="D133" s="17" t="s">
-        <v>456</v>
+        <v>463</v>
       </c>
     </row>
     <row r="134" spans="1:4">
@@ -4192,7 +4191,7 @@
         <v>158</v>
       </c>
       <c r="D134" s="17" t="s">
-        <v>457</v>
+        <v>464</v>
       </c>
     </row>
     <row r="135" spans="1:4">
@@ -4220,7 +4219,7 @@
         <v>200</v>
       </c>
       <c r="D136" s="17" t="s">
-        <v>458</v>
+        <v>465</v>
       </c>
     </row>
     <row r="137" spans="1:4">
@@ -4282,14 +4281,14 @@
       <c r="D141" s="16"/>
     </row>
     <row r="144" spans="1:4">
-      <c r="A144" s="41" t="s">
+      <c r="A144" s="40" t="s">
         <v>262</v>
       </c>
-      <c r="B144" s="41"/>
-      <c r="C144" s="38" t="s">
+      <c r="B144" s="40"/>
+      <c r="C144" s="37" t="s">
         <v>250</v>
       </c>
-      <c r="D144" s="38"/>
+      <c r="D144" s="37"/>
     </row>
     <row r="145" spans="1:4">
       <c r="A145" s="16" t="s">
@@ -4310,13 +4309,13 @@
         <v>102</v>
       </c>
       <c r="B146" s="17" t="s">
-        <v>456</v>
+        <v>463</v>
       </c>
       <c r="C146" s="16" t="s">
         <v>102</v>
       </c>
       <c r="D146" s="17" t="s">
-        <v>456</v>
+        <v>463</v>
       </c>
     </row>
     <row r="147" spans="1:4">
@@ -4330,7 +4329,7 @@
         <v>158</v>
       </c>
       <c r="D147" s="17" t="s">
-        <v>457</v>
+        <v>464</v>
       </c>
     </row>
     <row r="148" spans="1:4">
@@ -4416,14 +4415,14 @@
       <c r="D154" s="16"/>
     </row>
     <row r="157" spans="1:4">
-      <c r="A157" s="41" t="s">
+      <c r="A157" s="40" t="s">
         <v>273</v>
       </c>
-      <c r="B157" s="41"/>
-      <c r="C157" s="38" t="s">
+      <c r="B157" s="40"/>
+      <c r="C157" s="37" t="s">
         <v>250</v>
       </c>
-      <c r="D157" s="38"/>
+      <c r="D157" s="37"/>
     </row>
     <row r="158" spans="1:4">
       <c r="A158" s="16" t="s">
@@ -4444,13 +4443,13 @@
         <v>102</v>
       </c>
       <c r="B159" s="17" t="s">
-        <v>456</v>
+        <v>463</v>
       </c>
       <c r="C159" s="16" t="s">
         <v>102</v>
       </c>
       <c r="D159" s="17" t="s">
-        <v>456</v>
+        <v>463</v>
       </c>
     </row>
     <row r="160" spans="1:4">
@@ -4464,7 +4463,7 @@
         <v>158</v>
       </c>
       <c r="D160" s="17" t="s">
-        <v>457</v>
+        <v>464</v>
       </c>
     </row>
     <row r="161" spans="1:4">
@@ -4492,7 +4491,7 @@
         <v>277</v>
       </c>
       <c r="D162" s="17" t="s">
-        <v>458</v>
+        <v>465</v>
       </c>
     </row>
     <row r="163" spans="1:4">
@@ -4610,7 +4609,7 @@
   <dimension ref="A1:J52"/>
   <sheetViews>
     <sheetView topLeftCell="A29" workbookViewId="0">
-      <selection activeCell="D30" sqref="D30"/>
+      <selection activeCell="A31" sqref="A31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="18" x14ac:dyDescent="0"/>
@@ -4677,19 +4676,19 @@
         <v>40</v>
       </c>
       <c r="F2" s="3" t="s">
-        <v>456</v>
+        <v>463</v>
       </c>
       <c r="G2" s="3" t="s">
         <v>41</v>
       </c>
       <c r="H2" s="3" t="s">
-        <v>456</v>
+        <v>463</v>
       </c>
       <c r="I2" s="3" t="s">
-        <v>457</v>
+        <v>464</v>
       </c>
       <c r="J2" s="3" t="s">
-        <v>458</v>
+        <v>465</v>
       </c>
     </row>
     <row r="3" spans="1:10">
@@ -4913,7 +4912,7 @@
     </row>
     <row r="31" spans="1:7">
       <c r="A31" s="15" t="s">
-        <v>455</v>
+        <v>454</v>
       </c>
     </row>
     <row r="33" spans="1:9">
@@ -4929,7 +4928,7 @@
         <v>314</v>
       </c>
       <c r="C34" s="3" t="s">
-        <v>454</v>
+        <v>453</v>
       </c>
       <c r="D34" s="15" t="s">
         <v>315</v>
@@ -5073,7 +5072,7 @@
         <v>349</v>
       </c>
       <c r="C46" s="15" t="s">
-        <v>453</v>
+        <v>452</v>
       </c>
       <c r="D46" s="15" t="s">
         <v>350</v>
@@ -5201,8 +5200,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E35"/>
   <sheetViews>
-    <sheetView topLeftCell="C1" workbookViewId="0">
-      <selection activeCell="I10" sqref="I10"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A7" sqref="A7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="18" x14ac:dyDescent="0"/>

--- a/TestData.xlsx
+++ b/TestData.xlsx
@@ -1,10 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="20225"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="19001"/>
   <workbookPr autoCompressPictures="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jibim\Desktop\Demo\Robot\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="25600" windowHeight="14460" tabRatio="990"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="15855" windowHeight="6075" tabRatio="990" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Login_Credentials" sheetId="1" r:id="rId1"/>
@@ -25,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="818" uniqueCount="476">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="818" uniqueCount="475">
   <si>
     <t>TEST CASE NAME</t>
   </si>
@@ -1460,17 +1465,14 @@
     <t>Ageeee5</t>
   </si>
   <si>
-    <t>https://offshore-qa-playpen.grovo.net</t>
-  </si>
-  <si>
     <t>jibim@grovo.com</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="18" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="18">
     <font>
       <sz val="11"/>
       <color rgb="FF000000"/>
@@ -1795,6 +1797,7 @@
     </xf>
     <xf numFmtId="0" fontId="16" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="15" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="1" applyBorder="1" applyProtection="1"/>
     <xf numFmtId="0" fontId="11" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
@@ -1807,22 +1810,21 @@
     <xf numFmtId="0" fontId="13" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="11" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="13" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="13" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="1" applyBorder="1" applyProtection="1"/>
   </cellXfs>
   <cellStyles count="4">
     <cellStyle name="Followed Hyperlink" xfId="3" builtinId="9" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
-    <cellStyle name="Normal 2" xfId="2"/>
+    <cellStyle name="Normal 2" xfId="2" xr:uid="{00000000-0005-0000-0000-000003000000}"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleMedium4"/>
@@ -1894,6 +1896,14 @@
       <rgbColor rgb="00333333"/>
     </indexedColors>
   </colors>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
@@ -2218,24 +2228,24 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:AMK6"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="77" zoomScaleNormal="77" zoomScalePageLayoutView="77" workbookViewId="0">
-      <selection activeCell="D10" sqref="D10"/>
+      <selection activeCell="B7" sqref="B7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="20" x14ac:dyDescent="0"/>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="21"/>
   <cols>
-    <col min="1" max="1" width="32.5" style="10" customWidth="1" collapsed="1"/>
-    <col min="2" max="2" width="42.83203125" style="10" customWidth="1" collapsed="1"/>
+    <col min="1" max="1" width="32.42578125" style="10" customWidth="1" collapsed="1"/>
+    <col min="2" max="2" width="42.85546875" style="10" customWidth="1" collapsed="1"/>
     <col min="3" max="3" width="26" style="10" customWidth="1" collapsed="1"/>
     <col min="4" max="4" width="38" style="10" customWidth="1" collapsed="1"/>
-    <col min="5" max="1025" width="8.83203125" style="10" collapsed="1"/>
-    <col min="1026" max="16384" width="8.83203125" style="10"/>
+    <col min="5" max="1025" width="8.85546875" style="10" collapsed="1"/>
+    <col min="1026" max="16384" width="8.85546875" style="10"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" ht="21">
+    <row r="1" spans="1:4">
       <c r="A1" s="9" t="s">
         <v>0</v>
       </c>
@@ -2249,41 +2259,41 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:4" ht="21">
+    <row r="2" spans="1:4">
       <c r="A2" s="11" t="s">
         <v>4</v>
       </c>
-      <c r="B2" s="12" t="s">
-        <v>474</v>
+      <c r="B2" s="37" t="s">
+        <v>5</v>
       </c>
       <c r="C2" s="11"/>
       <c r="D2" s="11"/>
     </row>
-    <row r="3" spans="1:4" ht="21">
+    <row r="3" spans="1:4">
       <c r="A3" s="11"/>
       <c r="B3" s="11"/>
       <c r="C3" s="11"/>
       <c r="D3" s="11"/>
     </row>
-    <row r="4" spans="1:4" ht="21">
+    <row r="4" spans="1:4">
       <c r="A4" s="11" t="s">
         <v>6</v>
       </c>
-      <c r="B4" s="44" t="s">
-        <v>475</v>
+      <c r="B4" s="37" t="s">
+        <v>474</v>
       </c>
       <c r="C4" s="12" t="s">
         <v>7</v>
       </c>
       <c r="D4" s="11"/>
     </row>
-    <row r="5" spans="1:4" ht="21">
+    <row r="5" spans="1:4">
       <c r="A5" s="11"/>
       <c r="B5" s="13"/>
       <c r="C5" s="11"/>
       <c r="D5" s="11"/>
     </row>
-    <row r="6" spans="1:4" ht="21">
+    <row r="6" spans="1:4">
       <c r="A6" s="11"/>
       <c r="B6" s="13"/>
       <c r="C6" s="11"/>
@@ -2291,9 +2301,9 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="B2" r:id="rId1" display="https://optislabs-playpen.grovo.com/"/>
-    <hyperlink ref="C4" r:id="rId2"/>
-    <hyperlink ref="B4" r:id="rId3"/>
+    <hyperlink ref="B2" r:id="rId1" xr:uid="{00000000-0004-0000-0000-000000000000}"/>
+    <hyperlink ref="C4" r:id="rId2" xr:uid="{00000000-0004-0000-0000-000001000000}"/>
+    <hyperlink ref="B4" r:id="rId3" xr:uid="{00000000-0004-0000-0000-000002000000}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.51180555555555496" footer="0.51180555555555496"/>
   <extLst>
@@ -2305,26 +2315,26 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="D19" sqref="D19"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="38" defaultRowHeight="18" x14ac:dyDescent="0"/>
+  <sheetFormatPr defaultColWidth="38" defaultRowHeight="18.75"/>
   <cols>
     <col min="1" max="1" width="38" style="3" collapsed="1"/>
-    <col min="2" max="2" width="19.33203125" style="3" customWidth="1" collapsed="1"/>
-    <col min="3" max="3" width="20.6640625" style="3" customWidth="1" collapsed="1"/>
+    <col min="2" max="2" width="19.28515625" style="3" customWidth="1" collapsed="1"/>
+    <col min="3" max="3" width="20.7109375" style="3" customWidth="1" collapsed="1"/>
     <col min="4" max="4" width="21" style="3" customWidth="1" collapsed="1"/>
     <col min="5" max="5" width="19" style="3" customWidth="1" collapsed="1"/>
-    <col min="6" max="6" width="24.33203125" style="3" customWidth="1" collapsed="1"/>
+    <col min="6" max="6" width="24.28515625" style="3" customWidth="1" collapsed="1"/>
     <col min="7" max="8" width="38" style="3" collapsed="1"/>
     <col min="9" max="16384" width="38" style="3"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" ht="19">
+    <row r="1" spans="1:8">
       <c r="A1" s="1" t="s">
         <v>8</v>
       </c>
@@ -2453,18 +2463,18 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="D2" r:id="rId1"/>
-    <hyperlink ref="G2" r:id="rId2"/>
-    <hyperlink ref="H2" r:id="rId3"/>
-    <hyperlink ref="D3" r:id="rId4"/>
-    <hyperlink ref="G3" r:id="rId5"/>
-    <hyperlink ref="H3" r:id="rId6"/>
-    <hyperlink ref="D4" r:id="rId7"/>
-    <hyperlink ref="G4" r:id="rId8"/>
-    <hyperlink ref="H4" r:id="rId9"/>
-    <hyperlink ref="D5" r:id="rId10"/>
-    <hyperlink ref="G5" r:id="rId11"/>
-    <hyperlink ref="H5" r:id="rId12"/>
+    <hyperlink ref="D2" r:id="rId1" xr:uid="{00000000-0004-0000-0100-000000000000}"/>
+    <hyperlink ref="G2" r:id="rId2" xr:uid="{00000000-0004-0000-0100-000001000000}"/>
+    <hyperlink ref="H2" r:id="rId3" xr:uid="{00000000-0004-0000-0100-000002000000}"/>
+    <hyperlink ref="D3" r:id="rId4" xr:uid="{00000000-0004-0000-0100-000003000000}"/>
+    <hyperlink ref="G3" r:id="rId5" xr:uid="{00000000-0004-0000-0100-000004000000}"/>
+    <hyperlink ref="H3" r:id="rId6" xr:uid="{00000000-0004-0000-0100-000005000000}"/>
+    <hyperlink ref="D4" r:id="rId7" xr:uid="{00000000-0004-0000-0100-000006000000}"/>
+    <hyperlink ref="G4" r:id="rId8" xr:uid="{00000000-0004-0000-0100-000007000000}"/>
+    <hyperlink ref="H4" r:id="rId9" xr:uid="{00000000-0004-0000-0100-000008000000}"/>
+    <hyperlink ref="D5" r:id="rId10" xr:uid="{00000000-0004-0000-0100-000009000000}"/>
+    <hyperlink ref="G5" r:id="rId11" xr:uid="{00000000-0004-0000-0100-00000A000000}"/>
+    <hyperlink ref="H5" r:id="rId12" xr:uid="{00000000-0004-0000-0100-00000B000000}"/>
   </hyperlinks>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <extLst>
@@ -2476,20 +2486,20 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:D15"/>
   <sheetViews>
     <sheetView topLeftCell="A2" workbookViewId="0">
       <selection activeCell="C24" sqref="C24"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="18" x14ac:dyDescent="0"/>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="18.75"/>
   <cols>
-    <col min="1" max="1" width="41.33203125" style="3" customWidth="1"/>
-    <col min="2" max="2" width="22.33203125" style="3" customWidth="1"/>
-    <col min="3" max="3" width="38.83203125" style="3" customWidth="1"/>
-    <col min="4" max="4" width="20.1640625" style="3" customWidth="1"/>
-    <col min="5" max="16384" width="8.83203125" style="3"/>
+    <col min="1" max="1" width="41.28515625" style="3" customWidth="1"/>
+    <col min="2" max="2" width="22.28515625" style="3" customWidth="1"/>
+    <col min="3" max="3" width="38.85546875" style="3" customWidth="1"/>
+    <col min="4" max="4" width="20.140625" style="3" customWidth="1"/>
+    <col min="5" max="16384" width="8.85546875" style="3"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:4">
@@ -2632,7 +2642,7 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="C2" r:id="rId1"/>
+    <hyperlink ref="C2" r:id="rId1" xr:uid="{00000000-0004-0000-0200-000000000000}"/>
   </hyperlinks>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <extLst>
@@ -2644,26 +2654,26 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="A1:AMK103"/>
   <sheetViews>
     <sheetView topLeftCell="A4" workbookViewId="0">
       <selection activeCell="C18" sqref="C18"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="60" defaultRowHeight="18" x14ac:dyDescent="0"/>
+  <sheetFormatPr defaultColWidth="60" defaultRowHeight="18.75"/>
   <cols>
     <col min="1" max="1" width="41" style="15" customWidth="1" collapsed="1"/>
-    <col min="2" max="2" width="73.5" style="15" customWidth="1" collapsed="1"/>
+    <col min="2" max="2" width="73.42578125" style="15" customWidth="1" collapsed="1"/>
     <col min="3" max="1025" width="60" style="15" collapsed="1"/>
     <col min="1026" max="16384" width="60" style="15"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:2" ht="15" customHeight="1">
-      <c r="A1" s="38" t="s">
+      <c r="A1" s="39" t="s">
         <v>207</v>
       </c>
-      <c r="B1" s="39"/>
+      <c r="B1" s="40"/>
     </row>
     <row r="2" spans="1:2">
       <c r="A2" s="16" t="s">
@@ -2685,11 +2695,11 @@
       <c r="A4" s="16"/>
       <c r="B4" s="17"/>
     </row>
-    <row r="6" spans="1:2" ht="14" customHeight="1">
-      <c r="A6" s="38" t="s">
+    <row r="6" spans="1:2" ht="14.1" customHeight="1">
+      <c r="A6" s="39" t="s">
         <v>211</v>
       </c>
-      <c r="B6" s="39"/>
+      <c r="B6" s="40"/>
     </row>
     <row r="7" spans="1:2">
       <c r="A7" s="16" t="s">
@@ -2736,10 +2746,10 @@
       <c r="B12" s="17"/>
     </row>
     <row r="14" spans="1:2">
-      <c r="A14" s="37" t="s">
+      <c r="A14" s="38" t="s">
         <v>220</v>
       </c>
-      <c r="B14" s="37"/>
+      <c r="B14" s="38"/>
     </row>
     <row r="15" spans="1:2">
       <c r="A15" s="16" t="s">
@@ -2749,7 +2759,7 @@
         <v>221</v>
       </c>
     </row>
-    <row r="16" spans="1:2" ht="25" customHeight="1">
+    <row r="16" spans="1:2" ht="24.95" customHeight="1">
       <c r="A16" s="16" t="s">
         <v>222</v>
       </c>
@@ -2766,10 +2776,10 @@
       <c r="B18" s="17"/>
     </row>
     <row r="20" spans="1:2">
-      <c r="A20" s="37" t="s">
+      <c r="A20" s="38" t="s">
         <v>223</v>
       </c>
-      <c r="B20" s="37"/>
+      <c r="B20" s="38"/>
     </row>
     <row r="21" spans="1:2">
       <c r="A21" s="16" t="s">
@@ -2800,10 +2810,10 @@
       <c r="B24" s="17"/>
     </row>
     <row r="26" spans="1:2" ht="15" customHeight="1">
-      <c r="A26" s="37" t="s">
+      <c r="A26" s="38" t="s">
         <v>227</v>
       </c>
-      <c r="B26" s="37"/>
+      <c r="B26" s="38"/>
     </row>
     <row r="27" spans="1:2">
       <c r="A27" s="16" t="s">
@@ -2859,33 +2869,33 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
   <dimension ref="A1:E167"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="D9" sqref="D9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="18" x14ac:dyDescent="0"/>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="18.75"/>
   <cols>
-    <col min="1" max="1" width="22.5" style="15" customWidth="1"/>
-    <col min="2" max="2" width="61.6640625" style="15" customWidth="1"/>
+    <col min="1" max="1" width="22.42578125" style="15" customWidth="1"/>
+    <col min="2" max="2" width="61.7109375" style="15" customWidth="1"/>
     <col min="3" max="3" width="31" style="15" customWidth="1"/>
-    <col min="4" max="4" width="66.83203125" style="15" customWidth="1"/>
-    <col min="5" max="6" width="8.83203125" style="15"/>
-    <col min="7" max="7" width="9.1640625" style="15" customWidth="1"/>
-    <col min="8" max="16384" width="8.83203125" style="15"/>
+    <col min="4" max="4" width="66.85546875" style="15" customWidth="1"/>
+    <col min="5" max="6" width="8.85546875" style="15"/>
+    <col min="7" max="7" width="9.140625" style="15" customWidth="1"/>
+    <col min="8" max="16384" width="8.85546875" style="15"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" ht="14" customHeight="1">
-      <c r="A1" s="38" t="s">
+    <row r="1" spans="1:4" ht="14.1" customHeight="1">
+      <c r="A1" s="39" t="s">
         <v>97</v>
       </c>
-      <c r="B1" s="39"/>
-      <c r="C1" s="38" t="s">
+      <c r="B1" s="40"/>
+      <c r="C1" s="39" t="s">
         <v>98</v>
       </c>
-      <c r="D1" s="39"/>
+      <c r="D1" s="40"/>
     </row>
     <row r="2" spans="1:4">
       <c r="A2" s="16" t="s">
@@ -2931,7 +2941,7 @@
         <v>108</v>
       </c>
     </row>
-    <row r="6" spans="1:4">
+    <row r="6" spans="1:4" ht="37.5">
       <c r="A6" s="16" t="s">
         <v>109</v>
       </c>
@@ -2943,15 +2953,15 @@
       <c r="A7" s="16"/>
       <c r="B7" s="16"/>
     </row>
-    <row r="10" spans="1:4" ht="14" customHeight="1">
-      <c r="A10" s="38" t="s">
+    <row r="10" spans="1:4" ht="14.1" customHeight="1">
+      <c r="A10" s="39" t="s">
         <v>111</v>
       </c>
-      <c r="B10" s="39"/>
-      <c r="C10" s="38" t="s">
+      <c r="B10" s="40"/>
+      <c r="C10" s="39" t="s">
         <v>98</v>
       </c>
-      <c r="D10" s="39"/>
+      <c r="D10" s="40"/>
     </row>
     <row r="11" spans="1:4">
       <c r="A11" s="16" t="s">
@@ -3009,7 +3019,7 @@
         <v>119</v>
       </c>
     </row>
-    <row r="15" spans="1:4">
+    <row r="15" spans="1:4" ht="37.5">
       <c r="A15" s="16" t="s">
         <v>109</v>
       </c>
@@ -3021,15 +3031,15 @@
       <c r="A16" s="16"/>
       <c r="B16" s="16"/>
     </row>
-    <row r="18" spans="1:4" ht="14" customHeight="1">
-      <c r="A18" s="38" t="s">
+    <row r="18" spans="1:4" ht="14.1" customHeight="1">
+      <c r="A18" s="39" t="s">
         <v>121</v>
       </c>
-      <c r="B18" s="39"/>
-      <c r="C18" s="38" t="s">
+      <c r="B18" s="40"/>
+      <c r="C18" s="39" t="s">
         <v>98</v>
       </c>
-      <c r="D18" s="39"/>
+      <c r="D18" s="40"/>
     </row>
     <row r="19" spans="1:4">
       <c r="A19" s="16" t="s">
@@ -3045,7 +3055,7 @@
         <v>123</v>
       </c>
     </row>
-    <row r="20" spans="1:4">
+    <row r="20" spans="1:4" ht="37.5">
       <c r="A20" s="16" t="s">
         <v>102</v>
       </c>
@@ -3079,7 +3089,7 @@
       <c r="C22" s="18"/>
       <c r="D22" s="19"/>
     </row>
-    <row r="23" spans="1:4">
+    <row r="23" spans="1:4" ht="37.5">
       <c r="A23" s="16" t="s">
         <v>109</v>
       </c>
@@ -3091,15 +3101,15 @@
       <c r="A24" s="16"/>
       <c r="B24" s="16"/>
     </row>
-    <row r="26" spans="1:4" ht="14" customHeight="1">
-      <c r="A26" s="38" t="s">
+    <row r="26" spans="1:4" ht="14.1" customHeight="1">
+      <c r="A26" s="39" t="s">
         <v>127</v>
       </c>
-      <c r="B26" s="39"/>
-      <c r="C26" s="38" t="s">
+      <c r="B26" s="40"/>
+      <c r="C26" s="39" t="s">
         <v>98</v>
       </c>
-      <c r="D26" s="39"/>
+      <c r="D26" s="40"/>
     </row>
     <row r="27" spans="1:4">
       <c r="A27" s="16" t="s">
@@ -3115,7 +3125,7 @@
         <v>129</v>
       </c>
     </row>
-    <row r="28" spans="1:4">
+    <row r="28" spans="1:4" ht="37.5">
       <c r="A28" s="16" t="s">
         <v>102</v>
       </c>
@@ -3153,7 +3163,7 @@
       <c r="C30" s="16"/>
       <c r="D30" s="17"/>
     </row>
-    <row r="31" spans="1:4">
+    <row r="31" spans="1:4" ht="37.5">
       <c r="A31" s="16" t="s">
         <v>109</v>
       </c>
@@ -3165,15 +3175,15 @@
       <c r="A32" s="16"/>
       <c r="B32" s="16"/>
     </row>
-    <row r="34" spans="1:4" ht="14" customHeight="1">
-      <c r="A34" s="38" t="s">
+    <row r="34" spans="1:4" ht="14.1" customHeight="1">
+      <c r="A34" s="39" t="s">
         <v>134</v>
       </c>
-      <c r="B34" s="39"/>
-      <c r="C34" s="38" t="s">
+      <c r="B34" s="40"/>
+      <c r="C34" s="39" t="s">
         <v>98</v>
       </c>
-      <c r="D34" s="39"/>
+      <c r="D34" s="40"/>
     </row>
     <row r="35" spans="1:4">
       <c r="A35" s="16" t="s">
@@ -3189,7 +3199,7 @@
         <v>136</v>
       </c>
     </row>
-    <row r="36" spans="1:4">
+    <row r="36" spans="1:4" ht="37.5">
       <c r="A36" s="16" t="s">
         <v>102</v>
       </c>
@@ -3227,7 +3237,7 @@
       <c r="C38" s="16"/>
       <c r="D38" s="17"/>
     </row>
-    <row r="39" spans="1:4" ht="36">
+    <row r="39" spans="1:4" ht="37.5">
       <c r="A39" s="16" t="s">
         <v>109</v>
       </c>
@@ -3239,15 +3249,15 @@
       <c r="A40" s="16"/>
       <c r="B40" s="16"/>
     </row>
-    <row r="43" spans="1:4" ht="14" customHeight="1">
-      <c r="A43" s="38" t="s">
+    <row r="43" spans="1:4" ht="14.1" customHeight="1">
+      <c r="A43" s="39" t="s">
         <v>141</v>
       </c>
-      <c r="B43" s="39"/>
-      <c r="C43" s="38" t="s">
+      <c r="B43" s="40"/>
+      <c r="C43" s="39" t="s">
         <v>98</v>
       </c>
-      <c r="D43" s="39"/>
+      <c r="D43" s="40"/>
     </row>
     <row r="44" spans="1:4">
       <c r="A44" s="16" t="s">
@@ -3263,7 +3273,7 @@
         <v>143</v>
       </c>
     </row>
-    <row r="45" spans="1:4">
+    <row r="45" spans="1:4" ht="37.5">
       <c r="A45" s="16" t="s">
         <v>102</v>
       </c>
@@ -3277,7 +3287,7 @@
         <v>145</v>
       </c>
     </row>
-    <row r="46" spans="1:4">
+    <row r="46" spans="1:4" ht="37.5">
       <c r="A46" s="16" t="s">
         <v>105</v>
       </c>
@@ -3305,7 +3315,7 @@
         <v>149</v>
       </c>
     </row>
-    <row r="48" spans="1:4" ht="36">
+    <row r="48" spans="1:4" ht="37.5">
       <c r="A48" s="16" t="s">
         <v>109</v>
       </c>
@@ -3329,18 +3339,18 @@
         <v>153</v>
       </c>
     </row>
-    <row r="52" spans="1:5" ht="14" customHeight="1">
-      <c r="A52" s="38" t="s">
+    <row r="52" spans="1:5" ht="14.1" customHeight="1">
+      <c r="A52" s="39" t="s">
         <v>154</v>
       </c>
-      <c r="B52" s="39"/>
-      <c r="C52" s="38" t="s">
+      <c r="B52" s="40"/>
+      <c r="C52" s="39" t="s">
         <v>98</v>
       </c>
-      <c r="D52" s="39"/>
+      <c r="D52" s="40"/>
       <c r="E52" s="16"/>
     </row>
-    <row r="53" spans="1:5" ht="54">
+    <row r="53" spans="1:5" ht="93.75">
       <c r="A53" s="16" t="s">
         <v>99</v>
       </c>
@@ -3357,7 +3367,7 @@
         <v>157</v>
       </c>
     </row>
-    <row r="54" spans="1:5">
+    <row r="54" spans="1:5" ht="37.5">
       <c r="A54" s="16" t="s">
         <v>102</v>
       </c>
@@ -3374,7 +3384,7 @@
         <v>200</v>
       </c>
     </row>
-    <row r="55" spans="1:5">
+    <row r="55" spans="1:5" ht="37.5">
       <c r="A55" s="16" t="s">
         <v>105</v>
       </c>
@@ -3404,7 +3414,7 @@
       </c>
       <c r="E56" s="16"/>
     </row>
-    <row r="57" spans="1:5" ht="36">
+    <row r="57" spans="1:5" ht="37.5">
       <c r="A57" s="16" t="s">
         <v>109</v>
       </c>
@@ -3430,15 +3440,15 @@
       </c>
       <c r="E58" s="16"/>
     </row>
-    <row r="60" spans="1:5" ht="14" customHeight="1">
-      <c r="A60" s="38" t="s">
+    <row r="60" spans="1:5" ht="14.1" customHeight="1">
+      <c r="A60" s="39" t="s">
         <v>162</v>
       </c>
-      <c r="B60" s="39"/>
-      <c r="C60" s="38" t="s">
+      <c r="B60" s="40"/>
+      <c r="C60" s="39" t="s">
         <v>98</v>
       </c>
-      <c r="D60" s="39"/>
+      <c r="D60" s="40"/>
     </row>
     <row r="61" spans="1:5">
       <c r="A61" s="16" t="s">
@@ -3454,7 +3464,7 @@
         <v>164</v>
       </c>
     </row>
-    <row r="62" spans="1:5">
+    <row r="62" spans="1:5" ht="37.5">
       <c r="A62" s="16" t="s">
         <v>102</v>
       </c>
@@ -3496,7 +3506,7 @@
         <v>149</v>
       </c>
     </row>
-    <row r="65" spans="1:4" ht="36">
+    <row r="65" spans="1:4" ht="37.5">
       <c r="A65" s="16" t="s">
         <v>109</v>
       </c>
@@ -3530,17 +3540,17 @@
         <v>200</v>
       </c>
     </row>
-    <row r="70" spans="1:4" ht="14" customHeight="1">
-      <c r="A70" s="41" t="s">
+    <row r="70" spans="1:4" ht="14.1" customHeight="1">
+      <c r="A70" s="43" t="s">
         <v>169</v>
       </c>
-      <c r="B70" s="42"/>
-      <c r="C70" s="38" t="s">
+      <c r="B70" s="44"/>
+      <c r="C70" s="39" t="s">
         <v>170</v>
       </c>
-      <c r="D70" s="39"/>
-    </row>
-    <row r="71" spans="1:4">
+      <c r="D70" s="40"/>
+    </row>
+    <row r="71" spans="1:4" ht="37.5">
       <c r="A71" s="16" t="s">
         <v>99</v>
       </c>
@@ -3554,7 +3564,7 @@
         <v>173</v>
       </c>
     </row>
-    <row r="72" spans="1:4">
+    <row r="72" spans="1:4" ht="37.5">
       <c r="A72" s="16" t="s">
         <v>102</v>
       </c>
@@ -3568,19 +3578,19 @@
         <v>174</v>
       </c>
     </row>
-    <row r="73" spans="1:4">
+    <row r="73" spans="1:4" ht="37.5">
       <c r="A73" s="16" t="s">
         <v>105</v>
       </c>
       <c r="B73" s="17" t="s">
         <v>175</v>
       </c>
-      <c r="C73" s="38" t="s">
+      <c r="C73" s="39" t="s">
         <v>176</v>
       </c>
-      <c r="D73" s="39"/>
-    </row>
-    <row r="74" spans="1:4">
+      <c r="D73" s="40"/>
+    </row>
+    <row r="74" spans="1:4" ht="37.5">
       <c r="A74" s="16" t="s">
         <v>107</v>
       </c>
@@ -3594,7 +3604,7 @@
         <v>178</v>
       </c>
     </row>
-    <row r="75" spans="1:4" ht="36">
+    <row r="75" spans="1:4" ht="37.5">
       <c r="A75" s="16" t="s">
         <v>109</v>
       </c>
@@ -3620,17 +3630,17 @@
       <c r="C77" s="16"/>
       <c r="D77" s="16"/>
     </row>
-    <row r="79" spans="1:4" ht="14" customHeight="1">
-      <c r="A79" s="41" t="s">
+    <row r="79" spans="1:4" ht="14.1" customHeight="1">
+      <c r="A79" s="43" t="s">
         <v>181</v>
       </c>
-      <c r="B79" s="42"/>
-      <c r="C79" s="38" t="s">
+      <c r="B79" s="44"/>
+      <c r="C79" s="39" t="s">
         <v>182</v>
       </c>
-      <c r="D79" s="39"/>
-    </row>
-    <row r="80" spans="1:4">
+      <c r="D79" s="40"/>
+    </row>
+    <row r="80" spans="1:4" ht="37.5">
       <c r="A80" s="16" t="s">
         <v>99</v>
       </c>
@@ -3644,7 +3654,7 @@
         <v>185</v>
       </c>
     </row>
-    <row r="81" spans="1:4">
+    <row r="81" spans="1:4" ht="37.5">
       <c r="A81" s="16" t="s">
         <v>102</v>
       </c>
@@ -3658,19 +3668,19 @@
         <v>463</v>
       </c>
     </row>
-    <row r="82" spans="1:4">
+    <row r="82" spans="1:4" ht="37.5">
       <c r="A82" s="16" t="s">
         <v>105</v>
       </c>
       <c r="B82" s="17" t="s">
         <v>186</v>
       </c>
-      <c r="C82" s="38" t="s">
+      <c r="C82" s="39" t="s">
         <v>187</v>
       </c>
-      <c r="D82" s="39"/>
-    </row>
-    <row r="83" spans="1:4">
+      <c r="D82" s="40"/>
+    </row>
+    <row r="83" spans="1:4" ht="37.5">
       <c r="A83" s="16" t="s">
         <v>107</v>
       </c>
@@ -3684,7 +3694,7 @@
         <v>189</v>
       </c>
     </row>
-    <row r="84" spans="1:4" ht="36">
+    <row r="84" spans="1:4" ht="37.5">
       <c r="A84" s="16" t="s">
         <v>109</v>
       </c>
@@ -3708,17 +3718,17 @@
         <v>200</v>
       </c>
     </row>
-    <row r="88" spans="1:4" ht="14" customHeight="1">
-      <c r="A88" s="40" t="s">
+    <row r="88" spans="1:4" ht="14.1" customHeight="1">
+      <c r="A88" s="41" t="s">
         <v>192</v>
       </c>
-      <c r="B88" s="40"/>
-      <c r="C88" s="37" t="s">
+      <c r="B88" s="41"/>
+      <c r="C88" s="38" t="s">
         <v>187</v>
       </c>
-      <c r="D88" s="37"/>
-    </row>
-    <row r="89" spans="1:4">
+      <c r="D88" s="38"/>
+    </row>
+    <row r="89" spans="1:4" ht="37.5">
       <c r="A89" s="16" t="s">
         <v>99</v>
       </c>
@@ -3732,7 +3742,7 @@
         <v>194</v>
       </c>
     </row>
-    <row r="90" spans="1:4">
+    <row r="90" spans="1:4" ht="37.5">
       <c r="A90" s="16" t="s">
         <v>102</v>
       </c>
@@ -3746,7 +3756,7 @@
         <v>464</v>
       </c>
     </row>
-    <row r="91" spans="1:4">
+    <row r="91" spans="1:4" ht="37.5">
       <c r="A91" s="16" t="s">
         <v>105</v>
       </c>
@@ -3767,12 +3777,12 @@
       <c r="B92" s="17" t="s">
         <v>148</v>
       </c>
-      <c r="C92" s="37" t="s">
+      <c r="C92" s="38" t="s">
         <v>196</v>
       </c>
-      <c r="D92" s="37"/>
-    </row>
-    <row r="93" spans="1:4" ht="36">
+      <c r="D92" s="38"/>
+    </row>
+    <row r="93" spans="1:4" ht="56.25">
       <c r="A93" s="16" t="s">
         <v>109</v>
       </c>
@@ -3809,12 +3819,12 @@
     <row r="96" spans="1:4">
       <c r="A96" s="16"/>
       <c r="B96" s="16"/>
-      <c r="C96" s="37" t="s">
+      <c r="C96" s="38" t="s">
         <v>201</v>
       </c>
-      <c r="D96" s="37"/>
-    </row>
-    <row r="97" spans="1:4">
+      <c r="D96" s="38"/>
+    </row>
+    <row r="97" spans="1:4" ht="37.5">
       <c r="A97" s="16"/>
       <c r="B97" s="16"/>
       <c r="C97" s="16" t="s">
@@ -3854,17 +3864,17 @@
         <v>153</v>
       </c>
     </row>
-    <row r="103" spans="1:4" ht="14" customHeight="1">
-      <c r="A103" s="40" t="s">
+    <row r="103" spans="1:4" ht="14.1" customHeight="1">
+      <c r="A103" s="41" t="s">
         <v>204</v>
       </c>
-      <c r="B103" s="40"/>
-      <c r="C103" s="37" t="s">
+      <c r="B103" s="41"/>
+      <c r="C103" s="38" t="s">
         <v>229</v>
       </c>
-      <c r="D103" s="37"/>
-    </row>
-    <row r="104" spans="1:4">
+      <c r="D103" s="38"/>
+    </row>
+    <row r="104" spans="1:4" ht="37.5">
       <c r="A104" s="16" t="s">
         <v>99</v>
       </c>
@@ -3878,19 +3888,19 @@
         <v>230</v>
       </c>
     </row>
-    <row r="105" spans="1:4">
+    <row r="105" spans="1:4" ht="37.5">
       <c r="A105" s="16" t="s">
         <v>102</v>
       </c>
       <c r="B105" s="17" t="s">
         <v>463</v>
       </c>
-      <c r="C105" s="38" t="s">
+      <c r="C105" s="39" t="s">
         <v>231</v>
       </c>
-      <c r="D105" s="39"/>
-    </row>
-    <row r="106" spans="1:4" ht="36">
+      <c r="D105" s="40"/>
+    </row>
+    <row r="106" spans="1:4" ht="37.5">
       <c r="A106" s="16" t="s">
         <v>105</v>
       </c>
@@ -3904,7 +3914,7 @@
         <v>233</v>
       </c>
     </row>
-    <row r="107" spans="1:4" ht="36">
+    <row r="107" spans="1:4" ht="37.5">
       <c r="A107" s="16" t="s">
         <v>107</v>
       </c>
@@ -3918,7 +3928,7 @@
         <v>235</v>
       </c>
     </row>
-    <row r="108" spans="1:4" ht="36">
+    <row r="108" spans="1:4" ht="56.25">
       <c r="A108" s="16" t="s">
         <v>109</v>
       </c>
@@ -4003,14 +4013,14 @@
       </c>
     </row>
     <row r="118" spans="1:4">
-      <c r="A118" s="40" t="s">
+      <c r="A118" s="41" t="s">
         <v>238</v>
       </c>
-      <c r="B118" s="40"/>
-      <c r="C118" s="37" t="s">
+      <c r="B118" s="41"/>
+      <c r="C118" s="38" t="s">
         <v>239</v>
       </c>
-      <c r="D118" s="37"/>
+      <c r="D118" s="38"/>
     </row>
     <row r="119" spans="1:4">
       <c r="A119" s="16" t="s">
@@ -4026,7 +4036,7 @@
         <v>241</v>
       </c>
     </row>
-    <row r="120" spans="1:4">
+    <row r="120" spans="1:4" ht="37.5">
       <c r="A120" s="16" t="s">
         <v>102</v>
       </c>
@@ -4068,7 +4078,7 @@
         <v>464</v>
       </c>
     </row>
-    <row r="123" spans="1:4">
+    <row r="123" spans="1:4" ht="37.5">
       <c r="A123" s="16" t="s">
         <v>109</v>
       </c>
@@ -4093,10 +4103,10 @@
       </c>
     </row>
     <row r="125" spans="1:4">
-      <c r="A125" s="43" t="s">
+      <c r="A125" s="42" t="s">
         <v>244</v>
       </c>
-      <c r="B125" s="39"/>
+      <c r="B125" s="40"/>
       <c r="C125" s="16" t="s">
         <v>24</v>
       </c>
@@ -4132,7 +4142,7 @@
         <v>153</v>
       </c>
     </row>
-    <row r="128" spans="1:4" ht="36">
+    <row r="128" spans="1:4" ht="37.5">
       <c r="A128" s="16" t="s">
         <v>109</v>
       </c>
@@ -4143,14 +4153,14 @@
       <c r="D128" s="17"/>
     </row>
     <row r="131" spans="1:4">
-      <c r="A131" s="40" t="s">
+      <c r="A131" s="41" t="s">
         <v>249</v>
       </c>
-      <c r="B131" s="40"/>
-      <c r="C131" s="37" t="s">
+      <c r="B131" s="41"/>
+      <c r="C131" s="38" t="s">
         <v>250</v>
       </c>
-      <c r="D131" s="37"/>
+      <c r="D131" s="38"/>
     </row>
     <row r="132" spans="1:4">
       <c r="A132" s="16" t="s">
@@ -4166,7 +4176,7 @@
         <v>237</v>
       </c>
     </row>
-    <row r="133" spans="1:4">
+    <row r="133" spans="1:4" ht="37.5">
       <c r="A133" s="16" t="s">
         <v>102</v>
       </c>
@@ -4208,7 +4218,7 @@
         <v>200</v>
       </c>
     </row>
-    <row r="136" spans="1:4">
+    <row r="136" spans="1:4" ht="37.5">
       <c r="A136" s="16" t="s">
         <v>109</v>
       </c>
@@ -4232,7 +4242,7 @@
         <v>149</v>
       </c>
     </row>
-    <row r="138" spans="1:4" ht="36">
+    <row r="138" spans="1:4" ht="56.25">
       <c r="A138" s="20" t="s">
         <v>254</v>
       </c>
@@ -4246,7 +4256,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="139" spans="1:4" ht="54">
+    <row r="139" spans="1:4" ht="56.25">
       <c r="A139" s="20" t="s">
         <v>256</v>
       </c>
@@ -4260,7 +4270,7 @@
         <v>153</v>
       </c>
     </row>
-    <row r="140" spans="1:4" ht="54">
+    <row r="140" spans="1:4" ht="75">
       <c r="A140" s="20" t="s">
         <v>258</v>
       </c>
@@ -4270,7 +4280,7 @@
       <c r="C140" s="16"/>
       <c r="D140" s="16"/>
     </row>
-    <row r="141" spans="1:4" ht="54">
+    <row r="141" spans="1:4" ht="56.25">
       <c r="A141" s="20" t="s">
         <v>260</v>
       </c>
@@ -4281,14 +4291,14 @@
       <c r="D141" s="16"/>
     </row>
     <row r="144" spans="1:4">
-      <c r="A144" s="40" t="s">
+      <c r="A144" s="41" t="s">
         <v>262</v>
       </c>
-      <c r="B144" s="40"/>
-      <c r="C144" s="37" t="s">
+      <c r="B144" s="41"/>
+      <c r="C144" s="38" t="s">
         <v>250</v>
       </c>
-      <c r="D144" s="37"/>
+      <c r="D144" s="38"/>
     </row>
     <row r="145" spans="1:4">
       <c r="A145" s="16" t="s">
@@ -4304,7 +4314,7 @@
         <v>237</v>
       </c>
     </row>
-    <row r="146" spans="1:4">
+    <row r="146" spans="1:4" ht="37.5">
       <c r="A146" s="16" t="s">
         <v>102</v>
       </c>
@@ -4346,7 +4356,7 @@
         <v>200</v>
       </c>
     </row>
-    <row r="149" spans="1:4" ht="36">
+    <row r="149" spans="1:4" ht="37.5">
       <c r="A149" s="16" t="s">
         <v>109</v>
       </c>
@@ -4370,7 +4380,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="151" spans="1:4" ht="54">
+    <row r="151" spans="1:4" ht="56.25">
       <c r="A151" s="20" t="s">
         <v>265</v>
       </c>
@@ -4384,7 +4394,7 @@
         <v>153</v>
       </c>
     </row>
-    <row r="152" spans="1:4" ht="36">
+    <row r="152" spans="1:4" ht="56.25">
       <c r="A152" s="20" t="s">
         <v>267</v>
       </c>
@@ -4394,7 +4404,7 @@
       <c r="C152" s="16"/>
       <c r="D152" s="16"/>
     </row>
-    <row r="153" spans="1:4" ht="36">
+    <row r="153" spans="1:4" ht="56.25">
       <c r="A153" s="20" t="s">
         <v>269</v>
       </c>
@@ -4404,7 +4414,7 @@
       <c r="C153" s="16"/>
       <c r="D153" s="16"/>
     </row>
-    <row r="154" spans="1:4" ht="36">
+    <row r="154" spans="1:4" ht="56.25">
       <c r="A154" s="20" t="s">
         <v>271</v>
       </c>
@@ -4415,14 +4425,14 @@
       <c r="D154" s="16"/>
     </row>
     <row r="157" spans="1:4">
-      <c r="A157" s="40" t="s">
+      <c r="A157" s="41" t="s">
         <v>273</v>
       </c>
-      <c r="B157" s="40"/>
-      <c r="C157" s="37" t="s">
+      <c r="B157" s="41"/>
+      <c r="C157" s="38" t="s">
         <v>250</v>
       </c>
-      <c r="D157" s="37"/>
+      <c r="D157" s="38"/>
     </row>
     <row r="158" spans="1:4">
       <c r="A158" s="16" t="s">
@@ -4438,7 +4448,7 @@
         <v>275</v>
       </c>
     </row>
-    <row r="159" spans="1:4">
+    <row r="159" spans="1:4" ht="37.5">
       <c r="A159" s="16" t="s">
         <v>102</v>
       </c>
@@ -4480,7 +4490,7 @@
         <v>200</v>
       </c>
     </row>
-    <row r="162" spans="1:4" ht="36">
+    <row r="162" spans="1:4" ht="37.5">
       <c r="A162" s="16" t="s">
         <v>109</v>
       </c>
@@ -4504,7 +4514,7 @@
         <v>200</v>
       </c>
     </row>
-    <row r="164" spans="1:4" ht="54">
+    <row r="164" spans="1:4" ht="56.25">
       <c r="A164" s="20" t="s">
         <v>265</v>
       </c>
@@ -4518,7 +4528,7 @@
         <v>149</v>
       </c>
     </row>
-    <row r="165" spans="1:4" ht="36">
+    <row r="165" spans="1:4" ht="56.25">
       <c r="A165" s="20" t="s">
         <v>267</v>
       </c>
@@ -4532,7 +4542,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="166" spans="1:4" ht="36">
+    <row r="166" spans="1:4" ht="56.25">
       <c r="A166" s="20" t="s">
         <v>269</v>
       </c>
@@ -4546,7 +4556,7 @@
         <v>153</v>
       </c>
     </row>
-    <row r="167" spans="1:4" ht="36">
+    <row r="167" spans="1:4" ht="56.25">
       <c r="A167" s="20" t="s">
         <v>271</v>
       </c>
@@ -4556,6 +4566,34 @@
     </row>
   </sheetData>
   <mergeCells count="38">
+    <mergeCell ref="C92:D92"/>
+    <mergeCell ref="C96:D96"/>
+    <mergeCell ref="A103:B103"/>
+    <mergeCell ref="C103:D103"/>
+    <mergeCell ref="C73:D73"/>
+    <mergeCell ref="A79:B79"/>
+    <mergeCell ref="C79:D79"/>
+    <mergeCell ref="C82:D82"/>
+    <mergeCell ref="A88:B88"/>
+    <mergeCell ref="C88:D88"/>
+    <mergeCell ref="A52:B52"/>
+    <mergeCell ref="C52:D52"/>
+    <mergeCell ref="A60:B60"/>
+    <mergeCell ref="C60:D60"/>
+    <mergeCell ref="A70:B70"/>
+    <mergeCell ref="C70:D70"/>
+    <mergeCell ref="A26:B26"/>
+    <mergeCell ref="C26:D26"/>
+    <mergeCell ref="A34:B34"/>
+    <mergeCell ref="C34:D34"/>
+    <mergeCell ref="A43:B43"/>
+    <mergeCell ref="C43:D43"/>
+    <mergeCell ref="A1:B1"/>
+    <mergeCell ref="C1:D1"/>
+    <mergeCell ref="A10:B10"/>
+    <mergeCell ref="C10:D10"/>
+    <mergeCell ref="A18:B18"/>
+    <mergeCell ref="C18:D18"/>
     <mergeCell ref="A144:B144"/>
     <mergeCell ref="C144:D144"/>
     <mergeCell ref="A157:B157"/>
@@ -4566,34 +4604,6 @@
     <mergeCell ref="A125:B125"/>
     <mergeCell ref="A131:B131"/>
     <mergeCell ref="C131:D131"/>
-    <mergeCell ref="A1:B1"/>
-    <mergeCell ref="C1:D1"/>
-    <mergeCell ref="A10:B10"/>
-    <mergeCell ref="C10:D10"/>
-    <mergeCell ref="A18:B18"/>
-    <mergeCell ref="C18:D18"/>
-    <mergeCell ref="A26:B26"/>
-    <mergeCell ref="C26:D26"/>
-    <mergeCell ref="A34:B34"/>
-    <mergeCell ref="C34:D34"/>
-    <mergeCell ref="A43:B43"/>
-    <mergeCell ref="C43:D43"/>
-    <mergeCell ref="A52:B52"/>
-    <mergeCell ref="C52:D52"/>
-    <mergeCell ref="A60:B60"/>
-    <mergeCell ref="C60:D60"/>
-    <mergeCell ref="A70:B70"/>
-    <mergeCell ref="C70:D70"/>
-    <mergeCell ref="C92:D92"/>
-    <mergeCell ref="C96:D96"/>
-    <mergeCell ref="A103:B103"/>
-    <mergeCell ref="C103:D103"/>
-    <mergeCell ref="C73:D73"/>
-    <mergeCell ref="A79:B79"/>
-    <mergeCell ref="C79:D79"/>
-    <mergeCell ref="C82:D82"/>
-    <mergeCell ref="A88:B88"/>
-    <mergeCell ref="C88:D88"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <extLst>
@@ -4605,26 +4615,26 @@
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
   <dimension ref="A1:J52"/>
   <sheetViews>
     <sheetView topLeftCell="A29" workbookViewId="0">
       <selection activeCell="A31" sqref="A31"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="18" x14ac:dyDescent="0"/>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="18.75"/>
   <cols>
-    <col min="1" max="1" width="26.6640625" style="3" customWidth="1"/>
-    <col min="2" max="2" width="39.5" style="3" customWidth="1"/>
-    <col min="3" max="3" width="40.6640625" style="3" customWidth="1"/>
-    <col min="4" max="4" width="33.33203125" style="3" customWidth="1"/>
-    <col min="5" max="5" width="23.5" style="3" customWidth="1"/>
-    <col min="6" max="6" width="52.83203125" style="3" customWidth="1"/>
-    <col min="7" max="7" width="20.33203125" style="3" customWidth="1"/>
-    <col min="8" max="8" width="32.1640625" style="3" customWidth="1"/>
+    <col min="1" max="1" width="26.7109375" style="3" customWidth="1"/>
+    <col min="2" max="2" width="39.42578125" style="3" customWidth="1"/>
+    <col min="3" max="3" width="40.7109375" style="3" customWidth="1"/>
+    <col min="4" max="4" width="33.28515625" style="3" customWidth="1"/>
+    <col min="5" max="5" width="23.42578125" style="3" customWidth="1"/>
+    <col min="6" max="6" width="52.85546875" style="3" customWidth="1"/>
+    <col min="7" max="7" width="20.28515625" style="3" customWidth="1"/>
+    <col min="8" max="8" width="32.140625" style="3" customWidth="1"/>
     <col min="9" max="9" width="42" style="3" customWidth="1"/>
-    <col min="10" max="10" width="40.6640625" style="3" customWidth="1"/>
-    <col min="11" max="16384" width="8.83203125" style="3"/>
+    <col min="10" max="10" width="40.7109375" style="3" customWidth="1"/>
+    <col min="11" max="16384" width="8.85546875" style="3"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:10">
@@ -4798,7 +4808,7 @@
         <v>284</v>
       </c>
     </row>
-    <row r="22" spans="1:7" ht="108">
+    <row r="22" spans="1:7" ht="150">
       <c r="A22" s="15" t="s">
         <v>285</v>
       </c>
@@ -4821,7 +4831,7 @@
         <v>291</v>
       </c>
     </row>
-    <row r="23" spans="1:7" ht="36">
+    <row r="23" spans="1:7" ht="56.25">
       <c r="A23" s="15" t="s">
         <v>292</v>
       </c>
@@ -4835,7 +4845,7 @@
         <v>295</v>
       </c>
     </row>
-    <row r="24" spans="1:7">
+    <row r="24" spans="1:7" ht="37.5">
       <c r="A24" s="15" t="s">
         <v>296</v>
       </c>
@@ -4863,7 +4873,7 @@
         <v>301</v>
       </c>
     </row>
-    <row r="27" spans="1:7" ht="126">
+    <row r="27" spans="1:7" ht="168.75">
       <c r="A27" s="15" t="s">
         <v>302</v>
       </c>
@@ -4874,12 +4884,12 @@
         <v>303</v>
       </c>
     </row>
-    <row r="28" spans="1:7" ht="36">
+    <row r="28" spans="1:7" ht="37.5">
       <c r="A28" s="15" t="s">
         <v>304</v>
       </c>
     </row>
-    <row r="29" spans="1:7" ht="108">
+    <row r="29" spans="1:7" ht="168.75">
       <c r="A29" s="15" t="s">
         <v>305</v>
       </c>
@@ -4899,7 +4909,7 @@
         <v>309</v>
       </c>
     </row>
-    <row r="30" spans="1:7" ht="108">
+    <row r="30" spans="1:7" ht="112.5">
       <c r="A30" s="15" t="s">
         <v>310</v>
       </c>
@@ -4910,7 +4920,7 @@
         <v>312</v>
       </c>
     </row>
-    <row r="31" spans="1:7">
+    <row r="31" spans="1:7" ht="37.5">
       <c r="A31" s="15" t="s">
         <v>454</v>
       </c>
@@ -4920,7 +4930,7 @@
         <v>313</v>
       </c>
     </row>
-    <row r="34" spans="1:9" ht="144">
+    <row r="34" spans="1:9" ht="187.5">
       <c r="A34" s="23">
         <v>12</v>
       </c>
@@ -4957,7 +4967,7 @@
         <v>320</v>
       </c>
     </row>
-    <row r="36" spans="1:9" ht="72">
+    <row r="36" spans="1:9" ht="93.75">
       <c r="A36" s="3" t="s">
         <v>321</v>
       </c>
@@ -4976,7 +4986,7 @@
         <v>325</v>
       </c>
     </row>
-    <row r="38" spans="1:9" ht="54">
+    <row r="38" spans="1:9" ht="56.25">
       <c r="A38" s="15" t="s">
         <v>326</v>
       </c>
@@ -4995,7 +5005,7 @@
         <v>330</v>
       </c>
     </row>
-    <row r="40" spans="1:9" ht="36">
+    <row r="40" spans="1:9" ht="56.25">
       <c r="A40" s="3" t="s">
         <v>331</v>
       </c>
@@ -5009,7 +5019,7 @@
         <v>334</v>
       </c>
     </row>
-    <row r="41" spans="1:9" ht="36">
+    <row r="41" spans="1:9" ht="37.5">
       <c r="A41" s="3" t="s">
         <v>335</v>
       </c>
@@ -5023,7 +5033,7 @@
         <v>334</v>
       </c>
     </row>
-    <row r="42" spans="1:9" ht="90">
+    <row r="42" spans="1:9" ht="112.5">
       <c r="A42" s="15" t="s">
         <v>338</v>
       </c>
@@ -5042,7 +5052,7 @@
         <v>342</v>
       </c>
     </row>
-    <row r="44" spans="1:9" ht="108">
+    <row r="44" spans="1:9" ht="131.25">
       <c r="A44" s="15" t="s">
         <v>343</v>
       </c>
@@ -5064,7 +5074,7 @@
         <v>348</v>
       </c>
     </row>
-    <row r="46" spans="1:9" ht="108">
+    <row r="46" spans="1:9" ht="131.25">
       <c r="A46" s="23">
         <v>11</v>
       </c>
@@ -5093,7 +5103,7 @@
         <v>291</v>
       </c>
     </row>
-    <row r="47" spans="1:9" ht="90">
+    <row r="47" spans="1:9" ht="93.75">
       <c r="A47" s="3" t="s">
         <v>352</v>
       </c>
@@ -5127,7 +5137,7 @@
         <v>360</v>
       </c>
     </row>
-    <row r="49" spans="1:6" ht="90">
+    <row r="49" spans="1:6" ht="112.5">
       <c r="A49" s="3" t="s">
         <v>361</v>
       </c>
@@ -5147,7 +5157,7 @@
         <v>365</v>
       </c>
     </row>
-    <row r="50" spans="1:6" ht="90">
+    <row r="50" spans="1:6" ht="93.75">
       <c r="A50" s="3" t="s">
         <v>366</v>
       </c>
@@ -5169,7 +5179,7 @@
         <v>371</v>
       </c>
     </row>
-    <row r="52" spans="1:6" ht="198">
+    <row r="52" spans="1:6" ht="281.25">
       <c r="A52" s="15" t="s">
         <v>372</v>
       </c>
@@ -5197,21 +5207,21 @@
 </file>
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0600-000000000000}">
   <dimension ref="A1:E35"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A7" sqref="A7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="18" x14ac:dyDescent="0"/>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="18.75"/>
   <cols>
-    <col min="1" max="1" width="61.5" style="26" customWidth="1" collapsed="1"/>
+    <col min="1" max="1" width="61.42578125" style="26" customWidth="1" collapsed="1"/>
     <col min="2" max="2" width="28" style="26" customWidth="1" collapsed="1"/>
-    <col min="3" max="3" width="43.5" style="26" customWidth="1" collapsed="1"/>
-    <col min="4" max="4" width="46.5" style="26" customWidth="1" collapsed="1"/>
+    <col min="3" max="3" width="43.42578125" style="26" customWidth="1" collapsed="1"/>
+    <col min="4" max="4" width="46.42578125" style="26" customWidth="1" collapsed="1"/>
     <col min="5" max="5" width="36" style="26" customWidth="1"/>
-    <col min="6" max="16384" width="8.83203125" style="26"/>
+    <col min="6" max="16384" width="8.85546875" style="26"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:5">
@@ -5231,7 +5241,7 @@
         <v>380</v>
       </c>
     </row>
-    <row r="2" spans="1:5" ht="36">
+    <row r="2" spans="1:5" ht="37.5">
       <c r="A2" s="27" t="s">
         <v>381</v>
       </c>
@@ -5248,7 +5258,7 @@
         <v>385</v>
       </c>
     </row>
-    <row r="3" spans="1:5" ht="36">
+    <row r="3" spans="1:5" ht="37.5">
       <c r="A3" s="27" t="s">
         <v>386</v>
       </c>
@@ -5263,7 +5273,7 @@
       </c>
       <c r="E3" s="27"/>
     </row>
-    <row r="4" spans="1:5" ht="36">
+    <row r="4" spans="1:5" ht="37.5">
       <c r="A4" s="27" t="s">
         <v>388</v>
       </c>
@@ -5278,7 +5288,7 @@
       </c>
       <c r="E4" s="28"/>
     </row>
-    <row r="5" spans="1:5" ht="36">
+    <row r="5" spans="1:5" ht="37.5">
       <c r="A5" s="27" t="s">
         <v>390</v>
       </c>
@@ -5293,7 +5303,7 @@
       </c>
       <c r="E5" s="28"/>
     </row>
-    <row r="6" spans="1:5" ht="36">
+    <row r="6" spans="1:5" ht="37.5">
       <c r="A6" s="27" t="s">
         <v>392</v>
       </c>
@@ -5308,7 +5318,7 @@
       </c>
       <c r="E6" s="28"/>
     </row>
-    <row r="7" spans="1:5" ht="36">
+    <row r="7" spans="1:5" ht="37.5">
       <c r="A7" s="27" t="s">
         <v>394</v>
       </c>
@@ -5323,7 +5333,7 @@
       </c>
       <c r="E7" s="28"/>
     </row>
-    <row r="8" spans="1:5" ht="36">
+    <row r="8" spans="1:5" ht="37.5">
       <c r="A8" s="27" t="s">
         <v>396</v>
       </c>
@@ -5338,7 +5348,7 @@
       </c>
       <c r="E8" s="28"/>
     </row>
-    <row r="9" spans="1:5" ht="36">
+    <row r="9" spans="1:5" ht="37.5">
       <c r="A9" s="27" t="s">
         <v>398</v>
       </c>
@@ -5353,7 +5363,7 @@
       </c>
       <c r="E9" s="28"/>
     </row>
-    <row r="10" spans="1:5" ht="36">
+    <row r="10" spans="1:5" ht="37.5">
       <c r="A10" s="27" t="s">
         <v>400</v>
       </c>
@@ -5368,7 +5378,7 @@
       </c>
       <c r="E10" s="28"/>
     </row>
-    <row r="11" spans="1:5" ht="36">
+    <row r="11" spans="1:5" ht="37.5">
       <c r="A11" s="27" t="s">
         <v>402</v>
       </c>
@@ -5383,7 +5393,7 @@
       </c>
       <c r="E11" s="28"/>
     </row>
-    <row r="12" spans="1:5" ht="36">
+    <row r="12" spans="1:5" ht="37.5">
       <c r="A12" s="27" t="s">
         <v>404</v>
       </c>
@@ -5398,7 +5408,7 @@
       </c>
       <c r="E12" s="30"/>
     </row>
-    <row r="13" spans="1:5" ht="36">
+    <row r="13" spans="1:5" ht="37.5">
       <c r="A13" s="27" t="s">
         <v>406</v>
       </c>
@@ -5413,7 +5423,7 @@
       </c>
       <c r="E13" s="30"/>
     </row>
-    <row r="14" spans="1:5" ht="36">
+    <row r="14" spans="1:5" ht="37.5">
       <c r="A14" s="27" t="s">
         <v>408</v>
       </c>
@@ -5428,7 +5438,7 @@
       </c>
       <c r="E14" s="30"/>
     </row>
-    <row r="15" spans="1:5" ht="36">
+    <row r="15" spans="1:5" ht="37.5">
       <c r="A15" s="27" t="s">
         <v>410</v>
       </c>
@@ -5443,7 +5453,7 @@
       </c>
       <c r="E15" s="30"/>
     </row>
-    <row r="16" spans="1:5" ht="36">
+    <row r="16" spans="1:5" ht="37.5">
       <c r="A16" s="27" t="s">
         <v>412</v>
       </c>
@@ -5458,7 +5468,7 @@
       </c>
       <c r="E16" s="30"/>
     </row>
-    <row r="17" spans="1:5" ht="36">
+    <row r="17" spans="1:5" ht="37.5">
       <c r="A17" s="27" t="s">
         <v>414</v>
       </c>
@@ -5473,7 +5483,7 @@
       </c>
       <c r="E17" s="30"/>
     </row>
-    <row r="18" spans="1:5" ht="36">
+    <row r="18" spans="1:5" ht="37.5">
       <c r="A18" s="31" t="s">
         <v>416</v>
       </c>
@@ -5488,7 +5498,7 @@
       </c>
       <c r="E18" s="30"/>
     </row>
-    <row r="19" spans="1:5" ht="36">
+    <row r="19" spans="1:5" ht="37.5">
       <c r="A19" s="27" t="s">
         <v>418</v>
       </c>
@@ -5503,7 +5513,7 @@
       </c>
       <c r="E19" s="30"/>
     </row>
-    <row r="20" spans="1:5" ht="36">
+    <row r="20" spans="1:5" ht="37.5">
       <c r="A20" s="27" t="s">
         <v>420</v>
       </c>
@@ -5517,7 +5527,7 @@
         <v>384</v>
       </c>
     </row>
-    <row r="21" spans="1:5" ht="36">
+    <row r="21" spans="1:5" ht="37.5">
       <c r="A21" s="27" t="s">
         <v>422</v>
       </c>
@@ -5531,7 +5541,7 @@
         <v>384</v>
       </c>
     </row>
-    <row r="22" spans="1:5" ht="36">
+    <row r="22" spans="1:5" ht="37.5">
       <c r="A22" s="27" t="s">
         <v>424</v>
       </c>
@@ -5545,7 +5555,7 @@
         <v>384</v>
       </c>
     </row>
-    <row r="23" spans="1:5" ht="36">
+    <row r="23" spans="1:5" ht="37.5">
       <c r="A23" s="27" t="s">
         <v>426</v>
       </c>
@@ -5559,7 +5569,7 @@
         <v>384</v>
       </c>
     </row>
-    <row r="24" spans="1:5" ht="36">
+    <row r="24" spans="1:5" ht="37.5">
       <c r="A24" s="27" t="s">
         <v>428</v>
       </c>
@@ -5573,7 +5583,7 @@
         <v>384</v>
       </c>
     </row>
-    <row r="25" spans="1:5" ht="36">
+    <row r="25" spans="1:5" ht="37.5">
       <c r="A25" s="27" t="s">
         <v>430</v>
       </c>
@@ -5587,7 +5597,7 @@
         <v>384</v>
       </c>
     </row>
-    <row r="26" spans="1:5" ht="36">
+    <row r="26" spans="1:5" ht="37.5">
       <c r="A26" s="27" t="s">
         <v>432</v>
       </c>
@@ -5601,7 +5611,7 @@
         <v>384</v>
       </c>
     </row>
-    <row r="27" spans="1:5" ht="36">
+    <row r="27" spans="1:5" ht="37.5">
       <c r="A27" s="27" t="s">
         <v>434</v>
       </c>
@@ -5615,7 +5625,7 @@
         <v>384</v>
       </c>
     </row>
-    <row r="28" spans="1:5" ht="36">
+    <row r="28" spans="1:5" ht="37.5">
       <c r="A28" s="27" t="s">
         <v>436</v>
       </c>
@@ -5629,7 +5639,7 @@
         <v>384</v>
       </c>
     </row>
-    <row r="29" spans="1:5" ht="36">
+    <row r="29" spans="1:5" ht="37.5">
       <c r="A29" s="27" t="s">
         <v>438</v>
       </c>
@@ -5643,7 +5653,7 @@
         <v>384</v>
       </c>
     </row>
-    <row r="30" spans="1:5" ht="36">
+    <row r="30" spans="1:5" ht="37.5">
       <c r="A30" s="27" t="s">
         <v>440</v>
       </c>
@@ -5657,7 +5667,7 @@
         <v>384</v>
       </c>
     </row>
-    <row r="31" spans="1:5" ht="36">
+    <row r="31" spans="1:5" ht="37.5">
       <c r="A31" s="27" t="s">
         <v>442</v>
       </c>
@@ -5671,7 +5681,7 @@
         <v>384</v>
       </c>
     </row>
-    <row r="32" spans="1:5" ht="36">
+    <row r="32" spans="1:5" ht="37.5">
       <c r="A32" s="27" t="s">
         <v>444</v>
       </c>
@@ -5685,7 +5695,7 @@
         <v>384</v>
       </c>
     </row>
-    <row r="33" spans="1:4" ht="36">
+    <row r="33" spans="1:4" ht="37.5">
       <c r="A33" s="27" t="s">
         <v>446</v>
       </c>
@@ -5699,7 +5709,7 @@
         <v>384</v>
       </c>
     </row>
-    <row r="34" spans="1:4" ht="36">
+    <row r="34" spans="1:4" ht="37.5">
       <c r="A34" s="27" t="s">
         <v>448</v>
       </c>
@@ -5713,7 +5723,7 @@
         <v>384</v>
       </c>
     </row>
-    <row r="35" spans="1:4" ht="36">
+    <row r="35" spans="1:4" ht="37.5">
       <c r="A35" s="27" t="s">
         <v>450</v>
       </c>

--- a/TestData.xlsx
+++ b/TestData.xlsx
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="818" uniqueCount="475">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="817" uniqueCount="474">
   <si>
     <t>TEST CASE NAME</t>
   </si>
@@ -39,9 +39,6 @@
   </si>
   <si>
     <t>PASSWORD</t>
-  </si>
-  <si>
-    <t>RESULTS</t>
   </si>
   <si>
     <t>Grovo Application URL</t>
@@ -1810,13 +1807,13 @@
     <xf numFmtId="0" fontId="13" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="13" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="13" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -2229,10 +2226,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:AMK6"/>
+  <dimension ref="A1:AMJ6"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="77" zoomScaleNormal="77" zoomScalePageLayoutView="77" workbookViewId="0">
-      <selection activeCell="B7" sqref="B7"/>
+      <selection activeCell="C2" sqref="C2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="21"/>
@@ -2240,12 +2237,11 @@
     <col min="1" max="1" width="32.42578125" style="10" customWidth="1" collapsed="1"/>
     <col min="2" max="2" width="42.85546875" style="10" customWidth="1" collapsed="1"/>
     <col min="3" max="3" width="26" style="10" customWidth="1" collapsed="1"/>
-    <col min="4" max="4" width="38" style="10" customWidth="1" collapsed="1"/>
-    <col min="5" max="1025" width="8.85546875" style="10" collapsed="1"/>
-    <col min="1026" max="16384" width="8.85546875" style="10"/>
+    <col min="4" max="1024" width="8.85546875" style="10" collapsed="1"/>
+    <col min="1025" max="16384" width="8.85546875" style="10"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4">
+    <row r="1" spans="1:3">
       <c r="A1" s="9" t="s">
         <v>0</v>
       </c>
@@ -2255,49 +2251,41 @@
       <c r="C1" s="9" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="9" t="s">
+    </row>
+    <row r="2" spans="1:3">
+      <c r="A2" s="11" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="2" spans="1:4">
-      <c r="A2" s="11" t="s">
+      <c r="B2" s="37" t="s">
         <v>4</v>
       </c>
-      <c r="B2" s="37" t="s">
-        <v>5</v>
-      </c>
       <c r="C2" s="11"/>
-      <c r="D2" s="11"/>
-    </row>
-    <row r="3" spans="1:4">
+    </row>
+    <row r="3" spans="1:3">
       <c r="A3" s="11"/>
       <c r="B3" s="11"/>
       <c r="C3" s="11"/>
-      <c r="D3" s="11"/>
-    </row>
-    <row r="4" spans="1:4">
+    </row>
+    <row r="4" spans="1:3">
       <c r="A4" s="11" t="s">
+        <v>5</v>
+      </c>
+      <c r="B4" s="37" t="s">
+        <v>473</v>
+      </c>
+      <c r="C4" s="12" t="s">
         <v>6</v>
       </c>
-      <c r="B4" s="37" t="s">
-        <v>474</v>
-      </c>
-      <c r="C4" s="12" t="s">
-        <v>7</v>
-      </c>
-      <c r="D4" s="11"/>
-    </row>
-    <row r="5" spans="1:4">
+    </row>
+    <row r="5" spans="1:3">
       <c r="A5" s="11"/>
       <c r="B5" s="13"/>
       <c r="C5" s="11"/>
-      <c r="D5" s="11"/>
-    </row>
-    <row r="6" spans="1:4">
+    </row>
+    <row r="6" spans="1:3">
       <c r="A6" s="11"/>
       <c r="B6" s="13"/>
       <c r="C6" s="11"/>
-      <c r="D6" s="11"/>
     </row>
   </sheetData>
   <hyperlinks>
@@ -2336,129 +2324,129 @@
   <sheetData>
     <row r="1" spans="1:8">
       <c r="A1" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="B1" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="C1" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="D1" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="E1" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="F1" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="G1" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="F1" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="G1" s="1" t="s">
+      <c r="H1" s="1" t="s">
         <v>13</v>
-      </c>
-      <c r="H1" s="1" t="s">
-        <v>14</v>
       </c>
     </row>
     <row r="2" spans="1:8">
       <c r="A2" s="3" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B2" s="3" t="s">
-        <v>466</v>
+        <v>465</v>
       </c>
       <c r="C2" s="3" t="s">
-        <v>470</v>
+        <v>469</v>
       </c>
       <c r="D2" s="14" t="s">
-        <v>455</v>
+        <v>454</v>
       </c>
       <c r="E2" s="3" t="s">
-        <v>459</v>
+        <v>458</v>
       </c>
       <c r="G2" s="4" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="H2" s="4" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="3" spans="1:8">
       <c r="A3" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="B3" s="3" t="s">
+        <v>466</v>
+      </c>
+      <c r="C3" s="3" t="s">
+        <v>470</v>
+      </c>
+      <c r="D3" s="14" t="s">
+        <v>455</v>
+      </c>
+      <c r="E3" s="3" t="s">
+        <v>459</v>
+      </c>
+      <c r="F3" s="3" t="s">
         <v>17</v>
       </c>
-      <c r="B3" s="3" t="s">
-        <v>467</v>
-      </c>
-      <c r="C3" s="3" t="s">
-        <v>471</v>
-      </c>
-      <c r="D3" s="14" t="s">
-        <v>456</v>
-      </c>
-      <c r="E3" s="3" t="s">
-        <v>460</v>
-      </c>
-      <c r="F3" s="3" t="s">
-        <v>18</v>
-      </c>
       <c r="G3" s="4" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="H3" s="4" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="4" spans="1:8">
       <c r="A4" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="B4" s="3" t="s">
+        <v>467</v>
+      </c>
+      <c r="C4" s="3" t="s">
+        <v>471</v>
+      </c>
+      <c r="D4" s="14" t="s">
+        <v>456</v>
+      </c>
+      <c r="E4" s="3" t="s">
+        <v>460</v>
+      </c>
+      <c r="F4" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="B4" s="3" t="s">
-        <v>468</v>
-      </c>
-      <c r="C4" s="3" t="s">
-        <v>472</v>
-      </c>
-      <c r="D4" s="14" t="s">
-        <v>457</v>
-      </c>
-      <c r="E4" s="3" t="s">
-        <v>461</v>
-      </c>
-      <c r="F4" s="3" t="s">
-        <v>20</v>
-      </c>
       <c r="G4" s="4" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="H4" s="4" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="5" spans="1:8">
       <c r="A5" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="B5" s="3" t="s">
+        <v>468</v>
+      </c>
+      <c r="C5" s="3" t="s">
+        <v>472</v>
+      </c>
+      <c r="D5" s="14" t="s">
+        <v>457</v>
+      </c>
+      <c r="E5" s="3" t="s">
+        <v>461</v>
+      </c>
+      <c r="F5" s="3" t="s">
         <v>21</v>
       </c>
-      <c r="B5" s="3" t="s">
-        <v>469</v>
-      </c>
-      <c r="C5" s="3" t="s">
-        <v>473</v>
-      </c>
-      <c r="D5" s="14" t="s">
-        <v>458</v>
-      </c>
-      <c r="E5" s="3" t="s">
-        <v>462</v>
-      </c>
-      <c r="F5" s="3" t="s">
-        <v>22</v>
-      </c>
       <c r="G5" s="4" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="H5" s="4" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
   </sheetData>
@@ -2504,140 +2492,140 @@
   <sheetData>
     <row r="1" spans="1:4">
       <c r="A1" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="B1" s="2" t="s">
         <v>63</v>
       </c>
-      <c r="B1" s="2" t="s">
+      <c r="C1" s="3" t="s">
         <v>64</v>
-      </c>
-      <c r="C1" s="3" t="s">
-        <v>65</v>
       </c>
     </row>
     <row r="2" spans="1:4">
       <c r="A2" s="2" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="C2" s="4" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="3" spans="1:4">
       <c r="A3" s="2" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
     </row>
     <row r="4" spans="1:4">
       <c r="A4" s="2" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="B4" s="5" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
     </row>
     <row r="5" spans="1:4">
       <c r="A5" s="2" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="B5" s="5" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
     </row>
     <row r="6" spans="1:4">
       <c r="A6" s="2" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="B6" s="5" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
     </row>
     <row r="7" spans="1:4">
       <c r="A7" s="2" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="B7" s="5" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
     </row>
     <row r="8" spans="1:4">
       <c r="A8" s="2" t="s">
+        <v>75</v>
+      </c>
+      <c r="B8" s="6" t="s">
         <v>76</v>
-      </c>
-      <c r="B8" s="6" t="s">
-        <v>77</v>
       </c>
     </row>
     <row r="9" spans="1:4">
       <c r="A9" s="2" t="s">
+        <v>77</v>
+      </c>
+      <c r="B9" s="6" t="s">
         <v>78</v>
-      </c>
-      <c r="B9" s="6" t="s">
-        <v>79</v>
       </c>
     </row>
     <row r="10" spans="1:4">
       <c r="A10" s="2" t="s">
+        <v>79</v>
+      </c>
+      <c r="B10" s="6" t="s">
         <v>80</v>
-      </c>
-      <c r="B10" s="6" t="s">
-        <v>81</v>
       </c>
     </row>
     <row r="11" spans="1:4">
       <c r="A11" s="2" t="s">
+        <v>81</v>
+      </c>
+      <c r="B11" s="6" t="s">
         <v>82</v>
-      </c>
-      <c r="B11" s="6" t="s">
-        <v>83</v>
       </c>
     </row>
     <row r="12" spans="1:4">
       <c r="A12" s="2" t="s">
+        <v>85</v>
+      </c>
+      <c r="B12" s="6" t="s">
         <v>86</v>
-      </c>
-      <c r="B12" s="6" t="s">
-        <v>87</v>
       </c>
     </row>
     <row r="13" spans="1:4">
       <c r="A13" s="2" t="s">
+        <v>87</v>
+      </c>
+      <c r="B13" s="7" t="s">
         <v>88</v>
-      </c>
-      <c r="B13" s="7" t="s">
-        <v>89</v>
       </c>
     </row>
     <row r="14" spans="1:4">
       <c r="A14" s="2" t="s">
+        <v>89</v>
+      </c>
+      <c r="B14" s="6" t="s">
         <v>90</v>
       </c>
-      <c r="B14" s="6" t="s">
+      <c r="C14" s="2" t="s">
         <v>91</v>
       </c>
-      <c r="C14" s="2" t="s">
+      <c r="D14" s="2" t="s">
         <v>92</v>
-      </c>
-      <c r="D14" s="2" t="s">
-        <v>93</v>
       </c>
     </row>
     <row r="15" spans="1:4">
       <c r="A15" s="2" t="s">
+        <v>93</v>
+      </c>
+      <c r="B15" s="6" t="s">
         <v>94</v>
       </c>
-      <c r="B15" s="6" t="s">
+      <c r="C15" s="2" t="s">
+        <v>91</v>
+      </c>
+      <c r="D15" s="2" t="s">
         <v>95</v>
-      </c>
-      <c r="C15" s="2" t="s">
-        <v>92</v>
-      </c>
-      <c r="D15" s="2" t="s">
-        <v>96</v>
       </c>
     </row>
   </sheetData>
@@ -2671,24 +2659,24 @@
   <sheetData>
     <row r="1" spans="1:2" ht="15" customHeight="1">
       <c r="A1" s="39" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="B1" s="40"/>
     </row>
     <row r="2" spans="1:2">
       <c r="A2" s="16" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B2" s="17" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
     </row>
     <row r="3" spans="1:2">
       <c r="A3" s="16" t="s">
+        <v>208</v>
+      </c>
+      <c r="B3" s="17" t="s">
         <v>209</v>
-      </c>
-      <c r="B3" s="17" t="s">
-        <v>210</v>
       </c>
     </row>
     <row r="4" spans="1:2">
@@ -2697,48 +2685,48 @@
     </row>
     <row r="6" spans="1:2" ht="14.1" customHeight="1">
       <c r="A6" s="39" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="B6" s="40"/>
     </row>
     <row r="7" spans="1:2">
       <c r="A7" s="16" t="s">
+        <v>211</v>
+      </c>
+      <c r="B7" s="17" t="s">
         <v>212</v>
-      </c>
-      <c r="B7" s="17" t="s">
-        <v>213</v>
       </c>
     </row>
     <row r="8" spans="1:2">
       <c r="A8" s="16" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B8" s="17" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
     </row>
     <row r="9" spans="1:2">
       <c r="A9" s="16" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="B9" s="17" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
     </row>
     <row r="10" spans="1:2" ht="15" customHeight="1">
       <c r="A10" s="16" t="s">
+        <v>215</v>
+      </c>
+      <c r="B10" s="17" t="s">
         <v>216</v>
-      </c>
-      <c r="B10" s="17" t="s">
-        <v>217</v>
       </c>
     </row>
     <row r="11" spans="1:2">
       <c r="A11" s="16" t="s">
+        <v>217</v>
+      </c>
+      <c r="B11" s="17" t="s">
         <v>218</v>
-      </c>
-      <c r="B11" s="17" t="s">
-        <v>219</v>
       </c>
     </row>
     <row r="12" spans="1:2">
@@ -2747,24 +2735,24 @@
     </row>
     <row r="14" spans="1:2">
       <c r="A14" s="38" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="B14" s="38"/>
     </row>
     <row r="15" spans="1:2">
       <c r="A15" s="16" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B15" s="17" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
     </row>
     <row r="16" spans="1:2" ht="24.95" customHeight="1">
       <c r="A16" s="16" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="B16" s="17" t="s">
-        <v>463</v>
+        <v>462</v>
       </c>
     </row>
     <row r="17" spans="1:2">
@@ -2777,29 +2765,29 @@
     </row>
     <row r="20" spans="1:2">
       <c r="A20" s="38" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="B20" s="38"/>
     </row>
     <row r="21" spans="1:2">
       <c r="A21" s="16" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B21" s="17" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
     </row>
     <row r="22" spans="1:2">
       <c r="A22" s="16" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="B22" s="17" t="s">
-        <v>464</v>
+        <v>463</v>
       </c>
     </row>
     <row r="23" spans="1:2">
       <c r="A23" s="16" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="B23" s="17">
         <v>200</v>
@@ -2811,29 +2799,29 @@
     </row>
     <row r="26" spans="1:2" ht="15" customHeight="1">
       <c r="A26" s="38" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="B26" s="38"/>
     </row>
     <row r="27" spans="1:2">
       <c r="A27" s="16" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B27" s="17" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
     </row>
     <row r="28" spans="1:2">
       <c r="A28" s="16" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="B28" s="17" t="s">
-        <v>465</v>
+        <v>464</v>
       </c>
     </row>
     <row r="29" spans="1:2">
       <c r="A29" s="16" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="B29" s="17">
         <v>200</v>
@@ -2889,64 +2877,64 @@
   <sheetData>
     <row r="1" spans="1:4" ht="14.1" customHeight="1">
       <c r="A1" s="39" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="B1" s="40"/>
       <c r="C1" s="39" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="D1" s="40"/>
     </row>
     <row r="2" spans="1:4">
       <c r="A2" s="16" t="s">
+        <v>98</v>
+      </c>
+      <c r="B2" s="17" t="s">
         <v>99</v>
       </c>
-      <c r="B2" s="17" t="s">
+      <c r="C2" s="16" t="s">
+        <v>22</v>
+      </c>
+      <c r="D2" s="17" t="s">
         <v>100</v>
-      </c>
-      <c r="C2" s="16" t="s">
-        <v>23</v>
-      </c>
-      <c r="D2" s="17" t="s">
-        <v>101</v>
       </c>
     </row>
     <row r="3" spans="1:4">
       <c r="A3" s="16" t="s">
+        <v>101</v>
+      </c>
+      <c r="B3" s="17" t="s">
+        <v>462</v>
+      </c>
+      <c r="C3" s="16" t="s">
         <v>102</v>
       </c>
-      <c r="B3" s="17" t="s">
-        <v>463</v>
-      </c>
-      <c r="C3" s="16" t="s">
+      <c r="D3" s="17" t="s">
         <v>103</v>
-      </c>
-      <c r="D3" s="17" t="s">
-        <v>104</v>
       </c>
     </row>
     <row r="4" spans="1:4">
       <c r="A4" s="16" t="s">
+        <v>104</v>
+      </c>
+      <c r="B4" s="17" t="s">
         <v>105</v>
-      </c>
-      <c r="B4" s="17" t="s">
-        <v>106</v>
       </c>
     </row>
     <row r="5" spans="1:4">
       <c r="A5" s="16" t="s">
+        <v>106</v>
+      </c>
+      <c r="B5" s="17" t="s">
         <v>107</v>
-      </c>
-      <c r="B5" s="17" t="s">
-        <v>108</v>
       </c>
     </row>
     <row r="6" spans="1:4" ht="37.5">
       <c r="A6" s="16" t="s">
+        <v>108</v>
+      </c>
+      <c r="B6" s="17" t="s">
         <v>109</v>
-      </c>
-      <c r="B6" s="17" t="s">
-        <v>110</v>
       </c>
     </row>
     <row r="7" spans="1:4">
@@ -2955,76 +2943,76 @@
     </row>
     <row r="10" spans="1:4" ht="14.1" customHeight="1">
       <c r="A10" s="39" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="B10" s="40"/>
       <c r="C10" s="39" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="D10" s="40"/>
     </row>
     <row r="11" spans="1:4">
       <c r="A11" s="16" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="B11" s="17" t="s">
+        <v>111</v>
+      </c>
+      <c r="C11" s="16" t="s">
+        <v>22</v>
+      </c>
+      <c r="D11" s="17" t="s">
         <v>112</v>
-      </c>
-      <c r="C11" s="16" t="s">
-        <v>23</v>
-      </c>
-      <c r="D11" s="17" t="s">
-        <v>113</v>
       </c>
     </row>
     <row r="12" spans="1:4">
       <c r="A12" s="16" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="B12" s="17" t="s">
-        <v>463</v>
+        <v>462</v>
       </c>
       <c r="C12" s="16" t="s">
+        <v>113</v>
+      </c>
+      <c r="D12" s="17" t="s">
         <v>114</v>
-      </c>
-      <c r="D12" s="17" t="s">
-        <v>115</v>
       </c>
     </row>
     <row r="13" spans="1:4">
       <c r="A13" s="16" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="B13" s="17" t="s">
+        <v>115</v>
+      </c>
+      <c r="C13" s="16" t="s">
         <v>116</v>
       </c>
-      <c r="C13" s="16" t="s">
-        <v>117</v>
-      </c>
       <c r="D13" s="17" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
     </row>
     <row r="14" spans="1:4">
       <c r="A14" s="16" t="s">
+        <v>106</v>
+      </c>
+      <c r="B14" s="17" t="s">
         <v>107</v>
       </c>
-      <c r="B14" s="17" t="s">
-        <v>108</v>
-      </c>
       <c r="C14" s="16" t="s">
+        <v>117</v>
+      </c>
+      <c r="D14" s="17" t="s">
         <v>118</v>
-      </c>
-      <c r="D14" s="17" t="s">
-        <v>119</v>
       </c>
     </row>
     <row r="15" spans="1:4" ht="37.5">
       <c r="A15" s="16" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="B15" s="17" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
     </row>
     <row r="16" spans="1:4">
@@ -3033,68 +3021,68 @@
     </row>
     <row r="18" spans="1:4" ht="14.1" customHeight="1">
       <c r="A18" s="39" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="B18" s="40"/>
       <c r="C18" s="39" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="D18" s="40"/>
     </row>
     <row r="19" spans="1:4">
       <c r="A19" s="16" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="B19" s="17" t="s">
+        <v>121</v>
+      </c>
+      <c r="C19" s="16" t="s">
+        <v>22</v>
+      </c>
+      <c r="D19" s="17" t="s">
         <v>122</v>
-      </c>
-      <c r="C19" s="16" t="s">
-        <v>23</v>
-      </c>
-      <c r="D19" s="17" t="s">
-        <v>123</v>
       </c>
     </row>
     <row r="20" spans="1:4" ht="37.5">
       <c r="A20" s="16" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="B20" s="17" t="s">
-        <v>463</v>
+        <v>462</v>
       </c>
       <c r="C20" s="18" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="D20" s="19" t="s">
-        <v>463</v>
+        <v>462</v>
       </c>
     </row>
     <row r="21" spans="1:4">
       <c r="A21" s="16" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="B21" s="17" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="C21" s="18"/>
       <c r="D21" s="19"/>
     </row>
     <row r="22" spans="1:4">
       <c r="A22" s="16" t="s">
+        <v>106</v>
+      </c>
+      <c r="B22" s="17" t="s">
         <v>107</v>
-      </c>
-      <c r="B22" s="17" t="s">
-        <v>108</v>
       </c>
       <c r="C22" s="18"/>
       <c r="D22" s="19"/>
     </row>
     <row r="23" spans="1:4" ht="37.5">
       <c r="A23" s="16" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="B23" s="17" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
     </row>
     <row r="24" spans="1:4">
@@ -3103,51 +3091,51 @@
     </row>
     <row r="26" spans="1:4" ht="14.1" customHeight="1">
       <c r="A26" s="39" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="B26" s="40"/>
       <c r="C26" s="39" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="D26" s="40"/>
     </row>
     <row r="27" spans="1:4">
       <c r="A27" s="16" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="B27" s="17" t="s">
+        <v>127</v>
+      </c>
+      <c r="C27" s="16" t="s">
+        <v>22</v>
+      </c>
+      <c r="D27" s="17" t="s">
         <v>128</v>
-      </c>
-      <c r="C27" s="16" t="s">
-        <v>23</v>
-      </c>
-      <c r="D27" s="17" t="s">
-        <v>129</v>
       </c>
     </row>
     <row r="28" spans="1:4" ht="37.5">
       <c r="A28" s="16" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="B28" s="17" t="s">
+        <v>462</v>
+      </c>
+      <c r="C28" s="16" t="s">
+        <v>129</v>
+      </c>
+      <c r="D28" s="17" t="s">
         <v>463</v>
-      </c>
-      <c r="C28" s="16" t="s">
-        <v>130</v>
-      </c>
-      <c r="D28" s="17" t="s">
-        <v>464</v>
       </c>
     </row>
     <row r="29" spans="1:4">
       <c r="A29" s="16" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="B29" s="17" t="s">
+        <v>130</v>
+      </c>
+      <c r="C29" s="16" t="s">
         <v>131</v>
-      </c>
-      <c r="C29" s="16" t="s">
-        <v>132</v>
       </c>
       <c r="D29" s="17">
         <v>300</v>
@@ -3155,20 +3143,20 @@
     </row>
     <row r="30" spans="1:4">
       <c r="A30" s="16" t="s">
+        <v>106</v>
+      </c>
+      <c r="B30" s="17" t="s">
         <v>107</v>
-      </c>
-      <c r="B30" s="17" t="s">
-        <v>108</v>
       </c>
       <c r="C30" s="16"/>
       <c r="D30" s="17"/>
     </row>
     <row r="31" spans="1:4" ht="37.5">
       <c r="A31" s="16" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="B31" s="17" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
     </row>
     <row r="32" spans="1:4">
@@ -3177,51 +3165,51 @@
     </row>
     <row r="34" spans="1:4" ht="14.1" customHeight="1">
       <c r="A34" s="39" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="B34" s="40"/>
       <c r="C34" s="39" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="D34" s="40"/>
     </row>
     <row r="35" spans="1:4">
       <c r="A35" s="16" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="B35" s="17" t="s">
+        <v>134</v>
+      </c>
+      <c r="C35" s="16" t="s">
+        <v>22</v>
+      </c>
+      <c r="D35" s="17" t="s">
         <v>135</v>
-      </c>
-      <c r="C35" s="16" t="s">
-        <v>23</v>
-      </c>
-      <c r="D35" s="17" t="s">
-        <v>136</v>
       </c>
     </row>
     <row r="36" spans="1:4" ht="37.5">
       <c r="A36" s="16" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="B36" s="17" t="s">
-        <v>463</v>
+        <v>462</v>
       </c>
       <c r="C36" s="16" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="D36" s="17" t="s">
-        <v>465</v>
+        <v>464</v>
       </c>
     </row>
     <row r="37" spans="1:4">
       <c r="A37" s="16" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="B37" s="17" t="s">
+        <v>137</v>
+      </c>
+      <c r="C37" s="16" t="s">
         <v>138</v>
-      </c>
-      <c r="C37" s="16" t="s">
-        <v>139</v>
       </c>
       <c r="D37" s="17">
         <v>200</v>
@@ -3229,20 +3217,20 @@
     </row>
     <row r="38" spans="1:4">
       <c r="A38" s="16" t="s">
+        <v>106</v>
+      </c>
+      <c r="B38" s="17" t="s">
         <v>107</v>
-      </c>
-      <c r="B38" s="17" t="s">
-        <v>108</v>
       </c>
       <c r="C38" s="16"/>
       <c r="D38" s="17"/>
     </row>
     <row r="39" spans="1:4" ht="37.5">
       <c r="A39" s="16" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="B39" s="17" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
     </row>
     <row r="40" spans="1:4">
@@ -3251,134 +3239,134 @@
     </row>
     <row r="43" spans="1:4" ht="14.1" customHeight="1">
       <c r="A43" s="39" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="B43" s="40"/>
       <c r="C43" s="39" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="D43" s="40"/>
     </row>
     <row r="44" spans="1:4">
       <c r="A44" s="16" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="B44" s="17" t="s">
+        <v>141</v>
+      </c>
+      <c r="C44" s="16" t="s">
+        <v>22</v>
+      </c>
+      <c r="D44" s="17" t="s">
         <v>142</v>
-      </c>
-      <c r="C44" s="16" t="s">
-        <v>23</v>
-      </c>
-      <c r="D44" s="17" t="s">
-        <v>143</v>
       </c>
     </row>
     <row r="45" spans="1:4" ht="37.5">
       <c r="A45" s="16" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="B45" s="17" t="s">
-        <v>463</v>
+        <v>462</v>
       </c>
       <c r="C45" s="16" t="s">
+        <v>143</v>
+      </c>
+      <c r="D45" s="17" t="s">
         <v>144</v>
-      </c>
-      <c r="D45" s="17" t="s">
-        <v>145</v>
       </c>
     </row>
     <row r="46" spans="1:4" ht="37.5">
       <c r="A46" s="16" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="B46" s="17" t="s">
+        <v>145</v>
+      </c>
+      <c r="C46" s="16" t="s">
         <v>146</v>
       </c>
-      <c r="C46" s="16" t="s">
-        <v>147</v>
-      </c>
       <c r="D46" s="17" t="s">
-        <v>463</v>
+        <v>462</v>
       </c>
     </row>
     <row r="47" spans="1:4">
       <c r="A47" s="16" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="B47" s="17" t="s">
+        <v>147</v>
+      </c>
+      <c r="C47" s="16" t="s">
+        <v>23</v>
+      </c>
+      <c r="D47" s="17" t="s">
         <v>148</v>
-      </c>
-      <c r="C47" s="16" t="s">
-        <v>24</v>
-      </c>
-      <c r="D47" s="17" t="s">
-        <v>149</v>
       </c>
     </row>
     <row r="48" spans="1:4" ht="37.5">
       <c r="A48" s="16" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="B48" s="17" t="s">
+        <v>149</v>
+      </c>
+      <c r="C48" s="16" t="s">
         <v>150</v>
       </c>
-      <c r="C48" s="16" t="s">
-        <v>151</v>
-      </c>
       <c r="D48" s="17" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
     </row>
     <row r="49" spans="1:5">
       <c r="A49" s="16"/>
       <c r="B49" s="16"/>
       <c r="C49" s="16" t="s">
+        <v>151</v>
+      </c>
+      <c r="D49" s="17" t="s">
         <v>152</v>
-      </c>
-      <c r="D49" s="17" t="s">
-        <v>153</v>
       </c>
     </row>
     <row r="52" spans="1:5" ht="14.1" customHeight="1">
       <c r="A52" s="39" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="B52" s="40"/>
       <c r="C52" s="39" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="D52" s="40"/>
       <c r="E52" s="16"/>
     </row>
     <row r="53" spans="1:5" ht="93.75">
       <c r="A53" s="16" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="B53" s="17" t="s">
+        <v>154</v>
+      </c>
+      <c r="C53" s="16" t="s">
+        <v>22</v>
+      </c>
+      <c r="D53" s="17" t="s">
         <v>155</v>
       </c>
-      <c r="C53" s="16" t="s">
-        <v>23</v>
-      </c>
-      <c r="D53" s="17" t="s">
+      <c r="E53" s="16" t="s">
         <v>156</v>
-      </c>
-      <c r="E53" s="16" t="s">
-        <v>157</v>
       </c>
     </row>
     <row r="54" spans="1:5" ht="37.5">
       <c r="A54" s="16" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="B54" s="17" t="s">
+        <v>462</v>
+      </c>
+      <c r="C54" s="16" t="s">
+        <v>157</v>
+      </c>
+      <c r="D54" s="17" t="s">
         <v>463</v>
-      </c>
-      <c r="C54" s="16" t="s">
-        <v>158</v>
-      </c>
-      <c r="D54" s="17" t="s">
-        <v>464</v>
       </c>
       <c r="E54" s="17">
         <v>200</v>
@@ -3386,46 +3374,46 @@
     </row>
     <row r="55" spans="1:5" ht="37.5">
       <c r="A55" s="16" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="B55" s="17" t="s">
+        <v>158</v>
+      </c>
+      <c r="C55" s="16" t="s">
         <v>159</v>
       </c>
-      <c r="C55" s="16" t="s">
-        <v>160</v>
-      </c>
       <c r="D55" s="17" t="s">
-        <v>465</v>
+        <v>464</v>
       </c>
       <c r="E55" s="16"/>
     </row>
     <row r="56" spans="1:5">
       <c r="A56" s="16" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="B56" s="17" t="s">
+        <v>147</v>
+      </c>
+      <c r="C56" s="16" t="s">
+        <v>23</v>
+      </c>
+      <c r="D56" s="17" t="s">
         <v>148</v>
-      </c>
-      <c r="C56" s="16" t="s">
-        <v>24</v>
-      </c>
-      <c r="D56" s="17" t="s">
-        <v>149</v>
       </c>
       <c r="E56" s="16"/>
     </row>
     <row r="57" spans="1:5" ht="37.5">
       <c r="A57" s="16" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="B57" s="17" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="C57" s="16" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="D57" s="17" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="E57" s="16"/>
     </row>
@@ -3433,189 +3421,189 @@
       <c r="A58" s="16"/>
       <c r="B58" s="16"/>
       <c r="C58" s="16" t="s">
+        <v>151</v>
+      </c>
+      <c r="D58" s="17" t="s">
         <v>152</v>
-      </c>
-      <c r="D58" s="17" t="s">
-        <v>153</v>
       </c>
       <c r="E58" s="16"/>
     </row>
     <row r="60" spans="1:5" ht="14.1" customHeight="1">
       <c r="A60" s="39" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="B60" s="40"/>
       <c r="C60" s="39" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="D60" s="40"/>
     </row>
     <row r="61" spans="1:5">
       <c r="A61" s="16" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="B61" s="17" t="s">
+        <v>162</v>
+      </c>
+      <c r="C61" s="16" t="s">
+        <v>22</v>
+      </c>
+      <c r="D61" s="17" t="s">
         <v>163</v>
-      </c>
-      <c r="C61" s="16" t="s">
-        <v>23</v>
-      </c>
-      <c r="D61" s="17" t="s">
-        <v>164</v>
       </c>
     </row>
     <row r="62" spans="1:5" ht="37.5">
       <c r="A62" s="16" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="B62" s="17" t="s">
-        <v>463</v>
+        <v>462</v>
       </c>
       <c r="C62" s="16" t="s">
+        <v>164</v>
+      </c>
+      <c r="D62" s="17" t="s">
         <v>165</v>
-      </c>
-      <c r="D62" s="17" t="s">
-        <v>166</v>
       </c>
     </row>
     <row r="63" spans="1:5">
       <c r="A63" s="16" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="B63" s="17" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="C63" s="16" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="D63" s="17" t="s">
-        <v>464</v>
+        <v>463</v>
       </c>
     </row>
     <row r="64" spans="1:5">
       <c r="A64" s="16" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="B64" s="17" t="s">
+        <v>147</v>
+      </c>
+      <c r="C64" s="16" t="s">
+        <v>23</v>
+      </c>
+      <c r="D64" s="17" t="s">
         <v>148</v>
-      </c>
-      <c r="C64" s="16" t="s">
-        <v>24</v>
-      </c>
-      <c r="D64" s="17" t="s">
-        <v>149</v>
       </c>
     </row>
     <row r="65" spans="1:4" ht="37.5">
       <c r="A65" s="16" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="B65" s="17" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="C65" s="16" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="D65" s="17" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
     </row>
     <row r="66" spans="1:4">
       <c r="A66" s="16"/>
       <c r="B66" s="16"/>
       <c r="C66" s="16" t="s">
+        <v>151</v>
+      </c>
+      <c r="D66" s="17" t="s">
         <v>152</v>
-      </c>
-      <c r="D66" s="17" t="s">
-        <v>153</v>
       </c>
     </row>
     <row r="67" spans="1:4">
       <c r="A67" s="16"/>
       <c r="B67" s="16"/>
       <c r="C67" s="16" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="D67" s="17">
         <v>200</v>
       </c>
     </row>
     <row r="70" spans="1:4" ht="14.1" customHeight="1">
-      <c r="A70" s="43" t="s">
+      <c r="A70" s="42" t="s">
+        <v>168</v>
+      </c>
+      <c r="B70" s="43"/>
+      <c r="C70" s="39" t="s">
         <v>169</v>
-      </c>
-      <c r="B70" s="44"/>
-      <c r="C70" s="39" t="s">
-        <v>170</v>
       </c>
       <c r="D70" s="40"/>
     </row>
     <row r="71" spans="1:4" ht="37.5">
       <c r="A71" s="16" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="B71" s="17" t="s">
+        <v>170</v>
+      </c>
+      <c r="C71" s="16" t="s">
         <v>171</v>
       </c>
-      <c r="C71" s="16" t="s">
+      <c r="D71" s="17" t="s">
         <v>172</v>
-      </c>
-      <c r="D71" s="17" t="s">
-        <v>173</v>
       </c>
     </row>
     <row r="72" spans="1:4" ht="37.5">
       <c r="A72" s="16" t="s">
+        <v>101</v>
+      </c>
+      <c r="B72" s="17" t="s">
+        <v>462</v>
+      </c>
+      <c r="C72" s="16" t="s">
         <v>102</v>
       </c>
-      <c r="B72" s="17" t="s">
-        <v>463</v>
-      </c>
-      <c r="C72" s="16" t="s">
-        <v>103</v>
-      </c>
       <c r="D72" s="17" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
     </row>
     <row r="73" spans="1:4" ht="37.5">
       <c r="A73" s="16" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="B73" s="17" t="s">
+        <v>174</v>
+      </c>
+      <c r="C73" s="39" t="s">
         <v>175</v>
-      </c>
-      <c r="C73" s="39" t="s">
-        <v>176</v>
       </c>
       <c r="D73" s="40"/>
     </row>
     <row r="74" spans="1:4" ht="37.5">
       <c r="A74" s="16" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="B74" s="17" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="C74" s="16" t="s">
+        <v>176</v>
+      </c>
+      <c r="D74" s="17" t="s">
         <v>177</v>
-      </c>
-      <c r="D74" s="17" t="s">
-        <v>178</v>
       </c>
     </row>
     <row r="75" spans="1:4" ht="37.5">
       <c r="A75" s="16" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="B75" s="17" t="s">
+        <v>178</v>
+      </c>
+      <c r="C75" s="16" t="s">
         <v>179</v>
       </c>
-      <c r="C75" s="16" t="s">
-        <v>180</v>
-      </c>
       <c r="D75" s="17" t="s">
-        <v>463</v>
+        <v>462</v>
       </c>
     </row>
     <row r="76" spans="1:4">
@@ -3631,88 +3619,88 @@
       <c r="D77" s="16"/>
     </row>
     <row r="79" spans="1:4" ht="14.1" customHeight="1">
-      <c r="A79" s="43" t="s">
+      <c r="A79" s="42" t="s">
+        <v>180</v>
+      </c>
+      <c r="B79" s="43"/>
+      <c r="C79" s="39" t="s">
         <v>181</v>
-      </c>
-      <c r="B79" s="44"/>
-      <c r="C79" s="39" t="s">
-        <v>182</v>
       </c>
       <c r="D79" s="40"/>
     </row>
     <row r="80" spans="1:4" ht="37.5">
       <c r="A80" s="16" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="B80" s="17" t="s">
+        <v>182</v>
+      </c>
+      <c r="C80" s="16" t="s">
         <v>183</v>
       </c>
-      <c r="C80" s="16" t="s">
+      <c r="D80" s="17" t="s">
         <v>184</v>
-      </c>
-      <c r="D80" s="17" t="s">
-        <v>185</v>
       </c>
     </row>
     <row r="81" spans="1:4" ht="37.5">
       <c r="A81" s="16" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="B81" s="17" t="s">
-        <v>463</v>
+        <v>462</v>
       </c>
       <c r="C81" s="16" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="D81" s="17" t="s">
-        <v>463</v>
+        <v>462</v>
       </c>
     </row>
     <row r="82" spans="1:4" ht="37.5">
       <c r="A82" s="16" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="B82" s="17" t="s">
+        <v>185</v>
+      </c>
+      <c r="C82" s="39" t="s">
         <v>186</v>
-      </c>
-      <c r="C82" s="39" t="s">
-        <v>187</v>
       </c>
       <c r="D82" s="40"/>
     </row>
     <row r="83" spans="1:4" ht="37.5">
       <c r="A83" s="16" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="B83" s="17" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="C83" s="16" t="s">
+        <v>187</v>
+      </c>
+      <c r="D83" s="17" t="s">
         <v>188</v>
-      </c>
-      <c r="D83" s="17" t="s">
-        <v>189</v>
       </c>
     </row>
     <row r="84" spans="1:4" ht="37.5">
       <c r="A84" s="16" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="B84" s="17" t="s">
+        <v>189</v>
+      </c>
+      <c r="C84" s="16" t="s">
         <v>190</v>
       </c>
-      <c r="C84" s="16" t="s">
-        <v>191</v>
-      </c>
       <c r="D84" s="17" t="s">
-        <v>464</v>
+        <v>463</v>
       </c>
     </row>
     <row r="85" spans="1:4">
       <c r="A85" s="16"/>
       <c r="B85" s="16"/>
       <c r="C85" s="16" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="D85" s="17">
         <v>200</v>
@@ -3720,51 +3708,51 @@
     </row>
     <row r="88" spans="1:4" ht="14.1" customHeight="1">
       <c r="A88" s="41" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="B88" s="41"/>
       <c r="C88" s="38" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="D88" s="38"/>
     </row>
     <row r="89" spans="1:4" ht="37.5">
       <c r="A89" s="16" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="B89" s="17" t="s">
+        <v>192</v>
+      </c>
+      <c r="C89" s="16" t="s">
+        <v>187</v>
+      </c>
+      <c r="D89" s="17" t="s">
         <v>193</v>
-      </c>
-      <c r="C89" s="16" t="s">
-        <v>188</v>
-      </c>
-      <c r="D89" s="17" t="s">
-        <v>194</v>
       </c>
     </row>
     <row r="90" spans="1:4" ht="37.5">
       <c r="A90" s="16" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="B90" s="17" t="s">
+        <v>462</v>
+      </c>
+      <c r="C90" s="16" t="s">
+        <v>190</v>
+      </c>
+      <c r="D90" s="17" t="s">
         <v>463</v>
-      </c>
-      <c r="C90" s="16" t="s">
-        <v>191</v>
-      </c>
-      <c r="D90" s="17" t="s">
-        <v>464</v>
       </c>
     </row>
     <row r="91" spans="1:4" ht="37.5">
       <c r="A91" s="16" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="B91" s="17" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="C91" s="16" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="D91" s="17">
         <v>200</v>
@@ -3772,45 +3760,45 @@
     </row>
     <row r="92" spans="1:4">
       <c r="A92" s="16" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="B92" s="17" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="C92" s="38" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="D92" s="38"/>
     </row>
     <row r="93" spans="1:4" ht="56.25">
       <c r="A93" s="16" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="B93" s="17" t="s">
+        <v>196</v>
+      </c>
+      <c r="C93" s="16" t="s">
         <v>197</v>
       </c>
-      <c r="C93" s="16" t="s">
+      <c r="D93" s="17" t="s">
         <v>198</v>
-      </c>
-      <c r="D93" s="17" t="s">
-        <v>199</v>
       </c>
     </row>
     <row r="94" spans="1:4">
       <c r="A94" s="16"/>
       <c r="B94" s="16"/>
       <c r="C94" s="16" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="D94" s="17" t="s">
-        <v>465</v>
+        <v>464</v>
       </c>
     </row>
     <row r="95" spans="1:4">
       <c r="A95" s="16"/>
       <c r="B95" s="16"/>
       <c r="C95" s="16" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="D95" s="17">
         <v>200</v>
@@ -3820,7 +3808,7 @@
       <c r="A96" s="16"/>
       <c r="B96" s="16"/>
       <c r="C96" s="38" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="D96" s="38"/>
     </row>
@@ -3828,145 +3816,145 @@
       <c r="A97" s="16"/>
       <c r="B97" s="16"/>
       <c r="C97" s="16" t="s">
+        <v>201</v>
+      </c>
+      <c r="D97" s="17" t="s">
         <v>202</v>
-      </c>
-      <c r="D97" s="17" t="s">
-        <v>203</v>
       </c>
     </row>
     <row r="98" spans="1:4">
       <c r="A98" s="16"/>
       <c r="B98" s="16"/>
       <c r="C98" s="16" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="D98" s="17" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
     </row>
     <row r="99" spans="1:4">
       <c r="A99" s="16"/>
       <c r="B99" s="16"/>
       <c r="C99" s="16" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="D99" s="17" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
     </row>
     <row r="100" spans="1:4">
       <c r="A100" s="16"/>
       <c r="B100" s="16"/>
       <c r="C100" s="16" t="s">
+        <v>151</v>
+      </c>
+      <c r="D100" s="17" t="s">
         <v>152</v>
-      </c>
-      <c r="D100" s="17" t="s">
-        <v>153</v>
       </c>
     </row>
     <row r="103" spans="1:4" ht="14.1" customHeight="1">
       <c r="A103" s="41" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="B103" s="41"/>
       <c r="C103" s="38" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="D103" s="38"/>
     </row>
     <row r="104" spans="1:4" ht="37.5">
       <c r="A104" s="16" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="B104" s="17" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="C104" s="16" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="D104" s="17" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
     </row>
     <row r="105" spans="1:4" ht="37.5">
       <c r="A105" s="16" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="B105" s="17" t="s">
-        <v>463</v>
+        <v>462</v>
       </c>
       <c r="C105" s="39" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="D105" s="40"/>
     </row>
     <row r="106" spans="1:4" ht="37.5">
       <c r="A106" s="16" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="B106" s="17" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="C106" s="16" t="s">
+        <v>231</v>
+      </c>
+      <c r="D106" s="17" t="s">
         <v>232</v>
-      </c>
-      <c r="D106" s="17" t="s">
-        <v>233</v>
       </c>
     </row>
     <row r="107" spans="1:4" ht="37.5">
       <c r="A107" s="16" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="B107" s="17" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="C107" s="16" t="s">
+        <v>233</v>
+      </c>
+      <c r="D107" s="17" t="s">
         <v>234</v>
-      </c>
-      <c r="D107" s="17" t="s">
-        <v>235</v>
       </c>
     </row>
     <row r="108" spans="1:4" ht="56.25">
       <c r="A108" s="16" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="B108" s="17" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="C108" s="16" t="s">
+        <v>235</v>
+      </c>
+      <c r="D108" s="17" t="s">
         <v>236</v>
-      </c>
-      <c r="D108" s="17" t="s">
-        <v>237</v>
       </c>
     </row>
     <row r="109" spans="1:4">
       <c r="A109" s="16"/>
       <c r="B109" s="16"/>
       <c r="C109" s="16" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="D109" s="17" t="s">
-        <v>463</v>
+        <v>462</v>
       </c>
     </row>
     <row r="110" spans="1:4">
       <c r="A110" s="16"/>
       <c r="B110" s="16"/>
       <c r="C110" s="16" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="D110" s="17" t="s">
-        <v>464</v>
+        <v>463</v>
       </c>
     </row>
     <row r="111" spans="1:4">
       <c r="A111" s="16"/>
       <c r="B111" s="16"/>
       <c r="C111" s="16" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="D111" s="17">
         <v>200</v>
@@ -3976,117 +3964,117 @@
       <c r="A112" s="16"/>
       <c r="B112" s="16"/>
       <c r="C112" s="16" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="D112" s="17" t="s">
-        <v>465</v>
+        <v>464</v>
       </c>
     </row>
     <row r="113" spans="1:4">
       <c r="A113" s="16"/>
       <c r="B113" s="16"/>
       <c r="C113" s="16" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="D113" s="17" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
     </row>
     <row r="114" spans="1:4">
       <c r="A114" s="16"/>
       <c r="B114" s="16"/>
       <c r="C114" s="16" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="D114" s="17" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
     </row>
     <row r="115" spans="1:4">
       <c r="A115" s="16"/>
       <c r="B115" s="16"/>
       <c r="C115" s="16" t="s">
+        <v>151</v>
+      </c>
+      <c r="D115" s="17" t="s">
         <v>152</v>
-      </c>
-      <c r="D115" s="17" t="s">
-        <v>153</v>
       </c>
     </row>
     <row r="118" spans="1:4">
       <c r="A118" s="41" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="B118" s="41"/>
       <c r="C118" s="38" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="D118" s="38"/>
     </row>
     <row r="119" spans="1:4">
       <c r="A119" s="16" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="B119" s="17" t="s">
+        <v>239</v>
+      </c>
+      <c r="C119" s="16" t="s">
+        <v>22</v>
+      </c>
+      <c r="D119" s="17" t="s">
         <v>240</v>
-      </c>
-      <c r="C119" s="16" t="s">
-        <v>23</v>
-      </c>
-      <c r="D119" s="17" t="s">
-        <v>241</v>
       </c>
     </row>
     <row r="120" spans="1:4" ht="37.5">
       <c r="A120" s="16" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="B120" s="17" t="s">
-        <v>463</v>
+        <v>462</v>
       </c>
       <c r="C120" s="16" t="s">
+        <v>235</v>
+      </c>
+      <c r="D120" s="17" t="s">
         <v>236</v>
-      </c>
-      <c r="D120" s="17" t="s">
-        <v>237</v>
       </c>
     </row>
     <row r="121" spans="1:4">
       <c r="A121" s="16" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="B121" s="17" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="C121" s="16" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="D121" s="17" t="s">
-        <v>463</v>
+        <v>462</v>
       </c>
     </row>
     <row r="122" spans="1:4">
       <c r="A122" s="16" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="B122" s="17" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="C122" s="16" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="D122" s="17" t="s">
-        <v>464</v>
+        <v>463</v>
       </c>
     </row>
     <row r="123" spans="1:4" ht="37.5">
       <c r="A123" s="16" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="B123" s="17" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="C123" s="16" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="D123" s="17">
         <v>200</v>
@@ -4096,123 +4084,123 @@
       <c r="A124" s="16"/>
       <c r="B124" s="16"/>
       <c r="C124" s="16" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="D124" s="17" t="s">
-        <v>465</v>
+        <v>464</v>
       </c>
     </row>
     <row r="125" spans="1:4">
-      <c r="A125" s="42" t="s">
-        <v>244</v>
+      <c r="A125" s="44" t="s">
+        <v>243</v>
       </c>
       <c r="B125" s="40"/>
       <c r="C125" s="16" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="D125" s="17" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
     </row>
     <row r="126" spans="1:4">
       <c r="A126" s="16" t="s">
+        <v>244</v>
+      </c>
+      <c r="B126" s="16" t="s">
         <v>245</v>
       </c>
-      <c r="B126" s="16" t="s">
-        <v>246</v>
-      </c>
       <c r="C126" s="16" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="D126" s="17" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
     </row>
     <row r="127" spans="1:4">
       <c r="A127" s="16" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B127" s="16" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="C127" s="16" t="s">
+        <v>151</v>
+      </c>
+      <c r="D127" s="17" t="s">
         <v>152</v>
-      </c>
-      <c r="D127" s="17" t="s">
-        <v>153</v>
       </c>
     </row>
     <row r="128" spans="1:4" ht="37.5">
       <c r="A128" s="16" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="B128" s="16" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="C128" s="16"/>
       <c r="D128" s="17"/>
     </row>
     <row r="131" spans="1:4">
       <c r="A131" s="41" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="B131" s="41"/>
       <c r="C131" s="38" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="D131" s="38"/>
     </row>
     <row r="132" spans="1:4">
       <c r="A132" s="16" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="B132" s="17" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="C132" s="16" t="s">
+        <v>235</v>
+      </c>
+      <c r="D132" s="17" t="s">
         <v>236</v>
-      </c>
-      <c r="D132" s="17" t="s">
-        <v>237</v>
       </c>
     </row>
     <row r="133" spans="1:4" ht="37.5">
       <c r="A133" s="16" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="B133" s="17" t="s">
-        <v>463</v>
+        <v>462</v>
       </c>
       <c r="C133" s="16" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="D133" s="17" t="s">
-        <v>463</v>
+        <v>462</v>
       </c>
     </row>
     <row r="134" spans="1:4">
       <c r="A134" s="16" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="B134" s="17" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="C134" s="16" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="D134" s="17" t="s">
-        <v>464</v>
+        <v>463</v>
       </c>
     </row>
     <row r="135" spans="1:4">
       <c r="A135" s="16" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="B135" s="17" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="C135" s="16" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="D135" s="17">
         <v>200</v>
@@ -4220,137 +4208,137 @@
     </row>
     <row r="136" spans="1:4" ht="37.5">
       <c r="A136" s="16" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="B136" s="17" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="C136" s="16" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="D136" s="17" t="s">
-        <v>465</v>
+        <v>464</v>
       </c>
     </row>
     <row r="137" spans="1:4">
       <c r="A137" s="16"/>
       <c r="B137" s="16"/>
       <c r="C137" s="16" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="D137" s="17" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
     </row>
     <row r="138" spans="1:4" ht="56.25">
       <c r="A138" s="20" t="s">
+        <v>253</v>
+      </c>
+      <c r="B138" s="17" t="s">
         <v>254</v>
       </c>
-      <c r="B138" s="17" t="s">
-        <v>255</v>
-      </c>
       <c r="C138" s="16" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="D138" s="17" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
     </row>
     <row r="139" spans="1:4" ht="56.25">
       <c r="A139" s="20" t="s">
+        <v>255</v>
+      </c>
+      <c r="B139" s="17" t="s">
         <v>256</v>
       </c>
-      <c r="B139" s="17" t="s">
-        <v>257</v>
-      </c>
       <c r="C139" s="16" t="s">
+        <v>151</v>
+      </c>
+      <c r="D139" s="17" t="s">
         <v>152</v>
-      </c>
-      <c r="D139" s="17" t="s">
-        <v>153</v>
       </c>
     </row>
     <row r="140" spans="1:4" ht="75">
       <c r="A140" s="20" t="s">
+        <v>257</v>
+      </c>
+      <c r="B140" s="17" t="s">
         <v>258</v>
-      </c>
-      <c r="B140" s="17" t="s">
-        <v>259</v>
       </c>
       <c r="C140" s="16"/>
       <c r="D140" s="16"/>
     </row>
     <row r="141" spans="1:4" ht="56.25">
       <c r="A141" s="20" t="s">
+        <v>259</v>
+      </c>
+      <c r="B141" s="17" t="s">
         <v>260</v>
-      </c>
-      <c r="B141" s="17" t="s">
-        <v>261</v>
       </c>
       <c r="C141" s="16"/>
       <c r="D141" s="16"/>
     </row>
     <row r="144" spans="1:4">
       <c r="A144" s="41" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
       <c r="B144" s="41"/>
       <c r="C144" s="38" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="D144" s="38"/>
     </row>
     <row r="145" spans="1:4">
       <c r="A145" s="16" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="B145" s="17" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="C145" s="16" t="s">
+        <v>235</v>
+      </c>
+      <c r="D145" s="17" t="s">
         <v>236</v>
-      </c>
-      <c r="D145" s="17" t="s">
-        <v>237</v>
       </c>
     </row>
     <row r="146" spans="1:4" ht="37.5">
       <c r="A146" s="16" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="B146" s="17" t="s">
-        <v>463</v>
+        <v>462</v>
       </c>
       <c r="C146" s="16" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="D146" s="17" t="s">
-        <v>463</v>
+        <v>462</v>
       </c>
     </row>
     <row r="147" spans="1:4">
       <c r="A147" s="16" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="B147" s="17" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="C147" s="16" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="D147" s="17" t="s">
-        <v>464</v>
+        <v>463</v>
       </c>
     </row>
     <row r="148" spans="1:4">
       <c r="A148" s="16" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="B148" s="17" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="C148" s="16" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="D148" s="17">
         <v>200</v>
@@ -4358,133 +4346,133 @@
     </row>
     <row r="149" spans="1:4" ht="37.5">
       <c r="A149" s="16" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="B149" s="17" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="C149" s="16" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="D149" s="17" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
     </row>
     <row r="150" spans="1:4">
       <c r="A150" s="16"/>
       <c r="B150" s="16"/>
       <c r="C150" s="16" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="D150" s="17" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
     </row>
     <row r="151" spans="1:4" ht="56.25">
       <c r="A151" s="20" t="s">
+        <v>264</v>
+      </c>
+      <c r="B151" s="17" t="s">
         <v>265</v>
       </c>
-      <c r="B151" s="17" t="s">
-        <v>266</v>
-      </c>
       <c r="C151" s="16" t="s">
+        <v>151</v>
+      </c>
+      <c r="D151" s="17" t="s">
         <v>152</v>
-      </c>
-      <c r="D151" s="17" t="s">
-        <v>153</v>
       </c>
     </row>
     <row r="152" spans="1:4" ht="56.25">
       <c r="A152" s="20" t="s">
+        <v>266</v>
+      </c>
+      <c r="B152" s="17" t="s">
         <v>267</v>
-      </c>
-      <c r="B152" s="17" t="s">
-        <v>268</v>
       </c>
       <c r="C152" s="16"/>
       <c r="D152" s="16"/>
     </row>
     <row r="153" spans="1:4" ht="56.25">
       <c r="A153" s="20" t="s">
+        <v>268</v>
+      </c>
+      <c r="B153" s="17" t="s">
         <v>269</v>
-      </c>
-      <c r="B153" s="17" t="s">
-        <v>270</v>
       </c>
       <c r="C153" s="16"/>
       <c r="D153" s="16"/>
     </row>
     <row r="154" spans="1:4" ht="56.25">
       <c r="A154" s="20" t="s">
+        <v>270</v>
+      </c>
+      <c r="B154" s="17" t="s">
         <v>271</v>
-      </c>
-      <c r="B154" s="17" t="s">
-        <v>272</v>
       </c>
       <c r="C154" s="16"/>
       <c r="D154" s="16"/>
     </row>
     <row r="157" spans="1:4">
       <c r="A157" s="41" t="s">
-        <v>273</v>
+        <v>272</v>
       </c>
       <c r="B157" s="41"/>
       <c r="C157" s="38" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="D157" s="38"/>
     </row>
     <row r="158" spans="1:4">
       <c r="A158" s="16" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="B158" s="17" t="s">
+        <v>273</v>
+      </c>
+      <c r="C158" s="16" t="s">
+        <v>235</v>
+      </c>
+      <c r="D158" s="17" t="s">
         <v>274</v>
-      </c>
-      <c r="C158" s="16" t="s">
-        <v>236</v>
-      </c>
-      <c r="D158" s="17" t="s">
-        <v>275</v>
       </c>
     </row>
     <row r="159" spans="1:4" ht="37.5">
       <c r="A159" s="16" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="B159" s="17" t="s">
-        <v>463</v>
+        <v>462</v>
       </c>
       <c r="C159" s="16" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="D159" s="17" t="s">
-        <v>463</v>
+        <v>462</v>
       </c>
     </row>
     <row r="160" spans="1:4">
       <c r="A160" s="16" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="B160" s="17" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="C160" s="16" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="D160" s="17" t="s">
-        <v>464</v>
+        <v>463</v>
       </c>
     </row>
     <row r="161" spans="1:4">
       <c r="A161" s="16" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="B161" s="17" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="C161" s="16" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="D161" s="17">
         <v>200</v>
@@ -4492,23 +4480,23 @@
     </row>
     <row r="162" spans="1:4" ht="37.5">
       <c r="A162" s="16" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="B162" s="17" t="s">
+        <v>275</v>
+      </c>
+      <c r="C162" s="16" t="s">
         <v>276</v>
       </c>
-      <c r="C162" s="16" t="s">
-        <v>277</v>
-      </c>
       <c r="D162" s="17" t="s">
-        <v>465</v>
+        <v>464</v>
       </c>
     </row>
     <row r="163" spans="1:4">
       <c r="A163" s="16"/>
       <c r="B163" s="16"/>
       <c r="C163" s="16" t="s">
-        <v>278</v>
+        <v>277</v>
       </c>
       <c r="D163" s="17">
         <v>200</v>
@@ -4516,56 +4504,84 @@
     </row>
     <row r="164" spans="1:4" ht="56.25">
       <c r="A164" s="20" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="B164" s="17" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
       <c r="C164" s="16" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="D164" s="17" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
     </row>
     <row r="165" spans="1:4" ht="56.25">
       <c r="A165" s="20" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="B165" s="17" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="C165" s="16" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="D165" s="17" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
     </row>
     <row r="166" spans="1:4" ht="56.25">
       <c r="A166" s="20" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="B166" s="17" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
       <c r="C166" s="16" t="s">
+        <v>151</v>
+      </c>
+      <c r="D166" s="17" t="s">
         <v>152</v>
-      </c>
-      <c r="D166" s="17" t="s">
-        <v>153</v>
       </c>
     </row>
     <row r="167" spans="1:4" ht="56.25">
       <c r="A167" s="20" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
       <c r="B167" s="17" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="38">
+    <mergeCell ref="A144:B144"/>
+    <mergeCell ref="C144:D144"/>
+    <mergeCell ref="A157:B157"/>
+    <mergeCell ref="C157:D157"/>
+    <mergeCell ref="C105:D105"/>
+    <mergeCell ref="A118:B118"/>
+    <mergeCell ref="C118:D118"/>
+    <mergeCell ref="A125:B125"/>
+    <mergeCell ref="A131:B131"/>
+    <mergeCell ref="C131:D131"/>
+    <mergeCell ref="A1:B1"/>
+    <mergeCell ref="C1:D1"/>
+    <mergeCell ref="A10:B10"/>
+    <mergeCell ref="C10:D10"/>
+    <mergeCell ref="A18:B18"/>
+    <mergeCell ref="C18:D18"/>
+    <mergeCell ref="A26:B26"/>
+    <mergeCell ref="C26:D26"/>
+    <mergeCell ref="A34:B34"/>
+    <mergeCell ref="C34:D34"/>
+    <mergeCell ref="A43:B43"/>
+    <mergeCell ref="C43:D43"/>
+    <mergeCell ref="A52:B52"/>
+    <mergeCell ref="C52:D52"/>
+    <mergeCell ref="A60:B60"/>
+    <mergeCell ref="C60:D60"/>
+    <mergeCell ref="A70:B70"/>
+    <mergeCell ref="C70:D70"/>
     <mergeCell ref="C92:D92"/>
     <mergeCell ref="C96:D96"/>
     <mergeCell ref="A103:B103"/>
@@ -4576,34 +4592,6 @@
     <mergeCell ref="C82:D82"/>
     <mergeCell ref="A88:B88"/>
     <mergeCell ref="C88:D88"/>
-    <mergeCell ref="A52:B52"/>
-    <mergeCell ref="C52:D52"/>
-    <mergeCell ref="A60:B60"/>
-    <mergeCell ref="C60:D60"/>
-    <mergeCell ref="A70:B70"/>
-    <mergeCell ref="C70:D70"/>
-    <mergeCell ref="A26:B26"/>
-    <mergeCell ref="C26:D26"/>
-    <mergeCell ref="A34:B34"/>
-    <mergeCell ref="C34:D34"/>
-    <mergeCell ref="A43:B43"/>
-    <mergeCell ref="C43:D43"/>
-    <mergeCell ref="A1:B1"/>
-    <mergeCell ref="C1:D1"/>
-    <mergeCell ref="A10:B10"/>
-    <mergeCell ref="C10:D10"/>
-    <mergeCell ref="A18:B18"/>
-    <mergeCell ref="C18:D18"/>
-    <mergeCell ref="A144:B144"/>
-    <mergeCell ref="C144:D144"/>
-    <mergeCell ref="A157:B157"/>
-    <mergeCell ref="C157:D157"/>
-    <mergeCell ref="C105:D105"/>
-    <mergeCell ref="A118:B118"/>
-    <mergeCell ref="C118:D118"/>
-    <mergeCell ref="A125:B125"/>
-    <mergeCell ref="A131:B131"/>
-    <mergeCell ref="C131:D131"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <extLst>
@@ -4639,295 +4627,295 @@
   <sheetData>
     <row r="1" spans="1:10">
       <c r="A1" s="8" t="s">
+        <v>25</v>
+      </c>
+      <c r="B1" s="8" t="s">
         <v>26</v>
       </c>
-      <c r="B1" s="8" t="s">
+      <c r="C1" s="8" t="s">
         <v>27</v>
       </c>
-      <c r="C1" s="8" t="s">
+      <c r="D1" s="8" t="s">
         <v>28</v>
       </c>
-      <c r="D1" s="8" t="s">
+      <c r="E1" s="8" t="s">
         <v>29</v>
       </c>
-      <c r="E1" s="8" t="s">
+      <c r="F1" s="8" t="s">
         <v>30</v>
       </c>
-      <c r="F1" s="8" t="s">
+      <c r="G1" s="8" t="s">
         <v>31</v>
       </c>
-      <c r="G1" s="8" t="s">
+      <c r="H1" s="8" t="s">
         <v>32</v>
       </c>
-      <c r="H1" s="8" t="s">
+      <c r="I1" s="8" t="s">
         <v>33</v>
       </c>
-      <c r="I1" s="8" t="s">
+      <c r="J1" s="8" t="s">
         <v>34</v>
-      </c>
-      <c r="J1" s="8" t="s">
-        <v>35</v>
       </c>
     </row>
     <row r="2" spans="1:10">
       <c r="A2" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="B2" s="3" t="s">
         <v>36</v>
       </c>
-      <c r="B2" s="3" t="s">
+      <c r="C2" s="3" t="s">
         <v>37</v>
       </c>
-      <c r="C2" s="3" t="s">
+      <c r="D2" s="3" t="s">
         <v>38</v>
       </c>
-      <c r="D2" s="3" t="s">
+      <c r="E2" s="3" t="s">
         <v>39</v>
       </c>
-      <c r="E2" s="3" t="s">
+      <c r="F2" s="3" t="s">
+        <v>462</v>
+      </c>
+      <c r="G2" s="3" t="s">
         <v>40</v>
       </c>
-      <c r="F2" s="3" t="s">
+      <c r="H2" s="3" t="s">
+        <v>462</v>
+      </c>
+      <c r="I2" s="3" t="s">
         <v>463</v>
       </c>
-      <c r="G2" s="3" t="s">
-        <v>41</v>
-      </c>
-      <c r="H2" s="3" t="s">
-        <v>463</v>
-      </c>
-      <c r="I2" s="3" t="s">
+      <c r="J2" s="3" t="s">
         <v>464</v>
-      </c>
-      <c r="J2" s="3" t="s">
-        <v>465</v>
       </c>
     </row>
     <row r="3" spans="1:10">
       <c r="A3" s="3" t="s">
+        <v>41</v>
+      </c>
+      <c r="B3" s="3" t="s">
         <v>42</v>
       </c>
-      <c r="B3" s="3" t="s">
+      <c r="C3" s="3" t="s">
         <v>43</v>
-      </c>
-      <c r="C3" s="3" t="s">
-        <v>44</v>
       </c>
     </row>
     <row r="4" spans="1:10">
       <c r="B4" s="3" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
     </row>
     <row r="5" spans="1:10">
       <c r="A5" s="3" t="s">
+        <v>45</v>
+      </c>
+      <c r="B5" s="3" t="s">
         <v>46</v>
-      </c>
-      <c r="B5" s="3" t="s">
-        <v>47</v>
       </c>
     </row>
     <row r="6" spans="1:10">
       <c r="B6" s="3" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
     </row>
     <row r="7" spans="1:10">
       <c r="B7" s="3" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
     </row>
     <row r="8" spans="1:10">
       <c r="B8" s="3" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
     </row>
     <row r="9" spans="1:10">
       <c r="B9" s="3" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
     </row>
     <row r="10" spans="1:10">
       <c r="A10" s="3" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
     </row>
     <row r="11" spans="1:10">
       <c r="A11" s="3" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="B11" s="3" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
     </row>
     <row r="12" spans="1:10">
       <c r="B12" s="3" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
     </row>
     <row r="13" spans="1:10">
       <c r="B13" s="3" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
     </row>
     <row r="14" spans="1:10">
       <c r="B14" s="3" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
     </row>
     <row r="15" spans="1:10">
       <c r="B15" s="3" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
     </row>
     <row r="16" spans="1:10">
       <c r="B16" s="3" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
     </row>
     <row r="17" spans="1:7">
       <c r="B17" s="3" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
     </row>
     <row r="18" spans="1:7">
       <c r="B18" s="3" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
     </row>
     <row r="19" spans="1:7">
       <c r="B19" s="3" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
     </row>
     <row r="20" spans="1:7">
       <c r="B20" s="3" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
     </row>
     <row r="21" spans="1:7">
       <c r="A21" s="21" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
     </row>
     <row r="22" spans="1:7" ht="150">
       <c r="A22" s="15" t="s">
+        <v>284</v>
+      </c>
+      <c r="B22" s="15" t="s">
         <v>285</v>
       </c>
-      <c r="B22" s="15" t="s">
+      <c r="C22" s="15" t="s">
         <v>286</v>
       </c>
-      <c r="C22" s="15" t="s">
+      <c r="D22" s="15" t="s">
         <v>287</v>
       </c>
-      <c r="D22" s="15" t="s">
+      <c r="E22" s="15" t="s">
         <v>288</v>
       </c>
-      <c r="E22" s="15" t="s">
+      <c r="F22" s="15" t="s">
         <v>289</v>
       </c>
-      <c r="F22" s="15" t="s">
+      <c r="G22" s="15" t="s">
         <v>290</v>
-      </c>
-      <c r="G22" s="15" t="s">
-        <v>291</v>
       </c>
     </row>
     <row r="23" spans="1:7" ht="56.25">
       <c r="A23" s="15" t="s">
+        <v>291</v>
+      </c>
+      <c r="B23" s="15" t="s">
         <v>292</v>
       </c>
-      <c r="B23" s="15" t="s">
+      <c r="C23" s="3" t="s">
         <v>293</v>
       </c>
-      <c r="C23" s="3" t="s">
+      <c r="D23" s="3" t="s">
         <v>294</v>
-      </c>
-      <c r="D23" s="3" t="s">
-        <v>295</v>
       </c>
     </row>
     <row r="24" spans="1:7" ht="37.5">
       <c r="A24" s="15" t="s">
-        <v>296</v>
+        <v>295</v>
       </c>
       <c r="B24" s="15"/>
     </row>
     <row r="25" spans="1:7">
       <c r="A25" s="3" t="s">
+        <v>296</v>
+      </c>
+      <c r="B25" s="3" t="s">
         <v>297</v>
       </c>
-      <c r="B25" s="3" t="s">
+      <c r="C25" s="3" t="s">
         <v>298</v>
       </c>
-      <c r="C25" s="3" t="s">
+      <c r="D25" s="3" t="s">
+        <v>293</v>
+      </c>
+      <c r="E25" s="3" t="s">
         <v>299</v>
-      </c>
-      <c r="D25" s="3" t="s">
-        <v>294</v>
-      </c>
-      <c r="E25" s="3" t="s">
-        <v>300</v>
       </c>
     </row>
     <row r="26" spans="1:7">
       <c r="A26" s="15" t="s">
-        <v>301</v>
+        <v>300</v>
       </c>
     </row>
     <row r="27" spans="1:7" ht="168.75">
       <c r="A27" s="15" t="s">
+        <v>301</v>
+      </c>
+      <c r="B27" s="15" t="s">
+        <v>293</v>
+      </c>
+      <c r="C27" s="15" t="s">
         <v>302</v>
-      </c>
-      <c r="B27" s="15" t="s">
-        <v>294</v>
-      </c>
-      <c r="C27" s="15" t="s">
-        <v>303</v>
       </c>
     </row>
     <row r="28" spans="1:7" ht="37.5">
       <c r="A28" s="15" t="s">
-        <v>304</v>
+        <v>303</v>
       </c>
     </row>
     <row r="29" spans="1:7" ht="168.75">
       <c r="A29" s="15" t="s">
+        <v>304</v>
+      </c>
+      <c r="B29" s="3" t="s">
         <v>305</v>
       </c>
-      <c r="B29" s="3" t="s">
+      <c r="C29" s="3" t="s">
         <v>306</v>
       </c>
-      <c r="C29" s="3" t="s">
+      <c r="D29" s="3" t="s">
+        <v>293</v>
+      </c>
+      <c r="E29" s="15" t="s">
         <v>307</v>
       </c>
-      <c r="D29" s="3" t="s">
-        <v>294</v>
-      </c>
-      <c r="E29" s="15" t="s">
+      <c r="F29" s="15" t="s">
         <v>308</v>
-      </c>
-      <c r="F29" s="15" t="s">
-        <v>309</v>
       </c>
     </row>
     <row r="30" spans="1:7" ht="112.5">
       <c r="A30" s="15" t="s">
+        <v>309</v>
+      </c>
+      <c r="B30" s="15" t="s">
         <v>310</v>
       </c>
-      <c r="B30" s="15" t="s">
+      <c r="C30" s="15" t="s">
         <v>311</v>
-      </c>
-      <c r="C30" s="15" t="s">
-        <v>312</v>
       </c>
     </row>
     <row r="31" spans="1:7" ht="37.5">
       <c r="A31" s="15" t="s">
-        <v>454</v>
+        <v>453</v>
       </c>
     </row>
     <row r="33" spans="1:9">
       <c r="A33" s="22" t="s">
-        <v>313</v>
+        <v>312</v>
       </c>
     </row>
     <row r="34" spans="1:9" ht="187.5">
@@ -4935,143 +4923,143 @@
         <v>12</v>
       </c>
       <c r="B34" s="3" t="s">
+        <v>313</v>
+      </c>
+      <c r="C34" s="3" t="s">
+        <v>452</v>
+      </c>
+      <c r="D34" s="15" t="s">
         <v>314</v>
       </c>
-      <c r="C34" s="3" t="s">
-        <v>453</v>
-      </c>
-      <c r="D34" s="15" t="s">
+      <c r="E34" s="15" t="s">
         <v>315</v>
       </c>
-      <c r="E34" s="15" t="s">
+      <c r="F34" s="15" t="s">
         <v>316</v>
       </c>
-      <c r="F34" s="15" t="s">
+      <c r="G34" s="15" t="s">
+        <v>288</v>
+      </c>
+      <c r="H34" s="15" t="s">
         <v>317</v>
       </c>
-      <c r="G34" s="15" t="s">
-        <v>289</v>
-      </c>
-      <c r="H34" s="15" t="s">
-        <v>318</v>
-      </c>
       <c r="I34" s="15" t="s">
-        <v>291</v>
+        <v>290</v>
       </c>
     </row>
     <row r="35" spans="1:9">
       <c r="A35" s="3" t="s">
+        <v>318</v>
+      </c>
+      <c r="B35" s="3" t="s">
         <v>319</v>
-      </c>
-      <c r="B35" s="3" t="s">
-        <v>320</v>
       </c>
     </row>
     <row r="36" spans="1:9" ht="93.75">
       <c r="A36" s="3" t="s">
+        <v>320</v>
+      </c>
+      <c r="B36" s="3" t="s">
         <v>321</v>
       </c>
-      <c r="B36" s="3" t="s">
+      <c r="C36" s="15" t="s">
         <v>322</v>
-      </c>
-      <c r="C36" s="15" t="s">
-        <v>323</v>
       </c>
     </row>
     <row r="37" spans="1:9">
       <c r="A37" s="3" t="s">
+        <v>323</v>
+      </c>
+      <c r="B37" s="3" t="s">
         <v>324</v>
-      </c>
-      <c r="B37" s="3" t="s">
-        <v>325</v>
       </c>
     </row>
     <row r="38" spans="1:9" ht="56.25">
       <c r="A38" s="15" t="s">
+        <v>325</v>
+      </c>
+      <c r="B38" s="3" t="s">
         <v>326</v>
       </c>
-      <c r="B38" s="3" t="s">
+      <c r="C38" s="15" t="s">
         <v>327</v>
-      </c>
-      <c r="C38" s="15" t="s">
-        <v>328</v>
       </c>
     </row>
     <row r="39" spans="1:9">
       <c r="A39" s="3" t="s">
+        <v>328</v>
+      </c>
+      <c r="B39" s="3" t="s">
         <v>329</v>
-      </c>
-      <c r="B39" s="3" t="s">
-        <v>330</v>
       </c>
     </row>
     <row r="40" spans="1:9" ht="56.25">
       <c r="A40" s="3" t="s">
+        <v>330</v>
+      </c>
+      <c r="B40" s="15" t="s">
         <v>331</v>
       </c>
-      <c r="B40" s="15" t="s">
+      <c r="C40" s="3" t="s">
         <v>332</v>
       </c>
-      <c r="C40" s="3" t="s">
+      <c r="D40" s="3" t="s">
         <v>333</v>
-      </c>
-      <c r="D40" s="3" t="s">
-        <v>334</v>
       </c>
     </row>
     <row r="41" spans="1:9" ht="37.5">
       <c r="A41" s="3" t="s">
+        <v>334</v>
+      </c>
+      <c r="B41" s="15" t="s">
         <v>335</v>
       </c>
-      <c r="B41" s="15" t="s">
+      <c r="C41" s="15" t="s">
         <v>336</v>
       </c>
-      <c r="C41" s="15" t="s">
-        <v>337</v>
-      </c>
       <c r="D41" s="3" t="s">
-        <v>334</v>
+        <v>333</v>
       </c>
     </row>
     <row r="42" spans="1:9" ht="112.5">
       <c r="A42" s="15" t="s">
+        <v>337</v>
+      </c>
+      <c r="B42" s="24" t="s">
         <v>338</v>
       </c>
-      <c r="B42" s="24" t="s">
+      <c r="C42" s="15" t="s">
         <v>339</v>
-      </c>
-      <c r="C42" s="15" t="s">
-        <v>340</v>
       </c>
     </row>
     <row r="43" spans="1:9">
       <c r="A43" s="3" t="s">
+        <v>340</v>
+      </c>
+      <c r="B43" s="3" t="s">
         <v>341</v>
-      </c>
-      <c r="B43" s="3" t="s">
-        <v>342</v>
       </c>
     </row>
     <row r="44" spans="1:9" ht="131.25">
       <c r="A44" s="15" t="s">
+        <v>342</v>
+      </c>
+      <c r="B44" s="15" t="s">
         <v>343</v>
       </c>
-      <c r="B44" s="15" t="s">
+      <c r="C44" s="15" t="s">
         <v>344</v>
       </c>
-      <c r="C44" s="15" t="s">
+      <c r="D44" s="15" t="s">
         <v>345</v>
       </c>
-      <c r="D44" s="15" t="s">
+      <c r="E44" s="15" t="s">
         <v>346</v>
-      </c>
-      <c r="E44" s="15" t="s">
-        <v>347</v>
       </c>
     </row>
     <row r="45" spans="1:9">
       <c r="A45" s="22" t="s">
-        <v>348</v>
+        <v>347</v>
       </c>
     </row>
     <row r="46" spans="1:9" ht="131.25">
@@ -5079,121 +5067,121 @@
         <v>11</v>
       </c>
       <c r="B46" s="15" t="s">
+        <v>348</v>
+      </c>
+      <c r="C46" s="15" t="s">
+        <v>451</v>
+      </c>
+      <c r="D46" s="15" t="s">
         <v>349</v>
       </c>
-      <c r="C46" s="15" t="s">
-        <v>452</v>
-      </c>
-      <c r="D46" s="15" t="s">
+      <c r="E46" s="15" t="s">
         <v>350</v>
       </c>
-      <c r="E46" s="15" t="s">
-        <v>351</v>
-      </c>
       <c r="F46" s="15" t="s">
+        <v>316</v>
+      </c>
+      <c r="G46" s="15" t="s">
+        <v>288</v>
+      </c>
+      <c r="H46" s="15" t="s">
         <v>317</v>
       </c>
-      <c r="G46" s="15" t="s">
-        <v>289</v>
-      </c>
-      <c r="H46" s="15" t="s">
-        <v>318</v>
-      </c>
       <c r="I46" s="15" t="s">
-        <v>291</v>
+        <v>290</v>
       </c>
     </row>
     <row r="47" spans="1:9" ht="93.75">
       <c r="A47" s="3" t="s">
+        <v>351</v>
+      </c>
+      <c r="B47" s="3" t="s">
         <v>352</v>
       </c>
-      <c r="B47" s="3" t="s">
+      <c r="C47" s="3" t="s">
         <v>353</v>
       </c>
-      <c r="C47" s="3" t="s">
+      <c r="D47" s="15" t="s">
         <v>354</v>
       </c>
-      <c r="D47" s="15" t="s">
+      <c r="E47" s="3" t="s">
+        <v>293</v>
+      </c>
+      <c r="F47" s="15" t="s">
         <v>355</v>
       </c>
-      <c r="E47" s="3" t="s">
-        <v>294</v>
-      </c>
-      <c r="F47" s="15" t="s">
+      <c r="G47" s="3" t="s">
         <v>356</v>
       </c>
-      <c r="G47" s="3" t="s">
+      <c r="H47" s="15" t="s">
         <v>357</v>
-      </c>
-      <c r="H47" s="15" t="s">
-        <v>358</v>
       </c>
     </row>
     <row r="48" spans="1:9">
       <c r="A48" s="3" t="s">
+        <v>358</v>
+      </c>
+      <c r="B48" s="15" t="s">
         <v>359</v>
-      </c>
-      <c r="B48" s="15" t="s">
-        <v>360</v>
       </c>
     </row>
     <row r="49" spans="1:6" ht="112.5">
       <c r="A49" s="3" t="s">
+        <v>360</v>
+      </c>
+      <c r="B49" s="15" t="s">
         <v>361</v>
       </c>
-      <c r="B49" s="15" t="s">
+      <c r="C49" s="15" t="s">
         <v>362</v>
       </c>
-      <c r="C49" s="15" t="s">
+      <c r="D49" s="15" t="s">
         <v>363</v>
       </c>
-      <c r="D49" s="15" t="s">
+      <c r="E49" s="15" t="s">
+        <v>293</v>
+      </c>
+      <c r="F49" s="15" t="s">
         <v>364</v>
-      </c>
-      <c r="E49" s="15" t="s">
-        <v>294</v>
-      </c>
-      <c r="F49" s="15" t="s">
-        <v>365</v>
       </c>
     </row>
     <row r="50" spans="1:6" ht="93.75">
       <c r="A50" s="3" t="s">
+        <v>365</v>
+      </c>
+      <c r="B50" s="15" t="s">
         <v>366</v>
       </c>
-      <c r="B50" s="15" t="s">
+      <c r="C50" s="3" t="s">
         <v>367</v>
       </c>
-      <c r="C50" s="3" t="s">
+      <c r="D50" s="15" t="s">
         <v>368</v>
-      </c>
-      <c r="D50" s="15" t="s">
-        <v>369</v>
       </c>
     </row>
     <row r="51" spans="1:6">
       <c r="A51" s="3" t="s">
+        <v>369</v>
+      </c>
+      <c r="B51" s="15" t="s">
         <v>370</v>
-      </c>
-      <c r="B51" s="15" t="s">
-        <v>371</v>
       </c>
     </row>
     <row r="52" spans="1:6" ht="281.25">
       <c r="A52" s="15" t="s">
+        <v>371</v>
+      </c>
+      <c r="B52" s="15" t="s">
         <v>372</v>
       </c>
-      <c r="B52" s="15" t="s">
+      <c r="C52" s="15" t="s">
         <v>373</v>
       </c>
-      <c r="C52" s="15" t="s">
+      <c r="D52" s="15" t="s">
+        <v>293</v>
+      </c>
+      <c r="E52" s="15" t="s">
         <v>374</v>
-      </c>
-      <c r="D52" s="15" t="s">
-        <v>294</v>
-      </c>
-      <c r="E52" s="15" t="s">
-        <v>375</v>
       </c>
     </row>
   </sheetData>
@@ -5226,515 +5214,515 @@
   <sheetData>
     <row r="1" spans="1:5">
       <c r="A1" s="25" t="s">
+        <v>375</v>
+      </c>
+      <c r="B1" s="8" t="s">
         <v>376</v>
       </c>
-      <c r="B1" s="8" t="s">
+      <c r="C1" s="8" t="s">
         <v>377</v>
       </c>
-      <c r="C1" s="8" t="s">
+      <c r="D1" s="8" t="s">
         <v>378</v>
       </c>
-      <c r="D1" s="8" t="s">
+      <c r="E1" s="8" t="s">
         <v>379</v>
-      </c>
-      <c r="E1" s="8" t="s">
-        <v>380</v>
       </c>
     </row>
     <row r="2" spans="1:5" ht="37.5">
       <c r="A2" s="27" t="s">
+        <v>380</v>
+      </c>
+      <c r="B2" s="27" t="s">
         <v>381</v>
       </c>
-      <c r="B2" s="27" t="s">
+      <c r="C2" s="28" t="s">
         <v>382</v>
       </c>
-      <c r="C2" s="28" t="s">
+      <c r="D2" s="18" t="s">
         <v>383</v>
       </c>
-      <c r="D2" s="18" t="s">
+      <c r="E2" s="27" t="s">
         <v>384</v>
-      </c>
-      <c r="E2" s="27" t="s">
-        <v>385</v>
       </c>
     </row>
     <row r="3" spans="1:5" ht="37.5">
       <c r="A3" s="27" t="s">
+        <v>385</v>
+      </c>
+      <c r="B3" s="27" t="s">
+        <v>381</v>
+      </c>
+      <c r="C3" s="29" t="s">
         <v>386</v>
       </c>
-      <c r="B3" s="27" t="s">
-        <v>382</v>
-      </c>
-      <c r="C3" s="29" t="s">
-        <v>387</v>
-      </c>
       <c r="D3" s="18" t="s">
-        <v>384</v>
+        <v>383</v>
       </c>
       <c r="E3" s="27"/>
     </row>
     <row r="4" spans="1:5" ht="37.5">
       <c r="A4" s="27" t="s">
+        <v>387</v>
+      </c>
+      <c r="B4" s="27" t="s">
+        <v>381</v>
+      </c>
+      <c r="C4" s="29" t="s">
         <v>388</v>
       </c>
-      <c r="B4" s="27" t="s">
-        <v>382</v>
-      </c>
-      <c r="C4" s="29" t="s">
-        <v>389</v>
-      </c>
       <c r="D4" s="18" t="s">
-        <v>384</v>
+        <v>383</v>
       </c>
       <c r="E4" s="28"/>
     </row>
     <row r="5" spans="1:5" ht="37.5">
       <c r="A5" s="27" t="s">
+        <v>389</v>
+      </c>
+      <c r="B5" s="27" t="s">
+        <v>381</v>
+      </c>
+      <c r="C5" s="29" t="s">
         <v>390</v>
       </c>
-      <c r="B5" s="27" t="s">
-        <v>382</v>
-      </c>
-      <c r="C5" s="29" t="s">
-        <v>391</v>
-      </c>
       <c r="D5" s="18" t="s">
-        <v>384</v>
+        <v>383</v>
       </c>
       <c r="E5" s="28"/>
     </row>
     <row r="6" spans="1:5" ht="37.5">
       <c r="A6" s="27" t="s">
+        <v>391</v>
+      </c>
+      <c r="B6" s="27" t="s">
+        <v>381</v>
+      </c>
+      <c r="C6" s="29" t="s">
         <v>392</v>
       </c>
-      <c r="B6" s="27" t="s">
-        <v>382</v>
-      </c>
-      <c r="C6" s="29" t="s">
-        <v>393</v>
-      </c>
       <c r="D6" s="18" t="s">
-        <v>384</v>
+        <v>383</v>
       </c>
       <c r="E6" s="28"/>
     </row>
     <row r="7" spans="1:5" ht="37.5">
       <c r="A7" s="27" t="s">
+        <v>393</v>
+      </c>
+      <c r="B7" s="27" t="s">
+        <v>381</v>
+      </c>
+      <c r="C7" s="29" t="s">
         <v>394</v>
       </c>
-      <c r="B7" s="27" t="s">
-        <v>382</v>
-      </c>
-      <c r="C7" s="29" t="s">
-        <v>395</v>
-      </c>
       <c r="D7" s="18" t="s">
-        <v>384</v>
+        <v>383</v>
       </c>
       <c r="E7" s="28"/>
     </row>
     <row r="8" spans="1:5" ht="37.5">
       <c r="A8" s="27" t="s">
+        <v>395</v>
+      </c>
+      <c r="B8" s="27" t="s">
+        <v>381</v>
+      </c>
+      <c r="C8" s="29" t="s">
         <v>396</v>
       </c>
-      <c r="B8" s="27" t="s">
-        <v>382</v>
-      </c>
-      <c r="C8" s="29" t="s">
-        <v>397</v>
-      </c>
       <c r="D8" s="18" t="s">
-        <v>384</v>
+        <v>383</v>
       </c>
       <c r="E8" s="28"/>
     </row>
     <row r="9" spans="1:5" ht="37.5">
       <c r="A9" s="27" t="s">
+        <v>397</v>
+      </c>
+      <c r="B9" s="27" t="s">
+        <v>381</v>
+      </c>
+      <c r="C9" s="29" t="s">
         <v>398</v>
       </c>
-      <c r="B9" s="27" t="s">
-        <v>382</v>
-      </c>
-      <c r="C9" s="29" t="s">
-        <v>399</v>
-      </c>
       <c r="D9" s="18" t="s">
-        <v>384</v>
+        <v>383</v>
       </c>
       <c r="E9" s="28"/>
     </row>
     <row r="10" spans="1:5" ht="37.5">
       <c r="A10" s="27" t="s">
+        <v>399</v>
+      </c>
+      <c r="B10" s="27" t="s">
+        <v>381</v>
+      </c>
+      <c r="C10" s="29" t="s">
         <v>400</v>
       </c>
-      <c r="B10" s="27" t="s">
-        <v>382</v>
-      </c>
-      <c r="C10" s="29" t="s">
-        <v>401</v>
-      </c>
       <c r="D10" s="18" t="s">
-        <v>384</v>
+        <v>383</v>
       </c>
       <c r="E10" s="28"/>
     </row>
     <row r="11" spans="1:5" ht="37.5">
       <c r="A11" s="27" t="s">
+        <v>401</v>
+      </c>
+      <c r="B11" s="27" t="s">
+        <v>381</v>
+      </c>
+      <c r="C11" s="29" t="s">
         <v>402</v>
       </c>
-      <c r="B11" s="27" t="s">
-        <v>382</v>
-      </c>
-      <c r="C11" s="29" t="s">
-        <v>403</v>
-      </c>
       <c r="D11" s="18" t="s">
-        <v>384</v>
+        <v>383</v>
       </c>
       <c r="E11" s="28"/>
     </row>
     <row r="12" spans="1:5" ht="37.5">
       <c r="A12" s="27" t="s">
+        <v>403</v>
+      </c>
+      <c r="B12" s="27" t="s">
+        <v>381</v>
+      </c>
+      <c r="C12" s="29" t="s">
         <v>404</v>
       </c>
-      <c r="B12" s="27" t="s">
-        <v>382</v>
-      </c>
-      <c r="C12" s="29" t="s">
-        <v>405</v>
-      </c>
       <c r="D12" s="18" t="s">
-        <v>384</v>
+        <v>383</v>
       </c>
       <c r="E12" s="30"/>
     </row>
     <row r="13" spans="1:5" ht="37.5">
       <c r="A13" s="27" t="s">
+        <v>405</v>
+      </c>
+      <c r="B13" s="27" t="s">
+        <v>381</v>
+      </c>
+      <c r="C13" s="29" t="s">
         <v>406</v>
       </c>
-      <c r="B13" s="27" t="s">
-        <v>382</v>
-      </c>
-      <c r="C13" s="29" t="s">
-        <v>407</v>
-      </c>
       <c r="D13" s="18" t="s">
-        <v>384</v>
+        <v>383</v>
       </c>
       <c r="E13" s="30"/>
     </row>
     <row r="14" spans="1:5" ht="37.5">
       <c r="A14" s="27" t="s">
+        <v>407</v>
+      </c>
+      <c r="B14" s="27" t="s">
+        <v>381</v>
+      </c>
+      <c r="C14" s="29" t="s">
         <v>408</v>
       </c>
-      <c r="B14" s="27" t="s">
-        <v>382</v>
-      </c>
-      <c r="C14" s="29" t="s">
-        <v>409</v>
-      </c>
       <c r="D14" s="18" t="s">
-        <v>384</v>
+        <v>383</v>
       </c>
       <c r="E14" s="30"/>
     </row>
     <row r="15" spans="1:5" ht="37.5">
       <c r="A15" s="27" t="s">
+        <v>409</v>
+      </c>
+      <c r="B15" s="27" t="s">
+        <v>381</v>
+      </c>
+      <c r="C15" s="29" t="s">
         <v>410</v>
       </c>
-      <c r="B15" s="27" t="s">
-        <v>382</v>
-      </c>
-      <c r="C15" s="29" t="s">
-        <v>411</v>
-      </c>
       <c r="D15" s="18" t="s">
-        <v>384</v>
+        <v>383</v>
       </c>
       <c r="E15" s="30"/>
     </row>
     <row r="16" spans="1:5" ht="37.5">
       <c r="A16" s="27" t="s">
+        <v>411</v>
+      </c>
+      <c r="B16" s="27" t="s">
+        <v>381</v>
+      </c>
+      <c r="C16" s="29" t="s">
         <v>412</v>
       </c>
-      <c r="B16" s="27" t="s">
-        <v>382</v>
-      </c>
-      <c r="C16" s="29" t="s">
-        <v>413</v>
-      </c>
       <c r="D16" s="18" t="s">
-        <v>384</v>
+        <v>383</v>
       </c>
       <c r="E16" s="30"/>
     </row>
     <row r="17" spans="1:5" ht="37.5">
       <c r="A17" s="27" t="s">
+        <v>413</v>
+      </c>
+      <c r="B17" s="27" t="s">
+        <v>381</v>
+      </c>
+      <c r="C17" s="29" t="s">
         <v>414</v>
       </c>
-      <c r="B17" s="27" t="s">
-        <v>382</v>
-      </c>
-      <c r="C17" s="29" t="s">
-        <v>415</v>
-      </c>
       <c r="D17" s="18" t="s">
-        <v>384</v>
+        <v>383</v>
       </c>
       <c r="E17" s="30"/>
     </row>
     <row r="18" spans="1:5" ht="37.5">
       <c r="A18" s="31" t="s">
+        <v>415</v>
+      </c>
+      <c r="B18" s="31" t="s">
+        <v>381</v>
+      </c>
+      <c r="C18" s="32" t="s">
         <v>416</v>
       </c>
-      <c r="B18" s="31" t="s">
-        <v>382</v>
-      </c>
-      <c r="C18" s="32" t="s">
-        <v>417</v>
-      </c>
       <c r="D18" s="33" t="s">
-        <v>384</v>
+        <v>383</v>
       </c>
       <c r="E18" s="30"/>
     </row>
     <row r="19" spans="1:5" ht="37.5">
       <c r="A19" s="27" t="s">
+        <v>417</v>
+      </c>
+      <c r="B19" s="27" t="s">
+        <v>381</v>
+      </c>
+      <c r="C19" s="34" t="s">
         <v>418</v>
       </c>
-      <c r="B19" s="27" t="s">
-        <v>382</v>
-      </c>
-      <c r="C19" s="34" t="s">
-        <v>419</v>
-      </c>
       <c r="D19" s="18" t="s">
-        <v>384</v>
+        <v>383</v>
       </c>
       <c r="E19" s="30"/>
     </row>
     <row r="20" spans="1:5" ht="37.5">
       <c r="A20" s="27" t="s">
+        <v>419</v>
+      </c>
+      <c r="B20" s="27" t="s">
+        <v>381</v>
+      </c>
+      <c r="C20" s="29" t="s">
         <v>420</v>
       </c>
-      <c r="B20" s="27" t="s">
-        <v>382</v>
-      </c>
-      <c r="C20" s="29" t="s">
-        <v>421</v>
-      </c>
       <c r="D20" s="18" t="s">
-        <v>384</v>
+        <v>383</v>
       </c>
     </row>
     <row r="21" spans="1:5" ht="37.5">
       <c r="A21" s="27" t="s">
+        <v>421</v>
+      </c>
+      <c r="B21" s="27" t="s">
+        <v>381</v>
+      </c>
+      <c r="C21" s="27" t="s">
         <v>422</v>
       </c>
-      <c r="B21" s="27" t="s">
-        <v>382</v>
-      </c>
-      <c r="C21" s="27" t="s">
-        <v>423</v>
-      </c>
       <c r="D21" s="18" t="s">
-        <v>384</v>
+        <v>383</v>
       </c>
     </row>
     <row r="22" spans="1:5" ht="37.5">
       <c r="A22" s="27" t="s">
+        <v>423</v>
+      </c>
+      <c r="B22" s="27" t="s">
+        <v>381</v>
+      </c>
+      <c r="C22" s="35" t="s">
         <v>424</v>
       </c>
-      <c r="B22" s="27" t="s">
-        <v>382</v>
-      </c>
-      <c r="C22" s="35" t="s">
-        <v>425</v>
-      </c>
       <c r="D22" s="18" t="s">
-        <v>384</v>
+        <v>383</v>
       </c>
     </row>
     <row r="23" spans="1:5" ht="37.5">
       <c r="A23" s="27" t="s">
+        <v>425</v>
+      </c>
+      <c r="B23" s="27" t="s">
+        <v>381</v>
+      </c>
+      <c r="C23" s="35" t="s">
         <v>426</v>
       </c>
-      <c r="B23" s="27" t="s">
-        <v>382</v>
-      </c>
-      <c r="C23" s="35" t="s">
-        <v>427</v>
-      </c>
       <c r="D23" s="18" t="s">
-        <v>384</v>
+        <v>383</v>
       </c>
     </row>
     <row r="24" spans="1:5" ht="37.5">
       <c r="A24" s="27" t="s">
+        <v>427</v>
+      </c>
+      <c r="B24" s="27" t="s">
+        <v>381</v>
+      </c>
+      <c r="C24" s="35" t="s">
         <v>428</v>
       </c>
-      <c r="B24" s="27" t="s">
-        <v>382</v>
-      </c>
-      <c r="C24" s="35" t="s">
-        <v>429</v>
-      </c>
       <c r="D24" s="18" t="s">
-        <v>384</v>
+        <v>383</v>
       </c>
     </row>
     <row r="25" spans="1:5" ht="37.5">
       <c r="A25" s="27" t="s">
+        <v>429</v>
+      </c>
+      <c r="B25" s="27" t="s">
+        <v>381</v>
+      </c>
+      <c r="C25" s="35" t="s">
         <v>430</v>
       </c>
-      <c r="B25" s="27" t="s">
-        <v>382</v>
-      </c>
-      <c r="C25" s="35" t="s">
-        <v>431</v>
-      </c>
       <c r="D25" s="18" t="s">
-        <v>384</v>
+        <v>383</v>
       </c>
     </row>
     <row r="26" spans="1:5" ht="37.5">
       <c r="A26" s="27" t="s">
+        <v>431</v>
+      </c>
+      <c r="B26" s="27" t="s">
+        <v>381</v>
+      </c>
+      <c r="C26" s="36" t="s">
         <v>432</v>
       </c>
-      <c r="B26" s="27" t="s">
-        <v>382</v>
-      </c>
-      <c r="C26" s="36" t="s">
-        <v>433</v>
-      </c>
       <c r="D26" s="18" t="s">
-        <v>384</v>
+        <v>383</v>
       </c>
     </row>
     <row r="27" spans="1:5" ht="37.5">
       <c r="A27" s="27" t="s">
+        <v>433</v>
+      </c>
+      <c r="B27" s="27" t="s">
+        <v>381</v>
+      </c>
+      <c r="C27" s="36" t="s">
         <v>434</v>
       </c>
-      <c r="B27" s="27" t="s">
-        <v>382</v>
-      </c>
-      <c r="C27" s="36" t="s">
-        <v>435</v>
-      </c>
       <c r="D27" s="18" t="s">
-        <v>384</v>
+        <v>383</v>
       </c>
     </row>
     <row r="28" spans="1:5" ht="37.5">
       <c r="A28" s="27" t="s">
+        <v>435</v>
+      </c>
+      <c r="B28" s="27" t="s">
+        <v>381</v>
+      </c>
+      <c r="C28" s="36" t="s">
         <v>436</v>
       </c>
-      <c r="B28" s="27" t="s">
-        <v>382</v>
-      </c>
-      <c r="C28" s="36" t="s">
-        <v>437</v>
-      </c>
       <c r="D28" s="18" t="s">
-        <v>384</v>
+        <v>383</v>
       </c>
     </row>
     <row r="29" spans="1:5" ht="37.5">
       <c r="A29" s="27" t="s">
+        <v>437</v>
+      </c>
+      <c r="B29" s="27" t="s">
+        <v>381</v>
+      </c>
+      <c r="C29" s="36" t="s">
         <v>438</v>
       </c>
-      <c r="B29" s="27" t="s">
-        <v>382</v>
-      </c>
-      <c r="C29" s="36" t="s">
-        <v>439</v>
-      </c>
       <c r="D29" s="18" t="s">
-        <v>384</v>
+        <v>383</v>
       </c>
     </row>
     <row r="30" spans="1:5" ht="37.5">
       <c r="A30" s="27" t="s">
+        <v>439</v>
+      </c>
+      <c r="B30" s="27" t="s">
+        <v>381</v>
+      </c>
+      <c r="C30" s="36" t="s">
         <v>440</v>
       </c>
-      <c r="B30" s="27" t="s">
-        <v>382</v>
-      </c>
-      <c r="C30" s="36" t="s">
-        <v>441</v>
-      </c>
       <c r="D30" s="18" t="s">
-        <v>384</v>
+        <v>383</v>
       </c>
     </row>
     <row r="31" spans="1:5" ht="37.5">
       <c r="A31" s="27" t="s">
+        <v>441</v>
+      </c>
+      <c r="B31" s="27" t="s">
+        <v>381</v>
+      </c>
+      <c r="C31" s="36" t="s">
         <v>442</v>
       </c>
-      <c r="B31" s="27" t="s">
-        <v>382</v>
-      </c>
-      <c r="C31" s="36" t="s">
-        <v>443</v>
-      </c>
       <c r="D31" s="18" t="s">
-        <v>384</v>
+        <v>383</v>
       </c>
     </row>
     <row r="32" spans="1:5" ht="37.5">
       <c r="A32" s="27" t="s">
+        <v>443</v>
+      </c>
+      <c r="B32" s="27" t="s">
+        <v>381</v>
+      </c>
+      <c r="C32" s="36" t="s">
         <v>444</v>
       </c>
-      <c r="B32" s="27" t="s">
-        <v>382</v>
-      </c>
-      <c r="C32" s="36" t="s">
-        <v>445</v>
-      </c>
       <c r="D32" s="18" t="s">
-        <v>384</v>
+        <v>383</v>
       </c>
     </row>
     <row r="33" spans="1:4" ht="37.5">
       <c r="A33" s="27" t="s">
+        <v>445</v>
+      </c>
+      <c r="B33" s="27" t="s">
+        <v>381</v>
+      </c>
+      <c r="C33" s="36" t="s">
         <v>446</v>
       </c>
-      <c r="B33" s="27" t="s">
-        <v>382</v>
-      </c>
-      <c r="C33" s="36" t="s">
-        <v>447</v>
-      </c>
       <c r="D33" s="18" t="s">
-        <v>384</v>
+        <v>383</v>
       </c>
     </row>
     <row r="34" spans="1:4" ht="37.5">
       <c r="A34" s="27" t="s">
+        <v>447</v>
+      </c>
+      <c r="B34" s="27" t="s">
+        <v>381</v>
+      </c>
+      <c r="C34" s="36" t="s">
         <v>448</v>
       </c>
-      <c r="B34" s="27" t="s">
-        <v>382</v>
-      </c>
-      <c r="C34" s="36" t="s">
-        <v>449</v>
-      </c>
       <c r="D34" s="18" t="s">
-        <v>384</v>
+        <v>383</v>
       </c>
     </row>
     <row r="35" spans="1:4" ht="37.5">
       <c r="A35" s="27" t="s">
+        <v>449</v>
+      </c>
+      <c r="B35" s="27" t="s">
+        <v>381</v>
+      </c>
+      <c r="C35" s="36" t="s">
         <v>450</v>
       </c>
-      <c r="B35" s="27" t="s">
-        <v>382</v>
-      </c>
-      <c r="C35" s="36" t="s">
-        <v>451</v>
-      </c>
       <c r="D35" s="18" t="s">
-        <v>384</v>
+        <v>383</v>
       </c>
     </row>
   </sheetData>

--- a/TestData.xlsx
+++ b/TestData.xlsx
@@ -1,15 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="19001"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="20225"/>
   <workbookPr autoCompressPictures="0"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jibim\Desktop\Demo\Robot\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="15855" windowHeight="6075" tabRatio="990" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="17960" windowHeight="9000" tabRatio="990" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Login_Credentials" sheetId="1" r:id="rId1"/>
@@ -1405,30 +1400,6 @@
     <t>TitleForExplainAConcepts</t>
   </si>
   <si>
-    <t>aleeex5@grovo.com</t>
-  </si>
-  <si>
-    <t>jameees5@grovo.com</t>
-  </si>
-  <si>
-    <t>jiooob5@grovo.com</t>
-  </si>
-  <si>
-    <t>leonnna5@grovo.com</t>
-  </si>
-  <si>
-    <t>Empl#15</t>
-  </si>
-  <si>
-    <t>Empl#26</t>
-  </si>
-  <si>
-    <t>Empl#37</t>
-  </si>
-  <si>
-    <t>Empl#48</t>
-  </si>
-  <si>
     <t>/home/ubuntu/Grovo_Automation/TestData/test.jpg</t>
   </si>
   <si>
@@ -1438,38 +1409,62 @@
     <t>/home/ubuntu/Grovo_Automation/TestData/test.pdf</t>
   </si>
   <si>
-    <t>Aleeex5</t>
-  </si>
-  <si>
-    <t>Jameees5</t>
-  </si>
-  <si>
-    <t>Jibbbbi5</t>
-  </si>
-  <si>
-    <t>Leooon5</t>
-  </si>
-  <si>
-    <t>Matheeew5</t>
-  </si>
-  <si>
-    <t>kattlllle5</t>
-  </si>
-  <si>
-    <t>Tesssst5</t>
-  </si>
-  <si>
-    <t>Ageeee5</t>
-  </si>
-  <si>
-    <t>jibim@grovo.com</t>
+    <t>testadmin@grovo.com</t>
+  </si>
+  <si>
+    <t>Aleeex6</t>
+  </si>
+  <si>
+    <t>Matheeew6</t>
+  </si>
+  <si>
+    <t>aleeex6@grovo.com</t>
+  </si>
+  <si>
+    <t>Empl#16</t>
+  </si>
+  <si>
+    <t>Empl#27</t>
+  </si>
+  <si>
+    <t>jameees6@grovo.com</t>
+  </si>
+  <si>
+    <t>kattlllle6</t>
+  </si>
+  <si>
+    <t>Jameees6</t>
+  </si>
+  <si>
+    <t>Jibbbbi6</t>
+  </si>
+  <si>
+    <t>Tesssst6</t>
+  </si>
+  <si>
+    <t>Empl#38</t>
+  </si>
+  <si>
+    <t>jiooob6@grovo.com</t>
+  </si>
+  <si>
+    <t>Leooon6</t>
+  </si>
+  <si>
+    <t>Ageeee6</t>
+  </si>
+  <si>
+    <t>Empl#49</t>
+  </si>
+  <si>
+    <t>leonnna6@grovo.com</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="18">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <fonts count="18" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color rgb="FF000000"/>
@@ -1807,13 +1802,13 @@
     <xf numFmtId="0" fontId="13" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="11" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="13" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="13" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -1821,7 +1816,7 @@
     <cellStyle name="Followed Hyperlink" xfId="3" builtinId="9" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
-    <cellStyle name="Normal 2" xfId="2" xr:uid="{00000000-0005-0000-0000-000003000000}"/>
+    <cellStyle name="Normal 2" xfId="2"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleMedium4"/>
@@ -2225,23 +2220,23 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AMJ6"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="77" zoomScaleNormal="77" zoomScalePageLayoutView="77" workbookViewId="0">
-      <selection activeCell="C2" sqref="C2"/>
+    <sheetView zoomScale="77" zoomScaleNormal="77" zoomScalePageLayoutView="77" workbookViewId="0">
+      <selection activeCell="D5" sqref="D5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="21"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="20" x14ac:dyDescent="0"/>
   <cols>
-    <col min="1" max="1" width="32.42578125" style="10" customWidth="1" collapsed="1"/>
-    <col min="2" max="2" width="42.85546875" style="10" customWidth="1" collapsed="1"/>
+    <col min="1" max="1" width="32.5" style="10" customWidth="1" collapsed="1"/>
+    <col min="2" max="2" width="42.83203125" style="10" customWidth="1" collapsed="1"/>
     <col min="3" max="3" width="26" style="10" customWidth="1" collapsed="1"/>
-    <col min="4" max="1024" width="8.85546875" style="10" collapsed="1"/>
-    <col min="1025" max="16384" width="8.85546875" style="10"/>
+    <col min="4" max="1024" width="8.83203125" style="10" collapsed="1"/>
+    <col min="1025" max="16384" width="8.83203125" style="10"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3">
+    <row r="1" spans="1:3" ht="21">
       <c r="A1" s="9" t="s">
         <v>0</v>
       </c>
@@ -2252,7 +2247,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="2" spans="1:3">
+    <row r="2" spans="1:3" ht="21">
       <c r="A2" s="11" t="s">
         <v>3</v>
       </c>
@@ -2261,37 +2256,37 @@
       </c>
       <c r="C2" s="11"/>
     </row>
-    <row r="3" spans="1:3">
+    <row r="3" spans="1:3" ht="21">
       <c r="A3" s="11"/>
       <c r="B3" s="11"/>
       <c r="C3" s="11"/>
     </row>
-    <row r="4" spans="1:3">
+    <row r="4" spans="1:3" ht="21">
       <c r="A4" s="11" t="s">
         <v>5</v>
       </c>
       <c r="B4" s="37" t="s">
-        <v>473</v>
+        <v>457</v>
       </c>
       <c r="C4" s="12" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="5" spans="1:3">
+    <row r="5" spans="1:3" ht="21">
       <c r="A5" s="11"/>
       <c r="B5" s="13"/>
       <c r="C5" s="11"/>
     </row>
-    <row r="6" spans="1:3">
+    <row r="6" spans="1:3" ht="21">
       <c r="A6" s="11"/>
       <c r="B6" s="13"/>
       <c r="C6" s="11"/>
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="B2" r:id="rId1" xr:uid="{00000000-0004-0000-0000-000000000000}"/>
-    <hyperlink ref="C4" r:id="rId2" xr:uid="{00000000-0004-0000-0000-000001000000}"/>
-    <hyperlink ref="B4" r:id="rId3" xr:uid="{00000000-0004-0000-0000-000002000000}"/>
+    <hyperlink ref="B2" r:id="rId1"/>
+    <hyperlink ref="C4" r:id="rId2"/>
+    <hyperlink ref="B4" r:id="rId3"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.51180555555555496" footer="0.51180555555555496"/>
   <extLst>
@@ -2303,26 +2298,26 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:H5"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D19" sqref="D19"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B8" sqref="B8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="38" defaultRowHeight="18.75"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="38" defaultRowHeight="18" x14ac:dyDescent="0"/>
   <cols>
     <col min="1" max="1" width="38" style="3" collapsed="1"/>
-    <col min="2" max="2" width="19.28515625" style="3" customWidth="1" collapsed="1"/>
-    <col min="3" max="3" width="20.7109375" style="3" customWidth="1" collapsed="1"/>
+    <col min="2" max="2" width="19.33203125" style="3" customWidth="1" collapsed="1"/>
+    <col min="3" max="3" width="20.6640625" style="3" customWidth="1" collapsed="1"/>
     <col min="4" max="4" width="21" style="3" customWidth="1" collapsed="1"/>
     <col min="5" max="5" width="19" style="3" customWidth="1" collapsed="1"/>
-    <col min="6" max="6" width="24.28515625" style="3" customWidth="1" collapsed="1"/>
+    <col min="6" max="6" width="24.33203125" style="3" customWidth="1" collapsed="1"/>
     <col min="7" max="8" width="38" style="3" collapsed="1"/>
     <col min="9" max="16384" width="38" style="3"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8">
+    <row r="1" spans="1:8" ht="19">
       <c r="A1" s="1" t="s">
         <v>7</v>
       </c>
@@ -2353,16 +2348,16 @@
         <v>15</v>
       </c>
       <c r="B2" s="3" t="s">
-        <v>465</v>
+        <v>458</v>
       </c>
       <c r="C2" s="3" t="s">
-        <v>469</v>
+        <v>459</v>
       </c>
       <c r="D2" s="14" t="s">
-        <v>454</v>
+        <v>460</v>
       </c>
       <c r="E2" s="3" t="s">
-        <v>458</v>
+        <v>461</v>
       </c>
       <c r="G2" s="4" t="s">
         <v>6</v>
@@ -2376,16 +2371,16 @@
         <v>16</v>
       </c>
       <c r="B3" s="3" t="s">
-        <v>466</v>
+        <v>465</v>
       </c>
       <c r="C3" s="3" t="s">
-        <v>470</v>
+        <v>464</v>
       </c>
       <c r="D3" s="14" t="s">
-        <v>455</v>
+        <v>463</v>
       </c>
       <c r="E3" s="3" t="s">
-        <v>459</v>
+        <v>462</v>
       </c>
       <c r="F3" s="3" t="s">
         <v>17</v>
@@ -2402,16 +2397,16 @@
         <v>18</v>
       </c>
       <c r="B4" s="3" t="s">
+        <v>466</v>
+      </c>
+      <c r="C4" s="3" t="s">
         <v>467</v>
       </c>
-      <c r="C4" s="3" t="s">
-        <v>471</v>
-      </c>
       <c r="D4" s="14" t="s">
-        <v>456</v>
+        <v>469</v>
       </c>
       <c r="E4" s="3" t="s">
-        <v>460</v>
+        <v>468</v>
       </c>
       <c r="F4" s="3" t="s">
         <v>19</v>
@@ -2428,16 +2423,16 @@
         <v>20</v>
       </c>
       <c r="B5" s="3" t="s">
-        <v>468</v>
+        <v>470</v>
       </c>
       <c r="C5" s="3" t="s">
+        <v>471</v>
+      </c>
+      <c r="D5" s="14" t="s">
+        <v>473</v>
+      </c>
+      <c r="E5" s="3" t="s">
         <v>472</v>
-      </c>
-      <c r="D5" s="14" t="s">
-        <v>457</v>
-      </c>
-      <c r="E5" s="3" t="s">
-        <v>461</v>
       </c>
       <c r="F5" s="3" t="s">
         <v>21</v>
@@ -2451,18 +2446,18 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="D2" r:id="rId1" xr:uid="{00000000-0004-0000-0100-000000000000}"/>
-    <hyperlink ref="G2" r:id="rId2" xr:uid="{00000000-0004-0000-0100-000001000000}"/>
-    <hyperlink ref="H2" r:id="rId3" xr:uid="{00000000-0004-0000-0100-000002000000}"/>
-    <hyperlink ref="D3" r:id="rId4" xr:uid="{00000000-0004-0000-0100-000003000000}"/>
-    <hyperlink ref="G3" r:id="rId5" xr:uid="{00000000-0004-0000-0100-000004000000}"/>
-    <hyperlink ref="H3" r:id="rId6" xr:uid="{00000000-0004-0000-0100-000005000000}"/>
-    <hyperlink ref="D4" r:id="rId7" xr:uid="{00000000-0004-0000-0100-000006000000}"/>
-    <hyperlink ref="G4" r:id="rId8" xr:uid="{00000000-0004-0000-0100-000007000000}"/>
-    <hyperlink ref="H4" r:id="rId9" xr:uid="{00000000-0004-0000-0100-000008000000}"/>
-    <hyperlink ref="D5" r:id="rId10" xr:uid="{00000000-0004-0000-0100-000009000000}"/>
-    <hyperlink ref="G5" r:id="rId11" xr:uid="{00000000-0004-0000-0100-00000A000000}"/>
-    <hyperlink ref="H5" r:id="rId12" xr:uid="{00000000-0004-0000-0100-00000B000000}"/>
+    <hyperlink ref="D2" r:id="rId1"/>
+    <hyperlink ref="G2" r:id="rId2"/>
+    <hyperlink ref="H2" r:id="rId3"/>
+    <hyperlink ref="D3" r:id="rId4"/>
+    <hyperlink ref="G3" r:id="rId5"/>
+    <hyperlink ref="H3" r:id="rId6"/>
+    <hyperlink ref="D4" r:id="rId7"/>
+    <hyperlink ref="G4" r:id="rId8"/>
+    <hyperlink ref="H4" r:id="rId9"/>
+    <hyperlink ref="D5" r:id="rId10"/>
+    <hyperlink ref="G5" r:id="rId11"/>
+    <hyperlink ref="H5" r:id="rId12"/>
   </hyperlinks>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <extLst>
@@ -2474,20 +2469,20 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D15"/>
   <sheetViews>
     <sheetView topLeftCell="A2" workbookViewId="0">
       <selection activeCell="C24" sqref="C24"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="18.75"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="18" x14ac:dyDescent="0"/>
   <cols>
-    <col min="1" max="1" width="41.28515625" style="3" customWidth="1"/>
-    <col min="2" max="2" width="22.28515625" style="3" customWidth="1"/>
-    <col min="3" max="3" width="38.85546875" style="3" customWidth="1"/>
-    <col min="4" max="4" width="20.140625" style="3" customWidth="1"/>
-    <col min="5" max="16384" width="8.85546875" style="3"/>
+    <col min="1" max="1" width="41.33203125" style="3" customWidth="1"/>
+    <col min="2" max="2" width="22.33203125" style="3" customWidth="1"/>
+    <col min="3" max="3" width="38.83203125" style="3" customWidth="1"/>
+    <col min="4" max="4" width="20.1640625" style="3" customWidth="1"/>
+    <col min="5" max="16384" width="8.83203125" style="3"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:4">
@@ -2630,7 +2625,7 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="C2" r:id="rId1" xr:uid="{00000000-0004-0000-0200-000000000000}"/>
+    <hyperlink ref="C2" r:id="rId1"/>
   </hyperlinks>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <extLst>
@@ -2642,17 +2637,17 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AMK103"/>
   <sheetViews>
     <sheetView topLeftCell="A4" workbookViewId="0">
       <selection activeCell="C18" sqref="C18"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="60" defaultRowHeight="18.75"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="60" defaultRowHeight="18" x14ac:dyDescent="0"/>
   <cols>
     <col min="1" max="1" width="41" style="15" customWidth="1" collapsed="1"/>
-    <col min="2" max="2" width="73.42578125" style="15" customWidth="1" collapsed="1"/>
+    <col min="2" max="2" width="73.5" style="15" customWidth="1" collapsed="1"/>
     <col min="3" max="1025" width="60" style="15" collapsed="1"/>
     <col min="1026" max="16384" width="60" style="15"/>
   </cols>
@@ -2683,7 +2678,7 @@
       <c r="A4" s="16"/>
       <c r="B4" s="17"/>
     </row>
-    <row r="6" spans="1:2" ht="14.1" customHeight="1">
+    <row r="6" spans="1:2" ht="14" customHeight="1">
       <c r="A6" s="39" t="s">
         <v>210</v>
       </c>
@@ -2747,12 +2742,12 @@
         <v>220</v>
       </c>
     </row>
-    <row r="16" spans="1:2" ht="24.95" customHeight="1">
+    <row r="16" spans="1:2" ht="25" customHeight="1">
       <c r="A16" s="16" t="s">
         <v>221</v>
       </c>
       <c r="B16" s="17" t="s">
-        <v>462</v>
+        <v>454</v>
       </c>
     </row>
     <row r="17" spans="1:2">
@@ -2782,7 +2777,7 @@
         <v>224</v>
       </c>
       <c r="B22" s="17" t="s">
-        <v>463</v>
+        <v>455</v>
       </c>
     </row>
     <row r="23" spans="1:2">
@@ -2816,7 +2811,7 @@
         <v>224</v>
       </c>
       <c r="B28" s="17" t="s">
-        <v>464</v>
+        <v>456</v>
       </c>
     </row>
     <row r="29" spans="1:2">
@@ -2857,25 +2852,25 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E167"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="D9" sqref="D9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="18.75"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="18" x14ac:dyDescent="0"/>
   <cols>
-    <col min="1" max="1" width="22.42578125" style="15" customWidth="1"/>
-    <col min="2" max="2" width="61.7109375" style="15" customWidth="1"/>
+    <col min="1" max="1" width="22.5" style="15" customWidth="1"/>
+    <col min="2" max="2" width="61.6640625" style="15" customWidth="1"/>
     <col min="3" max="3" width="31" style="15" customWidth="1"/>
-    <col min="4" max="4" width="66.85546875" style="15" customWidth="1"/>
-    <col min="5" max="6" width="8.85546875" style="15"/>
-    <col min="7" max="7" width="9.140625" style="15" customWidth="1"/>
-    <col min="8" max="16384" width="8.85546875" style="15"/>
+    <col min="4" max="4" width="66.83203125" style="15" customWidth="1"/>
+    <col min="5" max="6" width="8.83203125" style="15"/>
+    <col min="7" max="7" width="9.1640625" style="15" customWidth="1"/>
+    <col min="8" max="16384" width="8.83203125" style="15"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" ht="14.1" customHeight="1">
+    <row r="1" spans="1:4" ht="14" customHeight="1">
       <c r="A1" s="39" t="s">
         <v>96</v>
       </c>
@@ -2904,7 +2899,7 @@
         <v>101</v>
       </c>
       <c r="B3" s="17" t="s">
-        <v>462</v>
+        <v>454</v>
       </c>
       <c r="C3" s="16" t="s">
         <v>102</v>
@@ -2929,7 +2924,7 @@
         <v>107</v>
       </c>
     </row>
-    <row r="6" spans="1:4" ht="37.5">
+    <row r="6" spans="1:4">
       <c r="A6" s="16" t="s">
         <v>108</v>
       </c>
@@ -2941,7 +2936,7 @@
       <c r="A7" s="16"/>
       <c r="B7" s="16"/>
     </row>
-    <row r="10" spans="1:4" ht="14.1" customHeight="1">
+    <row r="10" spans="1:4" ht="14" customHeight="1">
       <c r="A10" s="39" t="s">
         <v>110</v>
       </c>
@@ -2970,7 +2965,7 @@
         <v>101</v>
       </c>
       <c r="B12" s="17" t="s">
-        <v>462</v>
+        <v>454</v>
       </c>
       <c r="C12" s="16" t="s">
         <v>113</v>
@@ -3007,7 +3002,7 @@
         <v>118</v>
       </c>
     </row>
-    <row r="15" spans="1:4" ht="37.5">
+    <row r="15" spans="1:4">
       <c r="A15" s="16" t="s">
         <v>108</v>
       </c>
@@ -3019,7 +3014,7 @@
       <c r="A16" s="16"/>
       <c r="B16" s="16"/>
     </row>
-    <row r="18" spans="1:4" ht="14.1" customHeight="1">
+    <row r="18" spans="1:4" ht="14" customHeight="1">
       <c r="A18" s="39" t="s">
         <v>120</v>
       </c>
@@ -3043,18 +3038,18 @@
         <v>122</v>
       </c>
     </row>
-    <row r="20" spans="1:4" ht="37.5">
+    <row r="20" spans="1:4">
       <c r="A20" s="16" t="s">
         <v>101</v>
       </c>
       <c r="B20" s="17" t="s">
-        <v>462</v>
+        <v>454</v>
       </c>
       <c r="C20" s="18" t="s">
         <v>123</v>
       </c>
       <c r="D20" s="19" t="s">
-        <v>462</v>
+        <v>454</v>
       </c>
     </row>
     <row r="21" spans="1:4">
@@ -3077,7 +3072,7 @@
       <c r="C22" s="18"/>
       <c r="D22" s="19"/>
     </row>
-    <row r="23" spans="1:4" ht="37.5">
+    <row r="23" spans="1:4">
       <c r="A23" s="16" t="s">
         <v>108</v>
       </c>
@@ -3089,7 +3084,7 @@
       <c r="A24" s="16"/>
       <c r="B24" s="16"/>
     </row>
-    <row r="26" spans="1:4" ht="14.1" customHeight="1">
+    <row r="26" spans="1:4" ht="14" customHeight="1">
       <c r="A26" s="39" t="s">
         <v>126</v>
       </c>
@@ -3113,18 +3108,18 @@
         <v>128</v>
       </c>
     </row>
-    <row r="28" spans="1:4" ht="37.5">
+    <row r="28" spans="1:4">
       <c r="A28" s="16" t="s">
         <v>101</v>
       </c>
       <c r="B28" s="17" t="s">
-        <v>462</v>
+        <v>454</v>
       </c>
       <c r="C28" s="16" t="s">
         <v>129</v>
       </c>
       <c r="D28" s="17" t="s">
-        <v>463</v>
+        <v>455</v>
       </c>
     </row>
     <row r="29" spans="1:4">
@@ -3151,7 +3146,7 @@
       <c r="C30" s="16"/>
       <c r="D30" s="17"/>
     </row>
-    <row r="31" spans="1:4" ht="37.5">
+    <row r="31" spans="1:4">
       <c r="A31" s="16" t="s">
         <v>108</v>
       </c>
@@ -3163,7 +3158,7 @@
       <c r="A32" s="16"/>
       <c r="B32" s="16"/>
     </row>
-    <row r="34" spans="1:4" ht="14.1" customHeight="1">
+    <row r="34" spans="1:4" ht="14" customHeight="1">
       <c r="A34" s="39" t="s">
         <v>133</v>
       </c>
@@ -3187,18 +3182,18 @@
         <v>135</v>
       </c>
     </row>
-    <row r="36" spans="1:4" ht="37.5">
+    <row r="36" spans="1:4">
       <c r="A36" s="16" t="s">
         <v>101</v>
       </c>
       <c r="B36" s="17" t="s">
-        <v>462</v>
+        <v>454</v>
       </c>
       <c r="C36" s="16" t="s">
         <v>136</v>
       </c>
       <c r="D36" s="17" t="s">
-        <v>464</v>
+        <v>456</v>
       </c>
     </row>
     <row r="37" spans="1:4">
@@ -3225,7 +3220,7 @@
       <c r="C38" s="16"/>
       <c r="D38" s="17"/>
     </row>
-    <row r="39" spans="1:4" ht="37.5">
+    <row r="39" spans="1:4" ht="36">
       <c r="A39" s="16" t="s">
         <v>108</v>
       </c>
@@ -3237,7 +3232,7 @@
       <c r="A40" s="16"/>
       <c r="B40" s="16"/>
     </row>
-    <row r="43" spans="1:4" ht="14.1" customHeight="1">
+    <row r="43" spans="1:4" ht="14" customHeight="1">
       <c r="A43" s="39" t="s">
         <v>140</v>
       </c>
@@ -3261,12 +3256,12 @@
         <v>142</v>
       </c>
     </row>
-    <row r="45" spans="1:4" ht="37.5">
+    <row r="45" spans="1:4">
       <c r="A45" s="16" t="s">
         <v>101</v>
       </c>
       <c r="B45" s="17" t="s">
-        <v>462</v>
+        <v>454</v>
       </c>
       <c r="C45" s="16" t="s">
         <v>143</v>
@@ -3275,7 +3270,7 @@
         <v>144</v>
       </c>
     </row>
-    <row r="46" spans="1:4" ht="37.5">
+    <row r="46" spans="1:4">
       <c r="A46" s="16" t="s">
         <v>104</v>
       </c>
@@ -3286,7 +3281,7 @@
         <v>146</v>
       </c>
       <c r="D46" s="17" t="s">
-        <v>462</v>
+        <v>454</v>
       </c>
     </row>
     <row r="47" spans="1:4">
@@ -3303,7 +3298,7 @@
         <v>148</v>
       </c>
     </row>
-    <row r="48" spans="1:4" ht="37.5">
+    <row r="48" spans="1:4" ht="36">
       <c r="A48" s="16" t="s">
         <v>108</v>
       </c>
@@ -3327,7 +3322,7 @@
         <v>152</v>
       </c>
     </row>
-    <row r="52" spans="1:5" ht="14.1" customHeight="1">
+    <row r="52" spans="1:5" ht="14" customHeight="1">
       <c r="A52" s="39" t="s">
         <v>153</v>
       </c>
@@ -3338,7 +3333,7 @@
       <c r="D52" s="40"/>
       <c r="E52" s="16"/>
     </row>
-    <row r="53" spans="1:5" ht="93.75">
+    <row r="53" spans="1:5" ht="54">
       <c r="A53" s="16" t="s">
         <v>98</v>
       </c>
@@ -3355,24 +3350,24 @@
         <v>156</v>
       </c>
     </row>
-    <row r="54" spans="1:5" ht="37.5">
+    <row r="54" spans="1:5">
       <c r="A54" s="16" t="s">
         <v>101</v>
       </c>
       <c r="B54" s="17" t="s">
-        <v>462</v>
+        <v>454</v>
       </c>
       <c r="C54" s="16" t="s">
         <v>157</v>
       </c>
       <c r="D54" s="17" t="s">
-        <v>463</v>
+        <v>455</v>
       </c>
       <c r="E54" s="17">
         <v>200</v>
       </c>
     </row>
-    <row r="55" spans="1:5" ht="37.5">
+    <row r="55" spans="1:5">
       <c r="A55" s="16" t="s">
         <v>104</v>
       </c>
@@ -3383,7 +3378,7 @@
         <v>159</v>
       </c>
       <c r="D55" s="17" t="s">
-        <v>464</v>
+        <v>456</v>
       </c>
       <c r="E55" s="16"/>
     </row>
@@ -3402,7 +3397,7 @@
       </c>
       <c r="E56" s="16"/>
     </row>
-    <row r="57" spans="1:5" ht="37.5">
+    <row r="57" spans="1:5" ht="36">
       <c r="A57" s="16" t="s">
         <v>108</v>
       </c>
@@ -3428,7 +3423,7 @@
       </c>
       <c r="E58" s="16"/>
     </row>
-    <row r="60" spans="1:5" ht="14.1" customHeight="1">
+    <row r="60" spans="1:5" ht="14" customHeight="1">
       <c r="A60" s="39" t="s">
         <v>161</v>
       </c>
@@ -3452,12 +3447,12 @@
         <v>163</v>
       </c>
     </row>
-    <row r="62" spans="1:5" ht="37.5">
+    <row r="62" spans="1:5">
       <c r="A62" s="16" t="s">
         <v>101</v>
       </c>
       <c r="B62" s="17" t="s">
-        <v>462</v>
+        <v>454</v>
       </c>
       <c r="C62" s="16" t="s">
         <v>164</v>
@@ -3477,7 +3472,7 @@
         <v>157</v>
       </c>
       <c r="D63" s="17" t="s">
-        <v>463</v>
+        <v>455</v>
       </c>
     </row>
     <row r="64" spans="1:5">
@@ -3494,7 +3489,7 @@
         <v>148</v>
       </c>
     </row>
-    <row r="65" spans="1:4" ht="37.5">
+    <row r="65" spans="1:4" ht="36">
       <c r="A65" s="16" t="s">
         <v>108</v>
       </c>
@@ -3528,17 +3523,17 @@
         <v>200</v>
       </c>
     </row>
-    <row r="70" spans="1:4" ht="14.1" customHeight="1">
-      <c r="A70" s="42" t="s">
+    <row r="70" spans="1:4" ht="14" customHeight="1">
+      <c r="A70" s="43" t="s">
         <v>168</v>
       </c>
-      <c r="B70" s="43"/>
+      <c r="B70" s="44"/>
       <c r="C70" s="39" t="s">
         <v>169</v>
       </c>
       <c r="D70" s="40"/>
     </row>
-    <row r="71" spans="1:4" ht="37.5">
+    <row r="71" spans="1:4">
       <c r="A71" s="16" t="s">
         <v>98</v>
       </c>
@@ -3552,12 +3547,12 @@
         <v>172</v>
       </c>
     </row>
-    <row r="72" spans="1:4" ht="37.5">
+    <row r="72" spans="1:4">
       <c r="A72" s="16" t="s">
         <v>101</v>
       </c>
       <c r="B72" s="17" t="s">
-        <v>462</v>
+        <v>454</v>
       </c>
       <c r="C72" s="16" t="s">
         <v>102</v>
@@ -3566,7 +3561,7 @@
         <v>173</v>
       </c>
     </row>
-    <row r="73" spans="1:4" ht="37.5">
+    <row r="73" spans="1:4">
       <c r="A73" s="16" t="s">
         <v>104</v>
       </c>
@@ -3578,7 +3573,7 @@
       </c>
       <c r="D73" s="40"/>
     </row>
-    <row r="74" spans="1:4" ht="37.5">
+    <row r="74" spans="1:4">
       <c r="A74" s="16" t="s">
         <v>106</v>
       </c>
@@ -3592,7 +3587,7 @@
         <v>177</v>
       </c>
     </row>
-    <row r="75" spans="1:4" ht="37.5">
+    <row r="75" spans="1:4" ht="36">
       <c r="A75" s="16" t="s">
         <v>108</v>
       </c>
@@ -3603,7 +3598,7 @@
         <v>179</v>
       </c>
       <c r="D75" s="17" t="s">
-        <v>462</v>
+        <v>454</v>
       </c>
     </row>
     <row r="76" spans="1:4">
@@ -3618,17 +3613,17 @@
       <c r="C77" s="16"/>
       <c r="D77" s="16"/>
     </row>
-    <row r="79" spans="1:4" ht="14.1" customHeight="1">
-      <c r="A79" s="42" t="s">
+    <row r="79" spans="1:4" ht="14" customHeight="1">
+      <c r="A79" s="43" t="s">
         <v>180</v>
       </c>
-      <c r="B79" s="43"/>
+      <c r="B79" s="44"/>
       <c r="C79" s="39" t="s">
         <v>181</v>
       </c>
       <c r="D79" s="40"/>
     </row>
-    <row r="80" spans="1:4" ht="37.5">
+    <row r="80" spans="1:4">
       <c r="A80" s="16" t="s">
         <v>98</v>
       </c>
@@ -3642,21 +3637,21 @@
         <v>184</v>
       </c>
     </row>
-    <row r="81" spans="1:4" ht="37.5">
+    <row r="81" spans="1:4">
       <c r="A81" s="16" t="s">
         <v>101</v>
       </c>
       <c r="B81" s="17" t="s">
-        <v>462</v>
+        <v>454</v>
       </c>
       <c r="C81" s="16" t="s">
         <v>101</v>
       </c>
       <c r="D81" s="17" t="s">
-        <v>462</v>
-      </c>
-    </row>
-    <row r="82" spans="1:4" ht="37.5">
+        <v>454</v>
+      </c>
+    </row>
+    <row r="82" spans="1:4">
       <c r="A82" s="16" t="s">
         <v>104</v>
       </c>
@@ -3668,7 +3663,7 @@
       </c>
       <c r="D82" s="40"/>
     </row>
-    <row r="83" spans="1:4" ht="37.5">
+    <row r="83" spans="1:4">
       <c r="A83" s="16" t="s">
         <v>106</v>
       </c>
@@ -3682,7 +3677,7 @@
         <v>188</v>
       </c>
     </row>
-    <row r="84" spans="1:4" ht="37.5">
+    <row r="84" spans="1:4" ht="36">
       <c r="A84" s="16" t="s">
         <v>108</v>
       </c>
@@ -3693,7 +3688,7 @@
         <v>190</v>
       </c>
       <c r="D84" s="17" t="s">
-        <v>463</v>
+        <v>455</v>
       </c>
     </row>
     <row r="85" spans="1:4">
@@ -3706,7 +3701,7 @@
         <v>200</v>
       </c>
     </row>
-    <row r="88" spans="1:4" ht="14.1" customHeight="1">
+    <row r="88" spans="1:4" ht="14" customHeight="1">
       <c r="A88" s="41" t="s">
         <v>191</v>
       </c>
@@ -3716,7 +3711,7 @@
       </c>
       <c r="D88" s="38"/>
     </row>
-    <row r="89" spans="1:4" ht="37.5">
+    <row r="89" spans="1:4">
       <c r="A89" s="16" t="s">
         <v>98</v>
       </c>
@@ -3730,21 +3725,21 @@
         <v>193</v>
       </c>
     </row>
-    <row r="90" spans="1:4" ht="37.5">
+    <row r="90" spans="1:4">
       <c r="A90" s="16" t="s">
         <v>101</v>
       </c>
       <c r="B90" s="17" t="s">
-        <v>462</v>
+        <v>454</v>
       </c>
       <c r="C90" s="16" t="s">
         <v>190</v>
       </c>
       <c r="D90" s="17" t="s">
-        <v>463</v>
-      </c>
-    </row>
-    <row r="91" spans="1:4" ht="37.5">
+        <v>455</v>
+      </c>
+    </row>
+    <row r="91" spans="1:4">
       <c r="A91" s="16" t="s">
         <v>104</v>
       </c>
@@ -3770,7 +3765,7 @@
       </c>
       <c r="D92" s="38"/>
     </row>
-    <row r="93" spans="1:4" ht="56.25">
+    <row r="93" spans="1:4" ht="36">
       <c r="A93" s="16" t="s">
         <v>108</v>
       </c>
@@ -3791,7 +3786,7 @@
         <v>199</v>
       </c>
       <c r="D94" s="17" t="s">
-        <v>464</v>
+        <v>456</v>
       </c>
     </row>
     <row r="95" spans="1:4">
@@ -3812,7 +3807,7 @@
       </c>
       <c r="D96" s="38"/>
     </row>
-    <row r="97" spans="1:4" ht="37.5">
+    <row r="97" spans="1:4">
       <c r="A97" s="16"/>
       <c r="B97" s="16"/>
       <c r="C97" s="16" t="s">
@@ -3852,7 +3847,7 @@
         <v>152</v>
       </c>
     </row>
-    <row r="103" spans="1:4" ht="14.1" customHeight="1">
+    <row r="103" spans="1:4" ht="14" customHeight="1">
       <c r="A103" s="41" t="s">
         <v>203</v>
       </c>
@@ -3862,7 +3857,7 @@
       </c>
       <c r="D103" s="38"/>
     </row>
-    <row r="104" spans="1:4" ht="37.5">
+    <row r="104" spans="1:4">
       <c r="A104" s="16" t="s">
         <v>98</v>
       </c>
@@ -3876,19 +3871,19 @@
         <v>229</v>
       </c>
     </row>
-    <row r="105" spans="1:4" ht="37.5">
+    <row r="105" spans="1:4">
       <c r="A105" s="16" t="s">
         <v>101</v>
       </c>
       <c r="B105" s="17" t="s">
-        <v>462</v>
+        <v>454</v>
       </c>
       <c r="C105" s="39" t="s">
         <v>230</v>
       </c>
       <c r="D105" s="40"/>
     </row>
-    <row r="106" spans="1:4" ht="37.5">
+    <row r="106" spans="1:4" ht="36">
       <c r="A106" s="16" t="s">
         <v>104</v>
       </c>
@@ -3902,7 +3897,7 @@
         <v>232</v>
       </c>
     </row>
-    <row r="107" spans="1:4" ht="37.5">
+    <row r="107" spans="1:4" ht="36">
       <c r="A107" s="16" t="s">
         <v>106</v>
       </c>
@@ -3916,7 +3911,7 @@
         <v>234</v>
       </c>
     </row>
-    <row r="108" spans="1:4" ht="56.25">
+    <row r="108" spans="1:4" ht="36">
       <c r="A108" s="16" t="s">
         <v>108</v>
       </c>
@@ -3937,7 +3932,7 @@
         <v>101</v>
       </c>
       <c r="D109" s="17" t="s">
-        <v>462</v>
+        <v>454</v>
       </c>
     </row>
     <row r="110" spans="1:4">
@@ -3947,7 +3942,7 @@
         <v>157</v>
       </c>
       <c r="D110" s="17" t="s">
-        <v>463</v>
+        <v>455</v>
       </c>
     </row>
     <row r="111" spans="1:4">
@@ -3967,7 +3962,7 @@
         <v>199</v>
       </c>
       <c r="D112" s="17" t="s">
-        <v>464</v>
+        <v>456</v>
       </c>
     </row>
     <row r="113" spans="1:4">
@@ -4024,12 +4019,12 @@
         <v>240</v>
       </c>
     </row>
-    <row r="120" spans="1:4" ht="37.5">
+    <row r="120" spans="1:4">
       <c r="A120" s="16" t="s">
         <v>101</v>
       </c>
       <c r="B120" s="17" t="s">
-        <v>462</v>
+        <v>454</v>
       </c>
       <c r="C120" s="16" t="s">
         <v>235</v>
@@ -4049,7 +4044,7 @@
         <v>101</v>
       </c>
       <c r="D121" s="17" t="s">
-        <v>462</v>
+        <v>454</v>
       </c>
     </row>
     <row r="122" spans="1:4">
@@ -4063,10 +4058,10 @@
         <v>157</v>
       </c>
       <c r="D122" s="17" t="s">
-        <v>463</v>
-      </c>
-    </row>
-    <row r="123" spans="1:4" ht="37.5">
+        <v>455</v>
+      </c>
+    </row>
+    <row r="123" spans="1:4">
       <c r="A123" s="16" t="s">
         <v>108</v>
       </c>
@@ -4087,11 +4082,11 @@
         <v>199</v>
       </c>
       <c r="D124" s="17" t="s">
-        <v>464</v>
+        <v>456</v>
       </c>
     </row>
     <row r="125" spans="1:4">
-      <c r="A125" s="44" t="s">
+      <c r="A125" s="42" t="s">
         <v>243</v>
       </c>
       <c r="B125" s="40"/>
@@ -4130,7 +4125,7 @@
         <v>152</v>
       </c>
     </row>
-    <row r="128" spans="1:4" ht="37.5">
+    <row r="128" spans="1:4" ht="36">
       <c r="A128" s="16" t="s">
         <v>108</v>
       </c>
@@ -4164,18 +4159,18 @@
         <v>236</v>
       </c>
     </row>
-    <row r="133" spans="1:4" ht="37.5">
+    <row r="133" spans="1:4">
       <c r="A133" s="16" t="s">
         <v>101</v>
       </c>
       <c r="B133" s="17" t="s">
-        <v>462</v>
+        <v>454</v>
       </c>
       <c r="C133" s="16" t="s">
         <v>101</v>
       </c>
       <c r="D133" s="17" t="s">
-        <v>462</v>
+        <v>454</v>
       </c>
     </row>
     <row r="134" spans="1:4">
@@ -4189,7 +4184,7 @@
         <v>157</v>
       </c>
       <c r="D134" s="17" t="s">
-        <v>463</v>
+        <v>455</v>
       </c>
     </row>
     <row r="135" spans="1:4">
@@ -4206,7 +4201,7 @@
         <v>200</v>
       </c>
     </row>
-    <row r="136" spans="1:4" ht="37.5">
+    <row r="136" spans="1:4">
       <c r="A136" s="16" t="s">
         <v>108</v>
       </c>
@@ -4217,7 +4212,7 @@
         <v>199</v>
       </c>
       <c r="D136" s="17" t="s">
-        <v>464</v>
+        <v>456</v>
       </c>
     </row>
     <row r="137" spans="1:4">
@@ -4230,7 +4225,7 @@
         <v>148</v>
       </c>
     </row>
-    <row r="138" spans="1:4" ht="56.25">
+    <row r="138" spans="1:4" ht="36">
       <c r="A138" s="20" t="s">
         <v>253</v>
       </c>
@@ -4244,7 +4239,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="139" spans="1:4" ht="56.25">
+    <row r="139" spans="1:4" ht="54">
       <c r="A139" s="20" t="s">
         <v>255</v>
       </c>
@@ -4258,7 +4253,7 @@
         <v>152</v>
       </c>
     </row>
-    <row r="140" spans="1:4" ht="75">
+    <row r="140" spans="1:4" ht="54">
       <c r="A140" s="20" t="s">
         <v>257</v>
       </c>
@@ -4268,7 +4263,7 @@
       <c r="C140" s="16"/>
       <c r="D140" s="16"/>
     </row>
-    <row r="141" spans="1:4" ht="56.25">
+    <row r="141" spans="1:4" ht="54">
       <c r="A141" s="20" t="s">
         <v>259</v>
       </c>
@@ -4302,18 +4297,18 @@
         <v>236</v>
       </c>
     </row>
-    <row r="146" spans="1:4" ht="37.5">
+    <row r="146" spans="1:4">
       <c r="A146" s="16" t="s">
         <v>101</v>
       </c>
       <c r="B146" s="17" t="s">
-        <v>462</v>
+        <v>454</v>
       </c>
       <c r="C146" s="16" t="s">
         <v>101</v>
       </c>
       <c r="D146" s="17" t="s">
-        <v>462</v>
+        <v>454</v>
       </c>
     </row>
     <row r="147" spans="1:4">
@@ -4327,7 +4322,7 @@
         <v>157</v>
       </c>
       <c r="D147" s="17" t="s">
-        <v>463</v>
+        <v>455</v>
       </c>
     </row>
     <row r="148" spans="1:4">
@@ -4344,7 +4339,7 @@
         <v>200</v>
       </c>
     </row>
-    <row r="149" spans="1:4" ht="37.5">
+    <row r="149" spans="1:4" ht="36">
       <c r="A149" s="16" t="s">
         <v>108</v>
       </c>
@@ -4368,7 +4363,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="151" spans="1:4" ht="56.25">
+    <row r="151" spans="1:4" ht="54">
       <c r="A151" s="20" t="s">
         <v>264</v>
       </c>
@@ -4382,7 +4377,7 @@
         <v>152</v>
       </c>
     </row>
-    <row r="152" spans="1:4" ht="56.25">
+    <row r="152" spans="1:4" ht="36">
       <c r="A152" s="20" t="s">
         <v>266</v>
       </c>
@@ -4392,7 +4387,7 @@
       <c r="C152" s="16"/>
       <c r="D152" s="16"/>
     </row>
-    <row r="153" spans="1:4" ht="56.25">
+    <row r="153" spans="1:4" ht="36">
       <c r="A153" s="20" t="s">
         <v>268</v>
       </c>
@@ -4402,7 +4397,7 @@
       <c r="C153" s="16"/>
       <c r="D153" s="16"/>
     </row>
-    <row r="154" spans="1:4" ht="56.25">
+    <row r="154" spans="1:4" ht="36">
       <c r="A154" s="20" t="s">
         <v>270</v>
       </c>
@@ -4436,18 +4431,18 @@
         <v>274</v>
       </c>
     </row>
-    <row r="159" spans="1:4" ht="37.5">
+    <row r="159" spans="1:4">
       <c r="A159" s="16" t="s">
         <v>101</v>
       </c>
       <c r="B159" s="17" t="s">
-        <v>462</v>
+        <v>454</v>
       </c>
       <c r="C159" s="16" t="s">
         <v>101</v>
       </c>
       <c r="D159" s="17" t="s">
-        <v>462</v>
+        <v>454</v>
       </c>
     </row>
     <row r="160" spans="1:4">
@@ -4461,7 +4456,7 @@
         <v>157</v>
       </c>
       <c r="D160" s="17" t="s">
-        <v>463</v>
+        <v>455</v>
       </c>
     </row>
     <row r="161" spans="1:4">
@@ -4478,7 +4473,7 @@
         <v>200</v>
       </c>
     </row>
-    <row r="162" spans="1:4" ht="37.5">
+    <row r="162" spans="1:4" ht="36">
       <c r="A162" s="16" t="s">
         <v>108</v>
       </c>
@@ -4489,7 +4484,7 @@
         <v>276</v>
       </c>
       <c r="D162" s="17" t="s">
-        <v>464</v>
+        <v>456</v>
       </c>
     </row>
     <row r="163" spans="1:4">
@@ -4502,7 +4497,7 @@
         <v>200</v>
       </c>
     </row>
-    <row r="164" spans="1:4" ht="56.25">
+    <row r="164" spans="1:4" ht="54">
       <c r="A164" s="20" t="s">
         <v>264</v>
       </c>
@@ -4516,7 +4511,7 @@
         <v>148</v>
       </c>
     </row>
-    <row r="165" spans="1:4" ht="56.25">
+    <row r="165" spans="1:4" ht="36">
       <c r="A165" s="20" t="s">
         <v>266</v>
       </c>
@@ -4530,7 +4525,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="166" spans="1:4" ht="56.25">
+    <row r="166" spans="1:4" ht="36">
       <c r="A166" s="20" t="s">
         <v>268</v>
       </c>
@@ -4544,7 +4539,7 @@
         <v>152</v>
       </c>
     </row>
-    <row r="167" spans="1:4" ht="56.25">
+    <row r="167" spans="1:4" ht="36">
       <c r="A167" s="20" t="s">
         <v>270</v>
       </c>
@@ -4554,6 +4549,34 @@
     </row>
   </sheetData>
   <mergeCells count="38">
+    <mergeCell ref="C92:D92"/>
+    <mergeCell ref="C96:D96"/>
+    <mergeCell ref="A103:B103"/>
+    <mergeCell ref="C103:D103"/>
+    <mergeCell ref="C73:D73"/>
+    <mergeCell ref="A79:B79"/>
+    <mergeCell ref="C79:D79"/>
+    <mergeCell ref="C82:D82"/>
+    <mergeCell ref="A88:B88"/>
+    <mergeCell ref="C88:D88"/>
+    <mergeCell ref="A52:B52"/>
+    <mergeCell ref="C52:D52"/>
+    <mergeCell ref="A60:B60"/>
+    <mergeCell ref="C60:D60"/>
+    <mergeCell ref="A70:B70"/>
+    <mergeCell ref="C70:D70"/>
+    <mergeCell ref="A26:B26"/>
+    <mergeCell ref="C26:D26"/>
+    <mergeCell ref="A34:B34"/>
+    <mergeCell ref="C34:D34"/>
+    <mergeCell ref="A43:B43"/>
+    <mergeCell ref="C43:D43"/>
+    <mergeCell ref="A1:B1"/>
+    <mergeCell ref="C1:D1"/>
+    <mergeCell ref="A10:B10"/>
+    <mergeCell ref="C10:D10"/>
+    <mergeCell ref="A18:B18"/>
+    <mergeCell ref="C18:D18"/>
     <mergeCell ref="A144:B144"/>
     <mergeCell ref="C144:D144"/>
     <mergeCell ref="A157:B157"/>
@@ -4564,34 +4587,6 @@
     <mergeCell ref="A125:B125"/>
     <mergeCell ref="A131:B131"/>
     <mergeCell ref="C131:D131"/>
-    <mergeCell ref="A1:B1"/>
-    <mergeCell ref="C1:D1"/>
-    <mergeCell ref="A10:B10"/>
-    <mergeCell ref="C10:D10"/>
-    <mergeCell ref="A18:B18"/>
-    <mergeCell ref="C18:D18"/>
-    <mergeCell ref="A26:B26"/>
-    <mergeCell ref="C26:D26"/>
-    <mergeCell ref="A34:B34"/>
-    <mergeCell ref="C34:D34"/>
-    <mergeCell ref="A43:B43"/>
-    <mergeCell ref="C43:D43"/>
-    <mergeCell ref="A52:B52"/>
-    <mergeCell ref="C52:D52"/>
-    <mergeCell ref="A60:B60"/>
-    <mergeCell ref="C60:D60"/>
-    <mergeCell ref="A70:B70"/>
-    <mergeCell ref="C70:D70"/>
-    <mergeCell ref="C92:D92"/>
-    <mergeCell ref="C96:D96"/>
-    <mergeCell ref="A103:B103"/>
-    <mergeCell ref="C103:D103"/>
-    <mergeCell ref="C73:D73"/>
-    <mergeCell ref="A79:B79"/>
-    <mergeCell ref="C79:D79"/>
-    <mergeCell ref="C82:D82"/>
-    <mergeCell ref="A88:B88"/>
-    <mergeCell ref="C88:D88"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <extLst>
@@ -4603,26 +4598,26 @@
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:J52"/>
   <sheetViews>
     <sheetView topLeftCell="A29" workbookViewId="0">
       <selection activeCell="A31" sqref="A31"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="18.75"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="18" x14ac:dyDescent="0"/>
   <cols>
-    <col min="1" max="1" width="26.7109375" style="3" customWidth="1"/>
-    <col min="2" max="2" width="39.42578125" style="3" customWidth="1"/>
-    <col min="3" max="3" width="40.7109375" style="3" customWidth="1"/>
-    <col min="4" max="4" width="33.28515625" style="3" customWidth="1"/>
-    <col min="5" max="5" width="23.42578125" style="3" customWidth="1"/>
-    <col min="6" max="6" width="52.85546875" style="3" customWidth="1"/>
-    <col min="7" max="7" width="20.28515625" style="3" customWidth="1"/>
-    <col min="8" max="8" width="32.140625" style="3" customWidth="1"/>
+    <col min="1" max="1" width="26.6640625" style="3" customWidth="1"/>
+    <col min="2" max="2" width="39.5" style="3" customWidth="1"/>
+    <col min="3" max="3" width="40.6640625" style="3" customWidth="1"/>
+    <col min="4" max="4" width="33.33203125" style="3" customWidth="1"/>
+    <col min="5" max="5" width="23.5" style="3" customWidth="1"/>
+    <col min="6" max="6" width="52.83203125" style="3" customWidth="1"/>
+    <col min="7" max="7" width="20.33203125" style="3" customWidth="1"/>
+    <col min="8" max="8" width="32.1640625" style="3" customWidth="1"/>
     <col min="9" max="9" width="42" style="3" customWidth="1"/>
-    <col min="10" max="10" width="40.7109375" style="3" customWidth="1"/>
-    <col min="11" max="16384" width="8.85546875" style="3"/>
+    <col min="10" max="10" width="40.6640625" style="3" customWidth="1"/>
+    <col min="11" max="16384" width="8.83203125" style="3"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:10">
@@ -4674,19 +4669,19 @@
         <v>39</v>
       </c>
       <c r="F2" s="3" t="s">
-        <v>462</v>
+        <v>454</v>
       </c>
       <c r="G2" s="3" t="s">
         <v>40</v>
       </c>
       <c r="H2" s="3" t="s">
-        <v>462</v>
+        <v>454</v>
       </c>
       <c r="I2" s="3" t="s">
-        <v>463</v>
+        <v>455</v>
       </c>
       <c r="J2" s="3" t="s">
-        <v>464</v>
+        <v>456</v>
       </c>
     </row>
     <row r="3" spans="1:10">
@@ -4796,7 +4791,7 @@
         <v>283</v>
       </c>
     </row>
-    <row r="22" spans="1:7" ht="150">
+    <row r="22" spans="1:7" ht="108">
       <c r="A22" s="15" t="s">
         <v>284</v>
       </c>
@@ -4819,7 +4814,7 @@
         <v>290</v>
       </c>
     </row>
-    <row r="23" spans="1:7" ht="56.25">
+    <row r="23" spans="1:7" ht="36">
       <c r="A23" s="15" t="s">
         <v>291</v>
       </c>
@@ -4833,7 +4828,7 @@
         <v>294</v>
       </c>
     </row>
-    <row r="24" spans="1:7" ht="37.5">
+    <row r="24" spans="1:7">
       <c r="A24" s="15" t="s">
         <v>295</v>
       </c>
@@ -4861,7 +4856,7 @@
         <v>300</v>
       </c>
     </row>
-    <row r="27" spans="1:7" ht="168.75">
+    <row r="27" spans="1:7" ht="126">
       <c r="A27" s="15" t="s">
         <v>301</v>
       </c>
@@ -4872,12 +4867,12 @@
         <v>302</v>
       </c>
     </row>
-    <row r="28" spans="1:7" ht="37.5">
+    <row r="28" spans="1:7" ht="36">
       <c r="A28" s="15" t="s">
         <v>303</v>
       </c>
     </row>
-    <row r="29" spans="1:7" ht="168.75">
+    <row r="29" spans="1:7" ht="108">
       <c r="A29" s="15" t="s">
         <v>304</v>
       </c>
@@ -4897,7 +4892,7 @@
         <v>308</v>
       </c>
     </row>
-    <row r="30" spans="1:7" ht="112.5">
+    <row r="30" spans="1:7" ht="108">
       <c r="A30" s="15" t="s">
         <v>309</v>
       </c>
@@ -4908,7 +4903,7 @@
         <v>311</v>
       </c>
     </row>
-    <row r="31" spans="1:7" ht="37.5">
+    <row r="31" spans="1:7">
       <c r="A31" s="15" t="s">
         <v>453</v>
       </c>
@@ -4918,7 +4913,7 @@
         <v>312</v>
       </c>
     </row>
-    <row r="34" spans="1:9" ht="187.5">
+    <row r="34" spans="1:9" ht="144">
       <c r="A34" s="23">
         <v>12</v>
       </c>
@@ -4955,7 +4950,7 @@
         <v>319</v>
       </c>
     </row>
-    <row r="36" spans="1:9" ht="93.75">
+    <row r="36" spans="1:9" ht="72">
       <c r="A36" s="3" t="s">
         <v>320</v>
       </c>
@@ -4974,7 +4969,7 @@
         <v>324</v>
       </c>
     </row>
-    <row r="38" spans="1:9" ht="56.25">
+    <row r="38" spans="1:9" ht="54">
       <c r="A38" s="15" t="s">
         <v>325</v>
       </c>
@@ -4993,7 +4988,7 @@
         <v>329</v>
       </c>
     </row>
-    <row r="40" spans="1:9" ht="56.25">
+    <row r="40" spans="1:9" ht="36">
       <c r="A40" s="3" t="s">
         <v>330</v>
       </c>
@@ -5007,7 +5002,7 @@
         <v>333</v>
       </c>
     </row>
-    <row r="41" spans="1:9" ht="37.5">
+    <row r="41" spans="1:9" ht="36">
       <c r="A41" s="3" t="s">
         <v>334</v>
       </c>
@@ -5021,7 +5016,7 @@
         <v>333</v>
       </c>
     </row>
-    <row r="42" spans="1:9" ht="112.5">
+    <row r="42" spans="1:9" ht="90">
       <c r="A42" s="15" t="s">
         <v>337</v>
       </c>
@@ -5040,7 +5035,7 @@
         <v>341</v>
       </c>
     </row>
-    <row r="44" spans="1:9" ht="131.25">
+    <row r="44" spans="1:9" ht="108">
       <c r="A44" s="15" t="s">
         <v>342</v>
       </c>
@@ -5062,7 +5057,7 @@
         <v>347</v>
       </c>
     </row>
-    <row r="46" spans="1:9" ht="131.25">
+    <row r="46" spans="1:9" ht="108">
       <c r="A46" s="23">
         <v>11</v>
       </c>
@@ -5091,7 +5086,7 @@
         <v>290</v>
       </c>
     </row>
-    <row r="47" spans="1:9" ht="93.75">
+    <row r="47" spans="1:9" ht="90">
       <c r="A47" s="3" t="s">
         <v>351</v>
       </c>
@@ -5125,7 +5120,7 @@
         <v>359</v>
       </c>
     </row>
-    <row r="49" spans="1:6" ht="112.5">
+    <row r="49" spans="1:6" ht="90">
       <c r="A49" s="3" t="s">
         <v>360</v>
       </c>
@@ -5145,7 +5140,7 @@
         <v>364</v>
       </c>
     </row>
-    <row r="50" spans="1:6" ht="93.75">
+    <row r="50" spans="1:6" ht="90">
       <c r="A50" s="3" t="s">
         <v>365</v>
       </c>
@@ -5167,7 +5162,7 @@
         <v>370</v>
       </c>
     </row>
-    <row r="52" spans="1:6" ht="281.25">
+    <row r="52" spans="1:6" ht="198">
       <c r="A52" s="15" t="s">
         <v>371</v>
       </c>
@@ -5195,21 +5190,21 @@
 </file>
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0600-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E35"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A7" sqref="A7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="18.75"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="18" x14ac:dyDescent="0"/>
   <cols>
-    <col min="1" max="1" width="61.42578125" style="26" customWidth="1" collapsed="1"/>
+    <col min="1" max="1" width="61.5" style="26" customWidth="1" collapsed="1"/>
     <col min="2" max="2" width="28" style="26" customWidth="1" collapsed="1"/>
-    <col min="3" max="3" width="43.42578125" style="26" customWidth="1" collapsed="1"/>
-    <col min="4" max="4" width="46.42578125" style="26" customWidth="1" collapsed="1"/>
+    <col min="3" max="3" width="43.5" style="26" customWidth="1" collapsed="1"/>
+    <col min="4" max="4" width="46.5" style="26" customWidth="1" collapsed="1"/>
     <col min="5" max="5" width="36" style="26" customWidth="1"/>
-    <col min="6" max="16384" width="8.85546875" style="26"/>
+    <col min="6" max="16384" width="8.83203125" style="26"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:5">
@@ -5229,7 +5224,7 @@
         <v>379</v>
       </c>
     </row>
-    <row r="2" spans="1:5" ht="37.5">
+    <row r="2" spans="1:5" ht="36">
       <c r="A2" s="27" t="s">
         <v>380</v>
       </c>
@@ -5246,7 +5241,7 @@
         <v>384</v>
       </c>
     </row>
-    <row r="3" spans="1:5" ht="37.5">
+    <row r="3" spans="1:5" ht="36">
       <c r="A3" s="27" t="s">
         <v>385</v>
       </c>
@@ -5261,7 +5256,7 @@
       </c>
       <c r="E3" s="27"/>
     </row>
-    <row r="4" spans="1:5" ht="37.5">
+    <row r="4" spans="1:5" ht="36">
       <c r="A4" s="27" t="s">
         <v>387</v>
       </c>
@@ -5276,7 +5271,7 @@
       </c>
       <c r="E4" s="28"/>
     </row>
-    <row r="5" spans="1:5" ht="37.5">
+    <row r="5" spans="1:5" ht="36">
       <c r="A5" s="27" t="s">
         <v>389</v>
       </c>
@@ -5291,7 +5286,7 @@
       </c>
       <c r="E5" s="28"/>
     </row>
-    <row r="6" spans="1:5" ht="37.5">
+    <row r="6" spans="1:5" ht="36">
       <c r="A6" s="27" t="s">
         <v>391</v>
       </c>
@@ -5306,7 +5301,7 @@
       </c>
       <c r="E6" s="28"/>
     </row>
-    <row r="7" spans="1:5" ht="37.5">
+    <row r="7" spans="1:5" ht="36">
       <c r="A7" s="27" t="s">
         <v>393</v>
       </c>
@@ -5321,7 +5316,7 @@
       </c>
       <c r="E7" s="28"/>
     </row>
-    <row r="8" spans="1:5" ht="37.5">
+    <row r="8" spans="1:5" ht="36">
       <c r="A8" s="27" t="s">
         <v>395</v>
       </c>
@@ -5336,7 +5331,7 @@
       </c>
       <c r="E8" s="28"/>
     </row>
-    <row r="9" spans="1:5" ht="37.5">
+    <row r="9" spans="1:5" ht="36">
       <c r="A9" s="27" t="s">
         <v>397</v>
       </c>
@@ -5351,7 +5346,7 @@
       </c>
       <c r="E9" s="28"/>
     </row>
-    <row r="10" spans="1:5" ht="37.5">
+    <row r="10" spans="1:5" ht="36">
       <c r="A10" s="27" t="s">
         <v>399</v>
       </c>
@@ -5366,7 +5361,7 @@
       </c>
       <c r="E10" s="28"/>
     </row>
-    <row r="11" spans="1:5" ht="37.5">
+    <row r="11" spans="1:5" ht="36">
       <c r="A11" s="27" t="s">
         <v>401</v>
       </c>
@@ -5381,7 +5376,7 @@
       </c>
       <c r="E11" s="28"/>
     </row>
-    <row r="12" spans="1:5" ht="37.5">
+    <row r="12" spans="1:5" ht="36">
       <c r="A12" s="27" t="s">
         <v>403</v>
       </c>
@@ -5396,7 +5391,7 @@
       </c>
       <c r="E12" s="30"/>
     </row>
-    <row r="13" spans="1:5" ht="37.5">
+    <row r="13" spans="1:5" ht="36">
       <c r="A13" s="27" t="s">
         <v>405</v>
       </c>
@@ -5411,7 +5406,7 @@
       </c>
       <c r="E13" s="30"/>
     </row>
-    <row r="14" spans="1:5" ht="37.5">
+    <row r="14" spans="1:5" ht="36">
       <c r="A14" s="27" t="s">
         <v>407</v>
       </c>
@@ -5426,7 +5421,7 @@
       </c>
       <c r="E14" s="30"/>
     </row>
-    <row r="15" spans="1:5" ht="37.5">
+    <row r="15" spans="1:5" ht="36">
       <c r="A15" s="27" t="s">
         <v>409</v>
       </c>
@@ -5441,7 +5436,7 @@
       </c>
       <c r="E15" s="30"/>
     </row>
-    <row r="16" spans="1:5" ht="37.5">
+    <row r="16" spans="1:5" ht="36">
       <c r="A16" s="27" t="s">
         <v>411</v>
       </c>
@@ -5456,7 +5451,7 @@
       </c>
       <c r="E16" s="30"/>
     </row>
-    <row r="17" spans="1:5" ht="37.5">
+    <row r="17" spans="1:5" ht="36">
       <c r="A17" s="27" t="s">
         <v>413</v>
       </c>
@@ -5471,7 +5466,7 @@
       </c>
       <c r="E17" s="30"/>
     </row>
-    <row r="18" spans="1:5" ht="37.5">
+    <row r="18" spans="1:5" ht="36">
       <c r="A18" s="31" t="s">
         <v>415</v>
       </c>
@@ -5486,7 +5481,7 @@
       </c>
       <c r="E18" s="30"/>
     </row>
-    <row r="19" spans="1:5" ht="37.5">
+    <row r="19" spans="1:5" ht="36">
       <c r="A19" s="27" t="s">
         <v>417</v>
       </c>
@@ -5501,7 +5496,7 @@
       </c>
       <c r="E19" s="30"/>
     </row>
-    <row r="20" spans="1:5" ht="37.5">
+    <row r="20" spans="1:5" ht="36">
       <c r="A20" s="27" t="s">
         <v>419</v>
       </c>
@@ -5515,7 +5510,7 @@
         <v>383</v>
       </c>
     </row>
-    <row r="21" spans="1:5" ht="37.5">
+    <row r="21" spans="1:5" ht="36">
       <c r="A21" s="27" t="s">
         <v>421</v>
       </c>
@@ -5529,7 +5524,7 @@
         <v>383</v>
       </c>
     </row>
-    <row r="22" spans="1:5" ht="37.5">
+    <row r="22" spans="1:5" ht="36">
       <c r="A22" s="27" t="s">
         <v>423</v>
       </c>
@@ -5543,7 +5538,7 @@
         <v>383</v>
       </c>
     </row>
-    <row r="23" spans="1:5" ht="37.5">
+    <row r="23" spans="1:5" ht="36">
       <c r="A23" s="27" t="s">
         <v>425</v>
       </c>
@@ -5557,7 +5552,7 @@
         <v>383</v>
       </c>
     </row>
-    <row r="24" spans="1:5" ht="37.5">
+    <row r="24" spans="1:5" ht="36">
       <c r="A24" s="27" t="s">
         <v>427</v>
       </c>
@@ -5571,7 +5566,7 @@
         <v>383</v>
       </c>
     </row>
-    <row r="25" spans="1:5" ht="37.5">
+    <row r="25" spans="1:5" ht="36">
       <c r="A25" s="27" t="s">
         <v>429</v>
       </c>
@@ -5585,7 +5580,7 @@
         <v>383</v>
       </c>
     </row>
-    <row r="26" spans="1:5" ht="37.5">
+    <row r="26" spans="1:5" ht="36">
       <c r="A26" s="27" t="s">
         <v>431</v>
       </c>
@@ -5599,7 +5594,7 @@
         <v>383</v>
       </c>
     </row>
-    <row r="27" spans="1:5" ht="37.5">
+    <row r="27" spans="1:5" ht="36">
       <c r="A27" s="27" t="s">
         <v>433</v>
       </c>
@@ -5613,7 +5608,7 @@
         <v>383</v>
       </c>
     </row>
-    <row r="28" spans="1:5" ht="37.5">
+    <row r="28" spans="1:5" ht="36">
       <c r="A28" s="27" t="s">
         <v>435</v>
       </c>
@@ -5627,7 +5622,7 @@
         <v>383</v>
       </c>
     </row>
-    <row r="29" spans="1:5" ht="37.5">
+    <row r="29" spans="1:5" ht="36">
       <c r="A29" s="27" t="s">
         <v>437</v>
       </c>
@@ -5641,7 +5636,7 @@
         <v>383</v>
       </c>
     </row>
-    <row r="30" spans="1:5" ht="37.5">
+    <row r="30" spans="1:5" ht="36">
       <c r="A30" s="27" t="s">
         <v>439</v>
       </c>
@@ -5655,7 +5650,7 @@
         <v>383</v>
       </c>
     </row>
-    <row r="31" spans="1:5" ht="37.5">
+    <row r="31" spans="1:5" ht="36">
       <c r="A31" s="27" t="s">
         <v>441</v>
       </c>
@@ -5669,7 +5664,7 @@
         <v>383</v>
       </c>
     </row>
-    <row r="32" spans="1:5" ht="37.5">
+    <row r="32" spans="1:5" ht="36">
       <c r="A32" s="27" t="s">
         <v>443</v>
       </c>
@@ -5683,7 +5678,7 @@
         <v>383</v>
       </c>
     </row>
-    <row r="33" spans="1:4" ht="37.5">
+    <row r="33" spans="1:4" ht="36">
       <c r="A33" s="27" t="s">
         <v>445</v>
       </c>
@@ -5697,7 +5692,7 @@
         <v>383</v>
       </c>
     </row>
-    <row r="34" spans="1:4" ht="37.5">
+    <row r="34" spans="1:4" ht="36">
       <c r="A34" s="27" t="s">
         <v>447</v>
       </c>
@@ -5711,7 +5706,7 @@
         <v>383</v>
       </c>
     </row>
-    <row r="35" spans="1:4" ht="37.5">
+    <row r="35" spans="1:4" ht="36">
       <c r="A35" s="27" t="s">
         <v>449</v>
       </c>

--- a/TestData.xlsx
+++ b/TestData.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="20225"/>
   <workbookPr autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="17960" windowHeight="9000" tabRatio="990" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="25600" windowHeight="14460" tabRatio="990" activeTab="6"/>
   </bookViews>
   <sheets>
     <sheet name="Login_Credentials" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="817" uniqueCount="474">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="818" uniqueCount="475">
   <si>
     <t>TEST CASE NAME</t>
   </si>
@@ -34,6 +34,9 @@
   </si>
   <si>
     <t>PASSWORD</t>
+  </si>
+  <si>
+    <t>RESULTS</t>
   </si>
   <si>
     <t>Grovo Application URL</t>
@@ -1409,55 +1412,55 @@
     <t>/home/ubuntu/Grovo_Automation/TestData/test.pdf</t>
   </si>
   <si>
+    <t>Aleeex9</t>
+  </si>
+  <si>
+    <t>Jameees9</t>
+  </si>
+  <si>
+    <t>Jibbbbi9</t>
+  </si>
+  <si>
+    <t>Leooon9</t>
+  </si>
+  <si>
+    <t>Matheeew9</t>
+  </si>
+  <si>
+    <t>kattlllle9</t>
+  </si>
+  <si>
+    <t>Tesssst9</t>
+  </si>
+  <si>
+    <t>Ageeee9</t>
+  </si>
+  <si>
+    <t>aleeex9@grovo.com</t>
+  </si>
+  <si>
+    <t>jameees9@grovo.com</t>
+  </si>
+  <si>
+    <t>jiooob9@grovo.com</t>
+  </si>
+  <si>
+    <t>leonnna9@grovo.com</t>
+  </si>
+  <si>
+    <t>Empl#00</t>
+  </si>
+  <si>
+    <t>Empl#01</t>
+  </si>
+  <si>
+    <t>Empl#02</t>
+  </si>
+  <si>
+    <t>Empl#03</t>
+  </si>
+  <si>
     <t>testadmin@grovo.com</t>
-  </si>
-  <si>
-    <t>Aleeex6</t>
-  </si>
-  <si>
-    <t>Matheeew6</t>
-  </si>
-  <si>
-    <t>aleeex6@grovo.com</t>
-  </si>
-  <si>
-    <t>Empl#16</t>
-  </si>
-  <si>
-    <t>Empl#27</t>
-  </si>
-  <si>
-    <t>jameees6@grovo.com</t>
-  </si>
-  <si>
-    <t>kattlllle6</t>
-  </si>
-  <si>
-    <t>Jameees6</t>
-  </si>
-  <si>
-    <t>Jibbbbi6</t>
-  </si>
-  <si>
-    <t>Tesssst6</t>
-  </si>
-  <si>
-    <t>Empl#38</t>
-  </si>
-  <si>
-    <t>jiooob6@grovo.com</t>
-  </si>
-  <si>
-    <t>Leooon6</t>
-  </si>
-  <si>
-    <t>Ageeee6</t>
-  </si>
-  <si>
-    <t>Empl#49</t>
-  </si>
-  <si>
-    <t>leonnna6@grovo.com</t>
   </si>
 </sst>
 </file>
@@ -1516,34 +1519,6 @@
       <name val="Calibri"/>
     </font>
     <font>
-      <sz val="16"/>
-      <color rgb="FF000000"/>
-      <name val="Bitstream Charter"/>
-      <family val="1"/>
-      <charset val="1"/>
-    </font>
-    <font>
-      <sz val="16"/>
-      <color rgb="FF000000"/>
-      <name val="Calibri"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="16"/>
-      <color rgb="FF0563C1"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <charset val="1"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="16"/>
-      <color rgb="FF0563C1"/>
-      <name val="Bitstream Charter"/>
-      <family val="1"/>
-      <charset val="1"/>
-    </font>
-    <font>
       <b/>
       <sz val="14"/>
       <color rgb="FF000000"/>
@@ -1582,6 +1557,34 @@
       <color rgb="FFFF0000"/>
       <name val="Arial"/>
       <family val="2"/>
+    </font>
+    <font>
+      <sz val="18"/>
+      <color rgb="FF000000"/>
+      <name val="Bitstream Charter"/>
+      <family val="1"/>
+      <charset val="1"/>
+    </font>
+    <font>
+      <sz val="18"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="18"/>
+      <color rgb="FF0563C1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="1"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="18"/>
+      <color rgb="FF0563C1"/>
+      <name val="Bitstream Charter"/>
+      <family val="1"/>
+      <charset val="1"/>
     </font>
   </fonts>
   <fills count="8">
@@ -1721,7 +1724,7 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="45">
+  <cellXfs count="44">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
@@ -1731,11 +1734,6 @@
     <xf numFmtId="49" fontId="6" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="49" fontId="6" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="6" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="1" applyFont="1" applyBorder="1" applyProtection="1"/>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="1"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -1743,19 +1741,19 @@
     <xf numFmtId="0" fontId="6" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="10" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="6" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
@@ -1768,49 +1766,53 @@
     </xf>
     <xf numFmtId="0" fontId="6" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="6" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="15" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="11" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="12" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="11" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="6" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="16" fillId="6" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="12" fillId="6" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="6" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="13" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="15" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="1" applyBorder="1" applyProtection="1"/>
-    <xf numFmtId="0" fontId="11" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="12" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="11" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="14" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="1" applyFont="1" applyBorder="1" applyProtection="1"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1"/>
   </cellXfs>
   <cellStyles count="4">
     <cellStyle name="Followed Hyperlink" xfId="3" builtinId="9" hidden="1"/>
@@ -1888,14 +1890,6 @@
       <rgbColor rgb="00333333"/>
     </indexedColors>
   </colors>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
-      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
-    </ext>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
-      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
-    </ext>
-  </extLst>
 </styleSheet>
 </file>
 
@@ -2221,66 +2215,75 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:AMJ6"/>
+  <dimension ref="A1:AMK6"/>
   <sheetViews>
     <sheetView zoomScale="77" zoomScaleNormal="77" zoomScalePageLayoutView="77" workbookViewId="0">
-      <selection activeCell="D5" sqref="D5"/>
+      <selection activeCell="C10" sqref="C10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="20" x14ac:dyDescent="0"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="23" x14ac:dyDescent="0"/>
   <cols>
-    <col min="1" max="1" width="32.5" style="10" customWidth="1" collapsed="1"/>
-    <col min="2" max="2" width="42.83203125" style="10" customWidth="1" collapsed="1"/>
-    <col min="3" max="3" width="26" style="10" customWidth="1" collapsed="1"/>
-    <col min="4" max="1024" width="8.83203125" style="10" collapsed="1"/>
-    <col min="1025" max="16384" width="8.83203125" style="10"/>
+    <col min="1" max="1" width="32.5" style="40" customWidth="1" collapsed="1"/>
+    <col min="2" max="2" width="42.83203125" style="40" customWidth="1" collapsed="1"/>
+    <col min="3" max="3" width="26" style="40" customWidth="1" collapsed="1"/>
+    <col min="4" max="4" width="38" style="40" customWidth="1" collapsed="1"/>
+    <col min="5" max="1025" width="8.83203125" style="40" collapsed="1"/>
+    <col min="1026" max="16384" width="8.83203125" style="40"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" ht="21">
-      <c r="A1" s="9" t="s">
+    <row r="1" spans="1:4" ht="25">
+      <c r="A1" s="39" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="9" t="s">
+      <c r="B1" s="39" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="9" t="s">
+      <c r="C1" s="39" t="s">
         <v>2</v>
       </c>
-    </row>
-    <row r="2" spans="1:3" ht="21">
-      <c r="A2" s="11" t="s">
+      <c r="D1" s="39" t="s">
         <v>3</v>
       </c>
-      <c r="B2" s="37" t="s">
+    </row>
+    <row r="2" spans="1:4" ht="25">
+      <c r="A2" s="41" t="s">
         <v>4</v>
       </c>
-      <c r="C2" s="11"/>
-    </row>
-    <row r="3" spans="1:3" ht="21">
-      <c r="A3" s="11"/>
-      <c r="B3" s="11"/>
-      <c r="C3" s="11"/>
-    </row>
-    <row r="4" spans="1:3" ht="21">
-      <c r="A4" s="11" t="s">
+      <c r="B2" s="42" t="s">
         <v>5</v>
       </c>
-      <c r="B4" s="37" t="s">
-        <v>457</v>
-      </c>
-      <c r="C4" s="12" t="s">
+      <c r="C2" s="41"/>
+      <c r="D2" s="41"/>
+    </row>
+    <row r="3" spans="1:4" ht="25">
+      <c r="A3" s="41"/>
+      <c r="B3" s="41"/>
+      <c r="C3" s="41"/>
+      <c r="D3" s="41"/>
+    </row>
+    <row r="4" spans="1:4" ht="25">
+      <c r="A4" s="41" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="5" spans="1:3" ht="21">
-      <c r="A5" s="11"/>
-      <c r="B5" s="13"/>
-      <c r="C5" s="11"/>
-    </row>
-    <row r="6" spans="1:3" ht="21">
-      <c r="A6" s="11"/>
-      <c r="B6" s="13"/>
-      <c r="C6" s="11"/>
+      <c r="B4" s="42" t="s">
+        <v>474</v>
+      </c>
+      <c r="C4" s="42" t="s">
+        <v>7</v>
+      </c>
+      <c r="D4" s="41"/>
+    </row>
+    <row r="5" spans="1:4" ht="25">
+      <c r="A5" s="41"/>
+      <c r="B5" s="43"/>
+      <c r="C5" s="41"/>
+      <c r="D5" s="41"/>
+    </row>
+    <row r="6" spans="1:4" ht="25">
+      <c r="A6" s="41"/>
+      <c r="B6" s="43"/>
+      <c r="C6" s="41"/>
+      <c r="D6" s="41"/>
     </row>
   </sheetData>
   <hyperlinks>
@@ -2301,8 +2304,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:H5"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B8" sqref="B8"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E5" sqref="E5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="38" defaultRowHeight="18" x14ac:dyDescent="0"/>
@@ -2319,129 +2322,129 @@
   <sheetData>
     <row r="1" spans="1:8" ht="19">
       <c r="A1" s="1" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F1" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="H1" s="1" t="s">
         <v>14</v>
-      </c>
-      <c r="G1" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="H1" s="1" t="s">
-        <v>13</v>
       </c>
     </row>
     <row r="2" spans="1:8">
       <c r="A2" s="3" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="B2" s="3" t="s">
         <v>458</v>
       </c>
       <c r="C2" s="3" t="s">
-        <v>459</v>
-      </c>
-      <c r="D2" s="14" t="s">
-        <v>460</v>
+        <v>462</v>
+      </c>
+      <c r="D2" s="9" t="s">
+        <v>466</v>
       </c>
       <c r="E2" s="3" t="s">
-        <v>461</v>
+        <v>470</v>
       </c>
       <c r="G2" s="4" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="H2" s="4" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
     </row>
     <row r="3" spans="1:8">
       <c r="A3" s="3" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="B3" s="3" t="s">
-        <v>465</v>
+        <v>459</v>
       </c>
       <c r="C3" s="3" t="s">
-        <v>464</v>
-      </c>
-      <c r="D3" s="14" t="s">
         <v>463</v>
       </c>
+      <c r="D3" s="9" t="s">
+        <v>467</v>
+      </c>
       <c r="E3" s="3" t="s">
-        <v>462</v>
+        <v>471</v>
       </c>
       <c r="F3" s="3" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="G3" s="4" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="H3" s="4" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
     </row>
     <row r="4" spans="1:8">
       <c r="A4" s="3" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="B4" s="3" t="s">
-        <v>466</v>
+        <v>460</v>
       </c>
       <c r="C4" s="3" t="s">
-        <v>467</v>
-      </c>
-      <c r="D4" s="14" t="s">
-        <v>469</v>
+        <v>464</v>
+      </c>
+      <c r="D4" s="9" t="s">
+        <v>468</v>
       </c>
       <c r="E4" s="3" t="s">
-        <v>468</v>
+        <v>472</v>
       </c>
       <c r="F4" s="3" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="G4" s="4" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="H4" s="4" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
     </row>
     <row r="5" spans="1:8">
       <c r="A5" s="3" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="B5" s="3" t="s">
-        <v>470</v>
+        <v>461</v>
       </c>
       <c r="C5" s="3" t="s">
-        <v>471</v>
-      </c>
-      <c r="D5" s="14" t="s">
+        <v>465</v>
+      </c>
+      <c r="D5" s="9" t="s">
+        <v>469</v>
+      </c>
+      <c r="E5" s="3" t="s">
         <v>473</v>
       </c>
-      <c r="E5" s="3" t="s">
-        <v>472</v>
-      </c>
       <c r="F5" s="3" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="G5" s="4" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="H5" s="4" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
     </row>
   </sheetData>
@@ -2473,7 +2476,7 @@
   <dimension ref="A1:D15"/>
   <sheetViews>
     <sheetView topLeftCell="A2" workbookViewId="0">
-      <selection activeCell="C24" sqref="C24"/>
+      <selection activeCell="C2" sqref="C2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="18" x14ac:dyDescent="0"/>
@@ -2487,140 +2490,140 @@
   <sheetData>
     <row r="1" spans="1:4">
       <c r="A1" s="2" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="B1" s="2" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="C1" s="3" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
     </row>
     <row r="2" spans="1:4">
       <c r="A2" s="2" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="C2" s="4" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
     </row>
     <row r="3" spans="1:4">
       <c r="A3" s="2" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
     </row>
     <row r="4" spans="1:4">
       <c r="A4" s="2" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="B4" s="5" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
     </row>
     <row r="5" spans="1:4">
       <c r="A5" s="2" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="B5" s="5" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
     </row>
     <row r="6" spans="1:4">
       <c r="A6" s="2" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="B6" s="5" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
     </row>
     <row r="7" spans="1:4">
       <c r="A7" s="2" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="B7" s="5" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
     </row>
     <row r="8" spans="1:4">
       <c r="A8" s="2" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="B8" s="6" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
     </row>
     <row r="9" spans="1:4">
       <c r="A9" s="2" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="B9" s="6" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
     </row>
     <row r="10" spans="1:4">
       <c r="A10" s="2" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="B10" s="6" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
     </row>
     <row r="11" spans="1:4">
       <c r="A11" s="2" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="B11" s="6" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
     </row>
     <row r="12" spans="1:4">
       <c r="A12" s="2" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="B12" s="6" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
     </row>
     <row r="13" spans="1:4">
       <c r="A13" s="2" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="B13" s="7" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
     </row>
     <row r="14" spans="1:4">
       <c r="A14" s="2" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="B14" s="6" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="C14" s="2" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="D14" s="2" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
     </row>
     <row r="15" spans="1:4">
       <c r="A15" s="2" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="B15" s="6" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="C15" s="2" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="D15" s="2" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
     </row>
   </sheetData>
@@ -2640,191 +2643,191 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AMK103"/>
   <sheetViews>
-    <sheetView topLeftCell="A4" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="C18" sqref="C18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="60" defaultRowHeight="18" x14ac:dyDescent="0"/>
   <cols>
-    <col min="1" max="1" width="41" style="15" customWidth="1" collapsed="1"/>
-    <col min="2" max="2" width="73.5" style="15" customWidth="1" collapsed="1"/>
-    <col min="3" max="1025" width="60" style="15" collapsed="1"/>
-    <col min="1026" max="16384" width="60" style="15"/>
+    <col min="1" max="1" width="41" style="10" customWidth="1" collapsed="1"/>
+    <col min="2" max="2" width="73.5" style="10" customWidth="1" collapsed="1"/>
+    <col min="3" max="1025" width="60" style="10" collapsed="1"/>
+    <col min="1026" max="16384" width="60" style="10"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:2" ht="15" customHeight="1">
-      <c r="A1" s="39" t="s">
-        <v>206</v>
-      </c>
-      <c r="B1" s="40"/>
+      <c r="A1" s="33" t="s">
+        <v>207</v>
+      </c>
+      <c r="B1" s="34"/>
     </row>
     <row r="2" spans="1:2">
-      <c r="A2" s="16" t="s">
-        <v>22</v>
-      </c>
-      <c r="B2" s="17" t="s">
-        <v>207</v>
+      <c r="A2" s="11" t="s">
+        <v>23</v>
+      </c>
+      <c r="B2" s="12" t="s">
+        <v>208</v>
       </c>
     </row>
     <row r="3" spans="1:2">
-      <c r="A3" s="16" t="s">
-        <v>208</v>
-      </c>
-      <c r="B3" s="17" t="s">
+      <c r="A3" s="11" t="s">
         <v>209</v>
       </c>
+      <c r="B3" s="12" t="s">
+        <v>210</v>
+      </c>
     </row>
     <row r="4" spans="1:2">
-      <c r="A4" s="16"/>
-      <c r="B4" s="17"/>
+      <c r="A4" s="11"/>
+      <c r="B4" s="12"/>
     </row>
     <row r="6" spans="1:2" ht="14" customHeight="1">
-      <c r="A6" s="39" t="s">
-        <v>210</v>
-      </c>
-      <c r="B6" s="40"/>
+      <c r="A6" s="33" t="s">
+        <v>211</v>
+      </c>
+      <c r="B6" s="34"/>
     </row>
     <row r="7" spans="1:2">
-      <c r="A7" s="16" t="s">
-        <v>211</v>
-      </c>
-      <c r="B7" s="17" t="s">
+      <c r="A7" s="11" t="s">
         <v>212</v>
       </c>
+      <c r="B7" s="12" t="s">
+        <v>213</v>
+      </c>
     </row>
     <row r="8" spans="1:2">
-      <c r="A8" s="16" t="s">
+      <c r="A8" s="11" t="s">
+        <v>24</v>
+      </c>
+      <c r="B8" s="12" t="s">
+        <v>214</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2">
+      <c r="A9" s="11" t="s">
+        <v>215</v>
+      </c>
+      <c r="B9" s="12" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2" ht="15" customHeight="1">
+      <c r="A10" s="11" t="s">
+        <v>216</v>
+      </c>
+      <c r="B10" s="12" t="s">
+        <v>217</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2">
+      <c r="A11" s="11" t="s">
+        <v>218</v>
+      </c>
+      <c r="B11" s="12" t="s">
+        <v>219</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2">
+      <c r="A12" s="11"/>
+      <c r="B12" s="12"/>
+    </row>
+    <row r="14" spans="1:2">
+      <c r="A14" s="32" t="s">
+        <v>220</v>
+      </c>
+      <c r="B14" s="32"/>
+    </row>
+    <row r="15" spans="1:2">
+      <c r="A15" s="11" t="s">
         <v>23</v>
       </c>
-      <c r="B8" s="17" t="s">
-        <v>213</v>
-      </c>
-    </row>
-    <row r="9" spans="1:2">
-      <c r="A9" s="16" t="s">
-        <v>214</v>
-      </c>
-      <c r="B9" s="17" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="10" spans="1:2" ht="15" customHeight="1">
-      <c r="A10" s="16" t="s">
-        <v>215</v>
-      </c>
-      <c r="B10" s="17" t="s">
-        <v>216</v>
-      </c>
-    </row>
-    <row r="11" spans="1:2">
-      <c r="A11" s="16" t="s">
-        <v>217</v>
-      </c>
-      <c r="B11" s="17" t="s">
-        <v>218</v>
-      </c>
-    </row>
-    <row r="12" spans="1:2">
-      <c r="A12" s="16"/>
-      <c r="B12" s="17"/>
-    </row>
-    <row r="14" spans="1:2">
-      <c r="A14" s="38" t="s">
-        <v>219</v>
-      </c>
-      <c r="B14" s="38"/>
-    </row>
-    <row r="15" spans="1:2">
-      <c r="A15" s="16" t="s">
-        <v>22</v>
-      </c>
-      <c r="B15" s="17" t="s">
-        <v>220</v>
+      <c r="B15" s="12" t="s">
+        <v>221</v>
       </c>
     </row>
     <row r="16" spans="1:2" ht="25" customHeight="1">
-      <c r="A16" s="16" t="s">
-        <v>221</v>
-      </c>
-      <c r="B16" s="17" t="s">
-        <v>454</v>
+      <c r="A16" s="11" t="s">
+        <v>222</v>
+      </c>
+      <c r="B16" s="12" t="s">
+        <v>455</v>
       </c>
     </row>
     <row r="17" spans="1:2">
-      <c r="A17" s="16"/>
-      <c r="B17" s="17"/>
+      <c r="A17" s="11"/>
+      <c r="B17" s="12"/>
     </row>
     <row r="18" spans="1:2" ht="15" customHeight="1">
-      <c r="A18" s="16"/>
-      <c r="B18" s="17"/>
+      <c r="A18" s="11"/>
+      <c r="B18" s="12"/>
     </row>
     <row r="20" spans="1:2">
-      <c r="A20" s="38" t="s">
-        <v>222</v>
-      </c>
-      <c r="B20" s="38"/>
+      <c r="A20" s="32" t="s">
+        <v>223</v>
+      </c>
+      <c r="B20" s="32"/>
     </row>
     <row r="21" spans="1:2">
-      <c r="A21" s="16" t="s">
-        <v>22</v>
-      </c>
-      <c r="B21" s="17" t="s">
-        <v>223</v>
+      <c r="A21" s="11" t="s">
+        <v>23</v>
+      </c>
+      <c r="B21" s="12" t="s">
+        <v>224</v>
       </c>
     </row>
     <row r="22" spans="1:2">
-      <c r="A22" s="16" t="s">
-        <v>224</v>
-      </c>
-      <c r="B22" s="17" t="s">
-        <v>455</v>
+      <c r="A22" s="11" t="s">
+        <v>225</v>
+      </c>
+      <c r="B22" s="12" t="s">
+        <v>456</v>
       </c>
     </row>
     <row r="23" spans="1:2">
-      <c r="A23" s="16" t="s">
+      <c r="A23" s="11" t="s">
+        <v>226</v>
+      </c>
+      <c r="B23" s="12">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="24" spans="1:2">
+      <c r="A24" s="11"/>
+      <c r="B24" s="12"/>
+    </row>
+    <row r="26" spans="1:2" ht="15" customHeight="1">
+      <c r="A26" s="32" t="s">
+        <v>227</v>
+      </c>
+      <c r="B26" s="32"/>
+    </row>
+    <row r="27" spans="1:2">
+      <c r="A27" s="11" t="s">
+        <v>23</v>
+      </c>
+      <c r="B27" s="12" t="s">
+        <v>228</v>
+      </c>
+    </row>
+    <row r="28" spans="1:2">
+      <c r="A28" s="11" t="s">
         <v>225</v>
       </c>
-      <c r="B23" s="17">
+      <c r="B28" s="12" t="s">
+        <v>457</v>
+      </c>
+    </row>
+    <row r="29" spans="1:2">
+      <c r="A29" s="11" t="s">
+        <v>226</v>
+      </c>
+      <c r="B29" s="12">
         <v>200</v>
       </c>
     </row>
-    <row r="24" spans="1:2">
-      <c r="A24" s="16"/>
-      <c r="B24" s="17"/>
-    </row>
-    <row r="26" spans="1:2" ht="15" customHeight="1">
-      <c r="A26" s="38" t="s">
-        <v>226</v>
-      </c>
-      <c r="B26" s="38"/>
-    </row>
-    <row r="27" spans="1:2">
-      <c r="A27" s="16" t="s">
-        <v>22</v>
-      </c>
-      <c r="B27" s="17" t="s">
-        <v>227</v>
-      </c>
-    </row>
-    <row r="28" spans="1:2">
-      <c r="A28" s="16" t="s">
-        <v>224</v>
-      </c>
-      <c r="B28" s="17" t="s">
-        <v>456</v>
-      </c>
-    </row>
-    <row r="29" spans="1:2">
-      <c r="A29" s="16" t="s">
-        <v>225</v>
-      </c>
-      <c r="B29" s="17">
-        <v>200</v>
-      </c>
-    </row>
     <row r="30" spans="1:2">
-      <c r="A30" s="16"/>
-      <c r="B30" s="17"/>
+      <c r="A30" s="11"/>
+      <c r="B30" s="12"/>
     </row>
     <row r="34" ht="15" customHeight="1"/>
     <row r="43" ht="15" customHeight="1"/>
@@ -2861,1690 +2864,1690 @@
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="18" x14ac:dyDescent="0"/>
   <cols>
-    <col min="1" max="1" width="22.5" style="15" customWidth="1"/>
-    <col min="2" max="2" width="61.6640625" style="15" customWidth="1"/>
-    <col min="3" max="3" width="31" style="15" customWidth="1"/>
-    <col min="4" max="4" width="66.83203125" style="15" customWidth="1"/>
-    <col min="5" max="6" width="8.83203125" style="15"/>
-    <col min="7" max="7" width="9.1640625" style="15" customWidth="1"/>
-    <col min="8" max="16384" width="8.83203125" style="15"/>
+    <col min="1" max="1" width="22.5" style="10" customWidth="1"/>
+    <col min="2" max="2" width="61.6640625" style="10" customWidth="1"/>
+    <col min="3" max="3" width="31" style="10" customWidth="1"/>
+    <col min="4" max="4" width="66.83203125" style="10" customWidth="1"/>
+    <col min="5" max="6" width="8.83203125" style="10"/>
+    <col min="7" max="7" width="9.1640625" style="10" customWidth="1"/>
+    <col min="8" max="16384" width="8.83203125" style="10"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:4" ht="14" customHeight="1">
-      <c r="A1" s="39" t="s">
-        <v>96</v>
-      </c>
-      <c r="B1" s="40"/>
-      <c r="C1" s="39" t="s">
+      <c r="A1" s="33" t="s">
         <v>97</v>
       </c>
-      <c r="D1" s="40"/>
+      <c r="B1" s="34"/>
+      <c r="C1" s="33" t="s">
+        <v>98</v>
+      </c>
+      <c r="D1" s="34"/>
     </row>
     <row r="2" spans="1:4">
-      <c r="A2" s="16" t="s">
+      <c r="A2" s="11" t="s">
+        <v>99</v>
+      </c>
+      <c r="B2" s="12" t="s">
+        <v>100</v>
+      </c>
+      <c r="C2" s="11" t="s">
+        <v>23</v>
+      </c>
+      <c r="D2" s="12" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4">
+      <c r="A3" s="11" t="s">
+        <v>102</v>
+      </c>
+      <c r="B3" s="12" t="s">
+        <v>455</v>
+      </c>
+      <c r="C3" s="11" t="s">
+        <v>103</v>
+      </c>
+      <c r="D3" s="12" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4">
+      <c r="A4" s="11" t="s">
+        <v>105</v>
+      </c>
+      <c r="B4" s="12" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4">
+      <c r="A5" s="11" t="s">
+        <v>107</v>
+      </c>
+      <c r="B5" s="12" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4">
+      <c r="A6" s="11" t="s">
+        <v>109</v>
+      </c>
+      <c r="B6" s="12" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4">
+      <c r="A7" s="11"/>
+      <c r="B7" s="11"/>
+    </row>
+    <row r="10" spans="1:4" ht="14" customHeight="1">
+      <c r="A10" s="33" t="s">
+        <v>111</v>
+      </c>
+      <c r="B10" s="34"/>
+      <c r="C10" s="33" t="s">
         <v>98</v>
       </c>
-      <c r="B2" s="17" t="s">
+      <c r="D10" s="34"/>
+    </row>
+    <row r="11" spans="1:4">
+      <c r="A11" s="11" t="s">
         <v>99</v>
       </c>
-      <c r="C2" s="16" t="s">
-        <v>22</v>
-      </c>
-      <c r="D2" s="17" t="s">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="3" spans="1:4">
-      <c r="A3" s="16" t="s">
-        <v>101</v>
-      </c>
-      <c r="B3" s="17" t="s">
-        <v>454</v>
-      </c>
-      <c r="C3" s="16" t="s">
+      <c r="B11" s="12" t="s">
+        <v>112</v>
+      </c>
+      <c r="C11" s="11" t="s">
+        <v>23</v>
+      </c>
+      <c r="D11" s="12" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4">
+      <c r="A12" s="11" t="s">
         <v>102</v>
       </c>
-      <c r="D3" s="17" t="s">
+      <c r="B12" s="12" t="s">
+        <v>455</v>
+      </c>
+      <c r="C12" s="11" t="s">
+        <v>114</v>
+      </c>
+      <c r="D12" s="12" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4">
+      <c r="A13" s="11" t="s">
+        <v>105</v>
+      </c>
+      <c r="B13" s="12" t="s">
+        <v>116</v>
+      </c>
+      <c r="C13" s="11" t="s">
+        <v>117</v>
+      </c>
+      <c r="D13" s="12" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4">
+      <c r="A14" s="11" t="s">
+        <v>107</v>
+      </c>
+      <c r="B14" s="12" t="s">
+        <v>108</v>
+      </c>
+      <c r="C14" s="11" t="s">
+        <v>118</v>
+      </c>
+      <c r="D14" s="12" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4">
+      <c r="A15" s="11" t="s">
+        <v>109</v>
+      </c>
+      <c r="B15" s="12" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4">
+      <c r="A16" s="11"/>
+      <c r="B16" s="11"/>
+    </row>
+    <row r="18" spans="1:4" ht="14" customHeight="1">
+      <c r="A18" s="33" t="s">
+        <v>121</v>
+      </c>
+      <c r="B18" s="34"/>
+      <c r="C18" s="33" t="s">
+        <v>98</v>
+      </c>
+      <c r="D18" s="34"/>
+    </row>
+    <row r="19" spans="1:4">
+      <c r="A19" s="11" t="s">
+        <v>99</v>
+      </c>
+      <c r="B19" s="12" t="s">
+        <v>122</v>
+      </c>
+      <c r="C19" s="11" t="s">
+        <v>23</v>
+      </c>
+      <c r="D19" s="12" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="20" spans="1:4">
+      <c r="A20" s="11" t="s">
+        <v>102</v>
+      </c>
+      <c r="B20" s="12" t="s">
+        <v>455</v>
+      </c>
+      <c r="C20" s="13" t="s">
+        <v>124</v>
+      </c>
+      <c r="D20" s="14" t="s">
+        <v>455</v>
+      </c>
+    </row>
+    <row r="21" spans="1:4">
+      <c r="A21" s="11" t="s">
+        <v>105</v>
+      </c>
+      <c r="B21" s="12" t="s">
+        <v>125</v>
+      </c>
+      <c r="C21" s="13"/>
+      <c r="D21" s="14"/>
+    </row>
+    <row r="22" spans="1:4">
+      <c r="A22" s="11" t="s">
+        <v>107</v>
+      </c>
+      <c r="B22" s="12" t="s">
+        <v>108</v>
+      </c>
+      <c r="C22" s="13"/>
+      <c r="D22" s="14"/>
+    </row>
+    <row r="23" spans="1:4">
+      <c r="A23" s="11" t="s">
+        <v>109</v>
+      </c>
+      <c r="B23" s="12" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="24" spans="1:4">
+      <c r="A24" s="11"/>
+      <c r="B24" s="11"/>
+    </row>
+    <row r="26" spans="1:4" ht="14" customHeight="1">
+      <c r="A26" s="33" t="s">
+        <v>127</v>
+      </c>
+      <c r="B26" s="34"/>
+      <c r="C26" s="33" t="s">
+        <v>98</v>
+      </c>
+      <c r="D26" s="34"/>
+    </row>
+    <row r="27" spans="1:4">
+      <c r="A27" s="11" t="s">
+        <v>99</v>
+      </c>
+      <c r="B27" s="12" t="s">
+        <v>128</v>
+      </c>
+      <c r="C27" s="11" t="s">
+        <v>23</v>
+      </c>
+      <c r="D27" s="12" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="28" spans="1:4">
+      <c r="A28" s="11" t="s">
+        <v>102</v>
+      </c>
+      <c r="B28" s="12" t="s">
+        <v>455</v>
+      </c>
+      <c r="C28" s="11" t="s">
+        <v>130</v>
+      </c>
+      <c r="D28" s="12" t="s">
+        <v>456</v>
+      </c>
+    </row>
+    <row r="29" spans="1:4">
+      <c r="A29" s="11" t="s">
+        <v>105</v>
+      </c>
+      <c r="B29" s="12" t="s">
+        <v>131</v>
+      </c>
+      <c r="C29" s="11" t="s">
+        <v>132</v>
+      </c>
+      <c r="D29" s="12">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="30" spans="1:4">
+      <c r="A30" s="11" t="s">
+        <v>107</v>
+      </c>
+      <c r="B30" s="12" t="s">
+        <v>108</v>
+      </c>
+      <c r="C30" s="11"/>
+      <c r="D30" s="12"/>
+    </row>
+    <row r="31" spans="1:4">
+      <c r="A31" s="11" t="s">
+        <v>109</v>
+      </c>
+      <c r="B31" s="12" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="32" spans="1:4">
+      <c r="A32" s="11"/>
+      <c r="B32" s="11"/>
+    </row>
+    <row r="34" spans="1:4" ht="14" customHeight="1">
+      <c r="A34" s="33" t="s">
+        <v>134</v>
+      </c>
+      <c r="B34" s="34"/>
+      <c r="C34" s="33" t="s">
+        <v>98</v>
+      </c>
+      <c r="D34" s="34"/>
+    </row>
+    <row r="35" spans="1:4">
+      <c r="A35" s="11" t="s">
+        <v>99</v>
+      </c>
+      <c r="B35" s="12" t="s">
+        <v>135</v>
+      </c>
+      <c r="C35" s="11" t="s">
+        <v>23</v>
+      </c>
+      <c r="D35" s="12" t="s">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="36" spans="1:4">
+      <c r="A36" s="11" t="s">
+        <v>102</v>
+      </c>
+      <c r="B36" s="12" t="s">
+        <v>455</v>
+      </c>
+      <c r="C36" s="11" t="s">
+        <v>137</v>
+      </c>
+      <c r="D36" s="12" t="s">
+        <v>457</v>
+      </c>
+    </row>
+    <row r="37" spans="1:4">
+      <c r="A37" s="11" t="s">
+        <v>105</v>
+      </c>
+      <c r="B37" s="12" t="s">
+        <v>138</v>
+      </c>
+      <c r="C37" s="11" t="s">
+        <v>139</v>
+      </c>
+      <c r="D37" s="12">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="38" spans="1:4">
+      <c r="A38" s="11" t="s">
+        <v>107</v>
+      </c>
+      <c r="B38" s="12" t="s">
+        <v>108</v>
+      </c>
+      <c r="C38" s="11"/>
+      <c r="D38" s="12"/>
+    </row>
+    <row r="39" spans="1:4" ht="36">
+      <c r="A39" s="11" t="s">
+        <v>109</v>
+      </c>
+      <c r="B39" s="12" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="40" spans="1:4">
+      <c r="A40" s="11"/>
+      <c r="B40" s="11"/>
+    </row>
+    <row r="43" spans="1:4" ht="14" customHeight="1">
+      <c r="A43" s="33" t="s">
+        <v>141</v>
+      </c>
+      <c r="B43" s="34"/>
+      <c r="C43" s="33" t="s">
+        <v>98</v>
+      </c>
+      <c r="D43" s="34"/>
+    </row>
+    <row r="44" spans="1:4">
+      <c r="A44" s="11" t="s">
+        <v>99</v>
+      </c>
+      <c r="B44" s="12" t="s">
+        <v>142</v>
+      </c>
+      <c r="C44" s="11" t="s">
+        <v>23</v>
+      </c>
+      <c r="D44" s="12" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="45" spans="1:4">
+      <c r="A45" s="11" t="s">
+        <v>102</v>
+      </c>
+      <c r="B45" s="12" t="s">
+        <v>455</v>
+      </c>
+      <c r="C45" s="11" t="s">
+        <v>144</v>
+      </c>
+      <c r="D45" s="12" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="46" spans="1:4">
+      <c r="A46" s="11" t="s">
+        <v>105</v>
+      </c>
+      <c r="B46" s="12" t="s">
+        <v>146</v>
+      </c>
+      <c r="C46" s="11" t="s">
+        <v>147</v>
+      </c>
+      <c r="D46" s="12" t="s">
+        <v>455</v>
+      </c>
+    </row>
+    <row r="47" spans="1:4">
+      <c r="A47" s="11" t="s">
+        <v>107</v>
+      </c>
+      <c r="B47" s="12" t="s">
+        <v>148</v>
+      </c>
+      <c r="C47" s="11" t="s">
+        <v>24</v>
+      </c>
+      <c r="D47" s="12" t="s">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="48" spans="1:4" ht="36">
+      <c r="A48" s="11" t="s">
+        <v>109</v>
+      </c>
+      <c r="B48" s="12" t="s">
+        <v>150</v>
+      </c>
+      <c r="C48" s="11" t="s">
+        <v>151</v>
+      </c>
+      <c r="D48" s="12" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="49" spans="1:5">
+      <c r="A49" s="11"/>
+      <c r="B49" s="11"/>
+      <c r="C49" s="11" t="s">
+        <v>152</v>
+      </c>
+      <c r="D49" s="12" t="s">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="52" spans="1:5" ht="14" customHeight="1">
+      <c r="A52" s="33" t="s">
+        <v>154</v>
+      </c>
+      <c r="B52" s="34"/>
+      <c r="C52" s="33" t="s">
+        <v>98</v>
+      </c>
+      <c r="D52" s="34"/>
+      <c r="E52" s="11"/>
+    </row>
+    <row r="53" spans="1:5" ht="54">
+      <c r="A53" s="11" t="s">
+        <v>99</v>
+      </c>
+      <c r="B53" s="12" t="s">
+        <v>155</v>
+      </c>
+      <c r="C53" s="11" t="s">
+        <v>23</v>
+      </c>
+      <c r="D53" s="12" t="s">
+        <v>156</v>
+      </c>
+      <c r="E53" s="11" t="s">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="54" spans="1:5">
+      <c r="A54" s="11" t="s">
+        <v>102</v>
+      </c>
+      <c r="B54" s="12" t="s">
+        <v>455</v>
+      </c>
+      <c r="C54" s="11" t="s">
+        <v>158</v>
+      </c>
+      <c r="D54" s="12" t="s">
+        <v>456</v>
+      </c>
+      <c r="E54" s="12">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="55" spans="1:5">
+      <c r="A55" s="11" t="s">
+        <v>105</v>
+      </c>
+      <c r="B55" s="12" t="s">
+        <v>159</v>
+      </c>
+      <c r="C55" s="11" t="s">
+        <v>160</v>
+      </c>
+      <c r="D55" s="12" t="s">
+        <v>457</v>
+      </c>
+      <c r="E55" s="11"/>
+    </row>
+    <row r="56" spans="1:5">
+      <c r="A56" s="11" t="s">
+        <v>107</v>
+      </c>
+      <c r="B56" s="12" t="s">
+        <v>148</v>
+      </c>
+      <c r="C56" s="11" t="s">
+        <v>24</v>
+      </c>
+      <c r="D56" s="12" t="s">
+        <v>149</v>
+      </c>
+      <c r="E56" s="11"/>
+    </row>
+    <row r="57" spans="1:5" ht="36">
+      <c r="A57" s="11" t="s">
+        <v>109</v>
+      </c>
+      <c r="B57" s="12" t="s">
+        <v>161</v>
+      </c>
+      <c r="C57" s="11" t="s">
+        <v>151</v>
+      </c>
+      <c r="D57" s="12" t="s">
+        <v>25</v>
+      </c>
+      <c r="E57" s="11"/>
+    </row>
+    <row r="58" spans="1:5">
+      <c r="A58" s="11"/>
+      <c r="B58" s="11"/>
+      <c r="C58" s="11" t="s">
+        <v>152</v>
+      </c>
+      <c r="D58" s="12" t="s">
+        <v>153</v>
+      </c>
+      <c r="E58" s="11"/>
+    </row>
+    <row r="60" spans="1:5" ht="14" customHeight="1">
+      <c r="A60" s="33" t="s">
+        <v>162</v>
+      </c>
+      <c r="B60" s="34"/>
+      <c r="C60" s="33" t="s">
+        <v>98</v>
+      </c>
+      <c r="D60" s="34"/>
+    </row>
+    <row r="61" spans="1:5">
+      <c r="A61" s="11" t="s">
+        <v>99</v>
+      </c>
+      <c r="B61" s="12" t="s">
+        <v>163</v>
+      </c>
+      <c r="C61" s="11" t="s">
+        <v>23</v>
+      </c>
+      <c r="D61" s="12" t="s">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="62" spans="1:5">
+      <c r="A62" s="11" t="s">
+        <v>102</v>
+      </c>
+      <c r="B62" s="12" t="s">
+        <v>455</v>
+      </c>
+      <c r="C62" s="11" t="s">
+        <v>165</v>
+      </c>
+      <c r="D62" s="12" t="s">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="63" spans="1:5">
+      <c r="A63" s="11" t="s">
+        <v>105</v>
+      </c>
+      <c r="B63" s="12" t="s">
+        <v>167</v>
+      </c>
+      <c r="C63" s="11" t="s">
+        <v>158</v>
+      </c>
+      <c r="D63" s="12" t="s">
+        <v>456</v>
+      </c>
+    </row>
+    <row r="64" spans="1:5">
+      <c r="A64" s="11" t="s">
+        <v>107</v>
+      </c>
+      <c r="B64" s="12" t="s">
+        <v>148</v>
+      </c>
+      <c r="C64" s="11" t="s">
+        <v>24</v>
+      </c>
+      <c r="D64" s="12" t="s">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="65" spans="1:4" ht="36">
+      <c r="A65" s="11" t="s">
+        <v>109</v>
+      </c>
+      <c r="B65" s="12" t="s">
+        <v>168</v>
+      </c>
+      <c r="C65" s="11" t="s">
+        <v>151</v>
+      </c>
+      <c r="D65" s="12" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="66" spans="1:4">
+      <c r="A66" s="11"/>
+      <c r="B66" s="11"/>
+      <c r="C66" s="11" t="s">
+        <v>152</v>
+      </c>
+      <c r="D66" s="12" t="s">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="67" spans="1:4">
+      <c r="A67" s="11"/>
+      <c r="B67" s="11"/>
+      <c r="C67" s="11" t="s">
+        <v>132</v>
+      </c>
+      <c r="D67" s="12">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="70" spans="1:4" ht="14" customHeight="1">
+      <c r="A70" s="37" t="s">
+        <v>169</v>
+      </c>
+      <c r="B70" s="38"/>
+      <c r="C70" s="33" t="s">
+        <v>170</v>
+      </c>
+      <c r="D70" s="34"/>
+    </row>
+    <row r="71" spans="1:4">
+      <c r="A71" s="11" t="s">
+        <v>99</v>
+      </c>
+      <c r="B71" s="12" t="s">
+        <v>171</v>
+      </c>
+      <c r="C71" s="11" t="s">
+        <v>172</v>
+      </c>
+      <c r="D71" s="12" t="s">
+        <v>173</v>
+      </c>
+    </row>
+    <row r="72" spans="1:4">
+      <c r="A72" s="11" t="s">
+        <v>102</v>
+      </c>
+      <c r="B72" s="12" t="s">
+        <v>455</v>
+      </c>
+      <c r="C72" s="11" t="s">
         <v>103</v>
       </c>
-    </row>
-    <row r="4" spans="1:4">
-      <c r="A4" s="16" t="s">
-        <v>104</v>
-      </c>
-      <c r="B4" s="17" t="s">
+      <c r="D72" s="12" t="s">
+        <v>174</v>
+      </c>
+    </row>
+    <row r="73" spans="1:4">
+      <c r="A73" s="11" t="s">
         <v>105</v>
       </c>
-    </row>
-    <row r="5" spans="1:4">
-      <c r="A5" s="16" t="s">
-        <v>106</v>
-      </c>
-      <c r="B5" s="17" t="s">
+      <c r="B73" s="12" t="s">
+        <v>175</v>
+      </c>
+      <c r="C73" s="33" t="s">
+        <v>176</v>
+      </c>
+      <c r="D73" s="34"/>
+    </row>
+    <row r="74" spans="1:4">
+      <c r="A74" s="11" t="s">
         <v>107</v>
       </c>
-    </row>
-    <row r="6" spans="1:4">
-      <c r="A6" s="16" t="s">
-        <v>108</v>
-      </c>
-      <c r="B6" s="17" t="s">
+      <c r="B74" s="12" t="s">
+        <v>148</v>
+      </c>
+      <c r="C74" s="11" t="s">
+        <v>177</v>
+      </c>
+      <c r="D74" s="12" t="s">
+        <v>178</v>
+      </c>
+    </row>
+    <row r="75" spans="1:4" ht="36">
+      <c r="A75" s="11" t="s">
         <v>109</v>
       </c>
-    </row>
-    <row r="7" spans="1:4">
-      <c r="A7" s="16"/>
-      <c r="B7" s="16"/>
-    </row>
-    <row r="10" spans="1:4" ht="14" customHeight="1">
-      <c r="A10" s="39" t="s">
-        <v>110</v>
-      </c>
-      <c r="B10" s="40"/>
-      <c r="C10" s="39" t="s">
-        <v>97</v>
-      </c>
-      <c r="D10" s="40"/>
-    </row>
-    <row r="11" spans="1:4">
-      <c r="A11" s="16" t="s">
-        <v>98</v>
-      </c>
-      <c r="B11" s="17" t="s">
-        <v>111</v>
-      </c>
-      <c r="C11" s="16" t="s">
-        <v>22</v>
-      </c>
-      <c r="D11" s="17" t="s">
-        <v>112</v>
-      </c>
-    </row>
-    <row r="12" spans="1:4">
-      <c r="A12" s="16" t="s">
-        <v>101</v>
-      </c>
-      <c r="B12" s="17" t="s">
-        <v>454</v>
-      </c>
-      <c r="C12" s="16" t="s">
-        <v>113</v>
-      </c>
-      <c r="D12" s="17" t="s">
-        <v>114</v>
-      </c>
-    </row>
-    <row r="13" spans="1:4">
-      <c r="A13" s="16" t="s">
-        <v>104</v>
-      </c>
-      <c r="B13" s="17" t="s">
-        <v>115</v>
-      </c>
-      <c r="C13" s="16" t="s">
-        <v>116</v>
-      </c>
-      <c r="D13" s="17" t="s">
+      <c r="B75" s="12" t="s">
+        <v>179</v>
+      </c>
+      <c r="C75" s="11" t="s">
+        <v>180</v>
+      </c>
+      <c r="D75" s="12" t="s">
+        <v>455</v>
+      </c>
+    </row>
+    <row r="76" spans="1:4">
+      <c r="A76" s="11"/>
+      <c r="B76" s="11"/>
+      <c r="C76" s="11"/>
+      <c r="D76" s="11"/>
+    </row>
+    <row r="77" spans="1:4">
+      <c r="A77" s="11"/>
+      <c r="B77" s="11"/>
+      <c r="C77" s="11"/>
+      <c r="D77" s="11"/>
+    </row>
+    <row r="79" spans="1:4" ht="14" customHeight="1">
+      <c r="A79" s="37" t="s">
+        <v>181</v>
+      </c>
+      <c r="B79" s="38"/>
+      <c r="C79" s="33" t="s">
+        <v>182</v>
+      </c>
+      <c r="D79" s="34"/>
+    </row>
+    <row r="80" spans="1:4">
+      <c r="A80" s="11" t="s">
+        <v>99</v>
+      </c>
+      <c r="B80" s="12" t="s">
+        <v>183</v>
+      </c>
+      <c r="C80" s="11" t="s">
+        <v>184</v>
+      </c>
+      <c r="D80" s="12" t="s">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="81" spans="1:4">
+      <c r="A81" s="11" t="s">
+        <v>102</v>
+      </c>
+      <c r="B81" s="12" t="s">
+        <v>455</v>
+      </c>
+      <c r="C81" s="11" t="s">
+        <v>102</v>
+      </c>
+      <c r="D81" s="12" t="s">
+        <v>455</v>
+      </c>
+    </row>
+    <row r="82" spans="1:4">
+      <c r="A82" s="11" t="s">
+        <v>105</v>
+      </c>
+      <c r="B82" s="12" t="s">
+        <v>186</v>
+      </c>
+      <c r="C82" s="33" t="s">
+        <v>187</v>
+      </c>
+      <c r="D82" s="34"/>
+    </row>
+    <row r="83" spans="1:4">
+      <c r="A83" s="11" t="s">
+        <v>107</v>
+      </c>
+      <c r="B83" s="12" t="s">
+        <v>148</v>
+      </c>
+      <c r="C83" s="11" t="s">
+        <v>188</v>
+      </c>
+      <c r="D83" s="12" t="s">
+        <v>189</v>
+      </c>
+    </row>
+    <row r="84" spans="1:4" ht="36">
+      <c r="A84" s="11" t="s">
+        <v>109</v>
+      </c>
+      <c r="B84" s="12" t="s">
+        <v>190</v>
+      </c>
+      <c r="C84" s="11" t="s">
+        <v>191</v>
+      </c>
+      <c r="D84" s="12" t="s">
+        <v>456</v>
+      </c>
+    </row>
+    <row r="85" spans="1:4">
+      <c r="A85" s="11"/>
+      <c r="B85" s="11"/>
+      <c r="C85" s="11" t="s">
+        <v>132</v>
+      </c>
+      <c r="D85" s="12">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="88" spans="1:4" ht="14" customHeight="1">
+      <c r="A88" s="35" t="s">
+        <v>192</v>
+      </c>
+      <c r="B88" s="35"/>
+      <c r="C88" s="32" t="s">
+        <v>187</v>
+      </c>
+      <c r="D88" s="32"/>
+    </row>
+    <row r="89" spans="1:4">
+      <c r="A89" s="11" t="s">
+        <v>99</v>
+      </c>
+      <c r="B89" s="12" t="s">
+        <v>193</v>
+      </c>
+      <c r="C89" s="11" t="s">
+        <v>188</v>
+      </c>
+      <c r="D89" s="12" t="s">
+        <v>194</v>
+      </c>
+    </row>
+    <row r="90" spans="1:4">
+      <c r="A90" s="11" t="s">
+        <v>102</v>
+      </c>
+      <c r="B90" s="12" t="s">
+        <v>455</v>
+      </c>
+      <c r="C90" s="11" t="s">
+        <v>191</v>
+      </c>
+      <c r="D90" s="12" t="s">
+        <v>456</v>
+      </c>
+    </row>
+    <row r="91" spans="1:4">
+      <c r="A91" s="11" t="s">
+        <v>105</v>
+      </c>
+      <c r="B91" s="12" t="s">
+        <v>195</v>
+      </c>
+      <c r="C91" s="11" t="s">
+        <v>132</v>
+      </c>
+      <c r="D91" s="12">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="92" spans="1:4">
+      <c r="A92" s="11" t="s">
+        <v>107</v>
+      </c>
+      <c r="B92" s="12" t="s">
+        <v>148</v>
+      </c>
+      <c r="C92" s="32" t="s">
+        <v>196</v>
+      </c>
+      <c r="D92" s="32"/>
+    </row>
+    <row r="93" spans="1:4" ht="36">
+      <c r="A93" s="11" t="s">
+        <v>109</v>
+      </c>
+      <c r="B93" s="12" t="s">
+        <v>197</v>
+      </c>
+      <c r="C93" s="11" t="s">
+        <v>198</v>
+      </c>
+      <c r="D93" s="12" t="s">
+        <v>199</v>
+      </c>
+    </row>
+    <row r="94" spans="1:4">
+      <c r="A94" s="11"/>
+      <c r="B94" s="11"/>
+      <c r="C94" s="11" t="s">
+        <v>200</v>
+      </c>
+      <c r="D94" s="12" t="s">
+        <v>457</v>
+      </c>
+    </row>
+    <row r="95" spans="1:4">
+      <c r="A95" s="11"/>
+      <c r="B95" s="11"/>
+      <c r="C95" s="11" t="s">
+        <v>139</v>
+      </c>
+      <c r="D95" s="12">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="96" spans="1:4">
+      <c r="A96" s="11"/>
+      <c r="B96" s="11"/>
+      <c r="C96" s="32" t="s">
+        <v>201</v>
+      </c>
+      <c r="D96" s="32"/>
+    </row>
+    <row r="97" spans="1:4">
+      <c r="A97" s="11"/>
+      <c r="B97" s="11"/>
+      <c r="C97" s="11" t="s">
+        <v>202</v>
+      </c>
+      <c r="D97" s="12" t="s">
+        <v>203</v>
+      </c>
+    </row>
+    <row r="98" spans="1:4">
+      <c r="A98" s="11"/>
+      <c r="B98" s="11"/>
+      <c r="C98" s="11" t="s">
         <v>24</v>
       </c>
-    </row>
-    <row r="14" spans="1:4">
-      <c r="A14" s="16" t="s">
-        <v>106</v>
-      </c>
-      <c r="B14" s="17" t="s">
+      <c r="D98" s="12" t="s">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="99" spans="1:4">
+      <c r="A99" s="11"/>
+      <c r="B99" s="11"/>
+      <c r="C99" s="11" t="s">
+        <v>151</v>
+      </c>
+      <c r="D99" s="12" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="100" spans="1:4">
+      <c r="A100" s="11"/>
+      <c r="B100" s="11"/>
+      <c r="C100" s="11" t="s">
+        <v>152</v>
+      </c>
+      <c r="D100" s="12" t="s">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="103" spans="1:4" ht="14" customHeight="1">
+      <c r="A103" s="35" t="s">
+        <v>204</v>
+      </c>
+      <c r="B103" s="35"/>
+      <c r="C103" s="32" t="s">
+        <v>229</v>
+      </c>
+      <c r="D103" s="32"/>
+    </row>
+    <row r="104" spans="1:4">
+      <c r="A104" s="11" t="s">
+        <v>99</v>
+      </c>
+      <c r="B104" s="12" t="s">
+        <v>205</v>
+      </c>
+      <c r="C104" s="11" t="s">
+        <v>202</v>
+      </c>
+      <c r="D104" s="12" t="s">
+        <v>230</v>
+      </c>
+    </row>
+    <row r="105" spans="1:4">
+      <c r="A105" s="11" t="s">
+        <v>102</v>
+      </c>
+      <c r="B105" s="12" t="s">
+        <v>455</v>
+      </c>
+      <c r="C105" s="33" t="s">
+        <v>231</v>
+      </c>
+      <c r="D105" s="34"/>
+    </row>
+    <row r="106" spans="1:4" ht="36">
+      <c r="A106" s="11" t="s">
+        <v>105</v>
+      </c>
+      <c r="B106" s="12" t="s">
+        <v>195</v>
+      </c>
+      <c r="C106" s="11" t="s">
+        <v>232</v>
+      </c>
+      <c r="D106" s="12" t="s">
+        <v>233</v>
+      </c>
+    </row>
+    <row r="107" spans="1:4" ht="36">
+      <c r="A107" s="11" t="s">
         <v>107</v>
       </c>
-      <c r="C14" s="16" t="s">
-        <v>117</v>
-      </c>
-      <c r="D14" s="17" t="s">
-        <v>118</v>
-      </c>
-    </row>
-    <row r="15" spans="1:4">
-      <c r="A15" s="16" t="s">
-        <v>108</v>
-      </c>
-      <c r="B15" s="17" t="s">
-        <v>119</v>
-      </c>
-    </row>
-    <row r="16" spans="1:4">
-      <c r="A16" s="16"/>
-      <c r="B16" s="16"/>
-    </row>
-    <row r="18" spans="1:4" ht="14" customHeight="1">
-      <c r="A18" s="39" t="s">
-        <v>120</v>
-      </c>
-      <c r="B18" s="40"/>
-      <c r="C18" s="39" t="s">
-        <v>97</v>
-      </c>
-      <c r="D18" s="40"/>
-    </row>
-    <row r="19" spans="1:4">
-      <c r="A19" s="16" t="s">
-        <v>98</v>
-      </c>
-      <c r="B19" s="17" t="s">
-        <v>121</v>
-      </c>
-      <c r="C19" s="16" t="s">
-        <v>22</v>
-      </c>
-      <c r="D19" s="17" t="s">
-        <v>122</v>
-      </c>
-    </row>
-    <row r="20" spans="1:4">
-      <c r="A20" s="16" t="s">
-        <v>101</v>
-      </c>
-      <c r="B20" s="17" t="s">
-        <v>454</v>
-      </c>
-      <c r="C20" s="18" t="s">
-        <v>123</v>
-      </c>
-      <c r="D20" s="19" t="s">
-        <v>454</v>
-      </c>
-    </row>
-    <row r="21" spans="1:4">
-      <c r="A21" s="16" t="s">
-        <v>104</v>
-      </c>
-      <c r="B21" s="17" t="s">
-        <v>124</v>
-      </c>
-      <c r="C21" s="18"/>
-      <c r="D21" s="19"/>
-    </row>
-    <row r="22" spans="1:4">
-      <c r="A22" s="16" t="s">
-        <v>106</v>
-      </c>
-      <c r="B22" s="17" t="s">
+      <c r="B107" s="12" t="s">
+        <v>148</v>
+      </c>
+      <c r="C107" s="11" t="s">
+        <v>234</v>
+      </c>
+      <c r="D107" s="12" t="s">
+        <v>235</v>
+      </c>
+    </row>
+    <row r="108" spans="1:4" ht="36">
+      <c r="A108" s="11" t="s">
+        <v>109</v>
+      </c>
+      <c r="B108" s="12" t="s">
+        <v>206</v>
+      </c>
+      <c r="C108" s="11" t="s">
+        <v>236</v>
+      </c>
+      <c r="D108" s="12" t="s">
+        <v>237</v>
+      </c>
+    </row>
+    <row r="109" spans="1:4">
+      <c r="A109" s="11"/>
+      <c r="B109" s="11"/>
+      <c r="C109" s="11" t="s">
+        <v>102</v>
+      </c>
+      <c r="D109" s="12" t="s">
+        <v>455</v>
+      </c>
+    </row>
+    <row r="110" spans="1:4">
+      <c r="A110" s="11"/>
+      <c r="B110" s="11"/>
+      <c r="C110" s="11" t="s">
+        <v>158</v>
+      </c>
+      <c r="D110" s="12" t="s">
+        <v>456</v>
+      </c>
+    </row>
+    <row r="111" spans="1:4">
+      <c r="A111" s="11"/>
+      <c r="B111" s="11"/>
+      <c r="C111" s="11" t="s">
+        <v>132</v>
+      </c>
+      <c r="D111" s="12">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="112" spans="1:4">
+      <c r="A112" s="11"/>
+      <c r="B112" s="11"/>
+      <c r="C112" s="11" t="s">
+        <v>200</v>
+      </c>
+      <c r="D112" s="12" t="s">
+        <v>457</v>
+      </c>
+    </row>
+    <row r="113" spans="1:4">
+      <c r="A113" s="11"/>
+      <c r="B113" s="11"/>
+      <c r="C113" s="11" t="s">
+        <v>24</v>
+      </c>
+      <c r="D113" s="12" t="s">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="114" spans="1:4">
+      <c r="A114" s="11"/>
+      <c r="B114" s="11"/>
+      <c r="C114" s="11" t="s">
+        <v>151</v>
+      </c>
+      <c r="D114" s="12" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="115" spans="1:4">
+      <c r="A115" s="11"/>
+      <c r="B115" s="11"/>
+      <c r="C115" s="11" t="s">
+        <v>152</v>
+      </c>
+      <c r="D115" s="12" t="s">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="118" spans="1:4">
+      <c r="A118" s="35" t="s">
+        <v>238</v>
+      </c>
+      <c r="B118" s="35"/>
+      <c r="C118" s="32" t="s">
+        <v>239</v>
+      </c>
+      <c r="D118" s="32"/>
+    </row>
+    <row r="119" spans="1:4">
+      <c r="A119" s="11" t="s">
+        <v>99</v>
+      </c>
+      <c r="B119" s="12" t="s">
+        <v>240</v>
+      </c>
+      <c r="C119" s="11" t="s">
+        <v>23</v>
+      </c>
+      <c r="D119" s="12" t="s">
+        <v>241</v>
+      </c>
+    </row>
+    <row r="120" spans="1:4">
+      <c r="A120" s="11" t="s">
+        <v>102</v>
+      </c>
+      <c r="B120" s="12" t="s">
+        <v>455</v>
+      </c>
+      <c r="C120" s="11" t="s">
+        <v>236</v>
+      </c>
+      <c r="D120" s="12" t="s">
+        <v>237</v>
+      </c>
+    </row>
+    <row r="121" spans="1:4">
+      <c r="A121" s="11" t="s">
+        <v>105</v>
+      </c>
+      <c r="B121" s="12" t="s">
+        <v>242</v>
+      </c>
+      <c r="C121" s="11" t="s">
+        <v>102</v>
+      </c>
+      <c r="D121" s="12" t="s">
+        <v>455</v>
+      </c>
+    </row>
+    <row r="122" spans="1:4">
+      <c r="A122" s="11" t="s">
         <v>107</v>
       </c>
-      <c r="C22" s="18"/>
-      <c r="D22" s="19"/>
-    </row>
-    <row r="23" spans="1:4">
-      <c r="A23" s="16" t="s">
-        <v>108</v>
-      </c>
-      <c r="B23" s="17" t="s">
-        <v>125</v>
-      </c>
-    </row>
-    <row r="24" spans="1:4">
-      <c r="A24" s="16"/>
-      <c r="B24" s="16"/>
-    </row>
-    <row r="26" spans="1:4" ht="14" customHeight="1">
-      <c r="A26" s="39" t="s">
-        <v>126</v>
-      </c>
-      <c r="B26" s="40"/>
-      <c r="C26" s="39" t="s">
-        <v>97</v>
-      </c>
-      <c r="D26" s="40"/>
-    </row>
-    <row r="27" spans="1:4">
-      <c r="A27" s="16" t="s">
-        <v>98</v>
-      </c>
-      <c r="B27" s="17" t="s">
-        <v>127</v>
-      </c>
-      <c r="C27" s="16" t="s">
-        <v>22</v>
-      </c>
-      <c r="D27" s="17" t="s">
-        <v>128</v>
-      </c>
-    </row>
-    <row r="28" spans="1:4">
-      <c r="A28" s="16" t="s">
-        <v>101</v>
-      </c>
-      <c r="B28" s="17" t="s">
-        <v>454</v>
-      </c>
-      <c r="C28" s="16" t="s">
-        <v>129</v>
-      </c>
-      <c r="D28" s="17" t="s">
+      <c r="B122" s="12" t="s">
+        <v>148</v>
+      </c>
+      <c r="C122" s="11" t="s">
+        <v>158</v>
+      </c>
+      <c r="D122" s="12" t="s">
+        <v>456</v>
+      </c>
+    </row>
+    <row r="123" spans="1:4">
+      <c r="A123" s="11" t="s">
+        <v>109</v>
+      </c>
+      <c r="B123" s="12" t="s">
+        <v>243</v>
+      </c>
+      <c r="C123" s="11" t="s">
+        <v>132</v>
+      </c>
+      <c r="D123" s="12">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="124" spans="1:4">
+      <c r="A124" s="11"/>
+      <c r="B124" s="11"/>
+      <c r="C124" s="11" t="s">
+        <v>200</v>
+      </c>
+      <c r="D124" s="12" t="s">
+        <v>457</v>
+      </c>
+    </row>
+    <row r="125" spans="1:4">
+      <c r="A125" s="36" t="s">
+        <v>244</v>
+      </c>
+      <c r="B125" s="34"/>
+      <c r="C125" s="11" t="s">
+        <v>24</v>
+      </c>
+      <c r="D125" s="12" t="s">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="126" spans="1:4">
+      <c r="A126" s="11" t="s">
+        <v>245</v>
+      </c>
+      <c r="B126" s="11" t="s">
+        <v>246</v>
+      </c>
+      <c r="C126" s="11" t="s">
+        <v>151</v>
+      </c>
+      <c r="D126" s="12" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="127" spans="1:4">
+      <c r="A127" s="11" t="s">
+        <v>23</v>
+      </c>
+      <c r="B127" s="11" t="s">
+        <v>247</v>
+      </c>
+      <c r="C127" s="11" t="s">
+        <v>152</v>
+      </c>
+      <c r="D127" s="12" t="s">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="128" spans="1:4" ht="36">
+      <c r="A128" s="11" t="s">
+        <v>109</v>
+      </c>
+      <c r="B128" s="11" t="s">
+        <v>248</v>
+      </c>
+      <c r="C128" s="11"/>
+      <c r="D128" s="12"/>
+    </row>
+    <row r="131" spans="1:4">
+      <c r="A131" s="35" t="s">
+        <v>249</v>
+      </c>
+      <c r="B131" s="35"/>
+      <c r="C131" s="32" t="s">
+        <v>250</v>
+      </c>
+      <c r="D131" s="32"/>
+    </row>
+    <row r="132" spans="1:4">
+      <c r="A132" s="11" t="s">
+        <v>99</v>
+      </c>
+      <c r="B132" s="12" t="s">
+        <v>251</v>
+      </c>
+      <c r="C132" s="11" t="s">
+        <v>236</v>
+      </c>
+      <c r="D132" s="12" t="s">
+        <v>237</v>
+      </c>
+    </row>
+    <row r="133" spans="1:4">
+      <c r="A133" s="11" t="s">
+        <v>102</v>
+      </c>
+      <c r="B133" s="12" t="s">
         <v>455</v>
       </c>
-    </row>
-    <row r="29" spans="1:4">
-      <c r="A29" s="16" t="s">
-        <v>104</v>
-      </c>
-      <c r="B29" s="17" t="s">
-        <v>130</v>
-      </c>
-      <c r="C29" s="16" t="s">
-        <v>131</v>
-      </c>
-      <c r="D29" s="17">
-        <v>300</v>
-      </c>
-    </row>
-    <row r="30" spans="1:4">
-      <c r="A30" s="16" t="s">
-        <v>106</v>
-      </c>
-      <c r="B30" s="17" t="s">
+      <c r="C133" s="11" t="s">
+        <v>102</v>
+      </c>
+      <c r="D133" s="12" t="s">
+        <v>455</v>
+      </c>
+    </row>
+    <row r="134" spans="1:4">
+      <c r="A134" s="11" t="s">
+        <v>105</v>
+      </c>
+      <c r="B134" s="12" t="s">
+        <v>252</v>
+      </c>
+      <c r="C134" s="11" t="s">
+        <v>158</v>
+      </c>
+      <c r="D134" s="12" t="s">
+        <v>456</v>
+      </c>
+    </row>
+    <row r="135" spans="1:4">
+      <c r="A135" s="11" t="s">
         <v>107</v>
       </c>
-      <c r="C30" s="16"/>
-      <c r="D30" s="17"/>
-    </row>
-    <row r="31" spans="1:4">
-      <c r="A31" s="16" t="s">
-        <v>108</v>
-      </c>
-      <c r="B31" s="17" t="s">
+      <c r="B135" s="12" t="s">
+        <v>148</v>
+      </c>
+      <c r="C135" s="11" t="s">
         <v>132</v>
       </c>
-    </row>
-    <row r="32" spans="1:4">
-      <c r="A32" s="16"/>
-      <c r="B32" s="16"/>
-    </row>
-    <row r="34" spans="1:4" ht="14" customHeight="1">
-      <c r="A34" s="39" t="s">
-        <v>133</v>
-      </c>
-      <c r="B34" s="40"/>
-      <c r="C34" s="39" t="s">
-        <v>97</v>
-      </c>
-      <c r="D34" s="40"/>
-    </row>
-    <row r="35" spans="1:4">
-      <c r="A35" s="16" t="s">
-        <v>98</v>
-      </c>
-      <c r="B35" s="17" t="s">
-        <v>134</v>
-      </c>
-      <c r="C35" s="16" t="s">
-        <v>22</v>
-      </c>
-      <c r="D35" s="17" t="s">
-        <v>135</v>
-      </c>
-    </row>
-    <row r="36" spans="1:4">
-      <c r="A36" s="16" t="s">
-        <v>101</v>
-      </c>
-      <c r="B36" s="17" t="s">
-        <v>454</v>
-      </c>
-      <c r="C36" s="16" t="s">
-        <v>136</v>
-      </c>
-      <c r="D36" s="17" t="s">
+      <c r="D135" s="12">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="136" spans="1:4">
+      <c r="A136" s="11" t="s">
+        <v>109</v>
+      </c>
+      <c r="B136" s="12" t="s">
+        <v>253</v>
+      </c>
+      <c r="C136" s="11" t="s">
+        <v>200</v>
+      </c>
+      <c r="D136" s="12" t="s">
+        <v>457</v>
+      </c>
+    </row>
+    <row r="137" spans="1:4">
+      <c r="A137" s="11"/>
+      <c r="B137" s="11"/>
+      <c r="C137" s="11" t="s">
+        <v>24</v>
+      </c>
+      <c r="D137" s="12" t="s">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="138" spans="1:4" ht="36">
+      <c r="A138" s="15" t="s">
+        <v>254</v>
+      </c>
+      <c r="B138" s="12" t="s">
+        <v>255</v>
+      </c>
+      <c r="C138" s="11" t="s">
+        <v>151</v>
+      </c>
+      <c r="D138" s="12" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="139" spans="1:4" ht="54">
+      <c r="A139" s="15" t="s">
+        <v>256</v>
+      </c>
+      <c r="B139" s="12" t="s">
+        <v>257</v>
+      </c>
+      <c r="C139" s="11" t="s">
+        <v>152</v>
+      </c>
+      <c r="D139" s="12" t="s">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="140" spans="1:4" ht="54">
+      <c r="A140" s="15" t="s">
+        <v>258</v>
+      </c>
+      <c r="B140" s="12" t="s">
+        <v>259</v>
+      </c>
+      <c r="C140" s="11"/>
+      <c r="D140" s="11"/>
+    </row>
+    <row r="141" spans="1:4" ht="54">
+      <c r="A141" s="15" t="s">
+        <v>260</v>
+      </c>
+      <c r="B141" s="12" t="s">
+        <v>261</v>
+      </c>
+      <c r="C141" s="11"/>
+      <c r="D141" s="11"/>
+    </row>
+    <row r="144" spans="1:4">
+      <c r="A144" s="35" t="s">
+        <v>262</v>
+      </c>
+      <c r="B144" s="35"/>
+      <c r="C144" s="32" t="s">
+        <v>250</v>
+      </c>
+      <c r="D144" s="32"/>
+    </row>
+    <row r="145" spans="1:4">
+      <c r="A145" s="11" t="s">
+        <v>99</v>
+      </c>
+      <c r="B145" s="12" t="s">
+        <v>263</v>
+      </c>
+      <c r="C145" s="11" t="s">
+        <v>236</v>
+      </c>
+      <c r="D145" s="12" t="s">
+        <v>237</v>
+      </c>
+    </row>
+    <row r="146" spans="1:4">
+      <c r="A146" s="11" t="s">
+        <v>102</v>
+      </c>
+      <c r="B146" s="12" t="s">
+        <v>455</v>
+      </c>
+      <c r="C146" s="11" t="s">
+        <v>102</v>
+      </c>
+      <c r="D146" s="12" t="s">
+        <v>455</v>
+      </c>
+    </row>
+    <row r="147" spans="1:4">
+      <c r="A147" s="11" t="s">
+        <v>105</v>
+      </c>
+      <c r="B147" s="12" t="s">
+        <v>252</v>
+      </c>
+      <c r="C147" s="11" t="s">
+        <v>158</v>
+      </c>
+      <c r="D147" s="12" t="s">
         <v>456</v>
       </c>
     </row>
-    <row r="37" spans="1:4">
-      <c r="A37" s="16" t="s">
-        <v>104</v>
-      </c>
-      <c r="B37" s="17" t="s">
-        <v>137</v>
-      </c>
-      <c r="C37" s="16" t="s">
-        <v>138</v>
-      </c>
-      <c r="D37" s="17">
+    <row r="148" spans="1:4">
+      <c r="A148" s="11" t="s">
+        <v>107</v>
+      </c>
+      <c r="B148" s="12" t="s">
+        <v>148</v>
+      </c>
+      <c r="C148" s="11" t="s">
+        <v>132</v>
+      </c>
+      <c r="D148" s="12">
         <v>200</v>
       </c>
     </row>
-    <row r="38" spans="1:4">
-      <c r="A38" s="16" t="s">
-        <v>106</v>
-      </c>
-      <c r="B38" s="17" t="s">
+    <row r="149" spans="1:4" ht="36">
+      <c r="A149" s="11" t="s">
+        <v>109</v>
+      </c>
+      <c r="B149" s="12" t="s">
+        <v>264</v>
+      </c>
+      <c r="C149" s="11" t="s">
+        <v>24</v>
+      </c>
+      <c r="D149" s="12" t="s">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="150" spans="1:4">
+      <c r="A150" s="11"/>
+      <c r="B150" s="11"/>
+      <c r="C150" s="11" t="s">
+        <v>151</v>
+      </c>
+      <c r="D150" s="12" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="151" spans="1:4" ht="54">
+      <c r="A151" s="15" t="s">
+        <v>265</v>
+      </c>
+      <c r="B151" s="12" t="s">
+        <v>266</v>
+      </c>
+      <c r="C151" s="11" t="s">
+        <v>152</v>
+      </c>
+      <c r="D151" s="12" t="s">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="152" spans="1:4" ht="36">
+      <c r="A152" s="15" t="s">
+        <v>267</v>
+      </c>
+      <c r="B152" s="12" t="s">
+        <v>268</v>
+      </c>
+      <c r="C152" s="11"/>
+      <c r="D152" s="11"/>
+    </row>
+    <row r="153" spans="1:4" ht="36">
+      <c r="A153" s="15" t="s">
+        <v>269</v>
+      </c>
+      <c r="B153" s="12" t="s">
+        <v>270</v>
+      </c>
+      <c r="C153" s="11"/>
+      <c r="D153" s="11"/>
+    </row>
+    <row r="154" spans="1:4" ht="36">
+      <c r="A154" s="15" t="s">
+        <v>271</v>
+      </c>
+      <c r="B154" s="12" t="s">
+        <v>272</v>
+      </c>
+      <c r="C154" s="11"/>
+      <c r="D154" s="11"/>
+    </row>
+    <row r="157" spans="1:4">
+      <c r="A157" s="35" t="s">
+        <v>273</v>
+      </c>
+      <c r="B157" s="35"/>
+      <c r="C157" s="32" t="s">
+        <v>250</v>
+      </c>
+      <c r="D157" s="32"/>
+    </row>
+    <row r="158" spans="1:4">
+      <c r="A158" s="11" t="s">
+        <v>99</v>
+      </c>
+      <c r="B158" s="12" t="s">
+        <v>274</v>
+      </c>
+      <c r="C158" s="11" t="s">
+        <v>236</v>
+      </c>
+      <c r="D158" s="12" t="s">
+        <v>275</v>
+      </c>
+    </row>
+    <row r="159" spans="1:4">
+      <c r="A159" s="11" t="s">
+        <v>102</v>
+      </c>
+      <c r="B159" s="12" t="s">
+        <v>455</v>
+      </c>
+      <c r="C159" s="11" t="s">
+        <v>102</v>
+      </c>
+      <c r="D159" s="12" t="s">
+        <v>455</v>
+      </c>
+    </row>
+    <row r="160" spans="1:4">
+      <c r="A160" s="11" t="s">
+        <v>105</v>
+      </c>
+      <c r="B160" s="12" t="s">
+        <v>252</v>
+      </c>
+      <c r="C160" s="11" t="s">
+        <v>158</v>
+      </c>
+      <c r="D160" s="12" t="s">
+        <v>456</v>
+      </c>
+    </row>
+    <row r="161" spans="1:4">
+      <c r="A161" s="11" t="s">
         <v>107</v>
       </c>
-      <c r="C38" s="16"/>
-      <c r="D38" s="17"/>
-    </row>
-    <row r="39" spans="1:4" ht="36">
-      <c r="A39" s="16" t="s">
-        <v>108</v>
-      </c>
-      <c r="B39" s="17" t="s">
-        <v>139</v>
-      </c>
-    </row>
-    <row r="40" spans="1:4">
-      <c r="A40" s="16"/>
-      <c r="B40" s="16"/>
-    </row>
-    <row r="43" spans="1:4" ht="14" customHeight="1">
-      <c r="A43" s="39" t="s">
-        <v>140</v>
-      </c>
-      <c r="B43" s="40"/>
-      <c r="C43" s="39" t="s">
-        <v>97</v>
-      </c>
-      <c r="D43" s="40"/>
-    </row>
-    <row r="44" spans="1:4">
-      <c r="A44" s="16" t="s">
-        <v>98</v>
-      </c>
-      <c r="B44" s="17" t="s">
-        <v>141</v>
-      </c>
-      <c r="C44" s="16" t="s">
-        <v>22</v>
-      </c>
-      <c r="D44" s="17" t="s">
-        <v>142</v>
-      </c>
-    </row>
-    <row r="45" spans="1:4">
-      <c r="A45" s="16" t="s">
-        <v>101</v>
-      </c>
-      <c r="B45" s="17" t="s">
-        <v>454</v>
-      </c>
-      <c r="C45" s="16" t="s">
-        <v>143</v>
-      </c>
-      <c r="D45" s="17" t="s">
-        <v>144</v>
-      </c>
-    </row>
-    <row r="46" spans="1:4">
-      <c r="A46" s="16" t="s">
-        <v>104</v>
-      </c>
-      <c r="B46" s="17" t="s">
-        <v>145</v>
-      </c>
-      <c r="C46" s="16" t="s">
-        <v>146</v>
-      </c>
-      <c r="D46" s="17" t="s">
-        <v>454</v>
-      </c>
-    </row>
-    <row r="47" spans="1:4">
-      <c r="A47" s="16" t="s">
-        <v>106</v>
-      </c>
-      <c r="B47" s="17" t="s">
-        <v>147</v>
-      </c>
-      <c r="C47" s="16" t="s">
-        <v>23</v>
-      </c>
-      <c r="D47" s="17" t="s">
+      <c r="B161" s="12" t="s">
         <v>148</v>
       </c>
-    </row>
-    <row r="48" spans="1:4" ht="36">
-      <c r="A48" s="16" t="s">
-        <v>108</v>
-      </c>
-      <c r="B48" s="17" t="s">
+      <c r="C161" s="11" t="s">
+        <v>132</v>
+      </c>
+      <c r="D161" s="12">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="162" spans="1:4" ht="36">
+      <c r="A162" s="11" t="s">
+        <v>109</v>
+      </c>
+      <c r="B162" s="12" t="s">
+        <v>276</v>
+      </c>
+      <c r="C162" s="11" t="s">
+        <v>277</v>
+      </c>
+      <c r="D162" s="12" t="s">
+        <v>457</v>
+      </c>
+    </row>
+    <row r="163" spans="1:4">
+      <c r="A163" s="11"/>
+      <c r="B163" s="11"/>
+      <c r="C163" s="11" t="s">
+        <v>278</v>
+      </c>
+      <c r="D163" s="12">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="164" spans="1:4" ht="54">
+      <c r="A164" s="15" t="s">
+        <v>265</v>
+      </c>
+      <c r="B164" s="12" t="s">
+        <v>279</v>
+      </c>
+      <c r="C164" s="11" t="s">
+        <v>24</v>
+      </c>
+      <c r="D164" s="12" t="s">
         <v>149</v>
       </c>
-      <c r="C48" s="16" t="s">
-        <v>150</v>
-      </c>
-      <c r="D48" s="17" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="49" spans="1:5">
-      <c r="A49" s="16"/>
-      <c r="B49" s="16"/>
-      <c r="C49" s="16" t="s">
+    </row>
+    <row r="165" spans="1:4" ht="36">
+      <c r="A165" s="15" t="s">
+        <v>267</v>
+      </c>
+      <c r="B165" s="12" t="s">
+        <v>280</v>
+      </c>
+      <c r="C165" s="11" t="s">
         <v>151</v>
       </c>
-      <c r="D49" s="17" t="s">
+      <c r="D165" s="12" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="166" spans="1:4" ht="36">
+      <c r="A166" s="15" t="s">
+        <v>269</v>
+      </c>
+      <c r="B166" s="12" t="s">
+        <v>281</v>
+      </c>
+      <c r="C166" s="11" t="s">
         <v>152</v>
       </c>
-    </row>
-    <row r="52" spans="1:5" ht="14" customHeight="1">
-      <c r="A52" s="39" t="s">
+      <c r="D166" s="12" t="s">
         <v>153</v>
       </c>
-      <c r="B52" s="40"/>
-      <c r="C52" s="39" t="s">
-        <v>97</v>
-      </c>
-      <c r="D52" s="40"/>
-      <c r="E52" s="16"/>
-    </row>
-    <row r="53" spans="1:5" ht="54">
-      <c r="A53" s="16" t="s">
-        <v>98</v>
-      </c>
-      <c r="B53" s="17" t="s">
-        <v>154</v>
-      </c>
-      <c r="C53" s="16" t="s">
-        <v>22</v>
-      </c>
-      <c r="D53" s="17" t="s">
-        <v>155</v>
-      </c>
-      <c r="E53" s="16" t="s">
-        <v>156</v>
-      </c>
-    </row>
-    <row r="54" spans="1:5">
-      <c r="A54" s="16" t="s">
-        <v>101</v>
-      </c>
-      <c r="B54" s="17" t="s">
-        <v>454</v>
-      </c>
-      <c r="C54" s="16" t="s">
-        <v>157</v>
-      </c>
-      <c r="D54" s="17" t="s">
-        <v>455</v>
-      </c>
-      <c r="E54" s="17">
-        <v>200</v>
-      </c>
-    </row>
-    <row r="55" spans="1:5">
-      <c r="A55" s="16" t="s">
-        <v>104</v>
-      </c>
-      <c r="B55" s="17" t="s">
-        <v>158</v>
-      </c>
-      <c r="C55" s="16" t="s">
-        <v>159</v>
-      </c>
-      <c r="D55" s="17" t="s">
-        <v>456</v>
-      </c>
-      <c r="E55" s="16"/>
-    </row>
-    <row r="56" spans="1:5">
-      <c r="A56" s="16" t="s">
-        <v>106</v>
-      </c>
-      <c r="B56" s="17" t="s">
-        <v>147</v>
-      </c>
-      <c r="C56" s="16" t="s">
-        <v>23</v>
-      </c>
-      <c r="D56" s="17" t="s">
-        <v>148</v>
-      </c>
-      <c r="E56" s="16"/>
-    </row>
-    <row r="57" spans="1:5" ht="36">
-      <c r="A57" s="16" t="s">
-        <v>108</v>
-      </c>
-      <c r="B57" s="17" t="s">
-        <v>160</v>
-      </c>
-      <c r="C57" s="16" t="s">
-        <v>150</v>
-      </c>
-      <c r="D57" s="17" t="s">
-        <v>24</v>
-      </c>
-      <c r="E57" s="16"/>
-    </row>
-    <row r="58" spans="1:5">
-      <c r="A58" s="16"/>
-      <c r="B58" s="16"/>
-      <c r="C58" s="16" t="s">
-        <v>151</v>
-      </c>
-      <c r="D58" s="17" t="s">
-        <v>152</v>
-      </c>
-      <c r="E58" s="16"/>
-    </row>
-    <row r="60" spans="1:5" ht="14" customHeight="1">
-      <c r="A60" s="39" t="s">
-        <v>161</v>
-      </c>
-      <c r="B60" s="40"/>
-      <c r="C60" s="39" t="s">
-        <v>97</v>
-      </c>
-      <c r="D60" s="40"/>
-    </row>
-    <row r="61" spans="1:5">
-      <c r="A61" s="16" t="s">
-        <v>98</v>
-      </c>
-      <c r="B61" s="17" t="s">
-        <v>162</v>
-      </c>
-      <c r="C61" s="16" t="s">
-        <v>22</v>
-      </c>
-      <c r="D61" s="17" t="s">
-        <v>163</v>
-      </c>
-    </row>
-    <row r="62" spans="1:5">
-      <c r="A62" s="16" t="s">
-        <v>101</v>
-      </c>
-      <c r="B62" s="17" t="s">
-        <v>454</v>
-      </c>
-      <c r="C62" s="16" t="s">
-        <v>164</v>
-      </c>
-      <c r="D62" s="17" t="s">
-        <v>165</v>
-      </c>
-    </row>
-    <row r="63" spans="1:5">
-      <c r="A63" s="16" t="s">
-        <v>104</v>
-      </c>
-      <c r="B63" s="17" t="s">
-        <v>166</v>
-      </c>
-      <c r="C63" s="16" t="s">
-        <v>157</v>
-      </c>
-      <c r="D63" s="17" t="s">
-        <v>455</v>
-      </c>
-    </row>
-    <row r="64" spans="1:5">
-      <c r="A64" s="16" t="s">
-        <v>106</v>
-      </c>
-      <c r="B64" s="17" t="s">
-        <v>147</v>
-      </c>
-      <c r="C64" s="16" t="s">
-        <v>23</v>
-      </c>
-      <c r="D64" s="17" t="s">
-        <v>148</v>
-      </c>
-    </row>
-    <row r="65" spans="1:4" ht="36">
-      <c r="A65" s="16" t="s">
-        <v>108</v>
-      </c>
-      <c r="B65" s="17" t="s">
-        <v>167</v>
-      </c>
-      <c r="C65" s="16" t="s">
-        <v>150</v>
-      </c>
-      <c r="D65" s="17" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="66" spans="1:4">
-      <c r="A66" s="16"/>
-      <c r="B66" s="16"/>
-      <c r="C66" s="16" t="s">
-        <v>151</v>
-      </c>
-      <c r="D66" s="17" t="s">
-        <v>152</v>
-      </c>
-    </row>
-    <row r="67" spans="1:4">
-      <c r="A67" s="16"/>
-      <c r="B67" s="16"/>
-      <c r="C67" s="16" t="s">
-        <v>131</v>
-      </c>
-      <c r="D67" s="17">
-        <v>200</v>
-      </c>
-    </row>
-    <row r="70" spans="1:4" ht="14" customHeight="1">
-      <c r="A70" s="43" t="s">
-        <v>168</v>
-      </c>
-      <c r="B70" s="44"/>
-      <c r="C70" s="39" t="s">
-        <v>169</v>
-      </c>
-      <c r="D70" s="40"/>
-    </row>
-    <row r="71" spans="1:4">
-      <c r="A71" s="16" t="s">
-        <v>98</v>
-      </c>
-      <c r="B71" s="17" t="s">
-        <v>170</v>
-      </c>
-      <c r="C71" s="16" t="s">
-        <v>171</v>
-      </c>
-      <c r="D71" s="17" t="s">
-        <v>172</v>
-      </c>
-    </row>
-    <row r="72" spans="1:4">
-      <c r="A72" s="16" t="s">
-        <v>101</v>
-      </c>
-      <c r="B72" s="17" t="s">
-        <v>454</v>
-      </c>
-      <c r="C72" s="16" t="s">
-        <v>102</v>
-      </c>
-      <c r="D72" s="17" t="s">
-        <v>173</v>
-      </c>
-    </row>
-    <row r="73" spans="1:4">
-      <c r="A73" s="16" t="s">
-        <v>104</v>
-      </c>
-      <c r="B73" s="17" t="s">
-        <v>174</v>
-      </c>
-      <c r="C73" s="39" t="s">
-        <v>175</v>
-      </c>
-      <c r="D73" s="40"/>
-    </row>
-    <row r="74" spans="1:4">
-      <c r="A74" s="16" t="s">
-        <v>106</v>
-      </c>
-      <c r="B74" s="17" t="s">
-        <v>147</v>
-      </c>
-      <c r="C74" s="16" t="s">
-        <v>176</v>
-      </c>
-      <c r="D74" s="17" t="s">
-        <v>177</v>
-      </c>
-    </row>
-    <row r="75" spans="1:4" ht="36">
-      <c r="A75" s="16" t="s">
-        <v>108</v>
-      </c>
-      <c r="B75" s="17" t="s">
-        <v>178</v>
-      </c>
-      <c r="C75" s="16" t="s">
-        <v>179</v>
-      </c>
-      <c r="D75" s="17" t="s">
-        <v>454</v>
-      </c>
-    </row>
-    <row r="76" spans="1:4">
-      <c r="A76" s="16"/>
-      <c r="B76" s="16"/>
-      <c r="C76" s="16"/>
-      <c r="D76" s="16"/>
-    </row>
-    <row r="77" spans="1:4">
-      <c r="A77" s="16"/>
-      <c r="B77" s="16"/>
-      <c r="C77" s="16"/>
-      <c r="D77" s="16"/>
-    </row>
-    <row r="79" spans="1:4" ht="14" customHeight="1">
-      <c r="A79" s="43" t="s">
-        <v>180</v>
-      </c>
-      <c r="B79" s="44"/>
-      <c r="C79" s="39" t="s">
-        <v>181</v>
-      </c>
-      <c r="D79" s="40"/>
-    </row>
-    <row r="80" spans="1:4">
-      <c r="A80" s="16" t="s">
-        <v>98</v>
-      </c>
-      <c r="B80" s="17" t="s">
-        <v>182</v>
-      </c>
-      <c r="C80" s="16" t="s">
-        <v>183</v>
-      </c>
-      <c r="D80" s="17" t="s">
-        <v>184</v>
-      </c>
-    </row>
-    <row r="81" spans="1:4">
-      <c r="A81" s="16" t="s">
-        <v>101</v>
-      </c>
-      <c r="B81" s="17" t="s">
-        <v>454</v>
-      </c>
-      <c r="C81" s="16" t="s">
-        <v>101</v>
-      </c>
-      <c r="D81" s="17" t="s">
-        <v>454</v>
-      </c>
-    </row>
-    <row r="82" spans="1:4">
-      <c r="A82" s="16" t="s">
-        <v>104</v>
-      </c>
-      <c r="B82" s="17" t="s">
-        <v>185</v>
-      </c>
-      <c r="C82" s="39" t="s">
-        <v>186</v>
-      </c>
-      <c r="D82" s="40"/>
-    </row>
-    <row r="83" spans="1:4">
-      <c r="A83" s="16" t="s">
-        <v>106</v>
-      </c>
-      <c r="B83" s="17" t="s">
-        <v>147</v>
-      </c>
-      <c r="C83" s="16" t="s">
-        <v>187</v>
-      </c>
-      <c r="D83" s="17" t="s">
-        <v>188</v>
-      </c>
-    </row>
-    <row r="84" spans="1:4" ht="36">
-      <c r="A84" s="16" t="s">
-        <v>108</v>
-      </c>
-      <c r="B84" s="17" t="s">
-        <v>189</v>
-      </c>
-      <c r="C84" s="16" t="s">
-        <v>190</v>
-      </c>
-      <c r="D84" s="17" t="s">
-        <v>455</v>
-      </c>
-    </row>
-    <row r="85" spans="1:4">
-      <c r="A85" s="16"/>
-      <c r="B85" s="16"/>
-      <c r="C85" s="16" t="s">
-        <v>131</v>
-      </c>
-      <c r="D85" s="17">
-        <v>200</v>
-      </c>
-    </row>
-    <row r="88" spans="1:4" ht="14" customHeight="1">
-      <c r="A88" s="41" t="s">
-        <v>191</v>
-      </c>
-      <c r="B88" s="41"/>
-      <c r="C88" s="38" t="s">
-        <v>186</v>
-      </c>
-      <c r="D88" s="38"/>
-    </row>
-    <row r="89" spans="1:4">
-      <c r="A89" s="16" t="s">
-        <v>98</v>
-      </c>
-      <c r="B89" s="17" t="s">
-        <v>192</v>
-      </c>
-      <c r="C89" s="16" t="s">
-        <v>187</v>
-      </c>
-      <c r="D89" s="17" t="s">
-        <v>193</v>
-      </c>
-    </row>
-    <row r="90" spans="1:4">
-      <c r="A90" s="16" t="s">
-        <v>101</v>
-      </c>
-      <c r="B90" s="17" t="s">
-        <v>454</v>
-      </c>
-      <c r="C90" s="16" t="s">
-        <v>190</v>
-      </c>
-      <c r="D90" s="17" t="s">
-        <v>455</v>
-      </c>
-    </row>
-    <row r="91" spans="1:4">
-      <c r="A91" s="16" t="s">
-        <v>104</v>
-      </c>
-      <c r="B91" s="17" t="s">
-        <v>194</v>
-      </c>
-      <c r="C91" s="16" t="s">
-        <v>131</v>
-      </c>
-      <c r="D91" s="17">
-        <v>200</v>
-      </c>
-    </row>
-    <row r="92" spans="1:4">
-      <c r="A92" s="16" t="s">
-        <v>106</v>
-      </c>
-      <c r="B92" s="17" t="s">
-        <v>147</v>
-      </c>
-      <c r="C92" s="38" t="s">
-        <v>195</v>
-      </c>
-      <c r="D92" s="38"/>
-    </row>
-    <row r="93" spans="1:4" ht="36">
-      <c r="A93" s="16" t="s">
-        <v>108</v>
-      </c>
-      <c r="B93" s="17" t="s">
-        <v>196</v>
-      </c>
-      <c r="C93" s="16" t="s">
-        <v>197</v>
-      </c>
-      <c r="D93" s="17" t="s">
-        <v>198</v>
-      </c>
-    </row>
-    <row r="94" spans="1:4">
-      <c r="A94" s="16"/>
-      <c r="B94" s="16"/>
-      <c r="C94" s="16" t="s">
-        <v>199</v>
-      </c>
-      <c r="D94" s="17" t="s">
-        <v>456</v>
-      </c>
-    </row>
-    <row r="95" spans="1:4">
-      <c r="A95" s="16"/>
-      <c r="B95" s="16"/>
-      <c r="C95" s="16" t="s">
-        <v>138</v>
-      </c>
-      <c r="D95" s="17">
-        <v>200</v>
-      </c>
-    </row>
-    <row r="96" spans="1:4">
-      <c r="A96" s="16"/>
-      <c r="B96" s="16"/>
-      <c r="C96" s="38" t="s">
-        <v>200</v>
-      </c>
-      <c r="D96" s="38"/>
-    </row>
-    <row r="97" spans="1:4">
-      <c r="A97" s="16"/>
-      <c r="B97" s="16"/>
-      <c r="C97" s="16" t="s">
-        <v>201</v>
-      </c>
-      <c r="D97" s="17" t="s">
-        <v>202</v>
-      </c>
-    </row>
-    <row r="98" spans="1:4">
-      <c r="A98" s="16"/>
-      <c r="B98" s="16"/>
-      <c r="C98" s="16" t="s">
-        <v>23</v>
-      </c>
-      <c r="D98" s="17" t="s">
-        <v>148</v>
-      </c>
-    </row>
-    <row r="99" spans="1:4">
-      <c r="A99" s="16"/>
-      <c r="B99" s="16"/>
-      <c r="C99" s="16" t="s">
-        <v>150</v>
-      </c>
-      <c r="D99" s="17" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="100" spans="1:4">
-      <c r="A100" s="16"/>
-      <c r="B100" s="16"/>
-      <c r="C100" s="16" t="s">
-        <v>151</v>
-      </c>
-      <c r="D100" s="17" t="s">
-        <v>152</v>
-      </c>
-    </row>
-    <row r="103" spans="1:4" ht="14" customHeight="1">
-      <c r="A103" s="41" t="s">
-        <v>203</v>
-      </c>
-      <c r="B103" s="41"/>
-      <c r="C103" s="38" t="s">
-        <v>228</v>
-      </c>
-      <c r="D103" s="38"/>
-    </row>
-    <row r="104" spans="1:4">
-      <c r="A104" s="16" t="s">
-        <v>98</v>
-      </c>
-      <c r="B104" s="17" t="s">
-        <v>204</v>
-      </c>
-      <c r="C104" s="16" t="s">
-        <v>201</v>
-      </c>
-      <c r="D104" s="17" t="s">
-        <v>229</v>
-      </c>
-    </row>
-    <row r="105" spans="1:4">
-      <c r="A105" s="16" t="s">
-        <v>101</v>
-      </c>
-      <c r="B105" s="17" t="s">
-        <v>454</v>
-      </c>
-      <c r="C105" s="39" t="s">
-        <v>230</v>
-      </c>
-      <c r="D105" s="40"/>
-    </row>
-    <row r="106" spans="1:4" ht="36">
-      <c r="A106" s="16" t="s">
-        <v>104</v>
-      </c>
-      <c r="B106" s="17" t="s">
-        <v>194</v>
-      </c>
-      <c r="C106" s="16" t="s">
-        <v>231</v>
-      </c>
-      <c r="D106" s="17" t="s">
-        <v>232</v>
-      </c>
-    </row>
-    <row r="107" spans="1:4" ht="36">
-      <c r="A107" s="16" t="s">
-        <v>106</v>
-      </c>
-      <c r="B107" s="17" t="s">
-        <v>147</v>
-      </c>
-      <c r="C107" s="16" t="s">
-        <v>233</v>
-      </c>
-      <c r="D107" s="17" t="s">
-        <v>234</v>
-      </c>
-    </row>
-    <row r="108" spans="1:4" ht="36">
-      <c r="A108" s="16" t="s">
-        <v>108</v>
-      </c>
-      <c r="B108" s="17" t="s">
-        <v>205</v>
-      </c>
-      <c r="C108" s="16" t="s">
-        <v>235</v>
-      </c>
-      <c r="D108" s="17" t="s">
-        <v>236</v>
-      </c>
-    </row>
-    <row r="109" spans="1:4">
-      <c r="A109" s="16"/>
-      <c r="B109" s="16"/>
-      <c r="C109" s="16" t="s">
-        <v>101</v>
-      </c>
-      <c r="D109" s="17" t="s">
-        <v>454</v>
-      </c>
-    </row>
-    <row r="110" spans="1:4">
-      <c r="A110" s="16"/>
-      <c r="B110" s="16"/>
-      <c r="C110" s="16" t="s">
-        <v>157</v>
-      </c>
-      <c r="D110" s="17" t="s">
-        <v>455</v>
-      </c>
-    </row>
-    <row r="111" spans="1:4">
-      <c r="A111" s="16"/>
-      <c r="B111" s="16"/>
-      <c r="C111" s="16" t="s">
-        <v>131</v>
-      </c>
-      <c r="D111" s="17">
-        <v>200</v>
-      </c>
-    </row>
-    <row r="112" spans="1:4">
-      <c r="A112" s="16"/>
-      <c r="B112" s="16"/>
-      <c r="C112" s="16" t="s">
-        <v>199</v>
-      </c>
-      <c r="D112" s="17" t="s">
-        <v>456</v>
-      </c>
-    </row>
-    <row r="113" spans="1:4">
-      <c r="A113" s="16"/>
-      <c r="B113" s="16"/>
-      <c r="C113" s="16" t="s">
-        <v>23</v>
-      </c>
-      <c r="D113" s="17" t="s">
-        <v>148</v>
-      </c>
-    </row>
-    <row r="114" spans="1:4">
-      <c r="A114" s="16"/>
-      <c r="B114" s="16"/>
-      <c r="C114" s="16" t="s">
-        <v>150</v>
-      </c>
-      <c r="D114" s="17" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="115" spans="1:4">
-      <c r="A115" s="16"/>
-      <c r="B115" s="16"/>
-      <c r="C115" s="16" t="s">
-        <v>151</v>
-      </c>
-      <c r="D115" s="17" t="s">
-        <v>152</v>
-      </c>
-    </row>
-    <row r="118" spans="1:4">
-      <c r="A118" s="41" t="s">
-        <v>237</v>
-      </c>
-      <c r="B118" s="41"/>
-      <c r="C118" s="38" t="s">
-        <v>238</v>
-      </c>
-      <c r="D118" s="38"/>
-    </row>
-    <row r="119" spans="1:4">
-      <c r="A119" s="16" t="s">
-        <v>98</v>
-      </c>
-      <c r="B119" s="17" t="s">
-        <v>239</v>
-      </c>
-      <c r="C119" s="16" t="s">
-        <v>22</v>
-      </c>
-      <c r="D119" s="17" t="s">
-        <v>240</v>
-      </c>
-    </row>
-    <row r="120" spans="1:4">
-      <c r="A120" s="16" t="s">
-        <v>101</v>
-      </c>
-      <c r="B120" s="17" t="s">
-        <v>454</v>
-      </c>
-      <c r="C120" s="16" t="s">
-        <v>235</v>
-      </c>
-      <c r="D120" s="17" t="s">
-        <v>236</v>
-      </c>
-    </row>
-    <row r="121" spans="1:4">
-      <c r="A121" s="16" t="s">
-        <v>104</v>
-      </c>
-      <c r="B121" s="17" t="s">
-        <v>241</v>
-      </c>
-      <c r="C121" s="16" t="s">
-        <v>101</v>
-      </c>
-      <c r="D121" s="17" t="s">
-        <v>454</v>
-      </c>
-    </row>
-    <row r="122" spans="1:4">
-      <c r="A122" s="16" t="s">
-        <v>106</v>
-      </c>
-      <c r="B122" s="17" t="s">
-        <v>147</v>
-      </c>
-      <c r="C122" s="16" t="s">
-        <v>157</v>
-      </c>
-      <c r="D122" s="17" t="s">
-        <v>455</v>
-      </c>
-    </row>
-    <row r="123" spans="1:4">
-      <c r="A123" s="16" t="s">
-        <v>108</v>
-      </c>
-      <c r="B123" s="17" t="s">
-        <v>242</v>
-      </c>
-      <c r="C123" s="16" t="s">
-        <v>131</v>
-      </c>
-      <c r="D123" s="17">
-        <v>200</v>
-      </c>
-    </row>
-    <row r="124" spans="1:4">
-      <c r="A124" s="16"/>
-      <c r="B124" s="16"/>
-      <c r="C124" s="16" t="s">
-        <v>199</v>
-      </c>
-      <c r="D124" s="17" t="s">
-        <v>456</v>
-      </c>
-    </row>
-    <row r="125" spans="1:4">
-      <c r="A125" s="42" t="s">
-        <v>243</v>
-      </c>
-      <c r="B125" s="40"/>
-      <c r="C125" s="16" t="s">
-        <v>23</v>
-      </c>
-      <c r="D125" s="17" t="s">
-        <v>148</v>
-      </c>
-    </row>
-    <row r="126" spans="1:4">
-      <c r="A126" s="16" t="s">
-        <v>244</v>
-      </c>
-      <c r="B126" s="16" t="s">
-        <v>245</v>
-      </c>
-      <c r="C126" s="16" t="s">
-        <v>150</v>
-      </c>
-      <c r="D126" s="17" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="127" spans="1:4">
-      <c r="A127" s="16" t="s">
-        <v>22</v>
-      </c>
-      <c r="B127" s="16" t="s">
-        <v>246</v>
-      </c>
-      <c r="C127" s="16" t="s">
-        <v>151</v>
-      </c>
-      <c r="D127" s="17" t="s">
-        <v>152</v>
-      </c>
-    </row>
-    <row r="128" spans="1:4" ht="36">
-      <c r="A128" s="16" t="s">
-        <v>108</v>
-      </c>
-      <c r="B128" s="16" t="s">
-        <v>247</v>
-      </c>
-      <c r="C128" s="16"/>
-      <c r="D128" s="17"/>
-    </row>
-    <row r="131" spans="1:4">
-      <c r="A131" s="41" t="s">
-        <v>248</v>
-      </c>
-      <c r="B131" s="41"/>
-      <c r="C131" s="38" t="s">
-        <v>249</v>
-      </c>
-      <c r="D131" s="38"/>
-    </row>
-    <row r="132" spans="1:4">
-      <c r="A132" s="16" t="s">
-        <v>98</v>
-      </c>
-      <c r="B132" s="17" t="s">
-        <v>250</v>
-      </c>
-      <c r="C132" s="16" t="s">
-        <v>235</v>
-      </c>
-      <c r="D132" s="17" t="s">
-        <v>236</v>
-      </c>
-    </row>
-    <row r="133" spans="1:4">
-      <c r="A133" s="16" t="s">
-        <v>101</v>
-      </c>
-      <c r="B133" s="17" t="s">
-        <v>454</v>
-      </c>
-      <c r="C133" s="16" t="s">
-        <v>101</v>
-      </c>
-      <c r="D133" s="17" t="s">
-        <v>454</v>
-      </c>
-    </row>
-    <row r="134" spans="1:4">
-      <c r="A134" s="16" t="s">
-        <v>104</v>
-      </c>
-      <c r="B134" s="17" t="s">
-        <v>251</v>
-      </c>
-      <c r="C134" s="16" t="s">
-        <v>157</v>
-      </c>
-      <c r="D134" s="17" t="s">
-        <v>455</v>
-      </c>
-    </row>
-    <row r="135" spans="1:4">
-      <c r="A135" s="16" t="s">
-        <v>106</v>
-      </c>
-      <c r="B135" s="17" t="s">
-        <v>147</v>
-      </c>
-      <c r="C135" s="16" t="s">
-        <v>131</v>
-      </c>
-      <c r="D135" s="17">
-        <v>200</v>
-      </c>
-    </row>
-    <row r="136" spans="1:4">
-      <c r="A136" s="16" t="s">
-        <v>108</v>
-      </c>
-      <c r="B136" s="17" t="s">
-        <v>252</v>
-      </c>
-      <c r="C136" s="16" t="s">
-        <v>199</v>
-      </c>
-      <c r="D136" s="17" t="s">
-        <v>456</v>
-      </c>
-    </row>
-    <row r="137" spans="1:4">
-      <c r="A137" s="16"/>
-      <c r="B137" s="16"/>
-      <c r="C137" s="16" t="s">
-        <v>23</v>
-      </c>
-      <c r="D137" s="17" t="s">
-        <v>148</v>
-      </c>
-    </row>
-    <row r="138" spans="1:4" ht="36">
-      <c r="A138" s="20" t="s">
-        <v>253</v>
-      </c>
-      <c r="B138" s="17" t="s">
-        <v>254</v>
-      </c>
-      <c r="C138" s="16" t="s">
-        <v>150</v>
-      </c>
-      <c r="D138" s="17" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="139" spans="1:4" ht="54">
-      <c r="A139" s="20" t="s">
-        <v>255</v>
-      </c>
-      <c r="B139" s="17" t="s">
-        <v>256</v>
-      </c>
-      <c r="C139" s="16" t="s">
-        <v>151</v>
-      </c>
-      <c r="D139" s="17" t="s">
-        <v>152</v>
-      </c>
-    </row>
-    <row r="140" spans="1:4" ht="54">
-      <c r="A140" s="20" t="s">
-        <v>257</v>
-      </c>
-      <c r="B140" s="17" t="s">
-        <v>258</v>
-      </c>
-      <c r="C140" s="16"/>
-      <c r="D140" s="16"/>
-    </row>
-    <row r="141" spans="1:4" ht="54">
-      <c r="A141" s="20" t="s">
-        <v>259</v>
-      </c>
-      <c r="B141" s="17" t="s">
-        <v>260</v>
-      </c>
-      <c r="C141" s="16"/>
-      <c r="D141" s="16"/>
-    </row>
-    <row r="144" spans="1:4">
-      <c r="A144" s="41" t="s">
-        <v>261</v>
-      </c>
-      <c r="B144" s="41"/>
-      <c r="C144" s="38" t="s">
-        <v>249</v>
-      </c>
-      <c r="D144" s="38"/>
-    </row>
-    <row r="145" spans="1:4">
-      <c r="A145" s="16" t="s">
-        <v>98</v>
-      </c>
-      <c r="B145" s="17" t="s">
-        <v>262</v>
-      </c>
-      <c r="C145" s="16" t="s">
-        <v>235</v>
-      </c>
-      <c r="D145" s="17" t="s">
-        <v>236</v>
-      </c>
-    </row>
-    <row r="146" spans="1:4">
-      <c r="A146" s="16" t="s">
-        <v>101</v>
-      </c>
-      <c r="B146" s="17" t="s">
-        <v>454</v>
-      </c>
-      <c r="C146" s="16" t="s">
-        <v>101</v>
-      </c>
-      <c r="D146" s="17" t="s">
-        <v>454</v>
-      </c>
-    </row>
-    <row r="147" spans="1:4">
-      <c r="A147" s="16" t="s">
-        <v>104</v>
-      </c>
-      <c r="B147" s="17" t="s">
-        <v>251</v>
-      </c>
-      <c r="C147" s="16" t="s">
-        <v>157</v>
-      </c>
-      <c r="D147" s="17" t="s">
-        <v>455</v>
-      </c>
-    </row>
-    <row r="148" spans="1:4">
-      <c r="A148" s="16" t="s">
-        <v>106</v>
-      </c>
-      <c r="B148" s="17" t="s">
-        <v>147</v>
-      </c>
-      <c r="C148" s="16" t="s">
-        <v>131</v>
-      </c>
-      <c r="D148" s="17">
-        <v>200</v>
-      </c>
-    </row>
-    <row r="149" spans="1:4" ht="36">
-      <c r="A149" s="16" t="s">
-        <v>108</v>
-      </c>
-      <c r="B149" s="17" t="s">
-        <v>263</v>
-      </c>
-      <c r="C149" s="16" t="s">
-        <v>23</v>
-      </c>
-      <c r="D149" s="17" t="s">
-        <v>148</v>
-      </c>
-    </row>
-    <row r="150" spans="1:4">
-      <c r="A150" s="16"/>
-      <c r="B150" s="16"/>
-      <c r="C150" s="16" t="s">
-        <v>150</v>
-      </c>
-      <c r="D150" s="17" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="151" spans="1:4" ht="54">
-      <c r="A151" s="20" t="s">
-        <v>264</v>
-      </c>
-      <c r="B151" s="17" t="s">
-        <v>265</v>
-      </c>
-      <c r="C151" s="16" t="s">
-        <v>151</v>
-      </c>
-      <c r="D151" s="17" t="s">
-        <v>152</v>
-      </c>
-    </row>
-    <row r="152" spans="1:4" ht="36">
-      <c r="A152" s="20" t="s">
-        <v>266</v>
-      </c>
-      <c r="B152" s="17" t="s">
-        <v>267</v>
-      </c>
-      <c r="C152" s="16"/>
-      <c r="D152" s="16"/>
-    </row>
-    <row r="153" spans="1:4" ht="36">
-      <c r="A153" s="20" t="s">
-        <v>268</v>
-      </c>
-      <c r="B153" s="17" t="s">
-        <v>269</v>
-      </c>
-      <c r="C153" s="16"/>
-      <c r="D153" s="16"/>
-    </row>
-    <row r="154" spans="1:4" ht="36">
-      <c r="A154" s="20" t="s">
-        <v>270</v>
-      </c>
-      <c r="B154" s="17" t="s">
+    </row>
+    <row r="167" spans="1:4" ht="36">
+      <c r="A167" s="15" t="s">
         <v>271</v>
       </c>
-      <c r="C154" s="16"/>
-      <c r="D154" s="16"/>
-    </row>
-    <row r="157" spans="1:4">
-      <c r="A157" s="41" t="s">
-        <v>272</v>
-      </c>
-      <c r="B157" s="41"/>
-      <c r="C157" s="38" t="s">
-        <v>249</v>
-      </c>
-      <c r="D157" s="38"/>
-    </row>
-    <row r="158" spans="1:4">
-      <c r="A158" s="16" t="s">
-        <v>98</v>
-      </c>
-      <c r="B158" s="17" t="s">
-        <v>273</v>
-      </c>
-      <c r="C158" s="16" t="s">
-        <v>235</v>
-      </c>
-      <c r="D158" s="17" t="s">
-        <v>274</v>
-      </c>
-    </row>
-    <row r="159" spans="1:4">
-      <c r="A159" s="16" t="s">
-        <v>101</v>
-      </c>
-      <c r="B159" s="17" t="s">
-        <v>454</v>
-      </c>
-      <c r="C159" s="16" t="s">
-        <v>101</v>
-      </c>
-      <c r="D159" s="17" t="s">
-        <v>454</v>
-      </c>
-    </row>
-    <row r="160" spans="1:4">
-      <c r="A160" s="16" t="s">
-        <v>104</v>
-      </c>
-      <c r="B160" s="17" t="s">
-        <v>251</v>
-      </c>
-      <c r="C160" s="16" t="s">
-        <v>157</v>
-      </c>
-      <c r="D160" s="17" t="s">
-        <v>455</v>
-      </c>
-    </row>
-    <row r="161" spans="1:4">
-      <c r="A161" s="16" t="s">
-        <v>106</v>
-      </c>
-      <c r="B161" s="17" t="s">
-        <v>147</v>
-      </c>
-      <c r="C161" s="16" t="s">
-        <v>131</v>
-      </c>
-      <c r="D161" s="17">
-        <v>200</v>
-      </c>
-    </row>
-    <row r="162" spans="1:4" ht="36">
-      <c r="A162" s="16" t="s">
-        <v>108</v>
-      </c>
-      <c r="B162" s="17" t="s">
-        <v>275</v>
-      </c>
-      <c r="C162" s="16" t="s">
-        <v>276</v>
-      </c>
-      <c r="D162" s="17" t="s">
-        <v>456</v>
-      </c>
-    </row>
-    <row r="163" spans="1:4">
-      <c r="A163" s="16"/>
-      <c r="B163" s="16"/>
-      <c r="C163" s="16" t="s">
-        <v>277</v>
-      </c>
-      <c r="D163" s="17">
-        <v>200</v>
-      </c>
-    </row>
-    <row r="164" spans="1:4" ht="54">
-      <c r="A164" s="20" t="s">
-        <v>264</v>
-      </c>
-      <c r="B164" s="17" t="s">
-        <v>278</v>
-      </c>
-      <c r="C164" s="16" t="s">
-        <v>23</v>
-      </c>
-      <c r="D164" s="17" t="s">
-        <v>148</v>
-      </c>
-    </row>
-    <row r="165" spans="1:4" ht="36">
-      <c r="A165" s="20" t="s">
-        <v>266</v>
-      </c>
-      <c r="B165" s="17" t="s">
-        <v>279</v>
-      </c>
-      <c r="C165" s="16" t="s">
-        <v>150</v>
-      </c>
-      <c r="D165" s="17" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="166" spans="1:4" ht="36">
-      <c r="A166" s="20" t="s">
-        <v>268</v>
-      </c>
-      <c r="B166" s="17" t="s">
-        <v>280</v>
-      </c>
-      <c r="C166" s="16" t="s">
-        <v>151</v>
-      </c>
-      <c r="D166" s="17" t="s">
-        <v>152</v>
-      </c>
-    </row>
-    <row r="167" spans="1:4" ht="36">
-      <c r="A167" s="20" t="s">
-        <v>270</v>
-      </c>
-      <c r="B167" s="17" t="s">
-        <v>281</v>
+      <c r="B167" s="12" t="s">
+        <v>282</v>
       </c>
     </row>
   </sheetData>
@@ -4601,7 +4604,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:J52"/>
   <sheetViews>
-    <sheetView topLeftCell="A29" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="A31" sqref="A31"/>
     </sheetView>
   </sheetViews>
@@ -4622,561 +4625,561 @@
   <sheetData>
     <row r="1" spans="1:10">
       <c r="A1" s="8" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="B1" s="8" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="C1" s="8" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="D1" s="8" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="E1" s="8" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="F1" s="8" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="G1" s="8" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="H1" s="8" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="I1" s="8" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="J1" s="8" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
     </row>
     <row r="2" spans="1:10">
       <c r="A2" s="3" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="B2" s="3" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="C2" s="3" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="D2" s="3" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="E2" s="3" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="F2" s="3" t="s">
-        <v>454</v>
+        <v>455</v>
       </c>
       <c r="G2" s="3" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="H2" s="3" t="s">
-        <v>454</v>
+        <v>455</v>
       </c>
       <c r="I2" s="3" t="s">
-        <v>455</v>
+        <v>456</v>
       </c>
       <c r="J2" s="3" t="s">
-        <v>456</v>
+        <v>457</v>
       </c>
     </row>
     <row r="3" spans="1:10">
       <c r="A3" s="3" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="B3" s="3" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="C3" s="3" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
     </row>
     <row r="4" spans="1:10">
       <c r="B4" s="3" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
     </row>
     <row r="5" spans="1:10">
       <c r="A5" s="3" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="B5" s="3" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
     </row>
     <row r="6" spans="1:10">
       <c r="B6" s="3" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
     </row>
     <row r="7" spans="1:10">
       <c r="B7" s="3" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
     </row>
     <row r="8" spans="1:10">
       <c r="B8" s="3" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
     </row>
     <row r="9" spans="1:10">
       <c r="B9" s="3" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
     </row>
     <row r="10" spans="1:10">
       <c r="A10" s="3" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
     </row>
     <row r="11" spans="1:10">
       <c r="A11" s="3" t="s">
-        <v>282</v>
+        <v>283</v>
       </c>
       <c r="B11" s="3" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
     </row>
     <row r="12" spans="1:10">
       <c r="B12" s="3" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
     </row>
     <row r="13" spans="1:10">
       <c r="B13" s="3" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
     </row>
     <row r="14" spans="1:10">
       <c r="B14" s="3" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
     </row>
     <row r="15" spans="1:10">
       <c r="B15" s="3" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
     </row>
     <row r="16" spans="1:10">
       <c r="B16" s="3" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
     </row>
     <row r="17" spans="1:7">
       <c r="B17" s="3" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
     </row>
     <row r="18" spans="1:7">
       <c r="B18" s="3" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
     </row>
     <row r="19" spans="1:7">
       <c r="B19" s="3" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
     </row>
     <row r="20" spans="1:7">
       <c r="B20" s="3" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
     </row>
     <row r="21" spans="1:7">
-      <c r="A21" s="21" t="s">
-        <v>283</v>
+      <c r="A21" s="16" t="s">
+        <v>284</v>
       </c>
     </row>
     <row r="22" spans="1:7" ht="108">
-      <c r="A22" s="15" t="s">
-        <v>284</v>
-      </c>
-      <c r="B22" s="15" t="s">
+      <c r="A22" s="10" t="s">
         <v>285</v>
       </c>
-      <c r="C22" s="15" t="s">
+      <c r="B22" s="10" t="s">
         <v>286</v>
       </c>
-      <c r="D22" s="15" t="s">
+      <c r="C22" s="10" t="s">
         <v>287</v>
       </c>
-      <c r="E22" s="15" t="s">
+      <c r="D22" s="10" t="s">
         <v>288</v>
       </c>
-      <c r="F22" s="15" t="s">
+      <c r="E22" s="10" t="s">
         <v>289</v>
       </c>
-      <c r="G22" s="15" t="s">
+      <c r="F22" s="10" t="s">
         <v>290</v>
       </c>
+      <c r="G22" s="10" t="s">
+        <v>291</v>
+      </c>
     </row>
     <row r="23" spans="1:7" ht="36">
-      <c r="A23" s="15" t="s">
-        <v>291</v>
-      </c>
-      <c r="B23" s="15" t="s">
+      <c r="A23" s="10" t="s">
         <v>292</v>
       </c>
+      <c r="B23" s="10" t="s">
+        <v>293</v>
+      </c>
       <c r="C23" s="3" t="s">
-        <v>293</v>
+        <v>294</v>
       </c>
       <c r="D23" s="3" t="s">
-        <v>294</v>
+        <v>295</v>
       </c>
     </row>
     <row r="24" spans="1:7">
-      <c r="A24" s="15" t="s">
-        <v>295</v>
-      </c>
-      <c r="B24" s="15"/>
+      <c r="A24" s="10" t="s">
+        <v>296</v>
+      </c>
+      <c r="B24" s="10"/>
     </row>
     <row r="25" spans="1:7">
       <c r="A25" s="3" t="s">
-        <v>296</v>
+        <v>297</v>
       </c>
       <c r="B25" s="3" t="s">
-        <v>297</v>
+        <v>298</v>
       </c>
       <c r="C25" s="3" t="s">
-        <v>298</v>
+        <v>299</v>
       </c>
       <c r="D25" s="3" t="s">
-        <v>293</v>
+        <v>294</v>
       </c>
       <c r="E25" s="3" t="s">
-        <v>299</v>
+        <v>300</v>
       </c>
     </row>
     <row r="26" spans="1:7">
-      <c r="A26" s="15" t="s">
-        <v>300</v>
+      <c r="A26" s="10" t="s">
+        <v>301</v>
       </c>
     </row>
     <row r="27" spans="1:7" ht="126">
-      <c r="A27" s="15" t="s">
-        <v>301</v>
-      </c>
-      <c r="B27" s="15" t="s">
-        <v>293</v>
-      </c>
-      <c r="C27" s="15" t="s">
+      <c r="A27" s="10" t="s">
         <v>302</v>
       </c>
+      <c r="B27" s="10" t="s">
+        <v>294</v>
+      </c>
+      <c r="C27" s="10" t="s">
+        <v>303</v>
+      </c>
     </row>
     <row r="28" spans="1:7" ht="36">
-      <c r="A28" s="15" t="s">
-        <v>303</v>
+      <c r="A28" s="10" t="s">
+        <v>304</v>
       </c>
     </row>
     <row r="29" spans="1:7" ht="108">
-      <c r="A29" s="15" t="s">
-        <v>304</v>
+      <c r="A29" s="10" t="s">
+        <v>305</v>
       </c>
       <c r="B29" s="3" t="s">
-        <v>305</v>
+        <v>306</v>
       </c>
       <c r="C29" s="3" t="s">
-        <v>306</v>
+        <v>307</v>
       </c>
       <c r="D29" s="3" t="s">
-        <v>293</v>
-      </c>
-      <c r="E29" s="15" t="s">
-        <v>307</v>
-      </c>
-      <c r="F29" s="15" t="s">
+        <v>294</v>
+      </c>
+      <c r="E29" s="10" t="s">
         <v>308</v>
       </c>
+      <c r="F29" s="10" t="s">
+        <v>309</v>
+      </c>
     </row>
     <row r="30" spans="1:7" ht="108">
-      <c r="A30" s="15" t="s">
-        <v>309</v>
-      </c>
-      <c r="B30" s="15" t="s">
+      <c r="A30" s="10" t="s">
         <v>310</v>
       </c>
-      <c r="C30" s="15" t="s">
+      <c r="B30" s="10" t="s">
         <v>311</v>
       </c>
+      <c r="C30" s="10" t="s">
+        <v>312</v>
+      </c>
     </row>
     <row r="31" spans="1:7">
-      <c r="A31" s="15" t="s">
+      <c r="A31" s="10" t="s">
+        <v>454</v>
+      </c>
+    </row>
+    <row r="33" spans="1:9">
+      <c r="A33" s="17" t="s">
+        <v>313</v>
+      </c>
+    </row>
+    <row r="34" spans="1:9" ht="144">
+      <c r="A34" s="18">
+        <v>12</v>
+      </c>
+      <c r="B34" s="3" t="s">
+        <v>314</v>
+      </c>
+      <c r="C34" s="3" t="s">
         <v>453</v>
       </c>
-    </row>
-    <row r="33" spans="1:9">
-      <c r="A33" s="22" t="s">
-        <v>312</v>
-      </c>
-    </row>
-    <row r="34" spans="1:9" ht="144">
-      <c r="A34" s="23">
-        <v>12</v>
-      </c>
-      <c r="B34" s="3" t="s">
-        <v>313</v>
-      </c>
-      <c r="C34" s="3" t="s">
-        <v>452</v>
-      </c>
-      <c r="D34" s="15" t="s">
-        <v>314</v>
-      </c>
-      <c r="E34" s="15" t="s">
+      <c r="D34" s="10" t="s">
         <v>315</v>
       </c>
-      <c r="F34" s="15" t="s">
+      <c r="E34" s="10" t="s">
         <v>316</v>
       </c>
-      <c r="G34" s="15" t="s">
-        <v>288</v>
-      </c>
-      <c r="H34" s="15" t="s">
+      <c r="F34" s="10" t="s">
         <v>317</v>
       </c>
-      <c r="I34" s="15" t="s">
-        <v>290</v>
+      <c r="G34" s="10" t="s">
+        <v>289</v>
+      </c>
+      <c r="H34" s="10" t="s">
+        <v>318</v>
+      </c>
+      <c r="I34" s="10" t="s">
+        <v>291</v>
       </c>
     </row>
     <row r="35" spans="1:9">
       <c r="A35" s="3" t="s">
-        <v>318</v>
+        <v>319</v>
       </c>
       <c r="B35" s="3" t="s">
-        <v>319</v>
+        <v>320</v>
       </c>
     </row>
     <row r="36" spans="1:9" ht="72">
       <c r="A36" s="3" t="s">
-        <v>320</v>
+        <v>321</v>
       </c>
       <c r="B36" s="3" t="s">
-        <v>321</v>
-      </c>
-      <c r="C36" s="15" t="s">
         <v>322</v>
+      </c>
+      <c r="C36" s="10" t="s">
+        <v>323</v>
       </c>
     </row>
     <row r="37" spans="1:9">
       <c r="A37" s="3" t="s">
-        <v>323</v>
+        <v>324</v>
       </c>
       <c r="B37" s="3" t="s">
-        <v>324</v>
+        <v>325</v>
       </c>
     </row>
     <row r="38" spans="1:9" ht="54">
-      <c r="A38" s="15" t="s">
-        <v>325</v>
+      <c r="A38" s="10" t="s">
+        <v>326</v>
       </c>
       <c r="B38" s="3" t="s">
-        <v>326</v>
-      </c>
-      <c r="C38" s="15" t="s">
         <v>327</v>
+      </c>
+      <c r="C38" s="10" t="s">
+        <v>328</v>
       </c>
     </row>
     <row r="39" spans="1:9">
       <c r="A39" s="3" t="s">
-        <v>328</v>
+        <v>329</v>
       </c>
       <c r="B39" s="3" t="s">
-        <v>329</v>
+        <v>330</v>
       </c>
     </row>
     <row r="40" spans="1:9" ht="36">
       <c r="A40" s="3" t="s">
-        <v>330</v>
-      </c>
-      <c r="B40" s="15" t="s">
         <v>331</v>
       </c>
+      <c r="B40" s="10" t="s">
+        <v>332</v>
+      </c>
       <c r="C40" s="3" t="s">
-        <v>332</v>
+        <v>333</v>
       </c>
       <c r="D40" s="3" t="s">
-        <v>333</v>
+        <v>334</v>
       </c>
     </row>
     <row r="41" spans="1:9" ht="36">
       <c r="A41" s="3" t="s">
+        <v>335</v>
+      </c>
+      <c r="B41" s="10" t="s">
+        <v>336</v>
+      </c>
+      <c r="C41" s="10" t="s">
+        <v>337</v>
+      </c>
+      <c r="D41" s="3" t="s">
         <v>334</v>
       </c>
-      <c r="B41" s="15" t="s">
-        <v>335</v>
-      </c>
-      <c r="C41" s="15" t="s">
-        <v>336</v>
-      </c>
-      <c r="D41" s="3" t="s">
-        <v>333</v>
-      </c>
     </row>
     <row r="42" spans="1:9" ht="90">
-      <c r="A42" s="15" t="s">
-        <v>337</v>
-      </c>
-      <c r="B42" s="24" t="s">
+      <c r="A42" s="10" t="s">
         <v>338</v>
       </c>
-      <c r="C42" s="15" t="s">
+      <c r="B42" s="19" t="s">
         <v>339</v>
+      </c>
+      <c r="C42" s="10" t="s">
+        <v>340</v>
       </c>
     </row>
     <row r="43" spans="1:9">
       <c r="A43" s="3" t="s">
-        <v>340</v>
+        <v>341</v>
       </c>
       <c r="B43" s="3" t="s">
-        <v>341</v>
+        <v>342</v>
       </c>
     </row>
     <row r="44" spans="1:9" ht="108">
-      <c r="A44" s="15" t="s">
-        <v>342</v>
-      </c>
-      <c r="B44" s="15" t="s">
+      <c r="A44" s="10" t="s">
         <v>343</v>
       </c>
-      <c r="C44" s="15" t="s">
+      <c r="B44" s="10" t="s">
         <v>344</v>
       </c>
-      <c r="D44" s="15" t="s">
+      <c r="C44" s="10" t="s">
         <v>345</v>
       </c>
-      <c r="E44" s="15" t="s">
+      <c r="D44" s="10" t="s">
         <v>346</v>
       </c>
+      <c r="E44" s="10" t="s">
+        <v>347</v>
+      </c>
     </row>
     <row r="45" spans="1:9">
-      <c r="A45" s="22" t="s">
-        <v>347</v>
+      <c r="A45" s="17" t="s">
+        <v>348</v>
       </c>
     </row>
     <row r="46" spans="1:9" ht="108">
-      <c r="A46" s="23">
+      <c r="A46" s="18">
         <v>11</v>
       </c>
-      <c r="B46" s="15" t="s">
-        <v>348</v>
-      </c>
-      <c r="C46" s="15" t="s">
-        <v>451</v>
-      </c>
-      <c r="D46" s="15" t="s">
+      <c r="B46" s="10" t="s">
         <v>349</v>
       </c>
-      <c r="E46" s="15" t="s">
+      <c r="C46" s="10" t="s">
+        <v>452</v>
+      </c>
+      <c r="D46" s="10" t="s">
         <v>350</v>
       </c>
-      <c r="F46" s="15" t="s">
-        <v>316</v>
-      </c>
-      <c r="G46" s="15" t="s">
-        <v>288</v>
-      </c>
-      <c r="H46" s="15" t="s">
+      <c r="E46" s="10" t="s">
+        <v>351</v>
+      </c>
+      <c r="F46" s="10" t="s">
         <v>317</v>
       </c>
-      <c r="I46" s="15" t="s">
-        <v>290</v>
+      <c r="G46" s="10" t="s">
+        <v>289</v>
+      </c>
+      <c r="H46" s="10" t="s">
+        <v>318</v>
+      </c>
+      <c r="I46" s="10" t="s">
+        <v>291</v>
       </c>
     </row>
     <row r="47" spans="1:9" ht="90">
       <c r="A47" s="3" t="s">
-        <v>351</v>
+        <v>352</v>
       </c>
       <c r="B47" s="3" t="s">
-        <v>352</v>
+        <v>353</v>
       </c>
       <c r="C47" s="3" t="s">
-        <v>353</v>
-      </c>
-      <c r="D47" s="15" t="s">
         <v>354</v>
       </c>
+      <c r="D47" s="10" t="s">
+        <v>355</v>
+      </c>
       <c r="E47" s="3" t="s">
-        <v>293</v>
-      </c>
-      <c r="F47" s="15" t="s">
-        <v>355</v>
+        <v>294</v>
+      </c>
+      <c r="F47" s="10" t="s">
+        <v>356</v>
       </c>
       <c r="G47" s="3" t="s">
-        <v>356</v>
-      </c>
-      <c r="H47" s="15" t="s">
         <v>357</v>
+      </c>
+      <c r="H47" s="10" t="s">
+        <v>358</v>
       </c>
     </row>
     <row r="48" spans="1:9">
       <c r="A48" s="3" t="s">
-        <v>358</v>
-      </c>
-      <c r="B48" s="15" t="s">
         <v>359</v>
+      </c>
+      <c r="B48" s="10" t="s">
+        <v>360</v>
       </c>
     </row>
     <row r="49" spans="1:6" ht="90">
       <c r="A49" s="3" t="s">
-        <v>360</v>
-      </c>
-      <c r="B49" s="15" t="s">
         <v>361</v>
       </c>
-      <c r="C49" s="15" t="s">
+      <c r="B49" s="10" t="s">
         <v>362</v>
       </c>
-      <c r="D49" s="15" t="s">
+      <c r="C49" s="10" t="s">
         <v>363</v>
       </c>
-      <c r="E49" s="15" t="s">
-        <v>293</v>
-      </c>
-      <c r="F49" s="15" t="s">
+      <c r="D49" s="10" t="s">
         <v>364</v>
+      </c>
+      <c r="E49" s="10" t="s">
+        <v>294</v>
+      </c>
+      <c r="F49" s="10" t="s">
+        <v>365</v>
       </c>
     </row>
     <row r="50" spans="1:6" ht="90">
       <c r="A50" s="3" t="s">
-        <v>365</v>
-      </c>
-      <c r="B50" s="15" t="s">
         <v>366</v>
       </c>
+      <c r="B50" s="10" t="s">
+        <v>367</v>
+      </c>
       <c r="C50" s="3" t="s">
-        <v>367</v>
-      </c>
-      <c r="D50" s="15" t="s">
         <v>368</v>
+      </c>
+      <c r="D50" s="10" t="s">
+        <v>369</v>
       </c>
     </row>
     <row r="51" spans="1:6">
       <c r="A51" s="3" t="s">
-        <v>369</v>
-      </c>
-      <c r="B51" s="15" t="s">
         <v>370</v>
       </c>
+      <c r="B51" s="10" t="s">
+        <v>371</v>
+      </c>
     </row>
     <row r="52" spans="1:6" ht="198">
-      <c r="A52" s="15" t="s">
-        <v>371</v>
-      </c>
-      <c r="B52" s="15" t="s">
+      <c r="A52" s="10" t="s">
         <v>372</v>
       </c>
-      <c r="C52" s="15" t="s">
+      <c r="B52" s="10" t="s">
         <v>373</v>
       </c>
-      <c r="D52" s="15" t="s">
-        <v>293</v>
-      </c>
-      <c r="E52" s="15" t="s">
+      <c r="C52" s="10" t="s">
         <v>374</v>
+      </c>
+      <c r="D52" s="10" t="s">
+        <v>294</v>
+      </c>
+      <c r="E52" s="10" t="s">
+        <v>375</v>
       </c>
     </row>
   </sheetData>
@@ -5193,531 +5196,531 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E35"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="A7" sqref="A7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="18" x14ac:dyDescent="0"/>
   <cols>
-    <col min="1" max="1" width="61.5" style="26" customWidth="1" collapsed="1"/>
-    <col min="2" max="2" width="28" style="26" customWidth="1" collapsed="1"/>
-    <col min="3" max="3" width="43.5" style="26" customWidth="1" collapsed="1"/>
-    <col min="4" max="4" width="46.5" style="26" customWidth="1" collapsed="1"/>
-    <col min="5" max="5" width="36" style="26" customWidth="1"/>
-    <col min="6" max="16384" width="8.83203125" style="26"/>
+    <col min="1" max="1" width="61.5" style="21" customWidth="1" collapsed="1"/>
+    <col min="2" max="2" width="28" style="21" customWidth="1" collapsed="1"/>
+    <col min="3" max="3" width="43.5" style="21" customWidth="1" collapsed="1"/>
+    <col min="4" max="4" width="46.5" style="21" customWidth="1" collapsed="1"/>
+    <col min="5" max="5" width="36" style="21" customWidth="1"/>
+    <col min="6" max="16384" width="8.83203125" style="21"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:5">
-      <c r="A1" s="25" t="s">
-        <v>375</v>
+      <c r="A1" s="20" t="s">
+        <v>376</v>
       </c>
       <c r="B1" s="8" t="s">
-        <v>376</v>
+        <v>377</v>
       </c>
       <c r="C1" s="8" t="s">
-        <v>377</v>
+        <v>378</v>
       </c>
       <c r="D1" s="8" t="s">
-        <v>378</v>
+        <v>379</v>
       </c>
       <c r="E1" s="8" t="s">
-        <v>379</v>
+        <v>380</v>
       </c>
     </row>
     <row r="2" spans="1:5" ht="36">
-      <c r="A2" s="27" t="s">
-        <v>380</v>
-      </c>
-      <c r="B2" s="27" t="s">
+      <c r="A2" s="22" t="s">
         <v>381</v>
       </c>
-      <c r="C2" s="28" t="s">
+      <c r="B2" s="22" t="s">
         <v>382</v>
       </c>
-      <c r="D2" s="18" t="s">
+      <c r="C2" s="23" t="s">
         <v>383</v>
       </c>
-      <c r="E2" s="27" t="s">
+      <c r="D2" s="13" t="s">
         <v>384</v>
       </c>
+      <c r="E2" s="22" t="s">
+        <v>385</v>
+      </c>
     </row>
     <row r="3" spans="1:5" ht="36">
-      <c r="A3" s="27" t="s">
-        <v>385</v>
-      </c>
-      <c r="B3" s="27" t="s">
-        <v>381</v>
-      </c>
-      <c r="C3" s="29" t="s">
+      <c r="A3" s="22" t="s">
         <v>386</v>
       </c>
-      <c r="D3" s="18" t="s">
-        <v>383</v>
-      </c>
-      <c r="E3" s="27"/>
+      <c r="B3" s="22" t="s">
+        <v>382</v>
+      </c>
+      <c r="C3" s="24" t="s">
+        <v>387</v>
+      </c>
+      <c r="D3" s="13" t="s">
+        <v>384</v>
+      </c>
+      <c r="E3" s="22"/>
     </row>
     <row r="4" spans="1:5" ht="36">
-      <c r="A4" s="27" t="s">
-        <v>387</v>
-      </c>
-      <c r="B4" s="27" t="s">
-        <v>381</v>
-      </c>
-      <c r="C4" s="29" t="s">
+      <c r="A4" s="22" t="s">
         <v>388</v>
       </c>
-      <c r="D4" s="18" t="s">
-        <v>383</v>
-      </c>
-      <c r="E4" s="28"/>
+      <c r="B4" s="22" t="s">
+        <v>382</v>
+      </c>
+      <c r="C4" s="24" t="s">
+        <v>389</v>
+      </c>
+      <c r="D4" s="13" t="s">
+        <v>384</v>
+      </c>
+      <c r="E4" s="23"/>
     </row>
     <row r="5" spans="1:5" ht="36">
-      <c r="A5" s="27" t="s">
-        <v>389</v>
-      </c>
-      <c r="B5" s="27" t="s">
-        <v>381</v>
-      </c>
-      <c r="C5" s="29" t="s">
+      <c r="A5" s="22" t="s">
         <v>390</v>
       </c>
-      <c r="D5" s="18" t="s">
-        <v>383</v>
-      </c>
-      <c r="E5" s="28"/>
+      <c r="B5" s="22" t="s">
+        <v>382</v>
+      </c>
+      <c r="C5" s="24" t="s">
+        <v>391</v>
+      </c>
+      <c r="D5" s="13" t="s">
+        <v>384</v>
+      </c>
+      <c r="E5" s="23"/>
     </row>
     <row r="6" spans="1:5" ht="36">
-      <c r="A6" s="27" t="s">
-        <v>391</v>
-      </c>
-      <c r="B6" s="27" t="s">
-        <v>381</v>
-      </c>
-      <c r="C6" s="29" t="s">
+      <c r="A6" s="22" t="s">
         <v>392</v>
       </c>
-      <c r="D6" s="18" t="s">
-        <v>383</v>
-      </c>
-      <c r="E6" s="28"/>
+      <c r="B6" s="22" t="s">
+        <v>382</v>
+      </c>
+      <c r="C6" s="24" t="s">
+        <v>393</v>
+      </c>
+      <c r="D6" s="13" t="s">
+        <v>384</v>
+      </c>
+      <c r="E6" s="23"/>
     </row>
     <row r="7" spans="1:5" ht="36">
-      <c r="A7" s="27" t="s">
-        <v>393</v>
-      </c>
-      <c r="B7" s="27" t="s">
-        <v>381</v>
-      </c>
-      <c r="C7" s="29" t="s">
+      <c r="A7" s="22" t="s">
         <v>394</v>
       </c>
-      <c r="D7" s="18" t="s">
-        <v>383</v>
-      </c>
-      <c r="E7" s="28"/>
+      <c r="B7" s="22" t="s">
+        <v>382</v>
+      </c>
+      <c r="C7" s="24" t="s">
+        <v>395</v>
+      </c>
+      <c r="D7" s="13" t="s">
+        <v>384</v>
+      </c>
+      <c r="E7" s="23"/>
     </row>
     <row r="8" spans="1:5" ht="36">
-      <c r="A8" s="27" t="s">
-        <v>395</v>
-      </c>
-      <c r="B8" s="27" t="s">
-        <v>381</v>
-      </c>
-      <c r="C8" s="29" t="s">
+      <c r="A8" s="22" t="s">
         <v>396</v>
       </c>
-      <c r="D8" s="18" t="s">
-        <v>383</v>
-      </c>
-      <c r="E8" s="28"/>
+      <c r="B8" s="22" t="s">
+        <v>382</v>
+      </c>
+      <c r="C8" s="24" t="s">
+        <v>397</v>
+      </c>
+      <c r="D8" s="13" t="s">
+        <v>384</v>
+      </c>
+      <c r="E8" s="23"/>
     </row>
     <row r="9" spans="1:5" ht="36">
-      <c r="A9" s="27" t="s">
-        <v>397</v>
-      </c>
-      <c r="B9" s="27" t="s">
-        <v>381</v>
-      </c>
-      <c r="C9" s="29" t="s">
+      <c r="A9" s="22" t="s">
         <v>398</v>
       </c>
-      <c r="D9" s="18" t="s">
-        <v>383</v>
-      </c>
-      <c r="E9" s="28"/>
+      <c r="B9" s="22" t="s">
+        <v>382</v>
+      </c>
+      <c r="C9" s="24" t="s">
+        <v>399</v>
+      </c>
+      <c r="D9" s="13" t="s">
+        <v>384</v>
+      </c>
+      <c r="E9" s="23"/>
     </row>
     <row r="10" spans="1:5" ht="36">
-      <c r="A10" s="27" t="s">
-        <v>399</v>
-      </c>
-      <c r="B10" s="27" t="s">
-        <v>381</v>
-      </c>
-      <c r="C10" s="29" t="s">
+      <c r="A10" s="22" t="s">
         <v>400</v>
       </c>
-      <c r="D10" s="18" t="s">
-        <v>383</v>
-      </c>
-      <c r="E10" s="28"/>
+      <c r="B10" s="22" t="s">
+        <v>382</v>
+      </c>
+      <c r="C10" s="24" t="s">
+        <v>401</v>
+      </c>
+      <c r="D10" s="13" t="s">
+        <v>384</v>
+      </c>
+      <c r="E10" s="23"/>
     </row>
     <row r="11" spans="1:5" ht="36">
-      <c r="A11" s="27" t="s">
-        <v>401</v>
-      </c>
-      <c r="B11" s="27" t="s">
-        <v>381</v>
-      </c>
-      <c r="C11" s="29" t="s">
+      <c r="A11" s="22" t="s">
         <v>402</v>
       </c>
-      <c r="D11" s="18" t="s">
-        <v>383</v>
-      </c>
-      <c r="E11" s="28"/>
+      <c r="B11" s="22" t="s">
+        <v>382</v>
+      </c>
+      <c r="C11" s="24" t="s">
+        <v>403</v>
+      </c>
+      <c r="D11" s="13" t="s">
+        <v>384</v>
+      </c>
+      <c r="E11" s="23"/>
     </row>
     <row r="12" spans="1:5" ht="36">
-      <c r="A12" s="27" t="s">
-        <v>403</v>
-      </c>
-      <c r="B12" s="27" t="s">
-        <v>381</v>
-      </c>
-      <c r="C12" s="29" t="s">
+      <c r="A12" s="22" t="s">
         <v>404</v>
       </c>
-      <c r="D12" s="18" t="s">
-        <v>383</v>
-      </c>
-      <c r="E12" s="30"/>
+      <c r="B12" s="22" t="s">
+        <v>382</v>
+      </c>
+      <c r="C12" s="24" t="s">
+        <v>405</v>
+      </c>
+      <c r="D12" s="13" t="s">
+        <v>384</v>
+      </c>
+      <c r="E12" s="25"/>
     </row>
     <row r="13" spans="1:5" ht="36">
-      <c r="A13" s="27" t="s">
-        <v>405</v>
-      </c>
-      <c r="B13" s="27" t="s">
-        <v>381</v>
-      </c>
-      <c r="C13" s="29" t="s">
+      <c r="A13" s="22" t="s">
         <v>406</v>
       </c>
-      <c r="D13" s="18" t="s">
-        <v>383</v>
-      </c>
-      <c r="E13" s="30"/>
+      <c r="B13" s="22" t="s">
+        <v>382</v>
+      </c>
+      <c r="C13" s="24" t="s">
+        <v>407</v>
+      </c>
+      <c r="D13" s="13" t="s">
+        <v>384</v>
+      </c>
+      <c r="E13" s="25"/>
     </row>
     <row r="14" spans="1:5" ht="36">
-      <c r="A14" s="27" t="s">
-        <v>407</v>
-      </c>
-      <c r="B14" s="27" t="s">
-        <v>381</v>
-      </c>
-      <c r="C14" s="29" t="s">
+      <c r="A14" s="22" t="s">
         <v>408</v>
       </c>
-      <c r="D14" s="18" t="s">
-        <v>383</v>
-      </c>
-      <c r="E14" s="30"/>
+      <c r="B14" s="22" t="s">
+        <v>382</v>
+      </c>
+      <c r="C14" s="24" t="s">
+        <v>409</v>
+      </c>
+      <c r="D14" s="13" t="s">
+        <v>384</v>
+      </c>
+      <c r="E14" s="25"/>
     </row>
     <row r="15" spans="1:5" ht="36">
-      <c r="A15" s="27" t="s">
-        <v>409</v>
-      </c>
-      <c r="B15" s="27" t="s">
-        <v>381</v>
-      </c>
-      <c r="C15" s="29" t="s">
+      <c r="A15" s="22" t="s">
         <v>410</v>
       </c>
-      <c r="D15" s="18" t="s">
-        <v>383</v>
-      </c>
-      <c r="E15" s="30"/>
+      <c r="B15" s="22" t="s">
+        <v>382</v>
+      </c>
+      <c r="C15" s="24" t="s">
+        <v>411</v>
+      </c>
+      <c r="D15" s="13" t="s">
+        <v>384</v>
+      </c>
+      <c r="E15" s="25"/>
     </row>
     <row r="16" spans="1:5" ht="36">
-      <c r="A16" s="27" t="s">
-        <v>411</v>
-      </c>
-      <c r="B16" s="27" t="s">
-        <v>381</v>
-      </c>
-      <c r="C16" s="29" t="s">
+      <c r="A16" s="22" t="s">
         <v>412</v>
       </c>
-      <c r="D16" s="18" t="s">
-        <v>383</v>
-      </c>
-      <c r="E16" s="30"/>
+      <c r="B16" s="22" t="s">
+        <v>382</v>
+      </c>
+      <c r="C16" s="24" t="s">
+        <v>413</v>
+      </c>
+      <c r="D16" s="13" t="s">
+        <v>384</v>
+      </c>
+      <c r="E16" s="25"/>
     </row>
     <row r="17" spans="1:5" ht="36">
-      <c r="A17" s="27" t="s">
-        <v>413</v>
-      </c>
-      <c r="B17" s="27" t="s">
-        <v>381</v>
-      </c>
-      <c r="C17" s="29" t="s">
+      <c r="A17" s="22" t="s">
         <v>414</v>
       </c>
-      <c r="D17" s="18" t="s">
-        <v>383</v>
-      </c>
-      <c r="E17" s="30"/>
+      <c r="B17" s="22" t="s">
+        <v>382</v>
+      </c>
+      <c r="C17" s="24" t="s">
+        <v>415</v>
+      </c>
+      <c r="D17" s="13" t="s">
+        <v>384</v>
+      </c>
+      <c r="E17" s="25"/>
     </row>
     <row r="18" spans="1:5" ht="36">
-      <c r="A18" s="31" t="s">
-        <v>415</v>
-      </c>
-      <c r="B18" s="31" t="s">
-        <v>381</v>
-      </c>
-      <c r="C18" s="32" t="s">
+      <c r="A18" s="26" t="s">
         <v>416</v>
       </c>
-      <c r="D18" s="33" t="s">
-        <v>383</v>
-      </c>
-      <c r="E18" s="30"/>
+      <c r="B18" s="26" t="s">
+        <v>382</v>
+      </c>
+      <c r="C18" s="27" t="s">
+        <v>417</v>
+      </c>
+      <c r="D18" s="28" t="s">
+        <v>384</v>
+      </c>
+      <c r="E18" s="25"/>
     </row>
     <row r="19" spans="1:5" ht="36">
-      <c r="A19" s="27" t="s">
-        <v>417</v>
-      </c>
-      <c r="B19" s="27" t="s">
-        <v>381</v>
-      </c>
-      <c r="C19" s="34" t="s">
+      <c r="A19" s="22" t="s">
         <v>418</v>
       </c>
-      <c r="D19" s="18" t="s">
-        <v>383</v>
-      </c>
-      <c r="E19" s="30"/>
+      <c r="B19" s="22" t="s">
+        <v>382</v>
+      </c>
+      <c r="C19" s="29" t="s">
+        <v>419</v>
+      </c>
+      <c r="D19" s="13" t="s">
+        <v>384</v>
+      </c>
+      <c r="E19" s="25"/>
     </row>
     <row r="20" spans="1:5" ht="36">
-      <c r="A20" s="27" t="s">
-        <v>419</v>
-      </c>
-      <c r="B20" s="27" t="s">
-        <v>381</v>
-      </c>
-      <c r="C20" s="29" t="s">
+      <c r="A20" s="22" t="s">
         <v>420</v>
       </c>
-      <c r="D20" s="18" t="s">
-        <v>383</v>
+      <c r="B20" s="22" t="s">
+        <v>382</v>
+      </c>
+      <c r="C20" s="24" t="s">
+        <v>421</v>
+      </c>
+      <c r="D20" s="13" t="s">
+        <v>384</v>
       </c>
     </row>
     <row r="21" spans="1:5" ht="36">
-      <c r="A21" s="27" t="s">
-        <v>421</v>
-      </c>
-      <c r="B21" s="27" t="s">
-        <v>381</v>
-      </c>
-      <c r="C21" s="27" t="s">
+      <c r="A21" s="22" t="s">
         <v>422</v>
       </c>
-      <c r="D21" s="18" t="s">
-        <v>383</v>
+      <c r="B21" s="22" t="s">
+        <v>382</v>
+      </c>
+      <c r="C21" s="22" t="s">
+        <v>423</v>
+      </c>
+      <c r="D21" s="13" t="s">
+        <v>384</v>
       </c>
     </row>
     <row r="22" spans="1:5" ht="36">
-      <c r="A22" s="27" t="s">
-        <v>423</v>
-      </c>
-      <c r="B22" s="27" t="s">
-        <v>381</v>
-      </c>
-      <c r="C22" s="35" t="s">
+      <c r="A22" s="22" t="s">
         <v>424</v>
       </c>
-      <c r="D22" s="18" t="s">
-        <v>383</v>
+      <c r="B22" s="22" t="s">
+        <v>382</v>
+      </c>
+      <c r="C22" s="30" t="s">
+        <v>425</v>
+      </c>
+      <c r="D22" s="13" t="s">
+        <v>384</v>
       </c>
     </row>
     <row r="23" spans="1:5" ht="36">
-      <c r="A23" s="27" t="s">
-        <v>425</v>
-      </c>
-      <c r="B23" s="27" t="s">
-        <v>381</v>
-      </c>
-      <c r="C23" s="35" t="s">
+      <c r="A23" s="22" t="s">
         <v>426</v>
       </c>
-      <c r="D23" s="18" t="s">
-        <v>383</v>
+      <c r="B23" s="22" t="s">
+        <v>382</v>
+      </c>
+      <c r="C23" s="30" t="s">
+        <v>427</v>
+      </c>
+      <c r="D23" s="13" t="s">
+        <v>384</v>
       </c>
     </row>
     <row r="24" spans="1:5" ht="36">
-      <c r="A24" s="27" t="s">
-        <v>427</v>
-      </c>
-      <c r="B24" s="27" t="s">
-        <v>381</v>
-      </c>
-      <c r="C24" s="35" t="s">
+      <c r="A24" s="22" t="s">
         <v>428</v>
       </c>
-      <c r="D24" s="18" t="s">
-        <v>383</v>
+      <c r="B24" s="22" t="s">
+        <v>382</v>
+      </c>
+      <c r="C24" s="30" t="s">
+        <v>429</v>
+      </c>
+      <c r="D24" s="13" t="s">
+        <v>384</v>
       </c>
     </row>
     <row r="25" spans="1:5" ht="36">
-      <c r="A25" s="27" t="s">
-        <v>429</v>
-      </c>
-      <c r="B25" s="27" t="s">
-        <v>381</v>
-      </c>
-      <c r="C25" s="35" t="s">
+      <c r="A25" s="22" t="s">
         <v>430</v>
       </c>
-      <c r="D25" s="18" t="s">
-        <v>383</v>
+      <c r="B25" s="22" t="s">
+        <v>382</v>
+      </c>
+      <c r="C25" s="30" t="s">
+        <v>431</v>
+      </c>
+      <c r="D25" s="13" t="s">
+        <v>384</v>
       </c>
     </row>
     <row r="26" spans="1:5" ht="36">
-      <c r="A26" s="27" t="s">
-        <v>431</v>
-      </c>
-      <c r="B26" s="27" t="s">
-        <v>381</v>
-      </c>
-      <c r="C26" s="36" t="s">
+      <c r="A26" s="22" t="s">
         <v>432</v>
       </c>
-      <c r="D26" s="18" t="s">
-        <v>383</v>
+      <c r="B26" s="22" t="s">
+        <v>382</v>
+      </c>
+      <c r="C26" s="31" t="s">
+        <v>433</v>
+      </c>
+      <c r="D26" s="13" t="s">
+        <v>384</v>
       </c>
     </row>
     <row r="27" spans="1:5" ht="36">
-      <c r="A27" s="27" t="s">
-        <v>433</v>
-      </c>
-      <c r="B27" s="27" t="s">
-        <v>381</v>
-      </c>
-      <c r="C27" s="36" t="s">
+      <c r="A27" s="22" t="s">
         <v>434</v>
       </c>
-      <c r="D27" s="18" t="s">
-        <v>383</v>
+      <c r="B27" s="22" t="s">
+        <v>382</v>
+      </c>
+      <c r="C27" s="31" t="s">
+        <v>435</v>
+      </c>
+      <c r="D27" s="13" t="s">
+        <v>384</v>
       </c>
     </row>
     <row r="28" spans="1:5" ht="36">
-      <c r="A28" s="27" t="s">
-        <v>435</v>
-      </c>
-      <c r="B28" s="27" t="s">
-        <v>381</v>
-      </c>
-      <c r="C28" s="36" t="s">
+      <c r="A28" s="22" t="s">
         <v>436</v>
       </c>
-      <c r="D28" s="18" t="s">
-        <v>383</v>
+      <c r="B28" s="22" t="s">
+        <v>382</v>
+      </c>
+      <c r="C28" s="31" t="s">
+        <v>437</v>
+      </c>
+      <c r="D28" s="13" t="s">
+        <v>384</v>
       </c>
     </row>
     <row r="29" spans="1:5" ht="36">
-      <c r="A29" s="27" t="s">
-        <v>437</v>
-      </c>
-      <c r="B29" s="27" t="s">
-        <v>381</v>
-      </c>
-      <c r="C29" s="36" t="s">
+      <c r="A29" s="22" t="s">
         <v>438</v>
       </c>
-      <c r="D29" s="18" t="s">
-        <v>383</v>
+      <c r="B29" s="22" t="s">
+        <v>382</v>
+      </c>
+      <c r="C29" s="31" t="s">
+        <v>439</v>
+      </c>
+      <c r="D29" s="13" t="s">
+        <v>384</v>
       </c>
     </row>
     <row r="30" spans="1:5" ht="36">
-      <c r="A30" s="27" t="s">
-        <v>439</v>
-      </c>
-      <c r="B30" s="27" t="s">
-        <v>381</v>
-      </c>
-      <c r="C30" s="36" t="s">
+      <c r="A30" s="22" t="s">
         <v>440</v>
       </c>
-      <c r="D30" s="18" t="s">
-        <v>383</v>
+      <c r="B30" s="22" t="s">
+        <v>382</v>
+      </c>
+      <c r="C30" s="31" t="s">
+        <v>441</v>
+      </c>
+      <c r="D30" s="13" t="s">
+        <v>384</v>
       </c>
     </row>
     <row r="31" spans="1:5" ht="36">
-      <c r="A31" s="27" t="s">
-        <v>441</v>
-      </c>
-      <c r="B31" s="27" t="s">
-        <v>381</v>
-      </c>
-      <c r="C31" s="36" t="s">
+      <c r="A31" s="22" t="s">
         <v>442</v>
       </c>
-      <c r="D31" s="18" t="s">
-        <v>383</v>
+      <c r="B31" s="22" t="s">
+        <v>382</v>
+      </c>
+      <c r="C31" s="31" t="s">
+        <v>443</v>
+      </c>
+      <c r="D31" s="13" t="s">
+        <v>384</v>
       </c>
     </row>
     <row r="32" spans="1:5" ht="36">
-      <c r="A32" s="27" t="s">
-        <v>443</v>
-      </c>
-      <c r="B32" s="27" t="s">
-        <v>381</v>
-      </c>
-      <c r="C32" s="36" t="s">
+      <c r="A32" s="22" t="s">
         <v>444</v>
       </c>
-      <c r="D32" s="18" t="s">
-        <v>383</v>
+      <c r="B32" s="22" t="s">
+        <v>382</v>
+      </c>
+      <c r="C32" s="31" t="s">
+        <v>445</v>
+      </c>
+      <c r="D32" s="13" t="s">
+        <v>384</v>
       </c>
     </row>
     <row r="33" spans="1:4" ht="36">
-      <c r="A33" s="27" t="s">
-        <v>445</v>
-      </c>
-      <c r="B33" s="27" t="s">
-        <v>381</v>
-      </c>
-      <c r="C33" s="36" t="s">
+      <c r="A33" s="22" t="s">
         <v>446</v>
       </c>
-      <c r="D33" s="18" t="s">
-        <v>383</v>
+      <c r="B33" s="22" t="s">
+        <v>382</v>
+      </c>
+      <c r="C33" s="31" t="s">
+        <v>447</v>
+      </c>
+      <c r="D33" s="13" t="s">
+        <v>384</v>
       </c>
     </row>
     <row r="34" spans="1:4" ht="36">
-      <c r="A34" s="27" t="s">
-        <v>447</v>
-      </c>
-      <c r="B34" s="27" t="s">
-        <v>381</v>
-      </c>
-      <c r="C34" s="36" t="s">
+      <c r="A34" s="22" t="s">
         <v>448</v>
       </c>
-      <c r="D34" s="18" t="s">
-        <v>383</v>
+      <c r="B34" s="22" t="s">
+        <v>382</v>
+      </c>
+      <c r="C34" s="31" t="s">
+        <v>449</v>
+      </c>
+      <c r="D34" s="13" t="s">
+        <v>384</v>
       </c>
     </row>
     <row r="35" spans="1:4" ht="36">
-      <c r="A35" s="27" t="s">
-        <v>449</v>
-      </c>
-      <c r="B35" s="27" t="s">
-        <v>381</v>
-      </c>
-      <c r="C35" s="36" t="s">
+      <c r="A35" s="22" t="s">
         <v>450</v>
       </c>
-      <c r="D35" s="18" t="s">
-        <v>383</v>
+      <c r="B35" s="22" t="s">
+        <v>382</v>
+      </c>
+      <c r="C35" s="31" t="s">
+        <v>451</v>
+      </c>
+      <c r="D35" s="13" t="s">
+        <v>384</v>
       </c>
     </row>
   </sheetData>

--- a/TestData.xlsx
+++ b/TestData.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="20225"/>
   <workbookPr autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="25600" windowHeight="14460" tabRatio="990" activeTab="6"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="25600" windowHeight="14680" tabRatio="990" activeTab="7"/>
   </bookViews>
   <sheets>
     <sheet name="Login_Credentials" sheetId="1" r:id="rId1"/>
@@ -14,6 +14,7 @@
     <sheet name="TrackCreate" sheetId="23" r:id="rId5"/>
     <sheet name="MultiCardLesson" sheetId="21" r:id="rId6"/>
     <sheet name="CreateTag" sheetId="24" r:id="rId7"/>
+    <sheet name="CreateCampaigns" sheetId="25" r:id="rId8"/>
   </sheets>
   <calcPr calcId="125725" concurrentCalc="0"/>
   <extLst>
@@ -25,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="818" uniqueCount="475">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1196" uniqueCount="620">
   <si>
     <t>TEST CASE NAME</t>
   </si>
@@ -1461,6 +1462,441 @@
   </si>
   <si>
     <t>testadmin@grovo.com</t>
+  </si>
+  <si>
+    <t>Campaigns Page display</t>
+  </si>
+  <si>
+    <t>Create Campaign for Text lesson</t>
+  </si>
+  <si>
+    <t>Header Text</t>
+  </si>
+  <si>
+    <t>Campaigns</t>
+  </si>
+  <si>
+    <t>Campaign title</t>
+  </si>
+  <si>
+    <t>Campaign_For_Text_Lesson</t>
+  </si>
+  <si>
+    <t>Message Below Header text</t>
+  </si>
+  <si>
+    <t>Campaigns make it easy to group content and assign to learners.</t>
+  </si>
+  <si>
+    <t>Campaign Description</t>
+  </si>
+  <si>
+    <t>This campaign is for text lesson</t>
+  </si>
+  <si>
+    <t>Create Campaign button</t>
+  </si>
+  <si>
+    <t>CREATE CAMPAIGN</t>
+  </si>
+  <si>
+    <t>You successfully saved "Campaign_For_Text_Lesson"</t>
+  </si>
+  <si>
+    <t>Campaigns Grid Header Text</t>
+  </si>
+  <si>
+    <t>campaigns</t>
+  </si>
+  <si>
+    <t>Lesson Data</t>
+  </si>
+  <si>
+    <t>Column 1</t>
+  </si>
+  <si>
+    <t>TITLE</t>
+  </si>
+  <si>
+    <t>Lesson_for_Campaign_with_TextCard</t>
+  </si>
+  <si>
+    <t>Column 2</t>
+  </si>
+  <si>
+    <t>DURATION</t>
+  </si>
+  <si>
+    <t>This is for Campaign</t>
+  </si>
+  <si>
+    <t>Column 3</t>
+  </si>
+  <si>
+    <t>UPDATED BY</t>
+  </si>
+  <si>
+    <t>Column 4</t>
+  </si>
+  <si>
+    <t>ACTIONS</t>
+  </si>
+  <si>
+    <t>links</t>
+  </si>
+  <si>
+    <t>Edit</t>
+  </si>
+  <si>
+    <t>Duplicate</t>
+  </si>
+  <si>
+    <t>Assign</t>
+  </si>
+  <si>
+    <t>Create Campaign for Image lesson</t>
+  </si>
+  <si>
+    <t>Campaign_For_Image_Lesson</t>
+  </si>
+  <si>
+    <t>This campaign is for Image lesson</t>
+  </si>
+  <si>
+    <t>You successfully saved "Campaign_For_Image_Lesson"</t>
+  </si>
+  <si>
+    <t>Lesson_for_Campaign_with_ImageCard</t>
+  </si>
+  <si>
+    <t>Image filePath</t>
+  </si>
+  <si>
+    <t>Create Campaign for Video lesson</t>
+  </si>
+  <si>
+    <t>Campaign_For_Video_Lesson</t>
+  </si>
+  <si>
+    <t>This campaign is for Video lesson</t>
+  </si>
+  <si>
+    <t>You successfully saved "Campaign_For_Video_Lesson"</t>
+  </si>
+  <si>
+    <t>Lesson_for_Campaign_with_VideoCard</t>
+  </si>
+  <si>
+    <t>Video filePath</t>
+  </si>
+  <si>
+    <t>Create Campaign for Document lesson</t>
+  </si>
+  <si>
+    <t>Campaign_For_Document_Lesson</t>
+  </si>
+  <si>
+    <t>This campaign is for Document lesson</t>
+  </si>
+  <si>
+    <t>You successfully saved "Campaign_For_Document_Lesson"</t>
+  </si>
+  <si>
+    <t>Lesson_for_Campaign_with_DocumentCard</t>
+  </si>
+  <si>
+    <t>Create Campaign for Question lesson</t>
+  </si>
+  <si>
+    <t>Campaign_For_Question_Lesson</t>
+  </si>
+  <si>
+    <t>This campaign is for Question lesson</t>
+  </si>
+  <si>
+    <t>You successfully saved "Campaign_For_Question_Lesson"</t>
+  </si>
+  <si>
+    <t>Lesson_for_Campaign_with_QuestionCard</t>
+  </si>
+  <si>
+    <t>What is Selenium?</t>
+  </si>
+  <si>
+    <t>Tool</t>
+  </si>
+  <si>
+    <t>maxNumberOfAttempts</t>
+  </si>
+  <si>
+    <t>Create Campaign for All Cards lesson</t>
+  </si>
+  <si>
+    <t>Campaign_For_AllCards_Lesson_OneTime</t>
+  </si>
+  <si>
+    <t>This campaign is for all cards lesson</t>
+  </si>
+  <si>
+    <t>You successfully saved "Campaign_For_AllCards_Lesson_OneTime"</t>
+  </si>
+  <si>
+    <t>Lesson_for_Campaign_with_AllCardsOneTime</t>
+  </si>
+  <si>
+    <t>This Text Card is for Campaign</t>
+  </si>
+  <si>
+    <t>All Cards Two time</t>
+  </si>
+  <si>
+    <t>Campaign_For_AllCards_Lesson_TwoTime</t>
+  </si>
+  <si>
+    <t>Lesson_for_Campaign_with_AllCardsTwoTime</t>
+  </si>
+  <si>
+    <t>You successfully saved "Campaign_For_AllCards_Lesson_TwoTime"</t>
+  </si>
+  <si>
+    <t>Create Campaign with lesson Text Image Question Cards Five times</t>
+  </si>
+  <si>
+    <t>Campaign_For_AllCards_Lesson_Txt_Img_Que_5Times</t>
+  </si>
+  <si>
+    <t>This campaign is for Text Image Question lesson 5 times</t>
+  </si>
+  <si>
+    <t>You successfully saved "Campaign_For_AllCards_Lesson_Txt_Img_Que_5Times"</t>
+  </si>
+  <si>
+    <t>Lesson_for_Campaign_with_TxtImgQues</t>
+  </si>
+  <si>
+    <t>Minimum passign score</t>
+  </si>
+  <si>
+    <t>Create Campaign for Text Video Question Lesson</t>
+  </si>
+  <si>
+    <t>Campaign_For_TxtVidQues_Lesson_10Times</t>
+  </si>
+  <si>
+    <t>This campaign is for Text Video Question lesson</t>
+  </si>
+  <si>
+    <t>You successfully saved "Campaign_For_TxtVidQues_Lesson_10Times"</t>
+  </si>
+  <si>
+    <t>Lesson_for_Campaign_with_TxtVidQues_10Times</t>
+  </si>
+  <si>
+    <t>Minimum passing score</t>
+  </si>
+  <si>
+    <t>Max No of attempts</t>
+  </si>
+  <si>
+    <t>Create Campaign for Video Document Question Lesson</t>
+  </si>
+  <si>
+    <t>Campaign_For_VidDocQues_Lesson</t>
+  </si>
+  <si>
+    <t>This campaign is for Video Document Question lesson</t>
+  </si>
+  <si>
+    <t>You successfully saved "Campaign_For_VidDocQues_Lesson"</t>
+  </si>
+  <si>
+    <t>Lesson_for_Campaign_with_VidDocQues</t>
+  </si>
+  <si>
+    <t>Create Campaign for Text lesson and Image lesson</t>
+  </si>
+  <si>
+    <t>Campaign_For_TextAndImage_Lessons</t>
+  </si>
+  <si>
+    <t>This campaign is for Text lesson and Image lesson</t>
+  </si>
+  <si>
+    <t>You successfully saved "Campaign_For_TextAndImage_Lessons"</t>
+  </si>
+  <si>
+    <t>Lesson name 1</t>
+  </si>
+  <si>
+    <t>Lesson_for_Campaign_with_Text_Image_Lesson(1)</t>
+  </si>
+  <si>
+    <t>Campaign Text Card</t>
+  </si>
+  <si>
+    <t>Lesson Name 2</t>
+  </si>
+  <si>
+    <t>Lesson_for_Campaign_with_Text_Image_Lesson(2)</t>
+  </si>
+  <si>
+    <t>Create Campaign for Image lesson and Video lesson</t>
+  </si>
+  <si>
+    <t>Campaign_For_ImageAndVideo_Lessons</t>
+  </si>
+  <si>
+    <t>This campaign is for Image lesson and Video lesson</t>
+  </si>
+  <si>
+    <t>You successfully saved "Campaign_For_ImageAndVideo_Lessons"</t>
+  </si>
+  <si>
+    <t>Lesson_for_Campaign_with_Image_Video_Lesson(1)</t>
+  </si>
+  <si>
+    <t>Lesson_for_Campaign_with_Image_Video_Lesson(2)</t>
+  </si>
+  <si>
+    <t>Video file path</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Create Campaign for Video lesson,Document lesson and Question Lesson </t>
+  </si>
+  <si>
+    <t>Campaign_For_VideoDocumentQuestion_Lessons</t>
+  </si>
+  <si>
+    <t>This campaign is for Video, Document and Question lesson</t>
+  </si>
+  <si>
+    <t>You successfully saved "Campaign_For_VideoDocumentQuestion_Lessons"</t>
+  </si>
+  <si>
+    <t>Lesson_for_Campaign_Video_Doc_Que_Lesson(1)</t>
+  </si>
+  <si>
+    <t>Lesson_for_Campaign_Video_Doc_Que_Lesson(2)</t>
+  </si>
+  <si>
+    <t>Document file path</t>
+  </si>
+  <si>
+    <t>Lesson Name 3</t>
+  </si>
+  <si>
+    <t>Lesson_for_Campaign_Video_Doc_Que_Lesson(3)</t>
+  </si>
+  <si>
+    <t>Create Campaign for Question lesson,AllCards 1 time and All cards 2time</t>
+  </si>
+  <si>
+    <t>Campaign_For_QueAllCards1And2Times_Lessons</t>
+  </si>
+  <si>
+    <t>This campaign is for Question, All cards One time and all cards two time</t>
+  </si>
+  <si>
+    <t>You successfully saved "Campaign_For_QueAllCards1And2Times_Lessons"</t>
+  </si>
+  <si>
+    <t>Max no of attempts</t>
+  </si>
+  <si>
+    <t>Lesson_for_Campaign_ThreeLessons(1)</t>
+  </si>
+  <si>
+    <t>Lesson_for_Campaign_ThreeLessons(2)</t>
+  </si>
+  <si>
+    <t>Lesson_for_Campaign_ThreeLessons(3)</t>
+  </si>
+  <si>
+    <t>Create Campaign for Four lessons -all cards two time, textImgques, textvidques, viddocques</t>
+  </si>
+  <si>
+    <t>Campaign_For_FourLessonsCombiOne</t>
+  </si>
+  <si>
+    <t>This campaign is for four lessons allcards2, textimgques, textvidques, VidDocQues</t>
+  </si>
+  <si>
+    <t>You successfully saved "Campaign_For_FourLessonsCombiOne"</t>
+  </si>
+  <si>
+    <t>Lesson_for_Campaign_FourLessonsCombiOne(1)</t>
+  </si>
+  <si>
+    <t>Lesson_for_Campaign_FourLessonsCombiOne(2)</t>
+  </si>
+  <si>
+    <t>Lesson_for_Campaign_FourLessonsCombiOne(3)</t>
+  </si>
+  <si>
+    <t>Lesson Name 4</t>
+  </si>
+  <si>
+    <t>Lesson_for_Campaign_FourLessonsCombiOne(4)</t>
+  </si>
+  <si>
+    <t>This is text card for four lessons</t>
+  </si>
+  <si>
+    <t>Ans 3</t>
+  </si>
+  <si>
+    <t>Create Campaign for Four lessons -TextVidQues, Text, Image, Video</t>
+  </si>
+  <si>
+    <t>Campaign_For_FourLessonsCombiTwo</t>
+  </si>
+  <si>
+    <t>This campaign is for four lessons TextVideoQues, Text, Image, Video</t>
+  </si>
+  <si>
+    <t>You successfully saved "Campaign_For_FourLessonsCombiTwo"</t>
+  </si>
+  <si>
+    <t>Lesson_for_Campaign_FourLessonsCombiTwo(1)</t>
+  </si>
+  <si>
+    <t>Lesson_for_Campaign_FourLessonsCombiTwo(2)</t>
+  </si>
+  <si>
+    <t>Lesson_for_Campaign_FourLessonsCombiTwo(3)</t>
+  </si>
+  <si>
+    <t>Lesson_for_Campaign_FourLessonsCombiTwo(4)</t>
+  </si>
+  <si>
+    <t>This is text card for four lessons 2nd combi</t>
+  </si>
+  <si>
+    <t>Create Campaign for Four lessons -Document, Question, AllcardsOnetime, AllcardsTwotime</t>
+  </si>
+  <si>
+    <t>Campaign_For_FourLessonsCombiThree</t>
+  </si>
+  <si>
+    <t>This campaign is for four lessons Document, Question, AllcardsOnetime, AllcardsTwoTime</t>
+  </si>
+  <si>
+    <t>You successfully saved "Campaign_For_FourLessonsCombiThree"</t>
+  </si>
+  <si>
+    <t>Lesson_for_Campaign_FourLessonsCombiThree(1)</t>
+  </si>
+  <si>
+    <t>Lesson_for_Campaign_FourLessonsCombiThree(2)</t>
+  </si>
+  <si>
+    <t>Lesson_for_Campaign_FourLessonsCombiThree(3)</t>
+  </si>
+  <si>
+    <t>Lesson_for_Campaign_FourLessonsCombiThree(4)</t>
+  </si>
+  <si>
+    <t>This is text card for four lessons 3rd combi</t>
   </si>
 </sst>
 </file>
@@ -2644,7 +3080,7 @@
   <dimension ref="A1:AMK103"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C18" sqref="C18"/>
+      <selection activeCell="C27" sqref="C27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="60" defaultRowHeight="18" x14ac:dyDescent="0"/>
@@ -5196,7 +5632,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E35"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="A7" sqref="A7"/>
     </sheetView>
   </sheetViews>
@@ -5731,4 +6167,1766 @@
     </ext>
   </extLst>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:E242"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="A20" workbookViewId="0">
+      <selection activeCell="E45" sqref="E45"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="18" x14ac:dyDescent="0"/>
+  <cols>
+    <col min="1" max="1" width="31.5" style="10" customWidth="1"/>
+    <col min="2" max="2" width="74.83203125" style="10" customWidth="1"/>
+    <col min="3" max="3" width="22.33203125" style="10" customWidth="1"/>
+    <col min="4" max="4" width="28" style="10" customWidth="1"/>
+    <col min="5" max="5" width="57.5" style="10" customWidth="1"/>
+    <col min="6" max="16384" width="8.83203125" style="10"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:5">
+      <c r="A1" s="32" t="s">
+        <v>475</v>
+      </c>
+      <c r="B1" s="32"/>
+      <c r="D1" s="33" t="s">
+        <v>476</v>
+      </c>
+      <c r="E1" s="34"/>
+    </row>
+    <row r="2" spans="1:5" ht="30" customHeight="1">
+      <c r="A2" s="11" t="s">
+        <v>477</v>
+      </c>
+      <c r="B2" s="12" t="s">
+        <v>478</v>
+      </c>
+      <c r="D2" s="11" t="s">
+        <v>479</v>
+      </c>
+      <c r="E2" s="11" t="s">
+        <v>480</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" ht="33" customHeight="1">
+      <c r="A3" s="11" t="s">
+        <v>481</v>
+      </c>
+      <c r="B3" s="12" t="s">
+        <v>482</v>
+      </c>
+      <c r="D3" s="11" t="s">
+        <v>483</v>
+      </c>
+      <c r="E3" s="11" t="s">
+        <v>484</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5">
+      <c r="A4" s="11" t="s">
+        <v>485</v>
+      </c>
+      <c r="B4" s="12" t="s">
+        <v>486</v>
+      </c>
+      <c r="D4" s="11" t="s">
+        <v>109</v>
+      </c>
+      <c r="E4" s="11" t="s">
+        <v>487</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5">
+      <c r="A5" s="11" t="s">
+        <v>488</v>
+      </c>
+      <c r="B5" s="12" t="s">
+        <v>489</v>
+      </c>
+      <c r="D5" s="33" t="s">
+        <v>490</v>
+      </c>
+      <c r="E5" s="34"/>
+    </row>
+    <row r="6" spans="1:5">
+      <c r="A6" s="11" t="s">
+        <v>491</v>
+      </c>
+      <c r="B6" s="12" t="s">
+        <v>492</v>
+      </c>
+      <c r="D6" s="11" t="s">
+        <v>212</v>
+      </c>
+      <c r="E6" s="11" t="s">
+        <v>493</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5">
+      <c r="A7" s="11" t="s">
+        <v>494</v>
+      </c>
+      <c r="B7" s="12" t="s">
+        <v>495</v>
+      </c>
+      <c r="D7" s="11" t="s">
+        <v>165</v>
+      </c>
+      <c r="E7" s="11" t="s">
+        <v>496</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5">
+      <c r="A8" s="11" t="s">
+        <v>497</v>
+      </c>
+      <c r="B8" s="12" t="s">
+        <v>498</v>
+      </c>
+      <c r="D8" s="11"/>
+      <c r="E8" s="11"/>
+    </row>
+    <row r="9" spans="1:5">
+      <c r="A9" s="11" t="s">
+        <v>499</v>
+      </c>
+      <c r="B9" s="12" t="s">
+        <v>500</v>
+      </c>
+      <c r="D9" s="11"/>
+      <c r="E9" s="11"/>
+    </row>
+    <row r="10" spans="1:5">
+      <c r="A10" s="11" t="s">
+        <v>501</v>
+      </c>
+      <c r="B10" s="12" t="s">
+        <v>502</v>
+      </c>
+      <c r="D10" s="11"/>
+      <c r="E10" s="11"/>
+    </row>
+    <row r="11" spans="1:5">
+      <c r="A11" s="11"/>
+      <c r="B11" s="12" t="s">
+        <v>503</v>
+      </c>
+      <c r="D11" s="11"/>
+      <c r="E11" s="11"/>
+    </row>
+    <row r="12" spans="1:5">
+      <c r="A12" s="11"/>
+      <c r="B12" s="12" t="s">
+        <v>504</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5">
+      <c r="A13" s="11"/>
+      <c r="B13" s="11"/>
+    </row>
+    <row r="16" spans="1:5">
+      <c r="A16" s="33" t="s">
+        <v>505</v>
+      </c>
+      <c r="B16" s="34"/>
+    </row>
+    <row r="17" spans="1:2">
+      <c r="A17" s="11" t="s">
+        <v>479</v>
+      </c>
+      <c r="B17" s="11" t="s">
+        <v>506</v>
+      </c>
+    </row>
+    <row r="18" spans="1:2">
+      <c r="A18" s="11" t="s">
+        <v>483</v>
+      </c>
+      <c r="B18" s="11" t="s">
+        <v>507</v>
+      </c>
+    </row>
+    <row r="19" spans="1:2">
+      <c r="A19" s="11" t="s">
+        <v>109</v>
+      </c>
+      <c r="B19" s="11" t="s">
+        <v>508</v>
+      </c>
+    </row>
+    <row r="20" spans="1:2">
+      <c r="A20" s="33" t="s">
+        <v>490</v>
+      </c>
+      <c r="B20" s="34"/>
+    </row>
+    <row r="21" spans="1:2">
+      <c r="A21" s="11" t="s">
+        <v>212</v>
+      </c>
+      <c r="B21" s="11" t="s">
+        <v>509</v>
+      </c>
+    </row>
+    <row r="22" spans="1:2">
+      <c r="A22" s="11" t="s">
+        <v>510</v>
+      </c>
+      <c r="B22" s="11" t="s">
+        <v>455</v>
+      </c>
+    </row>
+    <row r="23" spans="1:2">
+      <c r="A23" s="11"/>
+      <c r="B23" s="11"/>
+    </row>
+    <row r="26" spans="1:2">
+      <c r="A26" s="33" t="s">
+        <v>511</v>
+      </c>
+      <c r="B26" s="34"/>
+    </row>
+    <row r="27" spans="1:2">
+      <c r="A27" s="11" t="s">
+        <v>479</v>
+      </c>
+      <c r="B27" s="11" t="s">
+        <v>512</v>
+      </c>
+    </row>
+    <row r="28" spans="1:2">
+      <c r="A28" s="11" t="s">
+        <v>483</v>
+      </c>
+      <c r="B28" s="11" t="s">
+        <v>513</v>
+      </c>
+    </row>
+    <row r="29" spans="1:2">
+      <c r="A29" s="11" t="s">
+        <v>109</v>
+      </c>
+      <c r="B29" s="11" t="s">
+        <v>514</v>
+      </c>
+    </row>
+    <row r="30" spans="1:2">
+      <c r="A30" s="33" t="s">
+        <v>490</v>
+      </c>
+      <c r="B30" s="34"/>
+    </row>
+    <row r="31" spans="1:2">
+      <c r="A31" s="11" t="s">
+        <v>212</v>
+      </c>
+      <c r="B31" s="11" t="s">
+        <v>515</v>
+      </c>
+    </row>
+    <row r="32" spans="1:2">
+      <c r="A32" s="11" t="s">
+        <v>516</v>
+      </c>
+      <c r="B32" s="11" t="s">
+        <v>456</v>
+      </c>
+    </row>
+    <row r="33" spans="1:2">
+      <c r="A33" s="11" t="s">
+        <v>132</v>
+      </c>
+      <c r="B33" s="11">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="35" spans="1:2">
+      <c r="A35" s="33" t="s">
+        <v>517</v>
+      </c>
+      <c r="B35" s="34"/>
+    </row>
+    <row r="36" spans="1:2">
+      <c r="A36" s="11" t="s">
+        <v>479</v>
+      </c>
+      <c r="B36" s="11" t="s">
+        <v>518</v>
+      </c>
+    </row>
+    <row r="37" spans="1:2">
+      <c r="A37" s="11" t="s">
+        <v>483</v>
+      </c>
+      <c r="B37" s="11" t="s">
+        <v>519</v>
+      </c>
+    </row>
+    <row r="38" spans="1:2">
+      <c r="A38" s="11" t="s">
+        <v>109</v>
+      </c>
+      <c r="B38" s="11" t="s">
+        <v>520</v>
+      </c>
+    </row>
+    <row r="39" spans="1:2">
+      <c r="A39" s="33" t="s">
+        <v>490</v>
+      </c>
+      <c r="B39" s="34"/>
+    </row>
+    <row r="40" spans="1:2">
+      <c r="A40" s="11" t="s">
+        <v>212</v>
+      </c>
+      <c r="B40" s="11" t="s">
+        <v>521</v>
+      </c>
+    </row>
+    <row r="41" spans="1:2">
+      <c r="A41" s="11" t="s">
+        <v>516</v>
+      </c>
+      <c r="B41" s="11" t="s">
+        <v>457</v>
+      </c>
+    </row>
+    <row r="42" spans="1:2">
+      <c r="A42" s="11" t="s">
+        <v>132</v>
+      </c>
+      <c r="B42" s="11">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="44" spans="1:2">
+      <c r="A44" s="33" t="s">
+        <v>522</v>
+      </c>
+      <c r="B44" s="34"/>
+    </row>
+    <row r="45" spans="1:2">
+      <c r="A45" s="11" t="s">
+        <v>479</v>
+      </c>
+      <c r="B45" s="11" t="s">
+        <v>523</v>
+      </c>
+    </row>
+    <row r="46" spans="1:2">
+      <c r="A46" s="11" t="s">
+        <v>483</v>
+      </c>
+      <c r="B46" s="11" t="s">
+        <v>524</v>
+      </c>
+    </row>
+    <row r="47" spans="1:2">
+      <c r="A47" s="11" t="s">
+        <v>109</v>
+      </c>
+      <c r="B47" s="11" t="s">
+        <v>525</v>
+      </c>
+    </row>
+    <row r="48" spans="1:2">
+      <c r="A48" s="33" t="s">
+        <v>490</v>
+      </c>
+      <c r="B48" s="34"/>
+    </row>
+    <row r="49" spans="1:2">
+      <c r="A49" s="11" t="s">
+        <v>212</v>
+      </c>
+      <c r="B49" s="11" t="s">
+        <v>526</v>
+      </c>
+    </row>
+    <row r="50" spans="1:2">
+      <c r="A50" s="11" t="s">
+        <v>24</v>
+      </c>
+      <c r="B50" s="11" t="s">
+        <v>527</v>
+      </c>
+    </row>
+    <row r="51" spans="1:2">
+      <c r="A51" s="11" t="s">
+        <v>151</v>
+      </c>
+      <c r="B51" s="11" t="s">
+        <v>528</v>
+      </c>
+    </row>
+    <row r="52" spans="1:2">
+      <c r="A52" s="11" t="s">
+        <v>152</v>
+      </c>
+      <c r="B52" s="11" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="53" spans="1:2">
+      <c r="A53" s="11" t="s">
+        <v>529</v>
+      </c>
+      <c r="B53" s="11">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="55" spans="1:2">
+      <c r="A55" s="33" t="s">
+        <v>530</v>
+      </c>
+      <c r="B55" s="34"/>
+    </row>
+    <row r="56" spans="1:2">
+      <c r="A56" s="11" t="s">
+        <v>479</v>
+      </c>
+      <c r="B56" s="11" t="s">
+        <v>531</v>
+      </c>
+    </row>
+    <row r="57" spans="1:2">
+      <c r="A57" s="11" t="s">
+        <v>483</v>
+      </c>
+      <c r="B57" s="11" t="s">
+        <v>532</v>
+      </c>
+    </row>
+    <row r="58" spans="1:2">
+      <c r="A58" s="11" t="s">
+        <v>109</v>
+      </c>
+      <c r="B58" s="11" t="s">
+        <v>533</v>
+      </c>
+    </row>
+    <row r="59" spans="1:2">
+      <c r="A59" s="33" t="s">
+        <v>490</v>
+      </c>
+      <c r="B59" s="34"/>
+    </row>
+    <row r="60" spans="1:2">
+      <c r="A60" s="11" t="s">
+        <v>212</v>
+      </c>
+      <c r="B60" s="11" t="s">
+        <v>534</v>
+      </c>
+    </row>
+    <row r="61" spans="1:2">
+      <c r="A61" s="11" t="s">
+        <v>236</v>
+      </c>
+      <c r="B61" s="11" t="s">
+        <v>535</v>
+      </c>
+    </row>
+    <row r="62" spans="1:2">
+      <c r="A62" s="11" t="s">
+        <v>180</v>
+      </c>
+      <c r="B62" s="11" t="s">
+        <v>455</v>
+      </c>
+    </row>
+    <row r="63" spans="1:2">
+      <c r="A63" s="11" t="s">
+        <v>191</v>
+      </c>
+      <c r="B63" s="11" t="s">
+        <v>456</v>
+      </c>
+    </row>
+    <row r="64" spans="1:2">
+      <c r="A64" s="11" t="s">
+        <v>132</v>
+      </c>
+      <c r="B64" s="11">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="65" spans="1:2">
+      <c r="A65" s="11" t="s">
+        <v>277</v>
+      </c>
+      <c r="B65" s="11" t="s">
+        <v>457</v>
+      </c>
+    </row>
+    <row r="66" spans="1:2">
+      <c r="A66" s="11" t="s">
+        <v>24</v>
+      </c>
+      <c r="B66" s="11" t="s">
+        <v>527</v>
+      </c>
+    </row>
+    <row r="67" spans="1:2">
+      <c r="A67" s="11" t="s">
+        <v>151</v>
+      </c>
+      <c r="B67" s="11" t="s">
+        <v>528</v>
+      </c>
+    </row>
+    <row r="68" spans="1:2">
+      <c r="A68" s="11" t="s">
+        <v>152</v>
+      </c>
+      <c r="B68" s="11" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="69" spans="1:2">
+      <c r="A69" s="32" t="s">
+        <v>536</v>
+      </c>
+      <c r="B69" s="32"/>
+    </row>
+    <row r="70" spans="1:2">
+      <c r="A70" s="11" t="s">
+        <v>99</v>
+      </c>
+      <c r="B70" s="11" t="s">
+        <v>537</v>
+      </c>
+    </row>
+    <row r="71" spans="1:2">
+      <c r="A71" s="11" t="s">
+        <v>212</v>
+      </c>
+      <c r="B71" s="11" t="s">
+        <v>538</v>
+      </c>
+    </row>
+    <row r="72" spans="1:2">
+      <c r="A72" s="11" t="s">
+        <v>109</v>
+      </c>
+      <c r="B72" s="11" t="s">
+        <v>539</v>
+      </c>
+    </row>
+    <row r="75" spans="1:2">
+      <c r="A75" s="33" t="s">
+        <v>540</v>
+      </c>
+      <c r="B75" s="34"/>
+    </row>
+    <row r="76" spans="1:2">
+      <c r="A76" s="11" t="s">
+        <v>479</v>
+      </c>
+      <c r="B76" s="11" t="s">
+        <v>541</v>
+      </c>
+    </row>
+    <row r="77" spans="1:2">
+      <c r="A77" s="11" t="s">
+        <v>483</v>
+      </c>
+      <c r="B77" s="11" t="s">
+        <v>542</v>
+      </c>
+    </row>
+    <row r="78" spans="1:2" ht="36">
+      <c r="A78" s="11" t="s">
+        <v>109</v>
+      </c>
+      <c r="B78" s="11" t="s">
+        <v>543</v>
+      </c>
+    </row>
+    <row r="79" spans="1:2">
+      <c r="A79" s="33" t="s">
+        <v>490</v>
+      </c>
+      <c r="B79" s="34"/>
+    </row>
+    <row r="80" spans="1:2">
+      <c r="A80" s="11" t="s">
+        <v>212</v>
+      </c>
+      <c r="B80" s="11" t="s">
+        <v>544</v>
+      </c>
+    </row>
+    <row r="81" spans="1:2">
+      <c r="A81" s="11" t="s">
+        <v>236</v>
+      </c>
+      <c r="B81" s="11" t="s">
+        <v>535</v>
+      </c>
+    </row>
+    <row r="82" spans="1:2">
+      <c r="A82" s="11" t="s">
+        <v>180</v>
+      </c>
+      <c r="B82" s="11" t="s">
+        <v>455</v>
+      </c>
+    </row>
+    <row r="83" spans="1:2">
+      <c r="A83" s="11" t="s">
+        <v>24</v>
+      </c>
+      <c r="B83" s="11" t="s">
+        <v>527</v>
+      </c>
+    </row>
+    <row r="84" spans="1:2">
+      <c r="A84" s="11" t="s">
+        <v>151</v>
+      </c>
+      <c r="B84" s="11" t="s">
+        <v>528</v>
+      </c>
+    </row>
+    <row r="85" spans="1:2">
+      <c r="A85" s="11" t="s">
+        <v>152</v>
+      </c>
+      <c r="B85" s="11" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="86" spans="1:2">
+      <c r="A86" s="11" t="s">
+        <v>545</v>
+      </c>
+      <c r="B86" s="11">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="89" spans="1:2">
+      <c r="A89" s="33" t="s">
+        <v>546</v>
+      </c>
+      <c r="B89" s="34"/>
+    </row>
+    <row r="90" spans="1:2">
+      <c r="A90" s="11" t="s">
+        <v>479</v>
+      </c>
+      <c r="B90" s="11" t="s">
+        <v>547</v>
+      </c>
+    </row>
+    <row r="91" spans="1:2">
+      <c r="A91" s="11" t="s">
+        <v>483</v>
+      </c>
+      <c r="B91" s="11" t="s">
+        <v>548</v>
+      </c>
+    </row>
+    <row r="92" spans="1:2">
+      <c r="A92" s="11" t="s">
+        <v>109</v>
+      </c>
+      <c r="B92" s="11" t="s">
+        <v>549</v>
+      </c>
+    </row>
+    <row r="93" spans="1:2">
+      <c r="A93" s="33" t="s">
+        <v>490</v>
+      </c>
+      <c r="B93" s="34"/>
+    </row>
+    <row r="94" spans="1:2">
+      <c r="A94" s="11" t="s">
+        <v>212</v>
+      </c>
+      <c r="B94" s="11" t="s">
+        <v>550</v>
+      </c>
+    </row>
+    <row r="95" spans="1:2">
+      <c r="A95" s="11" t="s">
+        <v>236</v>
+      </c>
+      <c r="B95" s="11" t="s">
+        <v>535</v>
+      </c>
+    </row>
+    <row r="96" spans="1:2">
+      <c r="A96" s="11" t="s">
+        <v>191</v>
+      </c>
+      <c r="B96" s="11" t="s">
+        <v>456</v>
+      </c>
+    </row>
+    <row r="97" spans="1:2">
+      <c r="A97" s="11" t="s">
+        <v>132</v>
+      </c>
+      <c r="B97" s="11">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="98" spans="1:2">
+      <c r="A98" s="11" t="s">
+        <v>24</v>
+      </c>
+      <c r="B98" s="11" t="s">
+        <v>527</v>
+      </c>
+    </row>
+    <row r="99" spans="1:2">
+      <c r="A99" s="11" t="s">
+        <v>151</v>
+      </c>
+      <c r="B99" s="11" t="s">
+        <v>528</v>
+      </c>
+    </row>
+    <row r="100" spans="1:2">
+      <c r="A100" s="11" t="s">
+        <v>152</v>
+      </c>
+      <c r="B100" s="11" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="101" spans="1:2">
+      <c r="A101" s="11" t="s">
+        <v>551</v>
+      </c>
+      <c r="B101" s="11">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="102" spans="1:2">
+      <c r="A102" s="11" t="s">
+        <v>552</v>
+      </c>
+      <c r="B102" s="11">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="105" spans="1:2">
+      <c r="A105" s="32" t="s">
+        <v>553</v>
+      </c>
+      <c r="B105" s="32"/>
+    </row>
+    <row r="106" spans="1:2">
+      <c r="A106" s="11" t="s">
+        <v>479</v>
+      </c>
+      <c r="B106" s="11" t="s">
+        <v>554</v>
+      </c>
+    </row>
+    <row r="107" spans="1:2">
+      <c r="A107" s="11" t="s">
+        <v>483</v>
+      </c>
+      <c r="B107" s="11" t="s">
+        <v>555</v>
+      </c>
+    </row>
+    <row r="108" spans="1:2">
+      <c r="A108" s="11" t="s">
+        <v>109</v>
+      </c>
+      <c r="B108" s="11" t="s">
+        <v>556</v>
+      </c>
+    </row>
+    <row r="109" spans="1:2">
+      <c r="A109" s="11" t="s">
+        <v>551</v>
+      </c>
+      <c r="B109" s="11">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="110" spans="1:2">
+      <c r="A110" s="11" t="s">
+        <v>552</v>
+      </c>
+      <c r="B110" s="11">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="111" spans="1:2">
+      <c r="A111" s="32" t="s">
+        <v>490</v>
+      </c>
+      <c r="B111" s="32"/>
+    </row>
+    <row r="112" spans="1:2">
+      <c r="A112" s="11" t="s">
+        <v>212</v>
+      </c>
+      <c r="B112" s="11" t="s">
+        <v>557</v>
+      </c>
+    </row>
+    <row r="113" spans="1:2">
+      <c r="A113" s="11" t="s">
+        <v>191</v>
+      </c>
+      <c r="B113" s="11" t="s">
+        <v>456</v>
+      </c>
+    </row>
+    <row r="114" spans="1:2">
+      <c r="A114" s="11" t="s">
+        <v>132</v>
+      </c>
+      <c r="B114" s="11">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="115" spans="1:2">
+      <c r="A115" s="11" t="s">
+        <v>277</v>
+      </c>
+      <c r="B115" s="11" t="s">
+        <v>457</v>
+      </c>
+    </row>
+    <row r="116" spans="1:2">
+      <c r="A116" s="11" t="s">
+        <v>24</v>
+      </c>
+      <c r="B116" s="11" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="117" spans="1:2">
+      <c r="A117" s="11" t="s">
+        <v>151</v>
+      </c>
+      <c r="B117" s="11" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="118" spans="1:2">
+      <c r="A118" s="11" t="s">
+        <v>152</v>
+      </c>
+      <c r="B118" s="11" t="s">
+        <v>528</v>
+      </c>
+    </row>
+    <row r="121" spans="1:2">
+      <c r="A121" s="32" t="s">
+        <v>558</v>
+      </c>
+      <c r="B121" s="32"/>
+    </row>
+    <row r="122" spans="1:2">
+      <c r="A122" s="11" t="s">
+        <v>479</v>
+      </c>
+      <c r="B122" s="11" t="s">
+        <v>559</v>
+      </c>
+    </row>
+    <row r="123" spans="1:2">
+      <c r="A123" s="11" t="s">
+        <v>483</v>
+      </c>
+      <c r="B123" s="11" t="s">
+        <v>560</v>
+      </c>
+    </row>
+    <row r="124" spans="1:2">
+      <c r="A124" s="11" t="s">
+        <v>109</v>
+      </c>
+      <c r="B124" s="11" t="s">
+        <v>561</v>
+      </c>
+    </row>
+    <row r="125" spans="1:2">
+      <c r="A125" s="32" t="s">
+        <v>490</v>
+      </c>
+      <c r="B125" s="32"/>
+    </row>
+    <row r="126" spans="1:2">
+      <c r="A126" s="11" t="s">
+        <v>562</v>
+      </c>
+      <c r="B126" s="11" t="s">
+        <v>563</v>
+      </c>
+    </row>
+    <row r="127" spans="1:2">
+      <c r="A127" s="11" t="s">
+        <v>236</v>
+      </c>
+      <c r="B127" s="11" t="s">
+        <v>564</v>
+      </c>
+    </row>
+    <row r="128" spans="1:2">
+      <c r="A128" s="11" t="s">
+        <v>565</v>
+      </c>
+      <c r="B128" s="11" t="s">
+        <v>566</v>
+      </c>
+    </row>
+    <row r="129" spans="1:2">
+      <c r="A129" s="11" t="s">
+        <v>180</v>
+      </c>
+      <c r="B129" s="11" t="s">
+        <v>455</v>
+      </c>
+    </row>
+    <row r="132" spans="1:2">
+      <c r="A132" s="32" t="s">
+        <v>567</v>
+      </c>
+      <c r="B132" s="32"/>
+    </row>
+    <row r="133" spans="1:2">
+      <c r="A133" s="11" t="s">
+        <v>479</v>
+      </c>
+      <c r="B133" s="11" t="s">
+        <v>568</v>
+      </c>
+    </row>
+    <row r="134" spans="1:2">
+      <c r="A134" s="11" t="s">
+        <v>483</v>
+      </c>
+      <c r="B134" s="11" t="s">
+        <v>569</v>
+      </c>
+    </row>
+    <row r="135" spans="1:2">
+      <c r="A135" s="11" t="s">
+        <v>109</v>
+      </c>
+      <c r="B135" s="11" t="s">
+        <v>570</v>
+      </c>
+    </row>
+    <row r="136" spans="1:2">
+      <c r="A136" s="32" t="s">
+        <v>490</v>
+      </c>
+      <c r="B136" s="32"/>
+    </row>
+    <row r="137" spans="1:2">
+      <c r="A137" s="11" t="s">
+        <v>562</v>
+      </c>
+      <c r="B137" s="11" t="s">
+        <v>571</v>
+      </c>
+    </row>
+    <row r="138" spans="1:2">
+      <c r="A138" s="11" t="s">
+        <v>236</v>
+      </c>
+      <c r="B138" s="11" t="s">
+        <v>455</v>
+      </c>
+    </row>
+    <row r="139" spans="1:2">
+      <c r="A139" s="11" t="s">
+        <v>565</v>
+      </c>
+      <c r="B139" s="11" t="s">
+        <v>572</v>
+      </c>
+    </row>
+    <row r="140" spans="1:2">
+      <c r="A140" s="11" t="s">
+        <v>573</v>
+      </c>
+      <c r="B140" s="11" t="s">
+        <v>456</v>
+      </c>
+    </row>
+    <row r="141" spans="1:2">
+      <c r="A141" s="11" t="s">
+        <v>132</v>
+      </c>
+      <c r="B141" s="11">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="144" spans="1:2">
+      <c r="A144" s="32" t="s">
+        <v>574</v>
+      </c>
+      <c r="B144" s="32"/>
+    </row>
+    <row r="145" spans="1:2">
+      <c r="A145" s="11" t="s">
+        <v>479</v>
+      </c>
+      <c r="B145" s="11" t="s">
+        <v>575</v>
+      </c>
+    </row>
+    <row r="146" spans="1:2">
+      <c r="A146" s="11" t="s">
+        <v>483</v>
+      </c>
+      <c r="B146" s="11" t="s">
+        <v>576</v>
+      </c>
+    </row>
+    <row r="147" spans="1:2">
+      <c r="A147" s="11" t="s">
+        <v>109</v>
+      </c>
+      <c r="B147" s="11" t="s">
+        <v>577</v>
+      </c>
+    </row>
+    <row r="148" spans="1:2">
+      <c r="A148" s="32" t="s">
+        <v>490</v>
+      </c>
+      <c r="B148" s="32"/>
+    </row>
+    <row r="149" spans="1:2">
+      <c r="A149" s="11" t="s">
+        <v>562</v>
+      </c>
+      <c r="B149" s="11" t="s">
+        <v>578</v>
+      </c>
+    </row>
+    <row r="150" spans="1:2">
+      <c r="A150" s="11" t="s">
+        <v>573</v>
+      </c>
+      <c r="B150" s="11" t="s">
+        <v>456</v>
+      </c>
+    </row>
+    <row r="151" spans="1:2">
+      <c r="A151" s="11" t="s">
+        <v>132</v>
+      </c>
+      <c r="B151" s="11">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="152" spans="1:2">
+      <c r="A152" s="11" t="s">
+        <v>565</v>
+      </c>
+      <c r="B152" s="11" t="s">
+        <v>579</v>
+      </c>
+    </row>
+    <row r="153" spans="1:2">
+      <c r="A153" s="11" t="s">
+        <v>580</v>
+      </c>
+      <c r="B153" s="11" t="s">
+        <v>457</v>
+      </c>
+    </row>
+    <row r="154" spans="1:2">
+      <c r="A154" s="11" t="s">
+        <v>139</v>
+      </c>
+      <c r="B154" s="11">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="155" spans="1:2">
+      <c r="A155" s="11" t="s">
+        <v>581</v>
+      </c>
+      <c r="B155" s="11" t="s">
+        <v>582</v>
+      </c>
+    </row>
+    <row r="156" spans="1:2">
+      <c r="A156" s="11" t="s">
+        <v>24</v>
+      </c>
+      <c r="B156" s="11" t="s">
+        <v>214</v>
+      </c>
+    </row>
+    <row r="157" spans="1:2">
+      <c r="A157" s="11" t="s">
+        <v>151</v>
+      </c>
+      <c r="B157" s="11" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="158" spans="1:2">
+      <c r="A158" s="11" t="s">
+        <v>152</v>
+      </c>
+      <c r="B158" s="11" t="s">
+        <v>528</v>
+      </c>
+    </row>
+    <row r="159" spans="1:2">
+      <c r="A159" s="11" t="s">
+        <v>551</v>
+      </c>
+      <c r="B159" s="11">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="162" spans="1:2">
+      <c r="A162" s="32" t="s">
+        <v>583</v>
+      </c>
+      <c r="B162" s="32"/>
+    </row>
+    <row r="163" spans="1:2">
+      <c r="A163" s="11" t="s">
+        <v>479</v>
+      </c>
+      <c r="B163" s="11" t="s">
+        <v>584</v>
+      </c>
+    </row>
+    <row r="164" spans="1:2">
+      <c r="A164" s="11" t="s">
+        <v>483</v>
+      </c>
+      <c r="B164" s="11" t="s">
+        <v>585</v>
+      </c>
+    </row>
+    <row r="165" spans="1:2">
+      <c r="A165" s="11" t="s">
+        <v>109</v>
+      </c>
+      <c r="B165" s="11" t="s">
+        <v>586</v>
+      </c>
+    </row>
+    <row r="166" spans="1:2">
+      <c r="A166" s="11" t="s">
+        <v>551</v>
+      </c>
+      <c r="B166" s="11">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="167" spans="1:2">
+      <c r="A167" s="11" t="s">
+        <v>587</v>
+      </c>
+      <c r="B167" s="11">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="168" spans="1:2">
+      <c r="A168" s="32" t="s">
+        <v>490</v>
+      </c>
+      <c r="B168" s="32"/>
+    </row>
+    <row r="169" spans="1:2">
+      <c r="A169" s="11" t="s">
+        <v>562</v>
+      </c>
+      <c r="B169" s="11" t="s">
+        <v>588</v>
+      </c>
+    </row>
+    <row r="170" spans="1:2">
+      <c r="A170" s="11" t="s">
+        <v>565</v>
+      </c>
+      <c r="B170" s="11" t="s">
+        <v>589</v>
+      </c>
+    </row>
+    <row r="171" spans="1:2">
+      <c r="A171" s="11" t="s">
+        <v>581</v>
+      </c>
+      <c r="B171" s="11" t="s">
+        <v>590</v>
+      </c>
+    </row>
+    <row r="172" spans="1:2">
+      <c r="A172" s="11" t="s">
+        <v>236</v>
+      </c>
+      <c r="B172" s="11" t="s">
+        <v>174</v>
+      </c>
+    </row>
+    <row r="173" spans="1:2">
+      <c r="A173" s="11" t="s">
+        <v>147</v>
+      </c>
+      <c r="B173" s="11" t="s">
+        <v>455</v>
+      </c>
+    </row>
+    <row r="174" spans="1:2">
+      <c r="A174" s="11" t="s">
+        <v>573</v>
+      </c>
+      <c r="B174" s="11" t="s">
+        <v>456</v>
+      </c>
+    </row>
+    <row r="175" spans="1:2">
+      <c r="A175" s="11" t="s">
+        <v>132</v>
+      </c>
+      <c r="B175" s="11">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="176" spans="1:2">
+      <c r="A176" s="11" t="s">
+        <v>580</v>
+      </c>
+      <c r="B176" s="11" t="s">
+        <v>457</v>
+      </c>
+    </row>
+    <row r="177" spans="1:2">
+      <c r="A177" s="11" t="s">
+        <v>24</v>
+      </c>
+      <c r="B177" s="11" t="s">
+        <v>214</v>
+      </c>
+    </row>
+    <row r="178" spans="1:2">
+      <c r="A178" s="11" t="s">
+        <v>151</v>
+      </c>
+      <c r="B178" s="11" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="179" spans="1:2">
+      <c r="A179" s="11" t="s">
+        <v>152</v>
+      </c>
+      <c r="B179" s="11" t="s">
+        <v>528</v>
+      </c>
+    </row>
+    <row r="182" spans="1:2">
+      <c r="A182" s="32" t="s">
+        <v>591</v>
+      </c>
+      <c r="B182" s="32"/>
+    </row>
+    <row r="183" spans="1:2">
+      <c r="A183" s="11" t="s">
+        <v>479</v>
+      </c>
+      <c r="B183" s="11" t="s">
+        <v>592</v>
+      </c>
+    </row>
+    <row r="184" spans="1:2" ht="36">
+      <c r="A184" s="11" t="s">
+        <v>483</v>
+      </c>
+      <c r="B184" s="11" t="s">
+        <v>593</v>
+      </c>
+    </row>
+    <row r="185" spans="1:2">
+      <c r="A185" s="11" t="s">
+        <v>109</v>
+      </c>
+      <c r="B185" s="11" t="s">
+        <v>594</v>
+      </c>
+    </row>
+    <row r="186" spans="1:2">
+      <c r="A186" s="11" t="s">
+        <v>551</v>
+      </c>
+      <c r="B186" s="11">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="187" spans="1:2">
+      <c r="A187" s="11" t="s">
+        <v>587</v>
+      </c>
+      <c r="B187" s="11">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="188" spans="1:2">
+      <c r="A188" s="32" t="s">
+        <v>490</v>
+      </c>
+      <c r="B188" s="32"/>
+    </row>
+    <row r="189" spans="1:2">
+      <c r="A189" s="11" t="s">
+        <v>562</v>
+      </c>
+      <c r="B189" s="11" t="s">
+        <v>595</v>
+      </c>
+    </row>
+    <row r="190" spans="1:2">
+      <c r="A190" s="11" t="s">
+        <v>565</v>
+      </c>
+      <c r="B190" s="11" t="s">
+        <v>596</v>
+      </c>
+    </row>
+    <row r="191" spans="1:2">
+      <c r="A191" s="11" t="s">
+        <v>581</v>
+      </c>
+      <c r="B191" s="11" t="s">
+        <v>597</v>
+      </c>
+    </row>
+    <row r="192" spans="1:2">
+      <c r="A192" s="11" t="s">
+        <v>598</v>
+      </c>
+      <c r="B192" s="11" t="s">
+        <v>599</v>
+      </c>
+    </row>
+    <row r="193" spans="1:2">
+      <c r="A193" s="11" t="s">
+        <v>236</v>
+      </c>
+      <c r="B193" s="11" t="s">
+        <v>600</v>
+      </c>
+    </row>
+    <row r="194" spans="1:2">
+      <c r="A194" s="11" t="s">
+        <v>147</v>
+      </c>
+      <c r="B194" s="11" t="s">
+        <v>455</v>
+      </c>
+    </row>
+    <row r="195" spans="1:2">
+      <c r="A195" s="11" t="s">
+        <v>573</v>
+      </c>
+      <c r="B195" s="11" t="s">
+        <v>456</v>
+      </c>
+    </row>
+    <row r="196" spans="1:2">
+      <c r="A196" s="11" t="s">
+        <v>132</v>
+      </c>
+      <c r="B196" s="11">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="197" spans="1:2">
+      <c r="A197" s="11" t="s">
+        <v>580</v>
+      </c>
+      <c r="B197" s="11" t="s">
+        <v>457</v>
+      </c>
+    </row>
+    <row r="198" spans="1:2">
+      <c r="A198" s="11" t="s">
+        <v>24</v>
+      </c>
+      <c r="B198" s="11" t="s">
+        <v>214</v>
+      </c>
+    </row>
+    <row r="199" spans="1:2">
+      <c r="A199" s="11" t="s">
+        <v>151</v>
+      </c>
+      <c r="B199" s="11" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="200" spans="1:2">
+      <c r="A200" s="11" t="s">
+        <v>152</v>
+      </c>
+      <c r="B200" s="11" t="s">
+        <v>528</v>
+      </c>
+    </row>
+    <row r="201" spans="1:2">
+      <c r="A201" s="11" t="s">
+        <v>601</v>
+      </c>
+      <c r="B201" s="11" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="203" spans="1:2">
+      <c r="A203" s="32" t="s">
+        <v>602</v>
+      </c>
+      <c r="B203" s="32"/>
+    </row>
+    <row r="204" spans="1:2">
+      <c r="A204" s="11" t="s">
+        <v>479</v>
+      </c>
+      <c r="B204" s="11" t="s">
+        <v>603</v>
+      </c>
+    </row>
+    <row r="205" spans="1:2">
+      <c r="A205" s="11" t="s">
+        <v>483</v>
+      </c>
+      <c r="B205" s="11" t="s">
+        <v>604</v>
+      </c>
+    </row>
+    <row r="206" spans="1:2">
+      <c r="A206" s="11" t="s">
+        <v>109</v>
+      </c>
+      <c r="B206" s="11" t="s">
+        <v>605</v>
+      </c>
+    </row>
+    <row r="207" spans="1:2">
+      <c r="A207" s="11" t="s">
+        <v>551</v>
+      </c>
+      <c r="B207" s="11">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="208" spans="1:2">
+      <c r="A208" s="11" t="s">
+        <v>587</v>
+      </c>
+      <c r="B208" s="11">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="209" spans="1:2">
+      <c r="A209" s="32" t="s">
+        <v>490</v>
+      </c>
+      <c r="B209" s="32"/>
+    </row>
+    <row r="210" spans="1:2">
+      <c r="A210" s="11" t="s">
+        <v>562</v>
+      </c>
+      <c r="B210" s="11" t="s">
+        <v>606</v>
+      </c>
+    </row>
+    <row r="211" spans="1:2">
+      <c r="A211" s="11" t="s">
+        <v>565</v>
+      </c>
+      <c r="B211" s="11" t="s">
+        <v>607</v>
+      </c>
+    </row>
+    <row r="212" spans="1:2">
+      <c r="A212" s="11" t="s">
+        <v>581</v>
+      </c>
+      <c r="B212" s="11" t="s">
+        <v>608</v>
+      </c>
+    </row>
+    <row r="213" spans="1:2">
+      <c r="A213" s="11" t="s">
+        <v>598</v>
+      </c>
+      <c r="B213" s="11" t="s">
+        <v>609</v>
+      </c>
+    </row>
+    <row r="214" spans="1:2">
+      <c r="A214" s="11" t="s">
+        <v>236</v>
+      </c>
+      <c r="B214" s="11" t="s">
+        <v>610</v>
+      </c>
+    </row>
+    <row r="215" spans="1:2">
+      <c r="A215" s="11" t="s">
+        <v>147</v>
+      </c>
+      <c r="B215" s="11" t="s">
+        <v>455</v>
+      </c>
+    </row>
+    <row r="216" spans="1:2">
+      <c r="A216" s="11" t="s">
+        <v>573</v>
+      </c>
+      <c r="B216" s="11" t="s">
+        <v>456</v>
+      </c>
+    </row>
+    <row r="217" spans="1:2">
+      <c r="A217" s="11" t="s">
+        <v>132</v>
+      </c>
+      <c r="B217" s="11">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="218" spans="1:2">
+      <c r="A218" s="11" t="s">
+        <v>24</v>
+      </c>
+      <c r="B218" s="11" t="s">
+        <v>214</v>
+      </c>
+    </row>
+    <row r="219" spans="1:2">
+      <c r="A219" s="11" t="s">
+        <v>151</v>
+      </c>
+      <c r="B219" s="11" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="220" spans="1:2">
+      <c r="A220" s="11" t="s">
+        <v>152</v>
+      </c>
+      <c r="B220" s="11" t="s">
+        <v>528</v>
+      </c>
+    </row>
+    <row r="223" spans="1:2">
+      <c r="A223" s="32" t="s">
+        <v>611</v>
+      </c>
+      <c r="B223" s="32"/>
+    </row>
+    <row r="224" spans="1:2">
+      <c r="A224" s="11" t="s">
+        <v>479</v>
+      </c>
+      <c r="B224" s="11" t="s">
+        <v>612</v>
+      </c>
+    </row>
+    <row r="225" spans="1:2" ht="36">
+      <c r="A225" s="11" t="s">
+        <v>483</v>
+      </c>
+      <c r="B225" s="11" t="s">
+        <v>613</v>
+      </c>
+    </row>
+    <row r="226" spans="1:2">
+      <c r="A226" s="11" t="s">
+        <v>109</v>
+      </c>
+      <c r="B226" s="11" t="s">
+        <v>614</v>
+      </c>
+    </row>
+    <row r="227" spans="1:2">
+      <c r="A227" s="11" t="s">
+        <v>551</v>
+      </c>
+      <c r="B227" s="11">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="228" spans="1:2">
+      <c r="A228" s="11" t="s">
+        <v>587</v>
+      </c>
+      <c r="B228" s="11">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="229" spans="1:2">
+      <c r="A229" s="32" t="s">
+        <v>490</v>
+      </c>
+      <c r="B229" s="32"/>
+    </row>
+    <row r="230" spans="1:2">
+      <c r="A230" s="11" t="s">
+        <v>562</v>
+      </c>
+      <c r="B230" s="11" t="s">
+        <v>615</v>
+      </c>
+    </row>
+    <row r="231" spans="1:2">
+      <c r="A231" s="11" t="s">
+        <v>565</v>
+      </c>
+      <c r="B231" s="11" t="s">
+        <v>616</v>
+      </c>
+    </row>
+    <row r="232" spans="1:2">
+      <c r="A232" s="11" t="s">
+        <v>581</v>
+      </c>
+      <c r="B232" s="11" t="s">
+        <v>617</v>
+      </c>
+    </row>
+    <row r="233" spans="1:2">
+      <c r="A233" s="11" t="s">
+        <v>598</v>
+      </c>
+      <c r="B233" s="11" t="s">
+        <v>618</v>
+      </c>
+    </row>
+    <row r="234" spans="1:2">
+      <c r="A234" s="11" t="s">
+        <v>236</v>
+      </c>
+      <c r="B234" s="11" t="s">
+        <v>619</v>
+      </c>
+    </row>
+    <row r="235" spans="1:2">
+      <c r="A235" s="11" t="s">
+        <v>147</v>
+      </c>
+      <c r="B235" s="11" t="s">
+        <v>455</v>
+      </c>
+    </row>
+    <row r="236" spans="1:2">
+      <c r="A236" s="11" t="s">
+        <v>573</v>
+      </c>
+      <c r="B236" s="11" t="s">
+        <v>456</v>
+      </c>
+    </row>
+    <row r="237" spans="1:2">
+      <c r="A237" s="11" t="s">
+        <v>132</v>
+      </c>
+      <c r="B237" s="11">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="238" spans="1:2">
+      <c r="A238" s="11" t="s">
+        <v>580</v>
+      </c>
+      <c r="B238" s="11" t="s">
+        <v>457</v>
+      </c>
+    </row>
+    <row r="239" spans="1:2">
+      <c r="A239" s="11" t="s">
+        <v>132</v>
+      </c>
+      <c r="B239" s="11">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="240" spans="1:2">
+      <c r="A240" s="11" t="s">
+        <v>24</v>
+      </c>
+      <c r="B240" s="11" t="s">
+        <v>214</v>
+      </c>
+    </row>
+    <row r="241" spans="1:2">
+      <c r="A241" s="11" t="s">
+        <v>151</v>
+      </c>
+      <c r="B241" s="11" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="242" spans="1:2">
+      <c r="A242" s="11" t="s">
+        <v>152</v>
+      </c>
+      <c r="B242" s="11" t="s">
+        <v>528</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="34">
+    <mergeCell ref="A203:B203"/>
+    <mergeCell ref="A209:B209"/>
+    <mergeCell ref="A223:B223"/>
+    <mergeCell ref="A229:B229"/>
+    <mergeCell ref="A144:B144"/>
+    <mergeCell ref="A148:B148"/>
+    <mergeCell ref="A162:B162"/>
+    <mergeCell ref="A168:B168"/>
+    <mergeCell ref="A182:B182"/>
+    <mergeCell ref="A188:B188"/>
+    <mergeCell ref="A105:B105"/>
+    <mergeCell ref="A111:B111"/>
+    <mergeCell ref="A121:B121"/>
+    <mergeCell ref="A125:B125"/>
+    <mergeCell ref="A132:B132"/>
+    <mergeCell ref="A136:B136"/>
+    <mergeCell ref="A59:B59"/>
+    <mergeCell ref="A69:B69"/>
+    <mergeCell ref="A75:B75"/>
+    <mergeCell ref="A79:B79"/>
+    <mergeCell ref="A89:B89"/>
+    <mergeCell ref="A93:B93"/>
+    <mergeCell ref="A30:B30"/>
+    <mergeCell ref="A35:B35"/>
+    <mergeCell ref="A39:B39"/>
+    <mergeCell ref="A44:B44"/>
+    <mergeCell ref="A48:B48"/>
+    <mergeCell ref="A55:B55"/>
+    <mergeCell ref="A1:B1"/>
+    <mergeCell ref="D1:E1"/>
+    <mergeCell ref="D5:E5"/>
+    <mergeCell ref="A16:B16"/>
+    <mergeCell ref="A20:B20"/>
+    <mergeCell ref="A26:B26"/>
+  </mergeCells>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <extLst>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
+      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
+    </ext>
+  </extLst>
+</worksheet>
 </file>
--- a/TestData.xlsx
+++ b/TestData.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="20225"/>
   <workbookPr autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="25600" windowHeight="14680" tabRatio="990" activeTab="7"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="25600" windowHeight="14400" tabRatio="990" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Login_Credentials" sheetId="1" r:id="rId1"/>
@@ -1413,54 +1413,6 @@
     <t>/home/ubuntu/Grovo_Automation/TestData/test.pdf</t>
   </si>
   <si>
-    <t>Aleeex9</t>
-  </si>
-  <si>
-    <t>Jameees9</t>
-  </si>
-  <si>
-    <t>Jibbbbi9</t>
-  </si>
-  <si>
-    <t>Leooon9</t>
-  </si>
-  <si>
-    <t>Matheeew9</t>
-  </si>
-  <si>
-    <t>kattlllle9</t>
-  </si>
-  <si>
-    <t>Tesssst9</t>
-  </si>
-  <si>
-    <t>Ageeee9</t>
-  </si>
-  <si>
-    <t>aleeex9@grovo.com</t>
-  </si>
-  <si>
-    <t>jameees9@grovo.com</t>
-  </si>
-  <si>
-    <t>jiooob9@grovo.com</t>
-  </si>
-  <si>
-    <t>leonnna9@grovo.com</t>
-  </si>
-  <si>
-    <t>Empl#00</t>
-  </si>
-  <si>
-    <t>Empl#01</t>
-  </si>
-  <si>
-    <t>Empl#02</t>
-  </si>
-  <si>
-    <t>Empl#03</t>
-  </si>
-  <si>
     <t>testadmin@grovo.com</t>
   </si>
   <si>
@@ -1897,6 +1849,54 @@
   </si>
   <si>
     <t>This is text card for four lessons 3rd combi</t>
+  </si>
+  <si>
+    <t>shilpa123@grovo.com</t>
+  </si>
+  <si>
+    <t>EmpS#01</t>
+  </si>
+  <si>
+    <t>EmpS#00</t>
+  </si>
+  <si>
+    <t>EmpS#02</t>
+  </si>
+  <si>
+    <t>EmpS#03</t>
+  </si>
+  <si>
+    <t>sheethu123@grovo.com</t>
+  </si>
+  <si>
+    <t>Geethu123@grovo.com</t>
+  </si>
+  <si>
+    <t>datta123@grovo.com</t>
+  </si>
+  <si>
+    <t>Sheethu0</t>
+  </si>
+  <si>
+    <t>Shilpa0</t>
+  </si>
+  <si>
+    <t>Geethu0</t>
+  </si>
+  <si>
+    <t>Datta0</t>
+  </si>
+  <si>
+    <t>Chandran0</t>
+  </si>
+  <si>
+    <t>suresh0</t>
+  </si>
+  <si>
+    <t>Nambair0</t>
+  </si>
+  <si>
+    <t>Aidale0</t>
   </si>
 </sst>
 </file>
@@ -2223,6 +2223,11 @@
     </xf>
     <xf numFmtId="0" fontId="12" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="11" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="14" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="1" applyFont="1" applyBorder="1" applyProtection="1"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1"/>
     <xf numFmtId="0" fontId="7" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
@@ -2244,11 +2249,6 @@
     <xf numFmtId="0" fontId="9" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="1" applyFont="1" applyBorder="1" applyProtection="1"/>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1"/>
   </cellXfs>
   <cellStyles count="4">
     <cellStyle name="Followed Hyperlink" xfId="3" builtinId="9" hidden="1"/>
@@ -2659,67 +2659,67 @@
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="23" x14ac:dyDescent="0"/>
   <cols>
-    <col min="1" max="1" width="32.5" style="40" customWidth="1" collapsed="1"/>
-    <col min="2" max="2" width="42.83203125" style="40" customWidth="1" collapsed="1"/>
-    <col min="3" max="3" width="26" style="40" customWidth="1" collapsed="1"/>
-    <col min="4" max="4" width="38" style="40" customWidth="1" collapsed="1"/>
-    <col min="5" max="1025" width="8.83203125" style="40" collapsed="1"/>
-    <col min="1026" max="16384" width="8.83203125" style="40"/>
+    <col min="1" max="1" width="32.5" style="33" customWidth="1" collapsed="1"/>
+    <col min="2" max="2" width="42.83203125" style="33" customWidth="1" collapsed="1"/>
+    <col min="3" max="3" width="26" style="33" customWidth="1" collapsed="1"/>
+    <col min="4" max="4" width="38" style="33" customWidth="1" collapsed="1"/>
+    <col min="5" max="1025" width="8.83203125" style="33" collapsed="1"/>
+    <col min="1026" max="16384" width="8.83203125" style="33"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:4" ht="25">
-      <c r="A1" s="39" t="s">
+      <c r="A1" s="32" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="39" t="s">
+      <c r="B1" s="32" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="39" t="s">
+      <c r="C1" s="32" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="39" t="s">
+      <c r="D1" s="32" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="2" spans="1:4" ht="25">
-      <c r="A2" s="41" t="s">
+      <c r="A2" s="34" t="s">
         <v>4</v>
       </c>
-      <c r="B2" s="42" t="s">
+      <c r="B2" s="35" t="s">
         <v>5</v>
       </c>
-      <c r="C2" s="41"/>
-      <c r="D2" s="41"/>
+      <c r="C2" s="34"/>
+      <c r="D2" s="34"/>
     </row>
     <row r="3" spans="1:4" ht="25">
-      <c r="A3" s="41"/>
-      <c r="B3" s="41"/>
-      <c r="C3" s="41"/>
-      <c r="D3" s="41"/>
+      <c r="A3" s="34"/>
+      <c r="B3" s="34"/>
+      <c r="C3" s="34"/>
+      <c r="D3" s="34"/>
     </row>
     <row r="4" spans="1:4" ht="25">
-      <c r="A4" s="41" t="s">
+      <c r="A4" s="34" t="s">
         <v>6</v>
       </c>
-      <c r="B4" s="42" t="s">
-        <v>474</v>
-      </c>
-      <c r="C4" s="42" t="s">
+      <c r="B4" s="35" t="s">
+        <v>458</v>
+      </c>
+      <c r="C4" s="35" t="s">
         <v>7</v>
       </c>
-      <c r="D4" s="41"/>
+      <c r="D4" s="34"/>
     </row>
     <row r="5" spans="1:4" ht="25">
-      <c r="A5" s="41"/>
-      <c r="B5" s="43"/>
-      <c r="C5" s="41"/>
-      <c r="D5" s="41"/>
+      <c r="A5" s="34"/>
+      <c r="B5" s="36"/>
+      <c r="C5" s="34"/>
+      <c r="D5" s="34"/>
     </row>
     <row r="6" spans="1:4" ht="25">
-      <c r="A6" s="41"/>
-      <c r="B6" s="43"/>
-      <c r="C6" s="41"/>
-      <c r="D6" s="41"/>
+      <c r="A6" s="34"/>
+      <c r="B6" s="36"/>
+      <c r="C6" s="34"/>
+      <c r="D6" s="34"/>
     </row>
   </sheetData>
   <hyperlinks>
@@ -2740,8 +2740,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:H5"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="E5" sqref="E5"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D17" sqref="D17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="38" defaultRowHeight="18" x14ac:dyDescent="0"/>
@@ -2787,16 +2787,16 @@
         <v>16</v>
       </c>
       <c r="B2" s="3" t="s">
-        <v>458</v>
+        <v>612</v>
       </c>
       <c r="C2" s="3" t="s">
-        <v>462</v>
+        <v>616</v>
       </c>
       <c r="D2" s="9" t="s">
-        <v>466</v>
+        <v>609</v>
       </c>
       <c r="E2" s="3" t="s">
-        <v>470</v>
+        <v>606</v>
       </c>
       <c r="G2" s="4" t="s">
         <v>7</v>
@@ -2810,16 +2810,16 @@
         <v>17</v>
       </c>
       <c r="B3" s="3" t="s">
-        <v>459</v>
+        <v>613</v>
       </c>
       <c r="C3" s="3" t="s">
-        <v>463</v>
+        <v>617</v>
       </c>
       <c r="D3" s="9" t="s">
-        <v>467</v>
+        <v>604</v>
       </c>
       <c r="E3" s="3" t="s">
-        <v>471</v>
+        <v>605</v>
       </c>
       <c r="F3" s="3" t="s">
         <v>18</v>
@@ -2836,16 +2836,16 @@
         <v>19</v>
       </c>
       <c r="B4" s="3" t="s">
-        <v>460</v>
+        <v>614</v>
       </c>
       <c r="C4" s="3" t="s">
-        <v>464</v>
+        <v>618</v>
       </c>
       <c r="D4" s="9" t="s">
-        <v>468</v>
+        <v>610</v>
       </c>
       <c r="E4" s="3" t="s">
-        <v>472</v>
+        <v>607</v>
       </c>
       <c r="F4" s="3" t="s">
         <v>20</v>
@@ -2862,16 +2862,16 @@
         <v>21</v>
       </c>
       <c r="B5" s="3" t="s">
-        <v>461</v>
+        <v>615</v>
       </c>
       <c r="C5" s="3" t="s">
-        <v>465</v>
+        <v>619</v>
       </c>
       <c r="D5" s="9" t="s">
-        <v>469</v>
+        <v>611</v>
       </c>
       <c r="E5" s="3" t="s">
-        <v>473</v>
+        <v>608</v>
       </c>
       <c r="F5" s="3" t="s">
         <v>22</v>
@@ -3092,10 +3092,10 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:2" ht="15" customHeight="1">
-      <c r="A1" s="33" t="s">
+      <c r="A1" s="38" t="s">
         <v>207</v>
       </c>
-      <c r="B1" s="34"/>
+      <c r="B1" s="39"/>
     </row>
     <row r="2" spans="1:2">
       <c r="A2" s="11" t="s">
@@ -3118,10 +3118,10 @@
       <c r="B4" s="12"/>
     </row>
     <row r="6" spans="1:2" ht="14" customHeight="1">
-      <c r="A6" s="33" t="s">
+      <c r="A6" s="38" t="s">
         <v>211</v>
       </c>
-      <c r="B6" s="34"/>
+      <c r="B6" s="39"/>
     </row>
     <row r="7" spans="1:2">
       <c r="A7" s="11" t="s">
@@ -3168,10 +3168,10 @@
       <c r="B12" s="12"/>
     </row>
     <row r="14" spans="1:2">
-      <c r="A14" s="32" t="s">
+      <c r="A14" s="37" t="s">
         <v>220</v>
       </c>
-      <c r="B14" s="32"/>
+      <c r="B14" s="37"/>
     </row>
     <row r="15" spans="1:2">
       <c r="A15" s="11" t="s">
@@ -3198,10 +3198,10 @@
       <c r="B18" s="12"/>
     </row>
     <row r="20" spans="1:2">
-      <c r="A20" s="32" t="s">
+      <c r="A20" s="37" t="s">
         <v>223</v>
       </c>
-      <c r="B20" s="32"/>
+      <c r="B20" s="37"/>
     </row>
     <row r="21" spans="1:2">
       <c r="A21" s="11" t="s">
@@ -3232,10 +3232,10 @@
       <c r="B24" s="12"/>
     </row>
     <row r="26" spans="1:2" ht="15" customHeight="1">
-      <c r="A26" s="32" t="s">
+      <c r="A26" s="37" t="s">
         <v>227</v>
       </c>
-      <c r="B26" s="32"/>
+      <c r="B26" s="37"/>
     </row>
     <row r="27" spans="1:2">
       <c r="A27" s="11" t="s">
@@ -3310,14 +3310,14 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:4" ht="14" customHeight="1">
-      <c r="A1" s="33" t="s">
+      <c r="A1" s="38" t="s">
         <v>97</v>
       </c>
-      <c r="B1" s="34"/>
-      <c r="C1" s="33" t="s">
+      <c r="B1" s="39"/>
+      <c r="C1" s="38" t="s">
         <v>98</v>
       </c>
-      <c r="D1" s="34"/>
+      <c r="D1" s="39"/>
     </row>
     <row r="2" spans="1:4">
       <c r="A2" s="11" t="s">
@@ -3376,14 +3376,14 @@
       <c r="B7" s="11"/>
     </row>
     <row r="10" spans="1:4" ht="14" customHeight="1">
-      <c r="A10" s="33" t="s">
+      <c r="A10" s="38" t="s">
         <v>111</v>
       </c>
-      <c r="B10" s="34"/>
-      <c r="C10" s="33" t="s">
+      <c r="B10" s="39"/>
+      <c r="C10" s="38" t="s">
         <v>98</v>
       </c>
-      <c r="D10" s="34"/>
+      <c r="D10" s="39"/>
     </row>
     <row r="11" spans="1:4">
       <c r="A11" s="11" t="s">
@@ -3454,14 +3454,14 @@
       <c r="B16" s="11"/>
     </row>
     <row r="18" spans="1:4" ht="14" customHeight="1">
-      <c r="A18" s="33" t="s">
+      <c r="A18" s="38" t="s">
         <v>121</v>
       </c>
-      <c r="B18" s="34"/>
-      <c r="C18" s="33" t="s">
+      <c r="B18" s="39"/>
+      <c r="C18" s="38" t="s">
         <v>98</v>
       </c>
-      <c r="D18" s="34"/>
+      <c r="D18" s="39"/>
     </row>
     <row r="19" spans="1:4">
       <c r="A19" s="11" t="s">
@@ -3524,14 +3524,14 @@
       <c r="B24" s="11"/>
     </row>
     <row r="26" spans="1:4" ht="14" customHeight="1">
-      <c r="A26" s="33" t="s">
+      <c r="A26" s="38" t="s">
         <v>127</v>
       </c>
-      <c r="B26" s="34"/>
-      <c r="C26" s="33" t="s">
+      <c r="B26" s="39"/>
+      <c r="C26" s="38" t="s">
         <v>98</v>
       </c>
-      <c r="D26" s="34"/>
+      <c r="D26" s="39"/>
     </row>
     <row r="27" spans="1:4">
       <c r="A27" s="11" t="s">
@@ -3598,14 +3598,14 @@
       <c r="B32" s="11"/>
     </row>
     <row r="34" spans="1:4" ht="14" customHeight="1">
-      <c r="A34" s="33" t="s">
+      <c r="A34" s="38" t="s">
         <v>134</v>
       </c>
-      <c r="B34" s="34"/>
-      <c r="C34" s="33" t="s">
+      <c r="B34" s="39"/>
+      <c r="C34" s="38" t="s">
         <v>98</v>
       </c>
-      <c r="D34" s="34"/>
+      <c r="D34" s="39"/>
     </row>
     <row r="35" spans="1:4">
       <c r="A35" s="11" t="s">
@@ -3672,14 +3672,14 @@
       <c r="B40" s="11"/>
     </row>
     <row r="43" spans="1:4" ht="14" customHeight="1">
-      <c r="A43" s="33" t="s">
+      <c r="A43" s="38" t="s">
         <v>141</v>
       </c>
-      <c r="B43" s="34"/>
-      <c r="C43" s="33" t="s">
+      <c r="B43" s="39"/>
+      <c r="C43" s="38" t="s">
         <v>98</v>
       </c>
-      <c r="D43" s="34"/>
+      <c r="D43" s="39"/>
     </row>
     <row r="44" spans="1:4">
       <c r="A44" s="11" t="s">
@@ -3762,14 +3762,14 @@
       </c>
     </row>
     <row r="52" spans="1:5" ht="14" customHeight="1">
-      <c r="A52" s="33" t="s">
+      <c r="A52" s="38" t="s">
         <v>154</v>
       </c>
-      <c r="B52" s="34"/>
-      <c r="C52" s="33" t="s">
+      <c r="B52" s="39"/>
+      <c r="C52" s="38" t="s">
         <v>98</v>
       </c>
-      <c r="D52" s="34"/>
+      <c r="D52" s="39"/>
       <c r="E52" s="11"/>
     </row>
     <row r="53" spans="1:5" ht="54">
@@ -3863,14 +3863,14 @@
       <c r="E58" s="11"/>
     </row>
     <row r="60" spans="1:5" ht="14" customHeight="1">
-      <c r="A60" s="33" t="s">
+      <c r="A60" s="38" t="s">
         <v>162</v>
       </c>
-      <c r="B60" s="34"/>
-      <c r="C60" s="33" t="s">
+      <c r="B60" s="39"/>
+      <c r="C60" s="38" t="s">
         <v>98</v>
       </c>
-      <c r="D60" s="34"/>
+      <c r="D60" s="39"/>
     </row>
     <row r="61" spans="1:5">
       <c r="A61" s="11" t="s">
@@ -3963,14 +3963,14 @@
       </c>
     </row>
     <row r="70" spans="1:4" ht="14" customHeight="1">
-      <c r="A70" s="37" t="s">
+      <c r="A70" s="42" t="s">
         <v>169</v>
       </c>
-      <c r="B70" s="38"/>
-      <c r="C70" s="33" t="s">
+      <c r="B70" s="43"/>
+      <c r="C70" s="38" t="s">
         <v>170</v>
       </c>
-      <c r="D70" s="34"/>
+      <c r="D70" s="39"/>
     </row>
     <row r="71" spans="1:4">
       <c r="A71" s="11" t="s">
@@ -4007,10 +4007,10 @@
       <c r="B73" s="12" t="s">
         <v>175</v>
       </c>
-      <c r="C73" s="33" t="s">
+      <c r="C73" s="38" t="s">
         <v>176</v>
       </c>
-      <c r="D73" s="34"/>
+      <c r="D73" s="39"/>
     </row>
     <row r="74" spans="1:4">
       <c r="A74" s="11" t="s">
@@ -4053,14 +4053,14 @@
       <c r="D77" s="11"/>
     </row>
     <row r="79" spans="1:4" ht="14" customHeight="1">
-      <c r="A79" s="37" t="s">
+      <c r="A79" s="42" t="s">
         <v>181</v>
       </c>
-      <c r="B79" s="38"/>
-      <c r="C79" s="33" t="s">
+      <c r="B79" s="43"/>
+      <c r="C79" s="38" t="s">
         <v>182</v>
       </c>
-      <c r="D79" s="34"/>
+      <c r="D79" s="39"/>
     </row>
     <row r="80" spans="1:4">
       <c r="A80" s="11" t="s">
@@ -4097,10 +4097,10 @@
       <c r="B82" s="12" t="s">
         <v>186</v>
       </c>
-      <c r="C82" s="33" t="s">
+      <c r="C82" s="38" t="s">
         <v>187</v>
       </c>
-      <c r="D82" s="34"/>
+      <c r="D82" s="39"/>
     </row>
     <row r="83" spans="1:4">
       <c r="A83" s="11" t="s">
@@ -4141,14 +4141,14 @@
       </c>
     </row>
     <row r="88" spans="1:4" ht="14" customHeight="1">
-      <c r="A88" s="35" t="s">
+      <c r="A88" s="40" t="s">
         <v>192</v>
       </c>
-      <c r="B88" s="35"/>
-      <c r="C88" s="32" t="s">
+      <c r="B88" s="40"/>
+      <c r="C88" s="37" t="s">
         <v>187</v>
       </c>
-      <c r="D88" s="32"/>
+      <c r="D88" s="37"/>
     </row>
     <row r="89" spans="1:4">
       <c r="A89" s="11" t="s">
@@ -4199,10 +4199,10 @@
       <c r="B92" s="12" t="s">
         <v>148</v>
       </c>
-      <c r="C92" s="32" t="s">
+      <c r="C92" s="37" t="s">
         <v>196</v>
       </c>
-      <c r="D92" s="32"/>
+      <c r="D92" s="37"/>
     </row>
     <row r="93" spans="1:4" ht="36">
       <c r="A93" s="11" t="s">
@@ -4241,10 +4241,10 @@
     <row r="96" spans="1:4">
       <c r="A96" s="11"/>
       <c r="B96" s="11"/>
-      <c r="C96" s="32" t="s">
+      <c r="C96" s="37" t="s">
         <v>201</v>
       </c>
-      <c r="D96" s="32"/>
+      <c r="D96" s="37"/>
     </row>
     <row r="97" spans="1:4">
       <c r="A97" s="11"/>
@@ -4287,14 +4287,14 @@
       </c>
     </row>
     <row r="103" spans="1:4" ht="14" customHeight="1">
-      <c r="A103" s="35" t="s">
+      <c r="A103" s="40" t="s">
         <v>204</v>
       </c>
-      <c r="B103" s="35"/>
-      <c r="C103" s="32" t="s">
+      <c r="B103" s="40"/>
+      <c r="C103" s="37" t="s">
         <v>229</v>
       </c>
-      <c r="D103" s="32"/>
+      <c r="D103" s="37"/>
     </row>
     <row r="104" spans="1:4">
       <c r="A104" s="11" t="s">
@@ -4317,10 +4317,10 @@
       <c r="B105" s="12" t="s">
         <v>455</v>
       </c>
-      <c r="C105" s="33" t="s">
+      <c r="C105" s="38" t="s">
         <v>231</v>
       </c>
-      <c r="D105" s="34"/>
+      <c r="D105" s="39"/>
     </row>
     <row r="106" spans="1:4" ht="36">
       <c r="A106" s="11" t="s">
@@ -4435,14 +4435,14 @@
       </c>
     </row>
     <row r="118" spans="1:4">
-      <c r="A118" s="35" t="s">
+      <c r="A118" s="40" t="s">
         <v>238</v>
       </c>
-      <c r="B118" s="35"/>
-      <c r="C118" s="32" t="s">
+      <c r="B118" s="40"/>
+      <c r="C118" s="37" t="s">
         <v>239</v>
       </c>
-      <c r="D118" s="32"/>
+      <c r="D118" s="37"/>
     </row>
     <row r="119" spans="1:4">
       <c r="A119" s="11" t="s">
@@ -4525,10 +4525,10 @@
       </c>
     </row>
     <row r="125" spans="1:4">
-      <c r="A125" s="36" t="s">
+      <c r="A125" s="41" t="s">
         <v>244</v>
       </c>
-      <c r="B125" s="34"/>
+      <c r="B125" s="39"/>
       <c r="C125" s="11" t="s">
         <v>24</v>
       </c>
@@ -4575,14 +4575,14 @@
       <c r="D128" s="12"/>
     </row>
     <row r="131" spans="1:4">
-      <c r="A131" s="35" t="s">
+      <c r="A131" s="40" t="s">
         <v>249</v>
       </c>
-      <c r="B131" s="35"/>
-      <c r="C131" s="32" t="s">
+      <c r="B131" s="40"/>
+      <c r="C131" s="37" t="s">
         <v>250</v>
       </c>
-      <c r="D131" s="32"/>
+      <c r="D131" s="37"/>
     </row>
     <row r="132" spans="1:4">
       <c r="A132" s="11" t="s">
@@ -4713,14 +4713,14 @@
       <c r="D141" s="11"/>
     </row>
     <row r="144" spans="1:4">
-      <c r="A144" s="35" t="s">
+      <c r="A144" s="40" t="s">
         <v>262</v>
       </c>
-      <c r="B144" s="35"/>
-      <c r="C144" s="32" t="s">
+      <c r="B144" s="40"/>
+      <c r="C144" s="37" t="s">
         <v>250</v>
       </c>
-      <c r="D144" s="32"/>
+      <c r="D144" s="37"/>
     </row>
     <row r="145" spans="1:4">
       <c r="A145" s="11" t="s">
@@ -4847,14 +4847,14 @@
       <c r="D154" s="11"/>
     </row>
     <row r="157" spans="1:4">
-      <c r="A157" s="35" t="s">
+      <c r="A157" s="40" t="s">
         <v>273</v>
       </c>
-      <c r="B157" s="35"/>
-      <c r="C157" s="32" t="s">
+      <c r="B157" s="40"/>
+      <c r="C157" s="37" t="s">
         <v>250</v>
       </c>
-      <c r="D157" s="32"/>
+      <c r="D157" s="37"/>
     </row>
     <row r="158" spans="1:4">
       <c r="A158" s="11" t="s">
@@ -6173,7 +6173,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E242"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A20" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="E45" sqref="E45"/>
     </sheetView>
   </sheetViews>
@@ -6188,123 +6188,123 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:5">
-      <c r="A1" s="32" t="s">
-        <v>475</v>
-      </c>
-      <c r="B1" s="32"/>
-      <c r="D1" s="33" t="s">
-        <v>476</v>
-      </c>
-      <c r="E1" s="34"/>
+      <c r="A1" s="37" t="s">
+        <v>459</v>
+      </c>
+      <c r="B1" s="37"/>
+      <c r="D1" s="38" t="s">
+        <v>460</v>
+      </c>
+      <c r="E1" s="39"/>
     </row>
     <row r="2" spans="1:5" ht="30" customHeight="1">
       <c r="A2" s="11" t="s">
-        <v>477</v>
+        <v>461</v>
       </c>
       <c r="B2" s="12" t="s">
-        <v>478</v>
+        <v>462</v>
       </c>
       <c r="D2" s="11" t="s">
-        <v>479</v>
+        <v>463</v>
       </c>
       <c r="E2" s="11" t="s">
-        <v>480</v>
+        <v>464</v>
       </c>
     </row>
     <row r="3" spans="1:5" ht="33" customHeight="1">
       <c r="A3" s="11" t="s">
-        <v>481</v>
+        <v>465</v>
       </c>
       <c r="B3" s="12" t="s">
-        <v>482</v>
+        <v>466</v>
       </c>
       <c r="D3" s="11" t="s">
-        <v>483</v>
+        <v>467</v>
       </c>
       <c r="E3" s="11" t="s">
-        <v>484</v>
+        <v>468</v>
       </c>
     </row>
     <row r="4" spans="1:5">
       <c r="A4" s="11" t="s">
-        <v>485</v>
+        <v>469</v>
       </c>
       <c r="B4" s="12" t="s">
-        <v>486</v>
+        <v>470</v>
       </c>
       <c r="D4" s="11" t="s">
         <v>109</v>
       </c>
       <c r="E4" s="11" t="s">
-        <v>487</v>
+        <v>471</v>
       </c>
     </row>
     <row r="5" spans="1:5">
       <c r="A5" s="11" t="s">
-        <v>488</v>
+        <v>472</v>
       </c>
       <c r="B5" s="12" t="s">
-        <v>489</v>
-      </c>
-      <c r="D5" s="33" t="s">
-        <v>490</v>
-      </c>
-      <c r="E5" s="34"/>
+        <v>473</v>
+      </c>
+      <c r="D5" s="38" t="s">
+        <v>474</v>
+      </c>
+      <c r="E5" s="39"/>
     </row>
     <row r="6" spans="1:5">
       <c r="A6" s="11" t="s">
-        <v>491</v>
+        <v>475</v>
       </c>
       <c r="B6" s="12" t="s">
-        <v>492</v>
+        <v>476</v>
       </c>
       <c r="D6" s="11" t="s">
         <v>212</v>
       </c>
       <c r="E6" s="11" t="s">
-        <v>493</v>
+        <v>477</v>
       </c>
     </row>
     <row r="7" spans="1:5">
       <c r="A7" s="11" t="s">
-        <v>494</v>
+        <v>478</v>
       </c>
       <c r="B7" s="12" t="s">
-        <v>495</v>
+        <v>479</v>
       </c>
       <c r="D7" s="11" t="s">
         <v>165</v>
       </c>
       <c r="E7" s="11" t="s">
-        <v>496</v>
+        <v>480</v>
       </c>
     </row>
     <row r="8" spans="1:5">
       <c r="A8" s="11" t="s">
-        <v>497</v>
+        <v>481</v>
       </c>
       <c r="B8" s="12" t="s">
-        <v>498</v>
+        <v>482</v>
       </c>
       <c r="D8" s="11"/>
       <c r="E8" s="11"/>
     </row>
     <row r="9" spans="1:5">
       <c r="A9" s="11" t="s">
-        <v>499</v>
+        <v>483</v>
       </c>
       <c r="B9" s="12" t="s">
-        <v>500</v>
+        <v>484</v>
       </c>
       <c r="D9" s="11"/>
       <c r="E9" s="11"/>
     </row>
     <row r="10" spans="1:5">
       <c r="A10" s="11" t="s">
-        <v>501</v>
+        <v>485</v>
       </c>
       <c r="B10" s="12" t="s">
-        <v>502</v>
+        <v>486</v>
       </c>
       <c r="D10" s="11"/>
       <c r="E10" s="11"/>
@@ -6312,7 +6312,7 @@
     <row r="11" spans="1:5">
       <c r="A11" s="11"/>
       <c r="B11" s="12" t="s">
-        <v>503</v>
+        <v>487</v>
       </c>
       <c r="D11" s="11"/>
       <c r="E11" s="11"/>
@@ -6320,7 +6320,7 @@
     <row r="12" spans="1:5">
       <c r="A12" s="11"/>
       <c r="B12" s="12" t="s">
-        <v>504</v>
+        <v>488</v>
       </c>
     </row>
     <row r="13" spans="1:5">
@@ -6328,25 +6328,25 @@
       <c r="B13" s="11"/>
     </row>
     <row r="16" spans="1:5">
-      <c r="A16" s="33" t="s">
-        <v>505</v>
-      </c>
-      <c r="B16" s="34"/>
+      <c r="A16" s="38" t="s">
+        <v>489</v>
+      </c>
+      <c r="B16" s="39"/>
     </row>
     <row r="17" spans="1:2">
       <c r="A17" s="11" t="s">
-        <v>479</v>
+        <v>463</v>
       </c>
       <c r="B17" s="11" t="s">
-        <v>506</v>
+        <v>490</v>
       </c>
     </row>
     <row r="18" spans="1:2">
       <c r="A18" s="11" t="s">
-        <v>483</v>
+        <v>467</v>
       </c>
       <c r="B18" s="11" t="s">
-        <v>507</v>
+        <v>491</v>
       </c>
     </row>
     <row r="19" spans="1:2">
@@ -6354,26 +6354,26 @@
         <v>109</v>
       </c>
       <c r="B19" s="11" t="s">
-        <v>508</v>
+        <v>492</v>
       </c>
     </row>
     <row r="20" spans="1:2">
-      <c r="A20" s="33" t="s">
-        <v>490</v>
-      </c>
-      <c r="B20" s="34"/>
+      <c r="A20" s="38" t="s">
+        <v>474</v>
+      </c>
+      <c r="B20" s="39"/>
     </row>
     <row r="21" spans="1:2">
       <c r="A21" s="11" t="s">
         <v>212</v>
       </c>
       <c r="B21" s="11" t="s">
-        <v>509</v>
+        <v>493</v>
       </c>
     </row>
     <row r="22" spans="1:2">
       <c r="A22" s="11" t="s">
-        <v>510</v>
+        <v>494</v>
       </c>
       <c r="B22" s="11" t="s">
         <v>455</v>
@@ -6384,25 +6384,25 @@
       <c r="B23" s="11"/>
     </row>
     <row r="26" spans="1:2">
-      <c r="A26" s="33" t="s">
-        <v>511</v>
-      </c>
-      <c r="B26" s="34"/>
+      <c r="A26" s="38" t="s">
+        <v>495</v>
+      </c>
+      <c r="B26" s="39"/>
     </row>
     <row r="27" spans="1:2">
       <c r="A27" s="11" t="s">
-        <v>479</v>
+        <v>463</v>
       </c>
       <c r="B27" s="11" t="s">
-        <v>512</v>
+        <v>496</v>
       </c>
     </row>
     <row r="28" spans="1:2">
       <c r="A28" s="11" t="s">
-        <v>483</v>
+        <v>467</v>
       </c>
       <c r="B28" s="11" t="s">
-        <v>513</v>
+        <v>497</v>
       </c>
     </row>
     <row r="29" spans="1:2">
@@ -6410,26 +6410,26 @@
         <v>109</v>
       </c>
       <c r="B29" s="11" t="s">
-        <v>514</v>
+        <v>498</v>
       </c>
     </row>
     <row r="30" spans="1:2">
-      <c r="A30" s="33" t="s">
-        <v>490</v>
-      </c>
-      <c r="B30" s="34"/>
+      <c r="A30" s="38" t="s">
+        <v>474</v>
+      </c>
+      <c r="B30" s="39"/>
     </row>
     <row r="31" spans="1:2">
       <c r="A31" s="11" t="s">
         <v>212</v>
       </c>
       <c r="B31" s="11" t="s">
-        <v>515</v>
+        <v>499</v>
       </c>
     </row>
     <row r="32" spans="1:2">
       <c r="A32" s="11" t="s">
-        <v>516</v>
+        <v>500</v>
       </c>
       <c r="B32" s="11" t="s">
         <v>456</v>
@@ -6444,25 +6444,25 @@
       </c>
     </row>
     <row r="35" spans="1:2">
-      <c r="A35" s="33" t="s">
-        <v>517</v>
-      </c>
-      <c r="B35" s="34"/>
+      <c r="A35" s="38" t="s">
+        <v>501</v>
+      </c>
+      <c r="B35" s="39"/>
     </row>
     <row r="36" spans="1:2">
       <c r="A36" s="11" t="s">
-        <v>479</v>
+        <v>463</v>
       </c>
       <c r="B36" s="11" t="s">
-        <v>518</v>
+        <v>502</v>
       </c>
     </row>
     <row r="37" spans="1:2">
       <c r="A37" s="11" t="s">
-        <v>483</v>
+        <v>467</v>
       </c>
       <c r="B37" s="11" t="s">
-        <v>519</v>
+        <v>503</v>
       </c>
     </row>
     <row r="38" spans="1:2">
@@ -6470,26 +6470,26 @@
         <v>109</v>
       </c>
       <c r="B38" s="11" t="s">
-        <v>520</v>
+        <v>504</v>
       </c>
     </row>
     <row r="39" spans="1:2">
-      <c r="A39" s="33" t="s">
-        <v>490</v>
-      </c>
-      <c r="B39" s="34"/>
+      <c r="A39" s="38" t="s">
+        <v>474</v>
+      </c>
+      <c r="B39" s="39"/>
     </row>
     <row r="40" spans="1:2">
       <c r="A40" s="11" t="s">
         <v>212</v>
       </c>
       <c r="B40" s="11" t="s">
-        <v>521</v>
+        <v>505</v>
       </c>
     </row>
     <row r="41" spans="1:2">
       <c r="A41" s="11" t="s">
-        <v>516</v>
+        <v>500</v>
       </c>
       <c r="B41" s="11" t="s">
         <v>457</v>
@@ -6504,25 +6504,25 @@
       </c>
     </row>
     <row r="44" spans="1:2">
-      <c r="A44" s="33" t="s">
-        <v>522</v>
-      </c>
-      <c r="B44" s="34"/>
+      <c r="A44" s="38" t="s">
+        <v>506</v>
+      </c>
+      <c r="B44" s="39"/>
     </row>
     <row r="45" spans="1:2">
       <c r="A45" s="11" t="s">
-        <v>479</v>
+        <v>463</v>
       </c>
       <c r="B45" s="11" t="s">
-        <v>523</v>
+        <v>507</v>
       </c>
     </row>
     <row r="46" spans="1:2">
       <c r="A46" s="11" t="s">
-        <v>483</v>
+        <v>467</v>
       </c>
       <c r="B46" s="11" t="s">
-        <v>524</v>
+        <v>508</v>
       </c>
     </row>
     <row r="47" spans="1:2">
@@ -6530,21 +6530,21 @@
         <v>109</v>
       </c>
       <c r="B47" s="11" t="s">
-        <v>525</v>
+        <v>509</v>
       </c>
     </row>
     <row r="48" spans="1:2">
-      <c r="A48" s="33" t="s">
-        <v>490</v>
-      </c>
-      <c r="B48" s="34"/>
+      <c r="A48" s="38" t="s">
+        <v>474</v>
+      </c>
+      <c r="B48" s="39"/>
     </row>
     <row r="49" spans="1:2">
       <c r="A49" s="11" t="s">
         <v>212</v>
       </c>
       <c r="B49" s="11" t="s">
-        <v>526</v>
+        <v>510</v>
       </c>
     </row>
     <row r="50" spans="1:2">
@@ -6552,7 +6552,7 @@
         <v>24</v>
       </c>
       <c r="B50" s="11" t="s">
-        <v>527</v>
+        <v>511</v>
       </c>
     </row>
     <row r="51" spans="1:2">
@@ -6560,7 +6560,7 @@
         <v>151</v>
       </c>
       <c r="B51" s="11" t="s">
-        <v>528</v>
+        <v>512</v>
       </c>
     </row>
     <row r="52" spans="1:2">
@@ -6573,32 +6573,32 @@
     </row>
     <row r="53" spans="1:2">
       <c r="A53" s="11" t="s">
-        <v>529</v>
+        <v>513</v>
       </c>
       <c r="B53" s="11">
         <v>2</v>
       </c>
     </row>
     <row r="55" spans="1:2">
-      <c r="A55" s="33" t="s">
-        <v>530</v>
-      </c>
-      <c r="B55" s="34"/>
+      <c r="A55" s="38" t="s">
+        <v>514</v>
+      </c>
+      <c r="B55" s="39"/>
     </row>
     <row r="56" spans="1:2">
       <c r="A56" s="11" t="s">
-        <v>479</v>
+        <v>463</v>
       </c>
       <c r="B56" s="11" t="s">
-        <v>531</v>
+        <v>515</v>
       </c>
     </row>
     <row r="57" spans="1:2">
       <c r="A57" s="11" t="s">
-        <v>483</v>
+        <v>467</v>
       </c>
       <c r="B57" s="11" t="s">
-        <v>532</v>
+        <v>516</v>
       </c>
     </row>
     <row r="58" spans="1:2">
@@ -6606,21 +6606,21 @@
         <v>109</v>
       </c>
       <c r="B58" s="11" t="s">
-        <v>533</v>
+        <v>517</v>
       </c>
     </row>
     <row r="59" spans="1:2">
-      <c r="A59" s="33" t="s">
-        <v>490</v>
-      </c>
-      <c r="B59" s="34"/>
+      <c r="A59" s="38" t="s">
+        <v>474</v>
+      </c>
+      <c r="B59" s="39"/>
     </row>
     <row r="60" spans="1:2">
       <c r="A60" s="11" t="s">
         <v>212</v>
       </c>
       <c r="B60" s="11" t="s">
-        <v>534</v>
+        <v>518</v>
       </c>
     </row>
     <row r="61" spans="1:2">
@@ -6628,7 +6628,7 @@
         <v>236</v>
       </c>
       <c r="B61" s="11" t="s">
-        <v>535</v>
+        <v>519</v>
       </c>
     </row>
     <row r="62" spans="1:2">
@@ -6668,7 +6668,7 @@
         <v>24</v>
       </c>
       <c r="B66" s="11" t="s">
-        <v>527</v>
+        <v>511</v>
       </c>
     </row>
     <row r="67" spans="1:2">
@@ -6676,7 +6676,7 @@
         <v>151</v>
       </c>
       <c r="B67" s="11" t="s">
-        <v>528</v>
+        <v>512</v>
       </c>
     </row>
     <row r="68" spans="1:2">
@@ -6688,17 +6688,17 @@
       </c>
     </row>
     <row r="69" spans="1:2">
-      <c r="A69" s="32" t="s">
-        <v>536</v>
-      </c>
-      <c r="B69" s="32"/>
+      <c r="A69" s="37" t="s">
+        <v>520</v>
+      </c>
+      <c r="B69" s="37"/>
     </row>
     <row r="70" spans="1:2">
       <c r="A70" s="11" t="s">
         <v>99</v>
       </c>
       <c r="B70" s="11" t="s">
-        <v>537</v>
+        <v>521</v>
       </c>
     </row>
     <row r="71" spans="1:2">
@@ -6706,7 +6706,7 @@
         <v>212</v>
       </c>
       <c r="B71" s="11" t="s">
-        <v>538</v>
+        <v>522</v>
       </c>
     </row>
     <row r="72" spans="1:2">
@@ -6714,29 +6714,29 @@
         <v>109</v>
       </c>
       <c r="B72" s="11" t="s">
-        <v>539</v>
+        <v>523</v>
       </c>
     </row>
     <row r="75" spans="1:2">
-      <c r="A75" s="33" t="s">
-        <v>540</v>
-      </c>
-      <c r="B75" s="34"/>
+      <c r="A75" s="38" t="s">
+        <v>524</v>
+      </c>
+      <c r="B75" s="39"/>
     </row>
     <row r="76" spans="1:2">
       <c r="A76" s="11" t="s">
-        <v>479</v>
+        <v>463</v>
       </c>
       <c r="B76" s="11" t="s">
-        <v>541</v>
+        <v>525</v>
       </c>
     </row>
     <row r="77" spans="1:2">
       <c r="A77" s="11" t="s">
-        <v>483</v>
+        <v>467</v>
       </c>
       <c r="B77" s="11" t="s">
-        <v>542</v>
+        <v>526</v>
       </c>
     </row>
     <row r="78" spans="1:2" ht="36">
@@ -6744,21 +6744,21 @@
         <v>109</v>
       </c>
       <c r="B78" s="11" t="s">
-        <v>543</v>
+        <v>527</v>
       </c>
     </row>
     <row r="79" spans="1:2">
-      <c r="A79" s="33" t="s">
-        <v>490</v>
-      </c>
-      <c r="B79" s="34"/>
+      <c r="A79" s="38" t="s">
+        <v>474</v>
+      </c>
+      <c r="B79" s="39"/>
     </row>
     <row r="80" spans="1:2">
       <c r="A80" s="11" t="s">
         <v>212</v>
       </c>
       <c r="B80" s="11" t="s">
-        <v>544</v>
+        <v>528</v>
       </c>
     </row>
     <row r="81" spans="1:2">
@@ -6766,7 +6766,7 @@
         <v>236</v>
       </c>
       <c r="B81" s="11" t="s">
-        <v>535</v>
+        <v>519</v>
       </c>
     </row>
     <row r="82" spans="1:2">
@@ -6782,7 +6782,7 @@
         <v>24</v>
       </c>
       <c r="B83" s="11" t="s">
-        <v>527</v>
+        <v>511</v>
       </c>
     </row>
     <row r="84" spans="1:2">
@@ -6790,7 +6790,7 @@
         <v>151</v>
       </c>
       <c r="B84" s="11" t="s">
-        <v>528</v>
+        <v>512</v>
       </c>
     </row>
     <row r="85" spans="1:2">
@@ -6803,32 +6803,32 @@
     </row>
     <row r="86" spans="1:2">
       <c r="A86" s="11" t="s">
-        <v>545</v>
+        <v>529</v>
       </c>
       <c r="B86" s="11">
         <v>50</v>
       </c>
     </row>
     <row r="89" spans="1:2">
-      <c r="A89" s="33" t="s">
-        <v>546</v>
-      </c>
-      <c r="B89" s="34"/>
+      <c r="A89" s="38" t="s">
+        <v>530</v>
+      </c>
+      <c r="B89" s="39"/>
     </row>
     <row r="90" spans="1:2">
       <c r="A90" s="11" t="s">
-        <v>479</v>
+        <v>463</v>
       </c>
       <c r="B90" s="11" t="s">
-        <v>547</v>
+        <v>531</v>
       </c>
     </row>
     <row r="91" spans="1:2">
       <c r="A91" s="11" t="s">
-        <v>483</v>
+        <v>467</v>
       </c>
       <c r="B91" s="11" t="s">
-        <v>548</v>
+        <v>532</v>
       </c>
     </row>
     <row r="92" spans="1:2">
@@ -6836,21 +6836,21 @@
         <v>109</v>
       </c>
       <c r="B92" s="11" t="s">
-        <v>549</v>
+        <v>533</v>
       </c>
     </row>
     <row r="93" spans="1:2">
-      <c r="A93" s="33" t="s">
-        <v>490</v>
-      </c>
-      <c r="B93" s="34"/>
+      <c r="A93" s="38" t="s">
+        <v>474</v>
+      </c>
+      <c r="B93" s="39"/>
     </row>
     <row r="94" spans="1:2">
       <c r="A94" s="11" t="s">
         <v>212</v>
       </c>
       <c r="B94" s="11" t="s">
-        <v>550</v>
+        <v>534</v>
       </c>
     </row>
     <row r="95" spans="1:2">
@@ -6858,7 +6858,7 @@
         <v>236</v>
       </c>
       <c r="B95" s="11" t="s">
-        <v>535</v>
+        <v>519</v>
       </c>
     </row>
     <row r="96" spans="1:2">
@@ -6882,7 +6882,7 @@
         <v>24</v>
       </c>
       <c r="B98" s="11" t="s">
-        <v>527</v>
+        <v>511</v>
       </c>
     </row>
     <row r="99" spans="1:2">
@@ -6890,7 +6890,7 @@
         <v>151</v>
       </c>
       <c r="B99" s="11" t="s">
-        <v>528</v>
+        <v>512</v>
       </c>
     </row>
     <row r="100" spans="1:2">
@@ -6903,7 +6903,7 @@
     </row>
     <row r="101" spans="1:2">
       <c r="A101" s="11" t="s">
-        <v>551</v>
+        <v>535</v>
       </c>
       <c r="B101" s="11">
         <v>60</v>
@@ -6911,32 +6911,32 @@
     </row>
     <row r="102" spans="1:2">
       <c r="A102" s="11" t="s">
-        <v>552</v>
+        <v>536</v>
       </c>
       <c r="B102" s="11">
         <v>2</v>
       </c>
     </row>
     <row r="105" spans="1:2">
-      <c r="A105" s="32" t="s">
-        <v>553</v>
-      </c>
-      <c r="B105" s="32"/>
+      <c r="A105" s="37" t="s">
+        <v>537</v>
+      </c>
+      <c r="B105" s="37"/>
     </row>
     <row r="106" spans="1:2">
       <c r="A106" s="11" t="s">
-        <v>479</v>
+        <v>463</v>
       </c>
       <c r="B106" s="11" t="s">
-        <v>554</v>
+        <v>538</v>
       </c>
     </row>
     <row r="107" spans="1:2">
       <c r="A107" s="11" t="s">
-        <v>483</v>
+        <v>467</v>
       </c>
       <c r="B107" s="11" t="s">
-        <v>555</v>
+        <v>539</v>
       </c>
     </row>
     <row r="108" spans="1:2">
@@ -6944,12 +6944,12 @@
         <v>109</v>
       </c>
       <c r="B108" s="11" t="s">
-        <v>556</v>
+        <v>540</v>
       </c>
     </row>
     <row r="109" spans="1:2">
       <c r="A109" s="11" t="s">
-        <v>551</v>
+        <v>535</v>
       </c>
       <c r="B109" s="11">
         <v>60</v>
@@ -6957,24 +6957,24 @@
     </row>
     <row r="110" spans="1:2">
       <c r="A110" s="11" t="s">
-        <v>552</v>
+        <v>536</v>
       </c>
       <c r="B110" s="11">
         <v>3</v>
       </c>
     </row>
     <row r="111" spans="1:2">
-      <c r="A111" s="32" t="s">
-        <v>490</v>
-      </c>
-      <c r="B111" s="32"/>
+      <c r="A111" s="37" t="s">
+        <v>474</v>
+      </c>
+      <c r="B111" s="37"/>
     </row>
     <row r="112" spans="1:2">
       <c r="A112" s="11" t="s">
         <v>212</v>
       </c>
       <c r="B112" s="11" t="s">
-        <v>557</v>
+        <v>541</v>
       </c>
     </row>
     <row r="113" spans="1:2">
@@ -7022,29 +7022,29 @@
         <v>152</v>
       </c>
       <c r="B118" s="11" t="s">
-        <v>528</v>
+        <v>512</v>
       </c>
     </row>
     <row r="121" spans="1:2">
-      <c r="A121" s="32" t="s">
-        <v>558</v>
-      </c>
-      <c r="B121" s="32"/>
+      <c r="A121" s="37" t="s">
+        <v>542</v>
+      </c>
+      <c r="B121" s="37"/>
     </row>
     <row r="122" spans="1:2">
       <c r="A122" s="11" t="s">
-        <v>479</v>
+        <v>463</v>
       </c>
       <c r="B122" s="11" t="s">
-        <v>559</v>
+        <v>543</v>
       </c>
     </row>
     <row r="123" spans="1:2">
       <c r="A123" s="11" t="s">
-        <v>483</v>
+        <v>467</v>
       </c>
       <c r="B123" s="11" t="s">
-        <v>560</v>
+        <v>544</v>
       </c>
     </row>
     <row r="124" spans="1:2">
@@ -7052,21 +7052,21 @@
         <v>109</v>
       </c>
       <c r="B124" s="11" t="s">
-        <v>561</v>
+        <v>545</v>
       </c>
     </row>
     <row r="125" spans="1:2">
-      <c r="A125" s="32" t="s">
-        <v>490</v>
-      </c>
-      <c r="B125" s="32"/>
+      <c r="A125" s="37" t="s">
+        <v>474</v>
+      </c>
+      <c r="B125" s="37"/>
     </row>
     <row r="126" spans="1:2">
       <c r="A126" s="11" t="s">
-        <v>562</v>
+        <v>546</v>
       </c>
       <c r="B126" s="11" t="s">
-        <v>563</v>
+        <v>547</v>
       </c>
     </row>
     <row r="127" spans="1:2">
@@ -7074,15 +7074,15 @@
         <v>236</v>
       </c>
       <c r="B127" s="11" t="s">
-        <v>564</v>
+        <v>548</v>
       </c>
     </row>
     <row r="128" spans="1:2">
       <c r="A128" s="11" t="s">
-        <v>565</v>
+        <v>549</v>
       </c>
       <c r="B128" s="11" t="s">
-        <v>566</v>
+        <v>550</v>
       </c>
     </row>
     <row r="129" spans="1:2">
@@ -7094,25 +7094,25 @@
       </c>
     </row>
     <row r="132" spans="1:2">
-      <c r="A132" s="32" t="s">
-        <v>567</v>
-      </c>
-      <c r="B132" s="32"/>
+      <c r="A132" s="37" t="s">
+        <v>551</v>
+      </c>
+      <c r="B132" s="37"/>
     </row>
     <row r="133" spans="1:2">
       <c r="A133" s="11" t="s">
-        <v>479</v>
+        <v>463</v>
       </c>
       <c r="B133" s="11" t="s">
-        <v>568</v>
+        <v>552</v>
       </c>
     </row>
     <row r="134" spans="1:2">
       <c r="A134" s="11" t="s">
-        <v>483</v>
+        <v>467</v>
       </c>
       <c r="B134" s="11" t="s">
-        <v>569</v>
+        <v>553</v>
       </c>
     </row>
     <row r="135" spans="1:2">
@@ -7120,21 +7120,21 @@
         <v>109</v>
       </c>
       <c r="B135" s="11" t="s">
-        <v>570</v>
+        <v>554</v>
       </c>
     </row>
     <row r="136" spans="1:2">
-      <c r="A136" s="32" t="s">
-        <v>490</v>
-      </c>
-      <c r="B136" s="32"/>
+      <c r="A136" s="37" t="s">
+        <v>474</v>
+      </c>
+      <c r="B136" s="37"/>
     </row>
     <row r="137" spans="1:2">
       <c r="A137" s="11" t="s">
-        <v>562</v>
+        <v>546</v>
       </c>
       <c r="B137" s="11" t="s">
-        <v>571</v>
+        <v>555</v>
       </c>
     </row>
     <row r="138" spans="1:2">
@@ -7147,15 +7147,15 @@
     </row>
     <row r="139" spans="1:2">
       <c r="A139" s="11" t="s">
-        <v>565</v>
+        <v>549</v>
       </c>
       <c r="B139" s="11" t="s">
-        <v>572</v>
+        <v>556</v>
       </c>
     </row>
     <row r="140" spans="1:2">
       <c r="A140" s="11" t="s">
-        <v>573</v>
+        <v>557</v>
       </c>
       <c r="B140" s="11" t="s">
         <v>456</v>
@@ -7170,25 +7170,25 @@
       </c>
     </row>
     <row r="144" spans="1:2">
-      <c r="A144" s="32" t="s">
-        <v>574</v>
-      </c>
-      <c r="B144" s="32"/>
+      <c r="A144" s="37" t="s">
+        <v>558</v>
+      </c>
+      <c r="B144" s="37"/>
     </row>
     <row r="145" spans="1:2">
       <c r="A145" s="11" t="s">
-        <v>479</v>
+        <v>463</v>
       </c>
       <c r="B145" s="11" t="s">
-        <v>575</v>
+        <v>559</v>
       </c>
     </row>
     <row r="146" spans="1:2">
       <c r="A146" s="11" t="s">
-        <v>483</v>
+        <v>467</v>
       </c>
       <c r="B146" s="11" t="s">
-        <v>576</v>
+        <v>560</v>
       </c>
     </row>
     <row r="147" spans="1:2">
@@ -7196,26 +7196,26 @@
         <v>109</v>
       </c>
       <c r="B147" s="11" t="s">
-        <v>577</v>
+        <v>561</v>
       </c>
     </row>
     <row r="148" spans="1:2">
-      <c r="A148" s="32" t="s">
-        <v>490</v>
-      </c>
-      <c r="B148" s="32"/>
+      <c r="A148" s="37" t="s">
+        <v>474</v>
+      </c>
+      <c r="B148" s="37"/>
     </row>
     <row r="149" spans="1:2">
       <c r="A149" s="11" t="s">
+        <v>546</v>
+      </c>
+      <c r="B149" s="11" t="s">
         <v>562</v>
-      </c>
-      <c r="B149" s="11" t="s">
-        <v>578</v>
       </c>
     </row>
     <row r="150" spans="1:2">
       <c r="A150" s="11" t="s">
-        <v>573</v>
+        <v>557</v>
       </c>
       <c r="B150" s="11" t="s">
         <v>456</v>
@@ -7231,15 +7231,15 @@
     </row>
     <row r="152" spans="1:2">
       <c r="A152" s="11" t="s">
-        <v>565</v>
+        <v>549</v>
       </c>
       <c r="B152" s="11" t="s">
-        <v>579</v>
+        <v>563</v>
       </c>
     </row>
     <row r="153" spans="1:2">
       <c r="A153" s="11" t="s">
-        <v>580</v>
+        <v>564</v>
       </c>
       <c r="B153" s="11" t="s">
         <v>457</v>
@@ -7255,10 +7255,10 @@
     </row>
     <row r="155" spans="1:2">
       <c r="A155" s="11" t="s">
-        <v>581</v>
+        <v>565</v>
       </c>
       <c r="B155" s="11" t="s">
-        <v>582</v>
+        <v>566</v>
       </c>
     </row>
     <row r="156" spans="1:2">
@@ -7282,37 +7282,37 @@
         <v>152</v>
       </c>
       <c r="B158" s="11" t="s">
-        <v>528</v>
+        <v>512</v>
       </c>
     </row>
     <row r="159" spans="1:2">
       <c r="A159" s="11" t="s">
-        <v>551</v>
+        <v>535</v>
       </c>
       <c r="B159" s="11">
         <v>60</v>
       </c>
     </row>
     <row r="162" spans="1:2">
-      <c r="A162" s="32" t="s">
-        <v>583</v>
-      </c>
-      <c r="B162" s="32"/>
+      <c r="A162" s="37" t="s">
+        <v>567</v>
+      </c>
+      <c r="B162" s="37"/>
     </row>
     <row r="163" spans="1:2">
       <c r="A163" s="11" t="s">
-        <v>479</v>
+        <v>463</v>
       </c>
       <c r="B163" s="11" t="s">
-        <v>584</v>
+        <v>568</v>
       </c>
     </row>
     <row r="164" spans="1:2">
       <c r="A164" s="11" t="s">
-        <v>483</v>
+        <v>467</v>
       </c>
       <c r="B164" s="11" t="s">
-        <v>585</v>
+        <v>569</v>
       </c>
     </row>
     <row r="165" spans="1:2">
@@ -7320,12 +7320,12 @@
         <v>109</v>
       </c>
       <c r="B165" s="11" t="s">
-        <v>586</v>
+        <v>570</v>
       </c>
     </row>
     <row r="166" spans="1:2">
       <c r="A166" s="11" t="s">
-        <v>551</v>
+        <v>535</v>
       </c>
       <c r="B166" s="11">
         <v>60</v>
@@ -7333,40 +7333,40 @@
     </row>
     <row r="167" spans="1:2">
       <c r="A167" s="11" t="s">
-        <v>587</v>
+        <v>571</v>
       </c>
       <c r="B167" s="11">
         <v>3</v>
       </c>
     </row>
     <row r="168" spans="1:2">
-      <c r="A168" s="32" t="s">
-        <v>490</v>
-      </c>
-      <c r="B168" s="32"/>
+      <c r="A168" s="37" t="s">
+        <v>474</v>
+      </c>
+      <c r="B168" s="37"/>
     </row>
     <row r="169" spans="1:2">
       <c r="A169" s="11" t="s">
-        <v>562</v>
+        <v>546</v>
       </c>
       <c r="B169" s="11" t="s">
-        <v>588</v>
+        <v>572</v>
       </c>
     </row>
     <row r="170" spans="1:2">
       <c r="A170" s="11" t="s">
-        <v>565</v>
+        <v>549</v>
       </c>
       <c r="B170" s="11" t="s">
-        <v>589</v>
+        <v>573</v>
       </c>
     </row>
     <row r="171" spans="1:2">
       <c r="A171" s="11" t="s">
-        <v>581</v>
+        <v>565</v>
       </c>
       <c r="B171" s="11" t="s">
-        <v>590</v>
+        <v>574</v>
       </c>
     </row>
     <row r="172" spans="1:2">
@@ -7387,7 +7387,7 @@
     </row>
     <row r="174" spans="1:2">
       <c r="A174" s="11" t="s">
-        <v>573</v>
+        <v>557</v>
       </c>
       <c r="B174" s="11" t="s">
         <v>456</v>
@@ -7403,7 +7403,7 @@
     </row>
     <row r="176" spans="1:2">
       <c r="A176" s="11" t="s">
-        <v>580</v>
+        <v>564</v>
       </c>
       <c r="B176" s="11" t="s">
         <v>457</v>
@@ -7430,29 +7430,29 @@
         <v>152</v>
       </c>
       <c r="B179" s="11" t="s">
-        <v>528</v>
+        <v>512</v>
       </c>
     </row>
     <row r="182" spans="1:2">
-      <c r="A182" s="32" t="s">
-        <v>591</v>
-      </c>
-      <c r="B182" s="32"/>
+      <c r="A182" s="37" t="s">
+        <v>575</v>
+      </c>
+      <c r="B182" s="37"/>
     </row>
     <row r="183" spans="1:2">
       <c r="A183" s="11" t="s">
-        <v>479</v>
+        <v>463</v>
       </c>
       <c r="B183" s="11" t="s">
-        <v>592</v>
+        <v>576</v>
       </c>
     </row>
     <row r="184" spans="1:2" ht="36">
       <c r="A184" s="11" t="s">
-        <v>483</v>
+        <v>467</v>
       </c>
       <c r="B184" s="11" t="s">
-        <v>593</v>
+        <v>577</v>
       </c>
     </row>
     <row r="185" spans="1:2">
@@ -7460,12 +7460,12 @@
         <v>109</v>
       </c>
       <c r="B185" s="11" t="s">
-        <v>594</v>
+        <v>578</v>
       </c>
     </row>
     <row r="186" spans="1:2">
       <c r="A186" s="11" t="s">
-        <v>551</v>
+        <v>535</v>
       </c>
       <c r="B186" s="11">
         <v>60</v>
@@ -7473,48 +7473,48 @@
     </row>
     <row r="187" spans="1:2">
       <c r="A187" s="11" t="s">
-        <v>587</v>
+        <v>571</v>
       </c>
       <c r="B187" s="11">
         <v>3</v>
       </c>
     </row>
     <row r="188" spans="1:2">
-      <c r="A188" s="32" t="s">
-        <v>490</v>
-      </c>
-      <c r="B188" s="32"/>
+      <c r="A188" s="37" t="s">
+        <v>474</v>
+      </c>
+      <c r="B188" s="37"/>
     </row>
     <row r="189" spans="1:2">
       <c r="A189" s="11" t="s">
-        <v>562</v>
+        <v>546</v>
       </c>
       <c r="B189" s="11" t="s">
-        <v>595</v>
+        <v>579</v>
       </c>
     </row>
     <row r="190" spans="1:2">
       <c r="A190" s="11" t="s">
-        <v>565</v>
+        <v>549</v>
       </c>
       <c r="B190" s="11" t="s">
-        <v>596</v>
+        <v>580</v>
       </c>
     </row>
     <row r="191" spans="1:2">
       <c r="A191" s="11" t="s">
+        <v>565</v>
+      </c>
+      <c r="B191" s="11" t="s">
         <v>581</v>
-      </c>
-      <c r="B191" s="11" t="s">
-        <v>597</v>
       </c>
     </row>
     <row r="192" spans="1:2">
       <c r="A192" s="11" t="s">
-        <v>598</v>
+        <v>582</v>
       </c>
       <c r="B192" s="11" t="s">
-        <v>599</v>
+        <v>583</v>
       </c>
     </row>
     <row r="193" spans="1:2">
@@ -7522,7 +7522,7 @@
         <v>236</v>
       </c>
       <c r="B193" s="11" t="s">
-        <v>600</v>
+        <v>584</v>
       </c>
     </row>
     <row r="194" spans="1:2">
@@ -7535,7 +7535,7 @@
     </row>
     <row r="195" spans="1:2">
       <c r="A195" s="11" t="s">
-        <v>573</v>
+        <v>557</v>
       </c>
       <c r="B195" s="11" t="s">
         <v>456</v>
@@ -7551,7 +7551,7 @@
     </row>
     <row r="197" spans="1:2">
       <c r="A197" s="11" t="s">
-        <v>580</v>
+        <v>564</v>
       </c>
       <c r="B197" s="11" t="s">
         <v>457</v>
@@ -7578,37 +7578,37 @@
         <v>152</v>
       </c>
       <c r="B200" s="11" t="s">
-        <v>528</v>
+        <v>512</v>
       </c>
     </row>
     <row r="201" spans="1:2">
       <c r="A201" s="11" t="s">
-        <v>601</v>
+        <v>585</v>
       </c>
       <c r="B201" s="11" t="s">
         <v>119</v>
       </c>
     </row>
     <row r="203" spans="1:2">
-      <c r="A203" s="32" t="s">
-        <v>602</v>
-      </c>
-      <c r="B203" s="32"/>
+      <c r="A203" s="37" t="s">
+        <v>586</v>
+      </c>
+      <c r="B203" s="37"/>
     </row>
     <row r="204" spans="1:2">
       <c r="A204" s="11" t="s">
-        <v>479</v>
+        <v>463</v>
       </c>
       <c r="B204" s="11" t="s">
-        <v>603</v>
+        <v>587</v>
       </c>
     </row>
     <row r="205" spans="1:2">
       <c r="A205" s="11" t="s">
-        <v>483</v>
+        <v>467</v>
       </c>
       <c r="B205" s="11" t="s">
-        <v>604</v>
+        <v>588</v>
       </c>
     </row>
     <row r="206" spans="1:2">
@@ -7616,12 +7616,12 @@
         <v>109</v>
       </c>
       <c r="B206" s="11" t="s">
-        <v>605</v>
+        <v>589</v>
       </c>
     </row>
     <row r="207" spans="1:2">
       <c r="A207" s="11" t="s">
-        <v>551</v>
+        <v>535</v>
       </c>
       <c r="B207" s="11">
         <v>40</v>
@@ -7629,48 +7629,48 @@
     </row>
     <row r="208" spans="1:2">
       <c r="A208" s="11" t="s">
-        <v>587</v>
+        <v>571</v>
       </c>
       <c r="B208" s="11">
         <v>1</v>
       </c>
     </row>
     <row r="209" spans="1:2">
-      <c r="A209" s="32" t="s">
-        <v>490</v>
-      </c>
-      <c r="B209" s="32"/>
+      <c r="A209" s="37" t="s">
+        <v>474</v>
+      </c>
+      <c r="B209" s="37"/>
     </row>
     <row r="210" spans="1:2">
       <c r="A210" s="11" t="s">
-        <v>562</v>
+        <v>546</v>
       </c>
       <c r="B210" s="11" t="s">
-        <v>606</v>
+        <v>590</v>
       </c>
     </row>
     <row r="211" spans="1:2">
       <c r="A211" s="11" t="s">
-        <v>565</v>
+        <v>549</v>
       </c>
       <c r="B211" s="11" t="s">
-        <v>607</v>
+        <v>591</v>
       </c>
     </row>
     <row r="212" spans="1:2">
       <c r="A212" s="11" t="s">
-        <v>581</v>
+        <v>565</v>
       </c>
       <c r="B212" s="11" t="s">
-        <v>608</v>
+        <v>592</v>
       </c>
     </row>
     <row r="213" spans="1:2">
       <c r="A213" s="11" t="s">
-        <v>598</v>
+        <v>582</v>
       </c>
       <c r="B213" s="11" t="s">
-        <v>609</v>
+        <v>593</v>
       </c>
     </row>
     <row r="214" spans="1:2">
@@ -7678,7 +7678,7 @@
         <v>236</v>
       </c>
       <c r="B214" s="11" t="s">
-        <v>610</v>
+        <v>594</v>
       </c>
     </row>
     <row r="215" spans="1:2">
@@ -7691,7 +7691,7 @@
     </row>
     <row r="216" spans="1:2">
       <c r="A216" s="11" t="s">
-        <v>573</v>
+        <v>557</v>
       </c>
       <c r="B216" s="11" t="s">
         <v>456</v>
@@ -7726,29 +7726,29 @@
         <v>152</v>
       </c>
       <c r="B220" s="11" t="s">
-        <v>528</v>
+        <v>512</v>
       </c>
     </row>
     <row r="223" spans="1:2">
-      <c r="A223" s="32" t="s">
-        <v>611</v>
-      </c>
-      <c r="B223" s="32"/>
+      <c r="A223" s="37" t="s">
+        <v>595</v>
+      </c>
+      <c r="B223" s="37"/>
     </row>
     <row r="224" spans="1:2">
       <c r="A224" s="11" t="s">
-        <v>479</v>
+        <v>463</v>
       </c>
       <c r="B224" s="11" t="s">
-        <v>612</v>
+        <v>596</v>
       </c>
     </row>
     <row r="225" spans="1:2" ht="36">
       <c r="A225" s="11" t="s">
-        <v>483</v>
+        <v>467</v>
       </c>
       <c r="B225" s="11" t="s">
-        <v>613</v>
+        <v>597</v>
       </c>
     </row>
     <row r="226" spans="1:2">
@@ -7756,12 +7756,12 @@
         <v>109</v>
       </c>
       <c r="B226" s="11" t="s">
-        <v>614</v>
+        <v>598</v>
       </c>
     </row>
     <row r="227" spans="1:2">
       <c r="A227" s="11" t="s">
-        <v>551</v>
+        <v>535</v>
       </c>
       <c r="B227" s="11">
         <v>30</v>
@@ -7769,48 +7769,48 @@
     </row>
     <row r="228" spans="1:2">
       <c r="A228" s="11" t="s">
-        <v>587</v>
+        <v>571</v>
       </c>
       <c r="B228" s="11">
         <v>2</v>
       </c>
     </row>
     <row r="229" spans="1:2">
-      <c r="A229" s="32" t="s">
-        <v>490</v>
-      </c>
-      <c r="B229" s="32"/>
+      <c r="A229" s="37" t="s">
+        <v>474</v>
+      </c>
+      <c r="B229" s="37"/>
     </row>
     <row r="230" spans="1:2">
       <c r="A230" s="11" t="s">
-        <v>562</v>
+        <v>546</v>
       </c>
       <c r="B230" s="11" t="s">
-        <v>615</v>
+        <v>599</v>
       </c>
     </row>
     <row r="231" spans="1:2">
       <c r="A231" s="11" t="s">
-        <v>565</v>
+        <v>549</v>
       </c>
       <c r="B231" s="11" t="s">
-        <v>616</v>
+        <v>600</v>
       </c>
     </row>
     <row r="232" spans="1:2">
       <c r="A232" s="11" t="s">
-        <v>581</v>
+        <v>565</v>
       </c>
       <c r="B232" s="11" t="s">
-        <v>617</v>
+        <v>601</v>
       </c>
     </row>
     <row r="233" spans="1:2">
       <c r="A233" s="11" t="s">
-        <v>598</v>
+        <v>582</v>
       </c>
       <c r="B233" s="11" t="s">
-        <v>618</v>
+        <v>602</v>
       </c>
     </row>
     <row r="234" spans="1:2">
@@ -7818,7 +7818,7 @@
         <v>236</v>
       </c>
       <c r="B234" s="11" t="s">
-        <v>619</v>
+        <v>603</v>
       </c>
     </row>
     <row r="235" spans="1:2">
@@ -7831,7 +7831,7 @@
     </row>
     <row r="236" spans="1:2">
       <c r="A236" s="11" t="s">
-        <v>573</v>
+        <v>557</v>
       </c>
       <c r="B236" s="11" t="s">
         <v>456</v>
@@ -7847,7 +7847,7 @@
     </row>
     <row r="238" spans="1:2">
       <c r="A238" s="11" t="s">
-        <v>580</v>
+        <v>564</v>
       </c>
       <c r="B238" s="11" t="s">
         <v>457</v>
@@ -7882,7 +7882,7 @@
         <v>152</v>
       </c>
       <c r="B242" s="11" t="s">
-        <v>528</v>
+        <v>512</v>
       </c>
     </row>
   </sheetData>
@@ -7897,11 +7897,6 @@
     <mergeCell ref="A168:B168"/>
     <mergeCell ref="A182:B182"/>
     <mergeCell ref="A188:B188"/>
-    <mergeCell ref="A105:B105"/>
-    <mergeCell ref="A111:B111"/>
-    <mergeCell ref="A121:B121"/>
-    <mergeCell ref="A125:B125"/>
-    <mergeCell ref="A132:B132"/>
     <mergeCell ref="A136:B136"/>
     <mergeCell ref="A59:B59"/>
     <mergeCell ref="A69:B69"/>
@@ -7909,11 +7904,11 @@
     <mergeCell ref="A79:B79"/>
     <mergeCell ref="A89:B89"/>
     <mergeCell ref="A93:B93"/>
-    <mergeCell ref="A30:B30"/>
-    <mergeCell ref="A35:B35"/>
-    <mergeCell ref="A39:B39"/>
-    <mergeCell ref="A44:B44"/>
-    <mergeCell ref="A48:B48"/>
+    <mergeCell ref="A105:B105"/>
+    <mergeCell ref="A111:B111"/>
+    <mergeCell ref="A121:B121"/>
+    <mergeCell ref="A125:B125"/>
+    <mergeCell ref="A132:B132"/>
     <mergeCell ref="A55:B55"/>
     <mergeCell ref="A1:B1"/>
     <mergeCell ref="D1:E1"/>
@@ -7921,6 +7916,11 @@
     <mergeCell ref="A16:B16"/>
     <mergeCell ref="A20:B20"/>
     <mergeCell ref="A26:B26"/>
+    <mergeCell ref="A30:B30"/>
+    <mergeCell ref="A35:B35"/>
+    <mergeCell ref="A39:B39"/>
+    <mergeCell ref="A44:B44"/>
+    <mergeCell ref="A48:B48"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <extLst>

--- a/TestData.xlsx
+++ b/TestData.xlsx
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1196" uniqueCount="620">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1196" uniqueCount="619">
   <si>
     <t>TEST CASE NAME</t>
   </si>
@@ -1851,12 +1851,6 @@
     <t>This is text card for four lessons 3rd combi</t>
   </si>
   <si>
-    <t>shilpa123@grovo.com</t>
-  </si>
-  <si>
-    <t>EmpS#01</t>
-  </si>
-  <si>
     <t>EmpS#00</t>
   </si>
   <si>
@@ -1878,9 +1872,6 @@
     <t>Sheethu0</t>
   </si>
   <si>
-    <t>Shilpa0</t>
-  </si>
-  <si>
     <t>Geethu0</t>
   </si>
   <si>
@@ -1890,13 +1881,19 @@
     <t>Chandran0</t>
   </si>
   <si>
-    <t>suresh0</t>
-  </si>
-  <si>
     <t>Nambair0</t>
   </si>
   <si>
     <t>Aidale0</t>
+  </si>
+  <si>
+    <t>Shilpa1</t>
+  </si>
+  <si>
+    <t>suresh1</t>
+  </si>
+  <si>
+    <t>shilpa234@grovo.com</t>
   </si>
 </sst>
 </file>
@@ -2741,7 +2738,7 @@
   <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D17" sqref="D17"/>
+      <selection activeCell="F19" sqref="F19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="38" defaultRowHeight="18" x14ac:dyDescent="0"/>
@@ -2787,16 +2784,16 @@
         <v>16</v>
       </c>
       <c r="B2" s="3" t="s">
-        <v>612</v>
+        <v>610</v>
       </c>
       <c r="C2" s="3" t="s">
-        <v>616</v>
+        <v>613</v>
       </c>
       <c r="D2" s="9" t="s">
-        <v>609</v>
+        <v>607</v>
       </c>
       <c r="E2" s="3" t="s">
-        <v>606</v>
+        <v>604</v>
       </c>
       <c r="G2" s="4" t="s">
         <v>7</v>
@@ -2810,13 +2807,13 @@
         <v>17</v>
       </c>
       <c r="B3" s="3" t="s">
-        <v>613</v>
+        <v>616</v>
       </c>
       <c r="C3" s="3" t="s">
         <v>617</v>
       </c>
       <c r="D3" s="9" t="s">
-        <v>604</v>
+        <v>618</v>
       </c>
       <c r="E3" s="3" t="s">
         <v>605</v>
@@ -2836,16 +2833,16 @@
         <v>19</v>
       </c>
       <c r="B4" s="3" t="s">
+        <v>611</v>
+      </c>
+      <c r="C4" s="3" t="s">
         <v>614</v>
       </c>
-      <c r="C4" s="3" t="s">
-        <v>618</v>
-      </c>
       <c r="D4" s="9" t="s">
-        <v>610</v>
+        <v>608</v>
       </c>
       <c r="E4" s="3" t="s">
-        <v>607</v>
+        <v>605</v>
       </c>
       <c r="F4" s="3" t="s">
         <v>20</v>
@@ -2862,16 +2859,16 @@
         <v>21</v>
       </c>
       <c r="B5" s="3" t="s">
+        <v>612</v>
+      </c>
+      <c r="C5" s="3" t="s">
         <v>615</v>
       </c>
-      <c r="C5" s="3" t="s">
-        <v>619</v>
-      </c>
       <c r="D5" s="9" t="s">
-        <v>611</v>
+        <v>609</v>
       </c>
       <c r="E5" s="3" t="s">
-        <v>608</v>
+        <v>606</v>
       </c>
       <c r="F5" s="3" t="s">
         <v>22</v>

--- a/TestData.xlsx
+++ b/TestData.xlsx
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1196" uniqueCount="619">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1196" uniqueCount="620">
   <si>
     <t>TEST CASE NAME</t>
   </si>
@@ -1851,15 +1851,6 @@
     <t>This is text card for four lessons 3rd combi</t>
   </si>
   <si>
-    <t>EmpS#00</t>
-  </si>
-  <si>
-    <t>EmpS#02</t>
-  </si>
-  <si>
-    <t>EmpS#03</t>
-  </si>
-  <si>
     <t>sheethu123@grovo.com</t>
   </si>
   <si>
@@ -1887,13 +1878,25 @@
     <t>Aidale0</t>
   </si>
   <si>
-    <t>Shilpa1</t>
-  </si>
-  <si>
-    <t>suresh1</t>
-  </si>
-  <si>
-    <t>shilpa234@grovo.com</t>
+    <t>Shilpa2</t>
+  </si>
+  <si>
+    <t>suresh2</t>
+  </si>
+  <si>
+    <t>shilpa345@grovo.com</t>
+  </si>
+  <si>
+    <t>EmpS#000</t>
+  </si>
+  <si>
+    <t>EmpS#111</t>
+  </si>
+  <si>
+    <t>EmpS#222</t>
+  </si>
+  <si>
+    <t>EmpS#333</t>
   </si>
 </sst>
 </file>
@@ -2738,7 +2741,7 @@
   <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F19" sqref="F19"/>
+      <selection activeCell="E20" sqref="E20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="38" defaultRowHeight="18" x14ac:dyDescent="0"/>
@@ -2784,16 +2787,16 @@
         <v>16</v>
       </c>
       <c r="B2" s="3" t="s">
+        <v>607</v>
+      </c>
+      <c r="C2" s="3" t="s">
         <v>610</v>
       </c>
-      <c r="C2" s="3" t="s">
-        <v>613</v>
-      </c>
       <c r="D2" s="9" t="s">
-        <v>607</v>
+        <v>604</v>
       </c>
       <c r="E2" s="3" t="s">
-        <v>604</v>
+        <v>616</v>
       </c>
       <c r="G2" s="4" t="s">
         <v>7</v>
@@ -2807,16 +2810,16 @@
         <v>17</v>
       </c>
       <c r="B3" s="3" t="s">
-        <v>616</v>
+        <v>613</v>
       </c>
       <c r="C3" s="3" t="s">
+        <v>614</v>
+      </c>
+      <c r="D3" s="9" t="s">
+        <v>615</v>
+      </c>
+      <c r="E3" s="3" t="s">
         <v>617</v>
-      </c>
-      <c r="D3" s="9" t="s">
-        <v>618</v>
-      </c>
-      <c r="E3" s="3" t="s">
-        <v>605</v>
       </c>
       <c r="F3" s="3" t="s">
         <v>18</v>
@@ -2833,16 +2836,16 @@
         <v>19</v>
       </c>
       <c r="B4" s="3" t="s">
+        <v>608</v>
+      </c>
+      <c r="C4" s="3" t="s">
         <v>611</v>
       </c>
-      <c r="C4" s="3" t="s">
-        <v>614</v>
-      </c>
       <c r="D4" s="9" t="s">
-        <v>608</v>
+        <v>605</v>
       </c>
       <c r="E4" s="3" t="s">
-        <v>605</v>
+        <v>618</v>
       </c>
       <c r="F4" s="3" t="s">
         <v>20</v>
@@ -2859,16 +2862,16 @@
         <v>21</v>
       </c>
       <c r="B5" s="3" t="s">
+        <v>609</v>
+      </c>
+      <c r="C5" s="3" t="s">
         <v>612</v>
       </c>
-      <c r="C5" s="3" t="s">
-        <v>615</v>
-      </c>
       <c r="D5" s="9" t="s">
-        <v>609</v>
+        <v>606</v>
       </c>
       <c r="E5" s="3" t="s">
-        <v>606</v>
+        <v>619</v>
       </c>
       <c r="F5" s="3" t="s">
         <v>22</v>

--- a/TestData.xlsx
+++ b/TestData.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="20225"/>
   <workbookPr autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="25600" windowHeight="14400" tabRatio="990" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="25600" windowHeight="14400" tabRatio="990" activeTab="8"/>
   </bookViews>
   <sheets>
     <sheet name="Login_Credentials" sheetId="1" r:id="rId1"/>
@@ -15,6 +15,7 @@
     <sheet name="MultiCardLesson" sheetId="21" r:id="rId6"/>
     <sheet name="CreateTag" sheetId="24" r:id="rId7"/>
     <sheet name="CreateCampaigns" sheetId="25" r:id="rId8"/>
+    <sheet name="API testing" sheetId="26" r:id="rId9"/>
   </sheets>
   <calcPr calcId="125725" concurrentCalc="0"/>
   <extLst>
@@ -26,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1196" uniqueCount="620">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1208" uniqueCount="625">
   <si>
     <t>TEST CASE NAME</t>
   </si>
@@ -1898,12 +1899,27 @@
   <si>
     <t>EmpS#333</t>
   </si>
+  <si>
+    <t>searchlastName</t>
+  </si>
+  <si>
+    <t>TC_27</t>
+  </si>
+  <si>
+    <t>L27</t>
+  </si>
+  <si>
+    <t>TC_28</t>
+  </si>
+  <si>
+    <t>L28</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="18" x14ac:knownFonts="1">
+  <fonts count="19" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color rgb="FF000000"/>
@@ -2022,6 +2038,13 @@
       <family val="1"/>
       <charset val="1"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="Bitstream Charter"/>
+      <family val="1"/>
+      <charset val="1"/>
+    </font>
   </fonts>
   <fills count="8">
     <fill>
@@ -2067,7 +2090,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="7">
+  <borders count="9">
     <border>
       <left/>
       <right/>
@@ -2153,6 +2176,30 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFE7E6E6"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFE7E6E6"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFE7E6E6"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFE7E6E6"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color rgb="FFE7E6E6"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
@@ -2160,7 +2207,7 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="44">
+  <cellXfs count="47">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
@@ -2228,6 +2275,9 @@
     <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="1" applyFont="1" applyBorder="1" applyProtection="1"/>
     <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1"/>
+    <xf numFmtId="0" fontId="18" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="18" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="18" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="7" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
@@ -2740,7 +2790,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:H5"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="E20" sqref="E20"/>
     </sheetView>
   </sheetViews>
@@ -3092,10 +3142,10 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:2" ht="15" customHeight="1">
-      <c r="A1" s="38" t="s">
+      <c r="A1" s="41" t="s">
         <v>207</v>
       </c>
-      <c r="B1" s="39"/>
+      <c r="B1" s="42"/>
     </row>
     <row r="2" spans="1:2">
       <c r="A2" s="11" t="s">
@@ -3118,10 +3168,10 @@
       <c r="B4" s="12"/>
     </row>
     <row r="6" spans="1:2" ht="14" customHeight="1">
-      <c r="A6" s="38" t="s">
+      <c r="A6" s="41" t="s">
         <v>211</v>
       </c>
-      <c r="B6" s="39"/>
+      <c r="B6" s="42"/>
     </row>
     <row r="7" spans="1:2">
       <c r="A7" s="11" t="s">
@@ -3168,10 +3218,10 @@
       <c r="B12" s="12"/>
     </row>
     <row r="14" spans="1:2">
-      <c r="A14" s="37" t="s">
+      <c r="A14" s="40" t="s">
         <v>220</v>
       </c>
-      <c r="B14" s="37"/>
+      <c r="B14" s="40"/>
     </row>
     <row r="15" spans="1:2">
       <c r="A15" s="11" t="s">
@@ -3198,10 +3248,10 @@
       <c r="B18" s="12"/>
     </row>
     <row r="20" spans="1:2">
-      <c r="A20" s="37" t="s">
+      <c r="A20" s="40" t="s">
         <v>223</v>
       </c>
-      <c r="B20" s="37"/>
+      <c r="B20" s="40"/>
     </row>
     <row r="21" spans="1:2">
       <c r="A21" s="11" t="s">
@@ -3232,10 +3282,10 @@
       <c r="B24" s="12"/>
     </row>
     <row r="26" spans="1:2" ht="15" customHeight="1">
-      <c r="A26" s="37" t="s">
+      <c r="A26" s="40" t="s">
         <v>227</v>
       </c>
-      <c r="B26" s="37"/>
+      <c r="B26" s="40"/>
     </row>
     <row r="27" spans="1:2">
       <c r="A27" s="11" t="s">
@@ -3310,14 +3360,14 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:4" ht="14" customHeight="1">
-      <c r="A1" s="38" t="s">
+      <c r="A1" s="41" t="s">
         <v>97</v>
       </c>
-      <c r="B1" s="39"/>
-      <c r="C1" s="38" t="s">
+      <c r="B1" s="42"/>
+      <c r="C1" s="41" t="s">
         <v>98</v>
       </c>
-      <c r="D1" s="39"/>
+      <c r="D1" s="42"/>
     </row>
     <row r="2" spans="1:4">
       <c r="A2" s="11" t="s">
@@ -3376,14 +3426,14 @@
       <c r="B7" s="11"/>
     </row>
     <row r="10" spans="1:4" ht="14" customHeight="1">
-      <c r="A10" s="38" t="s">
+      <c r="A10" s="41" t="s">
         <v>111</v>
       </c>
-      <c r="B10" s="39"/>
-      <c r="C10" s="38" t="s">
+      <c r="B10" s="42"/>
+      <c r="C10" s="41" t="s">
         <v>98</v>
       </c>
-      <c r="D10" s="39"/>
+      <c r="D10" s="42"/>
     </row>
     <row r="11" spans="1:4">
       <c r="A11" s="11" t="s">
@@ -3454,14 +3504,14 @@
       <c r="B16" s="11"/>
     </row>
     <row r="18" spans="1:4" ht="14" customHeight="1">
-      <c r="A18" s="38" t="s">
+      <c r="A18" s="41" t="s">
         <v>121</v>
       </c>
-      <c r="B18" s="39"/>
-      <c r="C18" s="38" t="s">
+      <c r="B18" s="42"/>
+      <c r="C18" s="41" t="s">
         <v>98</v>
       </c>
-      <c r="D18" s="39"/>
+      <c r="D18" s="42"/>
     </row>
     <row r="19" spans="1:4">
       <c r="A19" s="11" t="s">
@@ -3524,14 +3574,14 @@
       <c r="B24" s="11"/>
     </row>
     <row r="26" spans="1:4" ht="14" customHeight="1">
-      <c r="A26" s="38" t="s">
+      <c r="A26" s="41" t="s">
         <v>127</v>
       </c>
-      <c r="B26" s="39"/>
-      <c r="C26" s="38" t="s">
+      <c r="B26" s="42"/>
+      <c r="C26" s="41" t="s">
         <v>98</v>
       </c>
-      <c r="D26" s="39"/>
+      <c r="D26" s="42"/>
     </row>
     <row r="27" spans="1:4">
       <c r="A27" s="11" t="s">
@@ -3598,14 +3648,14 @@
       <c r="B32" s="11"/>
     </row>
     <row r="34" spans="1:4" ht="14" customHeight="1">
-      <c r="A34" s="38" t="s">
+      <c r="A34" s="41" t="s">
         <v>134</v>
       </c>
-      <c r="B34" s="39"/>
-      <c r="C34" s="38" t="s">
+      <c r="B34" s="42"/>
+      <c r="C34" s="41" t="s">
         <v>98</v>
       </c>
-      <c r="D34" s="39"/>
+      <c r="D34" s="42"/>
     </row>
     <row r="35" spans="1:4">
       <c r="A35" s="11" t="s">
@@ -3672,14 +3722,14 @@
       <c r="B40" s="11"/>
     </row>
     <row r="43" spans="1:4" ht="14" customHeight="1">
-      <c r="A43" s="38" t="s">
+      <c r="A43" s="41" t="s">
         <v>141</v>
       </c>
-      <c r="B43" s="39"/>
-      <c r="C43" s="38" t="s">
+      <c r="B43" s="42"/>
+      <c r="C43" s="41" t="s">
         <v>98</v>
       </c>
-      <c r="D43" s="39"/>
+      <c r="D43" s="42"/>
     </row>
     <row r="44" spans="1:4">
       <c r="A44" s="11" t="s">
@@ -3762,14 +3812,14 @@
       </c>
     </row>
     <row r="52" spans="1:5" ht="14" customHeight="1">
-      <c r="A52" s="38" t="s">
+      <c r="A52" s="41" t="s">
         <v>154</v>
       </c>
-      <c r="B52" s="39"/>
-      <c r="C52" s="38" t="s">
+      <c r="B52" s="42"/>
+      <c r="C52" s="41" t="s">
         <v>98</v>
       </c>
-      <c r="D52" s="39"/>
+      <c r="D52" s="42"/>
       <c r="E52" s="11"/>
     </row>
     <row r="53" spans="1:5" ht="54">
@@ -3863,14 +3913,14 @@
       <c r="E58" s="11"/>
     </row>
     <row r="60" spans="1:5" ht="14" customHeight="1">
-      <c r="A60" s="38" t="s">
+      <c r="A60" s="41" t="s">
         <v>162</v>
       </c>
-      <c r="B60" s="39"/>
-      <c r="C60" s="38" t="s">
+      <c r="B60" s="42"/>
+      <c r="C60" s="41" t="s">
         <v>98</v>
       </c>
-      <c r="D60" s="39"/>
+      <c r="D60" s="42"/>
     </row>
     <row r="61" spans="1:5">
       <c r="A61" s="11" t="s">
@@ -3963,14 +4013,14 @@
       </c>
     </row>
     <row r="70" spans="1:4" ht="14" customHeight="1">
-      <c r="A70" s="42" t="s">
+      <c r="A70" s="45" t="s">
         <v>169</v>
       </c>
-      <c r="B70" s="43"/>
-      <c r="C70" s="38" t="s">
+      <c r="B70" s="46"/>
+      <c r="C70" s="41" t="s">
         <v>170</v>
       </c>
-      <c r="D70" s="39"/>
+      <c r="D70" s="42"/>
     </row>
     <row r="71" spans="1:4">
       <c r="A71" s="11" t="s">
@@ -4007,10 +4057,10 @@
       <c r="B73" s="12" t="s">
         <v>175</v>
       </c>
-      <c r="C73" s="38" t="s">
+      <c r="C73" s="41" t="s">
         <v>176</v>
       </c>
-      <c r="D73" s="39"/>
+      <c r="D73" s="42"/>
     </row>
     <row r="74" spans="1:4">
       <c r="A74" s="11" t="s">
@@ -4053,14 +4103,14 @@
       <c r="D77" s="11"/>
     </row>
     <row r="79" spans="1:4" ht="14" customHeight="1">
-      <c r="A79" s="42" t="s">
+      <c r="A79" s="45" t="s">
         <v>181</v>
       </c>
-      <c r="B79" s="43"/>
-      <c r="C79" s="38" t="s">
+      <c r="B79" s="46"/>
+      <c r="C79" s="41" t="s">
         <v>182</v>
       </c>
-      <c r="D79" s="39"/>
+      <c r="D79" s="42"/>
     </row>
     <row r="80" spans="1:4">
       <c r="A80" s="11" t="s">
@@ -4097,10 +4147,10 @@
       <c r="B82" s="12" t="s">
         <v>186</v>
       </c>
-      <c r="C82" s="38" t="s">
+      <c r="C82" s="41" t="s">
         <v>187</v>
       </c>
-      <c r="D82" s="39"/>
+      <c r="D82" s="42"/>
     </row>
     <row r="83" spans="1:4">
       <c r="A83" s="11" t="s">
@@ -4141,14 +4191,14 @@
       </c>
     </row>
     <row r="88" spans="1:4" ht="14" customHeight="1">
-      <c r="A88" s="40" t="s">
+      <c r="A88" s="43" t="s">
         <v>192</v>
       </c>
-      <c r="B88" s="40"/>
-      <c r="C88" s="37" t="s">
+      <c r="B88" s="43"/>
+      <c r="C88" s="40" t="s">
         <v>187</v>
       </c>
-      <c r="D88" s="37"/>
+      <c r="D88" s="40"/>
     </row>
     <row r="89" spans="1:4">
       <c r="A89" s="11" t="s">
@@ -4199,10 +4249,10 @@
       <c r="B92" s="12" t="s">
         <v>148</v>
       </c>
-      <c r="C92" s="37" t="s">
+      <c r="C92" s="40" t="s">
         <v>196</v>
       </c>
-      <c r="D92" s="37"/>
+      <c r="D92" s="40"/>
     </row>
     <row r="93" spans="1:4" ht="36">
       <c r="A93" s="11" t="s">
@@ -4241,10 +4291,10 @@
     <row r="96" spans="1:4">
       <c r="A96" s="11"/>
       <c r="B96" s="11"/>
-      <c r="C96" s="37" t="s">
+      <c r="C96" s="40" t="s">
         <v>201</v>
       </c>
-      <c r="D96" s="37"/>
+      <c r="D96" s="40"/>
     </row>
     <row r="97" spans="1:4">
       <c r="A97" s="11"/>
@@ -4287,14 +4337,14 @@
       </c>
     </row>
     <row r="103" spans="1:4" ht="14" customHeight="1">
-      <c r="A103" s="40" t="s">
+      <c r="A103" s="43" t="s">
         <v>204</v>
       </c>
-      <c r="B103" s="40"/>
-      <c r="C103" s="37" t="s">
+      <c r="B103" s="43"/>
+      <c r="C103" s="40" t="s">
         <v>229</v>
       </c>
-      <c r="D103" s="37"/>
+      <c r="D103" s="40"/>
     </row>
     <row r="104" spans="1:4">
       <c r="A104" s="11" t="s">
@@ -4317,10 +4367,10 @@
       <c r="B105" s="12" t="s">
         <v>455</v>
       </c>
-      <c r="C105" s="38" t="s">
+      <c r="C105" s="41" t="s">
         <v>231</v>
       </c>
-      <c r="D105" s="39"/>
+      <c r="D105" s="42"/>
     </row>
     <row r="106" spans="1:4" ht="36">
       <c r="A106" s="11" t="s">
@@ -4435,14 +4485,14 @@
       </c>
     </row>
     <row r="118" spans="1:4">
-      <c r="A118" s="40" t="s">
+      <c r="A118" s="43" t="s">
         <v>238</v>
       </c>
-      <c r="B118" s="40"/>
-      <c r="C118" s="37" t="s">
+      <c r="B118" s="43"/>
+      <c r="C118" s="40" t="s">
         <v>239</v>
       </c>
-      <c r="D118" s="37"/>
+      <c r="D118" s="40"/>
     </row>
     <row r="119" spans="1:4">
       <c r="A119" s="11" t="s">
@@ -4525,10 +4575,10 @@
       </c>
     </row>
     <row r="125" spans="1:4">
-      <c r="A125" s="41" t="s">
+      <c r="A125" s="44" t="s">
         <v>244</v>
       </c>
-      <c r="B125" s="39"/>
+      <c r="B125" s="42"/>
       <c r="C125" s="11" t="s">
         <v>24</v>
       </c>
@@ -4575,14 +4625,14 @@
       <c r="D128" s="12"/>
     </row>
     <row r="131" spans="1:4">
-      <c r="A131" s="40" t="s">
+      <c r="A131" s="43" t="s">
         <v>249</v>
       </c>
-      <c r="B131" s="40"/>
-      <c r="C131" s="37" t="s">
+      <c r="B131" s="43"/>
+      <c r="C131" s="40" t="s">
         <v>250</v>
       </c>
-      <c r="D131" s="37"/>
+      <c r="D131" s="40"/>
     </row>
     <row r="132" spans="1:4">
       <c r="A132" s="11" t="s">
@@ -4713,14 +4763,14 @@
       <c r="D141" s="11"/>
     </row>
     <row r="144" spans="1:4">
-      <c r="A144" s="40" t="s">
+      <c r="A144" s="43" t="s">
         <v>262</v>
       </c>
-      <c r="B144" s="40"/>
-      <c r="C144" s="37" t="s">
+      <c r="B144" s="43"/>
+      <c r="C144" s="40" t="s">
         <v>250</v>
       </c>
-      <c r="D144" s="37"/>
+      <c r="D144" s="40"/>
     </row>
     <row r="145" spans="1:4">
       <c r="A145" s="11" t="s">
@@ -4847,14 +4897,14 @@
       <c r="D154" s="11"/>
     </row>
     <row r="157" spans="1:4">
-      <c r="A157" s="40" t="s">
+      <c r="A157" s="43" t="s">
         <v>273</v>
       </c>
-      <c r="B157" s="40"/>
-      <c r="C157" s="37" t="s">
+      <c r="B157" s="43"/>
+      <c r="C157" s="40" t="s">
         <v>250</v>
       </c>
-      <c r="D157" s="37"/>
+      <c r="D157" s="40"/>
     </row>
     <row r="158" spans="1:4">
       <c r="A158" s="11" t="s">
@@ -6188,14 +6238,14 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:5">
-      <c r="A1" s="37" t="s">
+      <c r="A1" s="40" t="s">
         <v>459</v>
       </c>
-      <c r="B1" s="37"/>
-      <c r="D1" s="38" t="s">
+      <c r="B1" s="40"/>
+      <c r="D1" s="41" t="s">
         <v>460</v>
       </c>
-      <c r="E1" s="39"/>
+      <c r="E1" s="42"/>
     </row>
     <row r="2" spans="1:5" ht="30" customHeight="1">
       <c r="A2" s="11" t="s">
@@ -6246,10 +6296,10 @@
       <c r="B5" s="12" t="s">
         <v>473</v>
       </c>
-      <c r="D5" s="38" t="s">
+      <c r="D5" s="41" t="s">
         <v>474</v>
       </c>
-      <c r="E5" s="39"/>
+      <c r="E5" s="42"/>
     </row>
     <row r="6" spans="1:5">
       <c r="A6" s="11" t="s">
@@ -6328,10 +6378,10 @@
       <c r="B13" s="11"/>
     </row>
     <row r="16" spans="1:5">
-      <c r="A16" s="38" t="s">
+      <c r="A16" s="41" t="s">
         <v>489</v>
       </c>
-      <c r="B16" s="39"/>
+      <c r="B16" s="42"/>
     </row>
     <row r="17" spans="1:2">
       <c r="A17" s="11" t="s">
@@ -6358,10 +6408,10 @@
       </c>
     </row>
     <row r="20" spans="1:2">
-      <c r="A20" s="38" t="s">
+      <c r="A20" s="41" t="s">
         <v>474</v>
       </c>
-      <c r="B20" s="39"/>
+      <c r="B20" s="42"/>
     </row>
     <row r="21" spans="1:2">
       <c r="A21" s="11" t="s">
@@ -6384,10 +6434,10 @@
       <c r="B23" s="11"/>
     </row>
     <row r="26" spans="1:2">
-      <c r="A26" s="38" t="s">
+      <c r="A26" s="41" t="s">
         <v>495</v>
       </c>
-      <c r="B26" s="39"/>
+      <c r="B26" s="42"/>
     </row>
     <row r="27" spans="1:2">
       <c r="A27" s="11" t="s">
@@ -6414,10 +6464,10 @@
       </c>
     </row>
     <row r="30" spans="1:2">
-      <c r="A30" s="38" t="s">
+      <c r="A30" s="41" t="s">
         <v>474</v>
       </c>
-      <c r="B30" s="39"/>
+      <c r="B30" s="42"/>
     </row>
     <row r="31" spans="1:2">
       <c r="A31" s="11" t="s">
@@ -6444,10 +6494,10 @@
       </c>
     </row>
     <row r="35" spans="1:2">
-      <c r="A35" s="38" t="s">
+      <c r="A35" s="41" t="s">
         <v>501</v>
       </c>
-      <c r="B35" s="39"/>
+      <c r="B35" s="42"/>
     </row>
     <row r="36" spans="1:2">
       <c r="A36" s="11" t="s">
@@ -6474,10 +6524,10 @@
       </c>
     </row>
     <row r="39" spans="1:2">
-      <c r="A39" s="38" t="s">
+      <c r="A39" s="41" t="s">
         <v>474</v>
       </c>
-      <c r="B39" s="39"/>
+      <c r="B39" s="42"/>
     </row>
     <row r="40" spans="1:2">
       <c r="A40" s="11" t="s">
@@ -6504,10 +6554,10 @@
       </c>
     </row>
     <row r="44" spans="1:2">
-      <c r="A44" s="38" t="s">
+      <c r="A44" s="41" t="s">
         <v>506</v>
       </c>
-      <c r="B44" s="39"/>
+      <c r="B44" s="42"/>
     </row>
     <row r="45" spans="1:2">
       <c r="A45" s="11" t="s">
@@ -6534,10 +6584,10 @@
       </c>
     </row>
     <row r="48" spans="1:2">
-      <c r="A48" s="38" t="s">
+      <c r="A48" s="41" t="s">
         <v>474</v>
       </c>
-      <c r="B48" s="39"/>
+      <c r="B48" s="42"/>
     </row>
     <row r="49" spans="1:2">
       <c r="A49" s="11" t="s">
@@ -6580,10 +6630,10 @@
       </c>
     </row>
     <row r="55" spans="1:2">
-      <c r="A55" s="38" t="s">
+      <c r="A55" s="41" t="s">
         <v>514</v>
       </c>
-      <c r="B55" s="39"/>
+      <c r="B55" s="42"/>
     </row>
     <row r="56" spans="1:2">
       <c r="A56" s="11" t="s">
@@ -6610,10 +6660,10 @@
       </c>
     </row>
     <row r="59" spans="1:2">
-      <c r="A59" s="38" t="s">
+      <c r="A59" s="41" t="s">
         <v>474</v>
       </c>
-      <c r="B59" s="39"/>
+      <c r="B59" s="42"/>
     </row>
     <row r="60" spans="1:2">
       <c r="A60" s="11" t="s">
@@ -6688,10 +6738,10 @@
       </c>
     </row>
     <row r="69" spans="1:2">
-      <c r="A69" s="37" t="s">
+      <c r="A69" s="40" t="s">
         <v>520</v>
       </c>
-      <c r="B69" s="37"/>
+      <c r="B69" s="40"/>
     </row>
     <row r="70" spans="1:2">
       <c r="A70" s="11" t="s">
@@ -6718,10 +6768,10 @@
       </c>
     </row>
     <row r="75" spans="1:2">
-      <c r="A75" s="38" t="s">
+      <c r="A75" s="41" t="s">
         <v>524</v>
       </c>
-      <c r="B75" s="39"/>
+      <c r="B75" s="42"/>
     </row>
     <row r="76" spans="1:2">
       <c r="A76" s="11" t="s">
@@ -6748,10 +6798,10 @@
       </c>
     </row>
     <row r="79" spans="1:2">
-      <c r="A79" s="38" t="s">
+      <c r="A79" s="41" t="s">
         <v>474</v>
       </c>
-      <c r="B79" s="39"/>
+      <c r="B79" s="42"/>
     </row>
     <row r="80" spans="1:2">
       <c r="A80" s="11" t="s">
@@ -6810,10 +6860,10 @@
       </c>
     </row>
     <row r="89" spans="1:2">
-      <c r="A89" s="38" t="s">
+      <c r="A89" s="41" t="s">
         <v>530</v>
       </c>
-      <c r="B89" s="39"/>
+      <c r="B89" s="42"/>
     </row>
     <row r="90" spans="1:2">
       <c r="A90" s="11" t="s">
@@ -6840,10 +6890,10 @@
       </c>
     </row>
     <row r="93" spans="1:2">
-      <c r="A93" s="38" t="s">
+      <c r="A93" s="41" t="s">
         <v>474</v>
       </c>
-      <c r="B93" s="39"/>
+      <c r="B93" s="42"/>
     </row>
     <row r="94" spans="1:2">
       <c r="A94" s="11" t="s">
@@ -6918,10 +6968,10 @@
       </c>
     </row>
     <row r="105" spans="1:2">
-      <c r="A105" s="37" t="s">
+      <c r="A105" s="40" t="s">
         <v>537</v>
       </c>
-      <c r="B105" s="37"/>
+      <c r="B105" s="40"/>
     </row>
     <row r="106" spans="1:2">
       <c r="A106" s="11" t="s">
@@ -6964,10 +7014,10 @@
       </c>
     </row>
     <row r="111" spans="1:2">
-      <c r="A111" s="37" t="s">
+      <c r="A111" s="40" t="s">
         <v>474</v>
       </c>
-      <c r="B111" s="37"/>
+      <c r="B111" s="40"/>
     </row>
     <row r="112" spans="1:2">
       <c r="A112" s="11" t="s">
@@ -7026,10 +7076,10 @@
       </c>
     </row>
     <row r="121" spans="1:2">
-      <c r="A121" s="37" t="s">
+      <c r="A121" s="40" t="s">
         <v>542</v>
       </c>
-      <c r="B121" s="37"/>
+      <c r="B121" s="40"/>
     </row>
     <row r="122" spans="1:2">
       <c r="A122" s="11" t="s">
@@ -7056,10 +7106,10 @@
       </c>
     </row>
     <row r="125" spans="1:2">
-      <c r="A125" s="37" t="s">
+      <c r="A125" s="40" t="s">
         <v>474</v>
       </c>
-      <c r="B125" s="37"/>
+      <c r="B125" s="40"/>
     </row>
     <row r="126" spans="1:2">
       <c r="A126" s="11" t="s">
@@ -7094,10 +7144,10 @@
       </c>
     </row>
     <row r="132" spans="1:2">
-      <c r="A132" s="37" t="s">
+      <c r="A132" s="40" t="s">
         <v>551</v>
       </c>
-      <c r="B132" s="37"/>
+      <c r="B132" s="40"/>
     </row>
     <row r="133" spans="1:2">
       <c r="A133" s="11" t="s">
@@ -7124,10 +7174,10 @@
       </c>
     </row>
     <row r="136" spans="1:2">
-      <c r="A136" s="37" t="s">
+      <c r="A136" s="40" t="s">
         <v>474</v>
       </c>
-      <c r="B136" s="37"/>
+      <c r="B136" s="40"/>
     </row>
     <row r="137" spans="1:2">
       <c r="A137" s="11" t="s">
@@ -7170,10 +7220,10 @@
       </c>
     </row>
     <row r="144" spans="1:2">
-      <c r="A144" s="37" t="s">
+      <c r="A144" s="40" t="s">
         <v>558</v>
       </c>
-      <c r="B144" s="37"/>
+      <c r="B144" s="40"/>
     </row>
     <row r="145" spans="1:2">
       <c r="A145" s="11" t="s">
@@ -7200,10 +7250,10 @@
       </c>
     </row>
     <row r="148" spans="1:2">
-      <c r="A148" s="37" t="s">
+      <c r="A148" s="40" t="s">
         <v>474</v>
       </c>
-      <c r="B148" s="37"/>
+      <c r="B148" s="40"/>
     </row>
     <row r="149" spans="1:2">
       <c r="A149" s="11" t="s">
@@ -7294,10 +7344,10 @@
       </c>
     </row>
     <row r="162" spans="1:2">
-      <c r="A162" s="37" t="s">
+      <c r="A162" s="40" t="s">
         <v>567</v>
       </c>
-      <c r="B162" s="37"/>
+      <c r="B162" s="40"/>
     </row>
     <row r="163" spans="1:2">
       <c r="A163" s="11" t="s">
@@ -7340,10 +7390,10 @@
       </c>
     </row>
     <row r="168" spans="1:2">
-      <c r="A168" s="37" t="s">
+      <c r="A168" s="40" t="s">
         <v>474</v>
       </c>
-      <c r="B168" s="37"/>
+      <c r="B168" s="40"/>
     </row>
     <row r="169" spans="1:2">
       <c r="A169" s="11" t="s">
@@ -7434,10 +7484,10 @@
       </c>
     </row>
     <row r="182" spans="1:2">
-      <c r="A182" s="37" t="s">
+      <c r="A182" s="40" t="s">
         <v>575</v>
       </c>
-      <c r="B182" s="37"/>
+      <c r="B182" s="40"/>
     </row>
     <row r="183" spans="1:2">
       <c r="A183" s="11" t="s">
@@ -7480,10 +7530,10 @@
       </c>
     </row>
     <row r="188" spans="1:2">
-      <c r="A188" s="37" t="s">
+      <c r="A188" s="40" t="s">
         <v>474</v>
       </c>
-      <c r="B188" s="37"/>
+      <c r="B188" s="40"/>
     </row>
     <row r="189" spans="1:2">
       <c r="A189" s="11" t="s">
@@ -7590,10 +7640,10 @@
       </c>
     </row>
     <row r="203" spans="1:2">
-      <c r="A203" s="37" t="s">
+      <c r="A203" s="40" t="s">
         <v>586</v>
       </c>
-      <c r="B203" s="37"/>
+      <c r="B203" s="40"/>
     </row>
     <row r="204" spans="1:2">
       <c r="A204" s="11" t="s">
@@ -7636,10 +7686,10 @@
       </c>
     </row>
     <row r="209" spans="1:2">
-      <c r="A209" s="37" t="s">
+      <c r="A209" s="40" t="s">
         <v>474</v>
       </c>
-      <c r="B209" s="37"/>
+      <c r="B209" s="40"/>
     </row>
     <row r="210" spans="1:2">
       <c r="A210" s="11" t="s">
@@ -7730,10 +7780,10 @@
       </c>
     </row>
     <row r="223" spans="1:2">
-      <c r="A223" s="37" t="s">
+      <c r="A223" s="40" t="s">
         <v>595</v>
       </c>
-      <c r="B223" s="37"/>
+      <c r="B223" s="40"/>
     </row>
     <row r="224" spans="1:2">
       <c r="A224" s="11" t="s">
@@ -7776,10 +7826,10 @@
       </c>
     </row>
     <row r="229" spans="1:2">
-      <c r="A229" s="37" t="s">
+      <c r="A229" s="40" t="s">
         <v>474</v>
       </c>
-      <c r="B229" s="37"/>
+      <c r="B229" s="40"/>
     </row>
     <row r="230" spans="1:2">
       <c r="A230" s="11" t="s">
@@ -7929,4 +7979,83 @@
     </ext>
   </extLst>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:D6"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E20" sqref="E20"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="14" x14ac:dyDescent="0"/>
+  <cols>
+    <col min="1" max="1" width="15.1640625" customWidth="1"/>
+    <col min="2" max="2" width="20.83203125" customWidth="1"/>
+    <col min="3" max="3" width="16.5" customWidth="1"/>
+    <col min="4" max="4" width="13.1640625" customWidth="1"/>
+    <col min="5" max="5" width="18.33203125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:4" ht="15">
+      <c r="A1" s="37" t="s">
+        <v>8</v>
+      </c>
+      <c r="B1" s="38" t="s">
+        <v>620</v>
+      </c>
+      <c r="C1" s="38" t="s">
+        <v>13</v>
+      </c>
+      <c r="D1" s="39" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4">
+      <c r="A2" t="s">
+        <v>621</v>
+      </c>
+      <c r="B2" t="s">
+        <v>622</v>
+      </c>
+      <c r="C2" s="9" t="s">
+        <v>7</v>
+      </c>
+      <c r="D2" s="9" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4">
+      <c r="A3" t="s">
+        <v>623</v>
+      </c>
+      <c r="B3" t="s">
+        <v>624</v>
+      </c>
+      <c r="C3" s="9" t="s">
+        <v>7</v>
+      </c>
+      <c r="D3" s="9" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4">
+      <c r="C6" s="9"/>
+      <c r="D6" s="9"/>
+    </row>
+  </sheetData>
+  <hyperlinks>
+    <hyperlink ref="D2" r:id="rId1"/>
+    <hyperlink ref="C2" r:id="rId2"/>
+    <hyperlink ref="D3" r:id="rId3"/>
+    <hyperlink ref="C3" r:id="rId4"/>
+  </hyperlinks>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <extLst>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
+      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
+    </ext>
+  </extLst>
+</worksheet>
 </file>
--- a/TestData.xlsx
+++ b/TestData.xlsx
@@ -1,10 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="20225"/>
+  <fileVersion appName="xl" lastEdited="4" lowestEdited="5" rupBuild="4506"/>
   <workbookPr autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="25600" windowHeight="14400" tabRatio="990" activeTab="8"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20730" windowHeight="11760" tabRatio="990" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Login_Credentials" sheetId="1" r:id="rId1"/>
@@ -1852,54 +1852,6 @@
     <t>This is text card for four lessons 3rd combi</t>
   </si>
   <si>
-    <t>sheethu123@grovo.com</t>
-  </si>
-  <si>
-    <t>Geethu123@grovo.com</t>
-  </si>
-  <si>
-    <t>datta123@grovo.com</t>
-  </si>
-  <si>
-    <t>Sheethu0</t>
-  </si>
-  <si>
-    <t>Geethu0</t>
-  </si>
-  <si>
-    <t>Datta0</t>
-  </si>
-  <si>
-    <t>Chandran0</t>
-  </si>
-  <si>
-    <t>Nambair0</t>
-  </si>
-  <si>
-    <t>Aidale0</t>
-  </si>
-  <si>
-    <t>Shilpa2</t>
-  </si>
-  <si>
-    <t>suresh2</t>
-  </si>
-  <si>
-    <t>shilpa345@grovo.com</t>
-  </si>
-  <si>
-    <t>EmpS#000</t>
-  </si>
-  <si>
-    <t>EmpS#111</t>
-  </si>
-  <si>
-    <t>EmpS#222</t>
-  </si>
-  <si>
-    <t>EmpS#333</t>
-  </si>
-  <si>
     <t>searchlastName</t>
   </si>
   <si>
@@ -1913,13 +1865,61 @@
   </si>
   <si>
     <t>L28</t>
+  </si>
+  <si>
+    <t>Sheethu1</t>
+  </si>
+  <si>
+    <t>Chandran1</t>
+  </si>
+  <si>
+    <t>EmpS#001</t>
+  </si>
+  <si>
+    <t>sheethu124@grovo.com</t>
+  </si>
+  <si>
+    <t>Shilpa3</t>
+  </si>
+  <si>
+    <t>suresh3</t>
+  </si>
+  <si>
+    <t>EmpS#113</t>
+  </si>
+  <si>
+    <t>shilpa346@grovo.com</t>
+  </si>
+  <si>
+    <t>Geethu1</t>
+  </si>
+  <si>
+    <t>Nambair1</t>
+  </si>
+  <si>
+    <t>EmpS#245</t>
+  </si>
+  <si>
+    <t>Geethu125@grovo.com</t>
+  </si>
+  <si>
+    <t>Datta1</t>
+  </si>
+  <si>
+    <t>Aidale1</t>
+  </si>
+  <si>
+    <t>EmpS#334</t>
+  </si>
+  <si>
+    <t>datta124@grovo.com</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="19" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <fonts count="19">
     <font>
       <sz val="11"/>
       <color rgb="FF000000"/>
@@ -2290,13 +2290,13 @@
     <xf numFmtId="0" fontId="9" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="9" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -2700,24 +2700,24 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:AMK6"/>
   <sheetViews>
     <sheetView zoomScale="77" zoomScaleNormal="77" zoomScalePageLayoutView="77" workbookViewId="0">
       <selection activeCell="C10" sqref="C10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="23" x14ac:dyDescent="0"/>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="23.25"/>
   <cols>
-    <col min="1" max="1" width="32.5" style="33" customWidth="1" collapsed="1"/>
-    <col min="2" max="2" width="42.83203125" style="33" customWidth="1" collapsed="1"/>
+    <col min="1" max="1" width="32.42578125" style="33" customWidth="1" collapsed="1"/>
+    <col min="2" max="2" width="42.85546875" style="33" customWidth="1" collapsed="1"/>
     <col min="3" max="3" width="26" style="33" customWidth="1" collapsed="1"/>
     <col min="4" max="4" width="38" style="33" customWidth="1" collapsed="1"/>
-    <col min="5" max="1025" width="8.83203125" style="33" collapsed="1"/>
-    <col min="1026" max="16384" width="8.83203125" style="33"/>
+    <col min="5" max="1025" width="8.85546875" style="33" collapsed="1"/>
+    <col min="1026" max="16384" width="8.85546875" style="33"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" ht="25">
+    <row r="1" spans="1:4">
       <c r="A1" s="32" t="s">
         <v>0</v>
       </c>
@@ -2731,7 +2731,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:4" ht="25">
+    <row r="2" spans="1:4">
       <c r="A2" s="34" t="s">
         <v>4</v>
       </c>
@@ -2741,13 +2741,13 @@
       <c r="C2" s="34"/>
       <c r="D2" s="34"/>
     </row>
-    <row r="3" spans="1:4" ht="25">
+    <row r="3" spans="1:4">
       <c r="A3" s="34"/>
       <c r="B3" s="34"/>
       <c r="C3" s="34"/>
       <c r="D3" s="34"/>
     </row>
-    <row r="4" spans="1:4" ht="25">
+    <row r="4" spans="1:4">
       <c r="A4" s="34" t="s">
         <v>6</v>
       </c>
@@ -2759,13 +2759,13 @@
       </c>
       <c r="D4" s="34"/>
     </row>
-    <row r="5" spans="1:4" ht="25">
+    <row r="5" spans="1:4">
       <c r="A5" s="34"/>
       <c r="B5" s="36"/>
       <c r="C5" s="34"/>
       <c r="D5" s="34"/>
     </row>
-    <row r="6" spans="1:4" ht="25">
+    <row r="6" spans="1:4">
       <c r="A6" s="34"/>
       <c r="B6" s="36"/>
       <c r="C6" s="34"/>
@@ -2787,26 +2787,26 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:H5"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="E20" sqref="E20"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C11" sqref="C11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="38" defaultRowHeight="18" x14ac:dyDescent="0"/>
+  <sheetFormatPr defaultColWidth="38" defaultRowHeight="18.75"/>
   <cols>
     <col min="1" max="1" width="38" style="3" collapsed="1"/>
-    <col min="2" max="2" width="19.33203125" style="3" customWidth="1" collapsed="1"/>
-    <col min="3" max="3" width="20.6640625" style="3" customWidth="1" collapsed="1"/>
+    <col min="2" max="2" width="19.28515625" style="3" customWidth="1" collapsed="1"/>
+    <col min="3" max="3" width="20.7109375" style="3" customWidth="1" collapsed="1"/>
     <col min="4" max="4" width="21" style="3" customWidth="1" collapsed="1"/>
     <col min="5" max="5" width="19" style="3" customWidth="1" collapsed="1"/>
-    <col min="6" max="6" width="24.33203125" style="3" customWidth="1" collapsed="1"/>
+    <col min="6" max="6" width="24.28515625" style="3" customWidth="1" collapsed="1"/>
     <col min="7" max="8" width="38" style="3" collapsed="1"/>
     <col min="9" max="16384" width="38" style="3"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" ht="19">
+    <row r="1" spans="1:8">
       <c r="A1" s="1" t="s">
         <v>8</v>
       </c>
@@ -2837,16 +2837,16 @@
         <v>16</v>
       </c>
       <c r="B2" s="3" t="s">
-        <v>607</v>
+        <v>609</v>
       </c>
       <c r="C2" s="3" t="s">
         <v>610</v>
       </c>
       <c r="D2" s="9" t="s">
-        <v>604</v>
+        <v>612</v>
       </c>
       <c r="E2" s="3" t="s">
-        <v>616</v>
+        <v>611</v>
       </c>
       <c r="G2" s="4" t="s">
         <v>7</v>
@@ -2866,10 +2866,10 @@
         <v>614</v>
       </c>
       <c r="D3" s="9" t="s">
+        <v>616</v>
+      </c>
+      <c r="E3" s="3" t="s">
         <v>615</v>
-      </c>
-      <c r="E3" s="3" t="s">
-        <v>617</v>
       </c>
       <c r="F3" s="3" t="s">
         <v>18</v>
@@ -2886,16 +2886,16 @@
         <v>19</v>
       </c>
       <c r="B4" s="3" t="s">
-        <v>608</v>
+        <v>617</v>
       </c>
       <c r="C4" s="3" t="s">
-        <v>611</v>
+        <v>618</v>
       </c>
       <c r="D4" s="9" t="s">
-        <v>605</v>
+        <v>620</v>
       </c>
       <c r="E4" s="3" t="s">
-        <v>618</v>
+        <v>619</v>
       </c>
       <c r="F4" s="3" t="s">
         <v>20</v>
@@ -2912,16 +2912,16 @@
         <v>21</v>
       </c>
       <c r="B5" s="3" t="s">
-        <v>609</v>
+        <v>621</v>
       </c>
       <c r="C5" s="3" t="s">
-        <v>612</v>
+        <v>622</v>
       </c>
       <c r="D5" s="9" t="s">
-        <v>606</v>
+        <v>624</v>
       </c>
       <c r="E5" s="3" t="s">
-        <v>619</v>
+        <v>623</v>
       </c>
       <c r="F5" s="3" t="s">
         <v>22</v>
@@ -2958,20 +2958,20 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:D15"/>
   <sheetViews>
     <sheetView topLeftCell="A2" workbookViewId="0">
       <selection activeCell="C2" sqref="C2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="18" x14ac:dyDescent="0"/>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="18.75"/>
   <cols>
-    <col min="1" max="1" width="41.33203125" style="3" customWidth="1"/>
-    <col min="2" max="2" width="22.33203125" style="3" customWidth="1"/>
-    <col min="3" max="3" width="38.83203125" style="3" customWidth="1"/>
-    <col min="4" max="4" width="20.1640625" style="3" customWidth="1"/>
-    <col min="5" max="16384" width="8.83203125" style="3"/>
+    <col min="1" max="1" width="41.28515625" style="3" customWidth="1"/>
+    <col min="2" max="2" width="22.28515625" style="3" customWidth="1"/>
+    <col min="3" max="3" width="38.85546875" style="3" customWidth="1"/>
+    <col min="4" max="4" width="20.140625" style="3" customWidth="1"/>
+    <col min="5" max="16384" width="8.85546875" style="3"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:4">
@@ -3126,17 +3126,17 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:AMK103"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="C27" sqref="C27"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="60" defaultRowHeight="18" x14ac:dyDescent="0"/>
+  <sheetFormatPr defaultColWidth="60" defaultRowHeight="18.75"/>
   <cols>
     <col min="1" max="1" width="41" style="10" customWidth="1" collapsed="1"/>
-    <col min="2" max="2" width="73.5" style="10" customWidth="1" collapsed="1"/>
+    <col min="2" max="2" width="73.42578125" style="10" customWidth="1" collapsed="1"/>
     <col min="3" max="1025" width="60" style="10" collapsed="1"/>
     <col min="1026" max="16384" width="60" style="10"/>
   </cols>
@@ -3167,7 +3167,7 @@
       <c r="A4" s="11"/>
       <c r="B4" s="12"/>
     </row>
-    <row r="6" spans="1:2" ht="14" customHeight="1">
+    <row r="6" spans="1:2" ht="14.1" customHeight="1">
       <c r="A6" s="41" t="s">
         <v>211</v>
       </c>
@@ -3231,7 +3231,7 @@
         <v>221</v>
       </c>
     </row>
-    <row r="16" spans="1:2" ht="25" customHeight="1">
+    <row r="16" spans="1:2" ht="24.95" customHeight="1">
       <c r="A16" s="11" t="s">
         <v>222</v>
       </c>
@@ -3341,25 +3341,25 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:E167"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="D9" sqref="D9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="18" x14ac:dyDescent="0"/>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="18.75"/>
   <cols>
-    <col min="1" max="1" width="22.5" style="10" customWidth="1"/>
-    <col min="2" max="2" width="61.6640625" style="10" customWidth="1"/>
+    <col min="1" max="1" width="22.42578125" style="10" customWidth="1"/>
+    <col min="2" max="2" width="61.7109375" style="10" customWidth="1"/>
     <col min="3" max="3" width="31" style="10" customWidth="1"/>
-    <col min="4" max="4" width="66.83203125" style="10" customWidth="1"/>
-    <col min="5" max="6" width="8.83203125" style="10"/>
-    <col min="7" max="7" width="9.1640625" style="10" customWidth="1"/>
-    <col min="8" max="16384" width="8.83203125" style="10"/>
+    <col min="4" max="4" width="66.85546875" style="10" customWidth="1"/>
+    <col min="5" max="6" width="8.85546875" style="10"/>
+    <col min="7" max="7" width="9.140625" style="10" customWidth="1"/>
+    <col min="8" max="16384" width="8.85546875" style="10"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" ht="14" customHeight="1">
+    <row r="1" spans="1:4" ht="14.1" customHeight="1">
       <c r="A1" s="41" t="s">
         <v>97</v>
       </c>
@@ -3413,7 +3413,7 @@
         <v>108</v>
       </c>
     </row>
-    <row r="6" spans="1:4">
+    <row r="6" spans="1:4" ht="37.5">
       <c r="A6" s="11" t="s">
         <v>109</v>
       </c>
@@ -3425,7 +3425,7 @@
       <c r="A7" s="11"/>
       <c r="B7" s="11"/>
     </row>
-    <row r="10" spans="1:4" ht="14" customHeight="1">
+    <row r="10" spans="1:4" ht="14.1" customHeight="1">
       <c r="A10" s="41" t="s">
         <v>111</v>
       </c>
@@ -3491,7 +3491,7 @@
         <v>119</v>
       </c>
     </row>
-    <row r="15" spans="1:4">
+    <row r="15" spans="1:4" ht="37.5">
       <c r="A15" s="11" t="s">
         <v>109</v>
       </c>
@@ -3503,7 +3503,7 @@
       <c r="A16" s="11"/>
       <c r="B16" s="11"/>
     </row>
-    <row r="18" spans="1:4" ht="14" customHeight="1">
+    <row r="18" spans="1:4" ht="14.1" customHeight="1">
       <c r="A18" s="41" t="s">
         <v>121</v>
       </c>
@@ -3561,7 +3561,7 @@
       <c r="C22" s="13"/>
       <c r="D22" s="14"/>
     </row>
-    <row r="23" spans="1:4">
+    <row r="23" spans="1:4" ht="37.5">
       <c r="A23" s="11" t="s">
         <v>109</v>
       </c>
@@ -3573,7 +3573,7 @@
       <c r="A24" s="11"/>
       <c r="B24" s="11"/>
     </row>
-    <row r="26" spans="1:4" ht="14" customHeight="1">
+    <row r="26" spans="1:4" ht="14.1" customHeight="1">
       <c r="A26" s="41" t="s">
         <v>127</v>
       </c>
@@ -3635,7 +3635,7 @@
       <c r="C30" s="11"/>
       <c r="D30" s="12"/>
     </row>
-    <row r="31" spans="1:4">
+    <row r="31" spans="1:4" ht="37.5">
       <c r="A31" s="11" t="s">
         <v>109</v>
       </c>
@@ -3647,7 +3647,7 @@
       <c r="A32" s="11"/>
       <c r="B32" s="11"/>
     </row>
-    <row r="34" spans="1:4" ht="14" customHeight="1">
+    <row r="34" spans="1:4" ht="14.1" customHeight="1">
       <c r="A34" s="41" t="s">
         <v>134</v>
       </c>
@@ -3709,7 +3709,7 @@
       <c r="C38" s="11"/>
       <c r="D38" s="12"/>
     </row>
-    <row r="39" spans="1:4" ht="36">
+    <row r="39" spans="1:4" ht="37.5">
       <c r="A39" s="11" t="s">
         <v>109</v>
       </c>
@@ -3721,7 +3721,7 @@
       <c r="A40" s="11"/>
       <c r="B40" s="11"/>
     </row>
-    <row r="43" spans="1:4" ht="14" customHeight="1">
+    <row r="43" spans="1:4" ht="14.1" customHeight="1">
       <c r="A43" s="41" t="s">
         <v>141</v>
       </c>
@@ -3759,7 +3759,7 @@
         <v>145</v>
       </c>
     </row>
-    <row r="46" spans="1:4">
+    <row r="46" spans="1:4" ht="37.5">
       <c r="A46" s="11" t="s">
         <v>105</v>
       </c>
@@ -3787,7 +3787,7 @@
         <v>149</v>
       </c>
     </row>
-    <row r="48" spans="1:4" ht="36">
+    <row r="48" spans="1:4" ht="37.5">
       <c r="A48" s="11" t="s">
         <v>109</v>
       </c>
@@ -3811,7 +3811,7 @@
         <v>153</v>
       </c>
     </row>
-    <row r="52" spans="1:5" ht="14" customHeight="1">
+    <row r="52" spans="1:5" ht="14.1" customHeight="1">
       <c r="A52" s="41" t="s">
         <v>154</v>
       </c>
@@ -3822,7 +3822,7 @@
       <c r="D52" s="42"/>
       <c r="E52" s="11"/>
     </row>
-    <row r="53" spans="1:5" ht="54">
+    <row r="53" spans="1:5" ht="93.75">
       <c r="A53" s="11" t="s">
         <v>99</v>
       </c>
@@ -3856,7 +3856,7 @@
         <v>200</v>
       </c>
     </row>
-    <row r="55" spans="1:5">
+    <row r="55" spans="1:5" ht="37.5">
       <c r="A55" s="11" t="s">
         <v>105</v>
       </c>
@@ -3886,7 +3886,7 @@
       </c>
       <c r="E56" s="11"/>
     </row>
-    <row r="57" spans="1:5" ht="36">
+    <row r="57" spans="1:5" ht="37.5">
       <c r="A57" s="11" t="s">
         <v>109</v>
       </c>
@@ -3912,7 +3912,7 @@
       </c>
       <c r="E58" s="11"/>
     </row>
-    <row r="60" spans="1:5" ht="14" customHeight="1">
+    <row r="60" spans="1:5" ht="14.1" customHeight="1">
       <c r="A60" s="41" t="s">
         <v>162</v>
       </c>
@@ -3978,7 +3978,7 @@
         <v>149</v>
       </c>
     </row>
-    <row r="65" spans="1:4" ht="36">
+    <row r="65" spans="1:4" ht="37.5">
       <c r="A65" s="11" t="s">
         <v>109</v>
       </c>
@@ -4012,11 +4012,11 @@
         <v>200</v>
       </c>
     </row>
-    <row r="70" spans="1:4" ht="14" customHeight="1">
-      <c r="A70" s="45" t="s">
+    <row r="70" spans="1:4" ht="14.1" customHeight="1">
+      <c r="A70" s="44" t="s">
         <v>169</v>
       </c>
-      <c r="B70" s="46"/>
+      <c r="B70" s="45"/>
       <c r="C70" s="41" t="s">
         <v>170</v>
       </c>
@@ -4050,7 +4050,7 @@
         <v>174</v>
       </c>
     </row>
-    <row r="73" spans="1:4">
+    <row r="73" spans="1:4" ht="37.5">
       <c r="A73" s="11" t="s">
         <v>105</v>
       </c>
@@ -4062,7 +4062,7 @@
       </c>
       <c r="D73" s="42"/>
     </row>
-    <row r="74" spans="1:4">
+    <row r="74" spans="1:4" ht="37.5">
       <c r="A74" s="11" t="s">
         <v>107</v>
       </c>
@@ -4076,7 +4076,7 @@
         <v>178</v>
       </c>
     </row>
-    <row r="75" spans="1:4" ht="36">
+    <row r="75" spans="1:4" ht="37.5">
       <c r="A75" s="11" t="s">
         <v>109</v>
       </c>
@@ -4102,17 +4102,17 @@
       <c r="C77" s="11"/>
       <c r="D77" s="11"/>
     </row>
-    <row r="79" spans="1:4" ht="14" customHeight="1">
-      <c r="A79" s="45" t="s">
+    <row r="79" spans="1:4" ht="14.1" customHeight="1">
+      <c r="A79" s="44" t="s">
         <v>181</v>
       </c>
-      <c r="B79" s="46"/>
+      <c r="B79" s="45"/>
       <c r="C79" s="41" t="s">
         <v>182</v>
       </c>
       <c r="D79" s="42"/>
     </row>
-    <row r="80" spans="1:4">
+    <row r="80" spans="1:4" ht="37.5">
       <c r="A80" s="11" t="s">
         <v>99</v>
       </c>
@@ -4140,7 +4140,7 @@
         <v>455</v>
       </c>
     </row>
-    <row r="82" spans="1:4">
+    <row r="82" spans="1:4" ht="37.5">
       <c r="A82" s="11" t="s">
         <v>105</v>
       </c>
@@ -4152,7 +4152,7 @@
       </c>
       <c r="D82" s="42"/>
     </row>
-    <row r="83" spans="1:4">
+    <row r="83" spans="1:4" ht="37.5">
       <c r="A83" s="11" t="s">
         <v>107</v>
       </c>
@@ -4166,7 +4166,7 @@
         <v>189</v>
       </c>
     </row>
-    <row r="84" spans="1:4" ht="36">
+    <row r="84" spans="1:4" ht="37.5">
       <c r="A84" s="11" t="s">
         <v>109</v>
       </c>
@@ -4190,7 +4190,7 @@
         <v>200</v>
       </c>
     </row>
-    <row r="88" spans="1:4" ht="14" customHeight="1">
+    <row r="88" spans="1:4" ht="14.1" customHeight="1">
       <c r="A88" s="43" t="s">
         <v>192</v>
       </c>
@@ -4200,7 +4200,7 @@
       </c>
       <c r="D88" s="40"/>
     </row>
-    <row r="89" spans="1:4">
+    <row r="89" spans="1:4" ht="37.5">
       <c r="A89" s="11" t="s">
         <v>99</v>
       </c>
@@ -4228,7 +4228,7 @@
         <v>456</v>
       </c>
     </row>
-    <row r="91" spans="1:4">
+    <row r="91" spans="1:4" ht="37.5">
       <c r="A91" s="11" t="s">
         <v>105</v>
       </c>
@@ -4254,7 +4254,7 @@
       </c>
       <c r="D92" s="40"/>
     </row>
-    <row r="93" spans="1:4" ht="36">
+    <row r="93" spans="1:4" ht="56.25">
       <c r="A93" s="11" t="s">
         <v>109</v>
       </c>
@@ -4296,7 +4296,7 @@
       </c>
       <c r="D96" s="40"/>
     </row>
-    <row r="97" spans="1:4">
+    <row r="97" spans="1:4" ht="37.5">
       <c r="A97" s="11"/>
       <c r="B97" s="11"/>
       <c r="C97" s="11" t="s">
@@ -4336,7 +4336,7 @@
         <v>153</v>
       </c>
     </row>
-    <row r="103" spans="1:4" ht="14" customHeight="1">
+    <row r="103" spans="1:4" ht="14.1" customHeight="1">
       <c r="A103" s="43" t="s">
         <v>204</v>
       </c>
@@ -4346,7 +4346,7 @@
       </c>
       <c r="D103" s="40"/>
     </row>
-    <row r="104" spans="1:4">
+    <row r="104" spans="1:4" ht="37.5">
       <c r="A104" s="11" t="s">
         <v>99</v>
       </c>
@@ -4372,7 +4372,7 @@
       </c>
       <c r="D105" s="42"/>
     </row>
-    <row r="106" spans="1:4" ht="36">
+    <row r="106" spans="1:4" ht="37.5">
       <c r="A106" s="11" t="s">
         <v>105</v>
       </c>
@@ -4386,7 +4386,7 @@
         <v>233</v>
       </c>
     </row>
-    <row r="107" spans="1:4" ht="36">
+    <row r="107" spans="1:4" ht="37.5">
       <c r="A107" s="11" t="s">
         <v>107</v>
       </c>
@@ -4400,7 +4400,7 @@
         <v>235</v>
       </c>
     </row>
-    <row r="108" spans="1:4" ht="36">
+    <row r="108" spans="1:4" ht="37.5">
       <c r="A108" s="11" t="s">
         <v>109</v>
       </c>
@@ -4550,7 +4550,7 @@
         <v>456</v>
       </c>
     </row>
-    <row r="123" spans="1:4">
+    <row r="123" spans="1:4" ht="37.5">
       <c r="A123" s="11" t="s">
         <v>109</v>
       </c>
@@ -4575,7 +4575,7 @@
       </c>
     </row>
     <row r="125" spans="1:4">
-      <c r="A125" s="44" t="s">
+      <c r="A125" s="46" t="s">
         <v>244</v>
       </c>
       <c r="B125" s="42"/>
@@ -4614,7 +4614,7 @@
         <v>153</v>
       </c>
     </row>
-    <row r="128" spans="1:4" ht="36">
+    <row r="128" spans="1:4" ht="37.5">
       <c r="A128" s="11" t="s">
         <v>109</v>
       </c>
@@ -4690,7 +4690,7 @@
         <v>200</v>
       </c>
     </row>
-    <row r="136" spans="1:4">
+    <row r="136" spans="1:4" ht="37.5">
       <c r="A136" s="11" t="s">
         <v>109</v>
       </c>
@@ -4714,7 +4714,7 @@
         <v>149</v>
       </c>
     </row>
-    <row r="138" spans="1:4" ht="36">
+    <row r="138" spans="1:4" ht="56.25">
       <c r="A138" s="15" t="s">
         <v>254</v>
       </c>
@@ -4728,7 +4728,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="139" spans="1:4" ht="54">
+    <row r="139" spans="1:4" ht="56.25">
       <c r="A139" s="15" t="s">
         <v>256</v>
       </c>
@@ -4742,7 +4742,7 @@
         <v>153</v>
       </c>
     </row>
-    <row r="140" spans="1:4" ht="54">
+    <row r="140" spans="1:4" ht="56.25">
       <c r="A140" s="15" t="s">
         <v>258</v>
       </c>
@@ -4752,7 +4752,7 @@
       <c r="C140" s="11"/>
       <c r="D140" s="11"/>
     </row>
-    <row r="141" spans="1:4" ht="54">
+    <row r="141" spans="1:4" ht="56.25">
       <c r="A141" s="15" t="s">
         <v>260</v>
       </c>
@@ -4828,7 +4828,7 @@
         <v>200</v>
       </c>
     </row>
-    <row r="149" spans="1:4" ht="36">
+    <row r="149" spans="1:4" ht="37.5">
       <c r="A149" s="11" t="s">
         <v>109</v>
       </c>
@@ -4852,7 +4852,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="151" spans="1:4" ht="54">
+    <row r="151" spans="1:4" ht="56.25">
       <c r="A151" s="15" t="s">
         <v>265</v>
       </c>
@@ -4866,7 +4866,7 @@
         <v>153</v>
       </c>
     </row>
-    <row r="152" spans="1:4" ht="36">
+    <row r="152" spans="1:4" ht="56.25">
       <c r="A152" s="15" t="s">
         <v>267</v>
       </c>
@@ -4876,7 +4876,7 @@
       <c r="C152" s="11"/>
       <c r="D152" s="11"/>
     </row>
-    <row r="153" spans="1:4" ht="36">
+    <row r="153" spans="1:4" ht="56.25">
       <c r="A153" s="15" t="s">
         <v>269</v>
       </c>
@@ -4886,7 +4886,7 @@
       <c r="C153" s="11"/>
       <c r="D153" s="11"/>
     </row>
-    <row r="154" spans="1:4" ht="36">
+    <row r="154" spans="1:4" ht="56.25">
       <c r="A154" s="15" t="s">
         <v>271</v>
       </c>
@@ -4962,7 +4962,7 @@
         <v>200</v>
       </c>
     </row>
-    <row r="162" spans="1:4" ht="36">
+    <row r="162" spans="1:4" ht="37.5">
       <c r="A162" s="11" t="s">
         <v>109</v>
       </c>
@@ -4986,7 +4986,7 @@
         <v>200</v>
       </c>
     </row>
-    <row r="164" spans="1:4" ht="54">
+    <row r="164" spans="1:4" ht="56.25">
       <c r="A164" s="15" t="s">
         <v>265</v>
       </c>
@@ -5000,7 +5000,7 @@
         <v>149</v>
       </c>
     </row>
-    <row r="165" spans="1:4" ht="36">
+    <row r="165" spans="1:4" ht="56.25">
       <c r="A165" s="15" t="s">
         <v>267</v>
       </c>
@@ -5014,7 +5014,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="166" spans="1:4" ht="36">
+    <row r="166" spans="1:4" ht="56.25">
       <c r="A166" s="15" t="s">
         <v>269</v>
       </c>
@@ -5028,7 +5028,7 @@
         <v>153</v>
       </c>
     </row>
-    <row r="167" spans="1:4" ht="36">
+    <row r="167" spans="1:4" ht="56.25">
       <c r="A167" s="15" t="s">
         <v>271</v>
       </c>
@@ -5038,6 +5038,34 @@
     </row>
   </sheetData>
   <mergeCells count="38">
+    <mergeCell ref="A144:B144"/>
+    <mergeCell ref="C144:D144"/>
+    <mergeCell ref="A157:B157"/>
+    <mergeCell ref="C157:D157"/>
+    <mergeCell ref="C105:D105"/>
+    <mergeCell ref="A118:B118"/>
+    <mergeCell ref="C118:D118"/>
+    <mergeCell ref="A125:B125"/>
+    <mergeCell ref="A131:B131"/>
+    <mergeCell ref="C131:D131"/>
+    <mergeCell ref="A1:B1"/>
+    <mergeCell ref="C1:D1"/>
+    <mergeCell ref="A10:B10"/>
+    <mergeCell ref="C10:D10"/>
+    <mergeCell ref="A18:B18"/>
+    <mergeCell ref="C18:D18"/>
+    <mergeCell ref="A26:B26"/>
+    <mergeCell ref="C26:D26"/>
+    <mergeCell ref="A34:B34"/>
+    <mergeCell ref="C34:D34"/>
+    <mergeCell ref="A43:B43"/>
+    <mergeCell ref="C43:D43"/>
+    <mergeCell ref="A52:B52"/>
+    <mergeCell ref="C52:D52"/>
+    <mergeCell ref="A60:B60"/>
+    <mergeCell ref="C60:D60"/>
+    <mergeCell ref="A70:B70"/>
+    <mergeCell ref="C70:D70"/>
     <mergeCell ref="C92:D92"/>
     <mergeCell ref="C96:D96"/>
     <mergeCell ref="A103:B103"/>
@@ -5048,34 +5076,6 @@
     <mergeCell ref="C82:D82"/>
     <mergeCell ref="A88:B88"/>
     <mergeCell ref="C88:D88"/>
-    <mergeCell ref="A52:B52"/>
-    <mergeCell ref="C52:D52"/>
-    <mergeCell ref="A60:B60"/>
-    <mergeCell ref="C60:D60"/>
-    <mergeCell ref="A70:B70"/>
-    <mergeCell ref="C70:D70"/>
-    <mergeCell ref="A26:B26"/>
-    <mergeCell ref="C26:D26"/>
-    <mergeCell ref="A34:B34"/>
-    <mergeCell ref="C34:D34"/>
-    <mergeCell ref="A43:B43"/>
-    <mergeCell ref="C43:D43"/>
-    <mergeCell ref="A1:B1"/>
-    <mergeCell ref="C1:D1"/>
-    <mergeCell ref="A10:B10"/>
-    <mergeCell ref="C10:D10"/>
-    <mergeCell ref="A18:B18"/>
-    <mergeCell ref="C18:D18"/>
-    <mergeCell ref="A144:B144"/>
-    <mergeCell ref="C144:D144"/>
-    <mergeCell ref="A157:B157"/>
-    <mergeCell ref="C157:D157"/>
-    <mergeCell ref="C105:D105"/>
-    <mergeCell ref="A118:B118"/>
-    <mergeCell ref="C118:D118"/>
-    <mergeCell ref="A125:B125"/>
-    <mergeCell ref="A131:B131"/>
-    <mergeCell ref="C131:D131"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <extLst>
@@ -5087,26 +5087,26 @@
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:J52"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A31" sqref="A31"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="18" x14ac:dyDescent="0"/>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="18.75"/>
   <cols>
-    <col min="1" max="1" width="26.6640625" style="3" customWidth="1"/>
-    <col min="2" max="2" width="39.5" style="3" customWidth="1"/>
-    <col min="3" max="3" width="40.6640625" style="3" customWidth="1"/>
-    <col min="4" max="4" width="33.33203125" style="3" customWidth="1"/>
-    <col min="5" max="5" width="23.5" style="3" customWidth="1"/>
-    <col min="6" max="6" width="52.83203125" style="3" customWidth="1"/>
-    <col min="7" max="7" width="20.33203125" style="3" customWidth="1"/>
-    <col min="8" max="8" width="32.1640625" style="3" customWidth="1"/>
+    <col min="1" max="1" width="26.7109375" style="3" customWidth="1"/>
+    <col min="2" max="2" width="39.42578125" style="3" customWidth="1"/>
+    <col min="3" max="3" width="40.7109375" style="3" customWidth="1"/>
+    <col min="4" max="4" width="33.28515625" style="3" customWidth="1"/>
+    <col min="5" max="5" width="23.42578125" style="3" customWidth="1"/>
+    <col min="6" max="6" width="52.85546875" style="3" customWidth="1"/>
+    <col min="7" max="7" width="20.28515625" style="3" customWidth="1"/>
+    <col min="8" max="8" width="32.140625" style="3" customWidth="1"/>
     <col min="9" max="9" width="42" style="3" customWidth="1"/>
-    <col min="10" max="10" width="40.6640625" style="3" customWidth="1"/>
-    <col min="11" max="16384" width="8.83203125" style="3"/>
+    <col min="10" max="10" width="40.7109375" style="3" customWidth="1"/>
+    <col min="11" max="16384" width="8.85546875" style="3"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:10">
@@ -5280,7 +5280,7 @@
         <v>284</v>
       </c>
     </row>
-    <row r="22" spans="1:7" ht="108">
+    <row r="22" spans="1:7" ht="150">
       <c r="A22" s="10" t="s">
         <v>285</v>
       </c>
@@ -5303,7 +5303,7 @@
         <v>291</v>
       </c>
     </row>
-    <row r="23" spans="1:7" ht="36">
+    <row r="23" spans="1:7" ht="56.25">
       <c r="A23" s="10" t="s">
         <v>292</v>
       </c>
@@ -5317,7 +5317,7 @@
         <v>295</v>
       </c>
     </row>
-    <row r="24" spans="1:7">
+    <row r="24" spans="1:7" ht="37.5">
       <c r="A24" s="10" t="s">
         <v>296</v>
       </c>
@@ -5345,7 +5345,7 @@
         <v>301</v>
       </c>
     </row>
-    <row r="27" spans="1:7" ht="126">
+    <row r="27" spans="1:7" ht="168.75">
       <c r="A27" s="10" t="s">
         <v>302</v>
       </c>
@@ -5356,12 +5356,12 @@
         <v>303</v>
       </c>
     </row>
-    <row r="28" spans="1:7" ht="36">
+    <row r="28" spans="1:7" ht="37.5">
       <c r="A28" s="10" t="s">
         <v>304</v>
       </c>
     </row>
-    <row r="29" spans="1:7" ht="108">
+    <row r="29" spans="1:7" ht="168.75">
       <c r="A29" s="10" t="s">
         <v>305</v>
       </c>
@@ -5381,7 +5381,7 @@
         <v>309</v>
       </c>
     </row>
-    <row r="30" spans="1:7" ht="108">
+    <row r="30" spans="1:7" ht="112.5">
       <c r="A30" s="10" t="s">
         <v>310</v>
       </c>
@@ -5392,7 +5392,7 @@
         <v>312</v>
       </c>
     </row>
-    <row r="31" spans="1:7">
+    <row r="31" spans="1:7" ht="37.5">
       <c r="A31" s="10" t="s">
         <v>454</v>
       </c>
@@ -5402,7 +5402,7 @@
         <v>313</v>
       </c>
     </row>
-    <row r="34" spans="1:9" ht="144">
+    <row r="34" spans="1:9" ht="187.5">
       <c r="A34" s="18">
         <v>12</v>
       </c>
@@ -5439,7 +5439,7 @@
         <v>320</v>
       </c>
     </row>
-    <row r="36" spans="1:9" ht="72">
+    <row r="36" spans="1:9" ht="93.75">
       <c r="A36" s="3" t="s">
         <v>321</v>
       </c>
@@ -5458,7 +5458,7 @@
         <v>325</v>
       </c>
     </row>
-    <row r="38" spans="1:9" ht="54">
+    <row r="38" spans="1:9" ht="56.25">
       <c r="A38" s="10" t="s">
         <v>326</v>
       </c>
@@ -5477,7 +5477,7 @@
         <v>330</v>
       </c>
     </row>
-    <row r="40" spans="1:9" ht="36">
+    <row r="40" spans="1:9" ht="56.25">
       <c r="A40" s="3" t="s">
         <v>331</v>
       </c>
@@ -5491,7 +5491,7 @@
         <v>334</v>
       </c>
     </row>
-    <row r="41" spans="1:9" ht="36">
+    <row r="41" spans="1:9" ht="37.5">
       <c r="A41" s="3" t="s">
         <v>335</v>
       </c>
@@ -5505,7 +5505,7 @@
         <v>334</v>
       </c>
     </row>
-    <row r="42" spans="1:9" ht="90">
+    <row r="42" spans="1:9" ht="112.5">
       <c r="A42" s="10" t="s">
         <v>338</v>
       </c>
@@ -5524,7 +5524,7 @@
         <v>342</v>
       </c>
     </row>
-    <row r="44" spans="1:9" ht="108">
+    <row r="44" spans="1:9" ht="131.25">
       <c r="A44" s="10" t="s">
         <v>343</v>
       </c>
@@ -5546,7 +5546,7 @@
         <v>348</v>
       </c>
     </row>
-    <row r="46" spans="1:9" ht="108">
+    <row r="46" spans="1:9" ht="131.25">
       <c r="A46" s="18">
         <v>11</v>
       </c>
@@ -5575,7 +5575,7 @@
         <v>291</v>
       </c>
     </row>
-    <row r="47" spans="1:9" ht="90">
+    <row r="47" spans="1:9" ht="93.75">
       <c r="A47" s="3" t="s">
         <v>352</v>
       </c>
@@ -5609,7 +5609,7 @@
         <v>360</v>
       </c>
     </row>
-    <row r="49" spans="1:6" ht="90">
+    <row r="49" spans="1:6" ht="112.5">
       <c r="A49" s="3" t="s">
         <v>361</v>
       </c>
@@ -5629,7 +5629,7 @@
         <v>365</v>
       </c>
     </row>
-    <row r="50" spans="1:6" ht="90">
+    <row r="50" spans="1:6" ht="93.75">
       <c r="A50" s="3" t="s">
         <v>366</v>
       </c>
@@ -5651,7 +5651,7 @@
         <v>371</v>
       </c>
     </row>
-    <row r="52" spans="1:6" ht="198">
+    <row r="52" spans="1:6" ht="281.25">
       <c r="A52" s="10" t="s">
         <v>372</v>
       </c>
@@ -5679,21 +5679,21 @@
 </file>
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:E35"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A7" sqref="A7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="18" x14ac:dyDescent="0"/>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="18.75"/>
   <cols>
-    <col min="1" max="1" width="61.5" style="21" customWidth="1" collapsed="1"/>
+    <col min="1" max="1" width="61.42578125" style="21" customWidth="1" collapsed="1"/>
     <col min="2" max="2" width="28" style="21" customWidth="1" collapsed="1"/>
-    <col min="3" max="3" width="43.5" style="21" customWidth="1" collapsed="1"/>
-    <col min="4" max="4" width="46.5" style="21" customWidth="1" collapsed="1"/>
+    <col min="3" max="3" width="43.42578125" style="21" customWidth="1" collapsed="1"/>
+    <col min="4" max="4" width="46.42578125" style="21" customWidth="1" collapsed="1"/>
     <col min="5" max="5" width="36" style="21" customWidth="1"/>
-    <col min="6" max="16384" width="8.83203125" style="21"/>
+    <col min="6" max="16384" width="8.85546875" style="21"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:5">
@@ -5713,7 +5713,7 @@
         <v>380</v>
       </c>
     </row>
-    <row r="2" spans="1:5" ht="36">
+    <row r="2" spans="1:5" ht="37.5">
       <c r="A2" s="22" t="s">
         <v>381</v>
       </c>
@@ -5730,7 +5730,7 @@
         <v>385</v>
       </c>
     </row>
-    <row r="3" spans="1:5" ht="36">
+    <row r="3" spans="1:5" ht="37.5">
       <c r="A3" s="22" t="s">
         <v>386</v>
       </c>
@@ -5745,7 +5745,7 @@
       </c>
       <c r="E3" s="22"/>
     </row>
-    <row r="4" spans="1:5" ht="36">
+    <row r="4" spans="1:5" ht="37.5">
       <c r="A4" s="22" t="s">
         <v>388</v>
       </c>
@@ -5760,7 +5760,7 @@
       </c>
       <c r="E4" s="23"/>
     </row>
-    <row r="5" spans="1:5" ht="36">
+    <row r="5" spans="1:5" ht="37.5">
       <c r="A5" s="22" t="s">
         <v>390</v>
       </c>
@@ -5775,7 +5775,7 @@
       </c>
       <c r="E5" s="23"/>
     </row>
-    <row r="6" spans="1:5" ht="36">
+    <row r="6" spans="1:5" ht="37.5">
       <c r="A6" s="22" t="s">
         <v>392</v>
       </c>
@@ -5790,7 +5790,7 @@
       </c>
       <c r="E6" s="23"/>
     </row>
-    <row r="7" spans="1:5" ht="36">
+    <row r="7" spans="1:5" ht="37.5">
       <c r="A7" s="22" t="s">
         <v>394</v>
       </c>
@@ -5805,7 +5805,7 @@
       </c>
       <c r="E7" s="23"/>
     </row>
-    <row r="8" spans="1:5" ht="36">
+    <row r="8" spans="1:5" ht="37.5">
       <c r="A8" s="22" t="s">
         <v>396</v>
       </c>
@@ -5820,7 +5820,7 @@
       </c>
       <c r="E8" s="23"/>
     </row>
-    <row r="9" spans="1:5" ht="36">
+    <row r="9" spans="1:5" ht="37.5">
       <c r="A9" s="22" t="s">
         <v>398</v>
       </c>
@@ -5835,7 +5835,7 @@
       </c>
       <c r="E9" s="23"/>
     </row>
-    <row r="10" spans="1:5" ht="36">
+    <row r="10" spans="1:5" ht="37.5">
       <c r="A10" s="22" t="s">
         <v>400</v>
       </c>
@@ -5850,7 +5850,7 @@
       </c>
       <c r="E10" s="23"/>
     </row>
-    <row r="11" spans="1:5" ht="36">
+    <row r="11" spans="1:5" ht="37.5">
       <c r="A11" s="22" t="s">
         <v>402</v>
       </c>
@@ -5865,7 +5865,7 @@
       </c>
       <c r="E11" s="23"/>
     </row>
-    <row r="12" spans="1:5" ht="36">
+    <row r="12" spans="1:5" ht="37.5">
       <c r="A12" s="22" t="s">
         <v>404</v>
       </c>
@@ -5880,7 +5880,7 @@
       </c>
       <c r="E12" s="25"/>
     </row>
-    <row r="13" spans="1:5" ht="36">
+    <row r="13" spans="1:5" ht="37.5">
       <c r="A13" s="22" t="s">
         <v>406</v>
       </c>
@@ -5895,7 +5895,7 @@
       </c>
       <c r="E13" s="25"/>
     </row>
-    <row r="14" spans="1:5" ht="36">
+    <row r="14" spans="1:5" ht="37.5">
       <c r="A14" s="22" t="s">
         <v>408</v>
       </c>
@@ -5910,7 +5910,7 @@
       </c>
       <c r="E14" s="25"/>
     </row>
-    <row r="15" spans="1:5" ht="36">
+    <row r="15" spans="1:5" ht="37.5">
       <c r="A15" s="22" t="s">
         <v>410</v>
       </c>
@@ -5925,7 +5925,7 @@
       </c>
       <c r="E15" s="25"/>
     </row>
-    <row r="16" spans="1:5" ht="36">
+    <row r="16" spans="1:5" ht="37.5">
       <c r="A16" s="22" t="s">
         <v>412</v>
       </c>
@@ -5940,7 +5940,7 @@
       </c>
       <c r="E16" s="25"/>
     </row>
-    <row r="17" spans="1:5" ht="36">
+    <row r="17" spans="1:5" ht="37.5">
       <c r="A17" s="22" t="s">
         <v>414</v>
       </c>
@@ -5955,7 +5955,7 @@
       </c>
       <c r="E17" s="25"/>
     </row>
-    <row r="18" spans="1:5" ht="36">
+    <row r="18" spans="1:5" ht="37.5">
       <c r="A18" s="26" t="s">
         <v>416</v>
       </c>
@@ -5970,7 +5970,7 @@
       </c>
       <c r="E18" s="25"/>
     </row>
-    <row r="19" spans="1:5" ht="36">
+    <row r="19" spans="1:5" ht="37.5">
       <c r="A19" s="22" t="s">
         <v>418</v>
       </c>
@@ -5985,7 +5985,7 @@
       </c>
       <c r="E19" s="25"/>
     </row>
-    <row r="20" spans="1:5" ht="36">
+    <row r="20" spans="1:5" ht="37.5">
       <c r="A20" s="22" t="s">
         <v>420</v>
       </c>
@@ -5999,7 +5999,7 @@
         <v>384</v>
       </c>
     </row>
-    <row r="21" spans="1:5" ht="36">
+    <row r="21" spans="1:5" ht="37.5">
       <c r="A21" s="22" t="s">
         <v>422</v>
       </c>
@@ -6013,7 +6013,7 @@
         <v>384</v>
       </c>
     </row>
-    <row r="22" spans="1:5" ht="36">
+    <row r="22" spans="1:5" ht="37.5">
       <c r="A22" s="22" t="s">
         <v>424</v>
       </c>
@@ -6027,7 +6027,7 @@
         <v>384</v>
       </c>
     </row>
-    <row r="23" spans="1:5" ht="36">
+    <row r="23" spans="1:5" ht="37.5">
       <c r="A23" s="22" t="s">
         <v>426</v>
       </c>
@@ -6041,7 +6041,7 @@
         <v>384</v>
       </c>
     </row>
-    <row r="24" spans="1:5" ht="36">
+    <row r="24" spans="1:5" ht="37.5">
       <c r="A24" s="22" t="s">
         <v>428</v>
       </c>
@@ -6055,7 +6055,7 @@
         <v>384</v>
       </c>
     </row>
-    <row r="25" spans="1:5" ht="36">
+    <row r="25" spans="1:5" ht="37.5">
       <c r="A25" s="22" t="s">
         <v>430</v>
       </c>
@@ -6069,7 +6069,7 @@
         <v>384</v>
       </c>
     </row>
-    <row r="26" spans="1:5" ht="36">
+    <row r="26" spans="1:5" ht="37.5">
       <c r="A26" s="22" t="s">
         <v>432</v>
       </c>
@@ -6083,7 +6083,7 @@
         <v>384</v>
       </c>
     </row>
-    <row r="27" spans="1:5" ht="36">
+    <row r="27" spans="1:5" ht="37.5">
       <c r="A27" s="22" t="s">
         <v>434</v>
       </c>
@@ -6097,7 +6097,7 @@
         <v>384</v>
       </c>
     </row>
-    <row r="28" spans="1:5" ht="36">
+    <row r="28" spans="1:5" ht="37.5">
       <c r="A28" s="22" t="s">
         <v>436</v>
       </c>
@@ -6111,7 +6111,7 @@
         <v>384</v>
       </c>
     </row>
-    <row r="29" spans="1:5" ht="36">
+    <row r="29" spans="1:5" ht="37.5">
       <c r="A29" s="22" t="s">
         <v>438</v>
       </c>
@@ -6125,7 +6125,7 @@
         <v>384</v>
       </c>
     </row>
-    <row r="30" spans="1:5" ht="36">
+    <row r="30" spans="1:5" ht="37.5">
       <c r="A30" s="22" t="s">
         <v>440</v>
       </c>
@@ -6139,7 +6139,7 @@
         <v>384</v>
       </c>
     </row>
-    <row r="31" spans="1:5" ht="36">
+    <row r="31" spans="1:5" ht="37.5">
       <c r="A31" s="22" t="s">
         <v>442</v>
       </c>
@@ -6153,7 +6153,7 @@
         <v>384</v>
       </c>
     </row>
-    <row r="32" spans="1:5" ht="36">
+    <row r="32" spans="1:5" ht="37.5">
       <c r="A32" s="22" t="s">
         <v>444</v>
       </c>
@@ -6167,7 +6167,7 @@
         <v>384</v>
       </c>
     </row>
-    <row r="33" spans="1:4" ht="36">
+    <row r="33" spans="1:4" ht="37.5">
       <c r="A33" s="22" t="s">
         <v>446</v>
       </c>
@@ -6181,7 +6181,7 @@
         <v>384</v>
       </c>
     </row>
-    <row r="34" spans="1:4" ht="36">
+    <row r="34" spans="1:4" ht="37.5">
       <c r="A34" s="22" t="s">
         <v>448</v>
       </c>
@@ -6195,7 +6195,7 @@
         <v>384</v>
       </c>
     </row>
-    <row r="35" spans="1:4" ht="36">
+    <row r="35" spans="1:4" ht="37.5">
       <c r="A35" s="22" t="s">
         <v>450</v>
       </c>
@@ -6220,21 +6220,21 @@
 </file>
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:E242"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="E45" sqref="E45"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="18" x14ac:dyDescent="0"/>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="18.75"/>
   <cols>
-    <col min="1" max="1" width="31.5" style="10" customWidth="1"/>
-    <col min="2" max="2" width="74.83203125" style="10" customWidth="1"/>
-    <col min="3" max="3" width="22.33203125" style="10" customWidth="1"/>
+    <col min="1" max="1" width="31.42578125" style="10" customWidth="1"/>
+    <col min="2" max="2" width="74.85546875" style="10" customWidth="1"/>
+    <col min="3" max="3" width="22.28515625" style="10" customWidth="1"/>
     <col min="4" max="4" width="28" style="10" customWidth="1"/>
-    <col min="5" max="5" width="57.5" style="10" customWidth="1"/>
-    <col min="6" max="16384" width="8.83203125" style="10"/>
+    <col min="5" max="5" width="57.42578125" style="10" customWidth="1"/>
+    <col min="6" max="16384" width="8.85546875" style="10"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:5">
@@ -6275,7 +6275,7 @@
         <v>468</v>
       </c>
     </row>
-    <row r="4" spans="1:5">
+    <row r="4" spans="1:5" ht="37.5">
       <c r="A4" s="11" t="s">
         <v>469</v>
       </c>
@@ -6289,7 +6289,7 @@
         <v>471</v>
       </c>
     </row>
-    <row r="5" spans="1:5">
+    <row r="5" spans="1:5" ht="37.5">
       <c r="A5" s="11" t="s">
         <v>472</v>
       </c>
@@ -6651,7 +6651,7 @@
         <v>516</v>
       </c>
     </row>
-    <row r="58" spans="1:2">
+    <row r="58" spans="1:2" ht="37.5">
       <c r="A58" s="11" t="s">
         <v>109</v>
       </c>
@@ -6759,7 +6759,7 @@
         <v>522</v>
       </c>
     </row>
-    <row r="72" spans="1:2">
+    <row r="72" spans="1:2" ht="37.5">
       <c r="A72" s="11" t="s">
         <v>109</v>
       </c>
@@ -6789,7 +6789,7 @@
         <v>526</v>
       </c>
     </row>
-    <row r="78" spans="1:2" ht="36">
+    <row r="78" spans="1:2" ht="37.5">
       <c r="A78" s="11" t="s">
         <v>109</v>
       </c>
@@ -6881,7 +6881,7 @@
         <v>532</v>
       </c>
     </row>
-    <row r="92" spans="1:2">
+    <row r="92" spans="1:2" ht="37.5">
       <c r="A92" s="11" t="s">
         <v>109</v>
       </c>
@@ -7165,7 +7165,7 @@
         <v>553</v>
       </c>
     </row>
-    <row r="135" spans="1:2">
+    <row r="135" spans="1:2" ht="37.5">
       <c r="A135" s="11" t="s">
         <v>109</v>
       </c>
@@ -7241,7 +7241,7 @@
         <v>560</v>
       </c>
     </row>
-    <row r="147" spans="1:2">
+    <row r="147" spans="1:2" ht="37.5">
       <c r="A147" s="11" t="s">
         <v>109</v>
       </c>
@@ -7357,7 +7357,7 @@
         <v>568</v>
       </c>
     </row>
-    <row r="164" spans="1:2">
+    <row r="164" spans="1:2" ht="37.5">
       <c r="A164" s="11" t="s">
         <v>467</v>
       </c>
@@ -7365,7 +7365,7 @@
         <v>569</v>
       </c>
     </row>
-    <row r="165" spans="1:2">
+    <row r="165" spans="1:2" ht="37.5">
       <c r="A165" s="11" t="s">
         <v>109</v>
       </c>
@@ -7497,7 +7497,7 @@
         <v>576</v>
       </c>
     </row>
-    <row r="184" spans="1:2" ht="36">
+    <row r="184" spans="1:2" ht="37.5">
       <c r="A184" s="11" t="s">
         <v>467</v>
       </c>
@@ -7653,7 +7653,7 @@
         <v>587</v>
       </c>
     </row>
-    <row r="205" spans="1:2">
+    <row r="205" spans="1:2" ht="37.5">
       <c r="A205" s="11" t="s">
         <v>467</v>
       </c>
@@ -7793,7 +7793,7 @@
         <v>596</v>
       </c>
     </row>
-    <row r="225" spans="1:2" ht="36">
+    <row r="225" spans="1:2" ht="37.5">
       <c r="A225" s="11" t="s">
         <v>467</v>
       </c>
@@ -7801,7 +7801,7 @@
         <v>597</v>
       </c>
     </row>
-    <row r="226" spans="1:2">
+    <row r="226" spans="1:2" ht="37.5">
       <c r="A226" s="11" t="s">
         <v>109</v>
       </c>
@@ -7937,16 +7937,18 @@
     </row>
   </sheetData>
   <mergeCells count="34">
-    <mergeCell ref="A203:B203"/>
-    <mergeCell ref="A209:B209"/>
-    <mergeCell ref="A223:B223"/>
-    <mergeCell ref="A229:B229"/>
-    <mergeCell ref="A144:B144"/>
-    <mergeCell ref="A148:B148"/>
-    <mergeCell ref="A162:B162"/>
-    <mergeCell ref="A168:B168"/>
-    <mergeCell ref="A182:B182"/>
-    <mergeCell ref="A188:B188"/>
+    <mergeCell ref="A55:B55"/>
+    <mergeCell ref="A1:B1"/>
+    <mergeCell ref="D1:E1"/>
+    <mergeCell ref="D5:E5"/>
+    <mergeCell ref="A16:B16"/>
+    <mergeCell ref="A20:B20"/>
+    <mergeCell ref="A26:B26"/>
+    <mergeCell ref="A30:B30"/>
+    <mergeCell ref="A35:B35"/>
+    <mergeCell ref="A39:B39"/>
+    <mergeCell ref="A44:B44"/>
+    <mergeCell ref="A48:B48"/>
     <mergeCell ref="A136:B136"/>
     <mergeCell ref="A59:B59"/>
     <mergeCell ref="A69:B69"/>
@@ -7959,18 +7961,16 @@
     <mergeCell ref="A121:B121"/>
     <mergeCell ref="A125:B125"/>
     <mergeCell ref="A132:B132"/>
-    <mergeCell ref="A55:B55"/>
-    <mergeCell ref="A1:B1"/>
-    <mergeCell ref="D1:E1"/>
-    <mergeCell ref="D5:E5"/>
-    <mergeCell ref="A16:B16"/>
-    <mergeCell ref="A20:B20"/>
-    <mergeCell ref="A26:B26"/>
-    <mergeCell ref="A30:B30"/>
-    <mergeCell ref="A35:B35"/>
-    <mergeCell ref="A39:B39"/>
-    <mergeCell ref="A44:B44"/>
-    <mergeCell ref="A48:B48"/>
+    <mergeCell ref="A203:B203"/>
+    <mergeCell ref="A209:B209"/>
+    <mergeCell ref="A223:B223"/>
+    <mergeCell ref="A229:B229"/>
+    <mergeCell ref="A144:B144"/>
+    <mergeCell ref="A148:B148"/>
+    <mergeCell ref="A162:B162"/>
+    <mergeCell ref="A168:B168"/>
+    <mergeCell ref="A182:B182"/>
+    <mergeCell ref="A188:B188"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <extLst>
@@ -7982,28 +7982,28 @@
 </file>
 
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:D6"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="E20" sqref="E20"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="14" x14ac:dyDescent="0"/>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="15.1640625" customWidth="1"/>
-    <col min="2" max="2" width="20.83203125" customWidth="1"/>
-    <col min="3" max="3" width="16.5" customWidth="1"/>
-    <col min="4" max="4" width="13.1640625" customWidth="1"/>
-    <col min="5" max="5" width="18.33203125" customWidth="1"/>
+    <col min="1" max="1" width="15.140625" customWidth="1"/>
+    <col min="2" max="2" width="20.85546875" customWidth="1"/>
+    <col min="3" max="3" width="16.42578125" customWidth="1"/>
+    <col min="4" max="4" width="13.140625" customWidth="1"/>
+    <col min="5" max="5" width="18.28515625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" ht="15">
+    <row r="1" spans="1:4">
       <c r="A1" s="37" t="s">
         <v>8</v>
       </c>
       <c r="B1" s="38" t="s">
-        <v>620</v>
+        <v>604</v>
       </c>
       <c r="C1" s="38" t="s">
         <v>13</v>
@@ -8014,10 +8014,10 @@
     </row>
     <row r="2" spans="1:4">
       <c r="A2" t="s">
-        <v>621</v>
+        <v>605</v>
       </c>
       <c r="B2" t="s">
-        <v>622</v>
+        <v>606</v>
       </c>
       <c r="C2" s="9" t="s">
         <v>7</v>
@@ -8028,10 +8028,10 @@
     </row>
     <row r="3" spans="1:4">
       <c r="A3" t="s">
-        <v>623</v>
+        <v>607</v>
       </c>
       <c r="B3" t="s">
-        <v>624</v>
+        <v>608</v>
       </c>
       <c r="C3" s="9" t="s">
         <v>7</v>

--- a/TestData.xlsx
+++ b/TestData.xlsx
@@ -1867,52 +1867,52 @@
     <t>L28</t>
   </si>
   <si>
-    <t>Sheethu1</t>
-  </si>
-  <si>
-    <t>Chandran1</t>
-  </si>
-  <si>
-    <t>EmpS#001</t>
-  </si>
-  <si>
-    <t>sheethu124@grovo.com</t>
-  </si>
-  <si>
-    <t>Shilpa3</t>
-  </si>
-  <si>
-    <t>suresh3</t>
-  </si>
-  <si>
-    <t>EmpS#113</t>
-  </si>
-  <si>
-    <t>shilpa346@grovo.com</t>
-  </si>
-  <si>
-    <t>Geethu1</t>
-  </si>
-  <si>
-    <t>Nambair1</t>
-  </si>
-  <si>
-    <t>EmpS#245</t>
-  </si>
-  <si>
-    <t>Geethu125@grovo.com</t>
-  </si>
-  <si>
-    <t>Datta1</t>
-  </si>
-  <si>
-    <t>Aidale1</t>
-  </si>
-  <si>
-    <t>EmpS#334</t>
-  </si>
-  <si>
-    <t>datta124@grovo.com</t>
+    <t>Sheethu2</t>
+  </si>
+  <si>
+    <t>Chandran2</t>
+  </si>
+  <si>
+    <t>EmpS#002</t>
+  </si>
+  <si>
+    <t>sheethu125@grovo.com</t>
+  </si>
+  <si>
+    <t>Shilpa4</t>
+  </si>
+  <si>
+    <t>suresh4</t>
+  </si>
+  <si>
+    <t>EmpS#114</t>
+  </si>
+  <si>
+    <t>shilpa348@grovo.com</t>
+  </si>
+  <si>
+    <t>Geethu2</t>
+  </si>
+  <si>
+    <t>Nambair2</t>
+  </si>
+  <si>
+    <t>Geethu126@grovo.com</t>
+  </si>
+  <si>
+    <t>EmpS#247</t>
+  </si>
+  <si>
+    <t>Datta2</t>
+  </si>
+  <si>
+    <t>Aidale2</t>
+  </si>
+  <si>
+    <t>EmpS#335</t>
+  </si>
+  <si>
+    <t>datta125@grovo.com</t>
   </si>
 </sst>
 </file>
@@ -2290,13 +2290,13 @@
     <xf numFmtId="0" fontId="9" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="9" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -2791,7 +2791,7 @@
   <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C11" sqref="C11"/>
+      <selection activeCell="A8" sqref="A8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="38" defaultRowHeight="18.75"/>
@@ -2892,10 +2892,10 @@
         <v>618</v>
       </c>
       <c r="D4" s="9" t="s">
+        <v>619</v>
+      </c>
+      <c r="E4" s="3" t="s">
         <v>620</v>
-      </c>
-      <c r="E4" s="3" t="s">
-        <v>619</v>
       </c>
       <c r="F4" s="3" t="s">
         <v>20</v>
@@ -4013,10 +4013,10 @@
       </c>
     </row>
     <row r="70" spans="1:4" ht="14.1" customHeight="1">
-      <c r="A70" s="44" t="s">
+      <c r="A70" s="45" t="s">
         <v>169</v>
       </c>
-      <c r="B70" s="45"/>
+      <c r="B70" s="46"/>
       <c r="C70" s="41" t="s">
         <v>170</v>
       </c>
@@ -4103,10 +4103,10 @@
       <c r="D77" s="11"/>
     </row>
     <row r="79" spans="1:4" ht="14.1" customHeight="1">
-      <c r="A79" s="44" t="s">
+      <c r="A79" s="45" t="s">
         <v>181</v>
       </c>
-      <c r="B79" s="45"/>
+      <c r="B79" s="46"/>
       <c r="C79" s="41" t="s">
         <v>182</v>
       </c>
@@ -4575,7 +4575,7 @@
       </c>
     </row>
     <row r="125" spans="1:4">
-      <c r="A125" s="46" t="s">
+      <c r="A125" s="44" t="s">
         <v>244</v>
       </c>
       <c r="B125" s="42"/>
@@ -5038,6 +5038,34 @@
     </row>
   </sheetData>
   <mergeCells count="38">
+    <mergeCell ref="C92:D92"/>
+    <mergeCell ref="C96:D96"/>
+    <mergeCell ref="A103:B103"/>
+    <mergeCell ref="C103:D103"/>
+    <mergeCell ref="C73:D73"/>
+    <mergeCell ref="A79:B79"/>
+    <mergeCell ref="C79:D79"/>
+    <mergeCell ref="C82:D82"/>
+    <mergeCell ref="A88:B88"/>
+    <mergeCell ref="C88:D88"/>
+    <mergeCell ref="A52:B52"/>
+    <mergeCell ref="C52:D52"/>
+    <mergeCell ref="A60:B60"/>
+    <mergeCell ref="C60:D60"/>
+    <mergeCell ref="A70:B70"/>
+    <mergeCell ref="C70:D70"/>
+    <mergeCell ref="A26:B26"/>
+    <mergeCell ref="C26:D26"/>
+    <mergeCell ref="A34:B34"/>
+    <mergeCell ref="C34:D34"/>
+    <mergeCell ref="A43:B43"/>
+    <mergeCell ref="C43:D43"/>
+    <mergeCell ref="A1:B1"/>
+    <mergeCell ref="C1:D1"/>
+    <mergeCell ref="A10:B10"/>
+    <mergeCell ref="C10:D10"/>
+    <mergeCell ref="A18:B18"/>
+    <mergeCell ref="C18:D18"/>
     <mergeCell ref="A144:B144"/>
     <mergeCell ref="C144:D144"/>
     <mergeCell ref="A157:B157"/>
@@ -5048,34 +5076,6 @@
     <mergeCell ref="A125:B125"/>
     <mergeCell ref="A131:B131"/>
     <mergeCell ref="C131:D131"/>
-    <mergeCell ref="A1:B1"/>
-    <mergeCell ref="C1:D1"/>
-    <mergeCell ref="A10:B10"/>
-    <mergeCell ref="C10:D10"/>
-    <mergeCell ref="A18:B18"/>
-    <mergeCell ref="C18:D18"/>
-    <mergeCell ref="A26:B26"/>
-    <mergeCell ref="C26:D26"/>
-    <mergeCell ref="A34:B34"/>
-    <mergeCell ref="C34:D34"/>
-    <mergeCell ref="A43:B43"/>
-    <mergeCell ref="C43:D43"/>
-    <mergeCell ref="A52:B52"/>
-    <mergeCell ref="C52:D52"/>
-    <mergeCell ref="A60:B60"/>
-    <mergeCell ref="C60:D60"/>
-    <mergeCell ref="A70:B70"/>
-    <mergeCell ref="C70:D70"/>
-    <mergeCell ref="C92:D92"/>
-    <mergeCell ref="C96:D96"/>
-    <mergeCell ref="A103:B103"/>
-    <mergeCell ref="C103:D103"/>
-    <mergeCell ref="C73:D73"/>
-    <mergeCell ref="A79:B79"/>
-    <mergeCell ref="C79:D79"/>
-    <mergeCell ref="C82:D82"/>
-    <mergeCell ref="A88:B88"/>
-    <mergeCell ref="C88:D88"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <extLst>
@@ -7937,6 +7937,28 @@
     </row>
   </sheetData>
   <mergeCells count="34">
+    <mergeCell ref="A203:B203"/>
+    <mergeCell ref="A209:B209"/>
+    <mergeCell ref="A223:B223"/>
+    <mergeCell ref="A229:B229"/>
+    <mergeCell ref="A144:B144"/>
+    <mergeCell ref="A148:B148"/>
+    <mergeCell ref="A162:B162"/>
+    <mergeCell ref="A168:B168"/>
+    <mergeCell ref="A182:B182"/>
+    <mergeCell ref="A188:B188"/>
+    <mergeCell ref="A136:B136"/>
+    <mergeCell ref="A59:B59"/>
+    <mergeCell ref="A69:B69"/>
+    <mergeCell ref="A75:B75"/>
+    <mergeCell ref="A79:B79"/>
+    <mergeCell ref="A89:B89"/>
+    <mergeCell ref="A93:B93"/>
+    <mergeCell ref="A105:B105"/>
+    <mergeCell ref="A111:B111"/>
+    <mergeCell ref="A121:B121"/>
+    <mergeCell ref="A125:B125"/>
+    <mergeCell ref="A132:B132"/>
     <mergeCell ref="A55:B55"/>
     <mergeCell ref="A1:B1"/>
     <mergeCell ref="D1:E1"/>
@@ -7949,28 +7971,6 @@
     <mergeCell ref="A39:B39"/>
     <mergeCell ref="A44:B44"/>
     <mergeCell ref="A48:B48"/>
-    <mergeCell ref="A136:B136"/>
-    <mergeCell ref="A59:B59"/>
-    <mergeCell ref="A69:B69"/>
-    <mergeCell ref="A75:B75"/>
-    <mergeCell ref="A79:B79"/>
-    <mergeCell ref="A89:B89"/>
-    <mergeCell ref="A93:B93"/>
-    <mergeCell ref="A105:B105"/>
-    <mergeCell ref="A111:B111"/>
-    <mergeCell ref="A121:B121"/>
-    <mergeCell ref="A125:B125"/>
-    <mergeCell ref="A132:B132"/>
-    <mergeCell ref="A203:B203"/>
-    <mergeCell ref="A209:B209"/>
-    <mergeCell ref="A223:B223"/>
-    <mergeCell ref="A229:B229"/>
-    <mergeCell ref="A144:B144"/>
-    <mergeCell ref="A148:B148"/>
-    <mergeCell ref="A162:B162"/>
-    <mergeCell ref="A168:B168"/>
-    <mergeCell ref="A182:B182"/>
-    <mergeCell ref="A188:B188"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <extLst>

--- a/TestData.xlsx
+++ b/TestData.xlsx
@@ -1867,52 +1867,52 @@
     <t>L28</t>
   </si>
   <si>
-    <t>Sheethu2</t>
-  </si>
-  <si>
-    <t>Chandran2</t>
-  </si>
-  <si>
-    <t>EmpS#002</t>
-  </si>
-  <si>
-    <t>sheethu125@grovo.com</t>
-  </si>
-  <si>
-    <t>Shilpa4</t>
-  </si>
-  <si>
-    <t>suresh4</t>
-  </si>
-  <si>
-    <t>EmpS#114</t>
-  </si>
-  <si>
-    <t>shilpa348@grovo.com</t>
-  </si>
-  <si>
-    <t>Geethu2</t>
-  </si>
-  <si>
-    <t>Nambair2</t>
-  </si>
-  <si>
-    <t>Geethu126@grovo.com</t>
-  </si>
-  <si>
-    <t>EmpS#247</t>
-  </si>
-  <si>
-    <t>Datta2</t>
-  </si>
-  <si>
-    <t>Aidale2</t>
-  </si>
-  <si>
-    <t>EmpS#335</t>
-  </si>
-  <si>
-    <t>datta125@grovo.com</t>
+    <t>Sheethu3</t>
+  </si>
+  <si>
+    <t>Chandran3</t>
+  </si>
+  <si>
+    <t>sheethu126@grovo.com</t>
+  </si>
+  <si>
+    <t>EmpS#003</t>
+  </si>
+  <si>
+    <t>EmpS#115</t>
+  </si>
+  <si>
+    <t>shilpa349@grovo.com</t>
+  </si>
+  <si>
+    <t>suresh5</t>
+  </si>
+  <si>
+    <t>Shilpa5</t>
+  </si>
+  <si>
+    <t>Geethu3</t>
+  </si>
+  <si>
+    <t>Nambair3</t>
+  </si>
+  <si>
+    <t>EmpS#248</t>
+  </si>
+  <si>
+    <t>Geethu127@grovo.com</t>
+  </si>
+  <si>
+    <t>Datta3</t>
+  </si>
+  <si>
+    <t>Aidale3</t>
+  </si>
+  <si>
+    <t>EmpS#336</t>
+  </si>
+  <si>
+    <t>datta126@grovo.com</t>
   </si>
 </sst>
 </file>
@@ -2290,13 +2290,13 @@
     <xf numFmtId="0" fontId="9" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="9" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -2791,7 +2791,7 @@
   <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A8" sqref="A8"/>
+      <selection activeCell="C9" sqref="C9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="38" defaultRowHeight="18.75"/>
@@ -2843,10 +2843,10 @@
         <v>610</v>
       </c>
       <c r="D2" s="9" t="s">
+        <v>611</v>
+      </c>
+      <c r="E2" s="3" t="s">
         <v>612</v>
-      </c>
-      <c r="E2" s="3" t="s">
-        <v>611</v>
       </c>
       <c r="G2" s="4" t="s">
         <v>7</v>
@@ -2860,16 +2860,16 @@
         <v>17</v>
       </c>
       <c r="B3" s="3" t="s">
+        <v>616</v>
+      </c>
+      <c r="C3" s="3" t="s">
+        <v>615</v>
+      </c>
+      <c r="D3" s="9" t="s">
+        <v>614</v>
+      </c>
+      <c r="E3" s="3" t="s">
         <v>613</v>
-      </c>
-      <c r="C3" s="3" t="s">
-        <v>614</v>
-      </c>
-      <c r="D3" s="9" t="s">
-        <v>616</v>
-      </c>
-      <c r="E3" s="3" t="s">
-        <v>615</v>
       </c>
       <c r="F3" s="3" t="s">
         <v>18</v>
@@ -2892,10 +2892,10 @@
         <v>618</v>
       </c>
       <c r="D4" s="9" t="s">
+        <v>620</v>
+      </c>
+      <c r="E4" s="3" t="s">
         <v>619</v>
-      </c>
-      <c r="E4" s="3" t="s">
-        <v>620</v>
       </c>
       <c r="F4" s="3" t="s">
         <v>20</v>
@@ -4013,10 +4013,10 @@
       </c>
     </row>
     <row r="70" spans="1:4" ht="14.1" customHeight="1">
-      <c r="A70" s="45" t="s">
+      <c r="A70" s="44" t="s">
         <v>169</v>
       </c>
-      <c r="B70" s="46"/>
+      <c r="B70" s="45"/>
       <c r="C70" s="41" t="s">
         <v>170</v>
       </c>
@@ -4103,10 +4103,10 @@
       <c r="D77" s="11"/>
     </row>
     <row r="79" spans="1:4" ht="14.1" customHeight="1">
-      <c r="A79" s="45" t="s">
+      <c r="A79" s="44" t="s">
         <v>181</v>
       </c>
-      <c r="B79" s="46"/>
+      <c r="B79" s="45"/>
       <c r="C79" s="41" t="s">
         <v>182</v>
       </c>
@@ -4575,7 +4575,7 @@
       </c>
     </row>
     <row r="125" spans="1:4">
-      <c r="A125" s="44" t="s">
+      <c r="A125" s="46" t="s">
         <v>244</v>
       </c>
       <c r="B125" s="42"/>
@@ -5038,6 +5038,34 @@
     </row>
   </sheetData>
   <mergeCells count="38">
+    <mergeCell ref="A144:B144"/>
+    <mergeCell ref="C144:D144"/>
+    <mergeCell ref="A157:B157"/>
+    <mergeCell ref="C157:D157"/>
+    <mergeCell ref="C105:D105"/>
+    <mergeCell ref="A118:B118"/>
+    <mergeCell ref="C118:D118"/>
+    <mergeCell ref="A125:B125"/>
+    <mergeCell ref="A131:B131"/>
+    <mergeCell ref="C131:D131"/>
+    <mergeCell ref="A1:B1"/>
+    <mergeCell ref="C1:D1"/>
+    <mergeCell ref="A10:B10"/>
+    <mergeCell ref="C10:D10"/>
+    <mergeCell ref="A18:B18"/>
+    <mergeCell ref="C18:D18"/>
+    <mergeCell ref="A26:B26"/>
+    <mergeCell ref="C26:D26"/>
+    <mergeCell ref="A34:B34"/>
+    <mergeCell ref="C34:D34"/>
+    <mergeCell ref="A43:B43"/>
+    <mergeCell ref="C43:D43"/>
+    <mergeCell ref="A52:B52"/>
+    <mergeCell ref="C52:D52"/>
+    <mergeCell ref="A60:B60"/>
+    <mergeCell ref="C60:D60"/>
+    <mergeCell ref="A70:B70"/>
+    <mergeCell ref="C70:D70"/>
     <mergeCell ref="C92:D92"/>
     <mergeCell ref="C96:D96"/>
     <mergeCell ref="A103:B103"/>
@@ -5048,34 +5076,6 @@
     <mergeCell ref="C82:D82"/>
     <mergeCell ref="A88:B88"/>
     <mergeCell ref="C88:D88"/>
-    <mergeCell ref="A52:B52"/>
-    <mergeCell ref="C52:D52"/>
-    <mergeCell ref="A60:B60"/>
-    <mergeCell ref="C60:D60"/>
-    <mergeCell ref="A70:B70"/>
-    <mergeCell ref="C70:D70"/>
-    <mergeCell ref="A26:B26"/>
-    <mergeCell ref="C26:D26"/>
-    <mergeCell ref="A34:B34"/>
-    <mergeCell ref="C34:D34"/>
-    <mergeCell ref="A43:B43"/>
-    <mergeCell ref="C43:D43"/>
-    <mergeCell ref="A1:B1"/>
-    <mergeCell ref="C1:D1"/>
-    <mergeCell ref="A10:B10"/>
-    <mergeCell ref="C10:D10"/>
-    <mergeCell ref="A18:B18"/>
-    <mergeCell ref="C18:D18"/>
-    <mergeCell ref="A144:B144"/>
-    <mergeCell ref="C144:D144"/>
-    <mergeCell ref="A157:B157"/>
-    <mergeCell ref="C157:D157"/>
-    <mergeCell ref="C105:D105"/>
-    <mergeCell ref="A118:B118"/>
-    <mergeCell ref="C118:D118"/>
-    <mergeCell ref="A125:B125"/>
-    <mergeCell ref="A131:B131"/>
-    <mergeCell ref="C131:D131"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <extLst>
@@ -7937,16 +7937,18 @@
     </row>
   </sheetData>
   <mergeCells count="34">
-    <mergeCell ref="A203:B203"/>
-    <mergeCell ref="A209:B209"/>
-    <mergeCell ref="A223:B223"/>
-    <mergeCell ref="A229:B229"/>
-    <mergeCell ref="A144:B144"/>
-    <mergeCell ref="A148:B148"/>
-    <mergeCell ref="A162:B162"/>
-    <mergeCell ref="A168:B168"/>
-    <mergeCell ref="A182:B182"/>
-    <mergeCell ref="A188:B188"/>
+    <mergeCell ref="A55:B55"/>
+    <mergeCell ref="A1:B1"/>
+    <mergeCell ref="D1:E1"/>
+    <mergeCell ref="D5:E5"/>
+    <mergeCell ref="A16:B16"/>
+    <mergeCell ref="A20:B20"/>
+    <mergeCell ref="A26:B26"/>
+    <mergeCell ref="A30:B30"/>
+    <mergeCell ref="A35:B35"/>
+    <mergeCell ref="A39:B39"/>
+    <mergeCell ref="A44:B44"/>
+    <mergeCell ref="A48:B48"/>
     <mergeCell ref="A136:B136"/>
     <mergeCell ref="A59:B59"/>
     <mergeCell ref="A69:B69"/>
@@ -7959,18 +7961,16 @@
     <mergeCell ref="A121:B121"/>
     <mergeCell ref="A125:B125"/>
     <mergeCell ref="A132:B132"/>
-    <mergeCell ref="A55:B55"/>
-    <mergeCell ref="A1:B1"/>
-    <mergeCell ref="D1:E1"/>
-    <mergeCell ref="D5:E5"/>
-    <mergeCell ref="A16:B16"/>
-    <mergeCell ref="A20:B20"/>
-    <mergeCell ref="A26:B26"/>
-    <mergeCell ref="A30:B30"/>
-    <mergeCell ref="A35:B35"/>
-    <mergeCell ref="A39:B39"/>
-    <mergeCell ref="A44:B44"/>
-    <mergeCell ref="A48:B48"/>
+    <mergeCell ref="A203:B203"/>
+    <mergeCell ref="A209:B209"/>
+    <mergeCell ref="A223:B223"/>
+    <mergeCell ref="A229:B229"/>
+    <mergeCell ref="A144:B144"/>
+    <mergeCell ref="A148:B148"/>
+    <mergeCell ref="A162:B162"/>
+    <mergeCell ref="A168:B168"/>
+    <mergeCell ref="A182:B182"/>
+    <mergeCell ref="A188:B188"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <extLst>

--- a/TestData.xlsx
+++ b/TestData.xlsx
@@ -1,10 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="5" rupBuild="4506"/>
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="20225"/>
   <workbookPr autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20730" windowHeight="11760" tabRatio="990" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20740" windowHeight="11760" tabRatio="990" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Login_Credentials" sheetId="1" r:id="rId1"/>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1208" uniqueCount="625">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1208" uniqueCount="626">
   <si>
     <t>TEST CASE NAME</t>
   </si>
@@ -1867,59 +1867,62 @@
     <t>L28</t>
   </si>
   <si>
-    <t>Sheethu3</t>
-  </si>
-  <si>
-    <t>Chandran3</t>
-  </si>
-  <si>
-    <t>sheethu126@grovo.com</t>
-  </si>
-  <si>
-    <t>EmpS#003</t>
-  </si>
-  <si>
-    <t>EmpS#115</t>
-  </si>
-  <si>
-    <t>shilpa349@grovo.com</t>
-  </si>
-  <si>
-    <t>suresh5</t>
-  </si>
-  <si>
-    <t>Shilpa5</t>
-  </si>
-  <si>
-    <t>Geethu3</t>
-  </si>
-  <si>
-    <t>Nambair3</t>
-  </si>
-  <si>
-    <t>EmpS#248</t>
-  </si>
-  <si>
-    <t>Geethu127@grovo.com</t>
-  </si>
-  <si>
-    <t>Datta3</t>
-  </si>
-  <si>
-    <t>Aidale3</t>
-  </si>
-  <si>
-    <t>EmpS#336</t>
-  </si>
-  <si>
-    <t>datta126@grovo.com</t>
+    <t>TC Names</t>
+  </si>
+  <si>
+    <t>Alex</t>
+  </si>
+  <si>
+    <t>Mathee</t>
+  </si>
+  <si>
+    <t>James</t>
+  </si>
+  <si>
+    <t>katt</t>
+  </si>
+  <si>
+    <t>Bore</t>
+  </si>
+  <si>
+    <t>Mathai</t>
+  </si>
+  <si>
+    <t>Leon</t>
+  </si>
+  <si>
+    <t>Agee</t>
+  </si>
+  <si>
+    <t>Jame0@grovo.com</t>
+  </si>
+  <si>
+    <t>Alex0@grovo.com</t>
+  </si>
+  <si>
+    <t>Bore0@grovo.com</t>
+  </si>
+  <si>
+    <t>Leon0@grovo.com</t>
+  </si>
+  <si>
+    <t>Empl#0</t>
+  </si>
+  <si>
+    <t>Empc#0</t>
+  </si>
+  <si>
+    <t>Empma#0</t>
+  </si>
+  <si>
+    <t>Empla#0</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="19">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <fonts count="20" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color rgb="FF000000"/>
@@ -2044,6 +2047,10 @@
       <name val="Bitstream Charter"/>
       <family val="1"/>
       <charset val="1"/>
+    </font>
+    <font>
+      <sz val="14"/>
+      <name val="Calibri"/>
     </font>
   </fonts>
   <fills count="8">
@@ -2207,7 +2214,7 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="47">
+  <cellXfs count="48">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
@@ -2290,15 +2297,16 @@
     <xf numFmtId="0" fontId="9" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="9" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="4">
     <cellStyle name="Followed Hyperlink" xfId="3" builtinId="9" hidden="1"/>
@@ -2700,24 +2708,24 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AMK6"/>
   <sheetViews>
     <sheetView zoomScale="77" zoomScaleNormal="77" zoomScalePageLayoutView="77" workbookViewId="0">
       <selection activeCell="C10" sqref="C10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="23.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="23" x14ac:dyDescent="0"/>
   <cols>
-    <col min="1" max="1" width="32.42578125" style="33" customWidth="1" collapsed="1"/>
-    <col min="2" max="2" width="42.85546875" style="33" customWidth="1" collapsed="1"/>
+    <col min="1" max="1" width="32.5" style="33" customWidth="1" collapsed="1"/>
+    <col min="2" max="2" width="42.83203125" style="33" customWidth="1" collapsed="1"/>
     <col min="3" max="3" width="26" style="33" customWidth="1" collapsed="1"/>
     <col min="4" max="4" width="38" style="33" customWidth="1" collapsed="1"/>
-    <col min="5" max="1025" width="8.85546875" style="33" collapsed="1"/>
-    <col min="1026" max="16384" width="8.85546875" style="33"/>
+    <col min="5" max="1025" width="8.83203125" style="33" collapsed="1"/>
+    <col min="1026" max="16384" width="8.83203125" style="33"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4">
+    <row r="1" spans="1:4" ht="25">
       <c r="A1" s="32" t="s">
         <v>0</v>
       </c>
@@ -2731,7 +2739,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:4">
+    <row r="2" spans="1:4" ht="25">
       <c r="A2" s="34" t="s">
         <v>4</v>
       </c>
@@ -2741,13 +2749,13 @@
       <c r="C2" s="34"/>
       <c r="D2" s="34"/>
     </row>
-    <row r="3" spans="1:4">
+    <row r="3" spans="1:4" ht="25">
       <c r="A3" s="34"/>
       <c r="B3" s="34"/>
       <c r="C3" s="34"/>
       <c r="D3" s="34"/>
     </row>
-    <row r="4" spans="1:4">
+    <row r="4" spans="1:4" ht="25">
       <c r="A4" s="34" t="s">
         <v>6</v>
       </c>
@@ -2759,13 +2767,13 @@
       </c>
       <c r="D4" s="34"/>
     </row>
-    <row r="5" spans="1:4">
+    <row r="5" spans="1:4" ht="25">
       <c r="A5" s="34"/>
       <c r="B5" s="36"/>
       <c r="C5" s="34"/>
       <c r="D5" s="34"/>
     </row>
-    <row r="6" spans="1:4">
+    <row r="6" spans="1:4" ht="25">
       <c r="A6" s="34"/>
       <c r="B6" s="36"/>
       <c r="C6" s="34"/>
@@ -2787,28 +2795,30 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C9" sqref="C9"/>
+      <selection activeCell="D16" sqref="D16"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="38" defaultRowHeight="18.75"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="38" defaultRowHeight="18" x14ac:dyDescent="0"/>
   <cols>
-    <col min="1" max="1" width="38" style="3" collapsed="1"/>
-    <col min="2" max="2" width="19.28515625" style="3" customWidth="1" collapsed="1"/>
-    <col min="3" max="3" width="20.7109375" style="3" customWidth="1" collapsed="1"/>
-    <col min="4" max="4" width="21" style="3" customWidth="1" collapsed="1"/>
-    <col min="5" max="5" width="19" style="3" customWidth="1" collapsed="1"/>
-    <col min="6" max="6" width="24.28515625" style="3" customWidth="1" collapsed="1"/>
-    <col min="7" max="8" width="38" style="3" collapsed="1"/>
-    <col min="9" max="16384" width="38" style="3"/>
+    <col min="1" max="1" width="33.1640625" style="3" customWidth="1" collapsed="1"/>
+    <col min="2" max="2" width="22.1640625" style="3" customWidth="1" collapsed="1"/>
+    <col min="3" max="3" width="18.5" style="3" customWidth="1" collapsed="1"/>
+    <col min="4" max="4" width="34.83203125" style="3" customWidth="1" collapsed="1"/>
+    <col min="5" max="5" width="19.6640625" style="3" customWidth="1" collapsed="1"/>
+    <col min="6" max="6" width="22.6640625" style="3" customWidth="1" collapsed="1"/>
+    <col min="7" max="7" width="23.83203125" style="3" customWidth="1" collapsed="1"/>
+    <col min="8" max="8" width="38" style="3" customWidth="1" collapsed="1"/>
+    <col min="9" max="19" width="38" style="3" customWidth="1"/>
+    <col min="20" max="16384" width="38" style="3"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8">
+    <row r="1" spans="1:8" ht="19" customHeight="1">
       <c r="A1" s="1" t="s">
-        <v>8</v>
+        <v>609</v>
       </c>
       <c r="B1" s="1" t="s">
         <v>9</v>
@@ -2837,16 +2847,16 @@
         <v>16</v>
       </c>
       <c r="B2" s="3" t="s">
-        <v>609</v>
+        <v>610</v>
       </c>
       <c r="C2" s="3" t="s">
-        <v>610</v>
+        <v>611</v>
       </c>
       <c r="D2" s="9" t="s">
-        <v>611</v>
+        <v>619</v>
       </c>
       <c r="E2" s="3" t="s">
-        <v>612</v>
+        <v>622</v>
       </c>
       <c r="G2" s="4" t="s">
         <v>7</v>
@@ -2860,16 +2870,16 @@
         <v>17</v>
       </c>
       <c r="B3" s="3" t="s">
-        <v>616</v>
+        <v>612</v>
       </c>
       <c r="C3" s="3" t="s">
-        <v>615</v>
+        <v>613</v>
       </c>
       <c r="D3" s="9" t="s">
-        <v>614</v>
-      </c>
-      <c r="E3" s="3" t="s">
-        <v>613</v>
+        <v>618</v>
+      </c>
+      <c r="E3" s="47" t="s">
+        <v>623</v>
       </c>
       <c r="F3" s="3" t="s">
         <v>18</v>
@@ -2886,16 +2896,16 @@
         <v>19</v>
       </c>
       <c r="B4" s="3" t="s">
-        <v>617</v>
+        <v>614</v>
       </c>
       <c r="C4" s="3" t="s">
-        <v>618</v>
+        <v>615</v>
       </c>
       <c r="D4" s="9" t="s">
         <v>620</v>
       </c>
       <c r="E4" s="3" t="s">
-        <v>619</v>
+        <v>624</v>
       </c>
       <c r="F4" s="3" t="s">
         <v>20</v>
@@ -2912,16 +2922,16 @@
         <v>21</v>
       </c>
       <c r="B5" s="3" t="s">
+        <v>616</v>
+      </c>
+      <c r="C5" s="3" t="s">
+        <v>617</v>
+      </c>
+      <c r="D5" s="9" t="s">
         <v>621</v>
       </c>
-      <c r="C5" s="3" t="s">
-        <v>622</v>
-      </c>
-      <c r="D5" s="9" t="s">
-        <v>624</v>
-      </c>
       <c r="E5" s="3" t="s">
-        <v>623</v>
+        <v>625</v>
       </c>
       <c r="F5" s="3" t="s">
         <v>22</v>
@@ -2958,20 +2968,20 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D15"/>
   <sheetViews>
     <sheetView topLeftCell="A2" workbookViewId="0">
       <selection activeCell="C2" sqref="C2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="18.75"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="18" x14ac:dyDescent="0"/>
   <cols>
-    <col min="1" max="1" width="41.28515625" style="3" customWidth="1"/>
-    <col min="2" max="2" width="22.28515625" style="3" customWidth="1"/>
-    <col min="3" max="3" width="38.85546875" style="3" customWidth="1"/>
-    <col min="4" max="4" width="20.140625" style="3" customWidth="1"/>
-    <col min="5" max="16384" width="8.85546875" style="3"/>
+    <col min="1" max="1" width="41.33203125" style="3" customWidth="1"/>
+    <col min="2" max="2" width="22.33203125" style="3" customWidth="1"/>
+    <col min="3" max="3" width="38.83203125" style="3" customWidth="1"/>
+    <col min="4" max="4" width="20.1640625" style="3" customWidth="1"/>
+    <col min="5" max="16384" width="8.83203125" style="3"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:4">
@@ -3126,17 +3136,17 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AMK103"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="C27" sqref="C27"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="60" defaultRowHeight="18.75"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="60" defaultRowHeight="18" x14ac:dyDescent="0"/>
   <cols>
     <col min="1" max="1" width="41" style="10" customWidth="1" collapsed="1"/>
-    <col min="2" max="2" width="73.42578125" style="10" customWidth="1" collapsed="1"/>
+    <col min="2" max="2" width="73.5" style="10" customWidth="1" collapsed="1"/>
     <col min="3" max="1025" width="60" style="10" collapsed="1"/>
     <col min="1026" max="16384" width="60" style="10"/>
   </cols>
@@ -3167,7 +3177,7 @@
       <c r="A4" s="11"/>
       <c r="B4" s="12"/>
     </row>
-    <row r="6" spans="1:2" ht="14.1" customHeight="1">
+    <row r="6" spans="1:2" ht="14" customHeight="1">
       <c r="A6" s="41" t="s">
         <v>211</v>
       </c>
@@ -3231,7 +3241,7 @@
         <v>221</v>
       </c>
     </row>
-    <row r="16" spans="1:2" ht="24.95" customHeight="1">
+    <row r="16" spans="1:2" ht="25" customHeight="1">
       <c r="A16" s="11" t="s">
         <v>222</v>
       </c>
@@ -3341,25 +3351,25 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E167"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="D9" sqref="D9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="18.75"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="18" x14ac:dyDescent="0"/>
   <cols>
-    <col min="1" max="1" width="22.42578125" style="10" customWidth="1"/>
-    <col min="2" max="2" width="61.7109375" style="10" customWidth="1"/>
+    <col min="1" max="1" width="22.5" style="10" customWidth="1"/>
+    <col min="2" max="2" width="61.6640625" style="10" customWidth="1"/>
     <col min="3" max="3" width="31" style="10" customWidth="1"/>
-    <col min="4" max="4" width="66.85546875" style="10" customWidth="1"/>
-    <col min="5" max="6" width="8.85546875" style="10"/>
-    <col min="7" max="7" width="9.140625" style="10" customWidth="1"/>
-    <col min="8" max="16384" width="8.85546875" style="10"/>
+    <col min="4" max="4" width="66.83203125" style="10" customWidth="1"/>
+    <col min="5" max="6" width="8.83203125" style="10"/>
+    <col min="7" max="7" width="9.1640625" style="10" customWidth="1"/>
+    <col min="8" max="16384" width="8.83203125" style="10"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" ht="14.1" customHeight="1">
+    <row r="1" spans="1:4" ht="14" customHeight="1">
       <c r="A1" s="41" t="s">
         <v>97</v>
       </c>
@@ -3413,7 +3423,7 @@
         <v>108</v>
       </c>
     </row>
-    <row r="6" spans="1:4" ht="37.5">
+    <row r="6" spans="1:4">
       <c r="A6" s="11" t="s">
         <v>109</v>
       </c>
@@ -3425,7 +3435,7 @@
       <c r="A7" s="11"/>
       <c r="B7" s="11"/>
     </row>
-    <row r="10" spans="1:4" ht="14.1" customHeight="1">
+    <row r="10" spans="1:4" ht="14" customHeight="1">
       <c r="A10" s="41" t="s">
         <v>111</v>
       </c>
@@ -3491,7 +3501,7 @@
         <v>119</v>
       </c>
     </row>
-    <row r="15" spans="1:4" ht="37.5">
+    <row r="15" spans="1:4">
       <c r="A15" s="11" t="s">
         <v>109</v>
       </c>
@@ -3503,7 +3513,7 @@
       <c r="A16" s="11"/>
       <c r="B16" s="11"/>
     </row>
-    <row r="18" spans="1:4" ht="14.1" customHeight="1">
+    <row r="18" spans="1:4" ht="14" customHeight="1">
       <c r="A18" s="41" t="s">
         <v>121</v>
       </c>
@@ -3561,7 +3571,7 @@
       <c r="C22" s="13"/>
       <c r="D22" s="14"/>
     </row>
-    <row r="23" spans="1:4" ht="37.5">
+    <row r="23" spans="1:4">
       <c r="A23" s="11" t="s">
         <v>109</v>
       </c>
@@ -3573,7 +3583,7 @@
       <c r="A24" s="11"/>
       <c r="B24" s="11"/>
     </row>
-    <row r="26" spans="1:4" ht="14.1" customHeight="1">
+    <row r="26" spans="1:4" ht="14" customHeight="1">
       <c r="A26" s="41" t="s">
         <v>127</v>
       </c>
@@ -3635,7 +3645,7 @@
       <c r="C30" s="11"/>
       <c r="D30" s="12"/>
     </row>
-    <row r="31" spans="1:4" ht="37.5">
+    <row r="31" spans="1:4">
       <c r="A31" s="11" t="s">
         <v>109</v>
       </c>
@@ -3647,7 +3657,7 @@
       <c r="A32" s="11"/>
       <c r="B32" s="11"/>
     </row>
-    <row r="34" spans="1:4" ht="14.1" customHeight="1">
+    <row r="34" spans="1:4" ht="14" customHeight="1">
       <c r="A34" s="41" t="s">
         <v>134</v>
       </c>
@@ -3709,7 +3719,7 @@
       <c r="C38" s="11"/>
       <c r="D38" s="12"/>
     </row>
-    <row r="39" spans="1:4" ht="37.5">
+    <row r="39" spans="1:4" ht="36">
       <c r="A39" s="11" t="s">
         <v>109</v>
       </c>
@@ -3721,7 +3731,7 @@
       <c r="A40" s="11"/>
       <c r="B40" s="11"/>
     </row>
-    <row r="43" spans="1:4" ht="14.1" customHeight="1">
+    <row r="43" spans="1:4" ht="14" customHeight="1">
       <c r="A43" s="41" t="s">
         <v>141</v>
       </c>
@@ -3759,7 +3769,7 @@
         <v>145</v>
       </c>
     </row>
-    <row r="46" spans="1:4" ht="37.5">
+    <row r="46" spans="1:4">
       <c r="A46" s="11" t="s">
         <v>105</v>
       </c>
@@ -3787,7 +3797,7 @@
         <v>149</v>
       </c>
     </row>
-    <row r="48" spans="1:4" ht="37.5">
+    <row r="48" spans="1:4" ht="36">
       <c r="A48" s="11" t="s">
         <v>109</v>
       </c>
@@ -3811,7 +3821,7 @@
         <v>153</v>
       </c>
     </row>
-    <row r="52" spans="1:5" ht="14.1" customHeight="1">
+    <row r="52" spans="1:5" ht="14" customHeight="1">
       <c r="A52" s="41" t="s">
         <v>154</v>
       </c>
@@ -3822,7 +3832,7 @@
       <c r="D52" s="42"/>
       <c r="E52" s="11"/>
     </row>
-    <row r="53" spans="1:5" ht="93.75">
+    <row r="53" spans="1:5" ht="54">
       <c r="A53" s="11" t="s">
         <v>99</v>
       </c>
@@ -3856,7 +3866,7 @@
         <v>200</v>
       </c>
     </row>
-    <row r="55" spans="1:5" ht="37.5">
+    <row r="55" spans="1:5">
       <c r="A55" s="11" t="s">
         <v>105</v>
       </c>
@@ -3886,7 +3896,7 @@
       </c>
       <c r="E56" s="11"/>
     </row>
-    <row r="57" spans="1:5" ht="37.5">
+    <row r="57" spans="1:5" ht="36">
       <c r="A57" s="11" t="s">
         <v>109</v>
       </c>
@@ -3912,7 +3922,7 @@
       </c>
       <c r="E58" s="11"/>
     </row>
-    <row r="60" spans="1:5" ht="14.1" customHeight="1">
+    <row r="60" spans="1:5" ht="14" customHeight="1">
       <c r="A60" s="41" t="s">
         <v>162</v>
       </c>
@@ -3978,7 +3988,7 @@
         <v>149</v>
       </c>
     </row>
-    <row r="65" spans="1:4" ht="37.5">
+    <row r="65" spans="1:4" ht="36">
       <c r="A65" s="11" t="s">
         <v>109</v>
       </c>
@@ -4012,11 +4022,11 @@
         <v>200</v>
       </c>
     </row>
-    <row r="70" spans="1:4" ht="14.1" customHeight="1">
-      <c r="A70" s="44" t="s">
+    <row r="70" spans="1:4" ht="14" customHeight="1">
+      <c r="A70" s="45" t="s">
         <v>169</v>
       </c>
-      <c r="B70" s="45"/>
+      <c r="B70" s="46"/>
       <c r="C70" s="41" t="s">
         <v>170</v>
       </c>
@@ -4050,7 +4060,7 @@
         <v>174</v>
       </c>
     </row>
-    <row r="73" spans="1:4" ht="37.5">
+    <row r="73" spans="1:4">
       <c r="A73" s="11" t="s">
         <v>105</v>
       </c>
@@ -4062,7 +4072,7 @@
       </c>
       <c r="D73" s="42"/>
     </row>
-    <row r="74" spans="1:4" ht="37.5">
+    <row r="74" spans="1:4">
       <c r="A74" s="11" t="s">
         <v>107</v>
       </c>
@@ -4076,7 +4086,7 @@
         <v>178</v>
       </c>
     </row>
-    <row r="75" spans="1:4" ht="37.5">
+    <row r="75" spans="1:4" ht="36">
       <c r="A75" s="11" t="s">
         <v>109</v>
       </c>
@@ -4102,17 +4112,17 @@
       <c r="C77" s="11"/>
       <c r="D77" s="11"/>
     </row>
-    <row r="79" spans="1:4" ht="14.1" customHeight="1">
-      <c r="A79" s="44" t="s">
+    <row r="79" spans="1:4" ht="14" customHeight="1">
+      <c r="A79" s="45" t="s">
         <v>181</v>
       </c>
-      <c r="B79" s="45"/>
+      <c r="B79" s="46"/>
       <c r="C79" s="41" t="s">
         <v>182</v>
       </c>
       <c r="D79" s="42"/>
     </row>
-    <row r="80" spans="1:4" ht="37.5">
+    <row r="80" spans="1:4">
       <c r="A80" s="11" t="s">
         <v>99</v>
       </c>
@@ -4140,7 +4150,7 @@
         <v>455</v>
       </c>
     </row>
-    <row r="82" spans="1:4" ht="37.5">
+    <row r="82" spans="1:4">
       <c r="A82" s="11" t="s">
         <v>105</v>
       </c>
@@ -4152,7 +4162,7 @@
       </c>
       <c r="D82" s="42"/>
     </row>
-    <row r="83" spans="1:4" ht="37.5">
+    <row r="83" spans="1:4">
       <c r="A83" s="11" t="s">
         <v>107</v>
       </c>
@@ -4166,7 +4176,7 @@
         <v>189</v>
       </c>
     </row>
-    <row r="84" spans="1:4" ht="37.5">
+    <row r="84" spans="1:4" ht="36">
       <c r="A84" s="11" t="s">
         <v>109</v>
       </c>
@@ -4190,7 +4200,7 @@
         <v>200</v>
       </c>
     </row>
-    <row r="88" spans="1:4" ht="14.1" customHeight="1">
+    <row r="88" spans="1:4" ht="14" customHeight="1">
       <c r="A88" s="43" t="s">
         <v>192</v>
       </c>
@@ -4200,7 +4210,7 @@
       </c>
       <c r="D88" s="40"/>
     </row>
-    <row r="89" spans="1:4" ht="37.5">
+    <row r="89" spans="1:4">
       <c r="A89" s="11" t="s">
         <v>99</v>
       </c>
@@ -4228,7 +4238,7 @@
         <v>456</v>
       </c>
     </row>
-    <row r="91" spans="1:4" ht="37.5">
+    <row r="91" spans="1:4">
       <c r="A91" s="11" t="s">
         <v>105</v>
       </c>
@@ -4254,7 +4264,7 @@
       </c>
       <c r="D92" s="40"/>
     </row>
-    <row r="93" spans="1:4" ht="56.25">
+    <row r="93" spans="1:4" ht="36">
       <c r="A93" s="11" t="s">
         <v>109</v>
       </c>
@@ -4296,7 +4306,7 @@
       </c>
       <c r="D96" s="40"/>
     </row>
-    <row r="97" spans="1:4" ht="37.5">
+    <row r="97" spans="1:4">
       <c r="A97" s="11"/>
       <c r="B97" s="11"/>
       <c r="C97" s="11" t="s">
@@ -4336,7 +4346,7 @@
         <v>153</v>
       </c>
     </row>
-    <row r="103" spans="1:4" ht="14.1" customHeight="1">
+    <row r="103" spans="1:4" ht="14" customHeight="1">
       <c r="A103" s="43" t="s">
         <v>204</v>
       </c>
@@ -4346,7 +4356,7 @@
       </c>
       <c r="D103" s="40"/>
     </row>
-    <row r="104" spans="1:4" ht="37.5">
+    <row r="104" spans="1:4">
       <c r="A104" s="11" t="s">
         <v>99</v>
       </c>
@@ -4372,7 +4382,7 @@
       </c>
       <c r="D105" s="42"/>
     </row>
-    <row r="106" spans="1:4" ht="37.5">
+    <row r="106" spans="1:4" ht="36">
       <c r="A106" s="11" t="s">
         <v>105</v>
       </c>
@@ -4386,7 +4396,7 @@
         <v>233</v>
       </c>
     </row>
-    <row r="107" spans="1:4" ht="37.5">
+    <row r="107" spans="1:4" ht="36">
       <c r="A107" s="11" t="s">
         <v>107</v>
       </c>
@@ -4400,7 +4410,7 @@
         <v>235</v>
       </c>
     </row>
-    <row r="108" spans="1:4" ht="37.5">
+    <row r="108" spans="1:4" ht="36">
       <c r="A108" s="11" t="s">
         <v>109</v>
       </c>
@@ -4550,7 +4560,7 @@
         <v>456</v>
       </c>
     </row>
-    <row r="123" spans="1:4" ht="37.5">
+    <row r="123" spans="1:4">
       <c r="A123" s="11" t="s">
         <v>109</v>
       </c>
@@ -4575,7 +4585,7 @@
       </c>
     </row>
     <row r="125" spans="1:4">
-      <c r="A125" s="46" t="s">
+      <c r="A125" s="44" t="s">
         <v>244</v>
       </c>
       <c r="B125" s="42"/>
@@ -4614,7 +4624,7 @@
         <v>153</v>
       </c>
     </row>
-    <row r="128" spans="1:4" ht="37.5">
+    <row r="128" spans="1:4" ht="36">
       <c r="A128" s="11" t="s">
         <v>109</v>
       </c>
@@ -4690,7 +4700,7 @@
         <v>200</v>
       </c>
     </row>
-    <row r="136" spans="1:4" ht="37.5">
+    <row r="136" spans="1:4">
       <c r="A136" s="11" t="s">
         <v>109</v>
       </c>
@@ -4714,7 +4724,7 @@
         <v>149</v>
       </c>
     </row>
-    <row r="138" spans="1:4" ht="56.25">
+    <row r="138" spans="1:4" ht="36">
       <c r="A138" s="15" t="s">
         <v>254</v>
       </c>
@@ -4728,7 +4738,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="139" spans="1:4" ht="56.25">
+    <row r="139" spans="1:4" ht="54">
       <c r="A139" s="15" t="s">
         <v>256</v>
       </c>
@@ -4742,7 +4752,7 @@
         <v>153</v>
       </c>
     </row>
-    <row r="140" spans="1:4" ht="56.25">
+    <row r="140" spans="1:4" ht="54">
       <c r="A140" s="15" t="s">
         <v>258</v>
       </c>
@@ -4752,7 +4762,7 @@
       <c r="C140" s="11"/>
       <c r="D140" s="11"/>
     </row>
-    <row r="141" spans="1:4" ht="56.25">
+    <row r="141" spans="1:4" ht="54">
       <c r="A141" s="15" t="s">
         <v>260</v>
       </c>
@@ -4828,7 +4838,7 @@
         <v>200</v>
       </c>
     </row>
-    <row r="149" spans="1:4" ht="37.5">
+    <row r="149" spans="1:4" ht="36">
       <c r="A149" s="11" t="s">
         <v>109</v>
       </c>
@@ -4852,7 +4862,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="151" spans="1:4" ht="56.25">
+    <row r="151" spans="1:4" ht="54">
       <c r="A151" s="15" t="s">
         <v>265</v>
       </c>
@@ -4866,7 +4876,7 @@
         <v>153</v>
       </c>
     </row>
-    <row r="152" spans="1:4" ht="56.25">
+    <row r="152" spans="1:4" ht="36">
       <c r="A152" s="15" t="s">
         <v>267</v>
       </c>
@@ -4876,7 +4886,7 @@
       <c r="C152" s="11"/>
       <c r="D152" s="11"/>
     </row>
-    <row r="153" spans="1:4" ht="56.25">
+    <row r="153" spans="1:4" ht="36">
       <c r="A153" s="15" t="s">
         <v>269</v>
       </c>
@@ -4886,7 +4896,7 @@
       <c r="C153" s="11"/>
       <c r="D153" s="11"/>
     </row>
-    <row r="154" spans="1:4" ht="56.25">
+    <row r="154" spans="1:4" ht="36">
       <c r="A154" s="15" t="s">
         <v>271</v>
       </c>
@@ -4962,7 +4972,7 @@
         <v>200</v>
       </c>
     </row>
-    <row r="162" spans="1:4" ht="37.5">
+    <row r="162" spans="1:4" ht="36">
       <c r="A162" s="11" t="s">
         <v>109</v>
       </c>
@@ -4986,7 +4996,7 @@
         <v>200</v>
       </c>
     </row>
-    <row r="164" spans="1:4" ht="56.25">
+    <row r="164" spans="1:4" ht="54">
       <c r="A164" s="15" t="s">
         <v>265</v>
       </c>
@@ -5000,7 +5010,7 @@
         <v>149</v>
       </c>
     </row>
-    <row r="165" spans="1:4" ht="56.25">
+    <row r="165" spans="1:4" ht="36">
       <c r="A165" s="15" t="s">
         <v>267</v>
       </c>
@@ -5014,7 +5024,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="166" spans="1:4" ht="56.25">
+    <row r="166" spans="1:4" ht="36">
       <c r="A166" s="15" t="s">
         <v>269</v>
       </c>
@@ -5028,7 +5038,7 @@
         <v>153</v>
       </c>
     </row>
-    <row r="167" spans="1:4" ht="56.25">
+    <row r="167" spans="1:4" ht="36">
       <c r="A167" s="15" t="s">
         <v>271</v>
       </c>
@@ -5038,6 +5048,34 @@
     </row>
   </sheetData>
   <mergeCells count="38">
+    <mergeCell ref="C92:D92"/>
+    <mergeCell ref="C96:D96"/>
+    <mergeCell ref="A103:B103"/>
+    <mergeCell ref="C103:D103"/>
+    <mergeCell ref="C73:D73"/>
+    <mergeCell ref="A79:B79"/>
+    <mergeCell ref="C79:D79"/>
+    <mergeCell ref="C82:D82"/>
+    <mergeCell ref="A88:B88"/>
+    <mergeCell ref="C88:D88"/>
+    <mergeCell ref="A52:B52"/>
+    <mergeCell ref="C52:D52"/>
+    <mergeCell ref="A60:B60"/>
+    <mergeCell ref="C60:D60"/>
+    <mergeCell ref="A70:B70"/>
+    <mergeCell ref="C70:D70"/>
+    <mergeCell ref="A26:B26"/>
+    <mergeCell ref="C26:D26"/>
+    <mergeCell ref="A34:B34"/>
+    <mergeCell ref="C34:D34"/>
+    <mergeCell ref="A43:B43"/>
+    <mergeCell ref="C43:D43"/>
+    <mergeCell ref="A1:B1"/>
+    <mergeCell ref="C1:D1"/>
+    <mergeCell ref="A10:B10"/>
+    <mergeCell ref="C10:D10"/>
+    <mergeCell ref="A18:B18"/>
+    <mergeCell ref="C18:D18"/>
     <mergeCell ref="A144:B144"/>
     <mergeCell ref="C144:D144"/>
     <mergeCell ref="A157:B157"/>
@@ -5048,34 +5086,6 @@
     <mergeCell ref="A125:B125"/>
     <mergeCell ref="A131:B131"/>
     <mergeCell ref="C131:D131"/>
-    <mergeCell ref="A1:B1"/>
-    <mergeCell ref="C1:D1"/>
-    <mergeCell ref="A10:B10"/>
-    <mergeCell ref="C10:D10"/>
-    <mergeCell ref="A18:B18"/>
-    <mergeCell ref="C18:D18"/>
-    <mergeCell ref="A26:B26"/>
-    <mergeCell ref="C26:D26"/>
-    <mergeCell ref="A34:B34"/>
-    <mergeCell ref="C34:D34"/>
-    <mergeCell ref="A43:B43"/>
-    <mergeCell ref="C43:D43"/>
-    <mergeCell ref="A52:B52"/>
-    <mergeCell ref="C52:D52"/>
-    <mergeCell ref="A60:B60"/>
-    <mergeCell ref="C60:D60"/>
-    <mergeCell ref="A70:B70"/>
-    <mergeCell ref="C70:D70"/>
-    <mergeCell ref="C92:D92"/>
-    <mergeCell ref="C96:D96"/>
-    <mergeCell ref="A103:B103"/>
-    <mergeCell ref="C103:D103"/>
-    <mergeCell ref="C73:D73"/>
-    <mergeCell ref="A79:B79"/>
-    <mergeCell ref="C79:D79"/>
-    <mergeCell ref="C82:D82"/>
-    <mergeCell ref="A88:B88"/>
-    <mergeCell ref="C88:D88"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <extLst>
@@ -5087,26 +5097,26 @@
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:J52"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A31" sqref="A31"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="18.75"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="18" x14ac:dyDescent="0"/>
   <cols>
-    <col min="1" max="1" width="26.7109375" style="3" customWidth="1"/>
-    <col min="2" max="2" width="39.42578125" style="3" customWidth="1"/>
-    <col min="3" max="3" width="40.7109375" style="3" customWidth="1"/>
-    <col min="4" max="4" width="33.28515625" style="3" customWidth="1"/>
-    <col min="5" max="5" width="23.42578125" style="3" customWidth="1"/>
-    <col min="6" max="6" width="52.85546875" style="3" customWidth="1"/>
-    <col min="7" max="7" width="20.28515625" style="3" customWidth="1"/>
-    <col min="8" max="8" width="32.140625" style="3" customWidth="1"/>
+    <col min="1" max="1" width="26.6640625" style="3" customWidth="1"/>
+    <col min="2" max="2" width="39.5" style="3" customWidth="1"/>
+    <col min="3" max="3" width="40.6640625" style="3" customWidth="1"/>
+    <col min="4" max="4" width="33.33203125" style="3" customWidth="1"/>
+    <col min="5" max="5" width="23.5" style="3" customWidth="1"/>
+    <col min="6" max="6" width="52.83203125" style="3" customWidth="1"/>
+    <col min="7" max="7" width="20.33203125" style="3" customWidth="1"/>
+    <col min="8" max="8" width="32.1640625" style="3" customWidth="1"/>
     <col min="9" max="9" width="42" style="3" customWidth="1"/>
-    <col min="10" max="10" width="40.7109375" style="3" customWidth="1"/>
-    <col min="11" max="16384" width="8.85546875" style="3"/>
+    <col min="10" max="10" width="40.6640625" style="3" customWidth="1"/>
+    <col min="11" max="16384" width="8.83203125" style="3"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:10">
@@ -5280,7 +5290,7 @@
         <v>284</v>
       </c>
     </row>
-    <row r="22" spans="1:7" ht="150">
+    <row r="22" spans="1:7" ht="108">
       <c r="A22" s="10" t="s">
         <v>285</v>
       </c>
@@ -5303,7 +5313,7 @@
         <v>291</v>
       </c>
     </row>
-    <row r="23" spans="1:7" ht="56.25">
+    <row r="23" spans="1:7" ht="36">
       <c r="A23" s="10" t="s">
         <v>292</v>
       </c>
@@ -5317,7 +5327,7 @@
         <v>295</v>
       </c>
     </row>
-    <row r="24" spans="1:7" ht="37.5">
+    <row r="24" spans="1:7">
       <c r="A24" s="10" t="s">
         <v>296</v>
       </c>
@@ -5345,7 +5355,7 @@
         <v>301</v>
       </c>
     </row>
-    <row r="27" spans="1:7" ht="168.75">
+    <row r="27" spans="1:7" ht="126">
       <c r="A27" s="10" t="s">
         <v>302</v>
       </c>
@@ -5356,12 +5366,12 @@
         <v>303</v>
       </c>
     </row>
-    <row r="28" spans="1:7" ht="37.5">
+    <row r="28" spans="1:7" ht="36">
       <c r="A28" s="10" t="s">
         <v>304</v>
       </c>
     </row>
-    <row r="29" spans="1:7" ht="168.75">
+    <row r="29" spans="1:7" ht="108">
       <c r="A29" s="10" t="s">
         <v>305</v>
       </c>
@@ -5381,7 +5391,7 @@
         <v>309</v>
       </c>
     </row>
-    <row r="30" spans="1:7" ht="112.5">
+    <row r="30" spans="1:7" ht="108">
       <c r="A30" s="10" t="s">
         <v>310</v>
       </c>
@@ -5392,7 +5402,7 @@
         <v>312</v>
       </c>
     </row>
-    <row r="31" spans="1:7" ht="37.5">
+    <row r="31" spans="1:7">
       <c r="A31" s="10" t="s">
         <v>454</v>
       </c>
@@ -5402,7 +5412,7 @@
         <v>313</v>
       </c>
     </row>
-    <row r="34" spans="1:9" ht="187.5">
+    <row r="34" spans="1:9" ht="144">
       <c r="A34" s="18">
         <v>12</v>
       </c>
@@ -5439,7 +5449,7 @@
         <v>320</v>
       </c>
     </row>
-    <row r="36" spans="1:9" ht="93.75">
+    <row r="36" spans="1:9" ht="72">
       <c r="A36" s="3" t="s">
         <v>321</v>
       </c>
@@ -5458,7 +5468,7 @@
         <v>325</v>
       </c>
     </row>
-    <row r="38" spans="1:9" ht="56.25">
+    <row r="38" spans="1:9" ht="54">
       <c r="A38" s="10" t="s">
         <v>326</v>
       </c>
@@ -5477,7 +5487,7 @@
         <v>330</v>
       </c>
     </row>
-    <row r="40" spans="1:9" ht="56.25">
+    <row r="40" spans="1:9" ht="36">
       <c r="A40" s="3" t="s">
         <v>331</v>
       </c>
@@ -5491,7 +5501,7 @@
         <v>334</v>
       </c>
     </row>
-    <row r="41" spans="1:9" ht="37.5">
+    <row r="41" spans="1:9" ht="36">
       <c r="A41" s="3" t="s">
         <v>335</v>
       </c>
@@ -5505,7 +5515,7 @@
         <v>334</v>
       </c>
     </row>
-    <row r="42" spans="1:9" ht="112.5">
+    <row r="42" spans="1:9" ht="90">
       <c r="A42" s="10" t="s">
         <v>338</v>
       </c>
@@ -5524,7 +5534,7 @@
         <v>342</v>
       </c>
     </row>
-    <row r="44" spans="1:9" ht="131.25">
+    <row r="44" spans="1:9" ht="108">
       <c r="A44" s="10" t="s">
         <v>343</v>
       </c>
@@ -5546,7 +5556,7 @@
         <v>348</v>
       </c>
     </row>
-    <row r="46" spans="1:9" ht="131.25">
+    <row r="46" spans="1:9" ht="108">
       <c r="A46" s="18">
         <v>11</v>
       </c>
@@ -5575,7 +5585,7 @@
         <v>291</v>
       </c>
     </row>
-    <row r="47" spans="1:9" ht="93.75">
+    <row r="47" spans="1:9" ht="90">
       <c r="A47" s="3" t="s">
         <v>352</v>
       </c>
@@ -5609,7 +5619,7 @@
         <v>360</v>
       </c>
     </row>
-    <row r="49" spans="1:6" ht="112.5">
+    <row r="49" spans="1:6" ht="90">
       <c r="A49" s="3" t="s">
         <v>361</v>
       </c>
@@ -5629,7 +5639,7 @@
         <v>365</v>
       </c>
     </row>
-    <row r="50" spans="1:6" ht="93.75">
+    <row r="50" spans="1:6" ht="90">
       <c r="A50" s="3" t="s">
         <v>366</v>
       </c>
@@ -5651,7 +5661,7 @@
         <v>371</v>
       </c>
     </row>
-    <row r="52" spans="1:6" ht="281.25">
+    <row r="52" spans="1:6" ht="198">
       <c r="A52" s="10" t="s">
         <v>372</v>
       </c>
@@ -5679,21 +5689,21 @@
 </file>
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E35"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A7" sqref="A7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="18.75"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="18" x14ac:dyDescent="0"/>
   <cols>
-    <col min="1" max="1" width="61.42578125" style="21" customWidth="1" collapsed="1"/>
+    <col min="1" max="1" width="61.5" style="21" customWidth="1" collapsed="1"/>
     <col min="2" max="2" width="28" style="21" customWidth="1" collapsed="1"/>
-    <col min="3" max="3" width="43.42578125" style="21" customWidth="1" collapsed="1"/>
-    <col min="4" max="4" width="46.42578125" style="21" customWidth="1" collapsed="1"/>
+    <col min="3" max="3" width="43.5" style="21" customWidth="1" collapsed="1"/>
+    <col min="4" max="4" width="46.5" style="21" customWidth="1" collapsed="1"/>
     <col min="5" max="5" width="36" style="21" customWidth="1"/>
-    <col min="6" max="16384" width="8.85546875" style="21"/>
+    <col min="6" max="16384" width="8.83203125" style="21"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:5">
@@ -5713,7 +5723,7 @@
         <v>380</v>
       </c>
     </row>
-    <row r="2" spans="1:5" ht="37.5">
+    <row r="2" spans="1:5" ht="36">
       <c r="A2" s="22" t="s">
         <v>381</v>
       </c>
@@ -5730,7 +5740,7 @@
         <v>385</v>
       </c>
     </row>
-    <row r="3" spans="1:5" ht="37.5">
+    <row r="3" spans="1:5" ht="36">
       <c r="A3" s="22" t="s">
         <v>386</v>
       </c>
@@ -5745,7 +5755,7 @@
       </c>
       <c r="E3" s="22"/>
     </row>
-    <row r="4" spans="1:5" ht="37.5">
+    <row r="4" spans="1:5" ht="36">
       <c r="A4" s="22" t="s">
         <v>388</v>
       </c>
@@ -5760,7 +5770,7 @@
       </c>
       <c r="E4" s="23"/>
     </row>
-    <row r="5" spans="1:5" ht="37.5">
+    <row r="5" spans="1:5" ht="36">
       <c r="A5" s="22" t="s">
         <v>390</v>
       </c>
@@ -5775,7 +5785,7 @@
       </c>
       <c r="E5" s="23"/>
     </row>
-    <row r="6" spans="1:5" ht="37.5">
+    <row r="6" spans="1:5" ht="36">
       <c r="A6" s="22" t="s">
         <v>392</v>
       </c>
@@ -5790,7 +5800,7 @@
       </c>
       <c r="E6" s="23"/>
     </row>
-    <row r="7" spans="1:5" ht="37.5">
+    <row r="7" spans="1:5" ht="36">
       <c r="A7" s="22" t="s">
         <v>394</v>
       </c>
@@ -5805,7 +5815,7 @@
       </c>
       <c r="E7" s="23"/>
     </row>
-    <row r="8" spans="1:5" ht="37.5">
+    <row r="8" spans="1:5" ht="36">
       <c r="A8" s="22" t="s">
         <v>396</v>
       </c>
@@ -5820,7 +5830,7 @@
       </c>
       <c r="E8" s="23"/>
     </row>
-    <row r="9" spans="1:5" ht="37.5">
+    <row r="9" spans="1:5" ht="36">
       <c r="A9" s="22" t="s">
         <v>398</v>
       </c>
@@ -5835,7 +5845,7 @@
       </c>
       <c r="E9" s="23"/>
     </row>
-    <row r="10" spans="1:5" ht="37.5">
+    <row r="10" spans="1:5" ht="36">
       <c r="A10" s="22" t="s">
         <v>400</v>
       </c>
@@ -5850,7 +5860,7 @@
       </c>
       <c r="E10" s="23"/>
     </row>
-    <row r="11" spans="1:5" ht="37.5">
+    <row r="11" spans="1:5" ht="36">
       <c r="A11" s="22" t="s">
         <v>402</v>
       </c>
@@ -5865,7 +5875,7 @@
       </c>
       <c r="E11" s="23"/>
     </row>
-    <row r="12" spans="1:5" ht="37.5">
+    <row r="12" spans="1:5" ht="36">
       <c r="A12" s="22" t="s">
         <v>404</v>
       </c>
@@ -5880,7 +5890,7 @@
       </c>
       <c r="E12" s="25"/>
     </row>
-    <row r="13" spans="1:5" ht="37.5">
+    <row r="13" spans="1:5" ht="36">
       <c r="A13" s="22" t="s">
         <v>406</v>
       </c>
@@ -5895,7 +5905,7 @@
       </c>
       <c r="E13" s="25"/>
     </row>
-    <row r="14" spans="1:5" ht="37.5">
+    <row r="14" spans="1:5" ht="36">
       <c r="A14" s="22" t="s">
         <v>408</v>
       </c>
@@ -5910,7 +5920,7 @@
       </c>
       <c r="E14" s="25"/>
     </row>
-    <row r="15" spans="1:5" ht="37.5">
+    <row r="15" spans="1:5" ht="36">
       <c r="A15" s="22" t="s">
         <v>410</v>
       </c>
@@ -5925,7 +5935,7 @@
       </c>
       <c r="E15" s="25"/>
     </row>
-    <row r="16" spans="1:5" ht="37.5">
+    <row r="16" spans="1:5" ht="36">
       <c r="A16" s="22" t="s">
         <v>412</v>
       </c>
@@ -5940,7 +5950,7 @@
       </c>
       <c r="E16" s="25"/>
     </row>
-    <row r="17" spans="1:5" ht="37.5">
+    <row r="17" spans="1:5" ht="36">
       <c r="A17" s="22" t="s">
         <v>414</v>
       </c>
@@ -5955,7 +5965,7 @@
       </c>
       <c r="E17" s="25"/>
     </row>
-    <row r="18" spans="1:5" ht="37.5">
+    <row r="18" spans="1:5" ht="36">
       <c r="A18" s="26" t="s">
         <v>416</v>
       </c>
@@ -5970,7 +5980,7 @@
       </c>
       <c r="E18" s="25"/>
     </row>
-    <row r="19" spans="1:5" ht="37.5">
+    <row r="19" spans="1:5" ht="36">
       <c r="A19" s="22" t="s">
         <v>418</v>
       </c>
@@ -5985,7 +5995,7 @@
       </c>
       <c r="E19" s="25"/>
     </row>
-    <row r="20" spans="1:5" ht="37.5">
+    <row r="20" spans="1:5" ht="36">
       <c r="A20" s="22" t="s">
         <v>420</v>
       </c>
@@ -5999,7 +6009,7 @@
         <v>384</v>
       </c>
     </row>
-    <row r="21" spans="1:5" ht="37.5">
+    <row r="21" spans="1:5" ht="36">
       <c r="A21" s="22" t="s">
         <v>422</v>
       </c>
@@ -6013,7 +6023,7 @@
         <v>384</v>
       </c>
     </row>
-    <row r="22" spans="1:5" ht="37.5">
+    <row r="22" spans="1:5" ht="36">
       <c r="A22" s="22" t="s">
         <v>424</v>
       </c>
@@ -6027,7 +6037,7 @@
         <v>384</v>
       </c>
     </row>
-    <row r="23" spans="1:5" ht="37.5">
+    <row r="23" spans="1:5" ht="36">
       <c r="A23" s="22" t="s">
         <v>426</v>
       </c>
@@ -6041,7 +6051,7 @@
         <v>384</v>
       </c>
     </row>
-    <row r="24" spans="1:5" ht="37.5">
+    <row r="24" spans="1:5" ht="36">
       <c r="A24" s="22" t="s">
         <v>428</v>
       </c>
@@ -6055,7 +6065,7 @@
         <v>384</v>
       </c>
     </row>
-    <row r="25" spans="1:5" ht="37.5">
+    <row r="25" spans="1:5" ht="36">
       <c r="A25" s="22" t="s">
         <v>430</v>
       </c>
@@ -6069,7 +6079,7 @@
         <v>384</v>
       </c>
     </row>
-    <row r="26" spans="1:5" ht="37.5">
+    <row r="26" spans="1:5" ht="36">
       <c r="A26" s="22" t="s">
         <v>432</v>
       </c>
@@ -6083,7 +6093,7 @@
         <v>384</v>
       </c>
     </row>
-    <row r="27" spans="1:5" ht="37.5">
+    <row r="27" spans="1:5" ht="36">
       <c r="A27" s="22" t="s">
         <v>434</v>
       </c>
@@ -6097,7 +6107,7 @@
         <v>384</v>
       </c>
     </row>
-    <row r="28" spans="1:5" ht="37.5">
+    <row r="28" spans="1:5" ht="36">
       <c r="A28" s="22" t="s">
         <v>436</v>
       </c>
@@ -6111,7 +6121,7 @@
         <v>384</v>
       </c>
     </row>
-    <row r="29" spans="1:5" ht="37.5">
+    <row r="29" spans="1:5" ht="36">
       <c r="A29" s="22" t="s">
         <v>438</v>
       </c>
@@ -6125,7 +6135,7 @@
         <v>384</v>
       </c>
     </row>
-    <row r="30" spans="1:5" ht="37.5">
+    <row r="30" spans="1:5" ht="36">
       <c r="A30" s="22" t="s">
         <v>440</v>
       </c>
@@ -6139,7 +6149,7 @@
         <v>384</v>
       </c>
     </row>
-    <row r="31" spans="1:5" ht="37.5">
+    <row r="31" spans="1:5" ht="36">
       <c r="A31" s="22" t="s">
         <v>442</v>
       </c>
@@ -6153,7 +6163,7 @@
         <v>384</v>
       </c>
     </row>
-    <row r="32" spans="1:5" ht="37.5">
+    <row r="32" spans="1:5" ht="36">
       <c r="A32" s="22" t="s">
         <v>444</v>
       </c>
@@ -6167,7 +6177,7 @@
         <v>384</v>
       </c>
     </row>
-    <row r="33" spans="1:4" ht="37.5">
+    <row r="33" spans="1:4" ht="36">
       <c r="A33" s="22" t="s">
         <v>446</v>
       </c>
@@ -6181,7 +6191,7 @@
         <v>384</v>
       </c>
     </row>
-    <row r="34" spans="1:4" ht="37.5">
+    <row r="34" spans="1:4" ht="36">
       <c r="A34" s="22" t="s">
         <v>448</v>
       </c>
@@ -6195,7 +6205,7 @@
         <v>384</v>
       </c>
     </row>
-    <row r="35" spans="1:4" ht="37.5">
+    <row r="35" spans="1:4" ht="36">
       <c r="A35" s="22" t="s">
         <v>450</v>
       </c>
@@ -6220,21 +6230,21 @@
 </file>
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E242"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="E45" sqref="E45"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="18.75"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="18" x14ac:dyDescent="0"/>
   <cols>
-    <col min="1" max="1" width="31.42578125" style="10" customWidth="1"/>
-    <col min="2" max="2" width="74.85546875" style="10" customWidth="1"/>
-    <col min="3" max="3" width="22.28515625" style="10" customWidth="1"/>
+    <col min="1" max="1" width="31.5" style="10" customWidth="1"/>
+    <col min="2" max="2" width="74.83203125" style="10" customWidth="1"/>
+    <col min="3" max="3" width="22.33203125" style="10" customWidth="1"/>
     <col min="4" max="4" width="28" style="10" customWidth="1"/>
-    <col min="5" max="5" width="57.42578125" style="10" customWidth="1"/>
-    <col min="6" max="16384" width="8.85546875" style="10"/>
+    <col min="5" max="5" width="57.5" style="10" customWidth="1"/>
+    <col min="6" max="16384" width="8.83203125" style="10"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:5">
@@ -6275,7 +6285,7 @@
         <v>468</v>
       </c>
     </row>
-    <row r="4" spans="1:5" ht="37.5">
+    <row r="4" spans="1:5">
       <c r="A4" s="11" t="s">
         <v>469</v>
       </c>
@@ -6289,7 +6299,7 @@
         <v>471</v>
       </c>
     </row>
-    <row r="5" spans="1:5" ht="37.5">
+    <row r="5" spans="1:5">
       <c r="A5" s="11" t="s">
         <v>472</v>
       </c>
@@ -6651,7 +6661,7 @@
         <v>516</v>
       </c>
     </row>
-    <row r="58" spans="1:2" ht="37.5">
+    <row r="58" spans="1:2">
       <c r="A58" s="11" t="s">
         <v>109</v>
       </c>
@@ -6759,7 +6769,7 @@
         <v>522</v>
       </c>
     </row>
-    <row r="72" spans="1:2" ht="37.5">
+    <row r="72" spans="1:2">
       <c r="A72" s="11" t="s">
         <v>109</v>
       </c>
@@ -6789,7 +6799,7 @@
         <v>526</v>
       </c>
     </row>
-    <row r="78" spans="1:2" ht="37.5">
+    <row r="78" spans="1:2" ht="36">
       <c r="A78" s="11" t="s">
         <v>109</v>
       </c>
@@ -6881,7 +6891,7 @@
         <v>532</v>
       </c>
     </row>
-    <row r="92" spans="1:2" ht="37.5">
+    <row r="92" spans="1:2">
       <c r="A92" s="11" t="s">
         <v>109</v>
       </c>
@@ -7165,7 +7175,7 @@
         <v>553</v>
       </c>
     </row>
-    <row r="135" spans="1:2" ht="37.5">
+    <row r="135" spans="1:2">
       <c r="A135" s="11" t="s">
         <v>109</v>
       </c>
@@ -7241,7 +7251,7 @@
         <v>560</v>
       </c>
     </row>
-    <row r="147" spans="1:2" ht="37.5">
+    <row r="147" spans="1:2">
       <c r="A147" s="11" t="s">
         <v>109</v>
       </c>
@@ -7357,7 +7367,7 @@
         <v>568</v>
       </c>
     </row>
-    <row r="164" spans="1:2" ht="37.5">
+    <row r="164" spans="1:2">
       <c r="A164" s="11" t="s">
         <v>467</v>
       </c>
@@ -7365,7 +7375,7 @@
         <v>569</v>
       </c>
     </row>
-    <row r="165" spans="1:2" ht="37.5">
+    <row r="165" spans="1:2">
       <c r="A165" s="11" t="s">
         <v>109</v>
       </c>
@@ -7497,7 +7507,7 @@
         <v>576</v>
       </c>
     </row>
-    <row r="184" spans="1:2" ht="37.5">
+    <row r="184" spans="1:2" ht="36">
       <c r="A184" s="11" t="s">
         <v>467</v>
       </c>
@@ -7653,7 +7663,7 @@
         <v>587</v>
       </c>
     </row>
-    <row r="205" spans="1:2" ht="37.5">
+    <row r="205" spans="1:2">
       <c r="A205" s="11" t="s">
         <v>467</v>
       </c>
@@ -7793,7 +7803,7 @@
         <v>596</v>
       </c>
     </row>
-    <row r="225" spans="1:2" ht="37.5">
+    <row r="225" spans="1:2" ht="36">
       <c r="A225" s="11" t="s">
         <v>467</v>
       </c>
@@ -7801,7 +7811,7 @@
         <v>597</v>
       </c>
     </row>
-    <row r="226" spans="1:2" ht="37.5">
+    <row r="226" spans="1:2">
       <c r="A226" s="11" t="s">
         <v>109</v>
       </c>
@@ -7937,6 +7947,28 @@
     </row>
   </sheetData>
   <mergeCells count="34">
+    <mergeCell ref="A203:B203"/>
+    <mergeCell ref="A209:B209"/>
+    <mergeCell ref="A223:B223"/>
+    <mergeCell ref="A229:B229"/>
+    <mergeCell ref="A144:B144"/>
+    <mergeCell ref="A148:B148"/>
+    <mergeCell ref="A162:B162"/>
+    <mergeCell ref="A168:B168"/>
+    <mergeCell ref="A182:B182"/>
+    <mergeCell ref="A188:B188"/>
+    <mergeCell ref="A136:B136"/>
+    <mergeCell ref="A59:B59"/>
+    <mergeCell ref="A69:B69"/>
+    <mergeCell ref="A75:B75"/>
+    <mergeCell ref="A79:B79"/>
+    <mergeCell ref="A89:B89"/>
+    <mergeCell ref="A93:B93"/>
+    <mergeCell ref="A105:B105"/>
+    <mergeCell ref="A111:B111"/>
+    <mergeCell ref="A121:B121"/>
+    <mergeCell ref="A125:B125"/>
+    <mergeCell ref="A132:B132"/>
     <mergeCell ref="A55:B55"/>
     <mergeCell ref="A1:B1"/>
     <mergeCell ref="D1:E1"/>
@@ -7949,28 +7981,6 @@
     <mergeCell ref="A39:B39"/>
     <mergeCell ref="A44:B44"/>
     <mergeCell ref="A48:B48"/>
-    <mergeCell ref="A136:B136"/>
-    <mergeCell ref="A59:B59"/>
-    <mergeCell ref="A69:B69"/>
-    <mergeCell ref="A75:B75"/>
-    <mergeCell ref="A79:B79"/>
-    <mergeCell ref="A89:B89"/>
-    <mergeCell ref="A93:B93"/>
-    <mergeCell ref="A105:B105"/>
-    <mergeCell ref="A111:B111"/>
-    <mergeCell ref="A121:B121"/>
-    <mergeCell ref="A125:B125"/>
-    <mergeCell ref="A132:B132"/>
-    <mergeCell ref="A203:B203"/>
-    <mergeCell ref="A209:B209"/>
-    <mergeCell ref="A223:B223"/>
-    <mergeCell ref="A229:B229"/>
-    <mergeCell ref="A144:B144"/>
-    <mergeCell ref="A148:B148"/>
-    <mergeCell ref="A162:B162"/>
-    <mergeCell ref="A168:B168"/>
-    <mergeCell ref="A182:B182"/>
-    <mergeCell ref="A188:B188"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <extLst>
@@ -7982,23 +7992,23 @@
 </file>
 
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="E20" sqref="E20"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="14" x14ac:dyDescent="0"/>
   <cols>
-    <col min="1" max="1" width="15.140625" customWidth="1"/>
-    <col min="2" max="2" width="20.85546875" customWidth="1"/>
-    <col min="3" max="3" width="16.42578125" customWidth="1"/>
-    <col min="4" max="4" width="13.140625" customWidth="1"/>
-    <col min="5" max="5" width="18.28515625" customWidth="1"/>
+    <col min="1" max="1" width="15.1640625" customWidth="1"/>
+    <col min="2" max="2" width="20.83203125" customWidth="1"/>
+    <col min="3" max="3" width="16.5" customWidth="1"/>
+    <col min="4" max="4" width="13.1640625" customWidth="1"/>
+    <col min="5" max="5" width="18.33203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4">
+    <row r="1" spans="1:4" ht="15">
       <c r="A1" s="37" t="s">
         <v>8</v>
       </c>

--- a/TestData.xlsx
+++ b/TestData.xlsx
@@ -1,10 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="20225"/>
+  <fileVersion appName="xl" lastEdited="4" lowestEdited="5" rupBuild="4506"/>
   <workbookPr autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20740" windowHeight="11760" tabRatio="990" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20730" windowHeight="11760" tabRatio="990" activeTab="7"/>
   </bookViews>
   <sheets>
     <sheet name="Login_Credentials" sheetId="1" r:id="rId1"/>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1208" uniqueCount="626">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1769" uniqueCount="799">
   <si>
     <t>TEST CASE NAME</t>
   </si>
@@ -1917,12 +1917,531 @@
   <si>
     <t>Empla#0</t>
   </si>
+  <si>
+    <t>Create Campaign for Track with Text Lesson</t>
+  </si>
+  <si>
+    <t>Campaign_for_track_with_Text_Lesson</t>
+  </si>
+  <si>
+    <t>This campaign is for Track with text lesson</t>
+  </si>
+  <si>
+    <t>You successfully saved "Campaign_for_track_with_Text_Lesson"</t>
+  </si>
+  <si>
+    <t>Track Data</t>
+  </si>
+  <si>
+    <t>Track_for_campaign_Text_Lesson</t>
+  </si>
+  <si>
+    <t>Track for Campaign with text lesson</t>
+  </si>
+  <si>
+    <t>Expected success message</t>
+  </si>
+  <si>
+    <t>You successfully published "Track_for_campaign_Text_Lesson".</t>
+  </si>
+  <si>
+    <t>Lesson_for_CampTrack_Text_Lesson</t>
+  </si>
+  <si>
+    <t>This is for campaign with track</t>
+  </si>
+  <si>
+    <t>Create Campaign for Track with Image Lesson</t>
+  </si>
+  <si>
+    <t>Campaign_for_track_with_Image_Lesson</t>
+  </si>
+  <si>
+    <t>This campaign is for Track with Image lesson</t>
+  </si>
+  <si>
+    <t>You successfully saved "Campaign_for_track_with_Image_Lesson"</t>
+  </si>
+  <si>
+    <t>Track_for_campaign_Image_Lesson</t>
+  </si>
+  <si>
+    <t>Track for Campaign with Image lesson</t>
+  </si>
+  <si>
+    <t>You successfully published "Track_for_campaign_Image_Lesson".</t>
+  </si>
+  <si>
+    <t>Lesson_for_CampTrack_Image_Lesson</t>
+  </si>
+  <si>
+    <t>Create Campaign for Track with Video Lesson</t>
+  </si>
+  <si>
+    <t>Campaign_for_track_with_Video_Lesson</t>
+  </si>
+  <si>
+    <t>This campaign is for Track with Video lesson</t>
+  </si>
+  <si>
+    <t>You successfully saved "Campaign_for_track_with_Video_Lesson"</t>
+  </si>
+  <si>
+    <t>Track_for_campaign_Video_Lesson</t>
+  </si>
+  <si>
+    <t>Track for Campaign with Video lesson</t>
+  </si>
+  <si>
+    <t>You successfully published "Track_for_campaign_Video_Lesson".</t>
+  </si>
+  <si>
+    <t>Lesson_for_CampTrack_Video_Lesson</t>
+  </si>
+  <si>
+    <t>Create Campaign for Track with Document Lesson</t>
+  </si>
+  <si>
+    <t>Campaign_for_track_with_Document_Lesson</t>
+  </si>
+  <si>
+    <t>This campaign is for Track with Document lesson</t>
+  </si>
+  <si>
+    <t>You successfully saved "Campaign_for_track_with_Document_Lesson"</t>
+  </si>
+  <si>
+    <t>Track_for_campaign_Document_Lesson</t>
+  </si>
+  <si>
+    <t>Track for Campaign with Document lesson</t>
+  </si>
+  <si>
+    <t>You successfully published "Track_for_campaign_Document_Lesson".</t>
+  </si>
+  <si>
+    <t>Lesson_for_CampTrack_Document_Lesson</t>
+  </si>
+  <si>
+    <t>Create Campaign for Track with Question Lesson</t>
+  </si>
+  <si>
+    <t>Campaign_for_track_with_Question_Lesson</t>
+  </si>
+  <si>
+    <t>This campaign is for Track with Question lesson</t>
+  </si>
+  <si>
+    <t>You successfully saved "Campaign_for_track_with_Question_Lesson"</t>
+  </si>
+  <si>
+    <t>SetDuration</t>
+  </si>
+  <si>
+    <t>Track_for_campaign_Question_Lesson</t>
+  </si>
+  <si>
+    <t>Track for Campaign with Question lesson</t>
+  </si>
+  <si>
+    <t>You successfully published "Track_for_campaign_Question_Lesson".</t>
+  </si>
+  <si>
+    <t>Lesson_for_CampTrack_Question_Lesson</t>
+  </si>
+  <si>
+    <t>How many wonders are there?</t>
+  </si>
+  <si>
+    <t>Ans1</t>
+  </si>
+  <si>
+    <t>Seven</t>
+  </si>
+  <si>
+    <t>Ans2</t>
+  </si>
+  <si>
+    <t>Eight</t>
+  </si>
+  <si>
+    <t>Create Campaign for Track with All cards One time</t>
+  </si>
+  <si>
+    <t>Create Campaign for Track with All cards Two time</t>
+  </si>
+  <si>
+    <t>Campaign_for_track_with_AllCardsOneTime_Lesson</t>
+  </si>
+  <si>
+    <t>Campaign_for_track_with_AllCardsTwoTime_Lesson</t>
+  </si>
+  <si>
+    <t>This campaign is for Track with All cards one time</t>
+  </si>
+  <si>
+    <t>This campaign is for Track with All cards Two time</t>
+  </si>
+  <si>
+    <t>You successfully saved "Campaign_for_track_with_AllCardsOneTime_Lesson"</t>
+  </si>
+  <si>
+    <t>You successfully saved "Campaign_for_track_with_AllCardsTwoTime_Lesson"</t>
+  </si>
+  <si>
+    <t>Track_for_campaign_AllCards1Time_Lesson</t>
+  </si>
+  <si>
+    <t>Track_for_campaign_AllCards2Time_Lesson</t>
+  </si>
+  <si>
+    <t>Track for Campaign with All cards one time lesson</t>
+  </si>
+  <si>
+    <t>Track for Campaign with All cards Two time lesson</t>
+  </si>
+  <si>
+    <t>You successfully published "Track_for_campaign_AllCards1Time_Lesson".</t>
+  </si>
+  <si>
+    <t>You successfully published "Track_for_campaign_AllCards2Time_Lesson".</t>
+  </si>
+  <si>
+    <t>Lesson_for_CampTrack_AllCards1Time_Lesson</t>
+  </si>
+  <si>
+    <t>Lesson_for_CampTrack_AllCards2Time_Lesson</t>
+  </si>
+  <si>
+    <t>This is for campaign Track</t>
+  </si>
+  <si>
+    <t>Time for video</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Minimum passing score </t>
+  </si>
+  <si>
+    <t>Duration</t>
+  </si>
+  <si>
+    <t>Time to Document</t>
+  </si>
+  <si>
+    <t>Create Campaign for Track with Text Image Question</t>
+  </si>
+  <si>
+    <t>Campaign_for_track_with_TxtImgQue_Lesson</t>
+  </si>
+  <si>
+    <t>This campaign is for Track with Text Image Question lesson</t>
+  </si>
+  <si>
+    <t>You successfully saved "Campaign_for_track_with_TxtImgQue_Lesson"</t>
+  </si>
+  <si>
+    <t>Track_for_campaign_TxtImgQue_Lesson</t>
+  </si>
+  <si>
+    <t>Track for Campaign with Text Image Question lesson</t>
+  </si>
+  <si>
+    <t>You successfully published "Track_for_campaign_TxtImgQue_Lesson".</t>
+  </si>
+  <si>
+    <t>Lesson_for_CampTrack_TxtImgQue_Lesson</t>
+  </si>
+  <si>
+    <t>Create Campaign for Track with Text Video Question</t>
+  </si>
+  <si>
+    <t>Campaign_for_track_with_TxtVidQue_Lesson</t>
+  </si>
+  <si>
+    <t>This campaign is for Track with Text Video Question lesson</t>
+  </si>
+  <si>
+    <t>You successfully saved "Campaign_for_track_with_TxtVidQue_Lesson"</t>
+  </si>
+  <si>
+    <t>Track_for_campaign_TxtVidQue_Lesson</t>
+  </si>
+  <si>
+    <t>Track for Campaign with Text Video Question lesson</t>
+  </si>
+  <si>
+    <t>You successfully published "Track_for_campaign_TxtVidQue_Lesson".</t>
+  </si>
+  <si>
+    <t>Lesson_for_CampTrack_TxtVidQue_Lesson</t>
+  </si>
+  <si>
+    <t>Create Campaign for Track with Video Document Question</t>
+  </si>
+  <si>
+    <t>Campaign_for_track_with_VidDocQue_Lesson</t>
+  </si>
+  <si>
+    <t>This campaign is for Track with Video Document Question lesson</t>
+  </si>
+  <si>
+    <t>You successfully saved "Campaign_for_track_with_VidDocQue_Lesson"</t>
+  </si>
+  <si>
+    <t>Track_for_campaign_VidDocQue_Lesson</t>
+  </si>
+  <si>
+    <t>Track for Campaign with Video Document Question lesson</t>
+  </si>
+  <si>
+    <t>You successfully published "Track_for_campaign_VidDocQue_Lesson".</t>
+  </si>
+  <si>
+    <t>Lesson_for_CampTrack_VidDocQue_Lesson</t>
+  </si>
+  <si>
+    <t>time for uploading document</t>
+  </si>
+  <si>
+    <t>Create Campaign for Track with Text lesson Image Lesson</t>
+  </si>
+  <si>
+    <t>Campaign_for_track_with_Textlessom_ImageLesson</t>
+  </si>
+  <si>
+    <t>This campaign is for Track with Text lesson image lesson</t>
+  </si>
+  <si>
+    <t>You successfully saved "Campaign_for_track_with_Textlessom_ImageLesson"</t>
+  </si>
+  <si>
+    <t>Track_for_campaign_TextLesson_ImageLesson</t>
+  </si>
+  <si>
+    <t>Track for Campaign with Text lesson Image Lesson</t>
+  </si>
+  <si>
+    <t>You successfully published "Track_for_campaign_TextLesson_ImageLesson".</t>
+  </si>
+  <si>
+    <t>Lesson Name 1</t>
+  </si>
+  <si>
+    <t>Lesson_for_CampTrack_TextLesson_ImageLesson(1)</t>
+  </si>
+  <si>
+    <t>Lesson_for_CampTrack_TextLesson_ImageLesson(2)</t>
+  </si>
+  <si>
+    <t>Create Campaign for Track with Image Lesson Video Lesson</t>
+  </si>
+  <si>
+    <t>Campaign_for_track_with_ImageLesson_VideoLesson</t>
+  </si>
+  <si>
+    <t>This campaign is for Track with Image lesson Video Lesson</t>
+  </si>
+  <si>
+    <t>You successfully saved "Campaign_for_track_with_ImageLesson_VideoLesson"</t>
+  </si>
+  <si>
+    <t>Track_for_campaign_ImageLesson_VideoLesson</t>
+  </si>
+  <si>
+    <t>Track for Campaign with Image lesson Video lesson</t>
+  </si>
+  <si>
+    <t>You successfully published "Track_for_campaign_ImageLesson_VideoLesson".</t>
+  </si>
+  <si>
+    <t>Lesson_for_CampTrack_ImageLesson_VideoLesson(1)</t>
+  </si>
+  <si>
+    <t>Lesson_for_CampTrack_ImageLesson_VideoLesson(2)</t>
+  </si>
+  <si>
+    <t>Create Campaign for Track with Video Lesson Doc Lesson Question Lesson</t>
+  </si>
+  <si>
+    <t>Campaign_for_track_with_VidLesson_DocLesson_QuesLesson</t>
+  </si>
+  <si>
+    <t>This campaign is for Track with Video Lesson Document lesson Question Lesson</t>
+  </si>
+  <si>
+    <t>You successfully saved "Campaign_for_track_with_VidLesson_DocLesson_QuesLesson"</t>
+  </si>
+  <si>
+    <t>Track_for_campaign_Vid_Doc_Question_Lessons</t>
+  </si>
+  <si>
+    <t>Track for Campaign with Video Lesson Document lesson Question  lesson</t>
+  </si>
+  <si>
+    <t>You successfully published "Track_for_campaign_Vid_Doc_Question_Lessons".</t>
+  </si>
+  <si>
+    <t>Lesson_for_CampTrack_VideoL_DocL_QuesL(1)</t>
+  </si>
+  <si>
+    <t>Lesson_for_CampTrack_VideoL_DocL_QuesL(2)</t>
+  </si>
+  <si>
+    <t>Lesson_for_CampTrack_VideoL_DocL_QuesL(3)</t>
+  </si>
+  <si>
+    <t>What is Excel?</t>
+  </si>
+  <si>
+    <t>Spreadsheet</t>
+  </si>
+  <si>
+    <t>Create Campaign for Track with Question Lesson All Cards One/Two times</t>
+  </si>
+  <si>
+    <t>Campaign_for_track_with_QuesLesson_AllCardsOneTwo_Times</t>
+  </si>
+  <si>
+    <t>This campaign is for Track with Question lesson All cards One All cards two time</t>
+  </si>
+  <si>
+    <t>You successfully saved "Campaign_for_track_with_QuesLesson_AllCardsOneTwo_Times"</t>
+  </si>
+  <si>
+    <t>Tracks</t>
+  </si>
+  <si>
+    <t>Create Campaign for Track with Four Lessons One</t>
+  </si>
+  <si>
+    <t>No of attempts</t>
+  </si>
+  <si>
+    <t>Campaign_for_track_with_FourLessons_One</t>
+  </si>
+  <si>
+    <t>This campaign is for Track with Allcards 2 time, TxtImgQue, VidDocQue, TxtVidQue lessons</t>
+  </si>
+  <si>
+    <t>Track_for_campaign_QuesLesson_AllCardsOne_Two_time</t>
+  </si>
+  <si>
+    <t>You successfully saved "Campaign_for_track_with_FourLessons_One"</t>
+  </si>
+  <si>
+    <t>Track for Campaign withQuestion lesson All cards One All cards two time</t>
+  </si>
+  <si>
+    <t>You successfully published "Track_for_campaign_QuesLesson_AllCardsOne_Two_time".</t>
+  </si>
+  <si>
+    <t>Track_for_campaign_QuesLesson_FourLessons_One</t>
+  </si>
+  <si>
+    <t>Lesson_for_CampTrack_Qlessn_AllCard1_AllCrads2(1)</t>
+  </si>
+  <si>
+    <t>Lesson_for_CampTrack_Qlessn_AllCard1_AllCrads2(2)</t>
+  </si>
+  <si>
+    <t>Track for Campaign with  Allcards 2 time, TxtImgQue, VidDocQue, TxtVidQue lessons</t>
+  </si>
+  <si>
+    <t>Lesson_for_CampTrack_Qlessn_AllCard1_AllCrads2(3)</t>
+  </si>
+  <si>
+    <t>This is for Track Campaign</t>
+  </si>
+  <si>
+    <t>You successfully published "Track_for_campaign_QuesLesson_FourLessons_One".</t>
+  </si>
+  <si>
+    <t>Lesson_for_CampTrack_FourLessons_One(1)</t>
+  </si>
+  <si>
+    <t>Lesson_for_CampTrack_FourLessons_One(2)</t>
+  </si>
+  <si>
+    <t>Lesson_for_CampTrack_FourLessons_One(3)</t>
+  </si>
+  <si>
+    <t>Lesson_for_CampTrack_FourLessons_One(4)</t>
+  </si>
+  <si>
+    <t>Create Campaign for Track with Four Lessons Two</t>
+  </si>
+  <si>
+    <t>Campaign_for_track_with_FourLessons_Two</t>
+  </si>
+  <si>
+    <t>This campaign is for Track with TxtVidQue, Text, Image, Question</t>
+  </si>
+  <si>
+    <t>You successfully saved "Campaign_for_track_with_FourLessons_Two"</t>
+  </si>
+  <si>
+    <t>Track_for_campaign_QuesLesson_FourLessons_Two</t>
+  </si>
+  <si>
+    <t>Track for Campaign with TxtVidQue, Text, Image, Question</t>
+  </si>
+  <si>
+    <t>You successfully published "Track_for_campaign_QuesLesson_FourLessons_Two".</t>
+  </si>
+  <si>
+    <t>Lesson_for_CampTrack_FourLessons_Two(1)</t>
+  </si>
+  <si>
+    <t>Lesson_for_CampTrack_FourLessons_Two(2)</t>
+  </si>
+  <si>
+    <t>Lesson_for_CampTrack_FourLessons_Two(3)</t>
+  </si>
+  <si>
+    <t>Lesson_for_CampTrack_FourLessons_Two(4)</t>
+  </si>
+  <si>
+    <t>This is for Track Campaignn</t>
+  </si>
+  <si>
+    <t>Create Campaign for Track with Four Lessons Three</t>
+  </si>
+  <si>
+    <t>Campaign_for_track_with_FourLessons_Three</t>
+  </si>
+  <si>
+    <t>This campaign is for Track with Document, Question, AllcardsOne, AllcardsTwo times</t>
+  </si>
+  <si>
+    <t>You successfully saved "Campaign_for_track_with_FourLessons_Three"</t>
+  </si>
+  <si>
+    <t>Track_for_campaign_QuesLesson_FourLessons_Three</t>
+  </si>
+  <si>
+    <t>Track for Campaign with  Document, Question, AllcardsOne, AllcardsTwo times</t>
+  </si>
+  <si>
+    <t>You successfully published "Track_for_campaign_QuesLesson_FourLessons_Three".</t>
+  </si>
+  <si>
+    <t>Lesson_for_CampTrack_FourLessons_Three(1)</t>
+  </si>
+  <si>
+    <t>Lesson_for_CampTrack_FourLessons_Three(2)</t>
+  </si>
+  <si>
+    <t>Lesson_for_CampTrack_FourLessons_Three(3)</t>
+  </si>
+  <si>
+    <t>Lesson_for_CampTrack_FourLessons_Three(4)</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="20" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <fonts count="22">
     <font>
       <sz val="11"/>
       <color rgb="FF000000"/>
@@ -2051,6 +2570,20 @@
     <font>
       <sz val="14"/>
       <name val="Calibri"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="1"/>
     </font>
   </fonts>
   <fills count="8">
@@ -2214,7 +2747,7 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="48">
+  <cellXfs count="60">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
@@ -2285,6 +2818,7 @@
     <xf numFmtId="0" fontId="18" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="18" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="18" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="7" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
@@ -2297,16 +2831,51 @@
     <xf numFmtId="0" fontId="9" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="9" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="4">
     <cellStyle name="Followed Hyperlink" xfId="3" builtinId="9" hidden="1"/>
@@ -2708,24 +3277,24 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:AMK6"/>
   <sheetViews>
     <sheetView zoomScale="77" zoomScaleNormal="77" zoomScalePageLayoutView="77" workbookViewId="0">
       <selection activeCell="C10" sqref="C10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="23" x14ac:dyDescent="0"/>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="23.25"/>
   <cols>
-    <col min="1" max="1" width="32.5" style="33" customWidth="1" collapsed="1"/>
-    <col min="2" max="2" width="42.83203125" style="33" customWidth="1" collapsed="1"/>
+    <col min="1" max="1" width="32.42578125" style="33" customWidth="1" collapsed="1"/>
+    <col min="2" max="2" width="42.85546875" style="33" customWidth="1" collapsed="1"/>
     <col min="3" max="3" width="26" style="33" customWidth="1" collapsed="1"/>
     <col min="4" max="4" width="38" style="33" customWidth="1" collapsed="1"/>
-    <col min="5" max="1025" width="8.83203125" style="33" collapsed="1"/>
-    <col min="1026" max="16384" width="8.83203125" style="33"/>
+    <col min="5" max="1025" width="8.85546875" style="33" collapsed="1"/>
+    <col min="1026" max="16384" width="8.85546875" style="33"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" ht="25">
+    <row r="1" spans="1:4">
       <c r="A1" s="32" t="s">
         <v>0</v>
       </c>
@@ -2739,7 +3308,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:4" ht="25">
+    <row r="2" spans="1:4">
       <c r="A2" s="34" t="s">
         <v>4</v>
       </c>
@@ -2749,13 +3318,13 @@
       <c r="C2" s="34"/>
       <c r="D2" s="34"/>
     </row>
-    <row r="3" spans="1:4" ht="25">
+    <row r="3" spans="1:4">
       <c r="A3" s="34"/>
       <c r="B3" s="34"/>
       <c r="C3" s="34"/>
       <c r="D3" s="34"/>
     </row>
-    <row r="4" spans="1:4" ht="25">
+    <row r="4" spans="1:4">
       <c r="A4" s="34" t="s">
         <v>6</v>
       </c>
@@ -2767,13 +3336,13 @@
       </c>
       <c r="D4" s="34"/>
     </row>
-    <row r="5" spans="1:4" ht="25">
+    <row r="5" spans="1:4">
       <c r="A5" s="34"/>
       <c r="B5" s="36"/>
       <c r="C5" s="34"/>
       <c r="D5" s="34"/>
     </row>
-    <row r="6" spans="1:4" ht="25">
+    <row r="6" spans="1:4">
       <c r="A6" s="34"/>
       <c r="B6" s="36"/>
       <c r="C6" s="34"/>
@@ -2795,28 +3364,28 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:H5"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="D16" sqref="D16"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="38" defaultRowHeight="18" x14ac:dyDescent="0"/>
+  <sheetFormatPr defaultColWidth="38" defaultRowHeight="18.75"/>
   <cols>
-    <col min="1" max="1" width="33.1640625" style="3" customWidth="1" collapsed="1"/>
-    <col min="2" max="2" width="22.1640625" style="3" customWidth="1" collapsed="1"/>
-    <col min="3" max="3" width="18.5" style="3" customWidth="1" collapsed="1"/>
-    <col min="4" max="4" width="34.83203125" style="3" customWidth="1" collapsed="1"/>
-    <col min="5" max="5" width="19.6640625" style="3" customWidth="1" collapsed="1"/>
-    <col min="6" max="6" width="22.6640625" style="3" customWidth="1" collapsed="1"/>
-    <col min="7" max="7" width="23.83203125" style="3" customWidth="1" collapsed="1"/>
+    <col min="1" max="1" width="33.140625" style="3" customWidth="1" collapsed="1"/>
+    <col min="2" max="2" width="22.140625" style="3" customWidth="1" collapsed="1"/>
+    <col min="3" max="3" width="18.42578125" style="3" customWidth="1" collapsed="1"/>
+    <col min="4" max="4" width="34.85546875" style="3" customWidth="1" collapsed="1"/>
+    <col min="5" max="5" width="19.7109375" style="3" customWidth="1" collapsed="1"/>
+    <col min="6" max="6" width="22.7109375" style="3" customWidth="1" collapsed="1"/>
+    <col min="7" max="7" width="23.85546875" style="3" customWidth="1" collapsed="1"/>
     <col min="8" max="8" width="38" style="3" customWidth="1" collapsed="1"/>
     <col min="9" max="19" width="38" style="3" customWidth="1"/>
     <col min="20" max="16384" width="38" style="3"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" ht="19" customHeight="1">
+    <row r="1" spans="1:8" ht="18.95" customHeight="1">
       <c r="A1" s="1" t="s">
         <v>609</v>
       </c>
@@ -2878,7 +3447,7 @@
       <c r="D3" s="9" t="s">
         <v>618</v>
       </c>
-      <c r="E3" s="47" t="s">
+      <c r="E3" s="40" t="s">
         <v>623</v>
       </c>
       <c r="F3" s="3" t="s">
@@ -2968,20 +3537,20 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:D15"/>
   <sheetViews>
     <sheetView topLeftCell="A2" workbookViewId="0">
       <selection activeCell="C2" sqref="C2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="18" x14ac:dyDescent="0"/>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="18.75"/>
   <cols>
-    <col min="1" max="1" width="41.33203125" style="3" customWidth="1"/>
-    <col min="2" max="2" width="22.33203125" style="3" customWidth="1"/>
-    <col min="3" max="3" width="38.83203125" style="3" customWidth="1"/>
-    <col min="4" max="4" width="20.1640625" style="3" customWidth="1"/>
-    <col min="5" max="16384" width="8.83203125" style="3"/>
+    <col min="1" max="1" width="41.28515625" style="3" customWidth="1"/>
+    <col min="2" max="2" width="22.28515625" style="3" customWidth="1"/>
+    <col min="3" max="3" width="38.85546875" style="3" customWidth="1"/>
+    <col min="4" max="4" width="20.140625" style="3" customWidth="1"/>
+    <col min="5" max="16384" width="8.85546875" style="3"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:4">
@@ -3136,26 +3705,26 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:AMK103"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="C27" sqref="C27"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="60" defaultRowHeight="18" x14ac:dyDescent="0"/>
+  <sheetFormatPr defaultColWidth="60" defaultRowHeight="18.75"/>
   <cols>
     <col min="1" max="1" width="41" style="10" customWidth="1" collapsed="1"/>
-    <col min="2" max="2" width="73.5" style="10" customWidth="1" collapsed="1"/>
+    <col min="2" max="2" width="73.42578125" style="10" customWidth="1" collapsed="1"/>
     <col min="3" max="1025" width="60" style="10" collapsed="1"/>
     <col min="1026" max="16384" width="60" style="10"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:2" ht="15" customHeight="1">
-      <c r="A1" s="41" t="s">
+      <c r="A1" s="42" t="s">
         <v>207</v>
       </c>
-      <c r="B1" s="42"/>
+      <c r="B1" s="43"/>
     </row>
     <row r="2" spans="1:2">
       <c r="A2" s="11" t="s">
@@ -3177,11 +3746,11 @@
       <c r="A4" s="11"/>
       <c r="B4" s="12"/>
     </row>
-    <row r="6" spans="1:2" ht="14" customHeight="1">
-      <c r="A6" s="41" t="s">
+    <row r="6" spans="1:2" ht="14.1" customHeight="1">
+      <c r="A6" s="42" t="s">
         <v>211</v>
       </c>
-      <c r="B6" s="42"/>
+      <c r="B6" s="43"/>
     </row>
     <row r="7" spans="1:2">
       <c r="A7" s="11" t="s">
@@ -3228,10 +3797,10 @@
       <c r="B12" s="12"/>
     </row>
     <row r="14" spans="1:2">
-      <c r="A14" s="40" t="s">
+      <c r="A14" s="41" t="s">
         <v>220</v>
       </c>
-      <c r="B14" s="40"/>
+      <c r="B14" s="41"/>
     </row>
     <row r="15" spans="1:2">
       <c r="A15" s="11" t="s">
@@ -3241,7 +3810,7 @@
         <v>221</v>
       </c>
     </row>
-    <row r="16" spans="1:2" ht="25" customHeight="1">
+    <row r="16" spans="1:2" ht="24.95" customHeight="1">
       <c r="A16" s="11" t="s">
         <v>222</v>
       </c>
@@ -3258,10 +3827,10 @@
       <c r="B18" s="12"/>
     </row>
     <row r="20" spans="1:2">
-      <c r="A20" s="40" t="s">
+      <c r="A20" s="41" t="s">
         <v>223</v>
       </c>
-      <c r="B20" s="40"/>
+      <c r="B20" s="41"/>
     </row>
     <row r="21" spans="1:2">
       <c r="A21" s="11" t="s">
@@ -3292,10 +3861,10 @@
       <c r="B24" s="12"/>
     </row>
     <row r="26" spans="1:2" ht="15" customHeight="1">
-      <c r="A26" s="40" t="s">
+      <c r="A26" s="41" t="s">
         <v>227</v>
       </c>
-      <c r="B26" s="40"/>
+      <c r="B26" s="41"/>
     </row>
     <row r="27" spans="1:2">
       <c r="A27" s="11" t="s">
@@ -3351,33 +3920,33 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:E167"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D9" sqref="D9"/>
+    <sheetView topLeftCell="A166" workbookViewId="0">
+      <selection activeCell="C168" sqref="C168"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="18" x14ac:dyDescent="0"/>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="18.75"/>
   <cols>
-    <col min="1" max="1" width="22.5" style="10" customWidth="1"/>
-    <col min="2" max="2" width="61.6640625" style="10" customWidth="1"/>
+    <col min="1" max="1" width="22.42578125" style="10" customWidth="1"/>
+    <col min="2" max="2" width="61.7109375" style="10" customWidth="1"/>
     <col min="3" max="3" width="31" style="10" customWidth="1"/>
-    <col min="4" max="4" width="66.83203125" style="10" customWidth="1"/>
-    <col min="5" max="6" width="8.83203125" style="10"/>
-    <col min="7" max="7" width="9.1640625" style="10" customWidth="1"/>
-    <col min="8" max="16384" width="8.83203125" style="10"/>
+    <col min="4" max="4" width="66.85546875" style="10" customWidth="1"/>
+    <col min="5" max="6" width="8.85546875" style="10"/>
+    <col min="7" max="7" width="9.140625" style="10" customWidth="1"/>
+    <col min="8" max="16384" width="8.85546875" style="10"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" ht="14" customHeight="1">
-      <c r="A1" s="41" t="s">
+    <row r="1" spans="1:4" ht="14.1" customHeight="1">
+      <c r="A1" s="42" t="s">
         <v>97</v>
       </c>
-      <c r="B1" s="42"/>
-      <c r="C1" s="41" t="s">
+      <c r="B1" s="43"/>
+      <c r="C1" s="42" t="s">
         <v>98</v>
       </c>
-      <c r="D1" s="42"/>
+      <c r="D1" s="43"/>
     </row>
     <row r="2" spans="1:4">
       <c r="A2" s="11" t="s">
@@ -3423,7 +3992,7 @@
         <v>108</v>
       </c>
     </row>
-    <row r="6" spans="1:4">
+    <row r="6" spans="1:4" ht="37.5">
       <c r="A6" s="11" t="s">
         <v>109</v>
       </c>
@@ -3435,15 +4004,15 @@
       <c r="A7" s="11"/>
       <c r="B7" s="11"/>
     </row>
-    <row r="10" spans="1:4" ht="14" customHeight="1">
-      <c r="A10" s="41" t="s">
+    <row r="10" spans="1:4" ht="14.1" customHeight="1">
+      <c r="A10" s="42" t="s">
         <v>111</v>
       </c>
-      <c r="B10" s="42"/>
-      <c r="C10" s="41" t="s">
+      <c r="B10" s="43"/>
+      <c r="C10" s="42" t="s">
         <v>98</v>
       </c>
-      <c r="D10" s="42"/>
+      <c r="D10" s="43"/>
     </row>
     <row r="11" spans="1:4">
       <c r="A11" s="11" t="s">
@@ -3501,7 +4070,7 @@
         <v>119</v>
       </c>
     </row>
-    <row r="15" spans="1:4">
+    <row r="15" spans="1:4" ht="37.5">
       <c r="A15" s="11" t="s">
         <v>109</v>
       </c>
@@ -3513,15 +4082,15 @@
       <c r="A16" s="11"/>
       <c r="B16" s="11"/>
     </row>
-    <row r="18" spans="1:4" ht="14" customHeight="1">
-      <c r="A18" s="41" t="s">
+    <row r="18" spans="1:4" ht="14.1" customHeight="1">
+      <c r="A18" s="42" t="s">
         <v>121</v>
       </c>
-      <c r="B18" s="42"/>
-      <c r="C18" s="41" t="s">
+      <c r="B18" s="43"/>
+      <c r="C18" s="42" t="s">
         <v>98</v>
       </c>
-      <c r="D18" s="42"/>
+      <c r="D18" s="43"/>
     </row>
     <row r="19" spans="1:4">
       <c r="A19" s="11" t="s">
@@ -3571,7 +4140,7 @@
       <c r="C22" s="13"/>
       <c r="D22" s="14"/>
     </row>
-    <row r="23" spans="1:4">
+    <row r="23" spans="1:4" ht="37.5">
       <c r="A23" s="11" t="s">
         <v>109</v>
       </c>
@@ -3583,15 +4152,15 @@
       <c r="A24" s="11"/>
       <c r="B24" s="11"/>
     </row>
-    <row r="26" spans="1:4" ht="14" customHeight="1">
-      <c r="A26" s="41" t="s">
+    <row r="26" spans="1:4" ht="14.1" customHeight="1">
+      <c r="A26" s="42" t="s">
         <v>127</v>
       </c>
-      <c r="B26" s="42"/>
-      <c r="C26" s="41" t="s">
+      <c r="B26" s="43"/>
+      <c r="C26" s="42" t="s">
         <v>98</v>
       </c>
-      <c r="D26" s="42"/>
+      <c r="D26" s="43"/>
     </row>
     <row r="27" spans="1:4">
       <c r="A27" s="11" t="s">
@@ -3645,7 +4214,7 @@
       <c r="C30" s="11"/>
       <c r="D30" s="12"/>
     </row>
-    <row r="31" spans="1:4">
+    <row r="31" spans="1:4" ht="37.5">
       <c r="A31" s="11" t="s">
         <v>109</v>
       </c>
@@ -3657,15 +4226,15 @@
       <c r="A32" s="11"/>
       <c r="B32" s="11"/>
     </row>
-    <row r="34" spans="1:4" ht="14" customHeight="1">
-      <c r="A34" s="41" t="s">
+    <row r="34" spans="1:4" ht="14.1" customHeight="1">
+      <c r="A34" s="42" t="s">
         <v>134</v>
       </c>
-      <c r="B34" s="42"/>
-      <c r="C34" s="41" t="s">
+      <c r="B34" s="43"/>
+      <c r="C34" s="42" t="s">
         <v>98</v>
       </c>
-      <c r="D34" s="42"/>
+      <c r="D34" s="43"/>
     </row>
     <row r="35" spans="1:4">
       <c r="A35" s="11" t="s">
@@ -3719,7 +4288,7 @@
       <c r="C38" s="11"/>
       <c r="D38" s="12"/>
     </row>
-    <row r="39" spans="1:4" ht="36">
+    <row r="39" spans="1:4" ht="37.5">
       <c r="A39" s="11" t="s">
         <v>109</v>
       </c>
@@ -3731,15 +4300,15 @@
       <c r="A40" s="11"/>
       <c r="B40" s="11"/>
     </row>
-    <row r="43" spans="1:4" ht="14" customHeight="1">
-      <c r="A43" s="41" t="s">
+    <row r="43" spans="1:4" ht="14.1" customHeight="1">
+      <c r="A43" s="42" t="s">
         <v>141</v>
       </c>
-      <c r="B43" s="42"/>
-      <c r="C43" s="41" t="s">
+      <c r="B43" s="43"/>
+      <c r="C43" s="42" t="s">
         <v>98</v>
       </c>
-      <c r="D43" s="42"/>
+      <c r="D43" s="43"/>
     </row>
     <row r="44" spans="1:4">
       <c r="A44" s="11" t="s">
@@ -3769,7 +4338,7 @@
         <v>145</v>
       </c>
     </row>
-    <row r="46" spans="1:4">
+    <row r="46" spans="1:4" ht="37.5">
       <c r="A46" s="11" t="s">
         <v>105</v>
       </c>
@@ -3797,7 +4366,7 @@
         <v>149</v>
       </c>
     </row>
-    <row r="48" spans="1:4" ht="36">
+    <row r="48" spans="1:4" ht="37.5">
       <c r="A48" s="11" t="s">
         <v>109</v>
       </c>
@@ -3821,18 +4390,18 @@
         <v>153</v>
       </c>
     </row>
-    <row r="52" spans="1:5" ht="14" customHeight="1">
-      <c r="A52" s="41" t="s">
+    <row r="52" spans="1:5" ht="14.1" customHeight="1">
+      <c r="A52" s="42" t="s">
         <v>154</v>
       </c>
-      <c r="B52" s="42"/>
-      <c r="C52" s="41" t="s">
+      <c r="B52" s="43"/>
+      <c r="C52" s="42" t="s">
         <v>98</v>
       </c>
-      <c r="D52" s="42"/>
+      <c r="D52" s="43"/>
       <c r="E52" s="11"/>
     </row>
-    <row r="53" spans="1:5" ht="54">
+    <row r="53" spans="1:5" ht="93.75">
       <c r="A53" s="11" t="s">
         <v>99</v>
       </c>
@@ -3866,7 +4435,7 @@
         <v>200</v>
       </c>
     </row>
-    <row r="55" spans="1:5">
+    <row r="55" spans="1:5" ht="37.5">
       <c r="A55" s="11" t="s">
         <v>105</v>
       </c>
@@ -3896,7 +4465,7 @@
       </c>
       <c r="E56" s="11"/>
     </row>
-    <row r="57" spans="1:5" ht="36">
+    <row r="57" spans="1:5" ht="37.5">
       <c r="A57" s="11" t="s">
         <v>109</v>
       </c>
@@ -3922,15 +4491,15 @@
       </c>
       <c r="E58" s="11"/>
     </row>
-    <row r="60" spans="1:5" ht="14" customHeight="1">
-      <c r="A60" s="41" t="s">
+    <row r="60" spans="1:5" ht="14.1" customHeight="1">
+      <c r="A60" s="42" t="s">
         <v>162</v>
       </c>
-      <c r="B60" s="42"/>
-      <c r="C60" s="41" t="s">
+      <c r="B60" s="43"/>
+      <c r="C60" s="42" t="s">
         <v>98</v>
       </c>
-      <c r="D60" s="42"/>
+      <c r="D60" s="43"/>
     </row>
     <row r="61" spans="1:5">
       <c r="A61" s="11" t="s">
@@ -3988,7 +4557,7 @@
         <v>149</v>
       </c>
     </row>
-    <row r="65" spans="1:4" ht="36">
+    <row r="65" spans="1:4" ht="37.5">
       <c r="A65" s="11" t="s">
         <v>109</v>
       </c>
@@ -4022,15 +4591,15 @@
         <v>200</v>
       </c>
     </row>
-    <row r="70" spans="1:4" ht="14" customHeight="1">
+    <row r="70" spans="1:4" ht="14.1" customHeight="1">
       <c r="A70" s="45" t="s">
         <v>169</v>
       </c>
       <c r="B70" s="46"/>
-      <c r="C70" s="41" t="s">
+      <c r="C70" s="42" t="s">
         <v>170</v>
       </c>
-      <c r="D70" s="42"/>
+      <c r="D70" s="43"/>
     </row>
     <row r="71" spans="1:4">
       <c r="A71" s="11" t="s">
@@ -4060,19 +4629,19 @@
         <v>174</v>
       </c>
     </row>
-    <row r="73" spans="1:4">
+    <row r="73" spans="1:4" ht="37.5">
       <c r="A73" s="11" t="s">
         <v>105</v>
       </c>
       <c r="B73" s="12" t="s">
         <v>175</v>
       </c>
-      <c r="C73" s="41" t="s">
+      <c r="C73" s="42" t="s">
         <v>176</v>
       </c>
-      <c r="D73" s="42"/>
-    </row>
-    <row r="74" spans="1:4">
+      <c r="D73" s="43"/>
+    </row>
+    <row r="74" spans="1:4" ht="37.5">
       <c r="A74" s="11" t="s">
         <v>107</v>
       </c>
@@ -4086,7 +4655,7 @@
         <v>178</v>
       </c>
     </row>
-    <row r="75" spans="1:4" ht="36">
+    <row r="75" spans="1:4" ht="37.5">
       <c r="A75" s="11" t="s">
         <v>109</v>
       </c>
@@ -4112,17 +4681,17 @@
       <c r="C77" s="11"/>
       <c r="D77" s="11"/>
     </row>
-    <row r="79" spans="1:4" ht="14" customHeight="1">
+    <row r="79" spans="1:4" ht="14.1" customHeight="1">
       <c r="A79" s="45" t="s">
         <v>181</v>
       </c>
       <c r="B79" s="46"/>
-      <c r="C79" s="41" t="s">
+      <c r="C79" s="42" t="s">
         <v>182</v>
       </c>
-      <c r="D79" s="42"/>
-    </row>
-    <row r="80" spans="1:4">
+      <c r="D79" s="43"/>
+    </row>
+    <row r="80" spans="1:4" ht="37.5">
       <c r="A80" s="11" t="s">
         <v>99</v>
       </c>
@@ -4150,19 +4719,19 @@
         <v>455</v>
       </c>
     </row>
-    <row r="82" spans="1:4">
+    <row r="82" spans="1:4" ht="37.5">
       <c r="A82" s="11" t="s">
         <v>105</v>
       </c>
       <c r="B82" s="12" t="s">
         <v>186</v>
       </c>
-      <c r="C82" s="41" t="s">
+      <c r="C82" s="42" t="s">
         <v>187</v>
       </c>
-      <c r="D82" s="42"/>
-    </row>
-    <row r="83" spans="1:4">
+      <c r="D82" s="43"/>
+    </row>
+    <row r="83" spans="1:4" ht="37.5">
       <c r="A83" s="11" t="s">
         <v>107</v>
       </c>
@@ -4176,7 +4745,7 @@
         <v>189</v>
       </c>
     </row>
-    <row r="84" spans="1:4" ht="36">
+    <row r="84" spans="1:4" ht="37.5">
       <c r="A84" s="11" t="s">
         <v>109</v>
       </c>
@@ -4200,17 +4769,17 @@
         <v>200</v>
       </c>
     </row>
-    <row r="88" spans="1:4" ht="14" customHeight="1">
-      <c r="A88" s="43" t="s">
+    <row r="88" spans="1:4" ht="14.1" customHeight="1">
+      <c r="A88" s="44" t="s">
         <v>192</v>
       </c>
-      <c r="B88" s="43"/>
-      <c r="C88" s="40" t="s">
+      <c r="B88" s="44"/>
+      <c r="C88" s="41" t="s">
         <v>187</v>
       </c>
-      <c r="D88" s="40"/>
-    </row>
-    <row r="89" spans="1:4">
+      <c r="D88" s="41"/>
+    </row>
+    <row r="89" spans="1:4" ht="37.5">
       <c r="A89" s="11" t="s">
         <v>99</v>
       </c>
@@ -4238,7 +4807,7 @@
         <v>456</v>
       </c>
     </row>
-    <row r="91" spans="1:4">
+    <row r="91" spans="1:4" ht="37.5">
       <c r="A91" s="11" t="s">
         <v>105</v>
       </c>
@@ -4259,12 +4828,12 @@
       <c r="B92" s="12" t="s">
         <v>148</v>
       </c>
-      <c r="C92" s="40" t="s">
+      <c r="C92" s="41" t="s">
         <v>196</v>
       </c>
-      <c r="D92" s="40"/>
-    </row>
-    <row r="93" spans="1:4" ht="36">
+      <c r="D92" s="41"/>
+    </row>
+    <row r="93" spans="1:4" ht="56.25">
       <c r="A93" s="11" t="s">
         <v>109</v>
       </c>
@@ -4301,12 +4870,12 @@
     <row r="96" spans="1:4">
       <c r="A96" s="11"/>
       <c r="B96" s="11"/>
-      <c r="C96" s="40" t="s">
+      <c r="C96" s="41" t="s">
         <v>201</v>
       </c>
-      <c r="D96" s="40"/>
-    </row>
-    <row r="97" spans="1:4">
+      <c r="D96" s="41"/>
+    </row>
+    <row r="97" spans="1:4" ht="37.5">
       <c r="A97" s="11"/>
       <c r="B97" s="11"/>
       <c r="C97" s="11" t="s">
@@ -4346,17 +4915,17 @@
         <v>153</v>
       </c>
     </row>
-    <row r="103" spans="1:4" ht="14" customHeight="1">
-      <c r="A103" s="43" t="s">
+    <row r="103" spans="1:4" ht="14.1" customHeight="1">
+      <c r="A103" s="44" t="s">
         <v>204</v>
       </c>
-      <c r="B103" s="43"/>
-      <c r="C103" s="40" t="s">
+      <c r="B103" s="44"/>
+      <c r="C103" s="41" t="s">
         <v>229</v>
       </c>
-      <c r="D103" s="40"/>
-    </row>
-    <row r="104" spans="1:4">
+      <c r="D103" s="41"/>
+    </row>
+    <row r="104" spans="1:4" ht="37.5">
       <c r="A104" s="11" t="s">
         <v>99</v>
       </c>
@@ -4377,12 +4946,12 @@
       <c r="B105" s="12" t="s">
         <v>455</v>
       </c>
-      <c r="C105" s="41" t="s">
+      <c r="C105" s="42" t="s">
         <v>231</v>
       </c>
-      <c r="D105" s="42"/>
-    </row>
-    <row r="106" spans="1:4" ht="36">
+      <c r="D105" s="43"/>
+    </row>
+    <row r="106" spans="1:4" ht="37.5">
       <c r="A106" s="11" t="s">
         <v>105</v>
       </c>
@@ -4396,7 +4965,7 @@
         <v>233</v>
       </c>
     </row>
-    <row r="107" spans="1:4" ht="36">
+    <row r="107" spans="1:4" ht="37.5">
       <c r="A107" s="11" t="s">
         <v>107</v>
       </c>
@@ -4410,7 +4979,7 @@
         <v>235</v>
       </c>
     </row>
-    <row r="108" spans="1:4" ht="36">
+    <row r="108" spans="1:4" ht="37.5">
       <c r="A108" s="11" t="s">
         <v>109</v>
       </c>
@@ -4495,14 +5064,14 @@
       </c>
     </row>
     <row r="118" spans="1:4">
-      <c r="A118" s="43" t="s">
+      <c r="A118" s="44" t="s">
         <v>238</v>
       </c>
-      <c r="B118" s="43"/>
-      <c r="C118" s="40" t="s">
+      <c r="B118" s="44"/>
+      <c r="C118" s="41" t="s">
         <v>239</v>
       </c>
-      <c r="D118" s="40"/>
+      <c r="D118" s="41"/>
     </row>
     <row r="119" spans="1:4">
       <c r="A119" s="11" t="s">
@@ -4560,7 +5129,7 @@
         <v>456</v>
       </c>
     </row>
-    <row r="123" spans="1:4">
+    <row r="123" spans="1:4" ht="37.5">
       <c r="A123" s="11" t="s">
         <v>109</v>
       </c>
@@ -4585,10 +5154,10 @@
       </c>
     </row>
     <row r="125" spans="1:4">
-      <c r="A125" s="44" t="s">
+      <c r="A125" s="47" t="s">
         <v>244</v>
       </c>
-      <c r="B125" s="42"/>
+      <c r="B125" s="43"/>
       <c r="C125" s="11" t="s">
         <v>24</v>
       </c>
@@ -4624,7 +5193,7 @@
         <v>153</v>
       </c>
     </row>
-    <row r="128" spans="1:4" ht="36">
+    <row r="128" spans="1:4" ht="37.5">
       <c r="A128" s="11" t="s">
         <v>109</v>
       </c>
@@ -4635,14 +5204,14 @@
       <c r="D128" s="12"/>
     </row>
     <row r="131" spans="1:4">
-      <c r="A131" s="43" t="s">
+      <c r="A131" s="44" t="s">
         <v>249</v>
       </c>
-      <c r="B131" s="43"/>
-      <c r="C131" s="40" t="s">
+      <c r="B131" s="44"/>
+      <c r="C131" s="41" t="s">
         <v>250</v>
       </c>
-      <c r="D131" s="40"/>
+      <c r="D131" s="41"/>
     </row>
     <row r="132" spans="1:4">
       <c r="A132" s="11" t="s">
@@ -4700,7 +5269,7 @@
         <v>200</v>
       </c>
     </row>
-    <row r="136" spans="1:4">
+    <row r="136" spans="1:4" ht="37.5">
       <c r="A136" s="11" t="s">
         <v>109</v>
       </c>
@@ -4724,7 +5293,7 @@
         <v>149</v>
       </c>
     </row>
-    <row r="138" spans="1:4" ht="36">
+    <row r="138" spans="1:4" ht="56.25">
       <c r="A138" s="15" t="s">
         <v>254</v>
       </c>
@@ -4738,7 +5307,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="139" spans="1:4" ht="54">
+    <row r="139" spans="1:4" ht="56.25">
       <c r="A139" s="15" t="s">
         <v>256</v>
       </c>
@@ -4752,7 +5321,7 @@
         <v>153</v>
       </c>
     </row>
-    <row r="140" spans="1:4" ht="54">
+    <row r="140" spans="1:4" ht="56.25">
       <c r="A140" s="15" t="s">
         <v>258</v>
       </c>
@@ -4762,7 +5331,7 @@
       <c r="C140" s="11"/>
       <c r="D140" s="11"/>
     </row>
-    <row r="141" spans="1:4" ht="54">
+    <row r="141" spans="1:4" ht="56.25">
       <c r="A141" s="15" t="s">
         <v>260</v>
       </c>
@@ -4773,14 +5342,14 @@
       <c r="D141" s="11"/>
     </row>
     <row r="144" spans="1:4">
-      <c r="A144" s="43" t="s">
+      <c r="A144" s="44" t="s">
         <v>262</v>
       </c>
-      <c r="B144" s="43"/>
-      <c r="C144" s="40" t="s">
+      <c r="B144" s="44"/>
+      <c r="C144" s="41" t="s">
         <v>250</v>
       </c>
-      <c r="D144" s="40"/>
+      <c r="D144" s="41"/>
     </row>
     <row r="145" spans="1:4">
       <c r="A145" s="11" t="s">
@@ -4838,7 +5407,7 @@
         <v>200</v>
       </c>
     </row>
-    <row r="149" spans="1:4" ht="36">
+    <row r="149" spans="1:4" ht="37.5">
       <c r="A149" s="11" t="s">
         <v>109</v>
       </c>
@@ -4862,7 +5431,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="151" spans="1:4" ht="54">
+    <row r="151" spans="1:4" ht="56.25">
       <c r="A151" s="15" t="s">
         <v>265</v>
       </c>
@@ -4876,7 +5445,7 @@
         <v>153</v>
       </c>
     </row>
-    <row r="152" spans="1:4" ht="36">
+    <row r="152" spans="1:4" ht="56.25">
       <c r="A152" s="15" t="s">
         <v>267</v>
       </c>
@@ -4886,7 +5455,7 @@
       <c r="C152" s="11"/>
       <c r="D152" s="11"/>
     </row>
-    <row r="153" spans="1:4" ht="36">
+    <row r="153" spans="1:4" ht="56.25">
       <c r="A153" s="15" t="s">
         <v>269</v>
       </c>
@@ -4896,7 +5465,7 @@
       <c r="C153" s="11"/>
       <c r="D153" s="11"/>
     </row>
-    <row r="154" spans="1:4" ht="36">
+    <row r="154" spans="1:4" ht="56.25">
       <c r="A154" s="15" t="s">
         <v>271</v>
       </c>
@@ -4907,14 +5476,14 @@
       <c r="D154" s="11"/>
     </row>
     <row r="157" spans="1:4">
-      <c r="A157" s="43" t="s">
+      <c r="A157" s="44" t="s">
         <v>273</v>
       </c>
-      <c r="B157" s="43"/>
-      <c r="C157" s="40" t="s">
+      <c r="B157" s="44"/>
+      <c r="C157" s="41" t="s">
         <v>250</v>
       </c>
-      <c r="D157" s="40"/>
+      <c r="D157" s="41"/>
     </row>
     <row r="158" spans="1:4">
       <c r="A158" s="11" t="s">
@@ -4972,7 +5541,7 @@
         <v>200</v>
       </c>
     </row>
-    <row r="162" spans="1:4" ht="36">
+    <row r="162" spans="1:4" ht="37.5">
       <c r="A162" s="11" t="s">
         <v>109</v>
       </c>
@@ -4996,7 +5565,7 @@
         <v>200</v>
       </c>
     </row>
-    <row r="164" spans="1:4" ht="54">
+    <row r="164" spans="1:4" ht="56.25">
       <c r="A164" s="15" t="s">
         <v>265</v>
       </c>
@@ -5010,7 +5579,7 @@
         <v>149</v>
       </c>
     </row>
-    <row r="165" spans="1:4" ht="36">
+    <row r="165" spans="1:4" ht="56.25">
       <c r="A165" s="15" t="s">
         <v>267</v>
       </c>
@@ -5024,7 +5593,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="166" spans="1:4" ht="36">
+    <row r="166" spans="1:4" ht="56.25">
       <c r="A166" s="15" t="s">
         <v>269</v>
       </c>
@@ -5038,7 +5607,7 @@
         <v>153</v>
       </c>
     </row>
-    <row r="167" spans="1:4" ht="36">
+    <row r="167" spans="1:4" ht="56.25">
       <c r="A167" s="15" t="s">
         <v>271</v>
       </c>
@@ -5048,6 +5617,34 @@
     </row>
   </sheetData>
   <mergeCells count="38">
+    <mergeCell ref="A144:B144"/>
+    <mergeCell ref="C144:D144"/>
+    <mergeCell ref="A157:B157"/>
+    <mergeCell ref="C157:D157"/>
+    <mergeCell ref="C105:D105"/>
+    <mergeCell ref="A118:B118"/>
+    <mergeCell ref="C118:D118"/>
+    <mergeCell ref="A125:B125"/>
+    <mergeCell ref="A131:B131"/>
+    <mergeCell ref="C131:D131"/>
+    <mergeCell ref="A1:B1"/>
+    <mergeCell ref="C1:D1"/>
+    <mergeCell ref="A10:B10"/>
+    <mergeCell ref="C10:D10"/>
+    <mergeCell ref="A18:B18"/>
+    <mergeCell ref="C18:D18"/>
+    <mergeCell ref="A26:B26"/>
+    <mergeCell ref="C26:D26"/>
+    <mergeCell ref="A34:B34"/>
+    <mergeCell ref="C34:D34"/>
+    <mergeCell ref="A43:B43"/>
+    <mergeCell ref="C43:D43"/>
+    <mergeCell ref="A52:B52"/>
+    <mergeCell ref="C52:D52"/>
+    <mergeCell ref="A60:B60"/>
+    <mergeCell ref="C60:D60"/>
+    <mergeCell ref="A70:B70"/>
+    <mergeCell ref="C70:D70"/>
     <mergeCell ref="C92:D92"/>
     <mergeCell ref="C96:D96"/>
     <mergeCell ref="A103:B103"/>
@@ -5058,34 +5655,6 @@
     <mergeCell ref="C82:D82"/>
     <mergeCell ref="A88:B88"/>
     <mergeCell ref="C88:D88"/>
-    <mergeCell ref="A52:B52"/>
-    <mergeCell ref="C52:D52"/>
-    <mergeCell ref="A60:B60"/>
-    <mergeCell ref="C60:D60"/>
-    <mergeCell ref="A70:B70"/>
-    <mergeCell ref="C70:D70"/>
-    <mergeCell ref="A26:B26"/>
-    <mergeCell ref="C26:D26"/>
-    <mergeCell ref="A34:B34"/>
-    <mergeCell ref="C34:D34"/>
-    <mergeCell ref="A43:B43"/>
-    <mergeCell ref="C43:D43"/>
-    <mergeCell ref="A1:B1"/>
-    <mergeCell ref="C1:D1"/>
-    <mergeCell ref="A10:B10"/>
-    <mergeCell ref="C10:D10"/>
-    <mergeCell ref="A18:B18"/>
-    <mergeCell ref="C18:D18"/>
-    <mergeCell ref="A144:B144"/>
-    <mergeCell ref="C144:D144"/>
-    <mergeCell ref="A157:B157"/>
-    <mergeCell ref="C157:D157"/>
-    <mergeCell ref="C105:D105"/>
-    <mergeCell ref="A118:B118"/>
-    <mergeCell ref="C118:D118"/>
-    <mergeCell ref="A125:B125"/>
-    <mergeCell ref="A131:B131"/>
-    <mergeCell ref="C131:D131"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <extLst>
@@ -5097,26 +5666,26 @@
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:J52"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A31" sqref="A31"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="18" x14ac:dyDescent="0"/>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="18.75"/>
   <cols>
-    <col min="1" max="1" width="26.6640625" style="3" customWidth="1"/>
-    <col min="2" max="2" width="39.5" style="3" customWidth="1"/>
-    <col min="3" max="3" width="40.6640625" style="3" customWidth="1"/>
-    <col min="4" max="4" width="33.33203125" style="3" customWidth="1"/>
-    <col min="5" max="5" width="23.5" style="3" customWidth="1"/>
-    <col min="6" max="6" width="52.83203125" style="3" customWidth="1"/>
-    <col min="7" max="7" width="20.33203125" style="3" customWidth="1"/>
-    <col min="8" max="8" width="32.1640625" style="3" customWidth="1"/>
+    <col min="1" max="1" width="26.7109375" style="3" customWidth="1"/>
+    <col min="2" max="2" width="39.42578125" style="3" customWidth="1"/>
+    <col min="3" max="3" width="40.7109375" style="3" customWidth="1"/>
+    <col min="4" max="4" width="33.28515625" style="3" customWidth="1"/>
+    <col min="5" max="5" width="23.42578125" style="3" customWidth="1"/>
+    <col min="6" max="6" width="52.85546875" style="3" customWidth="1"/>
+    <col min="7" max="7" width="20.28515625" style="3" customWidth="1"/>
+    <col min="8" max="8" width="32.140625" style="3" customWidth="1"/>
     <col min="9" max="9" width="42" style="3" customWidth="1"/>
-    <col min="10" max="10" width="40.6640625" style="3" customWidth="1"/>
-    <col min="11" max="16384" width="8.83203125" style="3"/>
+    <col min="10" max="10" width="40.7109375" style="3" customWidth="1"/>
+    <col min="11" max="16384" width="8.85546875" style="3"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:10">
@@ -5290,7 +5859,7 @@
         <v>284</v>
       </c>
     </row>
-    <row r="22" spans="1:7" ht="108">
+    <row r="22" spans="1:7" ht="150">
       <c r="A22" s="10" t="s">
         <v>285</v>
       </c>
@@ -5313,7 +5882,7 @@
         <v>291</v>
       </c>
     </row>
-    <row r="23" spans="1:7" ht="36">
+    <row r="23" spans="1:7" ht="56.25">
       <c r="A23" s="10" t="s">
         <v>292</v>
       </c>
@@ -5327,7 +5896,7 @@
         <v>295</v>
       </c>
     </row>
-    <row r="24" spans="1:7">
+    <row r="24" spans="1:7" ht="37.5">
       <c r="A24" s="10" t="s">
         <v>296</v>
       </c>
@@ -5355,7 +5924,7 @@
         <v>301</v>
       </c>
     </row>
-    <row r="27" spans="1:7" ht="126">
+    <row r="27" spans="1:7" ht="168.75">
       <c r="A27" s="10" t="s">
         <v>302</v>
       </c>
@@ -5366,12 +5935,12 @@
         <v>303</v>
       </c>
     </row>
-    <row r="28" spans="1:7" ht="36">
+    <row r="28" spans="1:7" ht="37.5">
       <c r="A28" s="10" t="s">
         <v>304</v>
       </c>
     </row>
-    <row r="29" spans="1:7" ht="108">
+    <row r="29" spans="1:7" ht="168.75">
       <c r="A29" s="10" t="s">
         <v>305</v>
       </c>
@@ -5391,7 +5960,7 @@
         <v>309</v>
       </c>
     </row>
-    <row r="30" spans="1:7" ht="108">
+    <row r="30" spans="1:7" ht="112.5">
       <c r="A30" s="10" t="s">
         <v>310</v>
       </c>
@@ -5402,7 +5971,7 @@
         <v>312</v>
       </c>
     </row>
-    <row r="31" spans="1:7">
+    <row r="31" spans="1:7" ht="37.5">
       <c r="A31" s="10" t="s">
         <v>454</v>
       </c>
@@ -5412,7 +5981,7 @@
         <v>313</v>
       </c>
     </row>
-    <row r="34" spans="1:9" ht="144">
+    <row r="34" spans="1:9" ht="187.5">
       <c r="A34" s="18">
         <v>12</v>
       </c>
@@ -5449,7 +6018,7 @@
         <v>320</v>
       </c>
     </row>
-    <row r="36" spans="1:9" ht="72">
+    <row r="36" spans="1:9" ht="93.75">
       <c r="A36" s="3" t="s">
         <v>321</v>
       </c>
@@ -5468,7 +6037,7 @@
         <v>325</v>
       </c>
     </row>
-    <row r="38" spans="1:9" ht="54">
+    <row r="38" spans="1:9" ht="56.25">
       <c r="A38" s="10" t="s">
         <v>326</v>
       </c>
@@ -5487,7 +6056,7 @@
         <v>330</v>
       </c>
     </row>
-    <row r="40" spans="1:9" ht="36">
+    <row r="40" spans="1:9" ht="56.25">
       <c r="A40" s="3" t="s">
         <v>331</v>
       </c>
@@ -5501,7 +6070,7 @@
         <v>334</v>
       </c>
     </row>
-    <row r="41" spans="1:9" ht="36">
+    <row r="41" spans="1:9" ht="37.5">
       <c r="A41" s="3" t="s">
         <v>335</v>
       </c>
@@ -5515,7 +6084,7 @@
         <v>334</v>
       </c>
     </row>
-    <row r="42" spans="1:9" ht="90">
+    <row r="42" spans="1:9" ht="112.5">
       <c r="A42" s="10" t="s">
         <v>338</v>
       </c>
@@ -5534,7 +6103,7 @@
         <v>342</v>
       </c>
     </row>
-    <row r="44" spans="1:9" ht="108">
+    <row r="44" spans="1:9" ht="131.25">
       <c r="A44" s="10" t="s">
         <v>343</v>
       </c>
@@ -5556,7 +6125,7 @@
         <v>348</v>
       </c>
     </row>
-    <row r="46" spans="1:9" ht="108">
+    <row r="46" spans="1:9" ht="131.25">
       <c r="A46" s="18">
         <v>11</v>
       </c>
@@ -5585,7 +6154,7 @@
         <v>291</v>
       </c>
     </row>
-    <row r="47" spans="1:9" ht="90">
+    <row r="47" spans="1:9" ht="93.75">
       <c r="A47" s="3" t="s">
         <v>352</v>
       </c>
@@ -5619,7 +6188,7 @@
         <v>360</v>
       </c>
     </row>
-    <row r="49" spans="1:6" ht="90">
+    <row r="49" spans="1:6" ht="112.5">
       <c r="A49" s="3" t="s">
         <v>361</v>
       </c>
@@ -5639,7 +6208,7 @@
         <v>365</v>
       </c>
     </row>
-    <row r="50" spans="1:6" ht="90">
+    <row r="50" spans="1:6" ht="93.75">
       <c r="A50" s="3" t="s">
         <v>366</v>
       </c>
@@ -5661,7 +6230,7 @@
         <v>371</v>
       </c>
     </row>
-    <row r="52" spans="1:6" ht="198">
+    <row r="52" spans="1:6" ht="281.25">
       <c r="A52" s="10" t="s">
         <v>372</v>
       </c>
@@ -5689,21 +6258,21 @@
 </file>
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:E35"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A7" sqref="A7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="18" x14ac:dyDescent="0"/>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="18.75"/>
   <cols>
-    <col min="1" max="1" width="61.5" style="21" customWidth="1" collapsed="1"/>
+    <col min="1" max="1" width="61.42578125" style="21" customWidth="1" collapsed="1"/>
     <col min="2" max="2" width="28" style="21" customWidth="1" collapsed="1"/>
-    <col min="3" max="3" width="43.5" style="21" customWidth="1" collapsed="1"/>
-    <col min="4" max="4" width="46.5" style="21" customWidth="1" collapsed="1"/>
+    <col min="3" max="3" width="43.42578125" style="21" customWidth="1" collapsed="1"/>
+    <col min="4" max="4" width="46.42578125" style="21" customWidth="1" collapsed="1"/>
     <col min="5" max="5" width="36" style="21" customWidth="1"/>
-    <col min="6" max="16384" width="8.83203125" style="21"/>
+    <col min="6" max="16384" width="8.85546875" style="21"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:5">
@@ -5723,7 +6292,7 @@
         <v>380</v>
       </c>
     </row>
-    <row r="2" spans="1:5" ht="36">
+    <row r="2" spans="1:5" ht="37.5">
       <c r="A2" s="22" t="s">
         <v>381</v>
       </c>
@@ -5740,7 +6309,7 @@
         <v>385</v>
       </c>
     </row>
-    <row r="3" spans="1:5" ht="36">
+    <row r="3" spans="1:5" ht="37.5">
       <c r="A3" s="22" t="s">
         <v>386</v>
       </c>
@@ -5755,7 +6324,7 @@
       </c>
       <c r="E3" s="22"/>
     </row>
-    <row r="4" spans="1:5" ht="36">
+    <row r="4" spans="1:5" ht="37.5">
       <c r="A4" s="22" t="s">
         <v>388</v>
       </c>
@@ -5770,7 +6339,7 @@
       </c>
       <c r="E4" s="23"/>
     </row>
-    <row r="5" spans="1:5" ht="36">
+    <row r="5" spans="1:5" ht="37.5">
       <c r="A5" s="22" t="s">
         <v>390</v>
       </c>
@@ -5785,7 +6354,7 @@
       </c>
       <c r="E5" s="23"/>
     </row>
-    <row r="6" spans="1:5" ht="36">
+    <row r="6" spans="1:5" ht="37.5">
       <c r="A6" s="22" t="s">
         <v>392</v>
       </c>
@@ -5800,7 +6369,7 @@
       </c>
       <c r="E6" s="23"/>
     </row>
-    <row r="7" spans="1:5" ht="36">
+    <row r="7" spans="1:5" ht="37.5">
       <c r="A7" s="22" t="s">
         <v>394</v>
       </c>
@@ -5815,7 +6384,7 @@
       </c>
       <c r="E7" s="23"/>
     </row>
-    <row r="8" spans="1:5" ht="36">
+    <row r="8" spans="1:5" ht="37.5">
       <c r="A8" s="22" t="s">
         <v>396</v>
       </c>
@@ -5830,7 +6399,7 @@
       </c>
       <c r="E8" s="23"/>
     </row>
-    <row r="9" spans="1:5" ht="36">
+    <row r="9" spans="1:5" ht="37.5">
       <c r="A9" s="22" t="s">
         <v>398</v>
       </c>
@@ -5845,7 +6414,7 @@
       </c>
       <c r="E9" s="23"/>
     </row>
-    <row r="10" spans="1:5" ht="36">
+    <row r="10" spans="1:5" ht="37.5">
       <c r="A10" s="22" t="s">
         <v>400</v>
       </c>
@@ -5860,7 +6429,7 @@
       </c>
       <c r="E10" s="23"/>
     </row>
-    <row r="11" spans="1:5" ht="36">
+    <row r="11" spans="1:5" ht="37.5">
       <c r="A11" s="22" t="s">
         <v>402</v>
       </c>
@@ -5875,7 +6444,7 @@
       </c>
       <c r="E11" s="23"/>
     </row>
-    <row r="12" spans="1:5" ht="36">
+    <row r="12" spans="1:5" ht="37.5">
       <c r="A12" s="22" t="s">
         <v>404</v>
       </c>
@@ -5890,7 +6459,7 @@
       </c>
       <c r="E12" s="25"/>
     </row>
-    <row r="13" spans="1:5" ht="36">
+    <row r="13" spans="1:5" ht="37.5">
       <c r="A13" s="22" t="s">
         <v>406</v>
       </c>
@@ -5905,7 +6474,7 @@
       </c>
       <c r="E13" s="25"/>
     </row>
-    <row r="14" spans="1:5" ht="36">
+    <row r="14" spans="1:5" ht="37.5">
       <c r="A14" s="22" t="s">
         <v>408</v>
       </c>
@@ -5920,7 +6489,7 @@
       </c>
       <c r="E14" s="25"/>
     </row>
-    <row r="15" spans="1:5" ht="36">
+    <row r="15" spans="1:5" ht="37.5">
       <c r="A15" s="22" t="s">
         <v>410</v>
       </c>
@@ -5935,7 +6504,7 @@
       </c>
       <c r="E15" s="25"/>
     </row>
-    <row r="16" spans="1:5" ht="36">
+    <row r="16" spans="1:5" ht="37.5">
       <c r="A16" s="22" t="s">
         <v>412</v>
       </c>
@@ -5950,7 +6519,7 @@
       </c>
       <c r="E16" s="25"/>
     </row>
-    <row r="17" spans="1:5" ht="36">
+    <row r="17" spans="1:5" ht="37.5">
       <c r="A17" s="22" t="s">
         <v>414</v>
       </c>
@@ -5965,7 +6534,7 @@
       </c>
       <c r="E17" s="25"/>
     </row>
-    <row r="18" spans="1:5" ht="36">
+    <row r="18" spans="1:5" ht="37.5">
       <c r="A18" s="26" t="s">
         <v>416</v>
       </c>
@@ -5980,7 +6549,7 @@
       </c>
       <c r="E18" s="25"/>
     </row>
-    <row r="19" spans="1:5" ht="36">
+    <row r="19" spans="1:5" ht="37.5">
       <c r="A19" s="22" t="s">
         <v>418</v>
       </c>
@@ -5995,7 +6564,7 @@
       </c>
       <c r="E19" s="25"/>
     </row>
-    <row r="20" spans="1:5" ht="36">
+    <row r="20" spans="1:5" ht="37.5">
       <c r="A20" s="22" t="s">
         <v>420</v>
       </c>
@@ -6009,7 +6578,7 @@
         <v>384</v>
       </c>
     </row>
-    <row r="21" spans="1:5" ht="36">
+    <row r="21" spans="1:5" ht="37.5">
       <c r="A21" s="22" t="s">
         <v>422</v>
       </c>
@@ -6023,7 +6592,7 @@
         <v>384</v>
       </c>
     </row>
-    <row r="22" spans="1:5" ht="36">
+    <row r="22" spans="1:5" ht="37.5">
       <c r="A22" s="22" t="s">
         <v>424</v>
       </c>
@@ -6037,7 +6606,7 @@
         <v>384</v>
       </c>
     </row>
-    <row r="23" spans="1:5" ht="36">
+    <row r="23" spans="1:5" ht="37.5">
       <c r="A23" s="22" t="s">
         <v>426</v>
       </c>
@@ -6051,7 +6620,7 @@
         <v>384</v>
       </c>
     </row>
-    <row r="24" spans="1:5" ht="36">
+    <row r="24" spans="1:5" ht="37.5">
       <c r="A24" s="22" t="s">
         <v>428</v>
       </c>
@@ -6065,7 +6634,7 @@
         <v>384</v>
       </c>
     </row>
-    <row r="25" spans="1:5" ht="36">
+    <row r="25" spans="1:5" ht="37.5">
       <c r="A25" s="22" t="s">
         <v>430</v>
       </c>
@@ -6079,7 +6648,7 @@
         <v>384</v>
       </c>
     </row>
-    <row r="26" spans="1:5" ht="36">
+    <row r="26" spans="1:5" ht="37.5">
       <c r="A26" s="22" t="s">
         <v>432</v>
       </c>
@@ -6093,7 +6662,7 @@
         <v>384</v>
       </c>
     </row>
-    <row r="27" spans="1:5" ht="36">
+    <row r="27" spans="1:5" ht="37.5">
       <c r="A27" s="22" t="s">
         <v>434</v>
       </c>
@@ -6107,7 +6676,7 @@
         <v>384</v>
       </c>
     </row>
-    <row r="28" spans="1:5" ht="36">
+    <row r="28" spans="1:5" ht="37.5">
       <c r="A28" s="22" t="s">
         <v>436</v>
       </c>
@@ -6121,7 +6690,7 @@
         <v>384</v>
       </c>
     </row>
-    <row r="29" spans="1:5" ht="36">
+    <row r="29" spans="1:5" ht="37.5">
       <c r="A29" s="22" t="s">
         <v>438</v>
       </c>
@@ -6135,7 +6704,7 @@
         <v>384</v>
       </c>
     </row>
-    <row r="30" spans="1:5" ht="36">
+    <row r="30" spans="1:5" ht="37.5">
       <c r="A30" s="22" t="s">
         <v>440</v>
       </c>
@@ -6149,7 +6718,7 @@
         <v>384</v>
       </c>
     </row>
-    <row r="31" spans="1:5" ht="36">
+    <row r="31" spans="1:5" ht="37.5">
       <c r="A31" s="22" t="s">
         <v>442</v>
       </c>
@@ -6163,7 +6732,7 @@
         <v>384</v>
       </c>
     </row>
-    <row r="32" spans="1:5" ht="36">
+    <row r="32" spans="1:5" ht="37.5">
       <c r="A32" s="22" t="s">
         <v>444</v>
       </c>
@@ -6177,7 +6746,7 @@
         <v>384</v>
       </c>
     </row>
-    <row r="33" spans="1:4" ht="36">
+    <row r="33" spans="1:4" ht="37.5">
       <c r="A33" s="22" t="s">
         <v>446</v>
       </c>
@@ -6191,7 +6760,7 @@
         <v>384</v>
       </c>
     </row>
-    <row r="34" spans="1:4" ht="36">
+    <row r="34" spans="1:4" ht="37.5">
       <c r="A34" s="22" t="s">
         <v>448</v>
       </c>
@@ -6205,7 +6774,7 @@
         <v>384</v>
       </c>
     </row>
-    <row r="35" spans="1:4" ht="36">
+    <row r="35" spans="1:4" ht="37.5">
       <c r="A35" s="22" t="s">
         <v>450</v>
       </c>
@@ -6230,1733 +6799,3873 @@
 </file>
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E242"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:H331"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="E45" sqref="E45"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C232" sqref="C232"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="18" x14ac:dyDescent="0"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="31.5" style="10" customWidth="1"/>
-    <col min="2" max="2" width="74.83203125" style="10" customWidth="1"/>
-    <col min="3" max="3" width="22.33203125" style="10" customWidth="1"/>
-    <col min="4" max="4" width="28" style="10" customWidth="1"/>
-    <col min="5" max="5" width="57.5" style="10" customWidth="1"/>
-    <col min="6" max="16384" width="8.83203125" style="10"/>
+    <col min="1" max="1" width="31.5703125" style="49" customWidth="1"/>
+    <col min="2" max="2" width="46.85546875" style="49" customWidth="1"/>
+    <col min="3" max="3" width="22.28515625" style="49" customWidth="1"/>
+    <col min="4" max="4" width="35.7109375" style="49" customWidth="1"/>
+    <col min="5" max="5" width="33" style="49" customWidth="1"/>
+    <col min="6" max="6" width="48.140625" style="49" customWidth="1"/>
+    <col min="7" max="7" width="26.140625" style="49" customWidth="1"/>
+    <col min="8" max="8" width="29.5703125" style="49" customWidth="1"/>
+    <col min="9" max="16384" width="9.140625" style="49"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5">
-      <c r="A1" s="40" t="s">
+    <row r="1" spans="1:8">
+      <c r="A1" s="48" t="s">
         <v>459</v>
       </c>
-      <c r="B1" s="40"/>
-      <c r="D1" s="41" t="s">
+      <c r="B1" s="48"/>
+      <c r="D1" s="50" t="s">
         <v>460</v>
       </c>
-      <c r="E1" s="42"/>
-    </row>
-    <row r="2" spans="1:5" ht="30" customHeight="1">
-      <c r="A2" s="11" t="s">
+      <c r="E1" s="51"/>
+      <c r="G1" s="50" t="s">
+        <v>626</v>
+      </c>
+      <c r="H1" s="51"/>
+    </row>
+    <row r="2" spans="1:8" ht="30" customHeight="1">
+      <c r="A2" s="52" t="s">
         <v>461</v>
       </c>
-      <c r="B2" s="12" t="s">
+      <c r="B2" s="53" t="s">
         <v>462</v>
       </c>
-      <c r="D2" s="11" t="s">
+      <c r="D2" s="52" t="s">
         <v>463</v>
       </c>
-      <c r="E2" s="11" t="s">
+      <c r="E2" s="52" t="s">
         <v>464</v>
       </c>
-    </row>
-    <row r="3" spans="1:5" ht="33" customHeight="1">
-      <c r="A3" s="11" t="s">
+      <c r="G2" s="52" t="s">
+        <v>463</v>
+      </c>
+      <c r="H2" s="52" t="s">
+        <v>627</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8" ht="28.5" customHeight="1">
+      <c r="A3" s="52" t="s">
         <v>465</v>
       </c>
-      <c r="B3" s="12" t="s">
+      <c r="B3" s="53" t="s">
         <v>466</v>
       </c>
-      <c r="D3" s="11" t="s">
+      <c r="D3" s="52" t="s">
         <v>467</v>
       </c>
-      <c r="E3" s="11" t="s">
+      <c r="E3" s="52" t="s">
         <v>468</v>
       </c>
-    </row>
-    <row r="4" spans="1:5">
-      <c r="A4" s="11" t="s">
+      <c r="G3" s="52" t="s">
+        <v>467</v>
+      </c>
+      <c r="H3" s="52" t="s">
+        <v>628</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8" ht="45">
+      <c r="A4" s="52" t="s">
         <v>469</v>
       </c>
-      <c r="B4" s="12" t="s">
+      <c r="B4" s="53" t="s">
         <v>470</v>
       </c>
-      <c r="D4" s="11" t="s">
+      <c r="D4" s="52" t="s">
         <v>109</v>
       </c>
-      <c r="E4" s="11" t="s">
+      <c r="E4" s="52" t="s">
         <v>471</v>
       </c>
-    </row>
-    <row r="5" spans="1:5">
-      <c r="A5" s="11" t="s">
+      <c r="G4" s="52" t="s">
+        <v>109</v>
+      </c>
+      <c r="H4" s="52" t="s">
+        <v>629</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8">
+      <c r="A5" s="52" t="s">
         <v>472</v>
       </c>
-      <c r="B5" s="12" t="s">
+      <c r="B5" s="53" t="s">
         <v>473</v>
       </c>
-      <c r="D5" s="41" t="s">
+      <c r="D5" s="50" t="s">
         <v>474</v>
       </c>
-      <c r="E5" s="42"/>
-    </row>
-    <row r="6" spans="1:5">
-      <c r="A6" s="11" t="s">
+      <c r="E5" s="51"/>
+      <c r="G5" s="54" t="s">
+        <v>630</v>
+      </c>
+      <c r="H5" s="55"/>
+    </row>
+    <row r="6" spans="1:8" ht="30">
+      <c r="A6" s="52" t="s">
         <v>475</v>
       </c>
-      <c r="B6" s="12" t="s">
+      <c r="B6" s="53" t="s">
         <v>476</v>
       </c>
-      <c r="D6" s="11" t="s">
+      <c r="D6" s="52" t="s">
         <v>212</v>
       </c>
-      <c r="E6" s="11" t="s">
+      <c r="E6" s="52" t="s">
         <v>477</v>
       </c>
-    </row>
-    <row r="7" spans="1:5">
-      <c r="A7" s="11" t="s">
+      <c r="G6" s="52" t="s">
+        <v>99</v>
+      </c>
+      <c r="H6" s="52" t="s">
+        <v>631</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8" ht="30">
+      <c r="A7" s="52" t="s">
         <v>478</v>
       </c>
-      <c r="B7" s="12" t="s">
+      <c r="B7" s="53" t="s">
         <v>479</v>
       </c>
-      <c r="D7" s="11" t="s">
+      <c r="D7" s="52" t="s">
         <v>165</v>
       </c>
-      <c r="E7" s="11" t="s">
+      <c r="E7" s="52" t="s">
         <v>480</v>
       </c>
-    </row>
-    <row r="8" spans="1:5">
-      <c r="A8" s="11" t="s">
+      <c r="G7" s="52" t="s">
+        <v>147</v>
+      </c>
+      <c r="H7" s="52" t="s">
+        <v>455</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8" ht="30">
+      <c r="A8" s="52" t="s">
         <v>481</v>
       </c>
-      <c r="B8" s="12" t="s">
+      <c r="B8" s="53" t="s">
         <v>482</v>
       </c>
-      <c r="D8" s="11"/>
-      <c r="E8" s="11"/>
-    </row>
-    <row r="9" spans="1:5">
-      <c r="A9" s="11" t="s">
+      <c r="D8" s="52"/>
+      <c r="E8" s="52"/>
+      <c r="G8" s="52" t="s">
+        <v>105</v>
+      </c>
+      <c r="H8" s="52" t="s">
+        <v>632</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8">
+      <c r="A9" s="52" t="s">
         <v>483</v>
       </c>
-      <c r="B9" s="12" t="s">
+      <c r="B9" s="53" t="s">
         <v>484</v>
       </c>
-      <c r="D9" s="11"/>
-      <c r="E9" s="11"/>
-    </row>
-    <row r="10" spans="1:5">
-      <c r="A10" s="11" t="s">
+      <c r="D9" s="52"/>
+      <c r="E9" s="52"/>
+      <c r="G9" s="52" t="s">
+        <v>378</v>
+      </c>
+      <c r="H9" s="52" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8" ht="45">
+      <c r="A10" s="52" t="s">
         <v>485</v>
       </c>
-      <c r="B10" s="12" t="s">
+      <c r="B10" s="53" t="s">
         <v>486</v>
       </c>
-      <c r="D10" s="11"/>
-      <c r="E10" s="11"/>
-    </row>
-    <row r="11" spans="1:5">
-      <c r="A11" s="11"/>
-      <c r="B11" s="12" t="s">
+      <c r="D10" s="52"/>
+      <c r="E10" s="52"/>
+      <c r="G10" s="52" t="s">
+        <v>633</v>
+      </c>
+      <c r="H10" s="52" t="s">
+        <v>634</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8">
+      <c r="A11" s="52"/>
+      <c r="B11" s="53" t="s">
         <v>487</v>
       </c>
-      <c r="D11" s="11"/>
-      <c r="E11" s="11"/>
-    </row>
-    <row r="12" spans="1:5">
-      <c r="A12" s="11"/>
-      <c r="B12" s="12" t="s">
+      <c r="D11" s="52"/>
+      <c r="E11" s="52"/>
+      <c r="G11" s="56" t="s">
+        <v>474</v>
+      </c>
+      <c r="H11" s="57"/>
+    </row>
+    <row r="12" spans="1:8" ht="30">
+      <c r="A12" s="52"/>
+      <c r="B12" s="53" t="s">
         <v>488</v>
       </c>
-    </row>
-    <row r="13" spans="1:5">
-      <c r="A13" s="11"/>
-      <c r="B13" s="11"/>
-    </row>
-    <row r="16" spans="1:5">
-      <c r="A16" s="41" t="s">
+      <c r="G12" s="52" t="s">
+        <v>23</v>
+      </c>
+      <c r="H12" s="52" t="s">
+        <v>635</v>
+      </c>
+    </row>
+    <row r="13" spans="1:8">
+      <c r="A13" s="52"/>
+      <c r="B13" s="52"/>
+      <c r="G13" s="52" t="s">
+        <v>236</v>
+      </c>
+      <c r="H13" s="52" t="s">
+        <v>636</v>
+      </c>
+    </row>
+    <row r="15" spans="1:8">
+      <c r="D15" s="50" t="s">
+        <v>637</v>
+      </c>
+      <c r="E15" s="51"/>
+    </row>
+    <row r="16" spans="1:8" ht="30">
+      <c r="A16" s="50" t="s">
         <v>489</v>
       </c>
-      <c r="B16" s="42"/>
-    </row>
-    <row r="17" spans="1:2">
-      <c r="A17" s="11" t="s">
+      <c r="B16" s="51"/>
+      <c r="D16" s="52" t="s">
         <v>463</v>
       </c>
-      <c r="B17" s="11" t="s">
+      <c r="E16" s="52" t="s">
+        <v>638</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5" ht="30">
+      <c r="A17" s="52" t="s">
+        <v>463</v>
+      </c>
+      <c r="B17" s="52" t="s">
         <v>490</v>
       </c>
-    </row>
-    <row r="18" spans="1:2">
-      <c r="A18" s="11" t="s">
+      <c r="D17" s="52" t="s">
         <v>467</v>
       </c>
-      <c r="B18" s="11" t="s">
+      <c r="E17" s="52" t="s">
+        <v>639</v>
+      </c>
+    </row>
+    <row r="18" spans="1:5" ht="45">
+      <c r="A18" s="52" t="s">
+        <v>467</v>
+      </c>
+      <c r="B18" s="52" t="s">
         <v>491</v>
       </c>
-    </row>
-    <row r="19" spans="1:2">
-      <c r="A19" s="11" t="s">
+      <c r="D18" s="52" t="s">
         <v>109</v>
       </c>
-      <c r="B19" s="11" t="s">
+      <c r="E18" s="52" t="s">
+        <v>640</v>
+      </c>
+    </row>
+    <row r="19" spans="1:5" ht="30">
+      <c r="A19" s="52" t="s">
+        <v>109</v>
+      </c>
+      <c r="B19" s="52" t="s">
         <v>492</v>
       </c>
-    </row>
-    <row r="20" spans="1:2">
-      <c r="A20" s="41" t="s">
+      <c r="D19" s="54" t="s">
+        <v>630</v>
+      </c>
+      <c r="E19" s="55"/>
+    </row>
+    <row r="20" spans="1:5">
+      <c r="A20" s="50" t="s">
         <v>474</v>
       </c>
-      <c r="B20" s="42"/>
-    </row>
-    <row r="21" spans="1:2">
-      <c r="A21" s="11" t="s">
+      <c r="B20" s="51"/>
+      <c r="D20" s="52" t="s">
+        <v>99</v>
+      </c>
+      <c r="E20" s="52" t="s">
+        <v>641</v>
+      </c>
+    </row>
+    <row r="21" spans="1:5" ht="30">
+      <c r="A21" s="52" t="s">
         <v>212</v>
       </c>
-      <c r="B21" s="11" t="s">
+      <c r="B21" s="52" t="s">
         <v>493</v>
       </c>
-    </row>
-    <row r="22" spans="1:2">
-      <c r="A22" s="11" t="s">
+      <c r="D21" s="52" t="s">
+        <v>147</v>
+      </c>
+      <c r="E21" s="52" t="s">
+        <v>455</v>
+      </c>
+    </row>
+    <row r="22" spans="1:5" ht="30">
+      <c r="A22" s="52" t="s">
         <v>494</v>
       </c>
-      <c r="B22" s="11" t="s">
+      <c r="B22" s="52" t="s">
         <v>455</v>
       </c>
-    </row>
-    <row r="23" spans="1:2">
-      <c r="A23" s="11"/>
-      <c r="B23" s="11"/>
-    </row>
-    <row r="26" spans="1:2">
-      <c r="A26" s="41" t="s">
+      <c r="D22" s="52" t="s">
+        <v>105</v>
+      </c>
+      <c r="E22" s="52" t="s">
+        <v>642</v>
+      </c>
+    </row>
+    <row r="23" spans="1:5">
+      <c r="A23" s="52"/>
+      <c r="B23" s="52"/>
+      <c r="D23" s="52" t="s">
+        <v>378</v>
+      </c>
+      <c r="E23" s="52" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="24" spans="1:5" ht="45">
+      <c r="D24" s="52" t="s">
+        <v>633</v>
+      </c>
+      <c r="E24" s="52" t="s">
+        <v>643</v>
+      </c>
+    </row>
+    <row r="25" spans="1:5">
+      <c r="D25" s="54" t="s">
+        <v>474</v>
+      </c>
+      <c r="E25" s="55"/>
+    </row>
+    <row r="26" spans="1:5" ht="18.75" customHeight="1">
+      <c r="A26" s="50" t="s">
         <v>495</v>
       </c>
-      <c r="B26" s="42"/>
-    </row>
-    <row r="27" spans="1:2">
-      <c r="A27" s="11" t="s">
+      <c r="B26" s="51"/>
+      <c r="D26" s="52" t="s">
+        <v>23</v>
+      </c>
+      <c r="E26" s="52" t="s">
+        <v>644</v>
+      </c>
+    </row>
+    <row r="27" spans="1:5" ht="30">
+      <c r="A27" s="52" t="s">
         <v>463</v>
       </c>
-      <c r="B27" s="11" t="s">
+      <c r="B27" s="52" t="s">
         <v>496</v>
       </c>
-    </row>
-    <row r="28" spans="1:2">
-      <c r="A28" s="11" t="s">
+      <c r="D27" s="52" t="s">
+        <v>147</v>
+      </c>
+      <c r="E27" s="52" t="s">
+        <v>455</v>
+      </c>
+    </row>
+    <row r="28" spans="1:5">
+      <c r="A28" s="52" t="s">
         <v>467</v>
       </c>
-      <c r="B28" s="11" t="s">
+      <c r="B28" s="52" t="s">
         <v>497</v>
       </c>
     </row>
-    <row r="29" spans="1:2">
-      <c r="A29" s="11" t="s">
+    <row r="29" spans="1:5" ht="30">
+      <c r="A29" s="52" t="s">
         <v>109</v>
       </c>
-      <c r="B29" s="11" t="s">
+      <c r="B29" s="52" t="s">
         <v>498</v>
       </c>
     </row>
-    <row r="30" spans="1:2">
-      <c r="A30" s="41" t="s">
+    <row r="30" spans="1:5">
+      <c r="A30" s="50" t="s">
         <v>474</v>
       </c>
-      <c r="B30" s="42"/>
-    </row>
-    <row r="31" spans="1:2">
-      <c r="A31" s="11" t="s">
+      <c r="B30" s="51"/>
+      <c r="D30" s="50" t="s">
+        <v>645</v>
+      </c>
+      <c r="E30" s="51"/>
+    </row>
+    <row r="31" spans="1:5" ht="30">
+      <c r="A31" s="52" t="s">
         <v>212</v>
       </c>
-      <c r="B31" s="11" t="s">
+      <c r="B31" s="52" t="s">
         <v>499</v>
       </c>
-    </row>
-    <row r="32" spans="1:2">
-      <c r="A32" s="11" t="s">
+      <c r="D31" s="52" t="s">
+        <v>463</v>
+      </c>
+      <c r="E31" s="52" t="s">
+        <v>646</v>
+      </c>
+    </row>
+    <row r="32" spans="1:5" ht="30">
+      <c r="A32" s="52" t="s">
         <v>500</v>
       </c>
-      <c r="B32" s="11" t="s">
+      <c r="B32" s="52" t="s">
         <v>456</v>
       </c>
-    </row>
-    <row r="33" spans="1:2">
-      <c r="A33" s="11" t="s">
+      <c r="D32" s="52" t="s">
+        <v>467</v>
+      </c>
+      <c r="E32" s="52" t="s">
+        <v>647</v>
+      </c>
+    </row>
+    <row r="33" spans="1:5" ht="45">
+      <c r="A33" s="52" t="s">
         <v>132</v>
       </c>
-      <c r="B33" s="11">
+      <c r="B33" s="52">
         <v>200</v>
       </c>
-    </row>
-    <row r="35" spans="1:2">
-      <c r="A35" s="41" t="s">
+      <c r="D33" s="52" t="s">
+        <v>109</v>
+      </c>
+      <c r="E33" s="52" t="s">
+        <v>648</v>
+      </c>
+    </row>
+    <row r="34" spans="1:5">
+      <c r="D34" s="54" t="s">
+        <v>630</v>
+      </c>
+      <c r="E34" s="55"/>
+    </row>
+    <row r="35" spans="1:5" ht="18.75" customHeight="1">
+      <c r="A35" s="50" t="s">
         <v>501</v>
       </c>
-      <c r="B35" s="42"/>
-    </row>
-    <row r="36" spans="1:2">
-      <c r="A36" s="11" t="s">
+      <c r="B35" s="51"/>
+      <c r="D35" s="52" t="s">
+        <v>99</v>
+      </c>
+      <c r="E35" s="52" t="s">
+        <v>649</v>
+      </c>
+    </row>
+    <row r="36" spans="1:5" ht="30">
+      <c r="A36" s="52" t="s">
         <v>463</v>
       </c>
-      <c r="B36" s="11" t="s">
+      <c r="B36" s="52" t="s">
         <v>502</v>
       </c>
-    </row>
-    <row r="37" spans="1:2">
-      <c r="A37" s="11" t="s">
+      <c r="D36" s="52" t="s">
+        <v>147</v>
+      </c>
+      <c r="E36" s="52" t="s">
+        <v>455</v>
+      </c>
+    </row>
+    <row r="37" spans="1:5" ht="30">
+      <c r="A37" s="52" t="s">
         <v>467</v>
       </c>
-      <c r="B37" s="11" t="s">
+      <c r="B37" s="52" t="s">
         <v>503</v>
       </c>
-    </row>
-    <row r="38" spans="1:2">
-      <c r="A38" s="11" t="s">
+      <c r="D37" s="52" t="s">
+        <v>105</v>
+      </c>
+      <c r="E37" s="52" t="s">
+        <v>650</v>
+      </c>
+    </row>
+    <row r="38" spans="1:5" ht="30">
+      <c r="A38" s="52" t="s">
         <v>109</v>
       </c>
-      <c r="B38" s="11" t="s">
+      <c r="B38" s="52" t="s">
         <v>504</v>
       </c>
-    </row>
-    <row r="39" spans="1:2">
-      <c r="A39" s="41" t="s">
+      <c r="D38" s="52" t="s">
+        <v>378</v>
+      </c>
+      <c r="E38" s="52" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="39" spans="1:5" ht="45">
+      <c r="A39" s="50" t="s">
         <v>474</v>
       </c>
-      <c r="B39" s="42"/>
-    </row>
-    <row r="40" spans="1:2">
-      <c r="A40" s="11" t="s">
+      <c r="B39" s="51"/>
+      <c r="D39" s="52" t="s">
+        <v>633</v>
+      </c>
+      <c r="E39" s="52" t="s">
+        <v>651</v>
+      </c>
+    </row>
+    <row r="40" spans="1:5">
+      <c r="A40" s="52" t="s">
         <v>212</v>
       </c>
-      <c r="B40" s="11" t="s">
+      <c r="B40" s="52" t="s">
         <v>505</v>
       </c>
-    </row>
-    <row r="41" spans="1:2">
-      <c r="A41" s="11" t="s">
+      <c r="D40" s="54" t="s">
+        <v>474</v>
+      </c>
+      <c r="E40" s="55"/>
+    </row>
+    <row r="41" spans="1:5" ht="30">
+      <c r="A41" s="52" t="s">
         <v>500</v>
       </c>
-      <c r="B41" s="11" t="s">
+      <c r="B41" s="52" t="s">
         <v>457</v>
       </c>
-    </row>
-    <row r="42" spans="1:2">
-      <c r="A42" s="11" t="s">
+      <c r="D41" s="52" t="s">
+        <v>23</v>
+      </c>
+      <c r="E41" s="52" t="s">
+        <v>652</v>
+      </c>
+    </row>
+    <row r="42" spans="1:5" ht="30">
+      <c r="A42" s="52" t="s">
         <v>132</v>
       </c>
-      <c r="B42" s="11">
+      <c r="B42" s="52">
         <v>200</v>
       </c>
-    </row>
-    <row r="44" spans="1:2">
-      <c r="A44" s="41" t="s">
+      <c r="D42" s="52" t="s">
+        <v>557</v>
+      </c>
+      <c r="E42" s="52" t="s">
+        <v>456</v>
+      </c>
+    </row>
+    <row r="43" spans="1:5">
+      <c r="D43" s="52" t="s">
+        <v>132</v>
+      </c>
+      <c r="E43" s="52">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="44" spans="1:5" ht="18.75" customHeight="1">
+      <c r="A44" s="50" t="s">
         <v>506</v>
       </c>
-      <c r="B44" s="42"/>
-    </row>
-    <row r="45" spans="1:2">
-      <c r="A45" s="11" t="s">
+      <c r="B44" s="51"/>
+    </row>
+    <row r="45" spans="1:5">
+      <c r="A45" s="52" t="s">
         <v>463</v>
       </c>
-      <c r="B45" s="11" t="s">
+      <c r="B45" s="52" t="s">
         <v>507</v>
       </c>
     </row>
-    <row r="46" spans="1:2">
-      <c r="A46" s="11" t="s">
+    <row r="46" spans="1:5">
+      <c r="A46" s="52" t="s">
         <v>467</v>
       </c>
-      <c r="B46" s="11" t="s">
+      <c r="B46" s="52" t="s">
         <v>508</v>
       </c>
-    </row>
-    <row r="47" spans="1:2">
-      <c r="A47" s="11" t="s">
+      <c r="D46" s="50" t="s">
+        <v>653</v>
+      </c>
+      <c r="E46" s="51"/>
+    </row>
+    <row r="47" spans="1:5" ht="30">
+      <c r="A47" s="52" t="s">
         <v>109</v>
       </c>
-      <c r="B47" s="11" t="s">
+      <c r="B47" s="52" t="s">
         <v>509</v>
       </c>
-    </row>
-    <row r="48" spans="1:2">
-      <c r="A48" s="41" t="s">
+      <c r="D47" s="52" t="s">
+        <v>463</v>
+      </c>
+      <c r="E47" s="52" t="s">
+        <v>654</v>
+      </c>
+    </row>
+    <row r="48" spans="1:5" ht="30">
+      <c r="A48" s="50" t="s">
         <v>474</v>
       </c>
-      <c r="B48" s="42"/>
-    </row>
-    <row r="49" spans="1:2">
-      <c r="A49" s="11" t="s">
+      <c r="B48" s="51"/>
+      <c r="D48" s="52" t="s">
+        <v>467</v>
+      </c>
+      <c r="E48" s="52" t="s">
+        <v>655</v>
+      </c>
+    </row>
+    <row r="49" spans="1:5" ht="45">
+      <c r="A49" s="52" t="s">
         <v>212</v>
       </c>
-      <c r="B49" s="11" t="s">
+      <c r="B49" s="52" t="s">
         <v>510</v>
       </c>
-    </row>
-    <row r="50" spans="1:2">
-      <c r="A50" s="11" t="s">
+      <c r="D49" s="52" t="s">
+        <v>109</v>
+      </c>
+      <c r="E49" s="52" t="s">
+        <v>656</v>
+      </c>
+    </row>
+    <row r="50" spans="1:5">
+      <c r="A50" s="52" t="s">
         <v>24</v>
       </c>
-      <c r="B50" s="11" t="s">
+      <c r="B50" s="52" t="s">
         <v>511</v>
       </c>
-    </row>
-    <row r="51" spans="1:2">
-      <c r="A51" s="11" t="s">
+      <c r="D50" s="54" t="s">
+        <v>630</v>
+      </c>
+      <c r="E50" s="55"/>
+    </row>
+    <row r="51" spans="1:5" ht="30">
+      <c r="A51" s="52" t="s">
         <v>151</v>
       </c>
-      <c r="B51" s="11" t="s">
+      <c r="B51" s="52" t="s">
         <v>512</v>
       </c>
-    </row>
-    <row r="52" spans="1:2">
-      <c r="A52" s="11" t="s">
+      <c r="D51" s="52" t="s">
+        <v>99</v>
+      </c>
+      <c r="E51" s="52" t="s">
+        <v>657</v>
+      </c>
+    </row>
+    <row r="52" spans="1:5" ht="30">
+      <c r="A52" s="52" t="s">
         <v>152</v>
       </c>
-      <c r="B52" s="11" t="s">
+      <c r="B52" s="52" t="s">
         <v>25</v>
       </c>
-    </row>
-    <row r="53" spans="1:2">
-      <c r="A53" s="11" t="s">
+      <c r="D52" s="52" t="s">
+        <v>147</v>
+      </c>
+      <c r="E52" s="52" t="s">
+        <v>455</v>
+      </c>
+    </row>
+    <row r="53" spans="1:5" ht="30">
+      <c r="A53" s="52" t="s">
         <v>513</v>
       </c>
-      <c r="B53" s="11">
+      <c r="B53" s="52">
         <v>2</v>
       </c>
-    </row>
-    <row r="55" spans="1:2">
-      <c r="A55" s="41" t="s">
+      <c r="D53" s="52" t="s">
+        <v>105</v>
+      </c>
+      <c r="E53" s="52" t="s">
+        <v>658</v>
+      </c>
+    </row>
+    <row r="54" spans="1:5">
+      <c r="D54" s="52" t="s">
+        <v>378</v>
+      </c>
+      <c r="E54" s="52" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="55" spans="1:5" ht="18.75" customHeight="1">
+      <c r="A55" s="50" t="s">
         <v>514</v>
       </c>
-      <c r="B55" s="42"/>
-    </row>
-    <row r="56" spans="1:2">
-      <c r="A56" s="11" t="s">
+      <c r="B55" s="51"/>
+      <c r="D55" s="52" t="s">
+        <v>633</v>
+      </c>
+      <c r="E55" s="52" t="s">
+        <v>659</v>
+      </c>
+    </row>
+    <row r="56" spans="1:5">
+      <c r="A56" s="52" t="s">
         <v>463</v>
       </c>
-      <c r="B56" s="11" t="s">
+      <c r="B56" s="52" t="s">
         <v>515</v>
       </c>
-    </row>
-    <row r="57" spans="1:2">
-      <c r="A57" s="11" t="s">
+      <c r="D56" s="54" t="s">
+        <v>474</v>
+      </c>
+      <c r="E56" s="55"/>
+    </row>
+    <row r="57" spans="1:5" ht="30">
+      <c r="A57" s="52" t="s">
         <v>467</v>
       </c>
-      <c r="B57" s="11" t="s">
+      <c r="B57" s="52" t="s">
         <v>516</v>
       </c>
-    </row>
-    <row r="58" spans="1:2">
-      <c r="A58" s="11" t="s">
+      <c r="D57" s="52" t="s">
+        <v>23</v>
+      </c>
+      <c r="E57" s="52" t="s">
+        <v>660</v>
+      </c>
+    </row>
+    <row r="58" spans="1:5" ht="30">
+      <c r="A58" s="52" t="s">
         <v>109</v>
       </c>
-      <c r="B58" s="11" t="s">
+      <c r="B58" s="52" t="s">
         <v>517</v>
       </c>
-    </row>
-    <row r="59" spans="1:2">
-      <c r="A59" s="41" t="s">
+      <c r="D58" s="52" t="s">
+        <v>564</v>
+      </c>
+      <c r="E58" s="52" t="s">
+        <v>457</v>
+      </c>
+    </row>
+    <row r="59" spans="1:5">
+      <c r="A59" s="50" t="s">
         <v>474</v>
       </c>
-      <c r="B59" s="42"/>
-    </row>
-    <row r="60" spans="1:2">
-      <c r="A60" s="11" t="s">
+      <c r="B59" s="51"/>
+      <c r="D59" s="52" t="s">
+        <v>139</v>
+      </c>
+      <c r="E59" s="52">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="60" spans="1:5">
+      <c r="A60" s="52" t="s">
         <v>212</v>
       </c>
-      <c r="B60" s="11" t="s">
+      <c r="B60" s="52" t="s">
         <v>518</v>
       </c>
     </row>
-    <row r="61" spans="1:2">
-      <c r="A61" s="11" t="s">
+    <row r="61" spans="1:5">
+      <c r="A61" s="52" t="s">
         <v>236</v>
       </c>
-      <c r="B61" s="11" t="s">
+      <c r="B61" s="52" t="s">
         <v>519</v>
       </c>
     </row>
-    <row r="62" spans="1:2">
-      <c r="A62" s="11" t="s">
+    <row r="62" spans="1:5" ht="30">
+      <c r="A62" s="52" t="s">
         <v>180</v>
       </c>
-      <c r="B62" s="11" t="s">
+      <c r="B62" s="52" t="s">
         <v>455</v>
       </c>
-    </row>
-    <row r="63" spans="1:2">
-      <c r="A63" s="11" t="s">
+      <c r="D62" s="50" t="s">
+        <v>661</v>
+      </c>
+      <c r="E62" s="51"/>
+    </row>
+    <row r="63" spans="1:5" ht="30">
+      <c r="A63" s="52" t="s">
         <v>191</v>
       </c>
-      <c r="B63" s="11" t="s">
+      <c r="B63" s="52" t="s">
         <v>456</v>
       </c>
-    </row>
-    <row r="64" spans="1:2">
-      <c r="A64" s="11" t="s">
+      <c r="D63" s="52" t="s">
+        <v>463</v>
+      </c>
+      <c r="E63" s="52" t="s">
+        <v>662</v>
+      </c>
+    </row>
+    <row r="64" spans="1:5" ht="30">
+      <c r="A64" s="52" t="s">
         <v>132</v>
       </c>
-      <c r="B64" s="11">
+      <c r="B64" s="52">
         <v>200</v>
       </c>
-    </row>
-    <row r="65" spans="1:2">
-      <c r="A65" s="11" t="s">
+      <c r="D64" s="52" t="s">
+        <v>467</v>
+      </c>
+      <c r="E64" s="52" t="s">
+        <v>663</v>
+      </c>
+    </row>
+    <row r="65" spans="1:5" ht="45">
+      <c r="A65" s="52" t="s">
         <v>277</v>
       </c>
-      <c r="B65" s="11" t="s">
+      <c r="B65" s="52" t="s">
         <v>457</v>
       </c>
-    </row>
-    <row r="66" spans="1:2">
-      <c r="A66" s="11" t="s">
+      <c r="D65" s="52" t="s">
+        <v>109</v>
+      </c>
+      <c r="E65" s="52" t="s">
+        <v>664</v>
+      </c>
+    </row>
+    <row r="66" spans="1:5">
+      <c r="A66" s="52" t="s">
         <v>24</v>
       </c>
-      <c r="B66" s="11" t="s">
+      <c r="B66" s="52" t="s">
         <v>511</v>
       </c>
-    </row>
-    <row r="67" spans="1:2">
-      <c r="A67" s="11" t="s">
+      <c r="D66" s="52" t="s">
+        <v>535</v>
+      </c>
+      <c r="E66" s="52">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="67" spans="1:5">
+      <c r="A67" s="52" t="s">
         <v>151</v>
       </c>
-      <c r="B67" s="11" t="s">
+      <c r="B67" s="52" t="s">
         <v>512</v>
       </c>
-    </row>
-    <row r="68" spans="1:2">
-      <c r="A68" s="11" t="s">
+      <c r="D67" s="52" t="s">
+        <v>571</v>
+      </c>
+      <c r="E67" s="52">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="68" spans="1:5">
+      <c r="A68" s="52" t="s">
         <v>152</v>
       </c>
-      <c r="B68" s="11" t="s">
+      <c r="B68" s="52" t="s">
         <v>25</v>
       </c>
-    </row>
-    <row r="69" spans="1:2">
-      <c r="A69" s="40" t="s">
+      <c r="D68" s="52" t="s">
+        <v>665</v>
+      </c>
+      <c r="E68" s="52">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="69" spans="1:5">
+      <c r="A69" s="48" t="s">
         <v>520</v>
       </c>
-      <c r="B69" s="40"/>
-    </row>
-    <row r="70" spans="1:2">
-      <c r="A70" s="11" t="s">
+      <c r="B69" s="48"/>
+      <c r="D69" s="54" t="s">
+        <v>630</v>
+      </c>
+      <c r="E69" s="55"/>
+    </row>
+    <row r="70" spans="1:5" ht="30">
+      <c r="A70" s="52" t="s">
         <v>99</v>
       </c>
-      <c r="B70" s="11" t="s">
+      <c r="B70" s="52" t="s">
         <v>521</v>
       </c>
-    </row>
-    <row r="71" spans="1:2">
-      <c r="A71" s="11" t="s">
+      <c r="D70" s="52" t="s">
+        <v>99</v>
+      </c>
+      <c r="E70" s="52" t="s">
+        <v>666</v>
+      </c>
+    </row>
+    <row r="71" spans="1:5" ht="30">
+      <c r="A71" s="52" t="s">
         <v>212</v>
       </c>
-      <c r="B71" s="11" t="s">
+      <c r="B71" s="52" t="s">
         <v>522</v>
       </c>
-    </row>
-    <row r="72" spans="1:2">
-      <c r="A72" s="11" t="s">
+      <c r="D71" s="52" t="s">
+        <v>147</v>
+      </c>
+      <c r="E71" s="52" t="s">
+        <v>455</v>
+      </c>
+    </row>
+    <row r="72" spans="1:5" ht="30">
+      <c r="A72" s="52" t="s">
         <v>109</v>
       </c>
-      <c r="B72" s="11" t="s">
+      <c r="B72" s="52" t="s">
         <v>523</v>
       </c>
-    </row>
-    <row r="75" spans="1:2">
-      <c r="A75" s="41" t="s">
+      <c r="D72" s="52" t="s">
+        <v>105</v>
+      </c>
+      <c r="E72" s="52" t="s">
+        <v>667</v>
+      </c>
+    </row>
+    <row r="73" spans="1:5">
+      <c r="D73" s="52" t="s">
+        <v>378</v>
+      </c>
+      <c r="E73" s="52" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="74" spans="1:5" ht="45">
+      <c r="D74" s="52" t="s">
+        <v>633</v>
+      </c>
+      <c r="E74" s="52" t="s">
+        <v>668</v>
+      </c>
+    </row>
+    <row r="75" spans="1:5" ht="18.75" customHeight="1">
+      <c r="A75" s="50" t="s">
         <v>524</v>
       </c>
-      <c r="B75" s="42"/>
-    </row>
-    <row r="76" spans="1:2">
-      <c r="A76" s="11" t="s">
+      <c r="B75" s="51"/>
+      <c r="D75" s="56" t="s">
+        <v>474</v>
+      </c>
+      <c r="E75" s="57"/>
+    </row>
+    <row r="76" spans="1:5" ht="30">
+      <c r="A76" s="52" t="s">
         <v>463</v>
       </c>
-      <c r="B76" s="11" t="s">
+      <c r="B76" s="52" t="s">
         <v>525</v>
       </c>
-    </row>
-    <row r="77" spans="1:2">
-      <c r="A77" s="11" t="s">
+      <c r="D76" s="52" t="s">
+        <v>23</v>
+      </c>
+      <c r="E76" s="52" t="s">
+        <v>669</v>
+      </c>
+    </row>
+    <row r="77" spans="1:5" ht="30">
+      <c r="A77" s="52" t="s">
         <v>467</v>
       </c>
-      <c r="B77" s="11" t="s">
+      <c r="B77" s="52" t="s">
         <v>526</v>
       </c>
-    </row>
-    <row r="78" spans="1:2" ht="36">
-      <c r="A78" s="11" t="s">
+      <c r="D77" s="52" t="s">
+        <v>24</v>
+      </c>
+      <c r="E77" s="52" t="s">
+        <v>670</v>
+      </c>
+    </row>
+    <row r="78" spans="1:5" ht="45">
+      <c r="A78" s="52" t="s">
         <v>109</v>
       </c>
-      <c r="B78" s="11" t="s">
+      <c r="B78" s="52" t="s">
         <v>527</v>
       </c>
-    </row>
-    <row r="79" spans="1:2">
-      <c r="A79" s="41" t="s">
+      <c r="D78" s="52" t="s">
+        <v>671</v>
+      </c>
+      <c r="E78" s="52" t="s">
+        <v>672</v>
+      </c>
+    </row>
+    <row r="79" spans="1:5">
+      <c r="A79" s="50" t="s">
         <v>474</v>
       </c>
-      <c r="B79" s="42"/>
-    </row>
-    <row r="80" spans="1:2">
-      <c r="A80" s="11" t="s">
+      <c r="B79" s="51"/>
+      <c r="D79" s="52" t="s">
+        <v>673</v>
+      </c>
+      <c r="E79" s="52" t="s">
+        <v>674</v>
+      </c>
+    </row>
+    <row r="80" spans="1:5">
+      <c r="A80" s="52" t="s">
         <v>212</v>
       </c>
-      <c r="B80" s="11" t="s">
+      <c r="B80" s="52" t="s">
         <v>528</v>
       </c>
     </row>
-    <row r="81" spans="1:2">
-      <c r="A81" s="11" t="s">
+    <row r="81" spans="1:6">
+      <c r="A81" s="52" t="s">
         <v>236</v>
       </c>
-      <c r="B81" s="11" t="s">
+      <c r="B81" s="52" t="s">
         <v>519</v>
       </c>
     </row>
-    <row r="82" spans="1:2">
-      <c r="A82" s="11" t="s">
+    <row r="82" spans="1:6" ht="30">
+      <c r="A82" s="52" t="s">
         <v>180</v>
       </c>
-      <c r="B82" s="11" t="s">
+      <c r="B82" s="52" t="s">
         <v>455</v>
       </c>
-    </row>
-    <row r="83" spans="1:2">
-      <c r="A83" s="11" t="s">
+      <c r="D82" s="50" t="s">
+        <v>675</v>
+      </c>
+      <c r="E82" s="51"/>
+      <c r="F82" s="58" t="s">
+        <v>676</v>
+      </c>
+    </row>
+    <row r="83" spans="1:6" ht="30">
+      <c r="A83" s="52" t="s">
         <v>24</v>
       </c>
-      <c r="B83" s="11" t="s">
+      <c r="B83" s="52" t="s">
         <v>511</v>
       </c>
-    </row>
-    <row r="84" spans="1:2">
-      <c r="A84" s="11" t="s">
+      <c r="D83" s="52" t="s">
+        <v>463</v>
+      </c>
+      <c r="E83" s="52" t="s">
+        <v>677</v>
+      </c>
+      <c r="F83" s="52" t="s">
+        <v>678</v>
+      </c>
+    </row>
+    <row r="84" spans="1:6" ht="30">
+      <c r="A84" s="52" t="s">
         <v>151</v>
       </c>
-      <c r="B84" s="11" t="s">
+      <c r="B84" s="52" t="s">
         <v>512</v>
       </c>
-    </row>
-    <row r="85" spans="1:2">
-      <c r="A85" s="11" t="s">
+      <c r="D84" s="52" t="s">
+        <v>467</v>
+      </c>
+      <c r="E84" s="52" t="s">
+        <v>679</v>
+      </c>
+      <c r="F84" s="52" t="s">
+        <v>680</v>
+      </c>
+    </row>
+    <row r="85" spans="1:6" ht="45">
+      <c r="A85" s="52" t="s">
         <v>152</v>
       </c>
-      <c r="B85" s="11" t="s">
+      <c r="B85" s="52" t="s">
         <v>25</v>
       </c>
-    </row>
-    <row r="86" spans="1:2">
-      <c r="A86" s="11" t="s">
+      <c r="D85" s="52" t="s">
+        <v>109</v>
+      </c>
+      <c r="E85" s="52" t="s">
+        <v>681</v>
+      </c>
+      <c r="F85" s="52" t="s">
+        <v>682</v>
+      </c>
+    </row>
+    <row r="86" spans="1:6">
+      <c r="A86" s="52" t="s">
         <v>529</v>
       </c>
-      <c r="B86" s="11">
+      <c r="B86" s="52">
         <v>50</v>
       </c>
-    </row>
-    <row r="89" spans="1:2">
-      <c r="A89" s="41" t="s">
+      <c r="D86" s="54" t="s">
+        <v>630</v>
+      </c>
+      <c r="E86" s="55"/>
+      <c r="F86" s="59" t="s">
+        <v>630</v>
+      </c>
+    </row>
+    <row r="87" spans="1:6" ht="30">
+      <c r="D87" s="52" t="s">
+        <v>99</v>
+      </c>
+      <c r="E87" s="52" t="s">
+        <v>683</v>
+      </c>
+      <c r="F87" s="52" t="s">
+        <v>684</v>
+      </c>
+    </row>
+    <row r="88" spans="1:6" ht="30">
+      <c r="D88" s="52" t="s">
+        <v>147</v>
+      </c>
+      <c r="E88" s="52" t="s">
+        <v>455</v>
+      </c>
+      <c r="F88" s="52"/>
+    </row>
+    <row r="89" spans="1:6" ht="18.75" customHeight="1">
+      <c r="A89" s="50" t="s">
         <v>530</v>
       </c>
-      <c r="B89" s="42"/>
-    </row>
-    <row r="90" spans="1:2">
-      <c r="A90" s="11" t="s">
+      <c r="B89" s="51"/>
+      <c r="D89" s="52" t="s">
+        <v>105</v>
+      </c>
+      <c r="E89" s="52" t="s">
+        <v>685</v>
+      </c>
+      <c r="F89" s="52" t="s">
+        <v>686</v>
+      </c>
+    </row>
+    <row r="90" spans="1:6">
+      <c r="A90" s="52" t="s">
         <v>463</v>
       </c>
-      <c r="B90" s="11" t="s">
+      <c r="B90" s="52" t="s">
         <v>531</v>
       </c>
-    </row>
-    <row r="91" spans="1:2">
-      <c r="A91" s="11" t="s">
+      <c r="D90" s="52" t="s">
+        <v>378</v>
+      </c>
+      <c r="E90" s="52" t="s">
+        <v>108</v>
+      </c>
+      <c r="F90" s="52"/>
+    </row>
+    <row r="91" spans="1:6" ht="45">
+      <c r="A91" s="52" t="s">
         <v>467</v>
       </c>
-      <c r="B91" s="11" t="s">
+      <c r="B91" s="52" t="s">
         <v>532</v>
       </c>
-    </row>
-    <row r="92" spans="1:2">
-      <c r="A92" s="11" t="s">
+      <c r="D91" s="52" t="s">
+        <v>633</v>
+      </c>
+      <c r="E91" s="52" t="s">
+        <v>687</v>
+      </c>
+      <c r="F91" s="52" t="s">
+        <v>688</v>
+      </c>
+    </row>
+    <row r="92" spans="1:6" ht="30">
+      <c r="A92" s="52" t="s">
         <v>109</v>
       </c>
-      <c r="B92" s="11" t="s">
+      <c r="B92" s="52" t="s">
         <v>533</v>
       </c>
-    </row>
-    <row r="93" spans="1:2">
-      <c r="A93" s="41" t="s">
+      <c r="D92" s="54" t="s">
         <v>474</v>
       </c>
-      <c r="B93" s="42"/>
-    </row>
-    <row r="94" spans="1:2">
-      <c r="A94" s="11" t="s">
+      <c r="E92" s="55"/>
+      <c r="F92" s="59" t="s">
+        <v>474</v>
+      </c>
+    </row>
+    <row r="93" spans="1:6" ht="30">
+      <c r="A93" s="50" t="s">
+        <v>474</v>
+      </c>
+      <c r="B93" s="51"/>
+      <c r="D93" s="52" t="s">
+        <v>23</v>
+      </c>
+      <c r="E93" s="52" t="s">
+        <v>689</v>
+      </c>
+      <c r="F93" s="52" t="s">
+        <v>690</v>
+      </c>
+    </row>
+    <row r="94" spans="1:6">
+      <c r="A94" s="52" t="s">
         <v>212</v>
       </c>
-      <c r="B94" s="11" t="s">
+      <c r="B94" s="52" t="s">
         <v>534</v>
       </c>
-    </row>
-    <row r="95" spans="1:2">
-      <c r="A95" s="11" t="s">
+      <c r="D94" s="52" t="s">
+        <v>165</v>
+      </c>
+      <c r="E94" s="52" t="s">
+        <v>691</v>
+      </c>
+    </row>
+    <row r="95" spans="1:6" ht="30">
+      <c r="A95" s="52" t="s">
         <v>236</v>
       </c>
-      <c r="B95" s="11" t="s">
+      <c r="B95" s="52" t="s">
         <v>519</v>
       </c>
-    </row>
-    <row r="96" spans="1:2">
-      <c r="A96" s="11" t="s">
+      <c r="D95" s="52" t="s">
+        <v>147</v>
+      </c>
+      <c r="E95" s="52" t="s">
+        <v>455</v>
+      </c>
+    </row>
+    <row r="96" spans="1:6" ht="30">
+      <c r="A96" s="52" t="s">
         <v>191</v>
       </c>
-      <c r="B96" s="11" t="s">
+      <c r="B96" s="52" t="s">
         <v>456</v>
       </c>
-    </row>
-    <row r="97" spans="1:2">
-      <c r="A97" s="11" t="s">
+      <c r="D96" s="52" t="s">
+        <v>557</v>
+      </c>
+      <c r="E96" s="52" t="s">
+        <v>456</v>
+      </c>
+    </row>
+    <row r="97" spans="1:5">
+      <c r="A97" s="52" t="s">
         <v>132</v>
       </c>
-      <c r="B97" s="11">
+      <c r="B97" s="52">
         <v>200</v>
       </c>
-    </row>
-    <row r="98" spans="1:2">
-      <c r="A98" s="11" t="s">
+      <c r="D97" s="52" t="s">
+        <v>692</v>
+      </c>
+      <c r="E97" s="52">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="98" spans="1:5" ht="30">
+      <c r="A98" s="52" t="s">
         <v>24</v>
       </c>
-      <c r="B98" s="11" t="s">
+      <c r="B98" s="52" t="s">
         <v>511</v>
       </c>
-    </row>
-    <row r="99" spans="1:2">
-      <c r="A99" s="11" t="s">
+      <c r="D98" s="52" t="s">
+        <v>564</v>
+      </c>
+      <c r="E98" s="52" t="s">
+        <v>457</v>
+      </c>
+    </row>
+    <row r="99" spans="1:5">
+      <c r="A99" s="52" t="s">
         <v>151</v>
       </c>
-      <c r="B99" s="11" t="s">
+      <c r="B99" s="52" t="s">
         <v>512</v>
       </c>
-    </row>
-    <row r="100" spans="1:2">
-      <c r="A100" s="11" t="s">
+      <c r="D99" s="52" t="s">
+        <v>24</v>
+      </c>
+      <c r="E99" s="52" t="s">
+        <v>670</v>
+      </c>
+    </row>
+    <row r="100" spans="1:5">
+      <c r="A100" s="52" t="s">
         <v>152</v>
       </c>
-      <c r="B100" s="11" t="s">
+      <c r="B100" s="52" t="s">
         <v>25</v>
       </c>
-    </row>
-    <row r="101" spans="1:2">
-      <c r="A101" s="11" t="s">
+      <c r="D100" s="52" t="s">
+        <v>671</v>
+      </c>
+      <c r="E100" s="52" t="s">
+        <v>672</v>
+      </c>
+    </row>
+    <row r="101" spans="1:5">
+      <c r="A101" s="52" t="s">
         <v>535</v>
       </c>
-      <c r="B101" s="11">
+      <c r="B101" s="52">
         <v>60</v>
       </c>
-    </row>
-    <row r="102" spans="1:2">
-      <c r="A102" s="11" t="s">
+      <c r="D101" s="52" t="s">
+        <v>673</v>
+      </c>
+      <c r="E101" s="52" t="s">
+        <v>674</v>
+      </c>
+    </row>
+    <row r="102" spans="1:5">
+      <c r="A102" s="52" t="s">
         <v>536</v>
       </c>
-      <c r="B102" s="11">
+      <c r="B102" s="52">
         <v>2</v>
       </c>
-    </row>
-    <row r="105" spans="1:2">
-      <c r="A105" s="40" t="s">
+      <c r="D102" s="52" t="s">
+        <v>693</v>
+      </c>
+      <c r="E102" s="52">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="103" spans="1:5">
+      <c r="D103" s="52" t="s">
+        <v>571</v>
+      </c>
+      <c r="E103" s="52">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="104" spans="1:5">
+      <c r="D104" s="52" t="s">
+        <v>694</v>
+      </c>
+      <c r="E104" s="52">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="105" spans="1:5" ht="18.75" customHeight="1">
+      <c r="A105" s="48" t="s">
         <v>537</v>
       </c>
-      <c r="B105" s="40"/>
-    </row>
-    <row r="106" spans="1:2">
-      <c r="A106" s="11" t="s">
+      <c r="B105" s="48"/>
+      <c r="D105" s="52" t="s">
+        <v>695</v>
+      </c>
+      <c r="E105" s="52">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="106" spans="1:5">
+      <c r="A106" s="52" t="s">
         <v>463</v>
       </c>
-      <c r="B106" s="11" t="s">
+      <c r="B106" s="52" t="s">
         <v>538</v>
       </c>
     </row>
-    <row r="107" spans="1:2">
-      <c r="A107" s="11" t="s">
+    <row r="107" spans="1:5" ht="30">
+      <c r="A107" s="52" t="s">
         <v>467</v>
       </c>
-      <c r="B107" s="11" t="s">
+      <c r="B107" s="52" t="s">
         <v>539</v>
       </c>
-    </row>
-    <row r="108" spans="1:2">
-      <c r="A108" s="11" t="s">
+      <c r="D107" s="50" t="s">
+        <v>696</v>
+      </c>
+      <c r="E107" s="51"/>
+    </row>
+    <row r="108" spans="1:5" ht="30">
+      <c r="A108" s="52" t="s">
         <v>109</v>
       </c>
-      <c r="B108" s="11" t="s">
+      <c r="B108" s="52" t="s">
         <v>540</v>
       </c>
-    </row>
-    <row r="109" spans="1:2">
-      <c r="A109" s="11" t="s">
+      <c r="D108" s="52" t="s">
+        <v>463</v>
+      </c>
+      <c r="E108" s="52" t="s">
+        <v>697</v>
+      </c>
+    </row>
+    <row r="109" spans="1:5" ht="30">
+      <c r="A109" s="52" t="s">
         <v>535</v>
       </c>
-      <c r="B109" s="11">
+      <c r="B109" s="52">
         <v>60</v>
       </c>
-    </row>
-    <row r="110" spans="1:2">
-      <c r="A110" s="11" t="s">
+      <c r="D109" s="52" t="s">
+        <v>467</v>
+      </c>
+      <c r="E109" s="52" t="s">
+        <v>698</v>
+      </c>
+    </row>
+    <row r="110" spans="1:5" ht="45">
+      <c r="A110" s="52" t="s">
         <v>536</v>
       </c>
-      <c r="B110" s="11">
+      <c r="B110" s="52">
         <v>3</v>
       </c>
-    </row>
-    <row r="111" spans="1:2">
-      <c r="A111" s="40" t="s">
+      <c r="D110" s="52" t="s">
+        <v>109</v>
+      </c>
+      <c r="E110" s="52" t="s">
+        <v>699</v>
+      </c>
+    </row>
+    <row r="111" spans="1:5">
+      <c r="A111" s="48" t="s">
         <v>474</v>
       </c>
-      <c r="B111" s="40"/>
-    </row>
-    <row r="112" spans="1:2">
-      <c r="A112" s="11" t="s">
+      <c r="B111" s="48"/>
+      <c r="D111" s="52" t="s">
+        <v>693</v>
+      </c>
+      <c r="E111" s="52">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="112" spans="1:5">
+      <c r="A112" s="52" t="s">
         <v>212</v>
       </c>
-      <c r="B112" s="11" t="s">
+      <c r="B112" s="52" t="s">
         <v>541</v>
       </c>
-    </row>
-    <row r="113" spans="1:2">
-      <c r="A113" s="11" t="s">
+      <c r="D112" s="52" t="s">
+        <v>571</v>
+      </c>
+      <c r="E112" s="52">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="113" spans="1:5" ht="30">
+      <c r="A113" s="52" t="s">
         <v>191</v>
       </c>
-      <c r="B113" s="11" t="s">
+      <c r="B113" s="52" t="s">
         <v>456</v>
       </c>
-    </row>
-    <row r="114" spans="1:2">
-      <c r="A114" s="11" t="s">
+      <c r="D113" s="52" t="s">
+        <v>694</v>
+      </c>
+      <c r="E113" s="52">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="114" spans="1:5">
+      <c r="A114" s="52" t="s">
         <v>132</v>
       </c>
-      <c r="B114" s="11">
+      <c r="B114" s="52">
         <v>200</v>
       </c>
-    </row>
-    <row r="115" spans="1:2">
-      <c r="A115" s="11" t="s">
+      <c r="D114" s="54" t="s">
+        <v>630</v>
+      </c>
+      <c r="E114" s="55"/>
+    </row>
+    <row r="115" spans="1:5" ht="30">
+      <c r="A115" s="52" t="s">
         <v>277</v>
       </c>
-      <c r="B115" s="11" t="s">
+      <c r="B115" s="52" t="s">
         <v>457</v>
       </c>
-    </row>
-    <row r="116" spans="1:2">
-      <c r="A116" s="11" t="s">
+      <c r="D115" s="52" t="s">
+        <v>99</v>
+      </c>
+      <c r="E115" s="52" t="s">
+        <v>700</v>
+      </c>
+    </row>
+    <row r="116" spans="1:5" ht="30">
+      <c r="A116" s="52" t="s">
         <v>24</v>
       </c>
-      <c r="B116" s="11" t="s">
+      <c r="B116" s="52" t="s">
         <v>115</v>
       </c>
-    </row>
-    <row r="117" spans="1:2">
-      <c r="A117" s="11" t="s">
+      <c r="D116" s="52" t="s">
+        <v>147</v>
+      </c>
+      <c r="E116" s="52" t="s">
+        <v>455</v>
+      </c>
+    </row>
+    <row r="117" spans="1:5" ht="30">
+      <c r="A117" s="52" t="s">
         <v>151</v>
       </c>
-      <c r="B117" s="11" t="s">
+      <c r="B117" s="52" t="s">
         <v>25</v>
       </c>
-    </row>
-    <row r="118" spans="1:2">
-      <c r="A118" s="11" t="s">
+      <c r="D117" s="52" t="s">
+        <v>105</v>
+      </c>
+      <c r="E117" s="52" t="s">
+        <v>701</v>
+      </c>
+    </row>
+    <row r="118" spans="1:5">
+      <c r="A118" s="52" t="s">
         <v>152</v>
       </c>
-      <c r="B118" s="11" t="s">
+      <c r="B118" s="52" t="s">
         <v>512</v>
       </c>
-    </row>
-    <row r="121" spans="1:2">
-      <c r="A121" s="40" t="s">
+      <c r="D118" s="52" t="s">
+        <v>378</v>
+      </c>
+      <c r="E118" s="52" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="119" spans="1:5" ht="45">
+      <c r="D119" s="52" t="s">
+        <v>633</v>
+      </c>
+      <c r="E119" s="52" t="s">
+        <v>702</v>
+      </c>
+    </row>
+    <row r="120" spans="1:5">
+      <c r="D120" s="56" t="s">
+        <v>474</v>
+      </c>
+      <c r="E120" s="57"/>
+    </row>
+    <row r="121" spans="1:5" ht="18.75" customHeight="1">
+      <c r="A121" s="48" t="s">
         <v>542</v>
       </c>
-      <c r="B121" s="40"/>
-    </row>
-    <row r="122" spans="1:2">
-      <c r="A122" s="11" t="s">
+      <c r="B121" s="48"/>
+      <c r="D121" s="52" t="s">
+        <v>23</v>
+      </c>
+      <c r="E121" s="52" t="s">
+        <v>703</v>
+      </c>
+    </row>
+    <row r="122" spans="1:5">
+      <c r="A122" s="52" t="s">
         <v>463</v>
       </c>
-      <c r="B122" s="11" t="s">
+      <c r="B122" s="52" t="s">
         <v>543</v>
       </c>
-    </row>
-    <row r="123" spans="1:2">
-      <c r="A123" s="11" t="s">
+      <c r="D122" s="52" t="s">
+        <v>165</v>
+      </c>
+      <c r="E122" s="52" t="s">
+        <v>691</v>
+      </c>
+    </row>
+    <row r="123" spans="1:5" ht="30">
+      <c r="A123" s="52" t="s">
         <v>467</v>
       </c>
-      <c r="B123" s="11" t="s">
+      <c r="B123" s="52" t="s">
         <v>544</v>
       </c>
-    </row>
-    <row r="124" spans="1:2">
-      <c r="A124" s="11" t="s">
+      <c r="D123" s="52" t="s">
+        <v>147</v>
+      </c>
+      <c r="E123" s="52" t="s">
+        <v>455</v>
+      </c>
+    </row>
+    <row r="124" spans="1:5" ht="30">
+      <c r="A124" s="52" t="s">
         <v>109</v>
       </c>
-      <c r="B124" s="11" t="s">
+      <c r="B124" s="52" t="s">
         <v>545</v>
       </c>
-    </row>
-    <row r="125" spans="1:2">
-      <c r="A125" s="40" t="s">
+      <c r="D124" s="52" t="s">
+        <v>24</v>
+      </c>
+      <c r="E124" s="52" t="s">
+        <v>670</v>
+      </c>
+    </row>
+    <row r="125" spans="1:5">
+      <c r="A125" s="48" t="s">
         <v>474</v>
       </c>
-      <c r="B125" s="40"/>
-    </row>
-    <row r="126" spans="1:2">
-      <c r="A126" s="11" t="s">
+      <c r="B125" s="48"/>
+      <c r="D125" s="52" t="s">
+        <v>671</v>
+      </c>
+      <c r="E125" s="52" t="s">
+        <v>672</v>
+      </c>
+    </row>
+    <row r="126" spans="1:5" ht="30">
+      <c r="A126" s="52" t="s">
         <v>546</v>
       </c>
-      <c r="B126" s="11" t="s">
+      <c r="B126" s="52" t="s">
         <v>547</v>
       </c>
-    </row>
-    <row r="127" spans="1:2">
-      <c r="A127" s="11" t="s">
+      <c r="D126" s="52" t="s">
+        <v>673</v>
+      </c>
+      <c r="E126" s="52" t="s">
+        <v>674</v>
+      </c>
+    </row>
+    <row r="127" spans="1:5">
+      <c r="A127" s="52" t="s">
         <v>236</v>
       </c>
-      <c r="B127" s="11" t="s">
+      <c r="B127" s="52" t="s">
         <v>548</v>
       </c>
     </row>
-    <row r="128" spans="1:2">
-      <c r="A128" s="11" t="s">
+    <row r="128" spans="1:5" ht="30">
+      <c r="A128" s="52" t="s">
         <v>549</v>
       </c>
-      <c r="B128" s="11" t="s">
+      <c r="B128" s="52" t="s">
         <v>550</v>
       </c>
     </row>
-    <row r="129" spans="1:2">
-      <c r="A129" s="11" t="s">
+    <row r="129" spans="1:5" ht="30">
+      <c r="A129" s="52" t="s">
         <v>180</v>
       </c>
-      <c r="B129" s="11" t="s">
+      <c r="B129" s="52" t="s">
         <v>455</v>
       </c>
-    </row>
-    <row r="132" spans="1:2">
-      <c r="A132" s="40" t="s">
+      <c r="D129" s="50" t="s">
+        <v>704</v>
+      </c>
+      <c r="E129" s="51"/>
+    </row>
+    <row r="130" spans="1:5" ht="30">
+      <c r="D130" s="52" t="s">
+        <v>463</v>
+      </c>
+      <c r="E130" s="52" t="s">
+        <v>705</v>
+      </c>
+    </row>
+    <row r="131" spans="1:5" ht="30">
+      <c r="D131" s="52" t="s">
+        <v>467</v>
+      </c>
+      <c r="E131" s="52" t="s">
+        <v>706</v>
+      </c>
+    </row>
+    <row r="132" spans="1:5" ht="18.75" customHeight="1">
+      <c r="A132" s="48" t="s">
         <v>551</v>
       </c>
-      <c r="B132" s="40"/>
-    </row>
-    <row r="133" spans="1:2">
-      <c r="A133" s="11" t="s">
+      <c r="B132" s="48"/>
+      <c r="D132" s="52" t="s">
+        <v>109</v>
+      </c>
+      <c r="E132" s="52" t="s">
+        <v>707</v>
+      </c>
+    </row>
+    <row r="133" spans="1:5">
+      <c r="A133" s="52" t="s">
         <v>463</v>
       </c>
-      <c r="B133" s="11" t="s">
+      <c r="B133" s="52" t="s">
         <v>552</v>
       </c>
-    </row>
-    <row r="134" spans="1:2">
-      <c r="A134" s="11" t="s">
+      <c r="D133" s="52" t="s">
+        <v>693</v>
+      </c>
+      <c r="E133" s="52">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="134" spans="1:5" ht="30">
+      <c r="A134" s="52" t="s">
         <v>467</v>
       </c>
-      <c r="B134" s="11" t="s">
+      <c r="B134" s="52" t="s">
         <v>553</v>
       </c>
-    </row>
-    <row r="135" spans="1:2">
-      <c r="A135" s="11" t="s">
+      <c r="D134" s="52" t="s">
+        <v>571</v>
+      </c>
+      <c r="E134" s="52">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="135" spans="1:5" ht="30">
+      <c r="A135" s="52" t="s">
         <v>109</v>
       </c>
-      <c r="B135" s="11" t="s">
+      <c r="B135" s="52" t="s">
         <v>554</v>
       </c>
-    </row>
-    <row r="136" spans="1:2">
-      <c r="A136" s="40" t="s">
+      <c r="D135" s="52" t="s">
+        <v>694</v>
+      </c>
+      <c r="E135" s="52">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="136" spans="1:5">
+      <c r="A136" s="48" t="s">
         <v>474</v>
       </c>
-      <c r="B136" s="40"/>
-    </row>
-    <row r="137" spans="1:2">
-      <c r="A137" s="11" t="s">
+      <c r="B136" s="48"/>
+      <c r="D136" s="54" t="s">
+        <v>630</v>
+      </c>
+      <c r="E136" s="55"/>
+    </row>
+    <row r="137" spans="1:5" ht="30">
+      <c r="A137" s="52" t="s">
         <v>546</v>
       </c>
-      <c r="B137" s="11" t="s">
+      <c r="B137" s="52" t="s">
         <v>555</v>
       </c>
-    </row>
-    <row r="138" spans="1:2">
-      <c r="A138" s="11" t="s">
+      <c r="D137" s="52" t="s">
+        <v>99</v>
+      </c>
+      <c r="E137" s="52" t="s">
+        <v>708</v>
+      </c>
+    </row>
+    <row r="138" spans="1:5" ht="30">
+      <c r="A138" s="52" t="s">
         <v>236</v>
       </c>
-      <c r="B138" s="11" t="s">
+      <c r="B138" s="52" t="s">
         <v>455</v>
       </c>
-    </row>
-    <row r="139" spans="1:2">
-      <c r="A139" s="11" t="s">
+      <c r="D138" s="52" t="s">
+        <v>147</v>
+      </c>
+      <c r="E138" s="52" t="s">
+        <v>455</v>
+      </c>
+    </row>
+    <row r="139" spans="1:5" ht="30">
+      <c r="A139" s="52" t="s">
         <v>549</v>
       </c>
-      <c r="B139" s="11" t="s">
+      <c r="B139" s="52" t="s">
         <v>556</v>
       </c>
-    </row>
-    <row r="140" spans="1:2">
-      <c r="A140" s="11" t="s">
+      <c r="D139" s="52" t="s">
+        <v>105</v>
+      </c>
+      <c r="E139" s="52" t="s">
+        <v>709</v>
+      </c>
+    </row>
+    <row r="140" spans="1:5" ht="30">
+      <c r="A140" s="52" t="s">
         <v>557</v>
       </c>
-      <c r="B140" s="11" t="s">
+      <c r="B140" s="52" t="s">
         <v>456</v>
       </c>
-    </row>
-    <row r="141" spans="1:2">
-      <c r="A141" s="11" t="s">
+      <c r="D140" s="52" t="s">
+        <v>378</v>
+      </c>
+      <c r="E140" s="52" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="141" spans="1:5" ht="45">
+      <c r="A141" s="52" t="s">
         <v>132</v>
       </c>
-      <c r="B141" s="11">
+      <c r="B141" s="52">
         <v>200</v>
       </c>
-    </row>
-    <row r="144" spans="1:2">
-      <c r="A144" s="40" t="s">
+      <c r="D141" s="52" t="s">
+        <v>633</v>
+      </c>
+      <c r="E141" s="52" t="s">
+        <v>710</v>
+      </c>
+    </row>
+    <row r="142" spans="1:5">
+      <c r="D142" s="56" t="s">
+        <v>474</v>
+      </c>
+      <c r="E142" s="57"/>
+    </row>
+    <row r="143" spans="1:5" ht="30">
+      <c r="D143" s="52" t="s">
+        <v>23</v>
+      </c>
+      <c r="E143" s="52" t="s">
+        <v>711</v>
+      </c>
+    </row>
+    <row r="144" spans="1:5" ht="18.75" customHeight="1">
+      <c r="A144" s="48" t="s">
         <v>558</v>
       </c>
-      <c r="B144" s="40"/>
-    </row>
-    <row r="145" spans="1:2">
-      <c r="A145" s="11" t="s">
+      <c r="B144" s="48"/>
+      <c r="D144" s="52" t="s">
+        <v>165</v>
+      </c>
+      <c r="E144" s="52" t="s">
+        <v>691</v>
+      </c>
+    </row>
+    <row r="145" spans="1:5" ht="30">
+      <c r="A145" s="52" t="s">
         <v>463</v>
       </c>
-      <c r="B145" s="11" t="s">
+      <c r="B145" s="52" t="s">
         <v>559</v>
       </c>
-    </row>
-    <row r="146" spans="1:2">
-      <c r="A146" s="11" t="s">
+      <c r="D145" s="52" t="s">
+        <v>557</v>
+      </c>
+      <c r="E145" s="52" t="s">
+        <v>456</v>
+      </c>
+    </row>
+    <row r="146" spans="1:5" ht="30">
+      <c r="A146" s="52" t="s">
         <v>467</v>
       </c>
-      <c r="B146" s="11" t="s">
+      <c r="B146" s="52" t="s">
         <v>560</v>
       </c>
-    </row>
-    <row r="147" spans="1:2">
-      <c r="A147" s="11" t="s">
+      <c r="D146" s="52" t="s">
+        <v>132</v>
+      </c>
+      <c r="E146" s="52">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="147" spans="1:5" ht="45">
+      <c r="A147" s="52" t="s">
         <v>109</v>
       </c>
-      <c r="B147" s="11" t="s">
+      <c r="B147" s="52" t="s">
         <v>561</v>
       </c>
-    </row>
-    <row r="148" spans="1:2">
-      <c r="A148" s="40" t="s">
+      <c r="D147" s="52" t="s">
+        <v>24</v>
+      </c>
+      <c r="E147" s="52" t="s">
+        <v>670</v>
+      </c>
+    </row>
+    <row r="148" spans="1:5">
+      <c r="A148" s="48" t="s">
         <v>474</v>
       </c>
-      <c r="B148" s="40"/>
-    </row>
-    <row r="149" spans="1:2">
-      <c r="A149" s="11" t="s">
+      <c r="B148" s="48"/>
+      <c r="D148" s="52" t="s">
+        <v>671</v>
+      </c>
+      <c r="E148" s="52" t="s">
+        <v>672</v>
+      </c>
+    </row>
+    <row r="149" spans="1:5">
+      <c r="A149" s="52" t="s">
         <v>546</v>
       </c>
-      <c r="B149" s="11" t="s">
+      <c r="B149" s="52" t="s">
         <v>562</v>
       </c>
-    </row>
-    <row r="150" spans="1:2">
-      <c r="A150" s="11" t="s">
+      <c r="D149" s="52" t="s">
+        <v>673</v>
+      </c>
+      <c r="E149" s="52" t="s">
+        <v>674</v>
+      </c>
+    </row>
+    <row r="150" spans="1:5" ht="30">
+      <c r="A150" s="52" t="s">
         <v>557</v>
       </c>
-      <c r="B150" s="11" t="s">
+      <c r="B150" s="52" t="s">
         <v>456</v>
       </c>
     </row>
-    <row r="151" spans="1:2">
-      <c r="A151" s="11" t="s">
+    <row r="151" spans="1:5">
+      <c r="A151" s="52" t="s">
         <v>132</v>
       </c>
-      <c r="B151" s="11">
+      <c r="B151" s="52">
         <v>200</v>
       </c>
     </row>
-    <row r="152" spans="1:2">
-      <c r="A152" s="11" t="s">
+    <row r="152" spans="1:5">
+      <c r="A152" s="52" t="s">
         <v>549</v>
       </c>
-      <c r="B152" s="11" t="s">
+      <c r="B152" s="52" t="s">
         <v>563</v>
       </c>
-    </row>
-    <row r="153" spans="1:2">
-      <c r="A153" s="11" t="s">
+      <c r="D152" s="50" t="s">
+        <v>712</v>
+      </c>
+      <c r="E152" s="51"/>
+    </row>
+    <row r="153" spans="1:5" ht="30">
+      <c r="A153" s="52" t="s">
         <v>564</v>
       </c>
-      <c r="B153" s="11" t="s">
+      <c r="B153" s="52" t="s">
         <v>457</v>
       </c>
-    </row>
-    <row r="154" spans="1:2">
-      <c r="A154" s="11" t="s">
+      <c r="D153" s="52" t="s">
+        <v>463</v>
+      </c>
+      <c r="E153" s="52" t="s">
+        <v>713</v>
+      </c>
+    </row>
+    <row r="154" spans="1:5" ht="30">
+      <c r="A154" s="52" t="s">
         <v>139</v>
       </c>
-      <c r="B154" s="11">
+      <c r="B154" s="52">
         <v>100</v>
       </c>
-    </row>
-    <row r="155" spans="1:2">
-      <c r="A155" s="11" t="s">
+      <c r="D154" s="52" t="s">
+        <v>467</v>
+      </c>
+      <c r="E154" s="52" t="s">
+        <v>714</v>
+      </c>
+    </row>
+    <row r="155" spans="1:5" ht="45">
+      <c r="A155" s="52" t="s">
         <v>565</v>
       </c>
-      <c r="B155" s="11" t="s">
+      <c r="B155" s="52" t="s">
         <v>566</v>
       </c>
-    </row>
-    <row r="156" spans="1:2">
-      <c r="A156" s="11" t="s">
+      <c r="D155" s="52" t="s">
+        <v>109</v>
+      </c>
+      <c r="E155" s="52" t="s">
+        <v>715</v>
+      </c>
+    </row>
+    <row r="156" spans="1:5">
+      <c r="A156" s="52" t="s">
         <v>24</v>
       </c>
-      <c r="B156" s="11" t="s">
+      <c r="B156" s="52" t="s">
         <v>214</v>
       </c>
-    </row>
-    <row r="157" spans="1:2">
-      <c r="A157" s="11" t="s">
+      <c r="D156" s="52" t="s">
+        <v>693</v>
+      </c>
+      <c r="E156" s="52">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="157" spans="1:5">
+      <c r="A157" s="52" t="s">
         <v>151</v>
       </c>
-      <c r="B157" s="11" t="s">
+      <c r="B157" s="52" t="s">
         <v>25</v>
       </c>
-    </row>
-    <row r="158" spans="1:2">
-      <c r="A158" s="11" t="s">
+      <c r="D157" s="52" t="s">
+        <v>571</v>
+      </c>
+      <c r="E157" s="52">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="158" spans="1:5">
+      <c r="A158" s="52" t="s">
         <v>152</v>
       </c>
-      <c r="B158" s="11" t="s">
+      <c r="B158" s="52" t="s">
         <v>512</v>
       </c>
-    </row>
-    <row r="159" spans="1:2">
-      <c r="A159" s="11" t="s">
+      <c r="D158" s="52" t="s">
+        <v>694</v>
+      </c>
+      <c r="E158" s="52">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="159" spans="1:5">
+      <c r="A159" s="52" t="s">
         <v>535</v>
       </c>
-      <c r="B159" s="11">
+      <c r="B159" s="52">
         <v>60</v>
       </c>
-    </row>
-    <row r="162" spans="1:2">
-      <c r="A162" s="40" t="s">
+      <c r="D159" s="54" t="s">
+        <v>630</v>
+      </c>
+      <c r="E159" s="55"/>
+    </row>
+    <row r="160" spans="1:5" ht="30">
+      <c r="D160" s="52" t="s">
+        <v>99</v>
+      </c>
+      <c r="E160" s="52" t="s">
+        <v>716</v>
+      </c>
+    </row>
+    <row r="161" spans="1:5" ht="30">
+      <c r="D161" s="52" t="s">
+        <v>147</v>
+      </c>
+      <c r="E161" s="52" t="s">
+        <v>455</v>
+      </c>
+    </row>
+    <row r="162" spans="1:5" ht="18.75" customHeight="1">
+      <c r="A162" s="48" t="s">
         <v>567</v>
       </c>
-      <c r="B162" s="40"/>
-    </row>
-    <row r="163" spans="1:2">
-      <c r="A163" s="11" t="s">
+      <c r="B162" s="48"/>
+      <c r="D162" s="52" t="s">
+        <v>105</v>
+      </c>
+      <c r="E162" s="52" t="s">
+        <v>717</v>
+      </c>
+    </row>
+    <row r="163" spans="1:5">
+      <c r="A163" s="52" t="s">
         <v>463</v>
       </c>
-      <c r="B163" s="11" t="s">
+      <c r="B163" s="52" t="s">
         <v>568</v>
       </c>
-    </row>
-    <row r="164" spans="1:2">
-      <c r="A164" s="11" t="s">
+      <c r="D163" s="52" t="s">
+        <v>378</v>
+      </c>
+      <c r="E163" s="52" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="164" spans="1:5" ht="45">
+      <c r="A164" s="52" t="s">
         <v>467</v>
       </c>
-      <c r="B164" s="11" t="s">
+      <c r="B164" s="52" t="s">
         <v>569</v>
       </c>
-    </row>
-    <row r="165" spans="1:2">
-      <c r="A165" s="11" t="s">
+      <c r="D164" s="52" t="s">
+        <v>633</v>
+      </c>
+      <c r="E164" s="52" t="s">
+        <v>718</v>
+      </c>
+    </row>
+    <row r="165" spans="1:5" ht="45">
+      <c r="A165" s="52" t="s">
         <v>109</v>
       </c>
-      <c r="B165" s="11" t="s">
+      <c r="B165" s="52" t="s">
         <v>570</v>
       </c>
-    </row>
-    <row r="166" spans="1:2">
-      <c r="A166" s="11" t="s">
+      <c r="D165" s="56" t="s">
+        <v>474</v>
+      </c>
+      <c r="E165" s="57"/>
+    </row>
+    <row r="166" spans="1:5" ht="30">
+      <c r="A166" s="52" t="s">
         <v>535</v>
       </c>
-      <c r="B166" s="11">
+      <c r="B166" s="52">
         <v>60</v>
       </c>
-    </row>
-    <row r="167" spans="1:2">
-      <c r="A167" s="11" t="s">
+      <c r="D166" s="52" t="s">
+        <v>23</v>
+      </c>
+      <c r="E166" s="52" t="s">
+        <v>719</v>
+      </c>
+    </row>
+    <row r="167" spans="1:5">
+      <c r="A167" s="52" t="s">
         <v>571</v>
       </c>
-      <c r="B167" s="11">
+      <c r="B167" s="52">
         <v>3</v>
       </c>
-    </row>
-    <row r="168" spans="1:2">
-      <c r="A168" s="40" t="s">
+      <c r="D167" s="52" t="s">
+        <v>165</v>
+      </c>
+      <c r="E167" s="52" t="s">
+        <v>691</v>
+      </c>
+    </row>
+    <row r="168" spans="1:5" ht="30">
+      <c r="A168" s="48" t="s">
         <v>474</v>
       </c>
-      <c r="B168" s="40"/>
-    </row>
-    <row r="169" spans="1:2">
-      <c r="A169" s="11" t="s">
+      <c r="B168" s="48"/>
+      <c r="D168" s="52" t="s">
+        <v>557</v>
+      </c>
+      <c r="E168" s="52" t="s">
+        <v>456</v>
+      </c>
+    </row>
+    <row r="169" spans="1:5">
+      <c r="A169" s="52" t="s">
         <v>546</v>
       </c>
-      <c r="B169" s="11" t="s">
+      <c r="B169" s="52" t="s">
         <v>572</v>
       </c>
-    </row>
-    <row r="170" spans="1:2">
-      <c r="A170" s="11" t="s">
+      <c r="D169" s="52" t="s">
+        <v>132</v>
+      </c>
+      <c r="E169" s="52">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="170" spans="1:5" ht="30">
+      <c r="A170" s="52" t="s">
         <v>549</v>
       </c>
-      <c r="B170" s="11" t="s">
+      <c r="B170" s="52" t="s">
         <v>573</v>
       </c>
-    </row>
-    <row r="171" spans="1:2">
-      <c r="A171" s="11" t="s">
+      <c r="D170" s="52" t="s">
+        <v>277</v>
+      </c>
+      <c r="E170" s="52" t="s">
+        <v>457</v>
+      </c>
+    </row>
+    <row r="171" spans="1:5">
+      <c r="A171" s="52" t="s">
         <v>565</v>
       </c>
-      <c r="B171" s="11" t="s">
+      <c r="B171" s="52" t="s">
         <v>574</v>
       </c>
-    </row>
-    <row r="172" spans="1:2">
-      <c r="A172" s="11" t="s">
+      <c r="D171" s="52" t="s">
+        <v>720</v>
+      </c>
+      <c r="E171" s="52">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="172" spans="1:5">
+      <c r="A172" s="52" t="s">
         <v>236</v>
       </c>
-      <c r="B172" s="11" t="s">
+      <c r="B172" s="52" t="s">
         <v>174</v>
       </c>
-    </row>
-    <row r="173" spans="1:2">
-      <c r="A173" s="11" t="s">
+      <c r="D172" s="52" t="s">
+        <v>24</v>
+      </c>
+      <c r="E172" s="52" t="s">
+        <v>670</v>
+      </c>
+    </row>
+    <row r="173" spans="1:5" ht="30">
+      <c r="A173" s="52" t="s">
         <v>147</v>
       </c>
-      <c r="B173" s="11" t="s">
+      <c r="B173" s="52" t="s">
         <v>455</v>
       </c>
-    </row>
-    <row r="174" spans="1:2">
-      <c r="A174" s="11" t="s">
+      <c r="D173" s="52" t="s">
+        <v>671</v>
+      </c>
+      <c r="E173" s="52" t="s">
+        <v>672</v>
+      </c>
+    </row>
+    <row r="174" spans="1:5" ht="30">
+      <c r="A174" s="52" t="s">
         <v>557</v>
       </c>
-      <c r="B174" s="11" t="s">
+      <c r="B174" s="52" t="s">
         <v>456</v>
       </c>
-    </row>
-    <row r="175" spans="1:2">
-      <c r="A175" s="11" t="s">
+      <c r="D174" s="52" t="s">
+        <v>673</v>
+      </c>
+      <c r="E174" s="52" t="s">
+        <v>674</v>
+      </c>
+    </row>
+    <row r="175" spans="1:5">
+      <c r="A175" s="52" t="s">
         <v>132</v>
       </c>
-      <c r="B175" s="11">
+      <c r="B175" s="52">
         <v>200</v>
       </c>
-    </row>
-    <row r="176" spans="1:2">
-      <c r="A176" s="11" t="s">
+      <c r="D175" s="52"/>
+      <c r="E175" s="52"/>
+    </row>
+    <row r="176" spans="1:5" ht="30">
+      <c r="A176" s="52" t="s">
         <v>564</v>
       </c>
-      <c r="B176" s="11" t="s">
+      <c r="B176" s="52" t="s">
         <v>457</v>
       </c>
     </row>
-    <row r="177" spans="1:2">
-      <c r="A177" s="11" t="s">
+    <row r="177" spans="1:5">
+      <c r="A177" s="52" t="s">
         <v>24</v>
       </c>
-      <c r="B177" s="11" t="s">
+      <c r="B177" s="52" t="s">
         <v>214</v>
       </c>
     </row>
-    <row r="178" spans="1:2">
-      <c r="A178" s="11" t="s">
+    <row r="178" spans="1:5">
+      <c r="A178" s="52" t="s">
         <v>151</v>
       </c>
-      <c r="B178" s="11" t="s">
+      <c r="B178" s="52" t="s">
         <v>25</v>
       </c>
-    </row>
-    <row r="179" spans="1:2">
-      <c r="A179" s="11" t="s">
+      <c r="D178" s="50" t="s">
+        <v>721</v>
+      </c>
+      <c r="E178" s="51"/>
+    </row>
+    <row r="179" spans="1:5" ht="30">
+      <c r="A179" s="52" t="s">
         <v>152</v>
       </c>
-      <c r="B179" s="11" t="s">
+      <c r="B179" s="52" t="s">
         <v>512</v>
       </c>
-    </row>
-    <row r="182" spans="1:2">
-      <c r="A182" s="40" t="s">
+      <c r="D179" s="52" t="s">
+        <v>463</v>
+      </c>
+      <c r="E179" s="52" t="s">
+        <v>722</v>
+      </c>
+    </row>
+    <row r="180" spans="1:5" ht="30">
+      <c r="D180" s="52" t="s">
+        <v>467</v>
+      </c>
+      <c r="E180" s="52" t="s">
+        <v>723</v>
+      </c>
+    </row>
+    <row r="181" spans="1:5" ht="45">
+      <c r="D181" s="52" t="s">
+        <v>109</v>
+      </c>
+      <c r="E181" s="52" t="s">
+        <v>724</v>
+      </c>
+    </row>
+    <row r="182" spans="1:5" ht="18.75" customHeight="1">
+      <c r="A182" s="48" t="s">
         <v>575</v>
       </c>
-      <c r="B182" s="40"/>
-    </row>
-    <row r="183" spans="1:2">
-      <c r="A183" s="11" t="s">
+      <c r="B182" s="48"/>
+      <c r="D182" s="52" t="s">
+        <v>693</v>
+      </c>
+      <c r="E182" s="52">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="183" spans="1:5">
+      <c r="A183" s="52" t="s">
         <v>463</v>
       </c>
-      <c r="B183" s="11" t="s">
+      <c r="B183" s="52" t="s">
         <v>576</v>
       </c>
-    </row>
-    <row r="184" spans="1:2" ht="36">
-      <c r="A184" s="11" t="s">
+      <c r="D183" s="52" t="s">
+        <v>571</v>
+      </c>
+      <c r="E183" s="52">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="184" spans="1:5" ht="30">
+      <c r="A184" s="52" t="s">
         <v>467</v>
       </c>
-      <c r="B184" s="11" t="s">
+      <c r="B184" s="52" t="s">
         <v>577</v>
       </c>
-    </row>
-    <row r="185" spans="1:2">
-      <c r="A185" s="11" t="s">
+      <c r="D184" s="52" t="s">
+        <v>694</v>
+      </c>
+      <c r="E184" s="52">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="185" spans="1:5" ht="30">
+      <c r="A185" s="52" t="s">
         <v>109</v>
       </c>
-      <c r="B185" s="11" t="s">
+      <c r="B185" s="52" t="s">
         <v>578</v>
       </c>
-    </row>
-    <row r="186" spans="1:2">
-      <c r="A186" s="11" t="s">
+      <c r="D185" s="54" t="s">
+        <v>630</v>
+      </c>
+      <c r="E185" s="55"/>
+    </row>
+    <row r="186" spans="1:5" ht="30">
+      <c r="A186" s="52" t="s">
         <v>535</v>
       </c>
-      <c r="B186" s="11">
+      <c r="B186" s="52">
         <v>60</v>
       </c>
-    </row>
-    <row r="187" spans="1:2">
-      <c r="A187" s="11" t="s">
+      <c r="D186" s="52" t="s">
+        <v>99</v>
+      </c>
+      <c r="E186" s="52" t="s">
+        <v>725</v>
+      </c>
+    </row>
+    <row r="187" spans="1:5" ht="30">
+      <c r="A187" s="52" t="s">
         <v>571</v>
       </c>
-      <c r="B187" s="11">
+      <c r="B187" s="52">
         <v>3</v>
       </c>
-    </row>
-    <row r="188" spans="1:2">
-      <c r="A188" s="40" t="s">
+      <c r="D187" s="52" t="s">
+        <v>147</v>
+      </c>
+      <c r="E187" s="52" t="s">
+        <v>455</v>
+      </c>
+    </row>
+    <row r="188" spans="1:5" ht="30">
+      <c r="A188" s="48" t="s">
         <v>474</v>
       </c>
-      <c r="B188" s="40"/>
-    </row>
-    <row r="189" spans="1:2">
-      <c r="A189" s="11" t="s">
+      <c r="B188" s="48"/>
+      <c r="D188" s="52" t="s">
+        <v>105</v>
+      </c>
+      <c r="E188" s="52" t="s">
+        <v>726</v>
+      </c>
+    </row>
+    <row r="189" spans="1:5">
+      <c r="A189" s="52" t="s">
         <v>546</v>
       </c>
-      <c r="B189" s="11" t="s">
+      <c r="B189" s="52" t="s">
         <v>579</v>
       </c>
-    </row>
-    <row r="190" spans="1:2">
-      <c r="A190" s="11" t="s">
+      <c r="D189" s="52" t="s">
+        <v>378</v>
+      </c>
+      <c r="E189" s="52" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="190" spans="1:5" ht="45">
+      <c r="A190" s="52" t="s">
         <v>549</v>
       </c>
-      <c r="B190" s="11" t="s">
+      <c r="B190" s="52" t="s">
         <v>580</v>
       </c>
-    </row>
-    <row r="191" spans="1:2">
-      <c r="A191" s="11" t="s">
+      <c r="D190" s="52" t="s">
+        <v>633</v>
+      </c>
+      <c r="E190" s="52" t="s">
+        <v>727</v>
+      </c>
+    </row>
+    <row r="191" spans="1:5">
+      <c r="A191" s="52" t="s">
         <v>565</v>
       </c>
-      <c r="B191" s="11" t="s">
+      <c r="B191" s="52" t="s">
         <v>581</v>
       </c>
-    </row>
-    <row r="192" spans="1:2">
-      <c r="A192" s="11" t="s">
+      <c r="D191" s="56" t="s">
+        <v>474</v>
+      </c>
+      <c r="E191" s="57"/>
+    </row>
+    <row r="192" spans="1:5" ht="30">
+      <c r="A192" s="52" t="s">
         <v>582</v>
       </c>
-      <c r="B192" s="11" t="s">
+      <c r="B192" s="52" t="s">
         <v>583</v>
       </c>
-    </row>
-    <row r="193" spans="1:2">
-      <c r="A193" s="11" t="s">
+      <c r="D192" s="52" t="s">
+        <v>728</v>
+      </c>
+      <c r="E192" s="52" t="s">
+        <v>729</v>
+      </c>
+    </row>
+    <row r="193" spans="1:5">
+      <c r="A193" s="52" t="s">
         <v>236</v>
       </c>
-      <c r="B193" s="11" t="s">
+      <c r="B193" s="52" t="s">
         <v>584</v>
       </c>
-    </row>
-    <row r="194" spans="1:2">
-      <c r="A194" s="11" t="s">
+      <c r="D193" s="52" t="s">
+        <v>165</v>
+      </c>
+      <c r="E193" s="52" t="s">
+        <v>691</v>
+      </c>
+    </row>
+    <row r="194" spans="1:5" ht="30">
+      <c r="A194" s="52" t="s">
         <v>147</v>
       </c>
-      <c r="B194" s="11" t="s">
+      <c r="B194" s="52" t="s">
         <v>455</v>
       </c>
-    </row>
-    <row r="195" spans="1:2">
-      <c r="A195" s="11" t="s">
+      <c r="D194" s="52" t="s">
+        <v>549</v>
+      </c>
+      <c r="E194" s="52" t="s">
+        <v>730</v>
+      </c>
+    </row>
+    <row r="195" spans="1:5" ht="30">
+      <c r="A195" s="52" t="s">
         <v>557</v>
       </c>
-      <c r="B195" s="11" t="s">
+      <c r="B195" s="52" t="s">
         <v>456</v>
       </c>
-    </row>
-    <row r="196" spans="1:2">
-      <c r="A196" s="11" t="s">
+      <c r="D195" s="52" t="s">
+        <v>147</v>
+      </c>
+      <c r="E195" s="52" t="s">
+        <v>455</v>
+      </c>
+    </row>
+    <row r="196" spans="1:5">
+      <c r="A196" s="52" t="s">
         <v>132</v>
       </c>
-      <c r="B196" s="11">
+      <c r="B196" s="52">
         <v>200</v>
       </c>
     </row>
-    <row r="197" spans="1:2">
-      <c r="A197" s="11" t="s">
+    <row r="197" spans="1:5" ht="30">
+      <c r="A197" s="52" t="s">
         <v>564</v>
       </c>
-      <c r="B197" s="11" t="s">
+      <c r="B197" s="52" t="s">
         <v>457</v>
       </c>
     </row>
-    <row r="198" spans="1:2">
-      <c r="A198" s="11" t="s">
+    <row r="198" spans="1:5">
+      <c r="A198" s="52" t="s">
         <v>24</v>
       </c>
-      <c r="B198" s="11" t="s">
+      <c r="B198" s="52" t="s">
         <v>214</v>
       </c>
-    </row>
-    <row r="199" spans="1:2">
-      <c r="A199" s="11" t="s">
+      <c r="D198" s="50" t="s">
+        <v>731</v>
+      </c>
+      <c r="E198" s="51"/>
+    </row>
+    <row r="199" spans="1:5" ht="30">
+      <c r="A199" s="52" t="s">
         <v>151</v>
       </c>
-      <c r="B199" s="11" t="s">
+      <c r="B199" s="52" t="s">
         <v>25</v>
       </c>
-    </row>
-    <row r="200" spans="1:2">
-      <c r="A200" s="11" t="s">
+      <c r="D199" s="52" t="s">
+        <v>463</v>
+      </c>
+      <c r="E199" s="52" t="s">
+        <v>732</v>
+      </c>
+    </row>
+    <row r="200" spans="1:5" ht="30">
+      <c r="A200" s="52" t="s">
         <v>152</v>
       </c>
-      <c r="B200" s="11" t="s">
+      <c r="B200" s="52" t="s">
         <v>512</v>
       </c>
-    </row>
-    <row r="201" spans="1:2">
-      <c r="A201" s="11" t="s">
+      <c r="D200" s="52" t="s">
+        <v>467</v>
+      </c>
+      <c r="E200" s="52" t="s">
+        <v>733</v>
+      </c>
+    </row>
+    <row r="201" spans="1:5" ht="45">
+      <c r="A201" s="52" t="s">
         <v>585</v>
       </c>
-      <c r="B201" s="11" t="s">
+      <c r="B201" s="52" t="s">
         <v>119</v>
       </c>
-    </row>
-    <row r="203" spans="1:2">
-      <c r="A203" s="40" t="s">
+      <c r="D201" s="52" t="s">
+        <v>109</v>
+      </c>
+      <c r="E201" s="52" t="s">
+        <v>734</v>
+      </c>
+    </row>
+    <row r="202" spans="1:5">
+      <c r="D202" s="52" t="s">
+        <v>694</v>
+      </c>
+      <c r="E202" s="52">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="203" spans="1:5" ht="18.75" customHeight="1">
+      <c r="A203" s="48" t="s">
         <v>586</v>
       </c>
-      <c r="B203" s="40"/>
-    </row>
-    <row r="204" spans="1:2">
-      <c r="A204" s="11" t="s">
+      <c r="B203" s="48"/>
+      <c r="D203" s="56" t="s">
+        <v>630</v>
+      </c>
+      <c r="E203" s="57"/>
+    </row>
+    <row r="204" spans="1:5" ht="30">
+      <c r="A204" s="52" t="s">
         <v>463</v>
       </c>
-      <c r="B204" s="11" t="s">
+      <c r="B204" s="52" t="s">
         <v>587</v>
       </c>
-    </row>
-    <row r="205" spans="1:2">
-      <c r="A205" s="11" t="s">
+      <c r="D204" s="52" t="s">
+        <v>99</v>
+      </c>
+      <c r="E204" s="52" t="s">
+        <v>735</v>
+      </c>
+    </row>
+    <row r="205" spans="1:5" ht="30">
+      <c r="A205" s="52" t="s">
         <v>467</v>
       </c>
-      <c r="B205" s="11" t="s">
+      <c r="B205" s="52" t="s">
         <v>588</v>
       </c>
-    </row>
-    <row r="206" spans="1:2">
-      <c r="A206" s="11" t="s">
+      <c r="D205" s="52" t="s">
+        <v>147</v>
+      </c>
+      <c r="E205" s="52" t="s">
+        <v>455</v>
+      </c>
+    </row>
+    <row r="206" spans="1:5" ht="30">
+      <c r="A206" s="52" t="s">
         <v>109</v>
       </c>
-      <c r="B206" s="11" t="s">
+      <c r="B206" s="52" t="s">
         <v>589</v>
       </c>
-    </row>
-    <row r="207" spans="1:2">
-      <c r="A207" s="11" t="s">
+      <c r="D206" s="52" t="s">
+        <v>105</v>
+      </c>
+      <c r="E206" s="52" t="s">
+        <v>736</v>
+      </c>
+    </row>
+    <row r="207" spans="1:5">
+      <c r="A207" s="52" t="s">
         <v>535</v>
       </c>
-      <c r="B207" s="11">
+      <c r="B207" s="52">
         <v>40</v>
       </c>
-    </row>
-    <row r="208" spans="1:2">
-      <c r="A208" s="11" t="s">
+      <c r="D207" s="52" t="s">
+        <v>378</v>
+      </c>
+      <c r="E207" s="52" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="208" spans="1:5" ht="45">
+      <c r="A208" s="52" t="s">
         <v>571</v>
       </c>
-      <c r="B208" s="11">
+      <c r="B208" s="52">
         <v>1</v>
       </c>
-    </row>
-    <row r="209" spans="1:2">
-      <c r="A209" s="40" t="s">
+      <c r="D208" s="52" t="s">
+        <v>633</v>
+      </c>
+      <c r="E208" s="52" t="s">
+        <v>737</v>
+      </c>
+    </row>
+    <row r="209" spans="1:5">
+      <c r="A209" s="48" t="s">
         <v>474</v>
       </c>
-      <c r="B209" s="40"/>
-    </row>
-    <row r="210" spans="1:2">
-      <c r="A210" s="11" t="s">
+      <c r="B209" s="48"/>
+      <c r="D209" s="56" t="s">
+        <v>474</v>
+      </c>
+      <c r="E209" s="57"/>
+    </row>
+    <row r="210" spans="1:5" ht="30">
+      <c r="A210" s="52" t="s">
         <v>546</v>
       </c>
-      <c r="B210" s="11" t="s">
+      <c r="B210" s="52" t="s">
         <v>590</v>
       </c>
-    </row>
-    <row r="211" spans="1:2">
-      <c r="A211" s="11" t="s">
+      <c r="D210" s="52" t="s">
+        <v>728</v>
+      </c>
+      <c r="E210" s="52" t="s">
+        <v>738</v>
+      </c>
+    </row>
+    <row r="211" spans="1:5" ht="30">
+      <c r="A211" s="52" t="s">
         <v>549</v>
       </c>
-      <c r="B211" s="11" t="s">
+      <c r="B211" s="52" t="s">
         <v>591</v>
       </c>
-    </row>
-    <row r="212" spans="1:2">
-      <c r="A212" s="11" t="s">
+      <c r="D211" s="52" t="s">
+        <v>147</v>
+      </c>
+      <c r="E211" s="52" t="s">
+        <v>455</v>
+      </c>
+    </row>
+    <row r="212" spans="1:5" ht="30">
+      <c r="A212" s="52" t="s">
         <v>565</v>
       </c>
-      <c r="B212" s="11" t="s">
+      <c r="B212" s="52" t="s">
         <v>592</v>
       </c>
-    </row>
-    <row r="213" spans="1:2">
-      <c r="A213" s="11" t="s">
+      <c r="D212" s="52" t="s">
+        <v>549</v>
+      </c>
+      <c r="E212" s="52" t="s">
+        <v>739</v>
+      </c>
+    </row>
+    <row r="213" spans="1:5" ht="30">
+      <c r="A213" s="52" t="s">
         <v>582</v>
       </c>
-      <c r="B213" s="11" t="s">
+      <c r="B213" s="52" t="s">
         <v>593</v>
       </c>
-    </row>
-    <row r="214" spans="1:2">
-      <c r="A214" s="11" t="s">
+      <c r="D213" s="52" t="s">
+        <v>191</v>
+      </c>
+      <c r="E213" s="52" t="s">
+        <v>456</v>
+      </c>
+    </row>
+    <row r="214" spans="1:5">
+      <c r="A214" s="52" t="s">
         <v>236</v>
       </c>
-      <c r="B214" s="11" t="s">
+      <c r="B214" s="52" t="s">
         <v>594</v>
       </c>
-    </row>
-    <row r="215" spans="1:2">
-      <c r="A215" s="11" t="s">
+      <c r="D214" s="52" t="s">
+        <v>132</v>
+      </c>
+      <c r="E214" s="52">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="215" spans="1:5" ht="30">
+      <c r="A215" s="52" t="s">
         <v>147</v>
       </c>
-      <c r="B215" s="11" t="s">
+      <c r="B215" s="52" t="s">
         <v>455</v>
       </c>
     </row>
-    <row r="216" spans="1:2">
-      <c r="A216" s="11" t="s">
+    <row r="216" spans="1:5" ht="30">
+      <c r="A216" s="52" t="s">
         <v>557</v>
       </c>
-      <c r="B216" s="11" t="s">
+      <c r="B216" s="52" t="s">
         <v>456</v>
       </c>
     </row>
-    <row r="217" spans="1:2">
-      <c r="A217" s="11" t="s">
+    <row r="217" spans="1:5">
+      <c r="A217" s="52" t="s">
         <v>132</v>
       </c>
-      <c r="B217" s="11">
+      <c r="B217" s="52">
         <v>200</v>
       </c>
-    </row>
-    <row r="218" spans="1:2">
-      <c r="A218" s="11" t="s">
+      <c r="D217" s="50" t="s">
+        <v>740</v>
+      </c>
+      <c r="E217" s="51"/>
+    </row>
+    <row r="218" spans="1:5" ht="30">
+      <c r="A218" s="52" t="s">
         <v>24</v>
       </c>
-      <c r="B218" s="11" t="s">
+      <c r="B218" s="52" t="s">
         <v>214</v>
       </c>
-    </row>
-    <row r="219" spans="1:2">
-      <c r="A219" s="11" t="s">
+      <c r="D218" s="52" t="s">
+        <v>463</v>
+      </c>
+      <c r="E218" s="52" t="s">
+        <v>741</v>
+      </c>
+    </row>
+    <row r="219" spans="1:5" ht="45">
+      <c r="A219" s="52" t="s">
         <v>151</v>
       </c>
-      <c r="B219" s="11" t="s">
+      <c r="B219" s="52" t="s">
         <v>25</v>
       </c>
-    </row>
-    <row r="220" spans="1:2">
-      <c r="A220" s="11" t="s">
+      <c r="D219" s="52" t="s">
+        <v>467</v>
+      </c>
+      <c r="E219" s="52" t="s">
+        <v>742</v>
+      </c>
+    </row>
+    <row r="220" spans="1:5" ht="45">
+      <c r="A220" s="52" t="s">
         <v>152</v>
       </c>
-      <c r="B220" s="11" t="s">
+      <c r="B220" s="52" t="s">
         <v>512</v>
       </c>
-    </row>
-    <row r="223" spans="1:2">
-      <c r="A223" s="40" t="s">
+      <c r="D220" s="52" t="s">
+        <v>109</v>
+      </c>
+      <c r="E220" s="52" t="s">
+        <v>743</v>
+      </c>
+    </row>
+    <row r="221" spans="1:5">
+      <c r="D221" s="52" t="s">
+        <v>694</v>
+      </c>
+      <c r="E221" s="52">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="222" spans="1:5">
+      <c r="D222" s="56" t="s">
+        <v>630</v>
+      </c>
+      <c r="E222" s="57"/>
+    </row>
+    <row r="223" spans="1:5" ht="18.75" customHeight="1">
+      <c r="A223" s="48" t="s">
         <v>595</v>
       </c>
-      <c r="B223" s="40"/>
-    </row>
-    <row r="224" spans="1:2">
-      <c r="A224" s="11" t="s">
+      <c r="B223" s="48"/>
+      <c r="D223" s="52" t="s">
+        <v>99</v>
+      </c>
+      <c r="E223" s="52" t="s">
+        <v>744</v>
+      </c>
+    </row>
+    <row r="224" spans="1:5" ht="30">
+      <c r="A224" s="52" t="s">
         <v>463</v>
       </c>
-      <c r="B224" s="11" t="s">
+      <c r="B224" s="52" t="s">
         <v>596</v>
       </c>
-    </row>
-    <row r="225" spans="1:2" ht="36">
-      <c r="A225" s="11" t="s">
+      <c r="D224" s="52" t="s">
+        <v>147</v>
+      </c>
+      <c r="E224" s="52" t="s">
+        <v>455</v>
+      </c>
+    </row>
+    <row r="225" spans="1:5" ht="45">
+      <c r="A225" s="52" t="s">
         <v>467</v>
       </c>
-      <c r="B225" s="11" t="s">
+      <c r="B225" s="52" t="s">
         <v>597</v>
       </c>
-    </row>
-    <row r="226" spans="1:2">
-      <c r="A226" s="11" t="s">
+      <c r="D225" s="52" t="s">
+        <v>105</v>
+      </c>
+      <c r="E225" s="52" t="s">
+        <v>745</v>
+      </c>
+    </row>
+    <row r="226" spans="1:5" ht="30">
+      <c r="A226" s="52" t="s">
         <v>109</v>
       </c>
-      <c r="B226" s="11" t="s">
+      <c r="B226" s="52" t="s">
         <v>598</v>
       </c>
-    </row>
-    <row r="227" spans="1:2">
-      <c r="A227" s="11" t="s">
+      <c r="D226" s="52" t="s">
+        <v>378</v>
+      </c>
+      <c r="E226" s="52" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="227" spans="1:5" ht="45">
+      <c r="A227" s="52" t="s">
         <v>535</v>
       </c>
-      <c r="B227" s="11">
+      <c r="B227" s="52">
         <v>30</v>
       </c>
-    </row>
-    <row r="228" spans="1:2">
-      <c r="A228" s="11" t="s">
+      <c r="D227" s="52" t="s">
+        <v>633</v>
+      </c>
+      <c r="E227" s="52" t="s">
+        <v>746</v>
+      </c>
+    </row>
+    <row r="228" spans="1:5">
+      <c r="A228" s="52" t="s">
         <v>571</v>
       </c>
-      <c r="B228" s="11">
+      <c r="B228" s="52">
         <v>2</v>
       </c>
-    </row>
-    <row r="229" spans="1:2">
-      <c r="A229" s="40" t="s">
+      <c r="D228" s="56" t="s">
         <v>474</v>
       </c>
-      <c r="B229" s="40"/>
-    </row>
-    <row r="230" spans="1:2">
-      <c r="A230" s="11" t="s">
+      <c r="E228" s="57"/>
+    </row>
+    <row r="229" spans="1:5" ht="30">
+      <c r="A229" s="48" t="s">
+        <v>474</v>
+      </c>
+      <c r="B229" s="48"/>
+      <c r="D229" s="52" t="s">
+        <v>728</v>
+      </c>
+      <c r="E229" s="52" t="s">
+        <v>747</v>
+      </c>
+    </row>
+    <row r="230" spans="1:5" ht="30">
+      <c r="A230" s="52" t="s">
         <v>546</v>
       </c>
-      <c r="B230" s="11" t="s">
+      <c r="B230" s="52" t="s">
         <v>599</v>
       </c>
-    </row>
-    <row r="231" spans="1:2">
-      <c r="A231" s="11" t="s">
+      <c r="D230" s="52" t="s">
+        <v>191</v>
+      </c>
+      <c r="E230" s="52" t="s">
+        <v>456</v>
+      </c>
+    </row>
+    <row r="231" spans="1:5">
+      <c r="A231" s="52" t="s">
         <v>549</v>
       </c>
-      <c r="B231" s="11" t="s">
+      <c r="B231" s="52" t="s">
         <v>600</v>
       </c>
-    </row>
-    <row r="232" spans="1:2">
-      <c r="A232" s="11" t="s">
+      <c r="D231" s="52" t="s">
+        <v>132</v>
+      </c>
+      <c r="E231" s="52">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="232" spans="1:5" ht="30">
+      <c r="A232" s="52" t="s">
         <v>565</v>
       </c>
-      <c r="B232" s="11" t="s">
+      <c r="B232" s="52" t="s">
         <v>601</v>
       </c>
-    </row>
-    <row r="233" spans="1:2">
-      <c r="A233" s="11" t="s">
+      <c r="D232" s="52" t="s">
+        <v>549</v>
+      </c>
+      <c r="E232" s="52" t="s">
+        <v>748</v>
+      </c>
+    </row>
+    <row r="233" spans="1:5" ht="30">
+      <c r="A233" s="52" t="s">
         <v>582</v>
       </c>
-      <c r="B233" s="11" t="s">
+      <c r="B233" s="52" t="s">
         <v>602</v>
       </c>
-    </row>
-    <row r="234" spans="1:2">
-      <c r="A234" s="11" t="s">
+      <c r="D233" s="52" t="s">
+        <v>277</v>
+      </c>
+      <c r="E233" s="52" t="s">
+        <v>457</v>
+      </c>
+    </row>
+    <row r="234" spans="1:5">
+      <c r="A234" s="52" t="s">
         <v>236</v>
       </c>
-      <c r="B234" s="11" t="s">
+      <c r="B234" s="52" t="s">
         <v>603</v>
       </c>
-    </row>
-    <row r="235" spans="1:2">
-      <c r="A235" s="11" t="s">
+      <c r="D234" s="52" t="s">
+        <v>139</v>
+      </c>
+      <c r="E234" s="52">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="235" spans="1:5" ht="30">
+      <c r="A235" s="52" t="s">
         <v>147</v>
       </c>
-      <c r="B235" s="11" t="s">
+      <c r="B235" s="52" t="s">
         <v>455</v>
       </c>
-    </row>
-    <row r="236" spans="1:2">
-      <c r="A236" s="11" t="s">
+      <c r="D235" s="52" t="s">
+        <v>565</v>
+      </c>
+      <c r="E235" s="52" t="s">
+        <v>749</v>
+      </c>
+    </row>
+    <row r="236" spans="1:5" ht="30">
+      <c r="A236" s="52" t="s">
         <v>557</v>
       </c>
-      <c r="B236" s="11" t="s">
+      <c r="B236" s="52" t="s">
         <v>456</v>
       </c>
-    </row>
-    <row r="237" spans="1:2">
-      <c r="A237" s="11" t="s">
+      <c r="D236" s="52" t="s">
+        <v>24</v>
+      </c>
+      <c r="E236" s="52" t="s">
+        <v>750</v>
+      </c>
+    </row>
+    <row r="237" spans="1:5">
+      <c r="A237" s="52" t="s">
         <v>132</v>
       </c>
-      <c r="B237" s="11">
+      <c r="B237" s="52">
         <v>200</v>
       </c>
-    </row>
-    <row r="238" spans="1:2">
-      <c r="A238" s="11" t="s">
+      <c r="D237" s="52" t="s">
+        <v>671</v>
+      </c>
+      <c r="E237" s="52" t="s">
+        <v>751</v>
+      </c>
+    </row>
+    <row r="238" spans="1:5" ht="30">
+      <c r="A238" s="52" t="s">
         <v>564</v>
       </c>
-      <c r="B238" s="11" t="s">
+      <c r="B238" s="52" t="s">
         <v>457</v>
       </c>
-    </row>
-    <row r="239" spans="1:2">
-      <c r="A239" s="11" t="s">
+      <c r="D238" s="52" t="s">
+        <v>673</v>
+      </c>
+      <c r="E238" s="52" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="239" spans="1:5">
+      <c r="A239" s="52" t="s">
         <v>132</v>
       </c>
-      <c r="B239" s="11">
+      <c r="B239" s="52">
         <v>150</v>
       </c>
     </row>
-    <row r="240" spans="1:2">
-      <c r="A240" s="11" t="s">
+    <row r="240" spans="1:5">
+      <c r="A240" s="52" t="s">
         <v>24</v>
       </c>
-      <c r="B240" s="11" t="s">
+      <c r="B240" s="52" t="s">
         <v>214</v>
       </c>
     </row>
-    <row r="241" spans="1:2">
-      <c r="A241" s="11" t="s">
+    <row r="241" spans="1:5">
+      <c r="A241" s="52" t="s">
         <v>151</v>
       </c>
-      <c r="B241" s="11" t="s">
+      <c r="B241" s="52" t="s">
         <v>25</v>
       </c>
-    </row>
-    <row r="242" spans="1:2">
-      <c r="A242" s="11" t="s">
+      <c r="D241" s="50" t="s">
+        <v>752</v>
+      </c>
+      <c r="E241" s="51"/>
+    </row>
+    <row r="242" spans="1:5" ht="30">
+      <c r="A242" s="52" t="s">
         <v>152</v>
       </c>
-      <c r="B242" s="11" t="s">
+      <c r="B242" s="52" t="s">
         <v>512</v>
       </c>
+      <c r="D242" s="52" t="s">
+        <v>463</v>
+      </c>
+      <c r="E242" s="52" t="s">
+        <v>753</v>
+      </c>
+    </row>
+    <row r="243" spans="1:5" ht="45">
+      <c r="D243" s="52" t="s">
+        <v>467</v>
+      </c>
+      <c r="E243" s="52" t="s">
+        <v>754</v>
+      </c>
+    </row>
+    <row r="244" spans="1:5" ht="45">
+      <c r="D244" s="52" t="s">
+        <v>109</v>
+      </c>
+      <c r="E244" s="52" t="s">
+        <v>755</v>
+      </c>
+    </row>
+    <row r="245" spans="1:5">
+      <c r="A245" s="49" t="s">
+        <v>756</v>
+      </c>
+      <c r="D245" s="52" t="s">
+        <v>694</v>
+      </c>
+      <c r="E245" s="52">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="246" spans="1:5">
+      <c r="D246" s="52" t="s">
+        <v>535</v>
+      </c>
+      <c r="E246" s="52">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="247" spans="1:5">
+      <c r="A247" s="50" t="s">
+        <v>757</v>
+      </c>
+      <c r="B247" s="51"/>
+      <c r="D247" s="52" t="s">
+        <v>758</v>
+      </c>
+      <c r="E247" s="52">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="248" spans="1:5">
+      <c r="A248" s="52" t="s">
+        <v>463</v>
+      </c>
+      <c r="B248" s="52" t="s">
+        <v>759</v>
+      </c>
+      <c r="D248" s="56" t="s">
+        <v>630</v>
+      </c>
+      <c r="E248" s="57"/>
+    </row>
+    <row r="249" spans="1:5" ht="30">
+      <c r="A249" s="52" t="s">
+        <v>467</v>
+      </c>
+      <c r="B249" s="52" t="s">
+        <v>760</v>
+      </c>
+      <c r="D249" s="52" t="s">
+        <v>99</v>
+      </c>
+      <c r="E249" s="52" t="s">
+        <v>761</v>
+      </c>
+    </row>
+    <row r="250" spans="1:5" ht="30">
+      <c r="A250" s="52" t="s">
+        <v>109</v>
+      </c>
+      <c r="B250" s="52" t="s">
+        <v>762</v>
+      </c>
+      <c r="D250" s="52" t="s">
+        <v>147</v>
+      </c>
+      <c r="E250" s="52" t="s">
+        <v>455</v>
+      </c>
+    </row>
+    <row r="251" spans="1:5" ht="45">
+      <c r="A251" s="52" t="s">
+        <v>694</v>
+      </c>
+      <c r="B251" s="52">
+        <v>2</v>
+      </c>
+      <c r="D251" s="52" t="s">
+        <v>105</v>
+      </c>
+      <c r="E251" s="52" t="s">
+        <v>763</v>
+      </c>
+    </row>
+    <row r="252" spans="1:5">
+      <c r="A252" s="52" t="s">
+        <v>535</v>
+      </c>
+      <c r="B252" s="52">
+        <v>90</v>
+      </c>
+      <c r="D252" s="52" t="s">
+        <v>378</v>
+      </c>
+      <c r="E252" s="52" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="253" spans="1:5" ht="45">
+      <c r="A253" s="52" t="s">
+        <v>758</v>
+      </c>
+      <c r="B253" s="52">
+        <v>1</v>
+      </c>
+      <c r="D253" s="52" t="s">
+        <v>633</v>
+      </c>
+      <c r="E253" s="52" t="s">
+        <v>764</v>
+      </c>
+    </row>
+    <row r="254" spans="1:5">
+      <c r="A254" s="56" t="s">
+        <v>630</v>
+      </c>
+      <c r="B254" s="57"/>
+      <c r="D254" s="56" t="s">
+        <v>474</v>
+      </c>
+      <c r="E254" s="57"/>
+    </row>
+    <row r="255" spans="1:5" ht="30">
+      <c r="A255" s="52" t="s">
+        <v>99</v>
+      </c>
+      <c r="B255" s="52" t="s">
+        <v>765</v>
+      </c>
+      <c r="D255" s="52" t="s">
+        <v>728</v>
+      </c>
+      <c r="E255" s="52" t="s">
+        <v>766</v>
+      </c>
+    </row>
+    <row r="256" spans="1:5" ht="30">
+      <c r="A256" s="52" t="s">
+        <v>147</v>
+      </c>
+      <c r="B256" s="52" t="s">
+        <v>455</v>
+      </c>
+      <c r="D256" s="52" t="s">
+        <v>549</v>
+      </c>
+      <c r="E256" s="52" t="s">
+        <v>767</v>
+      </c>
+    </row>
+    <row r="257" spans="1:5" ht="30">
+      <c r="A257" s="52" t="s">
+        <v>105</v>
+      </c>
+      <c r="B257" s="52" t="s">
+        <v>768</v>
+      </c>
+      <c r="D257" s="52" t="s">
+        <v>565</v>
+      </c>
+      <c r="E257" s="52" t="s">
+        <v>769</v>
+      </c>
+    </row>
+    <row r="258" spans="1:5">
+      <c r="A258" s="52" t="s">
+        <v>378</v>
+      </c>
+      <c r="B258" s="52" t="s">
+        <v>108</v>
+      </c>
+      <c r="D258" s="52" t="s">
+        <v>165</v>
+      </c>
+      <c r="E258" s="52" t="s">
+        <v>770</v>
+      </c>
+    </row>
+    <row r="259" spans="1:5" ht="45">
+      <c r="A259" s="52" t="s">
+        <v>633</v>
+      </c>
+      <c r="B259" s="52" t="s">
+        <v>771</v>
+      </c>
+      <c r="D259" s="52" t="s">
+        <v>147</v>
+      </c>
+      <c r="E259" s="52" t="s">
+        <v>455</v>
+      </c>
+    </row>
+    <row r="260" spans="1:5" ht="30">
+      <c r="A260" s="56" t="s">
+        <v>474</v>
+      </c>
+      <c r="B260" s="57"/>
+      <c r="D260" s="52" t="s">
+        <v>191</v>
+      </c>
+      <c r="E260" s="52" t="s">
+        <v>456</v>
+      </c>
+    </row>
+    <row r="261" spans="1:5">
+      <c r="A261" s="52" t="s">
+        <v>728</v>
+      </c>
+      <c r="B261" s="52" t="s">
+        <v>772</v>
+      </c>
+      <c r="D261" s="52" t="s">
+        <v>132</v>
+      </c>
+      <c r="E261" s="52">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="262" spans="1:5" ht="30">
+      <c r="A262" s="52" t="s">
+        <v>549</v>
+      </c>
+      <c r="B262" s="52" t="s">
+        <v>773</v>
+      </c>
+      <c r="D262" s="52" t="s">
+        <v>277</v>
+      </c>
+      <c r="E262" s="52" t="s">
+        <v>457</v>
+      </c>
+    </row>
+    <row r="263" spans="1:5">
+      <c r="A263" s="52" t="s">
+        <v>565</v>
+      </c>
+      <c r="B263" s="52" t="s">
+        <v>774</v>
+      </c>
+      <c r="D263" s="52" t="s">
+        <v>139</v>
+      </c>
+      <c r="E263" s="52">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="264" spans="1:5">
+      <c r="A264" s="52" t="s">
+        <v>582</v>
+      </c>
+      <c r="B264" s="52" t="s">
+        <v>775</v>
+      </c>
+      <c r="D264" s="52" t="s">
+        <v>24</v>
+      </c>
+      <c r="E264" s="52" t="s">
+        <v>750</v>
+      </c>
+    </row>
+    <row r="265" spans="1:5">
+      <c r="A265" s="52" t="s">
+        <v>165</v>
+      </c>
+      <c r="B265" s="52" t="s">
+        <v>770</v>
+      </c>
+      <c r="D265" s="52" t="s">
+        <v>671</v>
+      </c>
+      <c r="E265" s="52" t="s">
+        <v>751</v>
+      </c>
+    </row>
+    <row r="266" spans="1:5" ht="30">
+      <c r="A266" s="52" t="s">
+        <v>147</v>
+      </c>
+      <c r="B266" s="52" t="s">
+        <v>455</v>
+      </c>
+      <c r="D266" s="52" t="s">
+        <v>673</v>
+      </c>
+      <c r="E266" s="52" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="267" spans="1:5" ht="30">
+      <c r="A267" s="52" t="s">
+        <v>191</v>
+      </c>
+      <c r="B267" s="52" t="s">
+        <v>456</v>
+      </c>
+    </row>
+    <row r="268" spans="1:5">
+      <c r="A268" s="52" t="s">
+        <v>132</v>
+      </c>
+      <c r="B268" s="52">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="269" spans="1:5" ht="30">
+      <c r="A269" s="52" t="s">
+        <v>277</v>
+      </c>
+      <c r="B269" s="52" t="s">
+        <v>457</v>
+      </c>
+    </row>
+    <row r="270" spans="1:5">
+      <c r="A270" s="52" t="s">
+        <v>139</v>
+      </c>
+      <c r="B270" s="52">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="271" spans="1:5">
+      <c r="A271" s="52" t="s">
+        <v>24</v>
+      </c>
+      <c r="B271" s="52" t="s">
+        <v>750</v>
+      </c>
+    </row>
+    <row r="272" spans="1:5">
+      <c r="A272" s="52" t="s">
+        <v>671</v>
+      </c>
+      <c r="B272" s="52" t="s">
+        <v>751</v>
+      </c>
+    </row>
+    <row r="273" spans="1:2">
+      <c r="A273" s="52" t="s">
+        <v>673</v>
+      </c>
+      <c r="B273" s="52" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="276" spans="1:2">
+      <c r="A276" s="50" t="s">
+        <v>776</v>
+      </c>
+      <c r="B276" s="51"/>
+    </row>
+    <row r="277" spans="1:2">
+      <c r="A277" s="52" t="s">
+        <v>463</v>
+      </c>
+      <c r="B277" s="52" t="s">
+        <v>777</v>
+      </c>
+    </row>
+    <row r="278" spans="1:2" ht="30">
+      <c r="A278" s="52" t="s">
+        <v>467</v>
+      </c>
+      <c r="B278" s="52" t="s">
+        <v>778</v>
+      </c>
+    </row>
+    <row r="279" spans="1:2" ht="30">
+      <c r="A279" s="52" t="s">
+        <v>109</v>
+      </c>
+      <c r="B279" s="52" t="s">
+        <v>779</v>
+      </c>
+    </row>
+    <row r="280" spans="1:2">
+      <c r="A280" s="52" t="s">
+        <v>694</v>
+      </c>
+      <c r="B280" s="52">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="281" spans="1:2">
+      <c r="A281" s="52" t="s">
+        <v>535</v>
+      </c>
+      <c r="B281" s="52">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="282" spans="1:2">
+      <c r="A282" s="52" t="s">
+        <v>758</v>
+      </c>
+      <c r="B282" s="52">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="283" spans="1:2">
+      <c r="A283" s="56" t="s">
+        <v>630</v>
+      </c>
+      <c r="B283" s="57"/>
+    </row>
+    <row r="284" spans="1:2" ht="30">
+      <c r="A284" s="52" t="s">
+        <v>99</v>
+      </c>
+      <c r="B284" s="52" t="s">
+        <v>780</v>
+      </c>
+    </row>
+    <row r="285" spans="1:2" ht="30">
+      <c r="A285" s="52" t="s">
+        <v>147</v>
+      </c>
+      <c r="B285" s="52" t="s">
+        <v>455</v>
+      </c>
+    </row>
+    <row r="286" spans="1:2" ht="30">
+      <c r="A286" s="52" t="s">
+        <v>105</v>
+      </c>
+      <c r="B286" s="52" t="s">
+        <v>781</v>
+      </c>
+    </row>
+    <row r="287" spans="1:2">
+      <c r="A287" s="52" t="s">
+        <v>378</v>
+      </c>
+      <c r="B287" s="52" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="288" spans="1:2" ht="45">
+      <c r="A288" s="52" t="s">
+        <v>633</v>
+      </c>
+      <c r="B288" s="52" t="s">
+        <v>782</v>
+      </c>
+    </row>
+    <row r="289" spans="1:2">
+      <c r="A289" s="56" t="s">
+        <v>474</v>
+      </c>
+      <c r="B289" s="57"/>
+    </row>
+    <row r="290" spans="1:2">
+      <c r="A290" s="52" t="s">
+        <v>728</v>
+      </c>
+      <c r="B290" s="52" t="s">
+        <v>783</v>
+      </c>
+    </row>
+    <row r="291" spans="1:2">
+      <c r="A291" s="52" t="s">
+        <v>549</v>
+      </c>
+      <c r="B291" s="52" t="s">
+        <v>784</v>
+      </c>
+    </row>
+    <row r="292" spans="1:2">
+      <c r="A292" s="52" t="s">
+        <v>565</v>
+      </c>
+      <c r="B292" s="52" t="s">
+        <v>785</v>
+      </c>
+    </row>
+    <row r="293" spans="1:2">
+      <c r="A293" s="52" t="s">
+        <v>582</v>
+      </c>
+      <c r="B293" s="52" t="s">
+        <v>786</v>
+      </c>
+    </row>
+    <row r="294" spans="1:2">
+      <c r="A294" s="52" t="s">
+        <v>165</v>
+      </c>
+      <c r="B294" s="52" t="s">
+        <v>787</v>
+      </c>
+    </row>
+    <row r="295" spans="1:2" ht="30">
+      <c r="A295" s="52" t="s">
+        <v>147</v>
+      </c>
+      <c r="B295" s="52" t="s">
+        <v>455</v>
+      </c>
+    </row>
+    <row r="296" spans="1:2" ht="30">
+      <c r="A296" s="52" t="s">
+        <v>191</v>
+      </c>
+      <c r="B296" s="52" t="s">
+        <v>456</v>
+      </c>
+    </row>
+    <row r="297" spans="1:2">
+      <c r="A297" s="52" t="s">
+        <v>132</v>
+      </c>
+      <c r="B297" s="52">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="298" spans="1:2" ht="30">
+      <c r="A298" s="52" t="s">
+        <v>277</v>
+      </c>
+      <c r="B298" s="52" t="s">
+        <v>457</v>
+      </c>
+    </row>
+    <row r="299" spans="1:2">
+      <c r="A299" s="52" t="s">
+        <v>139</v>
+      </c>
+      <c r="B299" s="52">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="300" spans="1:2">
+      <c r="A300" s="52" t="s">
+        <v>24</v>
+      </c>
+      <c r="B300" s="52" t="s">
+        <v>750</v>
+      </c>
+    </row>
+    <row r="301" spans="1:2">
+      <c r="A301" s="52" t="s">
+        <v>671</v>
+      </c>
+      <c r="B301" s="52" t="s">
+        <v>751</v>
+      </c>
+    </row>
+    <row r="302" spans="1:2">
+      <c r="A302" s="52" t="s">
+        <v>673</v>
+      </c>
+      <c r="B302" s="52" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="305" spans="1:2">
+      <c r="A305" s="50" t="s">
+        <v>788</v>
+      </c>
+      <c r="B305" s="51"/>
+    </row>
+    <row r="306" spans="1:2">
+      <c r="A306" s="52" t="s">
+        <v>463</v>
+      </c>
+      <c r="B306" s="52" t="s">
+        <v>789</v>
+      </c>
+    </row>
+    <row r="307" spans="1:2" ht="30">
+      <c r="A307" s="52" t="s">
+        <v>467</v>
+      </c>
+      <c r="B307" s="52" t="s">
+        <v>790</v>
+      </c>
+    </row>
+    <row r="308" spans="1:2" ht="30">
+      <c r="A308" s="52" t="s">
+        <v>109</v>
+      </c>
+      <c r="B308" s="52" t="s">
+        <v>791</v>
+      </c>
+    </row>
+    <row r="309" spans="1:2">
+      <c r="A309" s="52" t="s">
+        <v>694</v>
+      </c>
+      <c r="B309" s="52">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="310" spans="1:2">
+      <c r="A310" s="52" t="s">
+        <v>535</v>
+      </c>
+      <c r="B310" s="52">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="311" spans="1:2">
+      <c r="A311" s="52" t="s">
+        <v>758</v>
+      </c>
+      <c r="B311" s="52">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="312" spans="1:2">
+      <c r="A312" s="56" t="s">
+        <v>630</v>
+      </c>
+      <c r="B312" s="57"/>
+    </row>
+    <row r="313" spans="1:2" ht="30">
+      <c r="A313" s="52" t="s">
+        <v>99</v>
+      </c>
+      <c r="B313" s="52" t="s">
+        <v>792</v>
+      </c>
+    </row>
+    <row r="314" spans="1:2" ht="30">
+      <c r="A314" s="52" t="s">
+        <v>147</v>
+      </c>
+      <c r="B314" s="52" t="s">
+        <v>455</v>
+      </c>
+    </row>
+    <row r="315" spans="1:2" ht="30">
+      <c r="A315" s="52" t="s">
+        <v>105</v>
+      </c>
+      <c r="B315" s="52" t="s">
+        <v>793</v>
+      </c>
+    </row>
+    <row r="316" spans="1:2">
+      <c r="A316" s="52" t="s">
+        <v>378</v>
+      </c>
+      <c r="B316" s="52" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="317" spans="1:2" ht="45">
+      <c r="A317" s="52" t="s">
+        <v>633</v>
+      </c>
+      <c r="B317" s="52" t="s">
+        <v>794</v>
+      </c>
+    </row>
+    <row r="318" spans="1:2">
+      <c r="A318" s="56" t="s">
+        <v>474</v>
+      </c>
+      <c r="B318" s="57"/>
+    </row>
+    <row r="319" spans="1:2">
+      <c r="A319" s="52" t="s">
+        <v>728</v>
+      </c>
+      <c r="B319" s="52" t="s">
+        <v>795</v>
+      </c>
+    </row>
+    <row r="320" spans="1:2">
+      <c r="A320" s="52" t="s">
+        <v>549</v>
+      </c>
+      <c r="B320" s="52" t="s">
+        <v>796</v>
+      </c>
+    </row>
+    <row r="321" spans="1:2">
+      <c r="A321" s="52" t="s">
+        <v>565</v>
+      </c>
+      <c r="B321" s="52" t="s">
+        <v>797</v>
+      </c>
+    </row>
+    <row r="322" spans="1:2">
+      <c r="A322" s="52" t="s">
+        <v>582</v>
+      </c>
+      <c r="B322" s="52" t="s">
+        <v>798</v>
+      </c>
+    </row>
+    <row r="323" spans="1:2">
+      <c r="A323" s="52" t="s">
+        <v>165</v>
+      </c>
+      <c r="B323" s="52" t="s">
+        <v>770</v>
+      </c>
+    </row>
+    <row r="324" spans="1:2" ht="30">
+      <c r="A324" s="52" t="s">
+        <v>147</v>
+      </c>
+      <c r="B324" s="52" t="s">
+        <v>455</v>
+      </c>
+    </row>
+    <row r="325" spans="1:2" ht="30">
+      <c r="A325" s="52" t="s">
+        <v>191</v>
+      </c>
+      <c r="B325" s="52" t="s">
+        <v>456</v>
+      </c>
+    </row>
+    <row r="326" spans="1:2">
+      <c r="A326" s="52" t="s">
+        <v>132</v>
+      </c>
+      <c r="B326" s="52">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="327" spans="1:2" ht="30">
+      <c r="A327" s="52" t="s">
+        <v>277</v>
+      </c>
+      <c r="B327" s="52" t="s">
+        <v>457</v>
+      </c>
+    </row>
+    <row r="328" spans="1:2">
+      <c r="A328" s="52" t="s">
+        <v>139</v>
+      </c>
+      <c r="B328" s="52">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="329" spans="1:2">
+      <c r="A329" s="52" t="s">
+        <v>24</v>
+      </c>
+      <c r="B329" s="52" t="s">
+        <v>750</v>
+      </c>
+    </row>
+    <row r="330" spans="1:2">
+      <c r="A330" s="52" t="s">
+        <v>671</v>
+      </c>
+      <c r="B330" s="52" t="s">
+        <v>751</v>
+      </c>
+    </row>
+    <row r="331" spans="1:2">
+      <c r="A331" s="52" t="s">
+        <v>673</v>
+      </c>
+      <c r="B331" s="52" t="s">
+        <v>119</v>
+      </c>
     </row>
   </sheetData>
-  <mergeCells count="34">
-    <mergeCell ref="A203:B203"/>
-    <mergeCell ref="A209:B209"/>
-    <mergeCell ref="A223:B223"/>
-    <mergeCell ref="A229:B229"/>
-    <mergeCell ref="A144:B144"/>
-    <mergeCell ref="A148:B148"/>
-    <mergeCell ref="A162:B162"/>
-    <mergeCell ref="A168:B168"/>
-    <mergeCell ref="A182:B182"/>
-    <mergeCell ref="A188:B188"/>
+  <mergeCells count="64">
+    <mergeCell ref="A305:B305"/>
+    <mergeCell ref="D198:E198"/>
+    <mergeCell ref="D217:E217"/>
+    <mergeCell ref="D241:E241"/>
+    <mergeCell ref="A247:B247"/>
+    <mergeCell ref="A276:B276"/>
+    <mergeCell ref="D136:E136"/>
+    <mergeCell ref="D152:E152"/>
+    <mergeCell ref="D159:E159"/>
+    <mergeCell ref="D178:E178"/>
+    <mergeCell ref="D185:E185"/>
+    <mergeCell ref="D86:E86"/>
+    <mergeCell ref="D92:E92"/>
+    <mergeCell ref="D107:E107"/>
+    <mergeCell ref="D114:E114"/>
+    <mergeCell ref="D129:E129"/>
+    <mergeCell ref="D50:E50"/>
+    <mergeCell ref="D56:E56"/>
+    <mergeCell ref="D62:E62"/>
+    <mergeCell ref="D69:E69"/>
+    <mergeCell ref="D82:E82"/>
+    <mergeCell ref="G1:H1"/>
+    <mergeCell ref="G5:H5"/>
+    <mergeCell ref="D15:E15"/>
+    <mergeCell ref="D19:E19"/>
+    <mergeCell ref="D25:E25"/>
+    <mergeCell ref="A55:B55"/>
+    <mergeCell ref="A1:B1"/>
+    <mergeCell ref="D1:E1"/>
+    <mergeCell ref="D5:E5"/>
+    <mergeCell ref="A16:B16"/>
+    <mergeCell ref="A20:B20"/>
+    <mergeCell ref="A26:B26"/>
+    <mergeCell ref="A30:B30"/>
+    <mergeCell ref="A35:B35"/>
+    <mergeCell ref="A39:B39"/>
+    <mergeCell ref="A44:B44"/>
+    <mergeCell ref="A48:B48"/>
+    <mergeCell ref="D30:E30"/>
+    <mergeCell ref="D34:E34"/>
+    <mergeCell ref="D40:E40"/>
+    <mergeCell ref="D46:E46"/>
     <mergeCell ref="A136:B136"/>
     <mergeCell ref="A59:B59"/>
     <mergeCell ref="A69:B69"/>
@@ -7969,18 +10678,16 @@
     <mergeCell ref="A121:B121"/>
     <mergeCell ref="A125:B125"/>
     <mergeCell ref="A132:B132"/>
-    <mergeCell ref="A55:B55"/>
-    <mergeCell ref="A1:B1"/>
-    <mergeCell ref="D1:E1"/>
-    <mergeCell ref="D5:E5"/>
-    <mergeCell ref="A16:B16"/>
-    <mergeCell ref="A20:B20"/>
-    <mergeCell ref="A26:B26"/>
-    <mergeCell ref="A30:B30"/>
-    <mergeCell ref="A35:B35"/>
-    <mergeCell ref="A39:B39"/>
-    <mergeCell ref="A44:B44"/>
-    <mergeCell ref="A48:B48"/>
+    <mergeCell ref="A203:B203"/>
+    <mergeCell ref="A209:B209"/>
+    <mergeCell ref="A223:B223"/>
+    <mergeCell ref="A229:B229"/>
+    <mergeCell ref="A144:B144"/>
+    <mergeCell ref="A148:B148"/>
+    <mergeCell ref="A162:B162"/>
+    <mergeCell ref="A168:B168"/>
+    <mergeCell ref="A182:B182"/>
+    <mergeCell ref="A188:B188"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <extLst>
@@ -7992,23 +10699,23 @@
 </file>
 
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:D6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="E20" sqref="E20"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="14" x14ac:dyDescent="0"/>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="15.1640625" customWidth="1"/>
-    <col min="2" max="2" width="20.83203125" customWidth="1"/>
-    <col min="3" max="3" width="16.5" customWidth="1"/>
-    <col min="4" max="4" width="13.1640625" customWidth="1"/>
-    <col min="5" max="5" width="18.33203125" customWidth="1"/>
+    <col min="1" max="1" width="15.140625" customWidth="1"/>
+    <col min="2" max="2" width="20.85546875" customWidth="1"/>
+    <col min="3" max="3" width="16.42578125" customWidth="1"/>
+    <col min="4" max="4" width="13.140625" customWidth="1"/>
+    <col min="5" max="5" width="18.28515625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" ht="15">
+    <row r="1" spans="1:4">
       <c r="A1" s="37" t="s">
         <v>8</v>
       </c>

--- a/TestData.xlsx
+++ b/TestData.xlsx
@@ -1,10 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="5" rupBuild="4506"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="19029"/>
   <workbookPr autoCompressPictures="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\geethukn\Desktop\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4F379F87-A88D-4DC3-90BA-27CD02EAE90B}" xr6:coauthVersionLast="28" xr6:coauthVersionMax="28" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20730" windowHeight="11760" tabRatio="990" activeTab="7"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="13170" windowHeight="7170" tabRatio="990" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Login_Credentials" sheetId="1" r:id="rId1"/>
@@ -17,7 +23,7 @@
     <sheet name="CreateCampaigns" sheetId="25" r:id="rId8"/>
     <sheet name="API testing" sheetId="26" r:id="rId9"/>
   </sheets>
-  <calcPr calcId="125725" concurrentCalc="0"/>
+  <calcPr calcId="125725"/>
   <extLst>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
       <mx:ArchID Flags="2"/>
@@ -27,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1769" uniqueCount="799">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1781" uniqueCount="805">
   <si>
     <t>TEST CASE NAME</t>
   </si>
@@ -2436,11 +2442,29 @@
   <si>
     <t>Lesson_for_CampTrack_FourLessons_Three(4)</t>
   </si>
+  <si>
+    <t>TC_33</t>
+  </si>
+  <si>
+    <t>L33</t>
+  </si>
+  <si>
+    <t>TC_35</t>
+  </si>
+  <si>
+    <t>L35</t>
+  </si>
+  <si>
+    <t>TC_45</t>
+  </si>
+  <si>
+    <t>%^&amp;*((CUI</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="22">
     <font>
       <sz val="11"/>
@@ -2819,38 +2843,8 @@
     <xf numFmtId="0" fontId="18" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="18" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="7" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -2864,24 +2858,54 @@
     <xf numFmtId="0" fontId="0" fillId="3" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="20" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
+    <xf numFmtId="0" fontId="20" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="4">
     <cellStyle name="Followed Hyperlink" xfId="3" builtinId="9" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
-    <cellStyle name="Normal 2" xfId="2"/>
+    <cellStyle name="Normal 2" xfId="2" xr:uid="{00000000-0005-0000-0000-000003000000}"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleMedium4"/>
@@ -2953,6 +2977,14 @@
       <rgbColor rgb="00333333"/>
     </indexedColors>
   </colors>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
@@ -3277,11 +3309,11 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:AMK6"/>
   <sheetViews>
-    <sheetView zoomScale="77" zoomScaleNormal="77" zoomScalePageLayoutView="77" workbookViewId="0">
-      <selection activeCell="C10" sqref="C10"/>
+    <sheetView tabSelected="1" zoomScale="77" zoomScaleNormal="77" zoomScalePageLayoutView="77" workbookViewId="0">
+      <selection activeCell="A9" sqref="A9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="23.25"/>
@@ -3350,9 +3382,9 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="B2" r:id="rId1"/>
-    <hyperlink ref="C4" r:id="rId2"/>
-    <hyperlink ref="B4" r:id="rId3"/>
+    <hyperlink ref="B2" r:id="rId1" xr:uid="{00000000-0004-0000-0000-000000000000}"/>
+    <hyperlink ref="C4" r:id="rId2" xr:uid="{00000000-0004-0000-0000-000001000000}"/>
+    <hyperlink ref="B4" r:id="rId3" xr:uid="{00000000-0004-0000-0000-000002000000}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.51180555555555496" footer="0.51180555555555496"/>
   <extLst>
@@ -3364,7 +3396,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -3514,18 +3546,18 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="D2" r:id="rId1"/>
-    <hyperlink ref="G2" r:id="rId2"/>
-    <hyperlink ref="H2" r:id="rId3"/>
-    <hyperlink ref="D3" r:id="rId4"/>
-    <hyperlink ref="G3" r:id="rId5"/>
-    <hyperlink ref="H3" r:id="rId6"/>
-    <hyperlink ref="D4" r:id="rId7"/>
-    <hyperlink ref="G4" r:id="rId8"/>
-    <hyperlink ref="H4" r:id="rId9"/>
-    <hyperlink ref="D5" r:id="rId10"/>
-    <hyperlink ref="G5" r:id="rId11"/>
-    <hyperlink ref="H5" r:id="rId12"/>
+    <hyperlink ref="D2" r:id="rId1" xr:uid="{00000000-0004-0000-0100-000000000000}"/>
+    <hyperlink ref="G2" r:id="rId2" xr:uid="{00000000-0004-0000-0100-000001000000}"/>
+    <hyperlink ref="H2" r:id="rId3" xr:uid="{00000000-0004-0000-0100-000002000000}"/>
+    <hyperlink ref="D3" r:id="rId4" xr:uid="{00000000-0004-0000-0100-000003000000}"/>
+    <hyperlink ref="G3" r:id="rId5" xr:uid="{00000000-0004-0000-0100-000004000000}"/>
+    <hyperlink ref="H3" r:id="rId6" xr:uid="{00000000-0004-0000-0100-000005000000}"/>
+    <hyperlink ref="D4" r:id="rId7" xr:uid="{00000000-0004-0000-0100-000006000000}"/>
+    <hyperlink ref="G4" r:id="rId8" xr:uid="{00000000-0004-0000-0100-000007000000}"/>
+    <hyperlink ref="H4" r:id="rId9" xr:uid="{00000000-0004-0000-0100-000008000000}"/>
+    <hyperlink ref="D5" r:id="rId10" xr:uid="{00000000-0004-0000-0100-000009000000}"/>
+    <hyperlink ref="G5" r:id="rId11" xr:uid="{00000000-0004-0000-0100-00000A000000}"/>
+    <hyperlink ref="H5" r:id="rId12" xr:uid="{00000000-0004-0000-0100-00000B000000}"/>
   </hyperlinks>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <extLst>
@@ -3537,7 +3569,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:D15"/>
   <sheetViews>
     <sheetView topLeftCell="A2" workbookViewId="0">
@@ -3693,7 +3725,7 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="C2" r:id="rId1"/>
+    <hyperlink ref="C2" r:id="rId1" xr:uid="{00000000-0004-0000-0200-000000000000}"/>
   </hyperlinks>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <extLst>
@@ -3705,7 +3737,7 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="A1:AMK103"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -3721,10 +3753,10 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:2" ht="15" customHeight="1">
-      <c r="A1" s="42" t="s">
+      <c r="A1" s="49" t="s">
         <v>207</v>
       </c>
-      <c r="B1" s="43"/>
+      <c r="B1" s="50"/>
     </row>
     <row r="2" spans="1:2">
       <c r="A2" s="11" t="s">
@@ -3747,10 +3779,10 @@
       <c r="B4" s="12"/>
     </row>
     <row r="6" spans="1:2" ht="14.1" customHeight="1">
-      <c r="A6" s="42" t="s">
+      <c r="A6" s="49" t="s">
         <v>211</v>
       </c>
-      <c r="B6" s="43"/>
+      <c r="B6" s="50"/>
     </row>
     <row r="7" spans="1:2">
       <c r="A7" s="11" t="s">
@@ -3797,10 +3829,10 @@
       <c r="B12" s="12"/>
     </row>
     <row r="14" spans="1:2">
-      <c r="A14" s="41" t="s">
+      <c r="A14" s="48" t="s">
         <v>220</v>
       </c>
-      <c r="B14" s="41"/>
+      <c r="B14" s="48"/>
     </row>
     <row r="15" spans="1:2">
       <c r="A15" s="11" t="s">
@@ -3827,10 +3859,10 @@
       <c r="B18" s="12"/>
     </row>
     <row r="20" spans="1:2">
-      <c r="A20" s="41" t="s">
+      <c r="A20" s="48" t="s">
         <v>223</v>
       </c>
-      <c r="B20" s="41"/>
+      <c r="B20" s="48"/>
     </row>
     <row r="21" spans="1:2">
       <c r="A21" s="11" t="s">
@@ -3861,10 +3893,10 @@
       <c r="B24" s="12"/>
     </row>
     <row r="26" spans="1:2" ht="15" customHeight="1">
-      <c r="A26" s="41" t="s">
+      <c r="A26" s="48" t="s">
         <v>227</v>
       </c>
-      <c r="B26" s="41"/>
+      <c r="B26" s="48"/>
     </row>
     <row r="27" spans="1:2">
       <c r="A27" s="11" t="s">
@@ -3920,7 +3952,7 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
   <dimension ref="A1:E167"/>
   <sheetViews>
     <sheetView topLeftCell="A166" workbookViewId="0">
@@ -3939,14 +3971,14 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:4" ht="14.1" customHeight="1">
-      <c r="A1" s="42" t="s">
+      <c r="A1" s="49" t="s">
         <v>97</v>
       </c>
-      <c r="B1" s="43"/>
-      <c r="C1" s="42" t="s">
+      <c r="B1" s="50"/>
+      <c r="C1" s="49" t="s">
         <v>98</v>
       </c>
-      <c r="D1" s="43"/>
+      <c r="D1" s="50"/>
     </row>
     <row r="2" spans="1:4">
       <c r="A2" s="11" t="s">
@@ -4005,14 +4037,14 @@
       <c r="B7" s="11"/>
     </row>
     <row r="10" spans="1:4" ht="14.1" customHeight="1">
-      <c r="A10" s="42" t="s">
+      <c r="A10" s="49" t="s">
         <v>111</v>
       </c>
-      <c r="B10" s="43"/>
-      <c r="C10" s="42" t="s">
+      <c r="B10" s="50"/>
+      <c r="C10" s="49" t="s">
         <v>98</v>
       </c>
-      <c r="D10" s="43"/>
+      <c r="D10" s="50"/>
     </row>
     <row r="11" spans="1:4">
       <c r="A11" s="11" t="s">
@@ -4083,14 +4115,14 @@
       <c r="B16" s="11"/>
     </row>
     <row r="18" spans="1:4" ht="14.1" customHeight="1">
-      <c r="A18" s="42" t="s">
+      <c r="A18" s="49" t="s">
         <v>121</v>
       </c>
-      <c r="B18" s="43"/>
-      <c r="C18" s="42" t="s">
+      <c r="B18" s="50"/>
+      <c r="C18" s="49" t="s">
         <v>98</v>
       </c>
-      <c r="D18" s="43"/>
+      <c r="D18" s="50"/>
     </row>
     <row r="19" spans="1:4">
       <c r="A19" s="11" t="s">
@@ -4153,14 +4185,14 @@
       <c r="B24" s="11"/>
     </row>
     <row r="26" spans="1:4" ht="14.1" customHeight="1">
-      <c r="A26" s="42" t="s">
+      <c r="A26" s="49" t="s">
         <v>127</v>
       </c>
-      <c r="B26" s="43"/>
-      <c r="C26" s="42" t="s">
+      <c r="B26" s="50"/>
+      <c r="C26" s="49" t="s">
         <v>98</v>
       </c>
-      <c r="D26" s="43"/>
+      <c r="D26" s="50"/>
     </row>
     <row r="27" spans="1:4">
       <c r="A27" s="11" t="s">
@@ -4227,14 +4259,14 @@
       <c r="B32" s="11"/>
     </row>
     <row r="34" spans="1:4" ht="14.1" customHeight="1">
-      <c r="A34" s="42" t="s">
+      <c r="A34" s="49" t="s">
         <v>134</v>
       </c>
-      <c r="B34" s="43"/>
-      <c r="C34" s="42" t="s">
+      <c r="B34" s="50"/>
+      <c r="C34" s="49" t="s">
         <v>98</v>
       </c>
-      <c r="D34" s="43"/>
+      <c r="D34" s="50"/>
     </row>
     <row r="35" spans="1:4">
       <c r="A35" s="11" t="s">
@@ -4301,14 +4333,14 @@
       <c r="B40" s="11"/>
     </row>
     <row r="43" spans="1:4" ht="14.1" customHeight="1">
-      <c r="A43" s="42" t="s">
+      <c r="A43" s="49" t="s">
         <v>141</v>
       </c>
-      <c r="B43" s="43"/>
-      <c r="C43" s="42" t="s">
+      <c r="B43" s="50"/>
+      <c r="C43" s="49" t="s">
         <v>98</v>
       </c>
-      <c r="D43" s="43"/>
+      <c r="D43" s="50"/>
     </row>
     <row r="44" spans="1:4">
       <c r="A44" s="11" t="s">
@@ -4391,14 +4423,14 @@
       </c>
     </row>
     <row r="52" spans="1:5" ht="14.1" customHeight="1">
-      <c r="A52" s="42" t="s">
+      <c r="A52" s="49" t="s">
         <v>154</v>
       </c>
-      <c r="B52" s="43"/>
-      <c r="C52" s="42" t="s">
+      <c r="B52" s="50"/>
+      <c r="C52" s="49" t="s">
         <v>98</v>
       </c>
-      <c r="D52" s="43"/>
+      <c r="D52" s="50"/>
       <c r="E52" s="11"/>
     </row>
     <row r="53" spans="1:5" ht="93.75">
@@ -4492,14 +4524,14 @@
       <c r="E58" s="11"/>
     </row>
     <row r="60" spans="1:5" ht="14.1" customHeight="1">
-      <c r="A60" s="42" t="s">
+      <c r="A60" s="49" t="s">
         <v>162</v>
       </c>
-      <c r="B60" s="43"/>
-      <c r="C60" s="42" t="s">
+      <c r="B60" s="50"/>
+      <c r="C60" s="49" t="s">
         <v>98</v>
       </c>
-      <c r="D60" s="43"/>
+      <c r="D60" s="50"/>
     </row>
     <row r="61" spans="1:5">
       <c r="A61" s="11" t="s">
@@ -4592,14 +4624,14 @@
       </c>
     </row>
     <row r="70" spans="1:4" ht="14.1" customHeight="1">
-      <c r="A70" s="45" t="s">
+      <c r="A70" s="53" t="s">
         <v>169</v>
       </c>
-      <c r="B70" s="46"/>
-      <c r="C70" s="42" t="s">
+      <c r="B70" s="54"/>
+      <c r="C70" s="49" t="s">
         <v>170</v>
       </c>
-      <c r="D70" s="43"/>
+      <c r="D70" s="50"/>
     </row>
     <row r="71" spans="1:4">
       <c r="A71" s="11" t="s">
@@ -4636,10 +4668,10 @@
       <c r="B73" s="12" t="s">
         <v>175</v>
       </c>
-      <c r="C73" s="42" t="s">
+      <c r="C73" s="49" t="s">
         <v>176</v>
       </c>
-      <c r="D73" s="43"/>
+      <c r="D73" s="50"/>
     </row>
     <row r="74" spans="1:4" ht="37.5">
       <c r="A74" s="11" t="s">
@@ -4682,14 +4714,14 @@
       <c r="D77" s="11"/>
     </row>
     <row r="79" spans="1:4" ht="14.1" customHeight="1">
-      <c r="A79" s="45" t="s">
+      <c r="A79" s="53" t="s">
         <v>181</v>
       </c>
-      <c r="B79" s="46"/>
-      <c r="C79" s="42" t="s">
+      <c r="B79" s="54"/>
+      <c r="C79" s="49" t="s">
         <v>182</v>
       </c>
-      <c r="D79" s="43"/>
+      <c r="D79" s="50"/>
     </row>
     <row r="80" spans="1:4" ht="37.5">
       <c r="A80" s="11" t="s">
@@ -4726,10 +4758,10 @@
       <c r="B82" s="12" t="s">
         <v>186</v>
       </c>
-      <c r="C82" s="42" t="s">
+      <c r="C82" s="49" t="s">
         <v>187</v>
       </c>
-      <c r="D82" s="43"/>
+      <c r="D82" s="50"/>
     </row>
     <row r="83" spans="1:4" ht="37.5">
       <c r="A83" s="11" t="s">
@@ -4770,14 +4802,14 @@
       </c>
     </row>
     <row r="88" spans="1:4" ht="14.1" customHeight="1">
-      <c r="A88" s="44" t="s">
+      <c r="A88" s="51" t="s">
         <v>192</v>
       </c>
-      <c r="B88" s="44"/>
-      <c r="C88" s="41" t="s">
+      <c r="B88" s="51"/>
+      <c r="C88" s="48" t="s">
         <v>187</v>
       </c>
-      <c r="D88" s="41"/>
+      <c r="D88" s="48"/>
     </row>
     <row r="89" spans="1:4" ht="37.5">
       <c r="A89" s="11" t="s">
@@ -4828,10 +4860,10 @@
       <c r="B92" s="12" t="s">
         <v>148</v>
       </c>
-      <c r="C92" s="41" t="s">
+      <c r="C92" s="48" t="s">
         <v>196</v>
       </c>
-      <c r="D92" s="41"/>
+      <c r="D92" s="48"/>
     </row>
     <row r="93" spans="1:4" ht="56.25">
       <c r="A93" s="11" t="s">
@@ -4870,10 +4902,10 @@
     <row r="96" spans="1:4">
       <c r="A96" s="11"/>
       <c r="B96" s="11"/>
-      <c r="C96" s="41" t="s">
+      <c r="C96" s="48" t="s">
         <v>201</v>
       </c>
-      <c r="D96" s="41"/>
+      <c r="D96" s="48"/>
     </row>
     <row r="97" spans="1:4" ht="37.5">
       <c r="A97" s="11"/>
@@ -4916,14 +4948,14 @@
       </c>
     </row>
     <row r="103" spans="1:4" ht="14.1" customHeight="1">
-      <c r="A103" s="44" t="s">
+      <c r="A103" s="51" t="s">
         <v>204</v>
       </c>
-      <c r="B103" s="44"/>
-      <c r="C103" s="41" t="s">
+      <c r="B103" s="51"/>
+      <c r="C103" s="48" t="s">
         <v>229</v>
       </c>
-      <c r="D103" s="41"/>
+      <c r="D103" s="48"/>
     </row>
     <row r="104" spans="1:4" ht="37.5">
       <c r="A104" s="11" t="s">
@@ -4946,10 +4978,10 @@
       <c r="B105" s="12" t="s">
         <v>455</v>
       </c>
-      <c r="C105" s="42" t="s">
+      <c r="C105" s="49" t="s">
         <v>231</v>
       </c>
-      <c r="D105" s="43"/>
+      <c r="D105" s="50"/>
     </row>
     <row r="106" spans="1:4" ht="37.5">
       <c r="A106" s="11" t="s">
@@ -5064,14 +5096,14 @@
       </c>
     </row>
     <row r="118" spans="1:4">
-      <c r="A118" s="44" t="s">
+      <c r="A118" s="51" t="s">
         <v>238</v>
       </c>
-      <c r="B118" s="44"/>
-      <c r="C118" s="41" t="s">
+      <c r="B118" s="51"/>
+      <c r="C118" s="48" t="s">
         <v>239</v>
       </c>
-      <c r="D118" s="41"/>
+      <c r="D118" s="48"/>
     </row>
     <row r="119" spans="1:4">
       <c r="A119" s="11" t="s">
@@ -5154,10 +5186,10 @@
       </c>
     </row>
     <row r="125" spans="1:4">
-      <c r="A125" s="47" t="s">
+      <c r="A125" s="52" t="s">
         <v>244</v>
       </c>
-      <c r="B125" s="43"/>
+      <c r="B125" s="50"/>
       <c r="C125" s="11" t="s">
         <v>24</v>
       </c>
@@ -5204,14 +5236,14 @@
       <c r="D128" s="12"/>
     </row>
     <row r="131" spans="1:4">
-      <c r="A131" s="44" t="s">
+      <c r="A131" s="51" t="s">
         <v>249</v>
       </c>
-      <c r="B131" s="44"/>
-      <c r="C131" s="41" t="s">
+      <c r="B131" s="51"/>
+      <c r="C131" s="48" t="s">
         <v>250</v>
       </c>
-      <c r="D131" s="41"/>
+      <c r="D131" s="48"/>
     </row>
     <row r="132" spans="1:4">
       <c r="A132" s="11" t="s">
@@ -5342,14 +5374,14 @@
       <c r="D141" s="11"/>
     </row>
     <row r="144" spans="1:4">
-      <c r="A144" s="44" t="s">
+      <c r="A144" s="51" t="s">
         <v>262</v>
       </c>
-      <c r="B144" s="44"/>
-      <c r="C144" s="41" t="s">
+      <c r="B144" s="51"/>
+      <c r="C144" s="48" t="s">
         <v>250</v>
       </c>
-      <c r="D144" s="41"/>
+      <c r="D144" s="48"/>
     </row>
     <row r="145" spans="1:4">
       <c r="A145" s="11" t="s">
@@ -5476,14 +5508,14 @@
       <c r="D154" s="11"/>
     </row>
     <row r="157" spans="1:4">
-      <c r="A157" s="44" t="s">
+      <c r="A157" s="51" t="s">
         <v>273</v>
       </c>
-      <c r="B157" s="44"/>
-      <c r="C157" s="41" t="s">
+      <c r="B157" s="51"/>
+      <c r="C157" s="48" t="s">
         <v>250</v>
       </c>
-      <c r="D157" s="41"/>
+      <c r="D157" s="48"/>
     </row>
     <row r="158" spans="1:4">
       <c r="A158" s="11" t="s">
@@ -5617,6 +5649,34 @@
     </row>
   </sheetData>
   <mergeCells count="38">
+    <mergeCell ref="C92:D92"/>
+    <mergeCell ref="C96:D96"/>
+    <mergeCell ref="A103:B103"/>
+    <mergeCell ref="C103:D103"/>
+    <mergeCell ref="C73:D73"/>
+    <mergeCell ref="A79:B79"/>
+    <mergeCell ref="C79:D79"/>
+    <mergeCell ref="C82:D82"/>
+    <mergeCell ref="A88:B88"/>
+    <mergeCell ref="C88:D88"/>
+    <mergeCell ref="A52:B52"/>
+    <mergeCell ref="C52:D52"/>
+    <mergeCell ref="A60:B60"/>
+    <mergeCell ref="C60:D60"/>
+    <mergeCell ref="A70:B70"/>
+    <mergeCell ref="C70:D70"/>
+    <mergeCell ref="A26:B26"/>
+    <mergeCell ref="C26:D26"/>
+    <mergeCell ref="A34:B34"/>
+    <mergeCell ref="C34:D34"/>
+    <mergeCell ref="A43:B43"/>
+    <mergeCell ref="C43:D43"/>
+    <mergeCell ref="A1:B1"/>
+    <mergeCell ref="C1:D1"/>
+    <mergeCell ref="A10:B10"/>
+    <mergeCell ref="C10:D10"/>
+    <mergeCell ref="A18:B18"/>
+    <mergeCell ref="C18:D18"/>
     <mergeCell ref="A144:B144"/>
     <mergeCell ref="C144:D144"/>
     <mergeCell ref="A157:B157"/>
@@ -5627,34 +5687,6 @@
     <mergeCell ref="A125:B125"/>
     <mergeCell ref="A131:B131"/>
     <mergeCell ref="C131:D131"/>
-    <mergeCell ref="A1:B1"/>
-    <mergeCell ref="C1:D1"/>
-    <mergeCell ref="A10:B10"/>
-    <mergeCell ref="C10:D10"/>
-    <mergeCell ref="A18:B18"/>
-    <mergeCell ref="C18:D18"/>
-    <mergeCell ref="A26:B26"/>
-    <mergeCell ref="C26:D26"/>
-    <mergeCell ref="A34:B34"/>
-    <mergeCell ref="C34:D34"/>
-    <mergeCell ref="A43:B43"/>
-    <mergeCell ref="C43:D43"/>
-    <mergeCell ref="A52:B52"/>
-    <mergeCell ref="C52:D52"/>
-    <mergeCell ref="A60:B60"/>
-    <mergeCell ref="C60:D60"/>
-    <mergeCell ref="A70:B70"/>
-    <mergeCell ref="C70:D70"/>
-    <mergeCell ref="C92:D92"/>
-    <mergeCell ref="C96:D96"/>
-    <mergeCell ref="A103:B103"/>
-    <mergeCell ref="C103:D103"/>
-    <mergeCell ref="C73:D73"/>
-    <mergeCell ref="A79:B79"/>
-    <mergeCell ref="C79:D79"/>
-    <mergeCell ref="C82:D82"/>
-    <mergeCell ref="A88:B88"/>
-    <mergeCell ref="C88:D88"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <extLst>
@@ -5666,7 +5698,7 @@
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
   <dimension ref="A1:J52"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -6258,7 +6290,7 @@
 </file>
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0600-000000000000}">
   <dimension ref="A1:E35"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -6799,3857 +6831,3849 @@
 </file>
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0700-000000000000}">
   <dimension ref="A1:H331"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="C232" sqref="C232"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="31.5703125" style="49" customWidth="1"/>
-    <col min="2" max="2" width="46.85546875" style="49" customWidth="1"/>
-    <col min="3" max="3" width="22.28515625" style="49" customWidth="1"/>
-    <col min="4" max="4" width="35.7109375" style="49" customWidth="1"/>
-    <col min="5" max="5" width="33" style="49" customWidth="1"/>
-    <col min="6" max="6" width="48.140625" style="49" customWidth="1"/>
-    <col min="7" max="7" width="26.140625" style="49" customWidth="1"/>
-    <col min="8" max="8" width="29.5703125" style="49" customWidth="1"/>
-    <col min="9" max="16384" width="9.140625" style="49"/>
+    <col min="1" max="1" width="31.5703125" style="41" customWidth="1"/>
+    <col min="2" max="2" width="46.85546875" style="41" customWidth="1"/>
+    <col min="3" max="3" width="22.28515625" style="41" customWidth="1"/>
+    <col min="4" max="4" width="35.7109375" style="41" customWidth="1"/>
+    <col min="5" max="5" width="33" style="41" customWidth="1"/>
+    <col min="6" max="6" width="48.140625" style="41" customWidth="1"/>
+    <col min="7" max="7" width="26.140625" style="41" customWidth="1"/>
+    <col min="8" max="8" width="29.5703125" style="41" customWidth="1"/>
+    <col min="9" max="16384" width="9.140625" style="41"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:8">
-      <c r="A1" s="48" t="s">
+      <c r="A1" s="59" t="s">
         <v>459</v>
       </c>
-      <c r="B1" s="48"/>
-      <c r="D1" s="50" t="s">
+      <c r="B1" s="59"/>
+      <c r="D1" s="55" t="s">
         <v>460</v>
       </c>
-      <c r="E1" s="51"/>
-      <c r="G1" s="50" t="s">
+      <c r="E1" s="56"/>
+      <c r="G1" s="55" t="s">
         <v>626</v>
       </c>
-      <c r="H1" s="51"/>
+      <c r="H1" s="56"/>
     </row>
     <row r="2" spans="1:8" ht="30" customHeight="1">
-      <c r="A2" s="52" t="s">
+      <c r="A2" s="42" t="s">
         <v>461</v>
       </c>
-      <c r="B2" s="53" t="s">
+      <c r="B2" s="43" t="s">
         <v>462</v>
       </c>
-      <c r="D2" s="52" t="s">
+      <c r="D2" s="42" t="s">
         <v>463</v>
       </c>
-      <c r="E2" s="52" t="s">
+      <c r="E2" s="42" t="s">
         <v>464</v>
       </c>
-      <c r="G2" s="52" t="s">
+      <c r="G2" s="42" t="s">
         <v>463</v>
       </c>
-      <c r="H2" s="52" t="s">
+      <c r="H2" s="42" t="s">
         <v>627</v>
       </c>
     </row>
     <row r="3" spans="1:8" ht="28.5" customHeight="1">
-      <c r="A3" s="52" t="s">
+      <c r="A3" s="42" t="s">
         <v>465</v>
       </c>
-      <c r="B3" s="53" t="s">
+      <c r="B3" s="43" t="s">
         <v>466</v>
       </c>
-      <c r="D3" s="52" t="s">
+      <c r="D3" s="42" t="s">
         <v>467</v>
       </c>
-      <c r="E3" s="52" t="s">
+      <c r="E3" s="42" t="s">
         <v>468</v>
       </c>
-      <c r="G3" s="52" t="s">
+      <c r="G3" s="42" t="s">
         <v>467</v>
       </c>
-      <c r="H3" s="52" t="s">
+      <c r="H3" s="42" t="s">
         <v>628</v>
       </c>
     </row>
     <row r="4" spans="1:8" ht="45">
-      <c r="A4" s="52" t="s">
+      <c r="A4" s="42" t="s">
         <v>469</v>
       </c>
-      <c r="B4" s="53" t="s">
+      <c r="B4" s="43" t="s">
         <v>470</v>
       </c>
-      <c r="D4" s="52" t="s">
+      <c r="D4" s="42" t="s">
         <v>109</v>
       </c>
-      <c r="E4" s="52" t="s">
+      <c r="E4" s="42" t="s">
         <v>471</v>
       </c>
-      <c r="G4" s="52" t="s">
+      <c r="G4" s="42" t="s">
         <v>109</v>
       </c>
-      <c r="H4" s="52" t="s">
+      <c r="H4" s="42" t="s">
         <v>629</v>
       </c>
     </row>
     <row r="5" spans="1:8">
-      <c r="A5" s="52" t="s">
+      <c r="A5" s="42" t="s">
         <v>472</v>
       </c>
-      <c r="B5" s="53" t="s">
+      <c r="B5" s="43" t="s">
         <v>473</v>
       </c>
-      <c r="D5" s="50" t="s">
+      <c r="D5" s="55" t="s">
         <v>474</v>
       </c>
-      <c r="E5" s="51"/>
-      <c r="G5" s="54" t="s">
+      <c r="E5" s="56"/>
+      <c r="G5" s="57" t="s">
         <v>630</v>
       </c>
-      <c r="H5" s="55"/>
+      <c r="H5" s="58"/>
     </row>
     <row r="6" spans="1:8" ht="30">
-      <c r="A6" s="52" t="s">
+      <c r="A6" s="42" t="s">
         <v>475</v>
       </c>
-      <c r="B6" s="53" t="s">
+      <c r="B6" s="43" t="s">
         <v>476</v>
       </c>
-      <c r="D6" s="52" t="s">
+      <c r="D6" s="42" t="s">
         <v>212</v>
       </c>
-      <c r="E6" s="52" t="s">
+      <c r="E6" s="42" t="s">
         <v>477</v>
       </c>
-      <c r="G6" s="52" t="s">
+      <c r="G6" s="42" t="s">
         <v>99</v>
       </c>
-      <c r="H6" s="52" t="s">
+      <c r="H6" s="42" t="s">
         <v>631</v>
       </c>
     </row>
     <row r="7" spans="1:8" ht="30">
-      <c r="A7" s="52" t="s">
+      <c r="A7" s="42" t="s">
         <v>478</v>
       </c>
-      <c r="B7" s="53" t="s">
+      <c r="B7" s="43" t="s">
         <v>479</v>
       </c>
-      <c r="D7" s="52" t="s">
+      <c r="D7" s="42" t="s">
         <v>165</v>
       </c>
-      <c r="E7" s="52" t="s">
+      <c r="E7" s="42" t="s">
         <v>480</v>
       </c>
-      <c r="G7" s="52" t="s">
+      <c r="G7" s="42" t="s">
         <v>147</v>
       </c>
-      <c r="H7" s="52" t="s">
+      <c r="H7" s="42" t="s">
         <v>455</v>
       </c>
     </row>
     <row r="8" spans="1:8" ht="30">
-      <c r="A8" s="52" t="s">
+      <c r="A8" s="42" t="s">
         <v>481</v>
       </c>
-      <c r="B8" s="53" t="s">
+      <c r="B8" s="43" t="s">
         <v>482</v>
       </c>
-      <c r="D8" s="52"/>
-      <c r="E8" s="52"/>
-      <c r="G8" s="52" t="s">
+      <c r="D8" s="42"/>
+      <c r="E8" s="42"/>
+      <c r="G8" s="42" t="s">
         <v>105</v>
       </c>
-      <c r="H8" s="52" t="s">
+      <c r="H8" s="42" t="s">
         <v>632</v>
       </c>
     </row>
     <row r="9" spans="1:8">
-      <c r="A9" s="52" t="s">
+      <c r="A9" s="42" t="s">
         <v>483</v>
       </c>
-      <c r="B9" s="53" t="s">
+      <c r="B9" s="43" t="s">
         <v>484</v>
       </c>
-      <c r="D9" s="52"/>
-      <c r="E9" s="52"/>
-      <c r="G9" s="52" t="s">
+      <c r="D9" s="42"/>
+      <c r="E9" s="42"/>
+      <c r="G9" s="42" t="s">
         <v>378</v>
       </c>
-      <c r="H9" s="52" t="s">
+      <c r="H9" s="42" t="s">
         <v>108</v>
       </c>
     </row>
     <row r="10" spans="1:8" ht="45">
-      <c r="A10" s="52" t="s">
+      <c r="A10" s="42" t="s">
         <v>485</v>
       </c>
-      <c r="B10" s="53" t="s">
+      <c r="B10" s="43" t="s">
         <v>486</v>
       </c>
-      <c r="D10" s="52"/>
-      <c r="E10" s="52"/>
-      <c r="G10" s="52" t="s">
+      <c r="D10" s="42"/>
+      <c r="E10" s="42"/>
+      <c r="G10" s="42" t="s">
         <v>633</v>
       </c>
-      <c r="H10" s="52" t="s">
+      <c r="H10" s="42" t="s">
         <v>634</v>
       </c>
     </row>
     <row r="11" spans="1:8">
-      <c r="A11" s="52"/>
-      <c r="B11" s="53" t="s">
+      <c r="A11" s="42"/>
+      <c r="B11" s="43" t="s">
         <v>487</v>
       </c>
-      <c r="D11" s="52"/>
-      <c r="E11" s="52"/>
-      <c r="G11" s="56" t="s">
+      <c r="D11" s="42"/>
+      <c r="E11" s="42"/>
+      <c r="G11" s="44" t="s">
         <v>474</v>
       </c>
-      <c r="H11" s="57"/>
+      <c r="H11" s="45"/>
     </row>
     <row r="12" spans="1:8" ht="30">
-      <c r="A12" s="52"/>
-      <c r="B12" s="53" t="s">
+      <c r="A12" s="42"/>
+      <c r="B12" s="43" t="s">
         <v>488</v>
       </c>
-      <c r="G12" s="52" t="s">
+      <c r="G12" s="42" t="s">
         <v>23</v>
       </c>
-      <c r="H12" s="52" t="s">
+      <c r="H12" s="42" t="s">
         <v>635</v>
       </c>
     </row>
     <row r="13" spans="1:8">
-      <c r="A13" s="52"/>
-      <c r="B13" s="52"/>
-      <c r="G13" s="52" t="s">
+      <c r="A13" s="42"/>
+      <c r="B13" s="42"/>
+      <c r="G13" s="42" t="s">
         <v>236</v>
       </c>
-      <c r="H13" s="52" t="s">
+      <c r="H13" s="42" t="s">
         <v>636</v>
       </c>
     </row>
     <row r="15" spans="1:8">
-      <c r="D15" s="50" t="s">
+      <c r="D15" s="55" t="s">
         <v>637</v>
       </c>
-      <c r="E15" s="51"/>
+      <c r="E15" s="56"/>
     </row>
     <row r="16" spans="1:8" ht="30">
-      <c r="A16" s="50" t="s">
+      <c r="A16" s="55" t="s">
         <v>489</v>
       </c>
-      <c r="B16" s="51"/>
-      <c r="D16" s="52" t="s">
+      <c r="B16" s="56"/>
+      <c r="D16" s="42" t="s">
         <v>463</v>
       </c>
-      <c r="E16" s="52" t="s">
+      <c r="E16" s="42" t="s">
         <v>638</v>
       </c>
     </row>
     <row r="17" spans="1:5" ht="30">
-      <c r="A17" s="52" t="s">
+      <c r="A17" s="42" t="s">
         <v>463</v>
       </c>
-      <c r="B17" s="52" t="s">
+      <c r="B17" s="42" t="s">
         <v>490</v>
       </c>
-      <c r="D17" s="52" t="s">
+      <c r="D17" s="42" t="s">
         <v>467</v>
       </c>
-      <c r="E17" s="52" t="s">
+      <c r="E17" s="42" t="s">
         <v>639</v>
       </c>
     </row>
     <row r="18" spans="1:5" ht="45">
-      <c r="A18" s="52" t="s">
+      <c r="A18" s="42" t="s">
         <v>467</v>
       </c>
-      <c r="B18" s="52" t="s">
+      <c r="B18" s="42" t="s">
         <v>491</v>
       </c>
-      <c r="D18" s="52" t="s">
+      <c r="D18" s="42" t="s">
         <v>109</v>
       </c>
-      <c r="E18" s="52" t="s">
+      <c r="E18" s="42" t="s">
         <v>640</v>
       </c>
     </row>
     <row r="19" spans="1:5" ht="30">
-      <c r="A19" s="52" t="s">
+      <c r="A19" s="42" t="s">
         <v>109</v>
       </c>
-      <c r="B19" s="52" t="s">
+      <c r="B19" s="42" t="s">
         <v>492</v>
       </c>
-      <c r="D19" s="54" t="s">
+      <c r="D19" s="57" t="s">
         <v>630</v>
       </c>
-      <c r="E19" s="55"/>
+      <c r="E19" s="58"/>
     </row>
     <row r="20" spans="1:5">
-      <c r="A20" s="50" t="s">
+      <c r="A20" s="55" t="s">
         <v>474</v>
       </c>
-      <c r="B20" s="51"/>
-      <c r="D20" s="52" t="s">
+      <c r="B20" s="56"/>
+      <c r="D20" s="42" t="s">
         <v>99</v>
       </c>
-      <c r="E20" s="52" t="s">
+      <c r="E20" s="42" t="s">
         <v>641</v>
       </c>
     </row>
     <row r="21" spans="1:5" ht="30">
-      <c r="A21" s="52" t="s">
+      <c r="A21" s="42" t="s">
         <v>212</v>
       </c>
-      <c r="B21" s="52" t="s">
+      <c r="B21" s="42" t="s">
         <v>493</v>
       </c>
-      <c r="D21" s="52" t="s">
+      <c r="D21" s="42" t="s">
         <v>147</v>
       </c>
-      <c r="E21" s="52" t="s">
+      <c r="E21" s="42" t="s">
         <v>455</v>
       </c>
     </row>
     <row r="22" spans="1:5" ht="30">
-      <c r="A22" s="52" t="s">
+      <c r="A22" s="42" t="s">
         <v>494</v>
       </c>
-      <c r="B22" s="52" t="s">
+      <c r="B22" s="42" t="s">
         <v>455</v>
       </c>
-      <c r="D22" s="52" t="s">
+      <c r="D22" s="42" t="s">
         <v>105</v>
       </c>
-      <c r="E22" s="52" t="s">
+      <c r="E22" s="42" t="s">
         <v>642</v>
       </c>
     </row>
     <row r="23" spans="1:5">
-      <c r="A23" s="52"/>
-      <c r="B23" s="52"/>
-      <c r="D23" s="52" t="s">
+      <c r="A23" s="42"/>
+      <c r="B23" s="42"/>
+      <c r="D23" s="42" t="s">
         <v>378</v>
       </c>
-      <c r="E23" s="52" t="s">
+      <c r="E23" s="42" t="s">
         <v>108</v>
       </c>
     </row>
     <row r="24" spans="1:5" ht="45">
-      <c r="D24" s="52" t="s">
+      <c r="D24" s="42" t="s">
         <v>633</v>
       </c>
-      <c r="E24" s="52" t="s">
+      <c r="E24" s="42" t="s">
         <v>643</v>
       </c>
     </row>
     <row r="25" spans="1:5">
-      <c r="D25" s="54" t="s">
+      <c r="D25" s="57" t="s">
         <v>474</v>
       </c>
-      <c r="E25" s="55"/>
+      <c r="E25" s="58"/>
     </row>
     <row r="26" spans="1:5" ht="18.75" customHeight="1">
-      <c r="A26" s="50" t="s">
+      <c r="A26" s="55" t="s">
         <v>495</v>
       </c>
-      <c r="B26" s="51"/>
-      <c r="D26" s="52" t="s">
+      <c r="B26" s="56"/>
+      <c r="D26" s="42" t="s">
         <v>23</v>
       </c>
-      <c r="E26" s="52" t="s">
+      <c r="E26" s="42" t="s">
         <v>644</v>
       </c>
     </row>
     <row r="27" spans="1:5" ht="30">
-      <c r="A27" s="52" t="s">
+      <c r="A27" s="42" t="s">
         <v>463</v>
       </c>
-      <c r="B27" s="52" t="s">
+      <c r="B27" s="42" t="s">
         <v>496</v>
       </c>
-      <c r="D27" s="52" t="s">
+      <c r="D27" s="42" t="s">
         <v>147</v>
       </c>
-      <c r="E27" s="52" t="s">
+      <c r="E27" s="42" t="s">
         <v>455</v>
       </c>
     </row>
     <row r="28" spans="1:5">
-      <c r="A28" s="52" t="s">
+      <c r="A28" s="42" t="s">
         <v>467</v>
       </c>
-      <c r="B28" s="52" t="s">
+      <c r="B28" s="42" t="s">
         <v>497</v>
       </c>
     </row>
     <row r="29" spans="1:5" ht="30">
-      <c r="A29" s="52" t="s">
+      <c r="A29" s="42" t="s">
         <v>109</v>
       </c>
-      <c r="B29" s="52" t="s">
+      <c r="B29" s="42" t="s">
         <v>498</v>
       </c>
     </row>
     <row r="30" spans="1:5">
-      <c r="A30" s="50" t="s">
+      <c r="A30" s="55" t="s">
         <v>474</v>
       </c>
-      <c r="B30" s="51"/>
-      <c r="D30" s="50" t="s">
+      <c r="B30" s="56"/>
+      <c r="D30" s="55" t="s">
         <v>645</v>
       </c>
-      <c r="E30" s="51"/>
+      <c r="E30" s="56"/>
     </row>
     <row r="31" spans="1:5" ht="30">
-      <c r="A31" s="52" t="s">
+      <c r="A31" s="42" t="s">
         <v>212</v>
       </c>
-      <c r="B31" s="52" t="s">
+      <c r="B31" s="42" t="s">
         <v>499</v>
       </c>
-      <c r="D31" s="52" t="s">
+      <c r="D31" s="42" t="s">
         <v>463</v>
       </c>
-      <c r="E31" s="52" t="s">
+      <c r="E31" s="42" t="s">
         <v>646</v>
       </c>
     </row>
     <row r="32" spans="1:5" ht="30">
-      <c r="A32" s="52" t="s">
+      <c r="A32" s="42" t="s">
         <v>500</v>
       </c>
-      <c r="B32" s="52" t="s">
+      <c r="B32" s="42" t="s">
         <v>456</v>
       </c>
-      <c r="D32" s="52" t="s">
+      <c r="D32" s="42" t="s">
         <v>467</v>
       </c>
-      <c r="E32" s="52" t="s">
+      <c r="E32" s="42" t="s">
         <v>647</v>
       </c>
     </row>
     <row r="33" spans="1:5" ht="45">
-      <c r="A33" s="52" t="s">
+      <c r="A33" s="42" t="s">
         <v>132</v>
       </c>
-      <c r="B33" s="52">
+      <c r="B33" s="42">
         <v>200</v>
       </c>
-      <c r="D33" s="52" t="s">
+      <c r="D33" s="42" t="s">
         <v>109</v>
       </c>
-      <c r="E33" s="52" t="s">
+      <c r="E33" s="42" t="s">
         <v>648</v>
       </c>
     </row>
     <row r="34" spans="1:5">
-      <c r="D34" s="54" t="s">
+      <c r="D34" s="57" t="s">
         <v>630</v>
       </c>
-      <c r="E34" s="55"/>
+      <c r="E34" s="58"/>
     </row>
     <row r="35" spans="1:5" ht="18.75" customHeight="1">
-      <c r="A35" s="50" t="s">
+      <c r="A35" s="55" t="s">
         <v>501</v>
       </c>
-      <c r="B35" s="51"/>
-      <c r="D35" s="52" t="s">
+      <c r="B35" s="56"/>
+      <c r="D35" s="42" t="s">
         <v>99</v>
       </c>
-      <c r="E35" s="52" t="s">
+      <c r="E35" s="42" t="s">
         <v>649</v>
       </c>
     </row>
     <row r="36" spans="1:5" ht="30">
-      <c r="A36" s="52" t="s">
+      <c r="A36" s="42" t="s">
         <v>463</v>
       </c>
-      <c r="B36" s="52" t="s">
+      <c r="B36" s="42" t="s">
         <v>502</v>
       </c>
-      <c r="D36" s="52" t="s">
+      <c r="D36" s="42" t="s">
         <v>147</v>
       </c>
-      <c r="E36" s="52" t="s">
+      <c r="E36" s="42" t="s">
         <v>455</v>
       </c>
     </row>
     <row r="37" spans="1:5" ht="30">
-      <c r="A37" s="52" t="s">
+      <c r="A37" s="42" t="s">
         <v>467</v>
       </c>
-      <c r="B37" s="52" t="s">
+      <c r="B37" s="42" t="s">
         <v>503</v>
       </c>
-      <c r="D37" s="52" t="s">
+      <c r="D37" s="42" t="s">
         <v>105</v>
       </c>
-      <c r="E37" s="52" t="s">
+      <c r="E37" s="42" t="s">
         <v>650</v>
       </c>
     </row>
     <row r="38" spans="1:5" ht="30">
-      <c r="A38" s="52" t="s">
+      <c r="A38" s="42" t="s">
         <v>109</v>
       </c>
-      <c r="B38" s="52" t="s">
+      <c r="B38" s="42" t="s">
         <v>504</v>
       </c>
-      <c r="D38" s="52" t="s">
+      <c r="D38" s="42" t="s">
         <v>378</v>
       </c>
-      <c r="E38" s="52" t="s">
+      <c r="E38" s="42" t="s">
         <v>108</v>
       </c>
     </row>
     <row r="39" spans="1:5" ht="45">
-      <c r="A39" s="50" t="s">
+      <c r="A39" s="55" t="s">
         <v>474</v>
       </c>
-      <c r="B39" s="51"/>
-      <c r="D39" s="52" t="s">
+      <c r="B39" s="56"/>
+      <c r="D39" s="42" t="s">
         <v>633</v>
       </c>
-      <c r="E39" s="52" t="s">
+      <c r="E39" s="42" t="s">
         <v>651</v>
       </c>
     </row>
     <row r="40" spans="1:5">
-      <c r="A40" s="52" t="s">
+      <c r="A40" s="42" t="s">
         <v>212</v>
       </c>
-      <c r="B40" s="52" t="s">
+      <c r="B40" s="42" t="s">
         <v>505</v>
       </c>
-      <c r="D40" s="54" t="s">
+      <c r="D40" s="57" t="s">
         <v>474</v>
       </c>
-      <c r="E40" s="55"/>
+      <c r="E40" s="58"/>
     </row>
     <row r="41" spans="1:5" ht="30">
-      <c r="A41" s="52" t="s">
+      <c r="A41" s="42" t="s">
         <v>500</v>
       </c>
-      <c r="B41" s="52" t="s">
+      <c r="B41" s="42" t="s">
         <v>457</v>
       </c>
-      <c r="D41" s="52" t="s">
+      <c r="D41" s="42" t="s">
         <v>23</v>
       </c>
-      <c r="E41" s="52" t="s">
+      <c r="E41" s="42" t="s">
         <v>652</v>
       </c>
     </row>
     <row r="42" spans="1:5" ht="30">
-      <c r="A42" s="52" t="s">
+      <c r="A42" s="42" t="s">
         <v>132</v>
       </c>
-      <c r="B42" s="52">
+      <c r="B42" s="42">
         <v>200</v>
       </c>
-      <c r="D42" s="52" t="s">
+      <c r="D42" s="42" t="s">
         <v>557</v>
       </c>
-      <c r="E42" s="52" t="s">
+      <c r="E42" s="42" t="s">
         <v>456</v>
       </c>
     </row>
     <row r="43" spans="1:5">
-      <c r="D43" s="52" t="s">
+      <c r="D43" s="42" t="s">
         <v>132</v>
       </c>
-      <c r="E43" s="52">
+      <c r="E43" s="42">
         <v>200</v>
       </c>
     </row>
     <row r="44" spans="1:5" ht="18.75" customHeight="1">
-      <c r="A44" s="50" t="s">
+      <c r="A44" s="55" t="s">
         <v>506</v>
       </c>
-      <c r="B44" s="51"/>
+      <c r="B44" s="56"/>
     </row>
     <row r="45" spans="1:5">
-      <c r="A45" s="52" t="s">
+      <c r="A45" s="42" t="s">
         <v>463</v>
       </c>
-      <c r="B45" s="52" t="s">
+      <c r="B45" s="42" t="s">
         <v>507</v>
       </c>
     </row>
     <row r="46" spans="1:5">
-      <c r="A46" s="52" t="s">
+      <c r="A46" s="42" t="s">
         <v>467</v>
       </c>
-      <c r="B46" s="52" t="s">
+      <c r="B46" s="42" t="s">
         <v>508</v>
       </c>
-      <c r="D46" s="50" t="s">
+      <c r="D46" s="55" t="s">
         <v>653</v>
       </c>
-      <c r="E46" s="51"/>
+      <c r="E46" s="56"/>
     </row>
     <row r="47" spans="1:5" ht="30">
-      <c r="A47" s="52" t="s">
+      <c r="A47" s="42" t="s">
         <v>109</v>
       </c>
-      <c r="B47" s="52" t="s">
+      <c r="B47" s="42" t="s">
         <v>509</v>
       </c>
-      <c r="D47" s="52" t="s">
+      <c r="D47" s="42" t="s">
         <v>463</v>
       </c>
-      <c r="E47" s="52" t="s">
+      <c r="E47" s="42" t="s">
         <v>654</v>
       </c>
     </row>
     <row r="48" spans="1:5" ht="30">
-      <c r="A48" s="50" t="s">
+      <c r="A48" s="55" t="s">
         <v>474</v>
       </c>
-      <c r="B48" s="51"/>
-      <c r="D48" s="52" t="s">
+      <c r="B48" s="56"/>
+      <c r="D48" s="42" t="s">
         <v>467</v>
       </c>
-      <c r="E48" s="52" t="s">
+      <c r="E48" s="42" t="s">
         <v>655</v>
       </c>
     </row>
     <row r="49" spans="1:5" ht="45">
-      <c r="A49" s="52" t="s">
+      <c r="A49" s="42" t="s">
         <v>212</v>
       </c>
-      <c r="B49" s="52" t="s">
+      <c r="B49" s="42" t="s">
         <v>510</v>
       </c>
-      <c r="D49" s="52" t="s">
+      <c r="D49" s="42" t="s">
         <v>109</v>
       </c>
-      <c r="E49" s="52" t="s">
+      <c r="E49" s="42" t="s">
         <v>656</v>
       </c>
     </row>
     <row r="50" spans="1:5">
-      <c r="A50" s="52" t="s">
+      <c r="A50" s="42" t="s">
         <v>24</v>
       </c>
-      <c r="B50" s="52" t="s">
+      <c r="B50" s="42" t="s">
         <v>511</v>
       </c>
-      <c r="D50" s="54" t="s">
+      <c r="D50" s="57" t="s">
         <v>630</v>
       </c>
-      <c r="E50" s="55"/>
+      <c r="E50" s="58"/>
     </row>
     <row r="51" spans="1:5" ht="30">
-      <c r="A51" s="52" t="s">
+      <c r="A51" s="42" t="s">
         <v>151</v>
       </c>
-      <c r="B51" s="52" t="s">
+      <c r="B51" s="42" t="s">
         <v>512</v>
       </c>
-      <c r="D51" s="52" t="s">
+      <c r="D51" s="42" t="s">
         <v>99</v>
       </c>
-      <c r="E51" s="52" t="s">
+      <c r="E51" s="42" t="s">
         <v>657</v>
       </c>
     </row>
     <row r="52" spans="1:5" ht="30">
-      <c r="A52" s="52" t="s">
+      <c r="A52" s="42" t="s">
         <v>152</v>
       </c>
-      <c r="B52" s="52" t="s">
+      <c r="B52" s="42" t="s">
         <v>25</v>
       </c>
-      <c r="D52" s="52" t="s">
+      <c r="D52" s="42" t="s">
         <v>147</v>
       </c>
-      <c r="E52" s="52" t="s">
+      <c r="E52" s="42" t="s">
         <v>455</v>
       </c>
     </row>
     <row r="53" spans="1:5" ht="30">
-      <c r="A53" s="52" t="s">
+      <c r="A53" s="42" t="s">
         <v>513</v>
       </c>
-      <c r="B53" s="52">
+      <c r="B53" s="42">
         <v>2</v>
       </c>
-      <c r="D53" s="52" t="s">
+      <c r="D53" s="42" t="s">
         <v>105</v>
       </c>
-      <c r="E53" s="52" t="s">
+      <c r="E53" s="42" t="s">
         <v>658</v>
       </c>
     </row>
     <row r="54" spans="1:5">
-      <c r="D54" s="52" t="s">
+      <c r="D54" s="42" t="s">
         <v>378</v>
       </c>
-      <c r="E54" s="52" t="s">
+      <c r="E54" s="42" t="s">
         <v>108</v>
       </c>
     </row>
     <row r="55" spans="1:5" ht="18.75" customHeight="1">
-      <c r="A55" s="50" t="s">
+      <c r="A55" s="55" t="s">
         <v>514</v>
       </c>
-      <c r="B55" s="51"/>
-      <c r="D55" s="52" t="s">
+      <c r="B55" s="56"/>
+      <c r="D55" s="42" t="s">
         <v>633</v>
       </c>
-      <c r="E55" s="52" t="s">
+      <c r="E55" s="42" t="s">
         <v>659</v>
       </c>
     </row>
     <row r="56" spans="1:5">
-      <c r="A56" s="52" t="s">
+      <c r="A56" s="42" t="s">
         <v>463</v>
       </c>
-      <c r="B56" s="52" t="s">
+      <c r="B56" s="42" t="s">
         <v>515</v>
       </c>
-      <c r="D56" s="54" t="s">
+      <c r="D56" s="57" t="s">
         <v>474</v>
       </c>
-      <c r="E56" s="55"/>
+      <c r="E56" s="58"/>
     </row>
     <row r="57" spans="1:5" ht="30">
-      <c r="A57" s="52" t="s">
+      <c r="A57" s="42" t="s">
         <v>467</v>
       </c>
-      <c r="B57" s="52" t="s">
+      <c r="B57" s="42" t="s">
         <v>516</v>
       </c>
-      <c r="D57" s="52" t="s">
+      <c r="D57" s="42" t="s">
         <v>23</v>
       </c>
-      <c r="E57" s="52" t="s">
+      <c r="E57" s="42" t="s">
         <v>660</v>
       </c>
     </row>
     <row r="58" spans="1:5" ht="30">
-      <c r="A58" s="52" t="s">
+      <c r="A58" s="42" t="s">
         <v>109</v>
       </c>
-      <c r="B58" s="52" t="s">
+      <c r="B58" s="42" t="s">
         <v>517</v>
       </c>
-      <c r="D58" s="52" t="s">
+      <c r="D58" s="42" t="s">
         <v>564</v>
       </c>
-      <c r="E58" s="52" t="s">
+      <c r="E58" s="42" t="s">
         <v>457</v>
       </c>
     </row>
     <row r="59" spans="1:5">
-      <c r="A59" s="50" t="s">
+      <c r="A59" s="55" t="s">
         <v>474</v>
       </c>
-      <c r="B59" s="51"/>
-      <c r="D59" s="52" t="s">
+      <c r="B59" s="56"/>
+      <c r="D59" s="42" t="s">
         <v>139</v>
       </c>
-      <c r="E59" s="52">
+      <c r="E59" s="42">
         <v>200</v>
       </c>
     </row>
     <row r="60" spans="1:5">
-      <c r="A60" s="52" t="s">
+      <c r="A60" s="42" t="s">
         <v>212</v>
       </c>
-      <c r="B60" s="52" t="s">
+      <c r="B60" s="42" t="s">
         <v>518</v>
       </c>
     </row>
     <row r="61" spans="1:5">
-      <c r="A61" s="52" t="s">
+      <c r="A61" s="42" t="s">
         <v>236</v>
       </c>
-      <c r="B61" s="52" t="s">
+      <c r="B61" s="42" t="s">
         <v>519</v>
       </c>
     </row>
     <row r="62" spans="1:5" ht="30">
-      <c r="A62" s="52" t="s">
+      <c r="A62" s="42" t="s">
         <v>180</v>
       </c>
-      <c r="B62" s="52" t="s">
+      <c r="B62" s="42" t="s">
         <v>455</v>
       </c>
-      <c r="D62" s="50" t="s">
+      <c r="D62" s="55" t="s">
         <v>661</v>
       </c>
-      <c r="E62" s="51"/>
+      <c r="E62" s="56"/>
     </row>
     <row r="63" spans="1:5" ht="30">
-      <c r="A63" s="52" t="s">
+      <c r="A63" s="42" t="s">
         <v>191</v>
       </c>
-      <c r="B63" s="52" t="s">
+      <c r="B63" s="42" t="s">
         <v>456</v>
       </c>
-      <c r="D63" s="52" t="s">
+      <c r="D63" s="42" t="s">
         <v>463</v>
       </c>
-      <c r="E63" s="52" t="s">
+      <c r="E63" s="42" t="s">
         <v>662</v>
       </c>
     </row>
     <row r="64" spans="1:5" ht="30">
-      <c r="A64" s="52" t="s">
+      <c r="A64" s="42" t="s">
         <v>132</v>
       </c>
-      <c r="B64" s="52">
+      <c r="B64" s="42">
         <v>200</v>
       </c>
-      <c r="D64" s="52" t="s">
+      <c r="D64" s="42" t="s">
         <v>467</v>
       </c>
-      <c r="E64" s="52" t="s">
+      <c r="E64" s="42" t="s">
         <v>663</v>
       </c>
     </row>
     <row r="65" spans="1:5" ht="45">
-      <c r="A65" s="52" t="s">
+      <c r="A65" s="42" t="s">
         <v>277</v>
       </c>
-      <c r="B65" s="52" t="s">
+      <c r="B65" s="42" t="s">
         <v>457</v>
       </c>
-      <c r="D65" s="52" t="s">
+      <c r="D65" s="42" t="s">
         <v>109</v>
       </c>
-      <c r="E65" s="52" t="s">
+      <c r="E65" s="42" t="s">
         <v>664</v>
       </c>
     </row>
     <row r="66" spans="1:5">
-      <c r="A66" s="52" t="s">
+      <c r="A66" s="42" t="s">
         <v>24</v>
       </c>
-      <c r="B66" s="52" t="s">
+      <c r="B66" s="42" t="s">
         <v>511</v>
       </c>
-      <c r="D66" s="52" t="s">
+      <c r="D66" s="42" t="s">
         <v>535</v>
       </c>
-      <c r="E66" s="52">
+      <c r="E66" s="42">
         <v>50</v>
       </c>
     </row>
     <row r="67" spans="1:5">
-      <c r="A67" s="52" t="s">
+      <c r="A67" s="42" t="s">
         <v>151</v>
       </c>
-      <c r="B67" s="52" t="s">
+      <c r="B67" s="42" t="s">
         <v>512</v>
       </c>
-      <c r="D67" s="52" t="s">
+      <c r="D67" s="42" t="s">
         <v>571</v>
       </c>
-      <c r="E67" s="52">
+      <c r="E67" s="42">
         <v>2</v>
       </c>
     </row>
     <row r="68" spans="1:5">
-      <c r="A68" s="52" t="s">
+      <c r="A68" s="42" t="s">
         <v>152</v>
       </c>
-      <c r="B68" s="52" t="s">
+      <c r="B68" s="42" t="s">
         <v>25</v>
       </c>
-      <c r="D68" s="52" t="s">
+      <c r="D68" s="42" t="s">
         <v>665</v>
       </c>
-      <c r="E68" s="52">
+      <c r="E68" s="42">
         <v>2</v>
       </c>
     </row>
     <row r="69" spans="1:5">
-      <c r="A69" s="48" t="s">
+      <c r="A69" s="59" t="s">
         <v>520</v>
       </c>
-      <c r="B69" s="48"/>
-      <c r="D69" s="54" t="s">
+      <c r="B69" s="59"/>
+      <c r="D69" s="57" t="s">
         <v>630</v>
       </c>
-      <c r="E69" s="55"/>
+      <c r="E69" s="58"/>
     </row>
     <row r="70" spans="1:5" ht="30">
-      <c r="A70" s="52" t="s">
+      <c r="A70" s="42" t="s">
         <v>99</v>
       </c>
-      <c r="B70" s="52" t="s">
+      <c r="B70" s="42" t="s">
         <v>521</v>
       </c>
-      <c r="D70" s="52" t="s">
+      <c r="D70" s="42" t="s">
         <v>99</v>
       </c>
-      <c r="E70" s="52" t="s">
+      <c r="E70" s="42" t="s">
         <v>666</v>
       </c>
     </row>
     <row r="71" spans="1:5" ht="30">
-      <c r="A71" s="52" t="s">
+      <c r="A71" s="42" t="s">
         <v>212</v>
       </c>
-      <c r="B71" s="52" t="s">
+      <c r="B71" s="42" t="s">
         <v>522</v>
       </c>
-      <c r="D71" s="52" t="s">
+      <c r="D71" s="42" t="s">
         <v>147</v>
       </c>
-      <c r="E71" s="52" t="s">
+      <c r="E71" s="42" t="s">
         <v>455</v>
       </c>
     </row>
     <row r="72" spans="1:5" ht="30">
-      <c r="A72" s="52" t="s">
+      <c r="A72" s="42" t="s">
         <v>109</v>
       </c>
-      <c r="B72" s="52" t="s">
+      <c r="B72" s="42" t="s">
         <v>523</v>
       </c>
-      <c r="D72" s="52" t="s">
+      <c r="D72" s="42" t="s">
         <v>105</v>
       </c>
-      <c r="E72" s="52" t="s">
+      <c r="E72" s="42" t="s">
         <v>667</v>
       </c>
     </row>
     <row r="73" spans="1:5">
-      <c r="D73" s="52" t="s">
+      <c r="D73" s="42" t="s">
         <v>378</v>
       </c>
-      <c r="E73" s="52" t="s">
+      <c r="E73" s="42" t="s">
         <v>108</v>
       </c>
     </row>
     <row r="74" spans="1:5" ht="45">
-      <c r="D74" s="52" t="s">
+      <c r="D74" s="42" t="s">
         <v>633</v>
       </c>
-      <c r="E74" s="52" t="s">
+      <c r="E74" s="42" t="s">
         <v>668</v>
       </c>
     </row>
     <row r="75" spans="1:5" ht="18.75" customHeight="1">
-      <c r="A75" s="50" t="s">
+      <c r="A75" s="55" t="s">
         <v>524</v>
       </c>
-      <c r="B75" s="51"/>
-      <c r="D75" s="56" t="s">
+      <c r="B75" s="56"/>
+      <c r="D75" s="44" t="s">
         <v>474</v>
       </c>
-      <c r="E75" s="57"/>
+      <c r="E75" s="45"/>
     </row>
     <row r="76" spans="1:5" ht="30">
-      <c r="A76" s="52" t="s">
+      <c r="A76" s="42" t="s">
         <v>463</v>
       </c>
-      <c r="B76" s="52" t="s">
+      <c r="B76" s="42" t="s">
         <v>525</v>
       </c>
-      <c r="D76" s="52" t="s">
+      <c r="D76" s="42" t="s">
         <v>23</v>
       </c>
-      <c r="E76" s="52" t="s">
+      <c r="E76" s="42" t="s">
         <v>669</v>
       </c>
     </row>
     <row r="77" spans="1:5" ht="30">
-      <c r="A77" s="52" t="s">
+      <c r="A77" s="42" t="s">
         <v>467</v>
       </c>
-      <c r="B77" s="52" t="s">
+      <c r="B77" s="42" t="s">
         <v>526</v>
       </c>
-      <c r="D77" s="52" t="s">
+      <c r="D77" s="42" t="s">
         <v>24</v>
       </c>
-      <c r="E77" s="52" t="s">
+      <c r="E77" s="42" t="s">
         <v>670</v>
       </c>
     </row>
     <row r="78" spans="1:5" ht="45">
-      <c r="A78" s="52" t="s">
+      <c r="A78" s="42" t="s">
         <v>109</v>
       </c>
-      <c r="B78" s="52" t="s">
+      <c r="B78" s="42" t="s">
         <v>527</v>
       </c>
-      <c r="D78" s="52" t="s">
+      <c r="D78" s="42" t="s">
         <v>671</v>
       </c>
-      <c r="E78" s="52" t="s">
+      <c r="E78" s="42" t="s">
         <v>672</v>
       </c>
     </row>
     <row r="79" spans="1:5">
-      <c r="A79" s="50" t="s">
+      <c r="A79" s="55" t="s">
         <v>474</v>
       </c>
-      <c r="B79" s="51"/>
-      <c r="D79" s="52" t="s">
+      <c r="B79" s="56"/>
+      <c r="D79" s="42" t="s">
         <v>673</v>
       </c>
-      <c r="E79" s="52" t="s">
+      <c r="E79" s="42" t="s">
         <v>674</v>
       </c>
     </row>
     <row r="80" spans="1:5">
-      <c r="A80" s="52" t="s">
+      <c r="A80" s="42" t="s">
         <v>212</v>
       </c>
-      <c r="B80" s="52" t="s">
+      <c r="B80" s="42" t="s">
         <v>528</v>
       </c>
     </row>
     <row r="81" spans="1:6">
-      <c r="A81" s="52" t="s">
+      <c r="A81" s="42" t="s">
         <v>236</v>
       </c>
-      <c r="B81" s="52" t="s">
+      <c r="B81" s="42" t="s">
         <v>519</v>
       </c>
     </row>
     <row r="82" spans="1:6" ht="30">
-      <c r="A82" s="52" t="s">
+      <c r="A82" s="42" t="s">
         <v>180</v>
       </c>
-      <c r="B82" s="52" t="s">
+      <c r="B82" s="42" t="s">
         <v>455</v>
       </c>
-      <c r="D82" s="50" t="s">
+      <c r="D82" s="55" t="s">
         <v>675</v>
       </c>
-      <c r="E82" s="51"/>
-      <c r="F82" s="58" t="s">
+      <c r="E82" s="56"/>
+      <c r="F82" s="46" t="s">
         <v>676</v>
       </c>
     </row>
     <row r="83" spans="1:6" ht="30">
-      <c r="A83" s="52" t="s">
+      <c r="A83" s="42" t="s">
         <v>24</v>
       </c>
-      <c r="B83" s="52" t="s">
+      <c r="B83" s="42" t="s">
         <v>511</v>
       </c>
-      <c r="D83" s="52" t="s">
+      <c r="D83" s="42" t="s">
         <v>463</v>
       </c>
-      <c r="E83" s="52" t="s">
+      <c r="E83" s="42" t="s">
         <v>677</v>
       </c>
-      <c r="F83" s="52" t="s">
+      <c r="F83" s="42" t="s">
         <v>678</v>
       </c>
     </row>
     <row r="84" spans="1:6" ht="30">
-      <c r="A84" s="52" t="s">
+      <c r="A84" s="42" t="s">
         <v>151</v>
       </c>
-      <c r="B84" s="52" t="s">
+      <c r="B84" s="42" t="s">
         <v>512</v>
       </c>
-      <c r="D84" s="52" t="s">
+      <c r="D84" s="42" t="s">
         <v>467</v>
       </c>
-      <c r="E84" s="52" t="s">
+      <c r="E84" s="42" t="s">
         <v>679</v>
       </c>
-      <c r="F84" s="52" t="s">
+      <c r="F84" s="42" t="s">
         <v>680</v>
       </c>
     </row>
     <row r="85" spans="1:6" ht="45">
-      <c r="A85" s="52" t="s">
+      <c r="A85" s="42" t="s">
         <v>152</v>
       </c>
-      <c r="B85" s="52" t="s">
+      <c r="B85" s="42" t="s">
         <v>25</v>
       </c>
-      <c r="D85" s="52" t="s">
+      <c r="D85" s="42" t="s">
         <v>109</v>
       </c>
-      <c r="E85" s="52" t="s">
+      <c r="E85" s="42" t="s">
         <v>681</v>
       </c>
-      <c r="F85" s="52" t="s">
+      <c r="F85" s="42" t="s">
         <v>682</v>
       </c>
     </row>
     <row r="86" spans="1:6">
-      <c r="A86" s="52" t="s">
+      <c r="A86" s="42" t="s">
         <v>529</v>
       </c>
-      <c r="B86" s="52">
+      <c r="B86" s="42">
         <v>50</v>
       </c>
-      <c r="D86" s="54" t="s">
+      <c r="D86" s="57" t="s">
         <v>630</v>
       </c>
-      <c r="E86" s="55"/>
-      <c r="F86" s="59" t="s">
+      <c r="E86" s="58"/>
+      <c r="F86" s="47" t="s">
         <v>630</v>
       </c>
     </row>
     <row r="87" spans="1:6" ht="30">
-      <c r="D87" s="52" t="s">
+      <c r="D87" s="42" t="s">
         <v>99</v>
       </c>
-      <c r="E87" s="52" t="s">
+      <c r="E87" s="42" t="s">
         <v>683</v>
       </c>
-      <c r="F87" s="52" t="s">
+      <c r="F87" s="42" t="s">
         <v>684</v>
       </c>
     </row>
     <row r="88" spans="1:6" ht="30">
-      <c r="D88" s="52" t="s">
+      <c r="D88" s="42" t="s">
         <v>147</v>
       </c>
-      <c r="E88" s="52" t="s">
+      <c r="E88" s="42" t="s">
         <v>455</v>
       </c>
-      <c r="F88" s="52"/>
+      <c r="F88" s="42"/>
     </row>
     <row r="89" spans="1:6" ht="18.75" customHeight="1">
-      <c r="A89" s="50" t="s">
+      <c r="A89" s="55" t="s">
         <v>530</v>
       </c>
-      <c r="B89" s="51"/>
-      <c r="D89" s="52" t="s">
+      <c r="B89" s="56"/>
+      <c r="D89" s="42" t="s">
         <v>105</v>
       </c>
-      <c r="E89" s="52" t="s">
+      <c r="E89" s="42" t="s">
         <v>685</v>
       </c>
-      <c r="F89" s="52" t="s">
+      <c r="F89" s="42" t="s">
         <v>686</v>
       </c>
     </row>
     <row r="90" spans="1:6">
-      <c r="A90" s="52" t="s">
+      <c r="A90" s="42" t="s">
         <v>463</v>
       </c>
-      <c r="B90" s="52" t="s">
+      <c r="B90" s="42" t="s">
         <v>531</v>
       </c>
-      <c r="D90" s="52" t="s">
+      <c r="D90" s="42" t="s">
         <v>378</v>
       </c>
-      <c r="E90" s="52" t="s">
+      <c r="E90" s="42" t="s">
         <v>108</v>
       </c>
-      <c r="F90" s="52"/>
+      <c r="F90" s="42"/>
     </row>
     <row r="91" spans="1:6" ht="45">
-      <c r="A91" s="52" t="s">
+      <c r="A91" s="42" t="s">
         <v>467</v>
       </c>
-      <c r="B91" s="52" t="s">
+      <c r="B91" s="42" t="s">
         <v>532</v>
       </c>
-      <c r="D91" s="52" t="s">
+      <c r="D91" s="42" t="s">
         <v>633</v>
       </c>
-      <c r="E91" s="52" t="s">
+      <c r="E91" s="42" t="s">
         <v>687</v>
       </c>
-      <c r="F91" s="52" t="s">
+      <c r="F91" s="42" t="s">
         <v>688</v>
       </c>
     </row>
     <row r="92" spans="1:6" ht="30">
-      <c r="A92" s="52" t="s">
+      <c r="A92" s="42" t="s">
         <v>109</v>
       </c>
-      <c r="B92" s="52" t="s">
+      <c r="B92" s="42" t="s">
         <v>533</v>
       </c>
-      <c r="D92" s="54" t="s">
+      <c r="D92" s="57" t="s">
         <v>474</v>
       </c>
-      <c r="E92" s="55"/>
-      <c r="F92" s="59" t="s">
+      <c r="E92" s="58"/>
+      <c r="F92" s="47" t="s">
         <v>474</v>
       </c>
     </row>
     <row r="93" spans="1:6" ht="30">
-      <c r="A93" s="50" t="s">
+      <c r="A93" s="55" t="s">
         <v>474</v>
       </c>
-      <c r="B93" s="51"/>
-      <c r="D93" s="52" t="s">
+      <c r="B93" s="56"/>
+      <c r="D93" s="42" t="s">
         <v>23</v>
       </c>
-      <c r="E93" s="52" t="s">
+      <c r="E93" s="42" t="s">
         <v>689</v>
       </c>
-      <c r="F93" s="52" t="s">
+      <c r="F93" s="42" t="s">
         <v>690</v>
       </c>
     </row>
     <row r="94" spans="1:6">
-      <c r="A94" s="52" t="s">
+      <c r="A94" s="42" t="s">
         <v>212</v>
       </c>
-      <c r="B94" s="52" t="s">
+      <c r="B94" s="42" t="s">
         <v>534</v>
       </c>
-      <c r="D94" s="52" t="s">
+      <c r="D94" s="42" t="s">
         <v>165</v>
       </c>
-      <c r="E94" s="52" t="s">
+      <c r="E94" s="42" t="s">
         <v>691</v>
       </c>
     </row>
     <row r="95" spans="1:6" ht="30">
-      <c r="A95" s="52" t="s">
+      <c r="A95" s="42" t="s">
         <v>236</v>
       </c>
-      <c r="B95" s="52" t="s">
+      <c r="B95" s="42" t="s">
         <v>519</v>
       </c>
-      <c r="D95" s="52" t="s">
+      <c r="D95" s="42" t="s">
         <v>147</v>
       </c>
-      <c r="E95" s="52" t="s">
+      <c r="E95" s="42" t="s">
         <v>455</v>
       </c>
     </row>
     <row r="96" spans="1:6" ht="30">
-      <c r="A96" s="52" t="s">
+      <c r="A96" s="42" t="s">
         <v>191</v>
       </c>
-      <c r="B96" s="52" t="s">
+      <c r="B96" s="42" t="s">
         <v>456</v>
       </c>
-      <c r="D96" s="52" t="s">
+      <c r="D96" s="42" t="s">
         <v>557</v>
       </c>
-      <c r="E96" s="52" t="s">
+      <c r="E96" s="42" t="s">
         <v>456</v>
       </c>
     </row>
     <row r="97" spans="1:5">
-      <c r="A97" s="52" t="s">
+      <c r="A97" s="42" t="s">
         <v>132</v>
       </c>
-      <c r="B97" s="52">
+      <c r="B97" s="42">
         <v>200</v>
       </c>
-      <c r="D97" s="52" t="s">
+      <c r="D97" s="42" t="s">
         <v>692</v>
       </c>
-      <c r="E97" s="52">
+      <c r="E97" s="42">
         <v>200</v>
       </c>
     </row>
     <row r="98" spans="1:5" ht="30">
-      <c r="A98" s="52" t="s">
+      <c r="A98" s="42" t="s">
         <v>24</v>
       </c>
-      <c r="B98" s="52" t="s">
+      <c r="B98" s="42" t="s">
         <v>511</v>
       </c>
-      <c r="D98" s="52" t="s">
+      <c r="D98" s="42" t="s">
         <v>564</v>
       </c>
-      <c r="E98" s="52" t="s">
+      <c r="E98" s="42" t="s">
         <v>457</v>
       </c>
     </row>
     <row r="99" spans="1:5">
-      <c r="A99" s="52" t="s">
+      <c r="A99" s="42" t="s">
         <v>151</v>
       </c>
-      <c r="B99" s="52" t="s">
+      <c r="B99" s="42" t="s">
         <v>512</v>
       </c>
-      <c r="D99" s="52" t="s">
+      <c r="D99" s="42" t="s">
         <v>24</v>
       </c>
-      <c r="E99" s="52" t="s">
+      <c r="E99" s="42" t="s">
         <v>670</v>
       </c>
     </row>
     <row r="100" spans="1:5">
-      <c r="A100" s="52" t="s">
+      <c r="A100" s="42" t="s">
         <v>152</v>
       </c>
-      <c r="B100" s="52" t="s">
+      <c r="B100" s="42" t="s">
         <v>25</v>
       </c>
-      <c r="D100" s="52" t="s">
+      <c r="D100" s="42" t="s">
         <v>671</v>
       </c>
-      <c r="E100" s="52" t="s">
+      <c r="E100" s="42" t="s">
         <v>672</v>
       </c>
     </row>
     <row r="101" spans="1:5">
-      <c r="A101" s="52" t="s">
+      <c r="A101" s="42" t="s">
         <v>535</v>
       </c>
-      <c r="B101" s="52">
+      <c r="B101" s="42">
         <v>60</v>
       </c>
-      <c r="D101" s="52" t="s">
+      <c r="D101" s="42" t="s">
         <v>673</v>
       </c>
-      <c r="E101" s="52" t="s">
+      <c r="E101" s="42" t="s">
         <v>674</v>
       </c>
     </row>
     <row r="102" spans="1:5">
-      <c r="A102" s="52" t="s">
+      <c r="A102" s="42" t="s">
         <v>536</v>
       </c>
-      <c r="B102" s="52">
+      <c r="B102" s="42">
         <v>2</v>
       </c>
-      <c r="D102" s="52" t="s">
+      <c r="D102" s="42" t="s">
         <v>693</v>
       </c>
-      <c r="E102" s="52">
+      <c r="E102" s="42">
         <v>55</v>
       </c>
     </row>
     <row r="103" spans="1:5">
-      <c r="D103" s="52" t="s">
+      <c r="D103" s="42" t="s">
         <v>571</v>
       </c>
-      <c r="E103" s="52">
+      <c r="E103" s="42">
         <v>3</v>
       </c>
     </row>
     <row r="104" spans="1:5">
-      <c r="D104" s="52" t="s">
+      <c r="D104" s="42" t="s">
         <v>694</v>
       </c>
-      <c r="E104" s="52">
+      <c r="E104" s="42">
         <v>5</v>
       </c>
     </row>
     <row r="105" spans="1:5" ht="18.75" customHeight="1">
-      <c r="A105" s="48" t="s">
+      <c r="A105" s="59" t="s">
         <v>537</v>
       </c>
-      <c r="B105" s="48"/>
-      <c r="D105" s="52" t="s">
+      <c r="B105" s="59"/>
+      <c r="D105" s="42" t="s">
         <v>695</v>
       </c>
-      <c r="E105" s="52">
+      <c r="E105" s="42">
         <v>200</v>
       </c>
     </row>
     <row r="106" spans="1:5">
-      <c r="A106" s="52" t="s">
+      <c r="A106" s="42" t="s">
         <v>463</v>
       </c>
-      <c r="B106" s="52" t="s">
+      <c r="B106" s="42" t="s">
         <v>538</v>
       </c>
     </row>
     <row r="107" spans="1:5" ht="30">
-      <c r="A107" s="52" t="s">
+      <c r="A107" s="42" t="s">
         <v>467</v>
       </c>
-      <c r="B107" s="52" t="s">
+      <c r="B107" s="42" t="s">
         <v>539</v>
       </c>
-      <c r="D107" s="50" t="s">
+      <c r="D107" s="55" t="s">
         <v>696</v>
       </c>
-      <c r="E107" s="51"/>
+      <c r="E107" s="56"/>
     </row>
     <row r="108" spans="1:5" ht="30">
-      <c r="A108" s="52" t="s">
+      <c r="A108" s="42" t="s">
         <v>109</v>
       </c>
-      <c r="B108" s="52" t="s">
+      <c r="B108" s="42" t="s">
         <v>540</v>
       </c>
-      <c r="D108" s="52" t="s">
+      <c r="D108" s="42" t="s">
         <v>463</v>
       </c>
-      <c r="E108" s="52" t="s">
+      <c r="E108" s="42" t="s">
         <v>697</v>
       </c>
     </row>
     <row r="109" spans="1:5" ht="30">
-      <c r="A109" s="52" t="s">
+      <c r="A109" s="42" t="s">
         <v>535</v>
       </c>
-      <c r="B109" s="52">
+      <c r="B109" s="42">
         <v>60</v>
       </c>
-      <c r="D109" s="52" t="s">
+      <c r="D109" s="42" t="s">
         <v>467</v>
       </c>
-      <c r="E109" s="52" t="s">
+      <c r="E109" s="42" t="s">
         <v>698</v>
       </c>
     </row>
     <row r="110" spans="1:5" ht="45">
-      <c r="A110" s="52" t="s">
+      <c r="A110" s="42" t="s">
         <v>536</v>
       </c>
-      <c r="B110" s="52">
+      <c r="B110" s="42">
         <v>3</v>
       </c>
-      <c r="D110" s="52" t="s">
+      <c r="D110" s="42" t="s">
         <v>109</v>
       </c>
-      <c r="E110" s="52" t="s">
+      <c r="E110" s="42" t="s">
         <v>699</v>
       </c>
     </row>
     <row r="111" spans="1:5">
-      <c r="A111" s="48" t="s">
+      <c r="A111" s="59" t="s">
         <v>474</v>
       </c>
-      <c r="B111" s="48"/>
-      <c r="D111" s="52" t="s">
+      <c r="B111" s="59"/>
+      <c r="D111" s="42" t="s">
         <v>693</v>
       </c>
-      <c r="E111" s="52">
+      <c r="E111" s="42">
         <v>55</v>
       </c>
     </row>
     <row r="112" spans="1:5">
-      <c r="A112" s="52" t="s">
+      <c r="A112" s="42" t="s">
         <v>212</v>
       </c>
-      <c r="B112" s="52" t="s">
+      <c r="B112" s="42" t="s">
         <v>541</v>
       </c>
-      <c r="D112" s="52" t="s">
+      <c r="D112" s="42" t="s">
         <v>571</v>
       </c>
-      <c r="E112" s="52">
+      <c r="E112" s="42">
         <v>3</v>
       </c>
     </row>
     <row r="113" spans="1:5" ht="30">
-      <c r="A113" s="52" t="s">
+      <c r="A113" s="42" t="s">
         <v>191</v>
       </c>
-      <c r="B113" s="52" t="s">
+      <c r="B113" s="42" t="s">
         <v>456</v>
       </c>
-      <c r="D113" s="52" t="s">
+      <c r="D113" s="42" t="s">
         <v>694</v>
       </c>
-      <c r="E113" s="52">
+      <c r="E113" s="42">
         <v>5</v>
       </c>
     </row>
     <row r="114" spans="1:5">
-      <c r="A114" s="52" t="s">
+      <c r="A114" s="42" t="s">
         <v>132</v>
       </c>
-      <c r="B114" s="52">
+      <c r="B114" s="42">
         <v>200</v>
       </c>
-      <c r="D114" s="54" t="s">
+      <c r="D114" s="57" t="s">
         <v>630</v>
       </c>
-      <c r="E114" s="55"/>
+      <c r="E114" s="58"/>
     </row>
     <row r="115" spans="1:5" ht="30">
-      <c r="A115" s="52" t="s">
+      <c r="A115" s="42" t="s">
         <v>277</v>
       </c>
-      <c r="B115" s="52" t="s">
+      <c r="B115" s="42" t="s">
         <v>457</v>
       </c>
-      <c r="D115" s="52" t="s">
+      <c r="D115" s="42" t="s">
         <v>99</v>
       </c>
-      <c r="E115" s="52" t="s">
+      <c r="E115" s="42" t="s">
         <v>700</v>
       </c>
     </row>
     <row r="116" spans="1:5" ht="30">
-      <c r="A116" s="52" t="s">
+      <c r="A116" s="42" t="s">
         <v>24</v>
       </c>
-      <c r="B116" s="52" t="s">
+      <c r="B116" s="42" t="s">
         <v>115</v>
       </c>
-      <c r="D116" s="52" t="s">
+      <c r="D116" s="42" t="s">
         <v>147</v>
       </c>
-      <c r="E116" s="52" t="s">
+      <c r="E116" s="42" t="s">
         <v>455</v>
       </c>
     </row>
     <row r="117" spans="1:5" ht="30">
-      <c r="A117" s="52" t="s">
+      <c r="A117" s="42" t="s">
         <v>151</v>
       </c>
-      <c r="B117" s="52" t="s">
+      <c r="B117" s="42" t="s">
         <v>25</v>
       </c>
-      <c r="D117" s="52" t="s">
+      <c r="D117" s="42" t="s">
         <v>105</v>
       </c>
-      <c r="E117" s="52" t="s">
+      <c r="E117" s="42" t="s">
         <v>701</v>
       </c>
     </row>
     <row r="118" spans="1:5">
-      <c r="A118" s="52" t="s">
+      <c r="A118" s="42" t="s">
         <v>152</v>
       </c>
-      <c r="B118" s="52" t="s">
+      <c r="B118" s="42" t="s">
         <v>512</v>
       </c>
-      <c r="D118" s="52" t="s">
+      <c r="D118" s="42" t="s">
         <v>378</v>
       </c>
-      <c r="E118" s="52" t="s">
+      <c r="E118" s="42" t="s">
         <v>108</v>
       </c>
     </row>
     <row r="119" spans="1:5" ht="45">
-      <c r="D119" s="52" t="s">
+      <c r="D119" s="42" t="s">
         <v>633</v>
       </c>
-      <c r="E119" s="52" t="s">
+      <c r="E119" s="42" t="s">
         <v>702</v>
       </c>
     </row>
     <row r="120" spans="1:5">
-      <c r="D120" s="56" t="s">
+      <c r="D120" s="44" t="s">
         <v>474</v>
       </c>
-      <c r="E120" s="57"/>
+      <c r="E120" s="45"/>
     </row>
     <row r="121" spans="1:5" ht="18.75" customHeight="1">
-      <c r="A121" s="48" t="s">
+      <c r="A121" s="59" t="s">
         <v>542</v>
       </c>
-      <c r="B121" s="48"/>
-      <c r="D121" s="52" t="s">
+      <c r="B121" s="59"/>
+      <c r="D121" s="42" t="s">
         <v>23</v>
       </c>
-      <c r="E121" s="52" t="s">
+      <c r="E121" s="42" t="s">
         <v>703</v>
       </c>
     </row>
     <row r="122" spans="1:5">
-      <c r="A122" s="52" t="s">
+      <c r="A122" s="42" t="s">
         <v>463</v>
       </c>
-      <c r="B122" s="52" t="s">
+      <c r="B122" s="42" t="s">
         <v>543</v>
       </c>
-      <c r="D122" s="52" t="s">
+      <c r="D122" s="42" t="s">
         <v>165</v>
       </c>
-      <c r="E122" s="52" t="s">
+      <c r="E122" s="42" t="s">
         <v>691</v>
       </c>
     </row>
     <row r="123" spans="1:5" ht="30">
-      <c r="A123" s="52" t="s">
+      <c r="A123" s="42" t="s">
         <v>467</v>
       </c>
-      <c r="B123" s="52" t="s">
+      <c r="B123" s="42" t="s">
         <v>544</v>
       </c>
-      <c r="D123" s="52" t="s">
+      <c r="D123" s="42" t="s">
         <v>147</v>
       </c>
-      <c r="E123" s="52" t="s">
+      <c r="E123" s="42" t="s">
         <v>455</v>
       </c>
     </row>
     <row r="124" spans="1:5" ht="30">
-      <c r="A124" s="52" t="s">
+      <c r="A124" s="42" t="s">
         <v>109</v>
       </c>
-      <c r="B124" s="52" t="s">
+      <c r="B124" s="42" t="s">
         <v>545</v>
       </c>
-      <c r="D124" s="52" t="s">
+      <c r="D124" s="42" t="s">
         <v>24</v>
       </c>
-      <c r="E124" s="52" t="s">
+      <c r="E124" s="42" t="s">
         <v>670</v>
       </c>
     </row>
     <row r="125" spans="1:5">
-      <c r="A125" s="48" t="s">
+      <c r="A125" s="59" t="s">
         <v>474</v>
       </c>
-      <c r="B125" s="48"/>
-      <c r="D125" s="52" t="s">
+      <c r="B125" s="59"/>
+      <c r="D125" s="42" t="s">
         <v>671</v>
       </c>
-      <c r="E125" s="52" t="s">
+      <c r="E125" s="42" t="s">
         <v>672</v>
       </c>
     </row>
     <row r="126" spans="1:5" ht="30">
-      <c r="A126" s="52" t="s">
+      <c r="A126" s="42" t="s">
         <v>546</v>
       </c>
-      <c r="B126" s="52" t="s">
+      <c r="B126" s="42" t="s">
         <v>547</v>
       </c>
-      <c r="D126" s="52" t="s">
+      <c r="D126" s="42" t="s">
         <v>673</v>
       </c>
-      <c r="E126" s="52" t="s">
+      <c r="E126" s="42" t="s">
         <v>674</v>
       </c>
     </row>
     <row r="127" spans="1:5">
-      <c r="A127" s="52" t="s">
+      <c r="A127" s="42" t="s">
         <v>236</v>
       </c>
-      <c r="B127" s="52" t="s">
+      <c r="B127" s="42" t="s">
         <v>548</v>
       </c>
     </row>
     <row r="128" spans="1:5" ht="30">
-      <c r="A128" s="52" t="s">
+      <c r="A128" s="42" t="s">
         <v>549</v>
       </c>
-      <c r="B128" s="52" t="s">
+      <c r="B128" s="42" t="s">
         <v>550</v>
       </c>
     </row>
     <row r="129" spans="1:5" ht="30">
-      <c r="A129" s="52" t="s">
+      <c r="A129" s="42" t="s">
         <v>180</v>
       </c>
-      <c r="B129" s="52" t="s">
+      <c r="B129" s="42" t="s">
         <v>455</v>
       </c>
-      <c r="D129" s="50" t="s">
+      <c r="D129" s="55" t="s">
         <v>704</v>
       </c>
-      <c r="E129" s="51"/>
+      <c r="E129" s="56"/>
     </row>
     <row r="130" spans="1:5" ht="30">
-      <c r="D130" s="52" t="s">
+      <c r="D130" s="42" t="s">
         <v>463</v>
       </c>
-      <c r="E130" s="52" t="s">
+      <c r="E130" s="42" t="s">
         <v>705</v>
       </c>
     </row>
     <row r="131" spans="1:5" ht="30">
-      <c r="D131" s="52" t="s">
+      <c r="D131" s="42" t="s">
         <v>467</v>
       </c>
-      <c r="E131" s="52" t="s">
+      <c r="E131" s="42" t="s">
         <v>706</v>
       </c>
     </row>
     <row r="132" spans="1:5" ht="18.75" customHeight="1">
-      <c r="A132" s="48" t="s">
+      <c r="A132" s="59" t="s">
         <v>551</v>
       </c>
-      <c r="B132" s="48"/>
-      <c r="D132" s="52" t="s">
+      <c r="B132" s="59"/>
+      <c r="D132" s="42" t="s">
         <v>109</v>
       </c>
-      <c r="E132" s="52" t="s">
+      <c r="E132" s="42" t="s">
         <v>707</v>
       </c>
     </row>
     <row r="133" spans="1:5">
-      <c r="A133" s="52" t="s">
+      <c r="A133" s="42" t="s">
         <v>463</v>
       </c>
-      <c r="B133" s="52" t="s">
+      <c r="B133" s="42" t="s">
         <v>552</v>
       </c>
-      <c r="D133" s="52" t="s">
+      <c r="D133" s="42" t="s">
         <v>693</v>
       </c>
-      <c r="E133" s="52">
+      <c r="E133" s="42">
         <v>55</v>
       </c>
     </row>
     <row r="134" spans="1:5" ht="30">
-      <c r="A134" s="52" t="s">
+      <c r="A134" s="42" t="s">
         <v>467</v>
       </c>
-      <c r="B134" s="52" t="s">
+      <c r="B134" s="42" t="s">
         <v>553</v>
       </c>
-      <c r="D134" s="52" t="s">
+      <c r="D134" s="42" t="s">
         <v>571</v>
       </c>
-      <c r="E134" s="52">
+      <c r="E134" s="42">
         <v>3</v>
       </c>
     </row>
     <row r="135" spans="1:5" ht="30">
-      <c r="A135" s="52" t="s">
+      <c r="A135" s="42" t="s">
         <v>109</v>
       </c>
-      <c r="B135" s="52" t="s">
+      <c r="B135" s="42" t="s">
         <v>554</v>
       </c>
-      <c r="D135" s="52" t="s">
+      <c r="D135" s="42" t="s">
         <v>694</v>
       </c>
-      <c r="E135" s="52">
+      <c r="E135" s="42">
         <v>5</v>
       </c>
     </row>
     <row r="136" spans="1:5">
-      <c r="A136" s="48" t="s">
+      <c r="A136" s="59" t="s">
         <v>474</v>
       </c>
-      <c r="B136" s="48"/>
-      <c r="D136" s="54" t="s">
+      <c r="B136" s="59"/>
+      <c r="D136" s="57" t="s">
         <v>630</v>
       </c>
-      <c r="E136" s="55"/>
+      <c r="E136" s="58"/>
     </row>
     <row r="137" spans="1:5" ht="30">
-      <c r="A137" s="52" t="s">
+      <c r="A137" s="42" t="s">
         <v>546</v>
       </c>
-      <c r="B137" s="52" t="s">
+      <c r="B137" s="42" t="s">
         <v>555</v>
       </c>
-      <c r="D137" s="52" t="s">
+      <c r="D137" s="42" t="s">
         <v>99</v>
       </c>
-      <c r="E137" s="52" t="s">
+      <c r="E137" s="42" t="s">
         <v>708</v>
       </c>
     </row>
     <row r="138" spans="1:5" ht="30">
-      <c r="A138" s="52" t="s">
+      <c r="A138" s="42" t="s">
         <v>236</v>
       </c>
-      <c r="B138" s="52" t="s">
+      <c r="B138" s="42" t="s">
         <v>455</v>
       </c>
-      <c r="D138" s="52" t="s">
+      <c r="D138" s="42" t="s">
         <v>147</v>
       </c>
-      <c r="E138" s="52" t="s">
+      <c r="E138" s="42" t="s">
         <v>455</v>
       </c>
     </row>
     <row r="139" spans="1:5" ht="30">
-      <c r="A139" s="52" t="s">
+      <c r="A139" s="42" t="s">
         <v>549</v>
       </c>
-      <c r="B139" s="52" t="s">
+      <c r="B139" s="42" t="s">
         <v>556</v>
       </c>
-      <c r="D139" s="52" t="s">
+      <c r="D139" s="42" t="s">
         <v>105</v>
       </c>
-      <c r="E139" s="52" t="s">
+      <c r="E139" s="42" t="s">
         <v>709</v>
       </c>
     </row>
     <row r="140" spans="1:5" ht="30">
-      <c r="A140" s="52" t="s">
+      <c r="A140" s="42" t="s">
         <v>557</v>
       </c>
-      <c r="B140" s="52" t="s">
+      <c r="B140" s="42" t="s">
         <v>456</v>
       </c>
-      <c r="D140" s="52" t="s">
+      <c r="D140" s="42" t="s">
         <v>378</v>
       </c>
-      <c r="E140" s="52" t="s">
+      <c r="E140" s="42" t="s">
         <v>108</v>
       </c>
     </row>
     <row r="141" spans="1:5" ht="45">
-      <c r="A141" s="52" t="s">
+      <c r="A141" s="42" t="s">
         <v>132</v>
       </c>
-      <c r="B141" s="52">
+      <c r="B141" s="42">
         <v>200</v>
       </c>
-      <c r="D141" s="52" t="s">
+      <c r="D141" s="42" t="s">
         <v>633</v>
       </c>
-      <c r="E141" s="52" t="s">
+      <c r="E141" s="42" t="s">
         <v>710</v>
       </c>
     </row>
     <row r="142" spans="1:5">
-      <c r="D142" s="56" t="s">
+      <c r="D142" s="44" t="s">
         <v>474</v>
       </c>
-      <c r="E142" s="57"/>
+      <c r="E142" s="45"/>
     </row>
     <row r="143" spans="1:5" ht="30">
-      <c r="D143" s="52" t="s">
+      <c r="D143" s="42" t="s">
         <v>23</v>
       </c>
-      <c r="E143" s="52" t="s">
+      <c r="E143" s="42" t="s">
         <v>711</v>
       </c>
     </row>
     <row r="144" spans="1:5" ht="18.75" customHeight="1">
-      <c r="A144" s="48" t="s">
+      <c r="A144" s="59" t="s">
         <v>558</v>
       </c>
-      <c r="B144" s="48"/>
-      <c r="D144" s="52" t="s">
+      <c r="B144" s="59"/>
+      <c r="D144" s="42" t="s">
         <v>165</v>
       </c>
-      <c r="E144" s="52" t="s">
+      <c r="E144" s="42" t="s">
         <v>691</v>
       </c>
     </row>
     <row r="145" spans="1:5" ht="30">
-      <c r="A145" s="52" t="s">
+      <c r="A145" s="42" t="s">
         <v>463</v>
       </c>
-      <c r="B145" s="52" t="s">
+      <c r="B145" s="42" t="s">
         <v>559</v>
       </c>
-      <c r="D145" s="52" t="s">
+      <c r="D145" s="42" t="s">
         <v>557</v>
       </c>
-      <c r="E145" s="52" t="s">
+      <c r="E145" s="42" t="s">
         <v>456</v>
       </c>
     </row>
     <row r="146" spans="1:5" ht="30">
-      <c r="A146" s="52" t="s">
+      <c r="A146" s="42" t="s">
         <v>467</v>
       </c>
-      <c r="B146" s="52" t="s">
+      <c r="B146" s="42" t="s">
         <v>560</v>
       </c>
-      <c r="D146" s="52" t="s">
+      <c r="D146" s="42" t="s">
         <v>132</v>
       </c>
-      <c r="E146" s="52">
+      <c r="E146" s="42">
         <v>200</v>
       </c>
     </row>
     <row r="147" spans="1:5" ht="45">
-      <c r="A147" s="52" t="s">
+      <c r="A147" s="42" t="s">
         <v>109</v>
       </c>
-      <c r="B147" s="52" t="s">
+      <c r="B147" s="42" t="s">
         <v>561</v>
       </c>
-      <c r="D147" s="52" t="s">
+      <c r="D147" s="42" t="s">
         <v>24</v>
       </c>
-      <c r="E147" s="52" t="s">
+      <c r="E147" s="42" t="s">
         <v>670</v>
       </c>
     </row>
     <row r="148" spans="1:5">
-      <c r="A148" s="48" t="s">
+      <c r="A148" s="59" t="s">
         <v>474</v>
       </c>
-      <c r="B148" s="48"/>
-      <c r="D148" s="52" t="s">
+      <c r="B148" s="59"/>
+      <c r="D148" s="42" t="s">
         <v>671</v>
       </c>
-      <c r="E148" s="52" t="s">
+      <c r="E148" s="42" t="s">
         <v>672</v>
       </c>
     </row>
     <row r="149" spans="1:5">
-      <c r="A149" s="52" t="s">
+      <c r="A149" s="42" t="s">
         <v>546</v>
       </c>
-      <c r="B149" s="52" t="s">
+      <c r="B149" s="42" t="s">
         <v>562</v>
       </c>
-      <c r="D149" s="52" t="s">
+      <c r="D149" s="42" t="s">
         <v>673</v>
       </c>
-      <c r="E149" s="52" t="s">
+      <c r="E149" s="42" t="s">
         <v>674</v>
       </c>
     </row>
     <row r="150" spans="1:5" ht="30">
-      <c r="A150" s="52" t="s">
+      <c r="A150" s="42" t="s">
         <v>557</v>
       </c>
-      <c r="B150" s="52" t="s">
+      <c r="B150" s="42" t="s">
         <v>456</v>
       </c>
     </row>
     <row r="151" spans="1:5">
-      <c r="A151" s="52" t="s">
+      <c r="A151" s="42" t="s">
         <v>132</v>
       </c>
-      <c r="B151" s="52">
+      <c r="B151" s="42">
         <v>200</v>
       </c>
     </row>
     <row r="152" spans="1:5">
-      <c r="A152" s="52" t="s">
+      <c r="A152" s="42" t="s">
         <v>549</v>
       </c>
-      <c r="B152" s="52" t="s">
+      <c r="B152" s="42" t="s">
         <v>563</v>
       </c>
-      <c r="D152" s="50" t="s">
+      <c r="D152" s="55" t="s">
         <v>712</v>
       </c>
-      <c r="E152" s="51"/>
+      <c r="E152" s="56"/>
     </row>
     <row r="153" spans="1:5" ht="30">
-      <c r="A153" s="52" t="s">
+      <c r="A153" s="42" t="s">
         <v>564</v>
       </c>
-      <c r="B153" s="52" t="s">
+      <c r="B153" s="42" t="s">
         <v>457</v>
       </c>
-      <c r="D153" s="52" t="s">
+      <c r="D153" s="42" t="s">
         <v>463</v>
       </c>
-      <c r="E153" s="52" t="s">
+      <c r="E153" s="42" t="s">
         <v>713</v>
       </c>
     </row>
     <row r="154" spans="1:5" ht="30">
-      <c r="A154" s="52" t="s">
+      <c r="A154" s="42" t="s">
         <v>139</v>
       </c>
-      <c r="B154" s="52">
+      <c r="B154" s="42">
         <v>100</v>
       </c>
-      <c r="D154" s="52" t="s">
+      <c r="D154" s="42" t="s">
         <v>467</v>
       </c>
-      <c r="E154" s="52" t="s">
+      <c r="E154" s="42" t="s">
         <v>714</v>
       </c>
     </row>
     <row r="155" spans="1:5" ht="45">
-      <c r="A155" s="52" t="s">
+      <c r="A155" s="42" t="s">
         <v>565</v>
       </c>
-      <c r="B155" s="52" t="s">
+      <c r="B155" s="42" t="s">
         <v>566</v>
       </c>
-      <c r="D155" s="52" t="s">
+      <c r="D155" s="42" t="s">
         <v>109</v>
       </c>
-      <c r="E155" s="52" t="s">
+      <c r="E155" s="42" t="s">
         <v>715</v>
       </c>
     </row>
     <row r="156" spans="1:5">
-      <c r="A156" s="52" t="s">
+      <c r="A156" s="42" t="s">
         <v>24</v>
       </c>
-      <c r="B156" s="52" t="s">
+      <c r="B156" s="42" t="s">
         <v>214</v>
       </c>
-      <c r="D156" s="52" t="s">
+      <c r="D156" s="42" t="s">
         <v>693</v>
       </c>
-      <c r="E156" s="52">
+      <c r="E156" s="42">
         <v>55</v>
       </c>
     </row>
     <row r="157" spans="1:5">
-      <c r="A157" s="52" t="s">
+      <c r="A157" s="42" t="s">
         <v>151</v>
       </c>
-      <c r="B157" s="52" t="s">
+      <c r="B157" s="42" t="s">
         <v>25</v>
       </c>
-      <c r="D157" s="52" t="s">
+      <c r="D157" s="42" t="s">
         <v>571</v>
       </c>
-      <c r="E157" s="52">
+      <c r="E157" s="42">
         <v>3</v>
       </c>
     </row>
     <row r="158" spans="1:5">
-      <c r="A158" s="52" t="s">
+      <c r="A158" s="42" t="s">
         <v>152</v>
       </c>
-      <c r="B158" s="52" t="s">
+      <c r="B158" s="42" t="s">
         <v>512</v>
       </c>
-      <c r="D158" s="52" t="s">
+      <c r="D158" s="42" t="s">
         <v>694</v>
       </c>
-      <c r="E158" s="52">
+      <c r="E158" s="42">
         <v>5</v>
       </c>
     </row>
     <row r="159" spans="1:5">
-      <c r="A159" s="52" t="s">
+      <c r="A159" s="42" t="s">
         <v>535</v>
       </c>
-      <c r="B159" s="52">
+      <c r="B159" s="42">
         <v>60</v>
       </c>
-      <c r="D159" s="54" t="s">
+      <c r="D159" s="57" t="s">
         <v>630</v>
       </c>
-      <c r="E159" s="55"/>
+      <c r="E159" s="58"/>
     </row>
     <row r="160" spans="1:5" ht="30">
-      <c r="D160" s="52" t="s">
+      <c r="D160" s="42" t="s">
         <v>99</v>
       </c>
-      <c r="E160" s="52" t="s">
+      <c r="E160" s="42" t="s">
         <v>716</v>
       </c>
     </row>
     <row r="161" spans="1:5" ht="30">
-      <c r="D161" s="52" t="s">
+      <c r="D161" s="42" t="s">
         <v>147</v>
       </c>
-      <c r="E161" s="52" t="s">
+      <c r="E161" s="42" t="s">
         <v>455</v>
       </c>
     </row>
     <row r="162" spans="1:5" ht="18.75" customHeight="1">
-      <c r="A162" s="48" t="s">
+      <c r="A162" s="59" t="s">
         <v>567</v>
       </c>
-      <c r="B162" s="48"/>
-      <c r="D162" s="52" t="s">
+      <c r="B162" s="59"/>
+      <c r="D162" s="42" t="s">
         <v>105</v>
       </c>
-      <c r="E162" s="52" t="s">
+      <c r="E162" s="42" t="s">
         <v>717</v>
       </c>
     </row>
     <row r="163" spans="1:5">
-      <c r="A163" s="52" t="s">
+      <c r="A163" s="42" t="s">
         <v>463</v>
       </c>
-      <c r="B163" s="52" t="s">
+      <c r="B163" s="42" t="s">
         <v>568</v>
       </c>
-      <c r="D163" s="52" t="s">
+      <c r="D163" s="42" t="s">
         <v>378</v>
       </c>
-      <c r="E163" s="52" t="s">
+      <c r="E163" s="42" t="s">
         <v>108</v>
       </c>
     </row>
     <row r="164" spans="1:5" ht="45">
-      <c r="A164" s="52" t="s">
+      <c r="A164" s="42" t="s">
         <v>467</v>
       </c>
-      <c r="B164" s="52" t="s">
+      <c r="B164" s="42" t="s">
         <v>569</v>
       </c>
-      <c r="D164" s="52" t="s">
+      <c r="D164" s="42" t="s">
         <v>633</v>
       </c>
-      <c r="E164" s="52" t="s">
+      <c r="E164" s="42" t="s">
         <v>718</v>
       </c>
     </row>
     <row r="165" spans="1:5" ht="45">
-      <c r="A165" s="52" t="s">
+      <c r="A165" s="42" t="s">
         <v>109</v>
       </c>
-      <c r="B165" s="52" t="s">
+      <c r="B165" s="42" t="s">
         <v>570</v>
       </c>
-      <c r="D165" s="56" t="s">
+      <c r="D165" s="44" t="s">
         <v>474</v>
       </c>
-      <c r="E165" s="57"/>
+      <c r="E165" s="45"/>
     </row>
     <row r="166" spans="1:5" ht="30">
-      <c r="A166" s="52" t="s">
+      <c r="A166" s="42" t="s">
         <v>535</v>
       </c>
-      <c r="B166" s="52">
+      <c r="B166" s="42">
         <v>60</v>
       </c>
-      <c r="D166" s="52" t="s">
+      <c r="D166" s="42" t="s">
         <v>23</v>
       </c>
-      <c r="E166" s="52" t="s">
+      <c r="E166" s="42" t="s">
         <v>719</v>
       </c>
     </row>
     <row r="167" spans="1:5">
-      <c r="A167" s="52" t="s">
+      <c r="A167" s="42" t="s">
         <v>571</v>
       </c>
-      <c r="B167" s="52">
+      <c r="B167" s="42">
         <v>3</v>
       </c>
-      <c r="D167" s="52" t="s">
+      <c r="D167" s="42" t="s">
         <v>165</v>
       </c>
-      <c r="E167" s="52" t="s">
+      <c r="E167" s="42" t="s">
         <v>691</v>
       </c>
     </row>
     <row r="168" spans="1:5" ht="30">
-      <c r="A168" s="48" t="s">
+      <c r="A168" s="59" t="s">
         <v>474</v>
       </c>
-      <c r="B168" s="48"/>
-      <c r="D168" s="52" t="s">
+      <c r="B168" s="59"/>
+      <c r="D168" s="42" t="s">
         <v>557</v>
       </c>
-      <c r="E168" s="52" t="s">
+      <c r="E168" s="42" t="s">
         <v>456</v>
       </c>
     </row>
     <row r="169" spans="1:5">
-      <c r="A169" s="52" t="s">
+      <c r="A169" s="42" t="s">
         <v>546</v>
       </c>
-      <c r="B169" s="52" t="s">
+      <c r="B169" s="42" t="s">
         <v>572</v>
       </c>
-      <c r="D169" s="52" t="s">
+      <c r="D169" s="42" t="s">
         <v>132</v>
       </c>
-      <c r="E169" s="52">
+      <c r="E169" s="42">
         <v>200</v>
       </c>
     </row>
     <row r="170" spans="1:5" ht="30">
-      <c r="A170" s="52" t="s">
+      <c r="A170" s="42" t="s">
         <v>549</v>
       </c>
-      <c r="B170" s="52" t="s">
+      <c r="B170" s="42" t="s">
         <v>573</v>
       </c>
-      <c r="D170" s="52" t="s">
+      <c r="D170" s="42" t="s">
         <v>277</v>
       </c>
-      <c r="E170" s="52" t="s">
+      <c r="E170" s="42" t="s">
         <v>457</v>
       </c>
     </row>
     <row r="171" spans="1:5">
-      <c r="A171" s="52" t="s">
+      <c r="A171" s="42" t="s">
         <v>565</v>
       </c>
-      <c r="B171" s="52" t="s">
+      <c r="B171" s="42" t="s">
         <v>574</v>
       </c>
-      <c r="D171" s="52" t="s">
+      <c r="D171" s="42" t="s">
         <v>720</v>
       </c>
-      <c r="E171" s="52">
+      <c r="E171" s="42">
         <v>200</v>
       </c>
     </row>
     <row r="172" spans="1:5">
-      <c r="A172" s="52" t="s">
+      <c r="A172" s="42" t="s">
         <v>236</v>
       </c>
-      <c r="B172" s="52" t="s">
+      <c r="B172" s="42" t="s">
         <v>174</v>
       </c>
-      <c r="D172" s="52" t="s">
+      <c r="D172" s="42" t="s">
         <v>24</v>
       </c>
-      <c r="E172" s="52" t="s">
+      <c r="E172" s="42" t="s">
         <v>670</v>
       </c>
     </row>
     <row r="173" spans="1:5" ht="30">
-      <c r="A173" s="52" t="s">
+      <c r="A173" s="42" t="s">
         <v>147</v>
       </c>
-      <c r="B173" s="52" t="s">
+      <c r="B173" s="42" t="s">
         <v>455</v>
       </c>
-      <c r="D173" s="52" t="s">
+      <c r="D173" s="42" t="s">
         <v>671</v>
       </c>
-      <c r="E173" s="52" t="s">
+      <c r="E173" s="42" t="s">
         <v>672</v>
       </c>
     </row>
     <row r="174" spans="1:5" ht="30">
-      <c r="A174" s="52" t="s">
+      <c r="A174" s="42" t="s">
         <v>557</v>
       </c>
-      <c r="B174" s="52" t="s">
+      <c r="B174" s="42" t="s">
         <v>456</v>
       </c>
-      <c r="D174" s="52" t="s">
+      <c r="D174" s="42" t="s">
         <v>673</v>
       </c>
-      <c r="E174" s="52" t="s">
+      <c r="E174" s="42" t="s">
         <v>674</v>
       </c>
     </row>
     <row r="175" spans="1:5">
-      <c r="A175" s="52" t="s">
+      <c r="A175" s="42" t="s">
         <v>132</v>
       </c>
-      <c r="B175" s="52">
+      <c r="B175" s="42">
         <v>200</v>
       </c>
-      <c r="D175" s="52"/>
-      <c r="E175" s="52"/>
+      <c r="D175" s="42"/>
+      <c r="E175" s="42"/>
     </row>
     <row r="176" spans="1:5" ht="30">
-      <c r="A176" s="52" t="s">
+      <c r="A176" s="42" t="s">
         <v>564</v>
       </c>
-      <c r="B176" s="52" t="s">
+      <c r="B176" s="42" t="s">
         <v>457</v>
       </c>
     </row>
     <row r="177" spans="1:5">
-      <c r="A177" s="52" t="s">
+      <c r="A177" s="42" t="s">
         <v>24</v>
       </c>
-      <c r="B177" s="52" t="s">
+      <c r="B177" s="42" t="s">
         <v>214</v>
       </c>
     </row>
     <row r="178" spans="1:5">
-      <c r="A178" s="52" t="s">
+      <c r="A178" s="42" t="s">
         <v>151</v>
       </c>
-      <c r="B178" s="52" t="s">
+      <c r="B178" s="42" t="s">
         <v>25</v>
       </c>
-      <c r="D178" s="50" t="s">
+      <c r="D178" s="55" t="s">
         <v>721</v>
       </c>
-      <c r="E178" s="51"/>
+      <c r="E178" s="56"/>
     </row>
     <row r="179" spans="1:5" ht="30">
-      <c r="A179" s="52" t="s">
+      <c r="A179" s="42" t="s">
         <v>152</v>
       </c>
-      <c r="B179" s="52" t="s">
+      <c r="B179" s="42" t="s">
         <v>512</v>
       </c>
-      <c r="D179" s="52" t="s">
+      <c r="D179" s="42" t="s">
         <v>463</v>
       </c>
-      <c r="E179" s="52" t="s">
+      <c r="E179" s="42" t="s">
         <v>722</v>
       </c>
     </row>
     <row r="180" spans="1:5" ht="30">
-      <c r="D180" s="52" t="s">
+      <c r="D180" s="42" t="s">
         <v>467</v>
       </c>
-      <c r="E180" s="52" t="s">
+      <c r="E180" s="42" t="s">
         <v>723</v>
       </c>
     </row>
     <row r="181" spans="1:5" ht="45">
-      <c r="D181" s="52" t="s">
+      <c r="D181" s="42" t="s">
         <v>109</v>
       </c>
-      <c r="E181" s="52" t="s">
+      <c r="E181" s="42" t="s">
         <v>724</v>
       </c>
     </row>
     <row r="182" spans="1:5" ht="18.75" customHeight="1">
-      <c r="A182" s="48" t="s">
+      <c r="A182" s="59" t="s">
         <v>575</v>
       </c>
-      <c r="B182" s="48"/>
-      <c r="D182" s="52" t="s">
+      <c r="B182" s="59"/>
+      <c r="D182" s="42" t="s">
         <v>693</v>
       </c>
-      <c r="E182" s="52">
+      <c r="E182" s="42">
         <v>90</v>
       </c>
     </row>
     <row r="183" spans="1:5">
-      <c r="A183" s="52" t="s">
+      <c r="A183" s="42" t="s">
         <v>463</v>
       </c>
-      <c r="B183" s="52" t="s">
+      <c r="B183" s="42" t="s">
         <v>576</v>
       </c>
-      <c r="D183" s="52" t="s">
+      <c r="D183" s="42" t="s">
         <v>571</v>
       </c>
-      <c r="E183" s="52">
+      <c r="E183" s="42">
         <v>5</v>
       </c>
     </row>
     <row r="184" spans="1:5" ht="30">
-      <c r="A184" s="52" t="s">
+      <c r="A184" s="42" t="s">
         <v>467</v>
       </c>
-      <c r="B184" s="52" t="s">
+      <c r="B184" s="42" t="s">
         <v>577</v>
       </c>
-      <c r="D184" s="52" t="s">
+      <c r="D184" s="42" t="s">
         <v>694</v>
       </c>
-      <c r="E184" s="52">
+      <c r="E184" s="42">
         <v>5</v>
       </c>
     </row>
     <row r="185" spans="1:5" ht="30">
-      <c r="A185" s="52" t="s">
+      <c r="A185" s="42" t="s">
         <v>109</v>
       </c>
-      <c r="B185" s="52" t="s">
+      <c r="B185" s="42" t="s">
         <v>578</v>
       </c>
-      <c r="D185" s="54" t="s">
+      <c r="D185" s="57" t="s">
         <v>630</v>
       </c>
-      <c r="E185" s="55"/>
+      <c r="E185" s="58"/>
     </row>
     <row r="186" spans="1:5" ht="30">
-      <c r="A186" s="52" t="s">
+      <c r="A186" s="42" t="s">
         <v>535</v>
       </c>
-      <c r="B186" s="52">
+      <c r="B186" s="42">
         <v>60</v>
       </c>
-      <c r="D186" s="52" t="s">
+      <c r="D186" s="42" t="s">
         <v>99</v>
       </c>
-      <c r="E186" s="52" t="s">
+      <c r="E186" s="42" t="s">
         <v>725</v>
       </c>
     </row>
     <row r="187" spans="1:5" ht="30">
-      <c r="A187" s="52" t="s">
+      <c r="A187" s="42" t="s">
         <v>571</v>
       </c>
-      <c r="B187" s="52">
+      <c r="B187" s="42">
         <v>3</v>
       </c>
-      <c r="D187" s="52" t="s">
+      <c r="D187" s="42" t="s">
         <v>147</v>
       </c>
-      <c r="E187" s="52" t="s">
+      <c r="E187" s="42" t="s">
         <v>455</v>
       </c>
     </row>
     <row r="188" spans="1:5" ht="30">
-      <c r="A188" s="48" t="s">
+      <c r="A188" s="59" t="s">
         <v>474</v>
       </c>
-      <c r="B188" s="48"/>
-      <c r="D188" s="52" t="s">
+      <c r="B188" s="59"/>
+      <c r="D188" s="42" t="s">
         <v>105</v>
       </c>
-      <c r="E188" s="52" t="s">
+      <c r="E188" s="42" t="s">
         <v>726</v>
       </c>
     </row>
     <row r="189" spans="1:5">
-      <c r="A189" s="52" t="s">
+      <c r="A189" s="42" t="s">
         <v>546</v>
       </c>
-      <c r="B189" s="52" t="s">
+      <c r="B189" s="42" t="s">
         <v>579</v>
       </c>
-      <c r="D189" s="52" t="s">
+      <c r="D189" s="42" t="s">
         <v>378</v>
       </c>
-      <c r="E189" s="52" t="s">
+      <c r="E189" s="42" t="s">
         <v>108</v>
       </c>
     </row>
     <row r="190" spans="1:5" ht="45">
-      <c r="A190" s="52" t="s">
+      <c r="A190" s="42" t="s">
         <v>549</v>
       </c>
-      <c r="B190" s="52" t="s">
+      <c r="B190" s="42" t="s">
         <v>580</v>
       </c>
-      <c r="D190" s="52" t="s">
+      <c r="D190" s="42" t="s">
         <v>633</v>
       </c>
-      <c r="E190" s="52" t="s">
+      <c r="E190" s="42" t="s">
         <v>727</v>
       </c>
     </row>
     <row r="191" spans="1:5">
-      <c r="A191" s="52" t="s">
+      <c r="A191" s="42" t="s">
         <v>565</v>
       </c>
-      <c r="B191" s="52" t="s">
+      <c r="B191" s="42" t="s">
         <v>581</v>
       </c>
-      <c r="D191" s="56" t="s">
+      <c r="D191" s="44" t="s">
         <v>474</v>
       </c>
-      <c r="E191" s="57"/>
+      <c r="E191" s="45"/>
     </row>
     <row r="192" spans="1:5" ht="30">
-      <c r="A192" s="52" t="s">
+      <c r="A192" s="42" t="s">
         <v>582</v>
       </c>
-      <c r="B192" s="52" t="s">
+      <c r="B192" s="42" t="s">
         <v>583</v>
       </c>
-      <c r="D192" s="52" t="s">
+      <c r="D192" s="42" t="s">
         <v>728</v>
       </c>
-      <c r="E192" s="52" t="s">
+      <c r="E192" s="42" t="s">
         <v>729</v>
       </c>
     </row>
     <row r="193" spans="1:5">
-      <c r="A193" s="52" t="s">
+      <c r="A193" s="42" t="s">
         <v>236</v>
       </c>
-      <c r="B193" s="52" t="s">
+      <c r="B193" s="42" t="s">
         <v>584</v>
       </c>
-      <c r="D193" s="52" t="s">
+      <c r="D193" s="42" t="s">
         <v>165</v>
       </c>
-      <c r="E193" s="52" t="s">
+      <c r="E193" s="42" t="s">
         <v>691</v>
       </c>
     </row>
     <row r="194" spans="1:5" ht="30">
-      <c r="A194" s="52" t="s">
+      <c r="A194" s="42" t="s">
         <v>147</v>
       </c>
-      <c r="B194" s="52" t="s">
+      <c r="B194" s="42" t="s">
         <v>455</v>
       </c>
-      <c r="D194" s="52" t="s">
+      <c r="D194" s="42" t="s">
         <v>549</v>
       </c>
-      <c r="E194" s="52" t="s">
+      <c r="E194" s="42" t="s">
         <v>730</v>
       </c>
     </row>
     <row r="195" spans="1:5" ht="30">
-      <c r="A195" s="52" t="s">
+      <c r="A195" s="42" t="s">
         <v>557</v>
       </c>
-      <c r="B195" s="52" t="s">
+      <c r="B195" s="42" t="s">
         <v>456</v>
       </c>
-      <c r="D195" s="52" t="s">
+      <c r="D195" s="42" t="s">
         <v>147</v>
       </c>
-      <c r="E195" s="52" t="s">
+      <c r="E195" s="42" t="s">
         <v>455</v>
       </c>
     </row>
     <row r="196" spans="1:5">
-      <c r="A196" s="52" t="s">
+      <c r="A196" s="42" t="s">
         <v>132</v>
       </c>
-      <c r="B196" s="52">
+      <c r="B196" s="42">
         <v>200</v>
       </c>
     </row>
     <row r="197" spans="1:5" ht="30">
-      <c r="A197" s="52" t="s">
+      <c r="A197" s="42" t="s">
         <v>564</v>
       </c>
-      <c r="B197" s="52" t="s">
+      <c r="B197" s="42" t="s">
         <v>457</v>
       </c>
     </row>
     <row r="198" spans="1:5">
-      <c r="A198" s="52" t="s">
+      <c r="A198" s="42" t="s">
         <v>24</v>
       </c>
-      <c r="B198" s="52" t="s">
+      <c r="B198" s="42" t="s">
         <v>214</v>
       </c>
-      <c r="D198" s="50" t="s">
+      <c r="D198" s="55" t="s">
         <v>731</v>
       </c>
-      <c r="E198" s="51"/>
+      <c r="E198" s="56"/>
     </row>
     <row r="199" spans="1:5" ht="30">
-      <c r="A199" s="52" t="s">
+      <c r="A199" s="42" t="s">
         <v>151</v>
       </c>
-      <c r="B199" s="52" t="s">
+      <c r="B199" s="42" t="s">
         <v>25</v>
       </c>
-      <c r="D199" s="52" t="s">
+      <c r="D199" s="42" t="s">
         <v>463</v>
       </c>
-      <c r="E199" s="52" t="s">
+      <c r="E199" s="42" t="s">
         <v>732</v>
       </c>
     </row>
     <row r="200" spans="1:5" ht="30">
-      <c r="A200" s="52" t="s">
+      <c r="A200" s="42" t="s">
         <v>152</v>
       </c>
-      <c r="B200" s="52" t="s">
+      <c r="B200" s="42" t="s">
         <v>512</v>
       </c>
-      <c r="D200" s="52" t="s">
+      <c r="D200" s="42" t="s">
         <v>467</v>
       </c>
-      <c r="E200" s="52" t="s">
+      <c r="E200" s="42" t="s">
         <v>733</v>
       </c>
     </row>
     <row r="201" spans="1:5" ht="45">
-      <c r="A201" s="52" t="s">
+      <c r="A201" s="42" t="s">
         <v>585</v>
       </c>
-      <c r="B201" s="52" t="s">
+      <c r="B201" s="42" t="s">
         <v>119</v>
       </c>
-      <c r="D201" s="52" t="s">
+      <c r="D201" s="42" t="s">
         <v>109</v>
       </c>
-      <c r="E201" s="52" t="s">
+      <c r="E201" s="42" t="s">
         <v>734</v>
       </c>
     </row>
     <row r="202" spans="1:5">
-      <c r="D202" s="52" t="s">
+      <c r="D202" s="42" t="s">
         <v>694</v>
       </c>
-      <c r="E202" s="52">
+      <c r="E202" s="42">
         <v>5</v>
       </c>
     </row>
     <row r="203" spans="1:5" ht="18.75" customHeight="1">
-      <c r="A203" s="48" t="s">
+      <c r="A203" s="59" t="s">
         <v>586</v>
       </c>
-      <c r="B203" s="48"/>
-      <c r="D203" s="56" t="s">
+      <c r="B203" s="59"/>
+      <c r="D203" s="44" t="s">
         <v>630</v>
       </c>
-      <c r="E203" s="57"/>
+      <c r="E203" s="45"/>
     </row>
     <row r="204" spans="1:5" ht="30">
-      <c r="A204" s="52" t="s">
+      <c r="A204" s="42" t="s">
         <v>463</v>
       </c>
-      <c r="B204" s="52" t="s">
+      <c r="B204" s="42" t="s">
         <v>587</v>
       </c>
-      <c r="D204" s="52" t="s">
+      <c r="D204" s="42" t="s">
         <v>99</v>
       </c>
-      <c r="E204" s="52" t="s">
+      <c r="E204" s="42" t="s">
         <v>735</v>
       </c>
     </row>
     <row r="205" spans="1:5" ht="30">
-      <c r="A205" s="52" t="s">
+      <c r="A205" s="42" t="s">
         <v>467</v>
       </c>
-      <c r="B205" s="52" t="s">
+      <c r="B205" s="42" t="s">
         <v>588</v>
       </c>
-      <c r="D205" s="52" t="s">
+      <c r="D205" s="42" t="s">
         <v>147</v>
       </c>
-      <c r="E205" s="52" t="s">
+      <c r="E205" s="42" t="s">
         <v>455</v>
       </c>
     </row>
     <row r="206" spans="1:5" ht="30">
-      <c r="A206" s="52" t="s">
+      <c r="A206" s="42" t="s">
         <v>109</v>
       </c>
-      <c r="B206" s="52" t="s">
+      <c r="B206" s="42" t="s">
         <v>589</v>
       </c>
-      <c r="D206" s="52" t="s">
+      <c r="D206" s="42" t="s">
         <v>105</v>
       </c>
-      <c r="E206" s="52" t="s">
+      <c r="E206" s="42" t="s">
         <v>736</v>
       </c>
     </row>
     <row r="207" spans="1:5">
-      <c r="A207" s="52" t="s">
+      <c r="A207" s="42" t="s">
         <v>535</v>
       </c>
-      <c r="B207" s="52">
+      <c r="B207" s="42">
         <v>40</v>
       </c>
-      <c r="D207" s="52" t="s">
+      <c r="D207" s="42" t="s">
         <v>378</v>
       </c>
-      <c r="E207" s="52" t="s">
+      <c r="E207" s="42" t="s">
         <v>108</v>
       </c>
     </row>
     <row r="208" spans="1:5" ht="45">
-      <c r="A208" s="52" t="s">
+      <c r="A208" s="42" t="s">
         <v>571</v>
       </c>
-      <c r="B208" s="52">
+      <c r="B208" s="42">
         <v>1</v>
       </c>
-      <c r="D208" s="52" t="s">
+      <c r="D208" s="42" t="s">
         <v>633</v>
       </c>
-      <c r="E208" s="52" t="s">
+      <c r="E208" s="42" t="s">
         <v>737</v>
       </c>
     </row>
     <row r="209" spans="1:5">
-      <c r="A209" s="48" t="s">
+      <c r="A209" s="59" t="s">
         <v>474</v>
       </c>
-      <c r="B209" s="48"/>
-      <c r="D209" s="56" t="s">
+      <c r="B209" s="59"/>
+      <c r="D209" s="44" t="s">
         <v>474</v>
       </c>
-      <c r="E209" s="57"/>
+      <c r="E209" s="45"/>
     </row>
     <row r="210" spans="1:5" ht="30">
-      <c r="A210" s="52" t="s">
+      <c r="A210" s="42" t="s">
         <v>546</v>
       </c>
-      <c r="B210" s="52" t="s">
+      <c r="B210" s="42" t="s">
         <v>590</v>
       </c>
-      <c r="D210" s="52" t="s">
+      <c r="D210" s="42" t="s">
         <v>728</v>
       </c>
-      <c r="E210" s="52" t="s">
+      <c r="E210" s="42" t="s">
         <v>738</v>
       </c>
     </row>
     <row r="211" spans="1:5" ht="30">
-      <c r="A211" s="52" t="s">
+      <c r="A211" s="42" t="s">
         <v>549</v>
       </c>
-      <c r="B211" s="52" t="s">
+      <c r="B211" s="42" t="s">
         <v>591</v>
       </c>
-      <c r="D211" s="52" t="s">
+      <c r="D211" s="42" t="s">
         <v>147</v>
       </c>
-      <c r="E211" s="52" t="s">
+      <c r="E211" s="42" t="s">
         <v>455</v>
       </c>
     </row>
     <row r="212" spans="1:5" ht="30">
-      <c r="A212" s="52" t="s">
+      <c r="A212" s="42" t="s">
         <v>565</v>
       </c>
-      <c r="B212" s="52" t="s">
+      <c r="B212" s="42" t="s">
         <v>592</v>
       </c>
-      <c r="D212" s="52" t="s">
+      <c r="D212" s="42" t="s">
         <v>549</v>
       </c>
-      <c r="E212" s="52" t="s">
+      <c r="E212" s="42" t="s">
         <v>739</v>
       </c>
     </row>
     <row r="213" spans="1:5" ht="30">
-      <c r="A213" s="52" t="s">
+      <c r="A213" s="42" t="s">
         <v>582</v>
       </c>
-      <c r="B213" s="52" t="s">
+      <c r="B213" s="42" t="s">
         <v>593</v>
       </c>
-      <c r="D213" s="52" t="s">
+      <c r="D213" s="42" t="s">
         <v>191</v>
       </c>
-      <c r="E213" s="52" t="s">
+      <c r="E213" s="42" t="s">
         <v>456</v>
       </c>
     </row>
     <row r="214" spans="1:5">
-      <c r="A214" s="52" t="s">
+      <c r="A214" s="42" t="s">
         <v>236</v>
       </c>
-      <c r="B214" s="52" t="s">
+      <c r="B214" s="42" t="s">
         <v>594</v>
       </c>
-      <c r="D214" s="52" t="s">
+      <c r="D214" s="42" t="s">
         <v>132</v>
       </c>
-      <c r="E214" s="52">
+      <c r="E214" s="42">
         <v>200</v>
       </c>
     </row>
     <row r="215" spans="1:5" ht="30">
-      <c r="A215" s="52" t="s">
+      <c r="A215" s="42" t="s">
         <v>147</v>
       </c>
-      <c r="B215" s="52" t="s">
+      <c r="B215" s="42" t="s">
         <v>455</v>
       </c>
     </row>
     <row r="216" spans="1:5" ht="30">
-      <c r="A216" s="52" t="s">
+      <c r="A216" s="42" t="s">
         <v>557</v>
       </c>
-      <c r="B216" s="52" t="s">
+      <c r="B216" s="42" t="s">
         <v>456</v>
       </c>
     </row>
     <row r="217" spans="1:5">
-      <c r="A217" s="52" t="s">
+      <c r="A217" s="42" t="s">
         <v>132</v>
       </c>
-      <c r="B217" s="52">
+      <c r="B217" s="42">
         <v>200</v>
       </c>
-      <c r="D217" s="50" t="s">
+      <c r="D217" s="55" t="s">
         <v>740</v>
       </c>
-      <c r="E217" s="51"/>
+      <c r="E217" s="56"/>
     </row>
     <row r="218" spans="1:5" ht="30">
-      <c r="A218" s="52" t="s">
+      <c r="A218" s="42" t="s">
         <v>24</v>
       </c>
-      <c r="B218" s="52" t="s">
+      <c r="B218" s="42" t="s">
         <v>214</v>
       </c>
-      <c r="D218" s="52" t="s">
+      <c r="D218" s="42" t="s">
         <v>463</v>
       </c>
-      <c r="E218" s="52" t="s">
+      <c r="E218" s="42" t="s">
         <v>741</v>
       </c>
     </row>
     <row r="219" spans="1:5" ht="45">
-      <c r="A219" s="52" t="s">
+      <c r="A219" s="42" t="s">
         <v>151</v>
       </c>
-      <c r="B219" s="52" t="s">
+      <c r="B219" s="42" t="s">
         <v>25</v>
       </c>
-      <c r="D219" s="52" t="s">
+      <c r="D219" s="42" t="s">
         <v>467</v>
       </c>
-      <c r="E219" s="52" t="s">
+      <c r="E219" s="42" t="s">
         <v>742</v>
       </c>
     </row>
     <row r="220" spans="1:5" ht="45">
-      <c r="A220" s="52" t="s">
+      <c r="A220" s="42" t="s">
         <v>152</v>
       </c>
-      <c r="B220" s="52" t="s">
+      <c r="B220" s="42" t="s">
         <v>512</v>
       </c>
-      <c r="D220" s="52" t="s">
+      <c r="D220" s="42" t="s">
         <v>109</v>
       </c>
-      <c r="E220" s="52" t="s">
+      <c r="E220" s="42" t="s">
         <v>743</v>
       </c>
     </row>
     <row r="221" spans="1:5">
-      <c r="D221" s="52" t="s">
+      <c r="D221" s="42" t="s">
         <v>694</v>
       </c>
-      <c r="E221" s="52">
+      <c r="E221" s="42">
         <v>3</v>
       </c>
     </row>
     <row r="222" spans="1:5">
-      <c r="D222" s="56" t="s">
+      <c r="D222" s="44" t="s">
         <v>630</v>
       </c>
-      <c r="E222" s="57"/>
+      <c r="E222" s="45"/>
     </row>
     <row r="223" spans="1:5" ht="18.75" customHeight="1">
-      <c r="A223" s="48" t="s">
+      <c r="A223" s="59" t="s">
         <v>595</v>
       </c>
-      <c r="B223" s="48"/>
-      <c r="D223" s="52" t="s">
+      <c r="B223" s="59"/>
+      <c r="D223" s="42" t="s">
         <v>99</v>
       </c>
-      <c r="E223" s="52" t="s">
+      <c r="E223" s="42" t="s">
         <v>744</v>
       </c>
     </row>
     <row r="224" spans="1:5" ht="30">
-      <c r="A224" s="52" t="s">
+      <c r="A224" s="42" t="s">
         <v>463</v>
       </c>
-      <c r="B224" s="52" t="s">
+      <c r="B224" s="42" t="s">
         <v>596</v>
       </c>
-      <c r="D224" s="52" t="s">
+      <c r="D224" s="42" t="s">
         <v>147</v>
       </c>
-      <c r="E224" s="52" t="s">
+      <c r="E224" s="42" t="s">
         <v>455</v>
       </c>
     </row>
     <row r="225" spans="1:5" ht="45">
-      <c r="A225" s="52" t="s">
+      <c r="A225" s="42" t="s">
         <v>467</v>
       </c>
-      <c r="B225" s="52" t="s">
+      <c r="B225" s="42" t="s">
         <v>597</v>
       </c>
-      <c r="D225" s="52" t="s">
+      <c r="D225" s="42" t="s">
         <v>105</v>
       </c>
-      <c r="E225" s="52" t="s">
+      <c r="E225" s="42" t="s">
         <v>745</v>
       </c>
     </row>
     <row r="226" spans="1:5" ht="30">
-      <c r="A226" s="52" t="s">
+      <c r="A226" s="42" t="s">
         <v>109</v>
       </c>
-      <c r="B226" s="52" t="s">
+      <c r="B226" s="42" t="s">
         <v>598</v>
       </c>
-      <c r="D226" s="52" t="s">
+      <c r="D226" s="42" t="s">
         <v>378</v>
       </c>
-      <c r="E226" s="52" t="s">
+      <c r="E226" s="42" t="s">
         <v>108</v>
       </c>
     </row>
     <row r="227" spans="1:5" ht="45">
-      <c r="A227" s="52" t="s">
+      <c r="A227" s="42" t="s">
         <v>535</v>
       </c>
-      <c r="B227" s="52">
+      <c r="B227" s="42">
         <v>30</v>
       </c>
-      <c r="D227" s="52" t="s">
+      <c r="D227" s="42" t="s">
         <v>633</v>
       </c>
-      <c r="E227" s="52" t="s">
+      <c r="E227" s="42" t="s">
         <v>746</v>
       </c>
     </row>
     <row r="228" spans="1:5">
-      <c r="A228" s="52" t="s">
+      <c r="A228" s="42" t="s">
         <v>571</v>
       </c>
-      <c r="B228" s="52">
+      <c r="B228" s="42">
         <v>2</v>
       </c>
-      <c r="D228" s="56" t="s">
+      <c r="D228" s="44" t="s">
         <v>474</v>
       </c>
-      <c r="E228" s="57"/>
+      <c r="E228" s="45"/>
     </row>
     <row r="229" spans="1:5" ht="30">
-      <c r="A229" s="48" t="s">
+      <c r="A229" s="59" t="s">
         <v>474</v>
       </c>
-      <c r="B229" s="48"/>
-      <c r="D229" s="52" t="s">
+      <c r="B229" s="59"/>
+      <c r="D229" s="42" t="s">
         <v>728</v>
       </c>
-      <c r="E229" s="52" t="s">
+      <c r="E229" s="42" t="s">
         <v>747</v>
       </c>
     </row>
     <row r="230" spans="1:5" ht="30">
-      <c r="A230" s="52" t="s">
+      <c r="A230" s="42" t="s">
         <v>546</v>
       </c>
-      <c r="B230" s="52" t="s">
+      <c r="B230" s="42" t="s">
         <v>599</v>
       </c>
-      <c r="D230" s="52" t="s">
+      <c r="D230" s="42" t="s">
         <v>191</v>
       </c>
-      <c r="E230" s="52" t="s">
+      <c r="E230" s="42" t="s">
         <v>456</v>
       </c>
     </row>
     <row r="231" spans="1:5">
-      <c r="A231" s="52" t="s">
+      <c r="A231" s="42" t="s">
         <v>549</v>
       </c>
-      <c r="B231" s="52" t="s">
+      <c r="B231" s="42" t="s">
         <v>600</v>
       </c>
-      <c r="D231" s="52" t="s">
+      <c r="D231" s="42" t="s">
         <v>132</v>
       </c>
-      <c r="E231" s="52">
+      <c r="E231" s="42">
         <v>200</v>
       </c>
     </row>
     <row r="232" spans="1:5" ht="30">
-      <c r="A232" s="52" t="s">
+      <c r="A232" s="42" t="s">
         <v>565</v>
       </c>
-      <c r="B232" s="52" t="s">
+      <c r="B232" s="42" t="s">
         <v>601</v>
       </c>
-      <c r="D232" s="52" t="s">
+      <c r="D232" s="42" t="s">
         <v>549</v>
       </c>
-      <c r="E232" s="52" t="s">
+      <c r="E232" s="42" t="s">
         <v>748</v>
       </c>
     </row>
     <row r="233" spans="1:5" ht="30">
-      <c r="A233" s="52" t="s">
+      <c r="A233" s="42" t="s">
         <v>582</v>
       </c>
-      <c r="B233" s="52" t="s">
+      <c r="B233" s="42" t="s">
         <v>602</v>
       </c>
-      <c r="D233" s="52" t="s">
+      <c r="D233" s="42" t="s">
         <v>277</v>
       </c>
-      <c r="E233" s="52" t="s">
+      <c r="E233" s="42" t="s">
         <v>457</v>
       </c>
     </row>
     <row r="234" spans="1:5">
-      <c r="A234" s="52" t="s">
+      <c r="A234" s="42" t="s">
         <v>236</v>
       </c>
-      <c r="B234" s="52" t="s">
+      <c r="B234" s="42" t="s">
         <v>603</v>
       </c>
-      <c r="D234" s="52" t="s">
+      <c r="D234" s="42" t="s">
         <v>139</v>
       </c>
-      <c r="E234" s="52">
+      <c r="E234" s="42">
         <v>200</v>
       </c>
     </row>
     <row r="235" spans="1:5" ht="30">
-      <c r="A235" s="52" t="s">
+      <c r="A235" s="42" t="s">
         <v>147</v>
       </c>
-      <c r="B235" s="52" t="s">
+      <c r="B235" s="42" t="s">
         <v>455</v>
       </c>
-      <c r="D235" s="52" t="s">
+      <c r="D235" s="42" t="s">
         <v>565</v>
       </c>
-      <c r="E235" s="52" t="s">
+      <c r="E235" s="42" t="s">
         <v>749</v>
       </c>
     </row>
     <row r="236" spans="1:5" ht="30">
-      <c r="A236" s="52" t="s">
+      <c r="A236" s="42" t="s">
         <v>557</v>
       </c>
-      <c r="B236" s="52" t="s">
+      <c r="B236" s="42" t="s">
         <v>456</v>
       </c>
-      <c r="D236" s="52" t="s">
+      <c r="D236" s="42" t="s">
         <v>24</v>
       </c>
-      <c r="E236" s="52" t="s">
+      <c r="E236" s="42" t="s">
         <v>750</v>
       </c>
     </row>
     <row r="237" spans="1:5">
-      <c r="A237" s="52" t="s">
+      <c r="A237" s="42" t="s">
         <v>132</v>
       </c>
-      <c r="B237" s="52">
+      <c r="B237" s="42">
         <v>200</v>
       </c>
-      <c r="D237" s="52" t="s">
+      <c r="D237" s="42" t="s">
         <v>671</v>
       </c>
-      <c r="E237" s="52" t="s">
+      <c r="E237" s="42" t="s">
         <v>751</v>
       </c>
     </row>
     <row r="238" spans="1:5" ht="30">
-      <c r="A238" s="52" t="s">
+      <c r="A238" s="42" t="s">
         <v>564</v>
       </c>
-      <c r="B238" s="52" t="s">
+      <c r="B238" s="42" t="s">
         <v>457</v>
       </c>
-      <c r="D238" s="52" t="s">
+      <c r="D238" s="42" t="s">
         <v>673</v>
       </c>
-      <c r="E238" s="52" t="s">
+      <c r="E238" s="42" t="s">
         <v>119</v>
       </c>
     </row>
     <row r="239" spans="1:5">
-      <c r="A239" s="52" t="s">
+      <c r="A239" s="42" t="s">
         <v>132</v>
       </c>
-      <c r="B239" s="52">
+      <c r="B239" s="42">
         <v>150</v>
       </c>
     </row>
     <row r="240" spans="1:5">
-      <c r="A240" s="52" t="s">
+      <c r="A240" s="42" t="s">
         <v>24</v>
       </c>
-      <c r="B240" s="52" t="s">
+      <c r="B240" s="42" t="s">
         <v>214</v>
       </c>
     </row>
     <row r="241" spans="1:5">
-      <c r="A241" s="52" t="s">
+      <c r="A241" s="42" t="s">
         <v>151</v>
       </c>
-      <c r="B241" s="52" t="s">
+      <c r="B241" s="42" t="s">
         <v>25</v>
       </c>
-      <c r="D241" s="50" t="s">
+      <c r="D241" s="55" t="s">
         <v>752</v>
       </c>
-      <c r="E241" s="51"/>
+      <c r="E241" s="56"/>
     </row>
     <row r="242" spans="1:5" ht="30">
-      <c r="A242" s="52" t="s">
+      <c r="A242" s="42" t="s">
         <v>152</v>
       </c>
-      <c r="B242" s="52" t="s">
+      <c r="B242" s="42" t="s">
         <v>512</v>
       </c>
-      <c r="D242" s="52" t="s">
+      <c r="D242" s="42" t="s">
         <v>463</v>
       </c>
-      <c r="E242" s="52" t="s">
+      <c r="E242" s="42" t="s">
         <v>753</v>
       </c>
     </row>
     <row r="243" spans="1:5" ht="45">
-      <c r="D243" s="52" t="s">
+      <c r="D243" s="42" t="s">
         <v>467</v>
       </c>
-      <c r="E243" s="52" t="s">
+      <c r="E243" s="42" t="s">
         <v>754</v>
       </c>
     </row>
     <row r="244" spans="1:5" ht="45">
-      <c r="D244" s="52" t="s">
+      <c r="D244" s="42" t="s">
         <v>109</v>
       </c>
-      <c r="E244" s="52" t="s">
+      <c r="E244" s="42" t="s">
         <v>755</v>
       </c>
     </row>
     <row r="245" spans="1:5">
-      <c r="A245" s="49" t="s">
+      <c r="A245" s="41" t="s">
         <v>756</v>
       </c>
-      <c r="D245" s="52" t="s">
+      <c r="D245" s="42" t="s">
         <v>694</v>
       </c>
-      <c r="E245" s="52">
+      <c r="E245" s="42">
         <v>3</v>
       </c>
     </row>
     <row r="246" spans="1:5">
-      <c r="D246" s="52" t="s">
+      <c r="D246" s="42" t="s">
         <v>535</v>
       </c>
-      <c r="E246" s="52">
+      <c r="E246" s="42">
         <v>90</v>
       </c>
     </row>
     <row r="247" spans="1:5">
-      <c r="A247" s="50" t="s">
+      <c r="A247" s="55" t="s">
         <v>757</v>
       </c>
-      <c r="B247" s="51"/>
-      <c r="D247" s="52" t="s">
+      <c r="B247" s="56"/>
+      <c r="D247" s="42" t="s">
         <v>758</v>
       </c>
-      <c r="E247" s="52">
+      <c r="E247" s="42">
         <v>1</v>
       </c>
     </row>
     <row r="248" spans="1:5">
-      <c r="A248" s="52" t="s">
+      <c r="A248" s="42" t="s">
         <v>463</v>
       </c>
-      <c r="B248" s="52" t="s">
+      <c r="B248" s="42" t="s">
         <v>759</v>
       </c>
-      <c r="D248" s="56" t="s">
+      <c r="D248" s="44" t="s">
         <v>630</v>
       </c>
-      <c r="E248" s="57"/>
+      <c r="E248" s="45"/>
     </row>
     <row r="249" spans="1:5" ht="30">
-      <c r="A249" s="52" t="s">
+      <c r="A249" s="42" t="s">
         <v>467</v>
       </c>
-      <c r="B249" s="52" t="s">
+      <c r="B249" s="42" t="s">
         <v>760</v>
       </c>
-      <c r="D249" s="52" t="s">
+      <c r="D249" s="42" t="s">
         <v>99</v>
       </c>
-      <c r="E249" s="52" t="s">
+      <c r="E249" s="42" t="s">
         <v>761</v>
       </c>
     </row>
     <row r="250" spans="1:5" ht="30">
-      <c r="A250" s="52" t="s">
+      <c r="A250" s="42" t="s">
         <v>109</v>
       </c>
-      <c r="B250" s="52" t="s">
+      <c r="B250" s="42" t="s">
         <v>762</v>
       </c>
-      <c r="D250" s="52" t="s">
+      <c r="D250" s="42" t="s">
         <v>147</v>
       </c>
-      <c r="E250" s="52" t="s">
+      <c r="E250" s="42" t="s">
         <v>455</v>
       </c>
     </row>
     <row r="251" spans="1:5" ht="45">
-      <c r="A251" s="52" t="s">
+      <c r="A251" s="42" t="s">
         <v>694</v>
       </c>
-      <c r="B251" s="52">
+      <c r="B251" s="42">
         <v>2</v>
       </c>
-      <c r="D251" s="52" t="s">
+      <c r="D251" s="42" t="s">
         <v>105</v>
       </c>
-      <c r="E251" s="52" t="s">
+      <c r="E251" s="42" t="s">
         <v>763</v>
       </c>
     </row>
     <row r="252" spans="1:5">
-      <c r="A252" s="52" t="s">
+      <c r="A252" s="42" t="s">
         <v>535</v>
       </c>
-      <c r="B252" s="52">
+      <c r="B252" s="42">
         <v>90</v>
       </c>
-      <c r="D252" s="52" t="s">
+      <c r="D252" s="42" t="s">
         <v>378</v>
       </c>
-      <c r="E252" s="52" t="s">
+      <c r="E252" s="42" t="s">
         <v>108</v>
       </c>
     </row>
     <row r="253" spans="1:5" ht="45">
-      <c r="A253" s="52" t="s">
+      <c r="A253" s="42" t="s">
         <v>758</v>
       </c>
-      <c r="B253" s="52">
+      <c r="B253" s="42">
         <v>1</v>
       </c>
-      <c r="D253" s="52" t="s">
+      <c r="D253" s="42" t="s">
         <v>633</v>
       </c>
-      <c r="E253" s="52" t="s">
+      <c r="E253" s="42" t="s">
         <v>764</v>
       </c>
     </row>
     <row r="254" spans="1:5">
-      <c r="A254" s="56" t="s">
+      <c r="A254" s="44" t="s">
         <v>630</v>
       </c>
-      <c r="B254" s="57"/>
-      <c r="D254" s="56" t="s">
+      <c r="B254" s="45"/>
+      <c r="D254" s="44" t="s">
         <v>474</v>
       </c>
-      <c r="E254" s="57"/>
+      <c r="E254" s="45"/>
     </row>
     <row r="255" spans="1:5" ht="30">
-      <c r="A255" s="52" t="s">
+      <c r="A255" s="42" t="s">
         <v>99</v>
       </c>
-      <c r="B255" s="52" t="s">
+      <c r="B255" s="42" t="s">
         <v>765</v>
       </c>
-      <c r="D255" s="52" t="s">
+      <c r="D255" s="42" t="s">
         <v>728</v>
       </c>
-      <c r="E255" s="52" t="s">
+      <c r="E255" s="42" t="s">
         <v>766</v>
       </c>
     </row>
     <row r="256" spans="1:5" ht="30">
-      <c r="A256" s="52" t="s">
+      <c r="A256" s="42" t="s">
         <v>147</v>
       </c>
-      <c r="B256" s="52" t="s">
+      <c r="B256" s="42" t="s">
         <v>455</v>
       </c>
-      <c r="D256" s="52" t="s">
+      <c r="D256" s="42" t="s">
         <v>549</v>
       </c>
-      <c r="E256" s="52" t="s">
+      <c r="E256" s="42" t="s">
         <v>767</v>
       </c>
     </row>
     <row r="257" spans="1:5" ht="30">
-      <c r="A257" s="52" t="s">
+      <c r="A257" s="42" t="s">
         <v>105</v>
       </c>
-      <c r="B257" s="52" t="s">
+      <c r="B257" s="42" t="s">
         <v>768</v>
       </c>
-      <c r="D257" s="52" t="s">
+      <c r="D257" s="42" t="s">
         <v>565</v>
       </c>
-      <c r="E257" s="52" t="s">
+      <c r="E257" s="42" t="s">
         <v>769</v>
       </c>
     </row>
     <row r="258" spans="1:5">
-      <c r="A258" s="52" t="s">
+      <c r="A258" s="42" t="s">
         <v>378</v>
       </c>
-      <c r="B258" s="52" t="s">
+      <c r="B258" s="42" t="s">
         <v>108</v>
       </c>
-      <c r="D258" s="52" t="s">
+      <c r="D258" s="42" t="s">
         <v>165</v>
       </c>
-      <c r="E258" s="52" t="s">
+      <c r="E258" s="42" t="s">
         <v>770</v>
       </c>
     </row>
     <row r="259" spans="1:5" ht="45">
-      <c r="A259" s="52" t="s">
+      <c r="A259" s="42" t="s">
         <v>633</v>
       </c>
-      <c r="B259" s="52" t="s">
+      <c r="B259" s="42" t="s">
         <v>771</v>
       </c>
-      <c r="D259" s="52" t="s">
+      <c r="D259" s="42" t="s">
         <v>147</v>
       </c>
-      <c r="E259" s="52" t="s">
+      <c r="E259" s="42" t="s">
         <v>455</v>
       </c>
     </row>
     <row r="260" spans="1:5" ht="30">
-      <c r="A260" s="56" t="s">
+      <c r="A260" s="44" t="s">
         <v>474</v>
       </c>
-      <c r="B260" s="57"/>
-      <c r="D260" s="52" t="s">
+      <c r="B260" s="45"/>
+      <c r="D260" s="42" t="s">
         <v>191</v>
       </c>
-      <c r="E260" s="52" t="s">
+      <c r="E260" s="42" t="s">
         <v>456</v>
       </c>
     </row>
     <row r="261" spans="1:5">
-      <c r="A261" s="52" t="s">
+      <c r="A261" s="42" t="s">
         <v>728</v>
       </c>
-      <c r="B261" s="52" t="s">
+      <c r="B261" s="42" t="s">
         <v>772</v>
       </c>
-      <c r="D261" s="52" t="s">
+      <c r="D261" s="42" t="s">
         <v>132</v>
       </c>
-      <c r="E261" s="52">
+      <c r="E261" s="42">
         <v>200</v>
       </c>
     </row>
     <row r="262" spans="1:5" ht="30">
-      <c r="A262" s="52" t="s">
+      <c r="A262" s="42" t="s">
         <v>549</v>
       </c>
-      <c r="B262" s="52" t="s">
+      <c r="B262" s="42" t="s">
         <v>773</v>
       </c>
-      <c r="D262" s="52" t="s">
+      <c r="D262" s="42" t="s">
         <v>277</v>
       </c>
-      <c r="E262" s="52" t="s">
+      <c r="E262" s="42" t="s">
         <v>457</v>
       </c>
     </row>
     <row r="263" spans="1:5">
-      <c r="A263" s="52" t="s">
+      <c r="A263" s="42" t="s">
         <v>565</v>
       </c>
-      <c r="B263" s="52" t="s">
+      <c r="B263" s="42" t="s">
         <v>774</v>
       </c>
-      <c r="D263" s="52" t="s">
+      <c r="D263" s="42" t="s">
         <v>139</v>
       </c>
-      <c r="E263" s="52">
+      <c r="E263" s="42">
         <v>200</v>
       </c>
     </row>
     <row r="264" spans="1:5">
-      <c r="A264" s="52" t="s">
+      <c r="A264" s="42" t="s">
         <v>582</v>
       </c>
-      <c r="B264" s="52" t="s">
+      <c r="B264" s="42" t="s">
         <v>775</v>
       </c>
-      <c r="D264" s="52" t="s">
+      <c r="D264" s="42" t="s">
         <v>24</v>
       </c>
-      <c r="E264" s="52" t="s">
+      <c r="E264" s="42" t="s">
         <v>750</v>
       </c>
     </row>
     <row r="265" spans="1:5">
-      <c r="A265" s="52" t="s">
+      <c r="A265" s="42" t="s">
         <v>165</v>
       </c>
-      <c r="B265" s="52" t="s">
+      <c r="B265" s="42" t="s">
         <v>770</v>
       </c>
-      <c r="D265" s="52" t="s">
+      <c r="D265" s="42" t="s">
         <v>671</v>
       </c>
-      <c r="E265" s="52" t="s">
+      <c r="E265" s="42" t="s">
         <v>751</v>
       </c>
     </row>
     <row r="266" spans="1:5" ht="30">
-      <c r="A266" s="52" t="s">
+      <c r="A266" s="42" t="s">
         <v>147</v>
       </c>
-      <c r="B266" s="52" t="s">
+      <c r="B266" s="42" t="s">
         <v>455</v>
       </c>
-      <c r="D266" s="52" t="s">
+      <c r="D266" s="42" t="s">
         <v>673</v>
       </c>
-      <c r="E266" s="52" t="s">
+      <c r="E266" s="42" t="s">
         <v>119</v>
       </c>
     </row>
     <row r="267" spans="1:5" ht="30">
-      <c r="A267" s="52" t="s">
+      <c r="A267" s="42" t="s">
         <v>191</v>
       </c>
-      <c r="B267" s="52" t="s">
+      <c r="B267" s="42" t="s">
         <v>456</v>
       </c>
     </row>
     <row r="268" spans="1:5">
-      <c r="A268" s="52" t="s">
+      <c r="A268" s="42" t="s">
         <v>132</v>
       </c>
-      <c r="B268" s="52">
+      <c r="B268" s="42">
         <v>200</v>
       </c>
     </row>
     <row r="269" spans="1:5" ht="30">
-      <c r="A269" s="52" t="s">
+      <c r="A269" s="42" t="s">
         <v>277</v>
       </c>
-      <c r="B269" s="52" t="s">
+      <c r="B269" s="42" t="s">
         <v>457</v>
       </c>
     </row>
     <row r="270" spans="1:5">
-      <c r="A270" s="52" t="s">
+      <c r="A270" s="42" t="s">
         <v>139</v>
       </c>
-      <c r="B270" s="52">
+      <c r="B270" s="42">
         <v>200</v>
       </c>
     </row>
     <row r="271" spans="1:5">
-      <c r="A271" s="52" t="s">
+      <c r="A271" s="42" t="s">
         <v>24</v>
       </c>
-      <c r="B271" s="52" t="s">
+      <c r="B271" s="42" t="s">
         <v>750</v>
       </c>
     </row>
     <row r="272" spans="1:5">
-      <c r="A272" s="52" t="s">
+      <c r="A272" s="42" t="s">
         <v>671</v>
       </c>
-      <c r="B272" s="52" t="s">
+      <c r="B272" s="42" t="s">
         <v>751</v>
       </c>
     </row>
     <row r="273" spans="1:2">
-      <c r="A273" s="52" t="s">
+      <c r="A273" s="42" t="s">
         <v>673</v>
       </c>
-      <c r="B273" s="52" t="s">
+      <c r="B273" s="42" t="s">
         <v>119</v>
       </c>
     </row>
     <row r="276" spans="1:2">
-      <c r="A276" s="50" t="s">
+      <c r="A276" s="55" t="s">
         <v>776</v>
       </c>
-      <c r="B276" s="51"/>
+      <c r="B276" s="56"/>
     </row>
     <row r="277" spans="1:2">
-      <c r="A277" s="52" t="s">
+      <c r="A277" s="42" t="s">
         <v>463</v>
       </c>
-      <c r="B277" s="52" t="s">
+      <c r="B277" s="42" t="s">
         <v>777</v>
       </c>
     </row>
     <row r="278" spans="1:2" ht="30">
-      <c r="A278" s="52" t="s">
+      <c r="A278" s="42" t="s">
         <v>467</v>
       </c>
-      <c r="B278" s="52" t="s">
+      <c r="B278" s="42" t="s">
         <v>778</v>
       </c>
     </row>
     <row r="279" spans="1:2" ht="30">
-      <c r="A279" s="52" t="s">
+      <c r="A279" s="42" t="s">
         <v>109</v>
       </c>
-      <c r="B279" s="52" t="s">
+      <c r="B279" s="42" t="s">
         <v>779</v>
       </c>
     </row>
     <row r="280" spans="1:2">
-      <c r="A280" s="52" t="s">
+      <c r="A280" s="42" t="s">
         <v>694</v>
       </c>
-      <c r="B280" s="52">
+      <c r="B280" s="42">
         <v>2</v>
       </c>
     </row>
     <row r="281" spans="1:2">
-      <c r="A281" s="52" t="s">
+      <c r="A281" s="42" t="s">
         <v>535</v>
       </c>
-      <c r="B281" s="52">
+      <c r="B281" s="42">
         <v>90</v>
       </c>
     </row>
     <row r="282" spans="1:2">
-      <c r="A282" s="52" t="s">
+      <c r="A282" s="42" t="s">
         <v>758</v>
       </c>
-      <c r="B282" s="52">
+      <c r="B282" s="42">
         <v>1</v>
       </c>
     </row>
     <row r="283" spans="1:2">
-      <c r="A283" s="56" t="s">
+      <c r="A283" s="44" t="s">
         <v>630</v>
       </c>
-      <c r="B283" s="57"/>
+      <c r="B283" s="45"/>
     </row>
     <row r="284" spans="1:2" ht="30">
-      <c r="A284" s="52" t="s">
+      <c r="A284" s="42" t="s">
         <v>99</v>
       </c>
-      <c r="B284" s="52" t="s">
+      <c r="B284" s="42" t="s">
         <v>780</v>
       </c>
     </row>
     <row r="285" spans="1:2" ht="30">
-      <c r="A285" s="52" t="s">
+      <c r="A285" s="42" t="s">
         <v>147</v>
       </c>
-      <c r="B285" s="52" t="s">
+      <c r="B285" s="42" t="s">
         <v>455</v>
       </c>
     </row>
     <row r="286" spans="1:2" ht="30">
-      <c r="A286" s="52" t="s">
+      <c r="A286" s="42" t="s">
         <v>105</v>
       </c>
-      <c r="B286" s="52" t="s">
+      <c r="B286" s="42" t="s">
         <v>781</v>
       </c>
     </row>
     <row r="287" spans="1:2">
-      <c r="A287" s="52" t="s">
+      <c r="A287" s="42" t="s">
         <v>378</v>
       </c>
-      <c r="B287" s="52" t="s">
+      <c r="B287" s="42" t="s">
         <v>108</v>
       </c>
     </row>
     <row r="288" spans="1:2" ht="45">
-      <c r="A288" s="52" t="s">
+      <c r="A288" s="42" t="s">
         <v>633</v>
       </c>
-      <c r="B288" s="52" t="s">
+      <c r="B288" s="42" t="s">
         <v>782</v>
       </c>
     </row>
     <row r="289" spans="1:2">
-      <c r="A289" s="56" t="s">
+      <c r="A289" s="44" t="s">
         <v>474</v>
       </c>
-      <c r="B289" s="57"/>
+      <c r="B289" s="45"/>
     </row>
     <row r="290" spans="1:2">
-      <c r="A290" s="52" t="s">
+      <c r="A290" s="42" t="s">
         <v>728</v>
       </c>
-      <c r="B290" s="52" t="s">
+      <c r="B290" s="42" t="s">
         <v>783</v>
       </c>
     </row>
     <row r="291" spans="1:2">
-      <c r="A291" s="52" t="s">
+      <c r="A291" s="42" t="s">
         <v>549</v>
       </c>
-      <c r="B291" s="52" t="s">
+      <c r="B291" s="42" t="s">
         <v>784</v>
       </c>
     </row>
     <row r="292" spans="1:2">
-      <c r="A292" s="52" t="s">
+      <c r="A292" s="42" t="s">
         <v>565</v>
       </c>
-      <c r="B292" s="52" t="s">
+      <c r="B292" s="42" t="s">
         <v>785</v>
       </c>
     </row>
     <row r="293" spans="1:2">
-      <c r="A293" s="52" t="s">
+      <c r="A293" s="42" t="s">
         <v>582</v>
       </c>
-      <c r="B293" s="52" t="s">
+      <c r="B293" s="42" t="s">
         <v>786</v>
       </c>
     </row>
     <row r="294" spans="1:2">
-      <c r="A294" s="52" t="s">
+      <c r="A294" s="42" t="s">
         <v>165</v>
       </c>
-      <c r="B294" s="52" t="s">
+      <c r="B294" s="42" t="s">
         <v>787</v>
       </c>
     </row>
     <row r="295" spans="1:2" ht="30">
-      <c r="A295" s="52" t="s">
+      <c r="A295" s="42" t="s">
         <v>147</v>
       </c>
-      <c r="B295" s="52" t="s">
+      <c r="B295" s="42" t="s">
         <v>455</v>
       </c>
     </row>
     <row r="296" spans="1:2" ht="30">
-      <c r="A296" s="52" t="s">
+      <c r="A296" s="42" t="s">
         <v>191</v>
       </c>
-      <c r="B296" s="52" t="s">
+      <c r="B296" s="42" t="s">
         <v>456</v>
       </c>
     </row>
     <row r="297" spans="1:2">
-      <c r="A297" s="52" t="s">
+      <c r="A297" s="42" t="s">
         <v>132</v>
       </c>
-      <c r="B297" s="52">
+      <c r="B297" s="42">
         <v>200</v>
       </c>
     </row>
     <row r="298" spans="1:2" ht="30">
-      <c r="A298" s="52" t="s">
+      <c r="A298" s="42" t="s">
         <v>277</v>
       </c>
-      <c r="B298" s="52" t="s">
+      <c r="B298" s="42" t="s">
         <v>457</v>
       </c>
     </row>
     <row r="299" spans="1:2">
-      <c r="A299" s="52" t="s">
+      <c r="A299" s="42" t="s">
         <v>139</v>
       </c>
-      <c r="B299" s="52">
+      <c r="B299" s="42">
         <v>200</v>
       </c>
     </row>
     <row r="300" spans="1:2">
-      <c r="A300" s="52" t="s">
+      <c r="A300" s="42" t="s">
         <v>24</v>
       </c>
-      <c r="B300" s="52" t="s">
+      <c r="B300" s="42" t="s">
         <v>750</v>
       </c>
     </row>
     <row r="301" spans="1:2">
-      <c r="A301" s="52" t="s">
+      <c r="A301" s="42" t="s">
         <v>671</v>
       </c>
-      <c r="B301" s="52" t="s">
+      <c r="B301" s="42" t="s">
         <v>751</v>
       </c>
     </row>
     <row r="302" spans="1:2">
-      <c r="A302" s="52" t="s">
+      <c r="A302" s="42" t="s">
         <v>673</v>
       </c>
-      <c r="B302" s="52" t="s">
+      <c r="B302" s="42" t="s">
         <v>119</v>
       </c>
     </row>
     <row r="305" spans="1:2">
-      <c r="A305" s="50" t="s">
+      <c r="A305" s="55" t="s">
         <v>788</v>
       </c>
-      <c r="B305" s="51"/>
+      <c r="B305" s="56"/>
     </row>
     <row r="306" spans="1:2">
-      <c r="A306" s="52" t="s">
+      <c r="A306" s="42" t="s">
         <v>463</v>
       </c>
-      <c r="B306" s="52" t="s">
+      <c r="B306" s="42" t="s">
         <v>789</v>
       </c>
     </row>
     <row r="307" spans="1:2" ht="30">
-      <c r="A307" s="52" t="s">
+      <c r="A307" s="42" t="s">
         <v>467</v>
       </c>
-      <c r="B307" s="52" t="s">
+      <c r="B307" s="42" t="s">
         <v>790</v>
       </c>
     </row>
     <row r="308" spans="1:2" ht="30">
-      <c r="A308" s="52" t="s">
+      <c r="A308" s="42" t="s">
         <v>109</v>
       </c>
-      <c r="B308" s="52" t="s">
+      <c r="B308" s="42" t="s">
         <v>791</v>
       </c>
     </row>
     <row r="309" spans="1:2">
-      <c r="A309" s="52" t="s">
+      <c r="A309" s="42" t="s">
         <v>694</v>
       </c>
-      <c r="B309" s="52">
+      <c r="B309" s="42">
         <v>2</v>
       </c>
     </row>
     <row r="310" spans="1:2">
-      <c r="A310" s="52" t="s">
+      <c r="A310" s="42" t="s">
         <v>535</v>
       </c>
-      <c r="B310" s="52">
+      <c r="B310" s="42">
         <v>90</v>
       </c>
     </row>
     <row r="311" spans="1:2">
-      <c r="A311" s="52" t="s">
+      <c r="A311" s="42" t="s">
         <v>758</v>
       </c>
-      <c r="B311" s="52">
+      <c r="B311" s="42">
         <v>1</v>
       </c>
     </row>
     <row r="312" spans="1:2">
-      <c r="A312" s="56" t="s">
+      <c r="A312" s="44" t="s">
         <v>630</v>
       </c>
-      <c r="B312" s="57"/>
+      <c r="B312" s="45"/>
     </row>
     <row r="313" spans="1:2" ht="30">
-      <c r="A313" s="52" t="s">
+      <c r="A313" s="42" t="s">
         <v>99</v>
       </c>
-      <c r="B313" s="52" t="s">
+      <c r="B313" s="42" t="s">
         <v>792</v>
       </c>
     </row>
     <row r="314" spans="1:2" ht="30">
-      <c r="A314" s="52" t="s">
+      <c r="A314" s="42" t="s">
         <v>147</v>
       </c>
-      <c r="B314" s="52" t="s">
+      <c r="B314" s="42" t="s">
         <v>455</v>
       </c>
     </row>
     <row r="315" spans="1:2" ht="30">
-      <c r="A315" s="52" t="s">
+      <c r="A315" s="42" t="s">
         <v>105</v>
       </c>
-      <c r="B315" s="52" t="s">
+      <c r="B315" s="42" t="s">
         <v>793</v>
       </c>
     </row>
     <row r="316" spans="1:2">
-      <c r="A316" s="52" t="s">
+      <c r="A316" s="42" t="s">
         <v>378</v>
       </c>
-      <c r="B316" s="52" t="s">
+      <c r="B316" s="42" t="s">
         <v>108</v>
       </c>
     </row>
     <row r="317" spans="1:2" ht="45">
-      <c r="A317" s="52" t="s">
+      <c r="A317" s="42" t="s">
         <v>633</v>
       </c>
-      <c r="B317" s="52" t="s">
+      <c r="B317" s="42" t="s">
         <v>794</v>
       </c>
     </row>
     <row r="318" spans="1:2">
-      <c r="A318" s="56" t="s">
+      <c r="A318" s="44" t="s">
         <v>474</v>
       </c>
-      <c r="B318" s="57"/>
+      <c r="B318" s="45"/>
     </row>
     <row r="319" spans="1:2">
-      <c r="A319" s="52" t="s">
+      <c r="A319" s="42" t="s">
         <v>728</v>
       </c>
-      <c r="B319" s="52" t="s">
+      <c r="B319" s="42" t="s">
         <v>795</v>
       </c>
     </row>
     <row r="320" spans="1:2">
-      <c r="A320" s="52" t="s">
+      <c r="A320" s="42" t="s">
         <v>549</v>
       </c>
-      <c r="B320" s="52" t="s">
+      <c r="B320" s="42" t="s">
         <v>796</v>
       </c>
     </row>
     <row r="321" spans="1:2">
-      <c r="A321" s="52" t="s">
+      <c r="A321" s="42" t="s">
         <v>565</v>
       </c>
-      <c r="B321" s="52" t="s">
+      <c r="B321" s="42" t="s">
         <v>797</v>
       </c>
     </row>
     <row r="322" spans="1:2">
-      <c r="A322" s="52" t="s">
+      <c r="A322" s="42" t="s">
         <v>582</v>
       </c>
-      <c r="B322" s="52" t="s">
+      <c r="B322" s="42" t="s">
         <v>798</v>
       </c>
     </row>
     <row r="323" spans="1:2">
-      <c r="A323" s="52" t="s">
+      <c r="A323" s="42" t="s">
         <v>165</v>
       </c>
-      <c r="B323" s="52" t="s">
+      <c r="B323" s="42" t="s">
         <v>770</v>
       </c>
     </row>
     <row r="324" spans="1:2" ht="30">
-      <c r="A324" s="52" t="s">
+      <c r="A324" s="42" t="s">
         <v>147</v>
       </c>
-      <c r="B324" s="52" t="s">
+      <c r="B324" s="42" t="s">
         <v>455</v>
       </c>
     </row>
     <row r="325" spans="1:2" ht="30">
-      <c r="A325" s="52" t="s">
+      <c r="A325" s="42" t="s">
         <v>191</v>
       </c>
-      <c r="B325" s="52" t="s">
+      <c r="B325" s="42" t="s">
         <v>456</v>
       </c>
     </row>
     <row r="326" spans="1:2">
-      <c r="A326" s="52" t="s">
+      <c r="A326" s="42" t="s">
         <v>132</v>
       </c>
-      <c r="B326" s="52">
+      <c r="B326" s="42">
         <v>200</v>
       </c>
     </row>
     <row r="327" spans="1:2" ht="30">
-      <c r="A327" s="52" t="s">
+      <c r="A327" s="42" t="s">
         <v>277</v>
       </c>
-      <c r="B327" s="52" t="s">
+      <c r="B327" s="42" t="s">
         <v>457</v>
       </c>
     </row>
     <row r="328" spans="1:2">
-      <c r="A328" s="52" t="s">
+      <c r="A328" s="42" t="s">
         <v>139</v>
       </c>
-      <c r="B328" s="52">
+      <c r="B328" s="42">
         <v>200</v>
       </c>
     </row>
     <row r="329" spans="1:2">
-      <c r="A329" s="52" t="s">
+      <c r="A329" s="42" t="s">
         <v>24</v>
       </c>
-      <c r="B329" s="52" t="s">
+      <c r="B329" s="42" t="s">
         <v>750</v>
       </c>
     </row>
     <row r="330" spans="1:2">
-      <c r="A330" s="52" t="s">
+      <c r="A330" s="42" t="s">
         <v>671</v>
       </c>
-      <c r="B330" s="52" t="s">
+      <c r="B330" s="42" t="s">
         <v>751</v>
       </c>
     </row>
     <row r="331" spans="1:2">
-      <c r="A331" s="52" t="s">
+      <c r="A331" s="42" t="s">
         <v>673</v>
       </c>
-      <c r="B331" s="52" t="s">
+      <c r="B331" s="42" t="s">
         <v>119</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="64">
-    <mergeCell ref="A305:B305"/>
-    <mergeCell ref="D198:E198"/>
-    <mergeCell ref="D217:E217"/>
-    <mergeCell ref="D241:E241"/>
-    <mergeCell ref="A247:B247"/>
-    <mergeCell ref="A276:B276"/>
-    <mergeCell ref="D136:E136"/>
-    <mergeCell ref="D152:E152"/>
-    <mergeCell ref="D159:E159"/>
-    <mergeCell ref="D178:E178"/>
-    <mergeCell ref="D185:E185"/>
-    <mergeCell ref="D86:E86"/>
-    <mergeCell ref="D92:E92"/>
-    <mergeCell ref="D107:E107"/>
-    <mergeCell ref="D114:E114"/>
-    <mergeCell ref="D129:E129"/>
-    <mergeCell ref="D50:E50"/>
-    <mergeCell ref="D56:E56"/>
-    <mergeCell ref="D62:E62"/>
-    <mergeCell ref="D69:E69"/>
-    <mergeCell ref="D82:E82"/>
-    <mergeCell ref="G1:H1"/>
-    <mergeCell ref="G5:H5"/>
-    <mergeCell ref="D15:E15"/>
-    <mergeCell ref="D19:E19"/>
-    <mergeCell ref="D25:E25"/>
+    <mergeCell ref="A188:B188"/>
+    <mergeCell ref="A144:B144"/>
+    <mergeCell ref="A148:B148"/>
+    <mergeCell ref="A162:B162"/>
+    <mergeCell ref="A168:B168"/>
+    <mergeCell ref="A182:B182"/>
+    <mergeCell ref="A136:B136"/>
+    <mergeCell ref="A59:B59"/>
+    <mergeCell ref="A69:B69"/>
+    <mergeCell ref="A75:B75"/>
+    <mergeCell ref="A79:B79"/>
+    <mergeCell ref="A89:B89"/>
+    <mergeCell ref="A93:B93"/>
+    <mergeCell ref="A105:B105"/>
+    <mergeCell ref="A111:B111"/>
+    <mergeCell ref="A121:B121"/>
+    <mergeCell ref="A125:B125"/>
+    <mergeCell ref="A132:B132"/>
     <mergeCell ref="A55:B55"/>
     <mergeCell ref="A1:B1"/>
     <mergeCell ref="D1:E1"/>
@@ -10666,28 +10690,36 @@
     <mergeCell ref="D34:E34"/>
     <mergeCell ref="D40:E40"/>
     <mergeCell ref="D46:E46"/>
-    <mergeCell ref="A136:B136"/>
-    <mergeCell ref="A59:B59"/>
-    <mergeCell ref="A69:B69"/>
-    <mergeCell ref="A75:B75"/>
-    <mergeCell ref="A79:B79"/>
-    <mergeCell ref="A89:B89"/>
-    <mergeCell ref="A93:B93"/>
-    <mergeCell ref="A105:B105"/>
-    <mergeCell ref="A111:B111"/>
-    <mergeCell ref="A121:B121"/>
-    <mergeCell ref="A125:B125"/>
-    <mergeCell ref="A132:B132"/>
+    <mergeCell ref="G1:H1"/>
+    <mergeCell ref="G5:H5"/>
+    <mergeCell ref="D15:E15"/>
+    <mergeCell ref="D19:E19"/>
+    <mergeCell ref="D25:E25"/>
+    <mergeCell ref="D50:E50"/>
+    <mergeCell ref="D56:E56"/>
+    <mergeCell ref="D62:E62"/>
+    <mergeCell ref="D69:E69"/>
+    <mergeCell ref="D82:E82"/>
+    <mergeCell ref="D86:E86"/>
+    <mergeCell ref="D92:E92"/>
+    <mergeCell ref="D107:E107"/>
+    <mergeCell ref="D114:E114"/>
+    <mergeCell ref="D129:E129"/>
+    <mergeCell ref="D136:E136"/>
+    <mergeCell ref="D152:E152"/>
+    <mergeCell ref="D159:E159"/>
+    <mergeCell ref="D178:E178"/>
+    <mergeCell ref="D185:E185"/>
+    <mergeCell ref="A305:B305"/>
+    <mergeCell ref="D198:E198"/>
+    <mergeCell ref="D217:E217"/>
+    <mergeCell ref="D241:E241"/>
+    <mergeCell ref="A247:B247"/>
+    <mergeCell ref="A276:B276"/>
     <mergeCell ref="A203:B203"/>
     <mergeCell ref="A209:B209"/>
     <mergeCell ref="A223:B223"/>
     <mergeCell ref="A229:B229"/>
-    <mergeCell ref="A144:B144"/>
-    <mergeCell ref="A148:B148"/>
-    <mergeCell ref="A162:B162"/>
-    <mergeCell ref="A168:B168"/>
-    <mergeCell ref="A182:B182"/>
-    <mergeCell ref="A188:B188"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <extLst>
@@ -10699,16 +10731,16 @@
 </file>
 
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0800-000000000000}">
   <dimension ref="A1:D6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E20" sqref="E20"/>
+      <selection activeCell="E6" sqref="E6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="15.140625" customWidth="1"/>
+    <col min="1" max="1" width="16.42578125" customWidth="1"/>
     <col min="2" max="2" width="20.85546875" customWidth="1"/>
     <col min="3" max="3" width="16.42578125" customWidth="1"/>
     <col min="4" max="4" width="13.140625" customWidth="1"/>
@@ -10757,16 +10789,60 @@
         <v>7</v>
       </c>
     </row>
+    <row r="4" spans="1:4">
+      <c r="A4" t="s">
+        <v>799</v>
+      </c>
+      <c r="B4" t="s">
+        <v>800</v>
+      </c>
+      <c r="C4" s="9" t="s">
+        <v>7</v>
+      </c>
+      <c r="D4" s="9" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4">
+      <c r="A5" t="s">
+        <v>801</v>
+      </c>
+      <c r="B5" t="s">
+        <v>802</v>
+      </c>
+      <c r="C5" s="9" t="s">
+        <v>7</v>
+      </c>
+      <c r="D5" s="9" t="s">
+        <v>7</v>
+      </c>
+    </row>
     <row r="6" spans="1:4">
-      <c r="C6" s="9"/>
-      <c r="D6" s="9"/>
+      <c r="A6" t="s">
+        <v>803</v>
+      </c>
+      <c r="B6" t="s">
+        <v>804</v>
+      </c>
+      <c r="C6" s="9" t="s">
+        <v>7</v>
+      </c>
+      <c r="D6" s="9" t="s">
+        <v>7</v>
+      </c>
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="D2" r:id="rId1"/>
-    <hyperlink ref="C2" r:id="rId2"/>
-    <hyperlink ref="D3" r:id="rId3"/>
-    <hyperlink ref="C3" r:id="rId4"/>
+    <hyperlink ref="D2" r:id="rId1" xr:uid="{252E13F2-3753-4734-A7FA-68C62D1CCAEE}"/>
+    <hyperlink ref="C2" r:id="rId2" xr:uid="{D4E61AB8-0B39-4E44-8A04-F4606F5CB7A1}"/>
+    <hyperlink ref="D3" r:id="rId3" xr:uid="{EB467D75-193E-4865-9CBD-AE140A85BBFB}"/>
+    <hyperlink ref="C3" r:id="rId4" xr:uid="{D4E7A9B6-7F14-4E68-9B61-0784BAC28452}"/>
+    <hyperlink ref="D4" r:id="rId5" xr:uid="{A858A791-9723-452F-89D8-0FB104B074F4}"/>
+    <hyperlink ref="C4" r:id="rId6" xr:uid="{A8523359-D175-4E7E-92DA-D3FCE8F6B5C1}"/>
+    <hyperlink ref="D5" r:id="rId7" xr:uid="{EB2D6F93-B07D-433F-A18B-03100CA64262}"/>
+    <hyperlink ref="C5" r:id="rId8" xr:uid="{1C7889FE-175E-4FDE-9812-24814442494A}"/>
+    <hyperlink ref="D6" r:id="rId9" xr:uid="{FC84ED5B-FE48-4699-99C9-517F6F21B989}"/>
+    <hyperlink ref="C6" r:id="rId10" xr:uid="{88D58CCE-22C5-4121-8242-DF16310409AD}"/>
   </hyperlinks>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <extLst>

--- a/TestData.xlsx
+++ b/TestData.xlsx
@@ -5,12 +5,12 @@
   <workbookPr autoCompressPictures="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\geethukn\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jibim\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4F379F87-A88D-4DC3-90BA-27CD02EAE90B}" xr6:coauthVersionLast="28" xr6:coauthVersionMax="28" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{D1F3BD6F-434B-4BB7-816A-30E684F70743}" xr6:coauthVersionLast="28" xr6:coauthVersionMax="28" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="13170" windowHeight="7170" tabRatio="990" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7530" tabRatio="990" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Login_Credentials" sheetId="1" r:id="rId1"/>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1781" uniqueCount="805">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1781" uniqueCount="804">
   <si>
     <t>TEST CASE NAME</t>
   </si>
@@ -1879,51 +1879,15 @@
     <t>Alex</t>
   </si>
   <si>
-    <t>Mathee</t>
-  </si>
-  <si>
     <t>James</t>
   </si>
   <si>
-    <t>katt</t>
-  </si>
-  <si>
     <t>Bore</t>
   </si>
   <si>
-    <t>Mathai</t>
-  </si>
-  <si>
     <t>Leon</t>
   </si>
   <si>
-    <t>Agee</t>
-  </si>
-  <si>
-    <t>Jame0@grovo.com</t>
-  </si>
-  <si>
-    <t>Alex0@grovo.com</t>
-  </si>
-  <si>
-    <t>Bore0@grovo.com</t>
-  </si>
-  <si>
-    <t>Leon0@grovo.com</t>
-  </si>
-  <si>
-    <t>Empl#0</t>
-  </si>
-  <si>
-    <t>Empc#0</t>
-  </si>
-  <si>
-    <t>Empma#0</t>
-  </si>
-  <si>
-    <t>Empla#0</t>
-  </si>
-  <si>
     <t>Create Campaign for Track with Text Lesson</t>
   </si>
   <si>
@@ -2459,6 +2423,39 @@
   </si>
   <si>
     <t>%^&amp;*((CUI</t>
+  </si>
+  <si>
+    <t>Mathew</t>
+  </si>
+  <si>
+    <t>kattei</t>
+  </si>
+  <si>
+    <t>Agle</t>
+  </si>
+  <si>
+    <t>Alex1@grovo.com</t>
+  </si>
+  <si>
+    <t>Jame1@grovo.com</t>
+  </si>
+  <si>
+    <t>Bore1@grovo.com</t>
+  </si>
+  <si>
+    <t>Leon@grovo.com</t>
+  </si>
+  <si>
+    <t>Empl#1</t>
+  </si>
+  <si>
+    <t>Empc#2</t>
+  </si>
+  <si>
+    <t>Empma#3</t>
+  </si>
+  <si>
+    <t>Empla#3</t>
   </si>
 </sst>
 </file>
@@ -2876,13 +2873,16 @@
     <xf numFmtId="0" fontId="9" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="9" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="20" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -2895,9 +2895,6 @@
       <alignment horizontal="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -3312,7 +3309,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:AMK6"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="77" zoomScaleNormal="77" zoomScalePageLayoutView="77" workbookViewId="0">
+    <sheetView zoomScale="77" zoomScaleNormal="77" zoomScalePageLayoutView="77" workbookViewId="0">
       <selection activeCell="A9" sqref="A9"/>
     </sheetView>
   </sheetViews>
@@ -3399,8 +3396,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:H5"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D16" sqref="D16"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E5" sqref="E5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="38" defaultRowHeight="18.75"/>
@@ -3451,13 +3448,13 @@
         <v>610</v>
       </c>
       <c r="C2" s="3" t="s">
-        <v>611</v>
+        <v>793</v>
       </c>
       <c r="D2" s="9" t="s">
-        <v>619</v>
+        <v>796</v>
       </c>
       <c r="E2" s="3" t="s">
-        <v>622</v>
+        <v>800</v>
       </c>
       <c r="G2" s="4" t="s">
         <v>7</v>
@@ -3471,16 +3468,16 @@
         <v>17</v>
       </c>
       <c r="B3" s="3" t="s">
-        <v>612</v>
+        <v>611</v>
       </c>
       <c r="C3" s="3" t="s">
-        <v>613</v>
+        <v>794</v>
       </c>
       <c r="D3" s="9" t="s">
-        <v>618</v>
+        <v>797</v>
       </c>
       <c r="E3" s="40" t="s">
-        <v>623</v>
+        <v>801</v>
       </c>
       <c r="F3" s="3" t="s">
         <v>18</v>
@@ -3497,16 +3494,16 @@
         <v>19</v>
       </c>
       <c r="B4" s="3" t="s">
-        <v>614</v>
+        <v>612</v>
       </c>
       <c r="C4" s="3" t="s">
-        <v>615</v>
+        <v>793</v>
       </c>
       <c r="D4" s="9" t="s">
-        <v>620</v>
+        <v>798</v>
       </c>
       <c r="E4" s="3" t="s">
-        <v>624</v>
+        <v>802</v>
       </c>
       <c r="F4" s="3" t="s">
         <v>20</v>
@@ -3523,16 +3520,16 @@
         <v>21</v>
       </c>
       <c r="B5" s="3" t="s">
-        <v>616</v>
+        <v>613</v>
       </c>
       <c r="C5" s="3" t="s">
-        <v>617</v>
+        <v>795</v>
       </c>
       <c r="D5" s="9" t="s">
-        <v>621</v>
+        <v>799</v>
       </c>
       <c r="E5" s="3" t="s">
-        <v>625</v>
+        <v>803</v>
       </c>
       <c r="F5" s="3" t="s">
         <v>22</v>
@@ -4624,10 +4621,10 @@
       </c>
     </row>
     <row r="70" spans="1:4" ht="14.1" customHeight="1">
-      <c r="A70" s="53" t="s">
+      <c r="A70" s="52" t="s">
         <v>169</v>
       </c>
-      <c r="B70" s="54"/>
+      <c r="B70" s="53"/>
       <c r="C70" s="49" t="s">
         <v>170</v>
       </c>
@@ -4714,10 +4711,10 @@
       <c r="D77" s="11"/>
     </row>
     <row r="79" spans="1:4" ht="14.1" customHeight="1">
-      <c r="A79" s="53" t="s">
+      <c r="A79" s="52" t="s">
         <v>181</v>
       </c>
-      <c r="B79" s="54"/>
+      <c r="B79" s="53"/>
       <c r="C79" s="49" t="s">
         <v>182</v>
       </c>
@@ -5186,7 +5183,7 @@
       </c>
     </row>
     <row r="125" spans="1:4">
-      <c r="A125" s="52" t="s">
+      <c r="A125" s="54" t="s">
         <v>244</v>
       </c>
       <c r="B125" s="50"/>
@@ -5649,6 +5646,34 @@
     </row>
   </sheetData>
   <mergeCells count="38">
+    <mergeCell ref="A144:B144"/>
+    <mergeCell ref="C144:D144"/>
+    <mergeCell ref="A157:B157"/>
+    <mergeCell ref="C157:D157"/>
+    <mergeCell ref="C105:D105"/>
+    <mergeCell ref="A118:B118"/>
+    <mergeCell ref="C118:D118"/>
+    <mergeCell ref="A125:B125"/>
+    <mergeCell ref="A131:B131"/>
+    <mergeCell ref="C131:D131"/>
+    <mergeCell ref="A1:B1"/>
+    <mergeCell ref="C1:D1"/>
+    <mergeCell ref="A10:B10"/>
+    <mergeCell ref="C10:D10"/>
+    <mergeCell ref="A18:B18"/>
+    <mergeCell ref="C18:D18"/>
+    <mergeCell ref="A26:B26"/>
+    <mergeCell ref="C26:D26"/>
+    <mergeCell ref="A34:B34"/>
+    <mergeCell ref="C34:D34"/>
+    <mergeCell ref="A43:B43"/>
+    <mergeCell ref="C43:D43"/>
+    <mergeCell ref="A52:B52"/>
+    <mergeCell ref="C52:D52"/>
+    <mergeCell ref="A60:B60"/>
+    <mergeCell ref="C60:D60"/>
+    <mergeCell ref="A70:B70"/>
+    <mergeCell ref="C70:D70"/>
     <mergeCell ref="C92:D92"/>
     <mergeCell ref="C96:D96"/>
     <mergeCell ref="A103:B103"/>
@@ -5659,34 +5684,6 @@
     <mergeCell ref="C82:D82"/>
     <mergeCell ref="A88:B88"/>
     <mergeCell ref="C88:D88"/>
-    <mergeCell ref="A52:B52"/>
-    <mergeCell ref="C52:D52"/>
-    <mergeCell ref="A60:B60"/>
-    <mergeCell ref="C60:D60"/>
-    <mergeCell ref="A70:B70"/>
-    <mergeCell ref="C70:D70"/>
-    <mergeCell ref="A26:B26"/>
-    <mergeCell ref="C26:D26"/>
-    <mergeCell ref="A34:B34"/>
-    <mergeCell ref="C34:D34"/>
-    <mergeCell ref="A43:B43"/>
-    <mergeCell ref="C43:D43"/>
-    <mergeCell ref="A1:B1"/>
-    <mergeCell ref="C1:D1"/>
-    <mergeCell ref="A10:B10"/>
-    <mergeCell ref="C10:D10"/>
-    <mergeCell ref="A18:B18"/>
-    <mergeCell ref="C18:D18"/>
-    <mergeCell ref="A144:B144"/>
-    <mergeCell ref="C144:D144"/>
-    <mergeCell ref="A157:B157"/>
-    <mergeCell ref="C157:D157"/>
-    <mergeCell ref="C105:D105"/>
-    <mergeCell ref="A118:B118"/>
-    <mergeCell ref="C118:D118"/>
-    <mergeCell ref="A125:B125"/>
-    <mergeCell ref="A131:B131"/>
-    <mergeCell ref="C131:D131"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <extLst>
@@ -6852,18 +6849,18 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:8">
-      <c r="A1" s="59" t="s">
+      <c r="A1" s="55" t="s">
         <v>459</v>
       </c>
-      <c r="B1" s="59"/>
-      <c r="D1" s="55" t="s">
+      <c r="B1" s="55"/>
+      <c r="D1" s="56" t="s">
         <v>460</v>
       </c>
-      <c r="E1" s="56"/>
-      <c r="G1" s="55" t="s">
-        <v>626</v>
-      </c>
-      <c r="H1" s="56"/>
+      <c r="E1" s="57"/>
+      <c r="G1" s="56" t="s">
+        <v>614</v>
+      </c>
+      <c r="H1" s="57"/>
     </row>
     <row r="2" spans="1:8" ht="30" customHeight="1">
       <c r="A2" s="42" t="s">
@@ -6882,7 +6879,7 @@
         <v>463</v>
       </c>
       <c r="H2" s="42" t="s">
-        <v>627</v>
+        <v>615</v>
       </c>
     </row>
     <row r="3" spans="1:8" ht="28.5" customHeight="1">
@@ -6902,7 +6899,7 @@
         <v>467</v>
       </c>
       <c r="H3" s="42" t="s">
-        <v>628</v>
+        <v>616</v>
       </c>
     </row>
     <row r="4" spans="1:8" ht="45">
@@ -6922,7 +6919,7 @@
         <v>109</v>
       </c>
       <c r="H4" s="42" t="s">
-        <v>629</v>
+        <v>617</v>
       </c>
     </row>
     <row r="5" spans="1:8">
@@ -6932,14 +6929,14 @@
       <c r="B5" s="43" t="s">
         <v>473</v>
       </c>
-      <c r="D5" s="55" t="s">
+      <c r="D5" s="56" t="s">
         <v>474</v>
       </c>
-      <c r="E5" s="56"/>
-      <c r="G5" s="57" t="s">
-        <v>630</v>
-      </c>
-      <c r="H5" s="58"/>
+      <c r="E5" s="57"/>
+      <c r="G5" s="58" t="s">
+        <v>618</v>
+      </c>
+      <c r="H5" s="59"/>
     </row>
     <row r="6" spans="1:8" ht="30">
       <c r="A6" s="42" t="s">
@@ -6958,7 +6955,7 @@
         <v>99</v>
       </c>
       <c r="H6" s="42" t="s">
-        <v>631</v>
+        <v>619</v>
       </c>
     </row>
     <row r="7" spans="1:8" ht="30">
@@ -6994,7 +6991,7 @@
         <v>105</v>
       </c>
       <c r="H8" s="42" t="s">
-        <v>632</v>
+        <v>620</v>
       </c>
     </row>
     <row r="9" spans="1:8">
@@ -7023,10 +7020,10 @@
       <c r="D10" s="42"/>
       <c r="E10" s="42"/>
       <c r="G10" s="42" t="s">
-        <v>633</v>
+        <v>621</v>
       </c>
       <c r="H10" s="42" t="s">
-        <v>634</v>
+        <v>622</v>
       </c>
     </row>
     <row r="11" spans="1:8">
@@ -7050,7 +7047,7 @@
         <v>23</v>
       </c>
       <c r="H12" s="42" t="s">
-        <v>635</v>
+        <v>623</v>
       </c>
     </row>
     <row r="13" spans="1:8">
@@ -7060,25 +7057,25 @@
         <v>236</v>
       </c>
       <c r="H13" s="42" t="s">
-        <v>636</v>
+        <v>624</v>
       </c>
     </row>
     <row r="15" spans="1:8">
-      <c r="D15" s="55" t="s">
-        <v>637</v>
-      </c>
-      <c r="E15" s="56"/>
+      <c r="D15" s="56" t="s">
+        <v>625</v>
+      </c>
+      <c r="E15" s="57"/>
     </row>
     <row r="16" spans="1:8" ht="30">
-      <c r="A16" s="55" t="s">
+      <c r="A16" s="56" t="s">
         <v>489</v>
       </c>
-      <c r="B16" s="56"/>
+      <c r="B16" s="57"/>
       <c r="D16" s="42" t="s">
         <v>463</v>
       </c>
       <c r="E16" s="42" t="s">
-        <v>638</v>
+        <v>626</v>
       </c>
     </row>
     <row r="17" spans="1:5" ht="30">
@@ -7092,7 +7089,7 @@
         <v>467</v>
       </c>
       <c r="E17" s="42" t="s">
-        <v>639</v>
+        <v>627</v>
       </c>
     </row>
     <row r="18" spans="1:5" ht="45">
@@ -7106,7 +7103,7 @@
         <v>109</v>
       </c>
       <c r="E18" s="42" t="s">
-        <v>640</v>
+        <v>628</v>
       </c>
     </row>
     <row r="19" spans="1:5" ht="30">
@@ -7116,21 +7113,21 @@
       <c r="B19" s="42" t="s">
         <v>492</v>
       </c>
-      <c r="D19" s="57" t="s">
-        <v>630</v>
-      </c>
-      <c r="E19" s="58"/>
+      <c r="D19" s="58" t="s">
+        <v>618</v>
+      </c>
+      <c r="E19" s="59"/>
     </row>
     <row r="20" spans="1:5">
-      <c r="A20" s="55" t="s">
+      <c r="A20" s="56" t="s">
         <v>474</v>
       </c>
-      <c r="B20" s="56"/>
+      <c r="B20" s="57"/>
       <c r="D20" s="42" t="s">
         <v>99</v>
       </c>
       <c r="E20" s="42" t="s">
-        <v>641</v>
+        <v>629</v>
       </c>
     </row>
     <row r="21" spans="1:5" ht="30">
@@ -7158,7 +7155,7 @@
         <v>105</v>
       </c>
       <c r="E22" s="42" t="s">
-        <v>642</v>
+        <v>630</v>
       </c>
     </row>
     <row r="23" spans="1:5">
@@ -7173,28 +7170,28 @@
     </row>
     <row r="24" spans="1:5" ht="45">
       <c r="D24" s="42" t="s">
-        <v>633</v>
+        <v>621</v>
       </c>
       <c r="E24" s="42" t="s">
-        <v>643</v>
+        <v>631</v>
       </c>
     </row>
     <row r="25" spans="1:5">
-      <c r="D25" s="57" t="s">
+      <c r="D25" s="58" t="s">
         <v>474</v>
       </c>
-      <c r="E25" s="58"/>
+      <c r="E25" s="59"/>
     </row>
     <row r="26" spans="1:5" ht="18.75" customHeight="1">
-      <c r="A26" s="55" t="s">
+      <c r="A26" s="56" t="s">
         <v>495</v>
       </c>
-      <c r="B26" s="56"/>
+      <c r="B26" s="57"/>
       <c r="D26" s="42" t="s">
         <v>23</v>
       </c>
       <c r="E26" s="42" t="s">
-        <v>644</v>
+        <v>632</v>
       </c>
     </row>
     <row r="27" spans="1:5" ht="30">
@@ -7228,14 +7225,14 @@
       </c>
     </row>
     <row r="30" spans="1:5">
-      <c r="A30" s="55" t="s">
+      <c r="A30" s="56" t="s">
         <v>474</v>
       </c>
-      <c r="B30" s="56"/>
-      <c r="D30" s="55" t="s">
-        <v>645</v>
-      </c>
-      <c r="E30" s="56"/>
+      <c r="B30" s="57"/>
+      <c r="D30" s="56" t="s">
+        <v>633</v>
+      </c>
+      <c r="E30" s="57"/>
     </row>
     <row r="31" spans="1:5" ht="30">
       <c r="A31" s="42" t="s">
@@ -7248,7 +7245,7 @@
         <v>463</v>
       </c>
       <c r="E31" s="42" t="s">
-        <v>646</v>
+        <v>634</v>
       </c>
     </row>
     <row r="32" spans="1:5" ht="30">
@@ -7262,7 +7259,7 @@
         <v>467</v>
       </c>
       <c r="E32" s="42" t="s">
-        <v>647</v>
+        <v>635</v>
       </c>
     </row>
     <row r="33" spans="1:5" ht="45">
@@ -7276,25 +7273,25 @@
         <v>109</v>
       </c>
       <c r="E33" s="42" t="s">
-        <v>648</v>
+        <v>636</v>
       </c>
     </row>
     <row r="34" spans="1:5">
-      <c r="D34" s="57" t="s">
-        <v>630</v>
-      </c>
-      <c r="E34" s="58"/>
+      <c r="D34" s="58" t="s">
+        <v>618</v>
+      </c>
+      <c r="E34" s="59"/>
     </row>
     <row r="35" spans="1:5" ht="18.75" customHeight="1">
-      <c r="A35" s="55" t="s">
+      <c r="A35" s="56" t="s">
         <v>501</v>
       </c>
-      <c r="B35" s="56"/>
+      <c r="B35" s="57"/>
       <c r="D35" s="42" t="s">
         <v>99</v>
       </c>
       <c r="E35" s="42" t="s">
-        <v>649</v>
+        <v>637</v>
       </c>
     </row>
     <row r="36" spans="1:5" ht="30">
@@ -7322,7 +7319,7 @@
         <v>105</v>
       </c>
       <c r="E37" s="42" t="s">
-        <v>650</v>
+        <v>638</v>
       </c>
     </row>
     <row r="38" spans="1:5" ht="30">
@@ -7340,15 +7337,15 @@
       </c>
     </row>
     <row r="39" spans="1:5" ht="45">
-      <c r="A39" s="55" t="s">
+      <c r="A39" s="56" t="s">
         <v>474</v>
       </c>
-      <c r="B39" s="56"/>
+      <c r="B39" s="57"/>
       <c r="D39" s="42" t="s">
-        <v>633</v>
+        <v>621</v>
       </c>
       <c r="E39" s="42" t="s">
-        <v>651</v>
+        <v>639</v>
       </c>
     </row>
     <row r="40" spans="1:5">
@@ -7358,10 +7355,10 @@
       <c r="B40" s="42" t="s">
         <v>505</v>
       </c>
-      <c r="D40" s="57" t="s">
+      <c r="D40" s="58" t="s">
         <v>474</v>
       </c>
-      <c r="E40" s="58"/>
+      <c r="E40" s="59"/>
     </row>
     <row r="41" spans="1:5" ht="30">
       <c r="A41" s="42" t="s">
@@ -7374,7 +7371,7 @@
         <v>23</v>
       </c>
       <c r="E41" s="42" t="s">
-        <v>652</v>
+        <v>640</v>
       </c>
     </row>
     <row r="42" spans="1:5" ht="30">
@@ -7400,10 +7397,10 @@
       </c>
     </row>
     <row r="44" spans="1:5" ht="18.75" customHeight="1">
-      <c r="A44" s="55" t="s">
+      <c r="A44" s="56" t="s">
         <v>506</v>
       </c>
-      <c r="B44" s="56"/>
+      <c r="B44" s="57"/>
     </row>
     <row r="45" spans="1:5">
       <c r="A45" s="42" t="s">
@@ -7420,10 +7417,10 @@
       <c r="B46" s="42" t="s">
         <v>508</v>
       </c>
-      <c r="D46" s="55" t="s">
-        <v>653</v>
-      </c>
-      <c r="E46" s="56"/>
+      <c r="D46" s="56" t="s">
+        <v>641</v>
+      </c>
+      <c r="E46" s="57"/>
     </row>
     <row r="47" spans="1:5" ht="30">
       <c r="A47" s="42" t="s">
@@ -7436,19 +7433,19 @@
         <v>463</v>
       </c>
       <c r="E47" s="42" t="s">
-        <v>654</v>
+        <v>642</v>
       </c>
     </row>
     <row r="48" spans="1:5" ht="30">
-      <c r="A48" s="55" t="s">
+      <c r="A48" s="56" t="s">
         <v>474</v>
       </c>
-      <c r="B48" s="56"/>
+      <c r="B48" s="57"/>
       <c r="D48" s="42" t="s">
         <v>467</v>
       </c>
       <c r="E48" s="42" t="s">
-        <v>655</v>
+        <v>643</v>
       </c>
     </row>
     <row r="49" spans="1:5" ht="45">
@@ -7462,7 +7459,7 @@
         <v>109</v>
       </c>
       <c r="E49" s="42" t="s">
-        <v>656</v>
+        <v>644</v>
       </c>
     </row>
     <row r="50" spans="1:5">
@@ -7472,10 +7469,10 @@
       <c r="B50" s="42" t="s">
         <v>511</v>
       </c>
-      <c r="D50" s="57" t="s">
-        <v>630</v>
-      </c>
-      <c r="E50" s="58"/>
+      <c r="D50" s="58" t="s">
+        <v>618</v>
+      </c>
+      <c r="E50" s="59"/>
     </row>
     <row r="51" spans="1:5" ht="30">
       <c r="A51" s="42" t="s">
@@ -7488,7 +7485,7 @@
         <v>99</v>
       </c>
       <c r="E51" s="42" t="s">
-        <v>657</v>
+        <v>645</v>
       </c>
     </row>
     <row r="52" spans="1:5" ht="30">
@@ -7516,7 +7513,7 @@
         <v>105</v>
       </c>
       <c r="E53" s="42" t="s">
-        <v>658</v>
+        <v>646</v>
       </c>
     </row>
     <row r="54" spans="1:5">
@@ -7528,15 +7525,15 @@
       </c>
     </row>
     <row r="55" spans="1:5" ht="18.75" customHeight="1">
-      <c r="A55" s="55" t="s">
+      <c r="A55" s="56" t="s">
         <v>514</v>
       </c>
-      <c r="B55" s="56"/>
+      <c r="B55" s="57"/>
       <c r="D55" s="42" t="s">
-        <v>633</v>
+        <v>621</v>
       </c>
       <c r="E55" s="42" t="s">
-        <v>659</v>
+        <v>647</v>
       </c>
     </row>
     <row r="56" spans="1:5">
@@ -7546,10 +7543,10 @@
       <c r="B56" s="42" t="s">
         <v>515</v>
       </c>
-      <c r="D56" s="57" t="s">
+      <c r="D56" s="58" t="s">
         <v>474</v>
       </c>
-      <c r="E56" s="58"/>
+      <c r="E56" s="59"/>
     </row>
     <row r="57" spans="1:5" ht="30">
       <c r="A57" s="42" t="s">
@@ -7562,7 +7559,7 @@
         <v>23</v>
       </c>
       <c r="E57" s="42" t="s">
-        <v>660</v>
+        <v>648</v>
       </c>
     </row>
     <row r="58" spans="1:5" ht="30">
@@ -7580,10 +7577,10 @@
       </c>
     </row>
     <row r="59" spans="1:5">
-      <c r="A59" s="55" t="s">
+      <c r="A59" s="56" t="s">
         <v>474</v>
       </c>
-      <c r="B59" s="56"/>
+      <c r="B59" s="57"/>
       <c r="D59" s="42" t="s">
         <v>139</v>
       </c>
@@ -7614,10 +7611,10 @@
       <c r="B62" s="42" t="s">
         <v>455</v>
       </c>
-      <c r="D62" s="55" t="s">
-        <v>661</v>
-      </c>
-      <c r="E62" s="56"/>
+      <c r="D62" s="56" t="s">
+        <v>649</v>
+      </c>
+      <c r="E62" s="57"/>
     </row>
     <row r="63" spans="1:5" ht="30">
       <c r="A63" s="42" t="s">
@@ -7630,7 +7627,7 @@
         <v>463</v>
       </c>
       <c r="E63" s="42" t="s">
-        <v>662</v>
+        <v>650</v>
       </c>
     </row>
     <row r="64" spans="1:5" ht="30">
@@ -7644,7 +7641,7 @@
         <v>467</v>
       </c>
       <c r="E64" s="42" t="s">
-        <v>663</v>
+        <v>651</v>
       </c>
     </row>
     <row r="65" spans="1:5" ht="45">
@@ -7658,7 +7655,7 @@
         <v>109</v>
       </c>
       <c r="E65" s="42" t="s">
-        <v>664</v>
+        <v>652</v>
       </c>
     </row>
     <row r="66" spans="1:5">
@@ -7697,21 +7694,21 @@
         <v>25</v>
       </c>
       <c r="D68" s="42" t="s">
-        <v>665</v>
+        <v>653</v>
       </c>
       <c r="E68" s="42">
         <v>2</v>
       </c>
     </row>
     <row r="69" spans="1:5">
-      <c r="A69" s="59" t="s">
+      <c r="A69" s="55" t="s">
         <v>520</v>
       </c>
-      <c r="B69" s="59"/>
-      <c r="D69" s="57" t="s">
-        <v>630</v>
-      </c>
-      <c r="E69" s="58"/>
+      <c r="B69" s="55"/>
+      <c r="D69" s="58" t="s">
+        <v>618</v>
+      </c>
+      <c r="E69" s="59"/>
     </row>
     <row r="70" spans="1:5" ht="30">
       <c r="A70" s="42" t="s">
@@ -7724,7 +7721,7 @@
         <v>99</v>
       </c>
       <c r="E70" s="42" t="s">
-        <v>666</v>
+        <v>654</v>
       </c>
     </row>
     <row r="71" spans="1:5" ht="30">
@@ -7752,7 +7749,7 @@
         <v>105</v>
       </c>
       <c r="E72" s="42" t="s">
-        <v>667</v>
+        <v>655</v>
       </c>
     </row>
     <row r="73" spans="1:5">
@@ -7765,17 +7762,17 @@
     </row>
     <row r="74" spans="1:5" ht="45">
       <c r="D74" s="42" t="s">
-        <v>633</v>
+        <v>621</v>
       </c>
       <c r="E74" s="42" t="s">
-        <v>668</v>
+        <v>656</v>
       </c>
     </row>
     <row r="75" spans="1:5" ht="18.75" customHeight="1">
-      <c r="A75" s="55" t="s">
+      <c r="A75" s="56" t="s">
         <v>524</v>
       </c>
-      <c r="B75" s="56"/>
+      <c r="B75" s="57"/>
       <c r="D75" s="44" t="s">
         <v>474</v>
       </c>
@@ -7792,7 +7789,7 @@
         <v>23</v>
       </c>
       <c r="E76" s="42" t="s">
-        <v>669</v>
+        <v>657</v>
       </c>
     </row>
     <row r="77" spans="1:5" ht="30">
@@ -7806,7 +7803,7 @@
         <v>24</v>
       </c>
       <c r="E77" s="42" t="s">
-        <v>670</v>
+        <v>658</v>
       </c>
     </row>
     <row r="78" spans="1:5" ht="45">
@@ -7817,22 +7814,22 @@
         <v>527</v>
       </c>
       <c r="D78" s="42" t="s">
-        <v>671</v>
+        <v>659</v>
       </c>
       <c r="E78" s="42" t="s">
-        <v>672</v>
+        <v>660</v>
       </c>
     </row>
     <row r="79" spans="1:5">
-      <c r="A79" s="55" t="s">
+      <c r="A79" s="56" t="s">
         <v>474</v>
       </c>
-      <c r="B79" s="56"/>
+      <c r="B79" s="57"/>
       <c r="D79" s="42" t="s">
-        <v>673</v>
+        <v>661</v>
       </c>
       <c r="E79" s="42" t="s">
-        <v>674</v>
+        <v>662</v>
       </c>
     </row>
     <row r="80" spans="1:5">
@@ -7858,12 +7855,12 @@
       <c r="B82" s="42" t="s">
         <v>455</v>
       </c>
-      <c r="D82" s="55" t="s">
-        <v>675</v>
-      </c>
-      <c r="E82" s="56"/>
+      <c r="D82" s="56" t="s">
+        <v>663</v>
+      </c>
+      <c r="E82" s="57"/>
       <c r="F82" s="46" t="s">
-        <v>676</v>
+        <v>664</v>
       </c>
     </row>
     <row r="83" spans="1:6" ht="30">
@@ -7877,10 +7874,10 @@
         <v>463</v>
       </c>
       <c r="E83" s="42" t="s">
-        <v>677</v>
+        <v>665</v>
       </c>
       <c r="F83" s="42" t="s">
-        <v>678</v>
+        <v>666</v>
       </c>
     </row>
     <row r="84" spans="1:6" ht="30">
@@ -7894,10 +7891,10 @@
         <v>467</v>
       </c>
       <c r="E84" s="42" t="s">
-        <v>679</v>
+        <v>667</v>
       </c>
       <c r="F84" s="42" t="s">
-        <v>680</v>
+        <v>668</v>
       </c>
     </row>
     <row r="85" spans="1:6" ht="45">
@@ -7911,10 +7908,10 @@
         <v>109</v>
       </c>
       <c r="E85" s="42" t="s">
-        <v>681</v>
+        <v>669</v>
       </c>
       <c r="F85" s="42" t="s">
-        <v>682</v>
+        <v>670</v>
       </c>
     </row>
     <row r="86" spans="1:6">
@@ -7924,12 +7921,12 @@
       <c r="B86" s="42">
         <v>50</v>
       </c>
-      <c r="D86" s="57" t="s">
-        <v>630</v>
-      </c>
-      <c r="E86" s="58"/>
+      <c r="D86" s="58" t="s">
+        <v>618</v>
+      </c>
+      <c r="E86" s="59"/>
       <c r="F86" s="47" t="s">
-        <v>630</v>
+        <v>618</v>
       </c>
     </row>
     <row r="87" spans="1:6" ht="30">
@@ -7937,10 +7934,10 @@
         <v>99</v>
       </c>
       <c r="E87" s="42" t="s">
-        <v>683</v>
+        <v>671</v>
       </c>
       <c r="F87" s="42" t="s">
-        <v>684</v>
+        <v>672</v>
       </c>
     </row>
     <row r="88" spans="1:6" ht="30">
@@ -7953,18 +7950,18 @@
       <c r="F88" s="42"/>
     </row>
     <row r="89" spans="1:6" ht="18.75" customHeight="1">
-      <c r="A89" s="55" t="s">
+      <c r="A89" s="56" t="s">
         <v>530</v>
       </c>
-      <c r="B89" s="56"/>
+      <c r="B89" s="57"/>
       <c r="D89" s="42" t="s">
         <v>105</v>
       </c>
       <c r="E89" s="42" t="s">
-        <v>685</v>
+        <v>673</v>
       </c>
       <c r="F89" s="42" t="s">
-        <v>686</v>
+        <v>674</v>
       </c>
     </row>
     <row r="90" spans="1:6">
@@ -7990,13 +7987,13 @@
         <v>532</v>
       </c>
       <c r="D91" s="42" t="s">
-        <v>633</v>
+        <v>621</v>
       </c>
       <c r="E91" s="42" t="s">
-        <v>687</v>
+        <v>675</v>
       </c>
       <c r="F91" s="42" t="s">
-        <v>688</v>
+        <v>676</v>
       </c>
     </row>
     <row r="92" spans="1:6" ht="30">
@@ -8006,27 +8003,27 @@
       <c r="B92" s="42" t="s">
         <v>533</v>
       </c>
-      <c r="D92" s="57" t="s">
+      <c r="D92" s="58" t="s">
         <v>474</v>
       </c>
-      <c r="E92" s="58"/>
+      <c r="E92" s="59"/>
       <c r="F92" s="47" t="s">
         <v>474</v>
       </c>
     </row>
     <row r="93" spans="1:6" ht="30">
-      <c r="A93" s="55" t="s">
+      <c r="A93" s="56" t="s">
         <v>474</v>
       </c>
-      <c r="B93" s="56"/>
+      <c r="B93" s="57"/>
       <c r="D93" s="42" t="s">
         <v>23</v>
       </c>
       <c r="E93" s="42" t="s">
-        <v>689</v>
+        <v>677</v>
       </c>
       <c r="F93" s="42" t="s">
-        <v>690</v>
+        <v>678</v>
       </c>
     </row>
     <row r="94" spans="1:6">
@@ -8040,7 +8037,7 @@
         <v>165</v>
       </c>
       <c r="E94" s="42" t="s">
-        <v>691</v>
+        <v>679</v>
       </c>
     </row>
     <row r="95" spans="1:6" ht="30">
@@ -8079,7 +8076,7 @@
         <v>200</v>
       </c>
       <c r="D97" s="42" t="s">
-        <v>692</v>
+        <v>680</v>
       </c>
       <c r="E97" s="42">
         <v>200</v>
@@ -8110,7 +8107,7 @@
         <v>24</v>
       </c>
       <c r="E99" s="42" t="s">
-        <v>670</v>
+        <v>658</v>
       </c>
     </row>
     <row r="100" spans="1:5">
@@ -8121,10 +8118,10 @@
         <v>25</v>
       </c>
       <c r="D100" s="42" t="s">
-        <v>671</v>
+        <v>659</v>
       </c>
       <c r="E100" s="42" t="s">
-        <v>672</v>
+        <v>660</v>
       </c>
     </row>
     <row r="101" spans="1:5">
@@ -8135,10 +8132,10 @@
         <v>60</v>
       </c>
       <c r="D101" s="42" t="s">
-        <v>673</v>
+        <v>661</v>
       </c>
       <c r="E101" s="42" t="s">
-        <v>674</v>
+        <v>662</v>
       </c>
     </row>
     <row r="102" spans="1:5">
@@ -8149,7 +8146,7 @@
         <v>2</v>
       </c>
       <c r="D102" s="42" t="s">
-        <v>693</v>
+        <v>681</v>
       </c>
       <c r="E102" s="42">
         <v>55</v>
@@ -8165,19 +8162,19 @@
     </row>
     <row r="104" spans="1:5">
       <c r="D104" s="42" t="s">
-        <v>694</v>
+        <v>682</v>
       </c>
       <c r="E104" s="42">
         <v>5</v>
       </c>
     </row>
     <row r="105" spans="1:5" ht="18.75" customHeight="1">
-      <c r="A105" s="59" t="s">
+      <c r="A105" s="55" t="s">
         <v>537</v>
       </c>
-      <c r="B105" s="59"/>
+      <c r="B105" s="55"/>
       <c r="D105" s="42" t="s">
-        <v>695</v>
+        <v>683</v>
       </c>
       <c r="E105" s="42">
         <v>200</v>
@@ -8198,10 +8195,10 @@
       <c r="B107" s="42" t="s">
         <v>539</v>
       </c>
-      <c r="D107" s="55" t="s">
-        <v>696</v>
-      </c>
-      <c r="E107" s="56"/>
+      <c r="D107" s="56" t="s">
+        <v>684</v>
+      </c>
+      <c r="E107" s="57"/>
     </row>
     <row r="108" spans="1:5" ht="30">
       <c r="A108" s="42" t="s">
@@ -8214,7 +8211,7 @@
         <v>463</v>
       </c>
       <c r="E108" s="42" t="s">
-        <v>697</v>
+        <v>685</v>
       </c>
     </row>
     <row r="109" spans="1:5" ht="30">
@@ -8228,7 +8225,7 @@
         <v>467</v>
       </c>
       <c r="E109" s="42" t="s">
-        <v>698</v>
+        <v>686</v>
       </c>
     </row>
     <row r="110" spans="1:5" ht="45">
@@ -8242,16 +8239,16 @@
         <v>109</v>
       </c>
       <c r="E110" s="42" t="s">
-        <v>699</v>
+        <v>687</v>
       </c>
     </row>
     <row r="111" spans="1:5">
-      <c r="A111" s="59" t="s">
+      <c r="A111" s="55" t="s">
         <v>474</v>
       </c>
-      <c r="B111" s="59"/>
+      <c r="B111" s="55"/>
       <c r="D111" s="42" t="s">
-        <v>693</v>
+        <v>681</v>
       </c>
       <c r="E111" s="42">
         <v>55</v>
@@ -8279,7 +8276,7 @@
         <v>456</v>
       </c>
       <c r="D113" s="42" t="s">
-        <v>694</v>
+        <v>682</v>
       </c>
       <c r="E113" s="42">
         <v>5</v>
@@ -8292,10 +8289,10 @@
       <c r="B114" s="42">
         <v>200</v>
       </c>
-      <c r="D114" s="57" t="s">
-        <v>630</v>
-      </c>
-      <c r="E114" s="58"/>
+      <c r="D114" s="58" t="s">
+        <v>618</v>
+      </c>
+      <c r="E114" s="59"/>
     </row>
     <row r="115" spans="1:5" ht="30">
       <c r="A115" s="42" t="s">
@@ -8308,7 +8305,7 @@
         <v>99</v>
       </c>
       <c r="E115" s="42" t="s">
-        <v>700</v>
+        <v>688</v>
       </c>
     </row>
     <row r="116" spans="1:5" ht="30">
@@ -8336,7 +8333,7 @@
         <v>105</v>
       </c>
       <c r="E117" s="42" t="s">
-        <v>701</v>
+        <v>689</v>
       </c>
     </row>
     <row r="118" spans="1:5">
@@ -8355,10 +8352,10 @@
     </row>
     <row r="119" spans="1:5" ht="45">
       <c r="D119" s="42" t="s">
-        <v>633</v>
+        <v>621</v>
       </c>
       <c r="E119" s="42" t="s">
-        <v>702</v>
+        <v>690</v>
       </c>
     </row>
     <row r="120" spans="1:5">
@@ -8368,15 +8365,15 @@
       <c r="E120" s="45"/>
     </row>
     <row r="121" spans="1:5" ht="18.75" customHeight="1">
-      <c r="A121" s="59" t="s">
+      <c r="A121" s="55" t="s">
         <v>542</v>
       </c>
-      <c r="B121" s="59"/>
+      <c r="B121" s="55"/>
       <c r="D121" s="42" t="s">
         <v>23</v>
       </c>
       <c r="E121" s="42" t="s">
-        <v>703</v>
+        <v>691</v>
       </c>
     </row>
     <row r="122" spans="1:5">
@@ -8390,7 +8387,7 @@
         <v>165</v>
       </c>
       <c r="E122" s="42" t="s">
-        <v>691</v>
+        <v>679</v>
       </c>
     </row>
     <row r="123" spans="1:5" ht="30">
@@ -8418,19 +8415,19 @@
         <v>24</v>
       </c>
       <c r="E124" s="42" t="s">
-        <v>670</v>
+        <v>658</v>
       </c>
     </row>
     <row r="125" spans="1:5">
-      <c r="A125" s="59" t="s">
+      <c r="A125" s="55" t="s">
         <v>474</v>
       </c>
-      <c r="B125" s="59"/>
+      <c r="B125" s="55"/>
       <c r="D125" s="42" t="s">
-        <v>671</v>
+        <v>659</v>
       </c>
       <c r="E125" s="42" t="s">
-        <v>672</v>
+        <v>660</v>
       </c>
     </row>
     <row r="126" spans="1:5" ht="30">
@@ -8441,10 +8438,10 @@
         <v>547</v>
       </c>
       <c r="D126" s="42" t="s">
-        <v>673</v>
+        <v>661</v>
       </c>
       <c r="E126" s="42" t="s">
-        <v>674</v>
+        <v>662</v>
       </c>
     </row>
     <row r="127" spans="1:5">
@@ -8470,17 +8467,17 @@
       <c r="B129" s="42" t="s">
         <v>455</v>
       </c>
-      <c r="D129" s="55" t="s">
-        <v>704</v>
-      </c>
-      <c r="E129" s="56"/>
+      <c r="D129" s="56" t="s">
+        <v>692</v>
+      </c>
+      <c r="E129" s="57"/>
     </row>
     <row r="130" spans="1:5" ht="30">
       <c r="D130" s="42" t="s">
         <v>463</v>
       </c>
       <c r="E130" s="42" t="s">
-        <v>705</v>
+        <v>693</v>
       </c>
     </row>
     <row r="131" spans="1:5" ht="30">
@@ -8488,19 +8485,19 @@
         <v>467</v>
       </c>
       <c r="E131" s="42" t="s">
-        <v>706</v>
+        <v>694</v>
       </c>
     </row>
     <row r="132" spans="1:5" ht="18.75" customHeight="1">
-      <c r="A132" s="59" t="s">
+      <c r="A132" s="55" t="s">
         <v>551</v>
       </c>
-      <c r="B132" s="59"/>
+      <c r="B132" s="55"/>
       <c r="D132" s="42" t="s">
         <v>109</v>
       </c>
       <c r="E132" s="42" t="s">
-        <v>707</v>
+        <v>695</v>
       </c>
     </row>
     <row r="133" spans="1:5">
@@ -8511,7 +8508,7 @@
         <v>552</v>
       </c>
       <c r="D133" s="42" t="s">
-        <v>693</v>
+        <v>681</v>
       </c>
       <c r="E133" s="42">
         <v>55</v>
@@ -8539,21 +8536,21 @@
         <v>554</v>
       </c>
       <c r="D135" s="42" t="s">
-        <v>694</v>
+        <v>682</v>
       </c>
       <c r="E135" s="42">
         <v>5</v>
       </c>
     </row>
     <row r="136" spans="1:5">
-      <c r="A136" s="59" t="s">
+      <c r="A136" s="55" t="s">
         <v>474</v>
       </c>
-      <c r="B136" s="59"/>
-      <c r="D136" s="57" t="s">
-        <v>630</v>
-      </c>
-      <c r="E136" s="58"/>
+      <c r="B136" s="55"/>
+      <c r="D136" s="58" t="s">
+        <v>618</v>
+      </c>
+      <c r="E136" s="59"/>
     </row>
     <row r="137" spans="1:5" ht="30">
       <c r="A137" s="42" t="s">
@@ -8566,7 +8563,7 @@
         <v>99</v>
       </c>
       <c r="E137" s="42" t="s">
-        <v>708</v>
+        <v>696</v>
       </c>
     </row>
     <row r="138" spans="1:5" ht="30">
@@ -8594,7 +8591,7 @@
         <v>105</v>
       </c>
       <c r="E139" s="42" t="s">
-        <v>709</v>
+        <v>697</v>
       </c>
     </row>
     <row r="140" spans="1:5" ht="30">
@@ -8619,10 +8616,10 @@
         <v>200</v>
       </c>
       <c r="D141" s="42" t="s">
-        <v>633</v>
+        <v>621</v>
       </c>
       <c r="E141" s="42" t="s">
-        <v>710</v>
+        <v>698</v>
       </c>
     </row>
     <row r="142" spans="1:5">
@@ -8636,19 +8633,19 @@
         <v>23</v>
       </c>
       <c r="E143" s="42" t="s">
-        <v>711</v>
+        <v>699</v>
       </c>
     </row>
     <row r="144" spans="1:5" ht="18.75" customHeight="1">
-      <c r="A144" s="59" t="s">
+      <c r="A144" s="55" t="s">
         <v>558</v>
       </c>
-      <c r="B144" s="59"/>
+      <c r="B144" s="55"/>
       <c r="D144" s="42" t="s">
         <v>165</v>
       </c>
       <c r="E144" s="42" t="s">
-        <v>691</v>
+        <v>679</v>
       </c>
     </row>
     <row r="145" spans="1:5" ht="30">
@@ -8690,19 +8687,19 @@
         <v>24</v>
       </c>
       <c r="E147" s="42" t="s">
-        <v>670</v>
+        <v>658</v>
       </c>
     </row>
     <row r="148" spans="1:5">
-      <c r="A148" s="59" t="s">
+      <c r="A148" s="55" t="s">
         <v>474</v>
       </c>
-      <c r="B148" s="59"/>
+      <c r="B148" s="55"/>
       <c r="D148" s="42" t="s">
-        <v>671</v>
+        <v>659</v>
       </c>
       <c r="E148" s="42" t="s">
-        <v>672</v>
+        <v>660</v>
       </c>
     </row>
     <row r="149" spans="1:5">
@@ -8713,10 +8710,10 @@
         <v>562</v>
       </c>
       <c r="D149" s="42" t="s">
-        <v>673</v>
+        <v>661</v>
       </c>
       <c r="E149" s="42" t="s">
-        <v>674</v>
+        <v>662</v>
       </c>
     </row>
     <row r="150" spans="1:5" ht="30">
@@ -8742,10 +8739,10 @@
       <c r="B152" s="42" t="s">
         <v>563</v>
       </c>
-      <c r="D152" s="55" t="s">
-        <v>712</v>
-      </c>
-      <c r="E152" s="56"/>
+      <c r="D152" s="56" t="s">
+        <v>700</v>
+      </c>
+      <c r="E152" s="57"/>
     </row>
     <row r="153" spans="1:5" ht="30">
       <c r="A153" s="42" t="s">
@@ -8758,7 +8755,7 @@
         <v>463</v>
       </c>
       <c r="E153" s="42" t="s">
-        <v>713</v>
+        <v>701</v>
       </c>
     </row>
     <row r="154" spans="1:5" ht="30">
@@ -8772,7 +8769,7 @@
         <v>467</v>
       </c>
       <c r="E154" s="42" t="s">
-        <v>714</v>
+        <v>702</v>
       </c>
     </row>
     <row r="155" spans="1:5" ht="45">
@@ -8786,7 +8783,7 @@
         <v>109</v>
       </c>
       <c r="E155" s="42" t="s">
-        <v>715</v>
+        <v>703</v>
       </c>
     </row>
     <row r="156" spans="1:5">
@@ -8797,7 +8794,7 @@
         <v>214</v>
       </c>
       <c r="D156" s="42" t="s">
-        <v>693</v>
+        <v>681</v>
       </c>
       <c r="E156" s="42">
         <v>55</v>
@@ -8825,7 +8822,7 @@
         <v>512</v>
       </c>
       <c r="D158" s="42" t="s">
-        <v>694</v>
+        <v>682</v>
       </c>
       <c r="E158" s="42">
         <v>5</v>
@@ -8838,17 +8835,17 @@
       <c r="B159" s="42">
         <v>60</v>
       </c>
-      <c r="D159" s="57" t="s">
-        <v>630</v>
-      </c>
-      <c r="E159" s="58"/>
+      <c r="D159" s="58" t="s">
+        <v>618</v>
+      </c>
+      <c r="E159" s="59"/>
     </row>
     <row r="160" spans="1:5" ht="30">
       <c r="D160" s="42" t="s">
         <v>99</v>
       </c>
       <c r="E160" s="42" t="s">
-        <v>716</v>
+        <v>704</v>
       </c>
     </row>
     <row r="161" spans="1:5" ht="30">
@@ -8860,15 +8857,15 @@
       </c>
     </row>
     <row r="162" spans="1:5" ht="18.75" customHeight="1">
-      <c r="A162" s="59" t="s">
+      <c r="A162" s="55" t="s">
         <v>567</v>
       </c>
-      <c r="B162" s="59"/>
+      <c r="B162" s="55"/>
       <c r="D162" s="42" t="s">
         <v>105</v>
       </c>
       <c r="E162" s="42" t="s">
-        <v>717</v>
+        <v>705</v>
       </c>
     </row>
     <row r="163" spans="1:5">
@@ -8893,10 +8890,10 @@
         <v>569</v>
       </c>
       <c r="D164" s="42" t="s">
-        <v>633</v>
+        <v>621</v>
       </c>
       <c r="E164" s="42" t="s">
-        <v>718</v>
+        <v>706</v>
       </c>
     </row>
     <row r="165" spans="1:5" ht="45">
@@ -8922,7 +8919,7 @@
         <v>23</v>
       </c>
       <c r="E166" s="42" t="s">
-        <v>719</v>
+        <v>707</v>
       </c>
     </row>
     <row r="167" spans="1:5">
@@ -8936,14 +8933,14 @@
         <v>165</v>
       </c>
       <c r="E167" s="42" t="s">
-        <v>691</v>
+        <v>679</v>
       </c>
     </row>
     <row r="168" spans="1:5" ht="30">
-      <c r="A168" s="59" t="s">
+      <c r="A168" s="55" t="s">
         <v>474</v>
       </c>
-      <c r="B168" s="59"/>
+      <c r="B168" s="55"/>
       <c r="D168" s="42" t="s">
         <v>557</v>
       </c>
@@ -8987,7 +8984,7 @@
         <v>574</v>
       </c>
       <c r="D171" s="42" t="s">
-        <v>720</v>
+        <v>708</v>
       </c>
       <c r="E171" s="42">
         <v>200</v>
@@ -9004,7 +9001,7 @@
         <v>24</v>
       </c>
       <c r="E172" s="42" t="s">
-        <v>670</v>
+        <v>658</v>
       </c>
     </row>
     <row r="173" spans="1:5" ht="30">
@@ -9015,10 +9012,10 @@
         <v>455</v>
       </c>
       <c r="D173" s="42" t="s">
-        <v>671</v>
+        <v>659</v>
       </c>
       <c r="E173" s="42" t="s">
-        <v>672</v>
+        <v>660</v>
       </c>
     </row>
     <row r="174" spans="1:5" ht="30">
@@ -9029,10 +9026,10 @@
         <v>456</v>
       </c>
       <c r="D174" s="42" t="s">
-        <v>673</v>
+        <v>661</v>
       </c>
       <c r="E174" s="42" t="s">
-        <v>674</v>
+        <v>662</v>
       </c>
     </row>
     <row r="175" spans="1:5">
@@ -9068,10 +9065,10 @@
       <c r="B178" s="42" t="s">
         <v>25</v>
       </c>
-      <c r="D178" s="55" t="s">
-        <v>721</v>
-      </c>
-      <c r="E178" s="56"/>
+      <c r="D178" s="56" t="s">
+        <v>709</v>
+      </c>
+      <c r="E178" s="57"/>
     </row>
     <row r="179" spans="1:5" ht="30">
       <c r="A179" s="42" t="s">
@@ -9084,7 +9081,7 @@
         <v>463</v>
       </c>
       <c r="E179" s="42" t="s">
-        <v>722</v>
+        <v>710</v>
       </c>
     </row>
     <row r="180" spans="1:5" ht="30">
@@ -9092,7 +9089,7 @@
         <v>467</v>
       </c>
       <c r="E180" s="42" t="s">
-        <v>723</v>
+        <v>711</v>
       </c>
     </row>
     <row r="181" spans="1:5" ht="45">
@@ -9100,16 +9097,16 @@
         <v>109</v>
       </c>
       <c r="E181" s="42" t="s">
-        <v>724</v>
+        <v>712</v>
       </c>
     </row>
     <row r="182" spans="1:5" ht="18.75" customHeight="1">
-      <c r="A182" s="59" t="s">
+      <c r="A182" s="55" t="s">
         <v>575</v>
       </c>
-      <c r="B182" s="59"/>
+      <c r="B182" s="55"/>
       <c r="D182" s="42" t="s">
-        <v>693</v>
+        <v>681</v>
       </c>
       <c r="E182" s="42">
         <v>90</v>
@@ -9137,7 +9134,7 @@
         <v>577</v>
       </c>
       <c r="D184" s="42" t="s">
-        <v>694</v>
+        <v>682</v>
       </c>
       <c r="E184" s="42">
         <v>5</v>
@@ -9150,10 +9147,10 @@
       <c r="B185" s="42" t="s">
         <v>578</v>
       </c>
-      <c r="D185" s="57" t="s">
-        <v>630</v>
-      </c>
-      <c r="E185" s="58"/>
+      <c r="D185" s="58" t="s">
+        <v>618</v>
+      </c>
+      <c r="E185" s="59"/>
     </row>
     <row r="186" spans="1:5" ht="30">
       <c r="A186" s="42" t="s">
@@ -9166,7 +9163,7 @@
         <v>99</v>
       </c>
       <c r="E186" s="42" t="s">
-        <v>725</v>
+        <v>713</v>
       </c>
     </row>
     <row r="187" spans="1:5" ht="30">
@@ -9184,15 +9181,15 @@
       </c>
     </row>
     <row r="188" spans="1:5" ht="30">
-      <c r="A188" s="59" t="s">
+      <c r="A188" s="55" t="s">
         <v>474</v>
       </c>
-      <c r="B188" s="59"/>
+      <c r="B188" s="55"/>
       <c r="D188" s="42" t="s">
         <v>105</v>
       </c>
       <c r="E188" s="42" t="s">
-        <v>726</v>
+        <v>714</v>
       </c>
     </row>
     <row r="189" spans="1:5">
@@ -9217,10 +9214,10 @@
         <v>580</v>
       </c>
       <c r="D190" s="42" t="s">
-        <v>633</v>
+        <v>621</v>
       </c>
       <c r="E190" s="42" t="s">
-        <v>727</v>
+        <v>715</v>
       </c>
     </row>
     <row r="191" spans="1:5">
@@ -9243,10 +9240,10 @@
         <v>583</v>
       </c>
       <c r="D192" s="42" t="s">
-        <v>728</v>
+        <v>716</v>
       </c>
       <c r="E192" s="42" t="s">
-        <v>729</v>
+        <v>717</v>
       </c>
     </row>
     <row r="193" spans="1:5">
@@ -9260,7 +9257,7 @@
         <v>165</v>
       </c>
       <c r="E193" s="42" t="s">
-        <v>691</v>
+        <v>679</v>
       </c>
     </row>
     <row r="194" spans="1:5" ht="30">
@@ -9274,7 +9271,7 @@
         <v>549</v>
       </c>
       <c r="E194" s="42" t="s">
-        <v>730</v>
+        <v>718</v>
       </c>
     </row>
     <row r="195" spans="1:5" ht="30">
@@ -9314,10 +9311,10 @@
       <c r="B198" s="42" t="s">
         <v>214</v>
       </c>
-      <c r="D198" s="55" t="s">
-        <v>731</v>
-      </c>
-      <c r="E198" s="56"/>
+      <c r="D198" s="56" t="s">
+        <v>719</v>
+      </c>
+      <c r="E198" s="57"/>
     </row>
     <row r="199" spans="1:5" ht="30">
       <c r="A199" s="42" t="s">
@@ -9330,7 +9327,7 @@
         <v>463</v>
       </c>
       <c r="E199" s="42" t="s">
-        <v>732</v>
+        <v>720</v>
       </c>
     </row>
     <row r="200" spans="1:5" ht="30">
@@ -9344,7 +9341,7 @@
         <v>467</v>
       </c>
       <c r="E200" s="42" t="s">
-        <v>733</v>
+        <v>721</v>
       </c>
     </row>
     <row r="201" spans="1:5" ht="45">
@@ -9358,24 +9355,24 @@
         <v>109</v>
       </c>
       <c r="E201" s="42" t="s">
-        <v>734</v>
+        <v>722</v>
       </c>
     </row>
     <row r="202" spans="1:5">
       <c r="D202" s="42" t="s">
-        <v>694</v>
+        <v>682</v>
       </c>
       <c r="E202" s="42">
         <v>5</v>
       </c>
     </row>
     <row r="203" spans="1:5" ht="18.75" customHeight="1">
-      <c r="A203" s="59" t="s">
+      <c r="A203" s="55" t="s">
         <v>586</v>
       </c>
-      <c r="B203" s="59"/>
+      <c r="B203" s="55"/>
       <c r="D203" s="44" t="s">
-        <v>630</v>
+        <v>618</v>
       </c>
       <c r="E203" s="45"/>
     </row>
@@ -9390,7 +9387,7 @@
         <v>99</v>
       </c>
       <c r="E204" s="42" t="s">
-        <v>735</v>
+        <v>723</v>
       </c>
     </row>
     <row r="205" spans="1:5" ht="30">
@@ -9418,7 +9415,7 @@
         <v>105</v>
       </c>
       <c r="E206" s="42" t="s">
-        <v>736</v>
+        <v>724</v>
       </c>
     </row>
     <row r="207" spans="1:5">
@@ -9443,17 +9440,17 @@
         <v>1</v>
       </c>
       <c r="D208" s="42" t="s">
-        <v>633</v>
+        <v>621</v>
       </c>
       <c r="E208" s="42" t="s">
-        <v>737</v>
+        <v>725</v>
       </c>
     </row>
     <row r="209" spans="1:5">
-      <c r="A209" s="59" t="s">
+      <c r="A209" s="55" t="s">
         <v>474</v>
       </c>
-      <c r="B209" s="59"/>
+      <c r="B209" s="55"/>
       <c r="D209" s="44" t="s">
         <v>474</v>
       </c>
@@ -9467,10 +9464,10 @@
         <v>590</v>
       </c>
       <c r="D210" s="42" t="s">
-        <v>728</v>
+        <v>716</v>
       </c>
       <c r="E210" s="42" t="s">
-        <v>738</v>
+        <v>726</v>
       </c>
     </row>
     <row r="211" spans="1:5" ht="30">
@@ -9498,7 +9495,7 @@
         <v>549</v>
       </c>
       <c r="E212" s="42" t="s">
-        <v>739</v>
+        <v>727</v>
       </c>
     </row>
     <row r="213" spans="1:5" ht="30">
@@ -9552,10 +9549,10 @@
       <c r="B217" s="42">
         <v>200</v>
       </c>
-      <c r="D217" s="55" t="s">
-        <v>740</v>
-      </c>
-      <c r="E217" s="56"/>
+      <c r="D217" s="56" t="s">
+        <v>728</v>
+      </c>
+      <c r="E217" s="57"/>
     </row>
     <row r="218" spans="1:5" ht="30">
       <c r="A218" s="42" t="s">
@@ -9568,7 +9565,7 @@
         <v>463</v>
       </c>
       <c r="E218" s="42" t="s">
-        <v>741</v>
+        <v>729</v>
       </c>
     </row>
     <row r="219" spans="1:5" ht="45">
@@ -9582,7 +9579,7 @@
         <v>467</v>
       </c>
       <c r="E219" s="42" t="s">
-        <v>742</v>
+        <v>730</v>
       </c>
     </row>
     <row r="220" spans="1:5" ht="45">
@@ -9596,12 +9593,12 @@
         <v>109</v>
       </c>
       <c r="E220" s="42" t="s">
-        <v>743</v>
+        <v>731</v>
       </c>
     </row>
     <row r="221" spans="1:5">
       <c r="D221" s="42" t="s">
-        <v>694</v>
+        <v>682</v>
       </c>
       <c r="E221" s="42">
         <v>3</v>
@@ -9609,20 +9606,20 @@
     </row>
     <row r="222" spans="1:5">
       <c r="D222" s="44" t="s">
-        <v>630</v>
+        <v>618</v>
       </c>
       <c r="E222" s="45"/>
     </row>
     <row r="223" spans="1:5" ht="18.75" customHeight="1">
-      <c r="A223" s="59" t="s">
+      <c r="A223" s="55" t="s">
         <v>595</v>
       </c>
-      <c r="B223" s="59"/>
+      <c r="B223" s="55"/>
       <c r="D223" s="42" t="s">
         <v>99</v>
       </c>
       <c r="E223" s="42" t="s">
-        <v>744</v>
+        <v>732</v>
       </c>
     </row>
     <row r="224" spans="1:5" ht="30">
@@ -9650,7 +9647,7 @@
         <v>105</v>
       </c>
       <c r="E225" s="42" t="s">
-        <v>745</v>
+        <v>733</v>
       </c>
     </row>
     <row r="226" spans="1:5" ht="30">
@@ -9675,10 +9672,10 @@
         <v>30</v>
       </c>
       <c r="D227" s="42" t="s">
-        <v>633</v>
+        <v>621</v>
       </c>
       <c r="E227" s="42" t="s">
-        <v>746</v>
+        <v>734</v>
       </c>
     </row>
     <row r="228" spans="1:5">
@@ -9694,15 +9691,15 @@
       <c r="E228" s="45"/>
     </row>
     <row r="229" spans="1:5" ht="30">
-      <c r="A229" s="59" t="s">
+      <c r="A229" s="55" t="s">
         <v>474</v>
       </c>
-      <c r="B229" s="59"/>
+      <c r="B229" s="55"/>
       <c r="D229" s="42" t="s">
-        <v>728</v>
+        <v>716</v>
       </c>
       <c r="E229" s="42" t="s">
-        <v>747</v>
+        <v>735</v>
       </c>
     </row>
     <row r="230" spans="1:5" ht="30">
@@ -9744,7 +9741,7 @@
         <v>549</v>
       </c>
       <c r="E232" s="42" t="s">
-        <v>748</v>
+        <v>736</v>
       </c>
     </row>
     <row r="233" spans="1:5" ht="30">
@@ -9786,7 +9783,7 @@
         <v>565</v>
       </c>
       <c r="E235" s="42" t="s">
-        <v>749</v>
+        <v>737</v>
       </c>
     </row>
     <row r="236" spans="1:5" ht="30">
@@ -9800,7 +9797,7 @@
         <v>24</v>
       </c>
       <c r="E236" s="42" t="s">
-        <v>750</v>
+        <v>738</v>
       </c>
     </row>
     <row r="237" spans="1:5">
@@ -9811,10 +9808,10 @@
         <v>200</v>
       </c>
       <c r="D237" s="42" t="s">
-        <v>671</v>
+        <v>659</v>
       </c>
       <c r="E237" s="42" t="s">
-        <v>751</v>
+        <v>739</v>
       </c>
     </row>
     <row r="238" spans="1:5" ht="30">
@@ -9825,7 +9822,7 @@
         <v>457</v>
       </c>
       <c r="D238" s="42" t="s">
-        <v>673</v>
+        <v>661</v>
       </c>
       <c r="E238" s="42" t="s">
         <v>119</v>
@@ -9854,10 +9851,10 @@
       <c r="B241" s="42" t="s">
         <v>25</v>
       </c>
-      <c r="D241" s="55" t="s">
-        <v>752</v>
-      </c>
-      <c r="E241" s="56"/>
+      <c r="D241" s="56" t="s">
+        <v>740</v>
+      </c>
+      <c r="E241" s="57"/>
     </row>
     <row r="242" spans="1:5" ht="30">
       <c r="A242" s="42" t="s">
@@ -9870,7 +9867,7 @@
         <v>463</v>
       </c>
       <c r="E242" s="42" t="s">
-        <v>753</v>
+        <v>741</v>
       </c>
     </row>
     <row r="243" spans="1:5" ht="45">
@@ -9878,7 +9875,7 @@
         <v>467</v>
       </c>
       <c r="E243" s="42" t="s">
-        <v>754</v>
+        <v>742</v>
       </c>
     </row>
     <row r="244" spans="1:5" ht="45">
@@ -9886,15 +9883,15 @@
         <v>109</v>
       </c>
       <c r="E244" s="42" t="s">
-        <v>755</v>
+        <v>743</v>
       </c>
     </row>
     <row r="245" spans="1:5">
       <c r="A245" s="41" t="s">
-        <v>756</v>
+        <v>744</v>
       </c>
       <c r="D245" s="42" t="s">
-        <v>694</v>
+        <v>682</v>
       </c>
       <c r="E245" s="42">
         <v>3</v>
@@ -9909,12 +9906,12 @@
       </c>
     </row>
     <row r="247" spans="1:5">
-      <c r="A247" s="55" t="s">
-        <v>757</v>
-      </c>
-      <c r="B247" s="56"/>
+      <c r="A247" s="56" t="s">
+        <v>745</v>
+      </c>
+      <c r="B247" s="57"/>
       <c r="D247" s="42" t="s">
-        <v>758</v>
+        <v>746</v>
       </c>
       <c r="E247" s="42">
         <v>1</v>
@@ -9925,10 +9922,10 @@
         <v>463</v>
       </c>
       <c r="B248" s="42" t="s">
-        <v>759</v>
+        <v>747</v>
       </c>
       <c r="D248" s="44" t="s">
-        <v>630</v>
+        <v>618</v>
       </c>
       <c r="E248" s="45"/>
     </row>
@@ -9937,13 +9934,13 @@
         <v>467</v>
       </c>
       <c r="B249" s="42" t="s">
-        <v>760</v>
+        <v>748</v>
       </c>
       <c r="D249" s="42" t="s">
         <v>99</v>
       </c>
       <c r="E249" s="42" t="s">
-        <v>761</v>
+        <v>749</v>
       </c>
     </row>
     <row r="250" spans="1:5" ht="30">
@@ -9951,7 +9948,7 @@
         <v>109</v>
       </c>
       <c r="B250" s="42" t="s">
-        <v>762</v>
+        <v>750</v>
       </c>
       <c r="D250" s="42" t="s">
         <v>147</v>
@@ -9962,7 +9959,7 @@
     </row>
     <row r="251" spans="1:5" ht="45">
       <c r="A251" s="42" t="s">
-        <v>694</v>
+        <v>682</v>
       </c>
       <c r="B251" s="42">
         <v>2</v>
@@ -9971,7 +9968,7 @@
         <v>105</v>
       </c>
       <c r="E251" s="42" t="s">
-        <v>763</v>
+        <v>751</v>
       </c>
     </row>
     <row r="252" spans="1:5">
@@ -9990,21 +9987,21 @@
     </row>
     <row r="253" spans="1:5" ht="45">
       <c r="A253" s="42" t="s">
-        <v>758</v>
+        <v>746</v>
       </c>
       <c r="B253" s="42">
         <v>1</v>
       </c>
       <c r="D253" s="42" t="s">
-        <v>633</v>
+        <v>621</v>
       </c>
       <c r="E253" s="42" t="s">
-        <v>764</v>
+        <v>752</v>
       </c>
     </row>
     <row r="254" spans="1:5">
       <c r="A254" s="44" t="s">
-        <v>630</v>
+        <v>618</v>
       </c>
       <c r="B254" s="45"/>
       <c r="D254" s="44" t="s">
@@ -10017,13 +10014,13 @@
         <v>99</v>
       </c>
       <c r="B255" s="42" t="s">
-        <v>765</v>
+        <v>753</v>
       </c>
       <c r="D255" s="42" t="s">
-        <v>728</v>
+        <v>716</v>
       </c>
       <c r="E255" s="42" t="s">
-        <v>766</v>
+        <v>754</v>
       </c>
     </row>
     <row r="256" spans="1:5" ht="30">
@@ -10037,7 +10034,7 @@
         <v>549</v>
       </c>
       <c r="E256" s="42" t="s">
-        <v>767</v>
+        <v>755</v>
       </c>
     </row>
     <row r="257" spans="1:5" ht="30">
@@ -10045,13 +10042,13 @@
         <v>105</v>
       </c>
       <c r="B257" s="42" t="s">
-        <v>768</v>
+        <v>756</v>
       </c>
       <c r="D257" s="42" t="s">
         <v>565</v>
       </c>
       <c r="E257" s="42" t="s">
-        <v>769</v>
+        <v>757</v>
       </c>
     </row>
     <row r="258" spans="1:5">
@@ -10065,15 +10062,15 @@
         <v>165</v>
       </c>
       <c r="E258" s="42" t="s">
-        <v>770</v>
+        <v>758</v>
       </c>
     </row>
     <row r="259" spans="1:5" ht="45">
       <c r="A259" s="42" t="s">
-        <v>633</v>
+        <v>621</v>
       </c>
       <c r="B259" s="42" t="s">
-        <v>771</v>
+        <v>759</v>
       </c>
       <c r="D259" s="42" t="s">
         <v>147</v>
@@ -10096,10 +10093,10 @@
     </row>
     <row r="261" spans="1:5">
       <c r="A261" s="42" t="s">
-        <v>728</v>
+        <v>716</v>
       </c>
       <c r="B261" s="42" t="s">
-        <v>772</v>
+        <v>760</v>
       </c>
       <c r="D261" s="42" t="s">
         <v>132</v>
@@ -10113,7 +10110,7 @@
         <v>549</v>
       </c>
       <c r="B262" s="42" t="s">
-        <v>773</v>
+        <v>761</v>
       </c>
       <c r="D262" s="42" t="s">
         <v>277</v>
@@ -10127,7 +10124,7 @@
         <v>565</v>
       </c>
       <c r="B263" s="42" t="s">
-        <v>774</v>
+        <v>762</v>
       </c>
       <c r="D263" s="42" t="s">
         <v>139</v>
@@ -10141,13 +10138,13 @@
         <v>582</v>
       </c>
       <c r="B264" s="42" t="s">
-        <v>775</v>
+        <v>763</v>
       </c>
       <c r="D264" s="42" t="s">
         <v>24</v>
       </c>
       <c r="E264" s="42" t="s">
-        <v>750</v>
+        <v>738</v>
       </c>
     </row>
     <row r="265" spans="1:5">
@@ -10155,13 +10152,13 @@
         <v>165</v>
       </c>
       <c r="B265" s="42" t="s">
-        <v>770</v>
+        <v>758</v>
       </c>
       <c r="D265" s="42" t="s">
-        <v>671</v>
+        <v>659</v>
       </c>
       <c r="E265" s="42" t="s">
-        <v>751</v>
+        <v>739</v>
       </c>
     </row>
     <row r="266" spans="1:5" ht="30">
@@ -10172,7 +10169,7 @@
         <v>455</v>
       </c>
       <c r="D266" s="42" t="s">
-        <v>673</v>
+        <v>661</v>
       </c>
       <c r="E266" s="42" t="s">
         <v>119</v>
@@ -10215,37 +10212,37 @@
         <v>24</v>
       </c>
       <c r="B271" s="42" t="s">
-        <v>750</v>
+        <v>738</v>
       </c>
     </row>
     <row r="272" spans="1:5">
       <c r="A272" s="42" t="s">
-        <v>671</v>
+        <v>659</v>
       </c>
       <c r="B272" s="42" t="s">
-        <v>751</v>
+        <v>739</v>
       </c>
     </row>
     <row r="273" spans="1:2">
       <c r="A273" s="42" t="s">
-        <v>673</v>
+        <v>661</v>
       </c>
       <c r="B273" s="42" t="s">
         <v>119</v>
       </c>
     </row>
     <row r="276" spans="1:2">
-      <c r="A276" s="55" t="s">
-        <v>776</v>
-      </c>
-      <c r="B276" s="56"/>
+      <c r="A276" s="56" t="s">
+        <v>764</v>
+      </c>
+      <c r="B276" s="57"/>
     </row>
     <row r="277" spans="1:2">
       <c r="A277" s="42" t="s">
         <v>463</v>
       </c>
       <c r="B277" s="42" t="s">
-        <v>777</v>
+        <v>765</v>
       </c>
     </row>
     <row r="278" spans="1:2" ht="30">
@@ -10253,7 +10250,7 @@
         <v>467</v>
       </c>
       <c r="B278" s="42" t="s">
-        <v>778</v>
+        <v>766</v>
       </c>
     </row>
     <row r="279" spans="1:2" ht="30">
@@ -10261,12 +10258,12 @@
         <v>109</v>
       </c>
       <c r="B279" s="42" t="s">
-        <v>779</v>
+        <v>767</v>
       </c>
     </row>
     <row r="280" spans="1:2">
       <c r="A280" s="42" t="s">
-        <v>694</v>
+        <v>682</v>
       </c>
       <c r="B280" s="42">
         <v>2</v>
@@ -10282,7 +10279,7 @@
     </row>
     <row r="282" spans="1:2">
       <c r="A282" s="42" t="s">
-        <v>758</v>
+        <v>746</v>
       </c>
       <c r="B282" s="42">
         <v>1</v>
@@ -10290,7 +10287,7 @@
     </row>
     <row r="283" spans="1:2">
       <c r="A283" s="44" t="s">
-        <v>630</v>
+        <v>618</v>
       </c>
       <c r="B283" s="45"/>
     </row>
@@ -10299,7 +10296,7 @@
         <v>99</v>
       </c>
       <c r="B284" s="42" t="s">
-        <v>780</v>
+        <v>768</v>
       </c>
     </row>
     <row r="285" spans="1:2" ht="30">
@@ -10315,7 +10312,7 @@
         <v>105</v>
       </c>
       <c r="B286" s="42" t="s">
-        <v>781</v>
+        <v>769</v>
       </c>
     </row>
     <row r="287" spans="1:2">
@@ -10328,10 +10325,10 @@
     </row>
     <row r="288" spans="1:2" ht="45">
       <c r="A288" s="42" t="s">
-        <v>633</v>
+        <v>621</v>
       </c>
       <c r="B288" s="42" t="s">
-        <v>782</v>
+        <v>770</v>
       </c>
     </row>
     <row r="289" spans="1:2">
@@ -10342,10 +10339,10 @@
     </row>
     <row r="290" spans="1:2">
       <c r="A290" s="42" t="s">
-        <v>728</v>
+        <v>716</v>
       </c>
       <c r="B290" s="42" t="s">
-        <v>783</v>
+        <v>771</v>
       </c>
     </row>
     <row r="291" spans="1:2">
@@ -10353,7 +10350,7 @@
         <v>549</v>
       </c>
       <c r="B291" s="42" t="s">
-        <v>784</v>
+        <v>772</v>
       </c>
     </row>
     <row r="292" spans="1:2">
@@ -10361,7 +10358,7 @@
         <v>565</v>
       </c>
       <c r="B292" s="42" t="s">
-        <v>785</v>
+        <v>773</v>
       </c>
     </row>
     <row r="293" spans="1:2">
@@ -10369,7 +10366,7 @@
         <v>582</v>
       </c>
       <c r="B293" s="42" t="s">
-        <v>786</v>
+        <v>774</v>
       </c>
     </row>
     <row r="294" spans="1:2">
@@ -10377,7 +10374,7 @@
         <v>165</v>
       </c>
       <c r="B294" s="42" t="s">
-        <v>787</v>
+        <v>775</v>
       </c>
     </row>
     <row r="295" spans="1:2" ht="30">
@@ -10425,37 +10422,37 @@
         <v>24</v>
       </c>
       <c r="B300" s="42" t="s">
-        <v>750</v>
+        <v>738</v>
       </c>
     </row>
     <row r="301" spans="1:2">
       <c r="A301" s="42" t="s">
-        <v>671</v>
+        <v>659</v>
       </c>
       <c r="B301" s="42" t="s">
-        <v>751</v>
+        <v>739</v>
       </c>
     </row>
     <row r="302" spans="1:2">
       <c r="A302" s="42" t="s">
-        <v>673</v>
+        <v>661</v>
       </c>
       <c r="B302" s="42" t="s">
         <v>119</v>
       </c>
     </row>
     <row r="305" spans="1:2">
-      <c r="A305" s="55" t="s">
-        <v>788</v>
-      </c>
-      <c r="B305" s="56"/>
+      <c r="A305" s="56" t="s">
+        <v>776</v>
+      </c>
+      <c r="B305" s="57"/>
     </row>
     <row r="306" spans="1:2">
       <c r="A306" s="42" t="s">
         <v>463</v>
       </c>
       <c r="B306" s="42" t="s">
-        <v>789</v>
+        <v>777</v>
       </c>
     </row>
     <row r="307" spans="1:2" ht="30">
@@ -10463,7 +10460,7 @@
         <v>467</v>
       </c>
       <c r="B307" s="42" t="s">
-        <v>790</v>
+        <v>778</v>
       </c>
     </row>
     <row r="308" spans="1:2" ht="30">
@@ -10471,12 +10468,12 @@
         <v>109</v>
       </c>
       <c r="B308" s="42" t="s">
-        <v>791</v>
+        <v>779</v>
       </c>
     </row>
     <row r="309" spans="1:2">
       <c r="A309" s="42" t="s">
-        <v>694</v>
+        <v>682</v>
       </c>
       <c r="B309" s="42">
         <v>2</v>
@@ -10492,7 +10489,7 @@
     </row>
     <row r="311" spans="1:2">
       <c r="A311" s="42" t="s">
-        <v>758</v>
+        <v>746</v>
       </c>
       <c r="B311" s="42">
         <v>1</v>
@@ -10500,7 +10497,7 @@
     </row>
     <row r="312" spans="1:2">
       <c r="A312" s="44" t="s">
-        <v>630</v>
+        <v>618</v>
       </c>
       <c r="B312" s="45"/>
     </row>
@@ -10509,7 +10506,7 @@
         <v>99</v>
       </c>
       <c r="B313" s="42" t="s">
-        <v>792</v>
+        <v>780</v>
       </c>
     </row>
     <row r="314" spans="1:2" ht="30">
@@ -10525,7 +10522,7 @@
         <v>105</v>
       </c>
       <c r="B315" s="42" t="s">
-        <v>793</v>
+        <v>781</v>
       </c>
     </row>
     <row r="316" spans="1:2">
@@ -10538,10 +10535,10 @@
     </row>
     <row r="317" spans="1:2" ht="45">
       <c r="A317" s="42" t="s">
-        <v>633</v>
+        <v>621</v>
       </c>
       <c r="B317" s="42" t="s">
-        <v>794</v>
+        <v>782</v>
       </c>
     </row>
     <row r="318" spans="1:2">
@@ -10552,10 +10549,10 @@
     </row>
     <row r="319" spans="1:2">
       <c r="A319" s="42" t="s">
-        <v>728</v>
+        <v>716</v>
       </c>
       <c r="B319" s="42" t="s">
-        <v>795</v>
+        <v>783</v>
       </c>
     </row>
     <row r="320" spans="1:2">
@@ -10563,7 +10560,7 @@
         <v>549</v>
       </c>
       <c r="B320" s="42" t="s">
-        <v>796</v>
+        <v>784</v>
       </c>
     </row>
     <row r="321" spans="1:2">
@@ -10571,7 +10568,7 @@
         <v>565</v>
       </c>
       <c r="B321" s="42" t="s">
-        <v>797</v>
+        <v>785</v>
       </c>
     </row>
     <row r="322" spans="1:2">
@@ -10579,7 +10576,7 @@
         <v>582</v>
       </c>
       <c r="B322" s="42" t="s">
-        <v>798</v>
+        <v>786</v>
       </c>
     </row>
     <row r="323" spans="1:2">
@@ -10587,7 +10584,7 @@
         <v>165</v>
       </c>
       <c r="B323" s="42" t="s">
-        <v>770</v>
+        <v>758</v>
       </c>
     </row>
     <row r="324" spans="1:2" ht="30">
@@ -10635,20 +10632,20 @@
         <v>24</v>
       </c>
       <c r="B329" s="42" t="s">
-        <v>750</v>
+        <v>738</v>
       </c>
     </row>
     <row r="330" spans="1:2">
       <c r="A330" s="42" t="s">
-        <v>671</v>
+        <v>659</v>
       </c>
       <c r="B330" s="42" t="s">
-        <v>751</v>
+        <v>739</v>
       </c>
     </row>
     <row r="331" spans="1:2">
       <c r="A331" s="42" t="s">
-        <v>673</v>
+        <v>661</v>
       </c>
       <c r="B331" s="42" t="s">
         <v>119</v>
@@ -10656,24 +10653,36 @@
     </row>
   </sheetData>
   <mergeCells count="64">
-    <mergeCell ref="A188:B188"/>
-    <mergeCell ref="A144:B144"/>
-    <mergeCell ref="A148:B148"/>
-    <mergeCell ref="A162:B162"/>
-    <mergeCell ref="A168:B168"/>
-    <mergeCell ref="A182:B182"/>
-    <mergeCell ref="A136:B136"/>
-    <mergeCell ref="A59:B59"/>
-    <mergeCell ref="A69:B69"/>
-    <mergeCell ref="A75:B75"/>
-    <mergeCell ref="A79:B79"/>
-    <mergeCell ref="A89:B89"/>
-    <mergeCell ref="A93:B93"/>
-    <mergeCell ref="A105:B105"/>
-    <mergeCell ref="A111:B111"/>
-    <mergeCell ref="A121:B121"/>
-    <mergeCell ref="A125:B125"/>
-    <mergeCell ref="A132:B132"/>
+    <mergeCell ref="A305:B305"/>
+    <mergeCell ref="D198:E198"/>
+    <mergeCell ref="D217:E217"/>
+    <mergeCell ref="D241:E241"/>
+    <mergeCell ref="A247:B247"/>
+    <mergeCell ref="A276:B276"/>
+    <mergeCell ref="A203:B203"/>
+    <mergeCell ref="A209:B209"/>
+    <mergeCell ref="A223:B223"/>
+    <mergeCell ref="A229:B229"/>
+    <mergeCell ref="D136:E136"/>
+    <mergeCell ref="D152:E152"/>
+    <mergeCell ref="D159:E159"/>
+    <mergeCell ref="D178:E178"/>
+    <mergeCell ref="D185:E185"/>
+    <mergeCell ref="D86:E86"/>
+    <mergeCell ref="D92:E92"/>
+    <mergeCell ref="D107:E107"/>
+    <mergeCell ref="D114:E114"/>
+    <mergeCell ref="D129:E129"/>
+    <mergeCell ref="D50:E50"/>
+    <mergeCell ref="D56:E56"/>
+    <mergeCell ref="D62:E62"/>
+    <mergeCell ref="D69:E69"/>
+    <mergeCell ref="D82:E82"/>
+    <mergeCell ref="G1:H1"/>
+    <mergeCell ref="G5:H5"/>
+    <mergeCell ref="D15:E15"/>
+    <mergeCell ref="D19:E19"/>
+    <mergeCell ref="D25:E25"/>
     <mergeCell ref="A55:B55"/>
     <mergeCell ref="A1:B1"/>
     <mergeCell ref="D1:E1"/>
@@ -10690,36 +10699,24 @@
     <mergeCell ref="D34:E34"/>
     <mergeCell ref="D40:E40"/>
     <mergeCell ref="D46:E46"/>
-    <mergeCell ref="G1:H1"/>
-    <mergeCell ref="G5:H5"/>
-    <mergeCell ref="D15:E15"/>
-    <mergeCell ref="D19:E19"/>
-    <mergeCell ref="D25:E25"/>
-    <mergeCell ref="D50:E50"/>
-    <mergeCell ref="D56:E56"/>
-    <mergeCell ref="D62:E62"/>
-    <mergeCell ref="D69:E69"/>
-    <mergeCell ref="D82:E82"/>
-    <mergeCell ref="D86:E86"/>
-    <mergeCell ref="D92:E92"/>
-    <mergeCell ref="D107:E107"/>
-    <mergeCell ref="D114:E114"/>
-    <mergeCell ref="D129:E129"/>
-    <mergeCell ref="D136:E136"/>
-    <mergeCell ref="D152:E152"/>
-    <mergeCell ref="D159:E159"/>
-    <mergeCell ref="D178:E178"/>
-    <mergeCell ref="D185:E185"/>
-    <mergeCell ref="A305:B305"/>
-    <mergeCell ref="D198:E198"/>
-    <mergeCell ref="D217:E217"/>
-    <mergeCell ref="D241:E241"/>
-    <mergeCell ref="A247:B247"/>
-    <mergeCell ref="A276:B276"/>
-    <mergeCell ref="A203:B203"/>
-    <mergeCell ref="A209:B209"/>
-    <mergeCell ref="A223:B223"/>
-    <mergeCell ref="A229:B229"/>
+    <mergeCell ref="A136:B136"/>
+    <mergeCell ref="A59:B59"/>
+    <mergeCell ref="A69:B69"/>
+    <mergeCell ref="A75:B75"/>
+    <mergeCell ref="A79:B79"/>
+    <mergeCell ref="A89:B89"/>
+    <mergeCell ref="A93:B93"/>
+    <mergeCell ref="A105:B105"/>
+    <mergeCell ref="A111:B111"/>
+    <mergeCell ref="A121:B121"/>
+    <mergeCell ref="A125:B125"/>
+    <mergeCell ref="A132:B132"/>
+    <mergeCell ref="A188:B188"/>
+    <mergeCell ref="A144:B144"/>
+    <mergeCell ref="A148:B148"/>
+    <mergeCell ref="A162:B162"/>
+    <mergeCell ref="A168:B168"/>
+    <mergeCell ref="A182:B182"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <extLst>
@@ -10791,10 +10788,10 @@
     </row>
     <row r="4" spans="1:4">
       <c r="A4" t="s">
-        <v>799</v>
+        <v>787</v>
       </c>
       <c r="B4" t="s">
-        <v>800</v>
+        <v>788</v>
       </c>
       <c r="C4" s="9" t="s">
         <v>7</v>
@@ -10805,10 +10802,10 @@
     </row>
     <row r="5" spans="1:4">
       <c r="A5" t="s">
-        <v>801</v>
+        <v>789</v>
       </c>
       <c r="B5" t="s">
-        <v>802</v>
+        <v>790</v>
       </c>
       <c r="C5" s="9" t="s">
         <v>7</v>
@@ -10819,10 +10816,10 @@
     </row>
     <row r="6" spans="1:4">
       <c r="A6" t="s">
-        <v>803</v>
+        <v>791</v>
       </c>
       <c r="B6" t="s">
-        <v>804</v>
+        <v>792</v>
       </c>
       <c r="C6" s="9" t="s">
         <v>7</v>

--- a/TestData.xlsx
+++ b/TestData.xlsx
@@ -1,16 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="19029"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="4" lowestEdited="5" rupBuild="4506"/>
   <workbookPr autoCompressPictures="0"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jibim\Downloads\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{D1F3BD6F-434B-4BB7-816A-30E684F70743}" xr6:coauthVersionLast="28" xr6:coauthVersionMax="28" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7530" tabRatio="990" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7530" tabRatio="990" activeTab="7"/>
   </bookViews>
   <sheets>
     <sheet name="Login_Credentials" sheetId="1" r:id="rId1"/>
@@ -33,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1781" uniqueCount="804">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1778" uniqueCount="807">
   <si>
     <t>TEST CASE NAME</t>
   </si>
@@ -2457,11 +2451,20 @@
   <si>
     <t>Empla#3</t>
   </si>
+  <si>
+    <t>/home/ubuntu/MYGrovo/TestData/test.jpg</t>
+  </si>
+  <si>
+    <t>/home/ubuntu/MYGrovo/TestData/test.wmv</t>
+  </si>
+  <si>
+    <t>/home/ubuntu/MYGrovo/TestData/test.pdf</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <fonts count="22">
     <font>
       <sz val="11"/>
@@ -2849,17 +2852,17 @@
     <xf numFmtId="0" fontId="21" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="20" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
@@ -2873,22 +2876,22 @@
     <xf numFmtId="0" fontId="9" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="9" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="20" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="20" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -2902,7 +2905,7 @@
     <cellStyle name="Followed Hyperlink" xfId="3" builtinId="9" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
-    <cellStyle name="Normal 2" xfId="2" xr:uid="{00000000-0005-0000-0000-000003000000}"/>
+    <cellStyle name="Normal 2" xfId="2"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleMedium4"/>
@@ -3306,7 +3309,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:AMK6"/>
   <sheetViews>
     <sheetView zoomScale="77" zoomScaleNormal="77" zoomScalePageLayoutView="77" workbookViewId="0">
@@ -3379,9 +3382,9 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="B2" r:id="rId1" xr:uid="{00000000-0004-0000-0000-000000000000}"/>
-    <hyperlink ref="C4" r:id="rId2" xr:uid="{00000000-0004-0000-0000-000001000000}"/>
-    <hyperlink ref="B4" r:id="rId3" xr:uid="{00000000-0004-0000-0000-000002000000}"/>
+    <hyperlink ref="B2" r:id="rId1"/>
+    <hyperlink ref="C4" r:id="rId2"/>
+    <hyperlink ref="B4" r:id="rId3"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.51180555555555496" footer="0.51180555555555496"/>
   <extLst>
@@ -3393,10 +3396,10 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:H5"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="E5" sqref="E5"/>
     </sheetView>
   </sheetViews>
@@ -3543,18 +3546,18 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="D2" r:id="rId1" xr:uid="{00000000-0004-0000-0100-000000000000}"/>
-    <hyperlink ref="G2" r:id="rId2" xr:uid="{00000000-0004-0000-0100-000001000000}"/>
-    <hyperlink ref="H2" r:id="rId3" xr:uid="{00000000-0004-0000-0100-000002000000}"/>
-    <hyperlink ref="D3" r:id="rId4" xr:uid="{00000000-0004-0000-0100-000003000000}"/>
-    <hyperlink ref="G3" r:id="rId5" xr:uid="{00000000-0004-0000-0100-000004000000}"/>
-    <hyperlink ref="H3" r:id="rId6" xr:uid="{00000000-0004-0000-0100-000005000000}"/>
-    <hyperlink ref="D4" r:id="rId7" xr:uid="{00000000-0004-0000-0100-000006000000}"/>
-    <hyperlink ref="G4" r:id="rId8" xr:uid="{00000000-0004-0000-0100-000007000000}"/>
-    <hyperlink ref="H4" r:id="rId9" xr:uid="{00000000-0004-0000-0100-000008000000}"/>
-    <hyperlink ref="D5" r:id="rId10" xr:uid="{00000000-0004-0000-0100-000009000000}"/>
-    <hyperlink ref="G5" r:id="rId11" xr:uid="{00000000-0004-0000-0100-00000A000000}"/>
-    <hyperlink ref="H5" r:id="rId12" xr:uid="{00000000-0004-0000-0100-00000B000000}"/>
+    <hyperlink ref="D2" r:id="rId1"/>
+    <hyperlink ref="G2" r:id="rId2"/>
+    <hyperlink ref="H2" r:id="rId3"/>
+    <hyperlink ref="D3" r:id="rId4"/>
+    <hyperlink ref="G3" r:id="rId5"/>
+    <hyperlink ref="H3" r:id="rId6"/>
+    <hyperlink ref="D4" r:id="rId7"/>
+    <hyperlink ref="G4" r:id="rId8"/>
+    <hyperlink ref="H4" r:id="rId9"/>
+    <hyperlink ref="D5" r:id="rId10"/>
+    <hyperlink ref="G5" r:id="rId11"/>
+    <hyperlink ref="H5" r:id="rId12"/>
   </hyperlinks>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <extLst>
@@ -3566,7 +3569,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:D15"/>
   <sheetViews>
     <sheetView topLeftCell="A2" workbookViewId="0">
@@ -3722,7 +3725,7 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="C2" r:id="rId1" xr:uid="{00000000-0004-0000-0200-000000000000}"/>
+    <hyperlink ref="C2" r:id="rId1"/>
   </hyperlinks>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <extLst>
@@ -3734,7 +3737,7 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:AMK103"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -3949,7 +3952,7 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:E167"/>
   <sheetViews>
     <sheetView topLeftCell="A166" workbookViewId="0">
@@ -4621,10 +4624,10 @@
       </c>
     </row>
     <row r="70" spans="1:4" ht="14.1" customHeight="1">
-      <c r="A70" s="52" t="s">
+      <c r="A70" s="53" t="s">
         <v>169</v>
       </c>
-      <c r="B70" s="53"/>
+      <c r="B70" s="54"/>
       <c r="C70" s="49" t="s">
         <v>170</v>
       </c>
@@ -4711,10 +4714,10 @@
       <c r="D77" s="11"/>
     </row>
     <row r="79" spans="1:4" ht="14.1" customHeight="1">
-      <c r="A79" s="52" t="s">
+      <c r="A79" s="53" t="s">
         <v>181</v>
       </c>
-      <c r="B79" s="53"/>
+      <c r="B79" s="54"/>
       <c r="C79" s="49" t="s">
         <v>182</v>
       </c>
@@ -5183,7 +5186,7 @@
       </c>
     </row>
     <row r="125" spans="1:4">
-      <c r="A125" s="54" t="s">
+      <c r="A125" s="52" t="s">
         <v>244</v>
       </c>
       <c r="B125" s="50"/>
@@ -5646,6 +5649,34 @@
     </row>
   </sheetData>
   <mergeCells count="38">
+    <mergeCell ref="C92:D92"/>
+    <mergeCell ref="C96:D96"/>
+    <mergeCell ref="A103:B103"/>
+    <mergeCell ref="C103:D103"/>
+    <mergeCell ref="C73:D73"/>
+    <mergeCell ref="A79:B79"/>
+    <mergeCell ref="C79:D79"/>
+    <mergeCell ref="C82:D82"/>
+    <mergeCell ref="A88:B88"/>
+    <mergeCell ref="C88:D88"/>
+    <mergeCell ref="A52:B52"/>
+    <mergeCell ref="C52:D52"/>
+    <mergeCell ref="A60:B60"/>
+    <mergeCell ref="C60:D60"/>
+    <mergeCell ref="A70:B70"/>
+    <mergeCell ref="C70:D70"/>
+    <mergeCell ref="A26:B26"/>
+    <mergeCell ref="C26:D26"/>
+    <mergeCell ref="A34:B34"/>
+    <mergeCell ref="C34:D34"/>
+    <mergeCell ref="A43:B43"/>
+    <mergeCell ref="C43:D43"/>
+    <mergeCell ref="A1:B1"/>
+    <mergeCell ref="C1:D1"/>
+    <mergeCell ref="A10:B10"/>
+    <mergeCell ref="C10:D10"/>
+    <mergeCell ref="A18:B18"/>
+    <mergeCell ref="C18:D18"/>
     <mergeCell ref="A144:B144"/>
     <mergeCell ref="C144:D144"/>
     <mergeCell ref="A157:B157"/>
@@ -5656,34 +5687,6 @@
     <mergeCell ref="A125:B125"/>
     <mergeCell ref="A131:B131"/>
     <mergeCell ref="C131:D131"/>
-    <mergeCell ref="A1:B1"/>
-    <mergeCell ref="C1:D1"/>
-    <mergeCell ref="A10:B10"/>
-    <mergeCell ref="C10:D10"/>
-    <mergeCell ref="A18:B18"/>
-    <mergeCell ref="C18:D18"/>
-    <mergeCell ref="A26:B26"/>
-    <mergeCell ref="C26:D26"/>
-    <mergeCell ref="A34:B34"/>
-    <mergeCell ref="C34:D34"/>
-    <mergeCell ref="A43:B43"/>
-    <mergeCell ref="C43:D43"/>
-    <mergeCell ref="A52:B52"/>
-    <mergeCell ref="C52:D52"/>
-    <mergeCell ref="A60:B60"/>
-    <mergeCell ref="C60:D60"/>
-    <mergeCell ref="A70:B70"/>
-    <mergeCell ref="C70:D70"/>
-    <mergeCell ref="C92:D92"/>
-    <mergeCell ref="C96:D96"/>
-    <mergeCell ref="A103:B103"/>
-    <mergeCell ref="C103:D103"/>
-    <mergeCell ref="C73:D73"/>
-    <mergeCell ref="A79:B79"/>
-    <mergeCell ref="C79:D79"/>
-    <mergeCell ref="C82:D82"/>
-    <mergeCell ref="A88:B88"/>
-    <mergeCell ref="C88:D88"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <extLst>
@@ -5695,7 +5698,7 @@
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:J52"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -6287,7 +6290,7 @@
 </file>
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0600-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:E35"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -6828,11 +6831,11 @@
 </file>
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0700-000000000000}">
-  <dimension ref="A1:H331"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:H329"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C232" sqref="C232"/>
+    <sheetView tabSelected="1" topLeftCell="A288" workbookViewId="0">
+      <selection activeCell="D298" sqref="D298"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -6849,18 +6852,18 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:8">
-      <c r="A1" s="55" t="s">
+      <c r="A1" s="57" t="s">
         <v>459</v>
       </c>
-      <c r="B1" s="55"/>
-      <c r="D1" s="56" t="s">
+      <c r="B1" s="57"/>
+      <c r="D1" s="55" t="s">
         <v>460</v>
       </c>
-      <c r="E1" s="57"/>
-      <c r="G1" s="56" t="s">
+      <c r="E1" s="56"/>
+      <c r="G1" s="55" t="s">
         <v>614</v>
       </c>
-      <c r="H1" s="57"/>
+      <c r="H1" s="56"/>
     </row>
     <row r="2" spans="1:8" ht="30" customHeight="1">
       <c r="A2" s="42" t="s">
@@ -6929,10 +6932,10 @@
       <c r="B5" s="43" t="s">
         <v>473</v>
       </c>
-      <c r="D5" s="56" t="s">
+      <c r="D5" s="55" t="s">
         <v>474</v>
       </c>
-      <c r="E5" s="57"/>
+      <c r="E5" s="56"/>
       <c r="G5" s="58" t="s">
         <v>618</v>
       </c>
@@ -6975,7 +6978,7 @@
         <v>147</v>
       </c>
       <c r="H7" s="42" t="s">
-        <v>455</v>
+        <v>804</v>
       </c>
     </row>
     <row r="8" spans="1:8" ht="30">
@@ -7033,10 +7036,10 @@
       </c>
       <c r="D11" s="42"/>
       <c r="E11" s="42"/>
-      <c r="G11" s="44" t="s">
+      <c r="G11" s="46" t="s">
         <v>474</v>
       </c>
-      <c r="H11" s="45"/>
+      <c r="H11" s="47"/>
     </row>
     <row r="12" spans="1:8" ht="30">
       <c r="A12" s="42"/>
@@ -7061,16 +7064,16 @@
       </c>
     </row>
     <row r="15" spans="1:8">
-      <c r="D15" s="56" t="s">
+      <c r="D15" s="55" t="s">
         <v>625</v>
       </c>
-      <c r="E15" s="57"/>
+      <c r="E15" s="56"/>
     </row>
     <row r="16" spans="1:8" ht="30">
-      <c r="A16" s="56" t="s">
+      <c r="A16" s="55" t="s">
         <v>489</v>
       </c>
-      <c r="B16" s="57"/>
+      <c r="B16" s="56"/>
       <c r="D16" s="42" t="s">
         <v>463</v>
       </c>
@@ -7119,10 +7122,10 @@
       <c r="E19" s="59"/>
     </row>
     <row r="20" spans="1:5">
-      <c r="A20" s="56" t="s">
+      <c r="A20" s="55" t="s">
         <v>474</v>
       </c>
-      <c r="B20" s="57"/>
+      <c r="B20" s="56"/>
       <c r="D20" s="42" t="s">
         <v>99</v>
       </c>
@@ -7141,7 +7144,7 @@
         <v>147</v>
       </c>
       <c r="E21" s="42" t="s">
-        <v>455</v>
+        <v>804</v>
       </c>
     </row>
     <row r="22" spans="1:5" ht="30">
@@ -7149,7 +7152,7 @@
         <v>494</v>
       </c>
       <c r="B22" s="42" t="s">
-        <v>455</v>
+        <v>804</v>
       </c>
       <c r="D22" s="42" t="s">
         <v>105</v>
@@ -7183,10 +7186,10 @@
       <c r="E25" s="59"/>
     </row>
     <row r="26" spans="1:5" ht="18.75" customHeight="1">
-      <c r="A26" s="56" t="s">
+      <c r="A26" s="55" t="s">
         <v>495</v>
       </c>
-      <c r="B26" s="57"/>
+      <c r="B26" s="56"/>
       <c r="D26" s="42" t="s">
         <v>23</v>
       </c>
@@ -7205,7 +7208,7 @@
         <v>147</v>
       </c>
       <c r="E27" s="42" t="s">
-        <v>455</v>
+        <v>804</v>
       </c>
     </row>
     <row r="28" spans="1:5">
@@ -7224,15 +7227,15 @@
         <v>498</v>
       </c>
     </row>
-    <row r="30" spans="1:5">
-      <c r="A30" s="56" t="s">
+    <row r="30" spans="1:5" ht="15" customHeight="1">
+      <c r="A30" s="55" t="s">
         <v>474</v>
       </c>
-      <c r="B30" s="57"/>
-      <c r="D30" s="56" t="s">
+      <c r="B30" s="56"/>
+      <c r="D30" s="55" t="s">
         <v>633</v>
       </c>
-      <c r="E30" s="57"/>
+      <c r="E30" s="56"/>
     </row>
     <row r="31" spans="1:5" ht="30">
       <c r="A31" s="42" t="s">
@@ -7253,7 +7256,7 @@
         <v>500</v>
       </c>
       <c r="B32" s="42" t="s">
-        <v>456</v>
+        <v>805</v>
       </c>
       <c r="D32" s="42" t="s">
         <v>467</v>
@@ -7283,10 +7286,10 @@
       <c r="E34" s="59"/>
     </row>
     <row r="35" spans="1:5" ht="18.75" customHeight="1">
-      <c r="A35" s="56" t="s">
+      <c r="A35" s="55" t="s">
         <v>501</v>
       </c>
-      <c r="B35" s="57"/>
+      <c r="B35" s="56"/>
       <c r="D35" s="42" t="s">
         <v>99</v>
       </c>
@@ -7305,7 +7308,7 @@
         <v>147</v>
       </c>
       <c r="E36" s="42" t="s">
-        <v>455</v>
+        <v>804</v>
       </c>
     </row>
     <row r="37" spans="1:5" ht="30">
@@ -7337,10 +7340,10 @@
       </c>
     </row>
     <row r="39" spans="1:5" ht="45">
-      <c r="A39" s="56" t="s">
+      <c r="A39" s="55" t="s">
         <v>474</v>
       </c>
-      <c r="B39" s="57"/>
+      <c r="B39" s="56"/>
       <c r="D39" s="42" t="s">
         <v>621</v>
       </c>
@@ -7365,7 +7368,7 @@
         <v>500</v>
       </c>
       <c r="B41" s="42" t="s">
-        <v>457</v>
+        <v>806</v>
       </c>
       <c r="D41" s="42" t="s">
         <v>23</v>
@@ -7385,7 +7388,7 @@
         <v>557</v>
       </c>
       <c r="E42" s="42" t="s">
-        <v>456</v>
+        <v>805</v>
       </c>
     </row>
     <row r="43" spans="1:5">
@@ -7397,10 +7400,10 @@
       </c>
     </row>
     <row r="44" spans="1:5" ht="18.75" customHeight="1">
-      <c r="A44" s="56" t="s">
+      <c r="A44" s="55" t="s">
         <v>506</v>
       </c>
-      <c r="B44" s="57"/>
+      <c r="B44" s="56"/>
     </row>
     <row r="45" spans="1:5">
       <c r="A45" s="42" t="s">
@@ -7410,17 +7413,17 @@
         <v>507</v>
       </c>
     </row>
-    <row r="46" spans="1:5">
+    <row r="46" spans="1:5" ht="15" customHeight="1">
       <c r="A46" s="42" t="s">
         <v>467</v>
       </c>
       <c r="B46" s="42" t="s">
         <v>508</v>
       </c>
-      <c r="D46" s="56" t="s">
+      <c r="D46" s="55" t="s">
         <v>641</v>
       </c>
-      <c r="E46" s="57"/>
+      <c r="E46" s="56"/>
     </row>
     <row r="47" spans="1:5" ht="30">
       <c r="A47" s="42" t="s">
@@ -7437,10 +7440,10 @@
       </c>
     </row>
     <row r="48" spans="1:5" ht="30">
-      <c r="A48" s="56" t="s">
+      <c r="A48" s="55" t="s">
         <v>474</v>
       </c>
-      <c r="B48" s="57"/>
+      <c r="B48" s="56"/>
       <c r="D48" s="42" t="s">
         <v>467</v>
       </c>
@@ -7499,7 +7502,7 @@
         <v>147</v>
       </c>
       <c r="E52" s="42" t="s">
-        <v>455</v>
+        <v>804</v>
       </c>
     </row>
     <row r="53" spans="1:5" ht="30">
@@ -7525,10 +7528,10 @@
       </c>
     </row>
     <row r="55" spans="1:5" ht="18.75" customHeight="1">
-      <c r="A55" s="56" t="s">
+      <c r="A55" s="55" t="s">
         <v>514</v>
       </c>
-      <c r="B55" s="57"/>
+      <c r="B55" s="56"/>
       <c r="D55" s="42" t="s">
         <v>621</v>
       </c>
@@ -7573,14 +7576,14 @@
         <v>564</v>
       </c>
       <c r="E58" s="42" t="s">
-        <v>457</v>
+        <v>806</v>
       </c>
     </row>
     <row r="59" spans="1:5">
-      <c r="A59" s="56" t="s">
+      <c r="A59" s="55" t="s">
         <v>474</v>
       </c>
-      <c r="B59" s="57"/>
+      <c r="B59" s="56"/>
       <c r="D59" s="42" t="s">
         <v>139</v>
       </c>
@@ -7604,24 +7607,24 @@
         <v>519</v>
       </c>
     </row>
-    <row r="62" spans="1:5" ht="30">
+    <row r="62" spans="1:5">
       <c r="A62" s="42" t="s">
         <v>180</v>
       </c>
       <c r="B62" s="42" t="s">
-        <v>455</v>
-      </c>
-      <c r="D62" s="56" t="s">
+        <v>804</v>
+      </c>
+      <c r="D62" s="55" t="s">
         <v>649</v>
       </c>
-      <c r="E62" s="57"/>
+      <c r="E62" s="56"/>
     </row>
     <row r="63" spans="1:5" ht="30">
       <c r="A63" s="42" t="s">
         <v>191</v>
       </c>
       <c r="B63" s="42" t="s">
-        <v>456</v>
+        <v>805</v>
       </c>
       <c r="D63" s="42" t="s">
         <v>463</v>
@@ -7649,7 +7652,7 @@
         <v>277</v>
       </c>
       <c r="B65" s="42" t="s">
-        <v>457</v>
+        <v>806</v>
       </c>
       <c r="D65" s="42" t="s">
         <v>109</v>
@@ -7701,10 +7704,10 @@
       </c>
     </row>
     <row r="69" spans="1:5">
-      <c r="A69" s="55" t="s">
+      <c r="A69" s="57" t="s">
         <v>520</v>
       </c>
-      <c r="B69" s="55"/>
+      <c r="B69" s="57"/>
       <c r="D69" s="58" t="s">
         <v>618</v>
       </c>
@@ -7735,7 +7738,7 @@
         <v>147</v>
       </c>
       <c r="E71" s="42" t="s">
-        <v>455</v>
+        <v>804</v>
       </c>
     </row>
     <row r="72" spans="1:5" ht="30">
@@ -7769,14 +7772,14 @@
       </c>
     </row>
     <row r="75" spans="1:5" ht="18.75" customHeight="1">
-      <c r="A75" s="56" t="s">
+      <c r="A75" s="55" t="s">
         <v>524</v>
       </c>
-      <c r="B75" s="57"/>
-      <c r="D75" s="44" t="s">
+      <c r="B75" s="56"/>
+      <c r="D75" s="46" t="s">
         <v>474</v>
       </c>
-      <c r="E75" s="45"/>
+      <c r="E75" s="47"/>
     </row>
     <row r="76" spans="1:5" ht="30">
       <c r="A76" s="42" t="s">
@@ -7821,10 +7824,10 @@
       </c>
     </row>
     <row r="79" spans="1:5">
-      <c r="A79" s="56" t="s">
+      <c r="A79" s="55" t="s">
         <v>474</v>
       </c>
-      <c r="B79" s="57"/>
+      <c r="B79" s="56"/>
       <c r="D79" s="42" t="s">
         <v>661</v>
       </c>
@@ -7848,18 +7851,18 @@
         <v>519</v>
       </c>
     </row>
-    <row r="82" spans="1:6" ht="30">
+    <row r="82" spans="1:6">
       <c r="A82" s="42" t="s">
         <v>180</v>
       </c>
       <c r="B82" s="42" t="s">
-        <v>455</v>
-      </c>
-      <c r="D82" s="56" t="s">
+        <v>804</v>
+      </c>
+      <c r="D82" s="55" t="s">
         <v>663</v>
       </c>
-      <c r="E82" s="57"/>
-      <c r="F82" s="46" t="s">
+      <c r="E82" s="56"/>
+      <c r="F82" s="44" t="s">
         <v>664</v>
       </c>
     </row>
@@ -7925,7 +7928,7 @@
         <v>618</v>
       </c>
       <c r="E86" s="59"/>
-      <c r="F86" s="47" t="s">
+      <c r="F86" s="45" t="s">
         <v>618</v>
       </c>
     </row>
@@ -7945,15 +7948,15 @@
         <v>147</v>
       </c>
       <c r="E88" s="42" t="s">
-        <v>455</v>
+        <v>804</v>
       </c>
       <c r="F88" s="42"/>
     </row>
     <row r="89" spans="1:6" ht="18.75" customHeight="1">
-      <c r="A89" s="56" t="s">
+      <c r="A89" s="55" t="s">
         <v>530</v>
       </c>
-      <c r="B89" s="57"/>
+      <c r="B89" s="56"/>
       <c r="D89" s="42" t="s">
         <v>105</v>
       </c>
@@ -8007,15 +8010,15 @@
         <v>474</v>
       </c>
       <c r="E92" s="59"/>
-      <c r="F92" s="47" t="s">
+      <c r="F92" s="45" t="s">
         <v>474</v>
       </c>
     </row>
     <row r="93" spans="1:6" ht="30">
-      <c r="A93" s="56" t="s">
+      <c r="A93" s="55" t="s">
         <v>474</v>
       </c>
-      <c r="B93" s="57"/>
+      <c r="B93" s="56"/>
       <c r="D93" s="42" t="s">
         <v>23</v>
       </c>
@@ -8051,7 +8054,7 @@
         <v>147</v>
       </c>
       <c r="E95" s="42" t="s">
-        <v>455</v>
+        <v>804</v>
       </c>
     </row>
     <row r="96" spans="1:6" ht="30">
@@ -8059,13 +8062,13 @@
         <v>191</v>
       </c>
       <c r="B96" s="42" t="s">
-        <v>456</v>
+        <v>805</v>
       </c>
       <c r="D96" s="42" t="s">
         <v>557</v>
       </c>
       <c r="E96" s="42" t="s">
-        <v>456</v>
+        <v>805</v>
       </c>
     </row>
     <row r="97" spans="1:5">
@@ -8093,7 +8096,7 @@
         <v>564</v>
       </c>
       <c r="E98" s="42" t="s">
-        <v>457</v>
+        <v>806</v>
       </c>
     </row>
     <row r="99" spans="1:5">
@@ -8169,10 +8172,10 @@
       </c>
     </row>
     <row r="105" spans="1:5" ht="18.75" customHeight="1">
-      <c r="A105" s="55" t="s">
+      <c r="A105" s="57" t="s">
         <v>537</v>
       </c>
-      <c r="B105" s="55"/>
+      <c r="B105" s="57"/>
       <c r="D105" s="42" t="s">
         <v>683</v>
       </c>
@@ -8195,10 +8198,10 @@
       <c r="B107" s="42" t="s">
         <v>539</v>
       </c>
-      <c r="D107" s="56" t="s">
+      <c r="D107" s="55" t="s">
         <v>684</v>
       </c>
-      <c r="E107" s="57"/>
+      <c r="E107" s="56"/>
     </row>
     <row r="108" spans="1:5" ht="30">
       <c r="A108" s="42" t="s">
@@ -8243,10 +8246,10 @@
       </c>
     </row>
     <row r="111" spans="1:5">
-      <c r="A111" s="55" t="s">
+      <c r="A111" s="57" t="s">
         <v>474</v>
       </c>
-      <c r="B111" s="55"/>
+      <c r="B111" s="57"/>
       <c r="D111" s="42" t="s">
         <v>681</v>
       </c>
@@ -8268,12 +8271,12 @@
         <v>3</v>
       </c>
     </row>
-    <row r="113" spans="1:5" ht="30">
+    <row r="113" spans="1:5">
       <c r="A113" s="42" t="s">
         <v>191</v>
       </c>
       <c r="B113" s="42" t="s">
-        <v>456</v>
+        <v>805</v>
       </c>
       <c r="D113" s="42" t="s">
         <v>682</v>
@@ -8299,7 +8302,7 @@
         <v>277</v>
       </c>
       <c r="B115" s="42" t="s">
-        <v>457</v>
+        <v>806</v>
       </c>
       <c r="D115" s="42" t="s">
         <v>99</v>
@@ -8319,7 +8322,7 @@
         <v>147</v>
       </c>
       <c r="E116" s="42" t="s">
-        <v>455</v>
+        <v>804</v>
       </c>
     </row>
     <row r="117" spans="1:5" ht="30">
@@ -8359,16 +8362,16 @@
       </c>
     </row>
     <row r="120" spans="1:5">
-      <c r="D120" s="44" t="s">
+      <c r="D120" s="46" t="s">
         <v>474</v>
       </c>
-      <c r="E120" s="45"/>
+      <c r="E120" s="47"/>
     </row>
     <row r="121" spans="1:5" ht="18.75" customHeight="1">
-      <c r="A121" s="55" t="s">
+      <c r="A121" s="57" t="s">
         <v>542</v>
       </c>
-      <c r="B121" s="55"/>
+      <c r="B121" s="57"/>
       <c r="D121" s="42" t="s">
         <v>23</v>
       </c>
@@ -8401,7 +8404,7 @@
         <v>147</v>
       </c>
       <c r="E123" s="42" t="s">
-        <v>455</v>
+        <v>804</v>
       </c>
     </row>
     <row r="124" spans="1:5" ht="30">
@@ -8419,10 +8422,10 @@
       </c>
     </row>
     <row r="125" spans="1:5">
-      <c r="A125" s="55" t="s">
+      <c r="A125" s="57" t="s">
         <v>474</v>
       </c>
-      <c r="B125" s="55"/>
+      <c r="B125" s="57"/>
       <c r="D125" s="42" t="s">
         <v>659</v>
       </c>
@@ -8460,17 +8463,17 @@
         <v>550</v>
       </c>
     </row>
-    <row r="129" spans="1:5" ht="30">
+    <row r="129" spans="1:5">
       <c r="A129" s="42" t="s">
         <v>180</v>
       </c>
       <c r="B129" s="42" t="s">
-        <v>455</v>
-      </c>
-      <c r="D129" s="56" t="s">
+        <v>804</v>
+      </c>
+      <c r="D129" s="55" t="s">
         <v>692</v>
       </c>
-      <c r="E129" s="57"/>
+      <c r="E129" s="56"/>
     </row>
     <row r="130" spans="1:5" ht="30">
       <c r="D130" s="42" t="s">
@@ -8489,10 +8492,10 @@
       </c>
     </row>
     <row r="132" spans="1:5" ht="18.75" customHeight="1">
-      <c r="A132" s="55" t="s">
+      <c r="A132" s="57" t="s">
         <v>551</v>
       </c>
-      <c r="B132" s="55"/>
+      <c r="B132" s="57"/>
       <c r="D132" s="42" t="s">
         <v>109</v>
       </c>
@@ -8543,10 +8546,10 @@
       </c>
     </row>
     <row r="136" spans="1:5">
-      <c r="A136" s="55" t="s">
+      <c r="A136" s="57" t="s">
         <v>474</v>
       </c>
-      <c r="B136" s="55"/>
+      <c r="B136" s="57"/>
       <c r="D136" s="58" t="s">
         <v>618</v>
       </c>
@@ -8571,13 +8574,13 @@
         <v>236</v>
       </c>
       <c r="B138" s="42" t="s">
-        <v>455</v>
+        <v>804</v>
       </c>
       <c r="D138" s="42" t="s">
         <v>147</v>
       </c>
       <c r="E138" s="42" t="s">
-        <v>455</v>
+        <v>804</v>
       </c>
     </row>
     <row r="139" spans="1:5" ht="30">
@@ -8594,12 +8597,12 @@
         <v>697</v>
       </c>
     </row>
-    <row r="140" spans="1:5" ht="30">
+    <row r="140" spans="1:5">
       <c r="A140" s="42" t="s">
         <v>557</v>
       </c>
       <c r="B140" s="42" t="s">
-        <v>456</v>
+        <v>805</v>
       </c>
       <c r="D140" s="42" t="s">
         <v>378</v>
@@ -8623,10 +8626,10 @@
       </c>
     </row>
     <row r="142" spans="1:5">
-      <c r="D142" s="44" t="s">
+      <c r="D142" s="46" t="s">
         <v>474</v>
       </c>
-      <c r="E142" s="45"/>
+      <c r="E142" s="47"/>
     </row>
     <row r="143" spans="1:5" ht="30">
       <c r="D143" s="42" t="s">
@@ -8637,10 +8640,10 @@
       </c>
     </row>
     <row r="144" spans="1:5" ht="18.75" customHeight="1">
-      <c r="A144" s="55" t="s">
+      <c r="A144" s="57" t="s">
         <v>558</v>
       </c>
-      <c r="B144" s="55"/>
+      <c r="B144" s="57"/>
       <c r="D144" s="42" t="s">
         <v>165</v>
       </c>
@@ -8659,7 +8662,7 @@
         <v>557</v>
       </c>
       <c r="E145" s="42" t="s">
-        <v>456</v>
+        <v>805</v>
       </c>
     </row>
     <row r="146" spans="1:5" ht="30">
@@ -8691,10 +8694,10 @@
       </c>
     </row>
     <row r="148" spans="1:5">
-      <c r="A148" s="55" t="s">
+      <c r="A148" s="57" t="s">
         <v>474</v>
       </c>
-      <c r="B148" s="55"/>
+      <c r="B148" s="57"/>
       <c r="D148" s="42" t="s">
         <v>659</v>
       </c>
@@ -8716,12 +8719,12 @@
         <v>662</v>
       </c>
     </row>
-    <row r="150" spans="1:5" ht="30">
+    <row r="150" spans="1:5">
       <c r="A150" s="42" t="s">
         <v>557</v>
       </c>
       <c r="B150" s="42" t="s">
-        <v>456</v>
+        <v>805</v>
       </c>
     </row>
     <row r="151" spans="1:5">
@@ -8732,24 +8735,24 @@
         <v>200</v>
       </c>
     </row>
-    <row r="152" spans="1:5">
+    <row r="152" spans="1:5" ht="15" customHeight="1">
       <c r="A152" s="42" t="s">
         <v>549</v>
       </c>
       <c r="B152" s="42" t="s">
         <v>563</v>
       </c>
-      <c r="D152" s="56" t="s">
+      <c r="D152" s="55" t="s">
         <v>700</v>
       </c>
-      <c r="E152" s="57"/>
+      <c r="E152" s="56"/>
     </row>
     <row r="153" spans="1:5" ht="30">
       <c r="A153" s="42" t="s">
         <v>564</v>
       </c>
       <c r="B153" s="42" t="s">
-        <v>457</v>
+        <v>806</v>
       </c>
       <c r="D153" s="42" t="s">
         <v>463</v>
@@ -8853,14 +8856,14 @@
         <v>147</v>
       </c>
       <c r="E161" s="42" t="s">
-        <v>455</v>
+        <v>804</v>
       </c>
     </row>
     <row r="162" spans="1:5" ht="18.75" customHeight="1">
-      <c r="A162" s="55" t="s">
+      <c r="A162" s="57" t="s">
         <v>567</v>
       </c>
-      <c r="B162" s="55"/>
+      <c r="B162" s="57"/>
       <c r="D162" s="42" t="s">
         <v>105</v>
       </c>
@@ -8903,10 +8906,10 @@
       <c r="B165" s="42" t="s">
         <v>570</v>
       </c>
-      <c r="D165" s="44" t="s">
+      <c r="D165" s="46" t="s">
         <v>474</v>
       </c>
-      <c r="E165" s="45"/>
+      <c r="E165" s="47"/>
     </row>
     <row r="166" spans="1:5" ht="30">
       <c r="A166" s="42" t="s">
@@ -8937,15 +8940,15 @@
       </c>
     </row>
     <row r="168" spans="1:5" ht="30">
-      <c r="A168" s="55" t="s">
+      <c r="A168" s="57" t="s">
         <v>474</v>
       </c>
-      <c r="B168" s="55"/>
+      <c r="B168" s="57"/>
       <c r="D168" s="42" t="s">
         <v>557</v>
       </c>
       <c r="E168" s="42" t="s">
-        <v>456</v>
+        <v>805</v>
       </c>
     </row>
     <row r="169" spans="1:5">
@@ -8973,7 +8976,7 @@
         <v>277</v>
       </c>
       <c r="E170" s="42" t="s">
-        <v>457</v>
+        <v>806</v>
       </c>
     </row>
     <row r="171" spans="1:5">
@@ -9004,12 +9007,12 @@
         <v>658</v>
       </c>
     </row>
-    <row r="173" spans="1:5" ht="30">
+    <row r="173" spans="1:5">
       <c r="A173" s="42" t="s">
         <v>147</v>
       </c>
       <c r="B173" s="42" t="s">
-        <v>455</v>
+        <v>804</v>
       </c>
       <c r="D173" s="42" t="s">
         <v>659</v>
@@ -9018,12 +9021,12 @@
         <v>660</v>
       </c>
     </row>
-    <row r="174" spans="1:5" ht="30">
+    <row r="174" spans="1:5">
       <c r="A174" s="42" t="s">
         <v>557</v>
       </c>
       <c r="B174" s="42" t="s">
-        <v>456</v>
+        <v>805</v>
       </c>
       <c r="D174" s="42" t="s">
         <v>661</v>
@@ -9042,12 +9045,12 @@
       <c r="D175" s="42"/>
       <c r="E175" s="42"/>
     </row>
-    <row r="176" spans="1:5" ht="30">
+    <row r="176" spans="1:5">
       <c r="A176" s="42" t="s">
         <v>564</v>
       </c>
       <c r="B176" s="42" t="s">
-        <v>457</v>
+        <v>806</v>
       </c>
     </row>
     <row r="177" spans="1:5">
@@ -9058,17 +9061,17 @@
         <v>214</v>
       </c>
     </row>
-    <row r="178" spans="1:5">
+    <row r="178" spans="1:5" ht="15" customHeight="1">
       <c r="A178" s="42" t="s">
         <v>151</v>
       </c>
       <c r="B178" s="42" t="s">
         <v>25</v>
       </c>
-      <c r="D178" s="56" t="s">
+      <c r="D178" s="55" t="s">
         <v>709</v>
       </c>
-      <c r="E178" s="57"/>
+      <c r="E178" s="56"/>
     </row>
     <row r="179" spans="1:5" ht="30">
       <c r="A179" s="42" t="s">
@@ -9101,10 +9104,10 @@
       </c>
     </row>
     <row r="182" spans="1:5" ht="18.75" customHeight="1">
-      <c r="A182" s="55" t="s">
+      <c r="A182" s="57" t="s">
         <v>575</v>
       </c>
-      <c r="B182" s="55"/>
+      <c r="B182" s="57"/>
       <c r="D182" s="42" t="s">
         <v>681</v>
       </c>
@@ -9177,14 +9180,14 @@
         <v>147</v>
       </c>
       <c r="E187" s="42" t="s">
-        <v>455</v>
+        <v>804</v>
       </c>
     </row>
     <row r="188" spans="1:5" ht="30">
-      <c r="A188" s="55" t="s">
+      <c r="A188" s="57" t="s">
         <v>474</v>
       </c>
-      <c r="B188" s="55"/>
+      <c r="B188" s="57"/>
       <c r="D188" s="42" t="s">
         <v>105</v>
       </c>
@@ -9227,10 +9230,10 @@
       <c r="B191" s="42" t="s">
         <v>581</v>
       </c>
-      <c r="D191" s="44" t="s">
+      <c r="D191" s="46" t="s">
         <v>474</v>
       </c>
-      <c r="E191" s="45"/>
+      <c r="E191" s="47"/>
     </row>
     <row r="192" spans="1:5" ht="30">
       <c r="A192" s="42" t="s">
@@ -9265,7 +9268,7 @@
         <v>147</v>
       </c>
       <c r="B194" s="42" t="s">
-        <v>455</v>
+        <v>804</v>
       </c>
       <c r="D194" s="42" t="s">
         <v>549</v>
@@ -9279,13 +9282,13 @@
         <v>557</v>
       </c>
       <c r="B195" s="42" t="s">
-        <v>456</v>
+        <v>805</v>
       </c>
       <c r="D195" s="42" t="s">
         <v>147</v>
       </c>
       <c r="E195" s="42" t="s">
-        <v>455</v>
+        <v>804</v>
       </c>
     </row>
     <row r="196" spans="1:5">
@@ -9296,25 +9299,25 @@
         <v>200</v>
       </c>
     </row>
-    <row r="197" spans="1:5" ht="30">
+    <row r="197" spans="1:5">
       <c r="A197" s="42" t="s">
         <v>564</v>
       </c>
       <c r="B197" s="42" t="s">
-        <v>457</v>
-      </c>
-    </row>
-    <row r="198" spans="1:5">
+        <v>806</v>
+      </c>
+    </row>
+    <row r="198" spans="1:5" ht="15" customHeight="1">
       <c r="A198" s="42" t="s">
         <v>24</v>
       </c>
       <c r="B198" s="42" t="s">
         <v>214</v>
       </c>
-      <c r="D198" s="56" t="s">
+      <c r="D198" s="55" t="s">
         <v>719</v>
       </c>
-      <c r="E198" s="57"/>
+      <c r="E198" s="56"/>
     </row>
     <row r="199" spans="1:5" ht="30">
       <c r="A199" s="42" t="s">
@@ -9367,14 +9370,14 @@
       </c>
     </row>
     <row r="203" spans="1:5" ht="18.75" customHeight="1">
-      <c r="A203" s="55" t="s">
+      <c r="A203" s="57" t="s">
         <v>586</v>
       </c>
-      <c r="B203" s="55"/>
-      <c r="D203" s="44" t="s">
+      <c r="B203" s="57"/>
+      <c r="D203" s="46" t="s">
         <v>618</v>
       </c>
-      <c r="E203" s="45"/>
+      <c r="E203" s="47"/>
     </row>
     <row r="204" spans="1:5" ht="30">
       <c r="A204" s="42" t="s">
@@ -9401,7 +9404,7 @@
         <v>147</v>
       </c>
       <c r="E205" s="42" t="s">
-        <v>455</v>
+        <v>804</v>
       </c>
     </row>
     <row r="206" spans="1:5" ht="30">
@@ -9447,14 +9450,14 @@
       </c>
     </row>
     <row r="209" spans="1:5">
-      <c r="A209" s="55" t="s">
+      <c r="A209" s="57" t="s">
         <v>474</v>
       </c>
-      <c r="B209" s="55"/>
-      <c r="D209" s="44" t="s">
+      <c r="B209" s="57"/>
+      <c r="D209" s="46" t="s">
         <v>474</v>
       </c>
-      <c r="E209" s="45"/>
+      <c r="E209" s="47"/>
     </row>
     <row r="210" spans="1:5" ht="30">
       <c r="A210" s="42" t="s">
@@ -9481,7 +9484,7 @@
         <v>147</v>
       </c>
       <c r="E211" s="42" t="s">
-        <v>455</v>
+        <v>804</v>
       </c>
     </row>
     <row r="212" spans="1:5" ht="30">
@@ -9509,7 +9512,7 @@
         <v>191</v>
       </c>
       <c r="E213" s="42" t="s">
-        <v>456</v>
+        <v>805</v>
       </c>
     </row>
     <row r="214" spans="1:5">
@@ -9526,33 +9529,33 @@
         <v>200</v>
       </c>
     </row>
-    <row r="215" spans="1:5" ht="30">
+    <row r="215" spans="1:5">
       <c r="A215" s="42" t="s">
         <v>147</v>
       </c>
       <c r="B215" s="42" t="s">
-        <v>455</v>
-      </c>
-    </row>
-    <row r="216" spans="1:5" ht="30">
+        <v>804</v>
+      </c>
+    </row>
+    <row r="216" spans="1:5">
       <c r="A216" s="42" t="s">
         <v>557</v>
       </c>
       <c r="B216" s="42" t="s">
-        <v>456</v>
-      </c>
-    </row>
-    <row r="217" spans="1:5">
+        <v>805</v>
+      </c>
+    </row>
+    <row r="217" spans="1:5" ht="15" customHeight="1">
       <c r="A217" s="42" t="s">
         <v>132</v>
       </c>
       <c r="B217" s="42">
         <v>200</v>
       </c>
-      <c r="D217" s="56" t="s">
+      <c r="D217" s="55" t="s">
         <v>728</v>
       </c>
-      <c r="E217" s="57"/>
+      <c r="E217" s="56"/>
     </row>
     <row r="218" spans="1:5" ht="30">
       <c r="A218" s="42" t="s">
@@ -9605,16 +9608,16 @@
       </c>
     </row>
     <row r="222" spans="1:5">
-      <c r="D222" s="44" t="s">
+      <c r="D222" s="46" t="s">
         <v>618</v>
       </c>
-      <c r="E222" s="45"/>
+      <c r="E222" s="47"/>
     </row>
     <row r="223" spans="1:5" ht="18.75" customHeight="1">
-      <c r="A223" s="55" t="s">
+      <c r="A223" s="57" t="s">
         <v>595</v>
       </c>
-      <c r="B223" s="55"/>
+      <c r="B223" s="57"/>
       <c r="D223" s="42" t="s">
         <v>99</v>
       </c>
@@ -9633,7 +9636,7 @@
         <v>147</v>
       </c>
       <c r="E224" s="42" t="s">
-        <v>455</v>
+        <v>804</v>
       </c>
     </row>
     <row r="225" spans="1:5" ht="45">
@@ -9685,16 +9688,16 @@
       <c r="B228" s="42">
         <v>2</v>
       </c>
-      <c r="D228" s="44" t="s">
+      <c r="D228" s="46" t="s">
         <v>474</v>
       </c>
-      <c r="E228" s="45"/>
+      <c r="E228" s="47"/>
     </row>
     <row r="229" spans="1:5" ht="30">
-      <c r="A229" s="55" t="s">
+      <c r="A229" s="57" t="s">
         <v>474</v>
       </c>
-      <c r="B229" s="55"/>
+      <c r="B229" s="57"/>
       <c r="D229" s="42" t="s">
         <v>716</v>
       </c>
@@ -9713,7 +9716,7 @@
         <v>191</v>
       </c>
       <c r="E230" s="42" t="s">
-        <v>456</v>
+        <v>805</v>
       </c>
     </row>
     <row r="231" spans="1:5">
@@ -9755,7 +9758,7 @@
         <v>277</v>
       </c>
       <c r="E233" s="42" t="s">
-        <v>457</v>
+        <v>806</v>
       </c>
     </row>
     <row r="234" spans="1:5">
@@ -9777,7 +9780,7 @@
         <v>147</v>
       </c>
       <c r="B235" s="42" t="s">
-        <v>455</v>
+        <v>804</v>
       </c>
       <c r="D235" s="42" t="s">
         <v>565</v>
@@ -9786,12 +9789,12 @@
         <v>737</v>
       </c>
     </row>
-    <row r="236" spans="1:5" ht="30">
+    <row r="236" spans="1:5">
       <c r="A236" s="42" t="s">
         <v>557</v>
       </c>
       <c r="B236" s="42" t="s">
-        <v>456</v>
+        <v>805</v>
       </c>
       <c r="D236" s="42" t="s">
         <v>24</v>
@@ -9814,12 +9817,12 @@
         <v>739</v>
       </c>
     </row>
-    <row r="238" spans="1:5" ht="30">
+    <row r="238" spans="1:5">
       <c r="A238" s="42" t="s">
         <v>564</v>
       </c>
       <c r="B238" s="42" t="s">
-        <v>457</v>
+        <v>806</v>
       </c>
       <c r="D238" s="42" t="s">
         <v>661</v>
@@ -9844,17 +9847,17 @@
         <v>214</v>
       </c>
     </row>
-    <row r="241" spans="1:5">
+    <row r="241" spans="1:5" ht="15" customHeight="1">
       <c r="A241" s="42" t="s">
         <v>151</v>
       </c>
       <c r="B241" s="42" t="s">
         <v>25</v>
       </c>
-      <c r="D241" s="56" t="s">
+      <c r="D241" s="55" t="s">
         <v>740</v>
       </c>
-      <c r="E241" s="57"/>
+      <c r="E241" s="56"/>
     </row>
     <row r="242" spans="1:5" ht="30">
       <c r="A242" s="42" t="s">
@@ -9905,11 +9908,11 @@
         <v>90</v>
       </c>
     </row>
-    <row r="247" spans="1:5">
-      <c r="A247" s="56" t="s">
+    <row r="247" spans="1:5" ht="15" customHeight="1">
+      <c r="A247" s="55" t="s">
         <v>745</v>
       </c>
-      <c r="B247" s="57"/>
+      <c r="B247" s="56"/>
       <c r="D247" s="42" t="s">
         <v>746</v>
       </c>
@@ -9924,10 +9927,10 @@
       <c r="B248" s="42" t="s">
         <v>747</v>
       </c>
-      <c r="D248" s="44" t="s">
+      <c r="D248" s="46" t="s">
         <v>618</v>
       </c>
-      <c r="E248" s="45"/>
+      <c r="E248" s="47"/>
     </row>
     <row r="249" spans="1:5" ht="30">
       <c r="A249" s="42" t="s">
@@ -9954,7 +9957,7 @@
         <v>147</v>
       </c>
       <c r="E250" s="42" t="s">
-        <v>455</v>
+        <v>804</v>
       </c>
     </row>
     <row r="251" spans="1:5" ht="45">
@@ -10000,14 +10003,14 @@
       </c>
     </row>
     <row r="254" spans="1:5">
-      <c r="A254" s="44" t="s">
+      <c r="A254" s="46" t="s">
         <v>618</v>
       </c>
-      <c r="B254" s="45"/>
-      <c r="D254" s="44" t="s">
+      <c r="B254" s="47"/>
+      <c r="D254" s="46" t="s">
         <v>474</v>
       </c>
-      <c r="E254" s="45"/>
+      <c r="E254" s="47"/>
     </row>
     <row r="255" spans="1:5" ht="30">
       <c r="A255" s="42" t="s">
@@ -10028,7 +10031,7 @@
         <v>147</v>
       </c>
       <c r="B256" s="42" t="s">
-        <v>455</v>
+        <v>804</v>
       </c>
       <c r="D256" s="42" t="s">
         <v>549</v>
@@ -10076,19 +10079,19 @@
         <v>147</v>
       </c>
       <c r="E259" s="42" t="s">
-        <v>455</v>
+        <v>804</v>
       </c>
     </row>
     <row r="260" spans="1:5" ht="30">
-      <c r="A260" s="44" t="s">
+      <c r="A260" s="46" t="s">
         <v>474</v>
       </c>
-      <c r="B260" s="45"/>
+      <c r="B260" s="47"/>
       <c r="D260" s="42" t="s">
         <v>191</v>
       </c>
       <c r="E260" s="42" t="s">
-        <v>456</v>
+        <v>805</v>
       </c>
     </row>
     <row r="261" spans="1:5">
@@ -10116,7 +10119,7 @@
         <v>277</v>
       </c>
       <c r="E262" s="42" t="s">
-        <v>457</v>
+        <v>806</v>
       </c>
     </row>
     <row r="263" spans="1:5">
@@ -10161,12 +10164,12 @@
         <v>739</v>
       </c>
     </row>
-    <row r="266" spans="1:5" ht="30">
+    <row r="266" spans="1:5">
       <c r="A266" s="42" t="s">
         <v>147</v>
       </c>
       <c r="B266" s="42" t="s">
-        <v>455</v>
+        <v>804</v>
       </c>
       <c r="D266" s="42" t="s">
         <v>661</v>
@@ -10175,12 +10178,12 @@
         <v>119</v>
       </c>
     </row>
-    <row r="267" spans="1:5" ht="30">
+    <row r="267" spans="1:5">
       <c r="A267" s="42" t="s">
         <v>191</v>
       </c>
       <c r="B267" s="42" t="s">
-        <v>456</v>
+        <v>805</v>
       </c>
     </row>
     <row r="268" spans="1:5">
@@ -10191,12 +10194,12 @@
         <v>200</v>
       </c>
     </row>
-    <row r="269" spans="1:5" ht="30">
+    <row r="269" spans="1:5">
       <c r="A269" s="42" t="s">
         <v>277</v>
       </c>
       <c r="B269" s="42" t="s">
-        <v>457</v>
+        <v>806</v>
       </c>
     </row>
     <row r="270" spans="1:5">
@@ -10231,11 +10234,11 @@
         <v>119</v>
       </c>
     </row>
-    <row r="276" spans="1:2">
-      <c r="A276" s="56" t="s">
+    <row r="276" spans="1:2" ht="15" customHeight="1">
+      <c r="A276" s="55" t="s">
         <v>764</v>
       </c>
-      <c r="B276" s="57"/>
+      <c r="B276" s="56"/>
     </row>
     <row r="277" spans="1:2">
       <c r="A277" s="42" t="s">
@@ -10286,10 +10289,10 @@
       </c>
     </row>
     <row r="283" spans="1:2">
-      <c r="A283" s="44" t="s">
+      <c r="A283" s="46" t="s">
         <v>618</v>
       </c>
-      <c r="B283" s="45"/>
+      <c r="B283" s="47"/>
     </row>
     <row r="284" spans="1:2" ht="30">
       <c r="A284" s="42" t="s">
@@ -10299,12 +10302,12 @@
         <v>768</v>
       </c>
     </row>
-    <row r="285" spans="1:2" ht="30">
+    <row r="285" spans="1:2">
       <c r="A285" s="42" t="s">
         <v>147</v>
       </c>
       <c r="B285" s="42" t="s">
-        <v>455</v>
+        <v>804</v>
       </c>
     </row>
     <row r="286" spans="1:2" ht="30">
@@ -10332,10 +10335,10 @@
       </c>
     </row>
     <row r="289" spans="1:2">
-      <c r="A289" s="44" t="s">
+      <c r="A289" s="46" t="s">
         <v>474</v>
       </c>
-      <c r="B289" s="45"/>
+      <c r="B289" s="47"/>
     </row>
     <row r="290" spans="1:2">
       <c r="A290" s="42" t="s">
@@ -10377,20 +10380,20 @@
         <v>775</v>
       </c>
     </row>
-    <row r="295" spans="1:2" ht="30">
+    <row r="295" spans="1:2">
       <c r="A295" s="42" t="s">
         <v>147</v>
       </c>
       <c r="B295" s="42" t="s">
-        <v>455</v>
-      </c>
-    </row>
-    <row r="296" spans="1:2" ht="30">
+        <v>804</v>
+      </c>
+    </row>
+    <row r="296" spans="1:2">
       <c r="A296" s="42" t="s">
         <v>191</v>
       </c>
       <c r="B296" s="42" t="s">
-        <v>456</v>
+        <v>805</v>
       </c>
     </row>
     <row r="297" spans="1:2">
@@ -10401,288 +10404,260 @@
         <v>200</v>
       </c>
     </row>
-    <row r="298" spans="1:2" ht="30">
+    <row r="298" spans="1:2">
       <c r="A298" s="42" t="s">
-        <v>277</v>
+        <v>24</v>
       </c>
       <c r="B298" s="42" t="s">
-        <v>457</v>
+        <v>738</v>
       </c>
     </row>
     <row r="299" spans="1:2">
       <c r="A299" s="42" t="s">
-        <v>139</v>
-      </c>
-      <c r="B299" s="42">
-        <v>200</v>
+        <v>659</v>
+      </c>
+      <c r="B299" s="42" t="s">
+        <v>739</v>
       </c>
     </row>
     <row r="300" spans="1:2">
       <c r="A300" s="42" t="s">
-        <v>24</v>
+        <v>661</v>
       </c>
       <c r="B300" s="42" t="s">
-        <v>738</v>
-      </c>
-    </row>
-    <row r="301" spans="1:2">
-      <c r="A301" s="42" t="s">
-        <v>659</v>
-      </c>
-      <c r="B301" s="42" t="s">
-        <v>739</v>
-      </c>
-    </row>
-    <row r="302" spans="1:2">
-      <c r="A302" s="42" t="s">
-        <v>661</v>
-      </c>
-      <c r="B302" s="42" t="s">
         <v>119</v>
       </c>
     </row>
-    <row r="305" spans="1:2">
-      <c r="A305" s="56" t="s">
+    <row r="303" spans="1:2">
+      <c r="A303" s="55" t="s">
         <v>776</v>
       </c>
-      <c r="B305" s="57"/>
-    </row>
-    <row r="306" spans="1:2">
+      <c r="B303" s="56"/>
+    </row>
+    <row r="304" spans="1:2">
+      <c r="A304" s="42" t="s">
+        <v>463</v>
+      </c>
+      <c r="B304" s="42" t="s">
+        <v>777</v>
+      </c>
+    </row>
+    <row r="305" spans="1:2" ht="15" customHeight="1">
+      <c r="A305" s="42" t="s">
+        <v>467</v>
+      </c>
+      <c r="B305" s="42" t="s">
+        <v>778</v>
+      </c>
+    </row>
+    <row r="306" spans="1:2" ht="30">
       <c r="A306" s="42" t="s">
-        <v>463</v>
+        <v>109</v>
       </c>
       <c r="B306" s="42" t="s">
-        <v>777</v>
-      </c>
-    </row>
-    <row r="307" spans="1:2" ht="30">
+        <v>779</v>
+      </c>
+    </row>
+    <row r="307" spans="1:2">
       <c r="A307" s="42" t="s">
-        <v>467</v>
-      </c>
-      <c r="B307" s="42" t="s">
-        <v>778</v>
-      </c>
-    </row>
-    <row r="308" spans="1:2" ht="30">
+        <v>682</v>
+      </c>
+      <c r="B307" s="42">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="308" spans="1:2">
       <c r="A308" s="42" t="s">
-        <v>109</v>
-      </c>
-      <c r="B308" s="42" t="s">
-        <v>779</v>
+        <v>535</v>
+      </c>
+      <c r="B308" s="42">
+        <v>90</v>
       </c>
     </row>
     <row r="309" spans="1:2">
       <c r="A309" s="42" t="s">
-        <v>682</v>
+        <v>746</v>
       </c>
       <c r="B309" s="42">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="310" spans="1:2">
-      <c r="A310" s="42" t="s">
-        <v>535</v>
-      </c>
-      <c r="B310" s="42">
-        <v>90</v>
-      </c>
-    </row>
-    <row r="311" spans="1:2">
+      <c r="A310" s="46" t="s">
+        <v>618</v>
+      </c>
+      <c r="B310" s="47"/>
+    </row>
+    <row r="311" spans="1:2" ht="30">
       <c r="A311" s="42" t="s">
-        <v>746</v>
-      </c>
-      <c r="B311" s="42">
-        <v>1</v>
+        <v>99</v>
+      </c>
+      <c r="B311" s="42" t="s">
+        <v>780</v>
       </c>
     </row>
     <row r="312" spans="1:2">
-      <c r="A312" s="44" t="s">
-        <v>618</v>
-      </c>
-      <c r="B312" s="45"/>
+      <c r="A312" s="42" t="s">
+        <v>147</v>
+      </c>
+      <c r="B312" s="42" t="s">
+        <v>804</v>
+      </c>
     </row>
     <row r="313" spans="1:2" ht="30">
       <c r="A313" s="42" t="s">
-        <v>99</v>
+        <v>105</v>
       </c>
       <c r="B313" s="42" t="s">
-        <v>780</v>
-      </c>
-    </row>
-    <row r="314" spans="1:2" ht="30">
+        <v>781</v>
+      </c>
+    </row>
+    <row r="314" spans="1:2">
       <c r="A314" s="42" t="s">
-        <v>147</v>
+        <v>378</v>
       </c>
       <c r="B314" s="42" t="s">
-        <v>455</v>
-      </c>
-    </row>
-    <row r="315" spans="1:2" ht="30">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="315" spans="1:2" ht="45">
       <c r="A315" s="42" t="s">
-        <v>105</v>
+        <v>621</v>
       </c>
       <c r="B315" s="42" t="s">
-        <v>781</v>
+        <v>782</v>
       </c>
     </row>
     <row r="316" spans="1:2">
-      <c r="A316" s="42" t="s">
-        <v>378</v>
-      </c>
-      <c r="B316" s="42" t="s">
-        <v>108</v>
-      </c>
-    </row>
-    <row r="317" spans="1:2" ht="45">
+      <c r="A316" s="46" t="s">
+        <v>474</v>
+      </c>
+      <c r="B316" s="47"/>
+    </row>
+    <row r="317" spans="1:2">
       <c r="A317" s="42" t="s">
-        <v>621</v>
+        <v>716</v>
       </c>
       <c r="B317" s="42" t="s">
-        <v>782</v>
+        <v>783</v>
       </c>
     </row>
     <row r="318" spans="1:2">
-      <c r="A318" s="44" t="s">
-        <v>474</v>
-      </c>
-      <c r="B318" s="45"/>
+      <c r="A318" s="42" t="s">
+        <v>549</v>
+      </c>
+      <c r="B318" s="42" t="s">
+        <v>784</v>
+      </c>
     </row>
     <row r="319" spans="1:2">
       <c r="A319" s="42" t="s">
-        <v>716</v>
+        <v>565</v>
       </c>
       <c r="B319" s="42" t="s">
-        <v>783</v>
+        <v>785</v>
       </c>
     </row>
     <row r="320" spans="1:2">
       <c r="A320" s="42" t="s">
-        <v>549</v>
+        <v>582</v>
       </c>
       <c r="B320" s="42" t="s">
-        <v>784</v>
+        <v>786</v>
       </c>
     </row>
     <row r="321" spans="1:2">
       <c r="A321" s="42" t="s">
-        <v>565</v>
+        <v>165</v>
       </c>
       <c r="B321" s="42" t="s">
-        <v>785</v>
+        <v>758</v>
       </c>
     </row>
     <row r="322" spans="1:2">
       <c r="A322" s="42" t="s">
-        <v>582</v>
+        <v>147</v>
       </c>
       <c r="B322" s="42" t="s">
-        <v>786</v>
+        <v>804</v>
       </c>
     </row>
     <row r="323" spans="1:2">
       <c r="A323" s="42" t="s">
-        <v>165</v>
+        <v>191</v>
       </c>
       <c r="B323" s="42" t="s">
-        <v>758</v>
-      </c>
-    </row>
-    <row r="324" spans="1:2" ht="30">
+        <v>805</v>
+      </c>
+    </row>
+    <row r="324" spans="1:2">
       <c r="A324" s="42" t="s">
-        <v>147</v>
-      </c>
-      <c r="B324" s="42" t="s">
-        <v>455</v>
-      </c>
-    </row>
-    <row r="325" spans="1:2" ht="30">
+        <v>132</v>
+      </c>
+      <c r="B324" s="42">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="325" spans="1:2">
       <c r="A325" s="42" t="s">
-        <v>191</v>
+        <v>277</v>
       </c>
       <c r="B325" s="42" t="s">
-        <v>456</v>
+        <v>806</v>
       </c>
     </row>
     <row r="326" spans="1:2">
       <c r="A326" s="42" t="s">
-        <v>132</v>
+        <v>139</v>
       </c>
       <c r="B326" s="42">
         <v>200</v>
       </c>
     </row>
-    <row r="327" spans="1:2" ht="30">
+    <row r="327" spans="1:2">
       <c r="A327" s="42" t="s">
-        <v>277</v>
+        <v>24</v>
       </c>
       <c r="B327" s="42" t="s">
-        <v>457</v>
+        <v>738</v>
       </c>
     </row>
     <row r="328" spans="1:2">
       <c r="A328" s="42" t="s">
-        <v>139</v>
-      </c>
-      <c r="B328" s="42">
-        <v>200</v>
+        <v>659</v>
+      </c>
+      <c r="B328" s="42" t="s">
+        <v>739</v>
       </c>
     </row>
     <row r="329" spans="1:2">
       <c r="A329" s="42" t="s">
-        <v>24</v>
+        <v>661</v>
       </c>
       <c r="B329" s="42" t="s">
-        <v>738</v>
-      </c>
-    </row>
-    <row r="330" spans="1:2">
-      <c r="A330" s="42" t="s">
-        <v>659</v>
-      </c>
-      <c r="B330" s="42" t="s">
-        <v>739</v>
-      </c>
-    </row>
-    <row r="331" spans="1:2">
-      <c r="A331" s="42" t="s">
-        <v>661</v>
-      </c>
-      <c r="B331" s="42" t="s">
         <v>119</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="64">
-    <mergeCell ref="A305:B305"/>
-    <mergeCell ref="D198:E198"/>
-    <mergeCell ref="D217:E217"/>
-    <mergeCell ref="D241:E241"/>
-    <mergeCell ref="A247:B247"/>
-    <mergeCell ref="A276:B276"/>
-    <mergeCell ref="A203:B203"/>
-    <mergeCell ref="A209:B209"/>
-    <mergeCell ref="A223:B223"/>
-    <mergeCell ref="A229:B229"/>
-    <mergeCell ref="D136:E136"/>
-    <mergeCell ref="D152:E152"/>
-    <mergeCell ref="D159:E159"/>
-    <mergeCell ref="D178:E178"/>
-    <mergeCell ref="D185:E185"/>
-    <mergeCell ref="D86:E86"/>
-    <mergeCell ref="D92:E92"/>
-    <mergeCell ref="D107:E107"/>
-    <mergeCell ref="D114:E114"/>
-    <mergeCell ref="D129:E129"/>
-    <mergeCell ref="D50:E50"/>
-    <mergeCell ref="D56:E56"/>
-    <mergeCell ref="D62:E62"/>
-    <mergeCell ref="D69:E69"/>
-    <mergeCell ref="D82:E82"/>
-    <mergeCell ref="G1:H1"/>
-    <mergeCell ref="G5:H5"/>
-    <mergeCell ref="D15:E15"/>
-    <mergeCell ref="D19:E19"/>
-    <mergeCell ref="D25:E25"/>
+    <mergeCell ref="A188:B188"/>
+    <mergeCell ref="A144:B144"/>
+    <mergeCell ref="A148:B148"/>
+    <mergeCell ref="A162:B162"/>
+    <mergeCell ref="A168:B168"/>
+    <mergeCell ref="A182:B182"/>
+    <mergeCell ref="A136:B136"/>
+    <mergeCell ref="A59:B59"/>
+    <mergeCell ref="A69:B69"/>
+    <mergeCell ref="A75:B75"/>
+    <mergeCell ref="A79:B79"/>
+    <mergeCell ref="A89:B89"/>
+    <mergeCell ref="A93:B93"/>
+    <mergeCell ref="A105:B105"/>
+    <mergeCell ref="A111:B111"/>
+    <mergeCell ref="A121:B121"/>
+    <mergeCell ref="A125:B125"/>
+    <mergeCell ref="A132:B132"/>
     <mergeCell ref="A55:B55"/>
     <mergeCell ref="A1:B1"/>
     <mergeCell ref="D1:E1"/>
@@ -10699,24 +10674,36 @@
     <mergeCell ref="D34:E34"/>
     <mergeCell ref="D40:E40"/>
     <mergeCell ref="D46:E46"/>
-    <mergeCell ref="A136:B136"/>
-    <mergeCell ref="A59:B59"/>
-    <mergeCell ref="A69:B69"/>
-    <mergeCell ref="A75:B75"/>
-    <mergeCell ref="A79:B79"/>
-    <mergeCell ref="A89:B89"/>
-    <mergeCell ref="A93:B93"/>
-    <mergeCell ref="A105:B105"/>
-    <mergeCell ref="A111:B111"/>
-    <mergeCell ref="A121:B121"/>
-    <mergeCell ref="A125:B125"/>
-    <mergeCell ref="A132:B132"/>
-    <mergeCell ref="A188:B188"/>
-    <mergeCell ref="A144:B144"/>
-    <mergeCell ref="A148:B148"/>
-    <mergeCell ref="A162:B162"/>
-    <mergeCell ref="A168:B168"/>
-    <mergeCell ref="A182:B182"/>
+    <mergeCell ref="G1:H1"/>
+    <mergeCell ref="G5:H5"/>
+    <mergeCell ref="D15:E15"/>
+    <mergeCell ref="D19:E19"/>
+    <mergeCell ref="D25:E25"/>
+    <mergeCell ref="D50:E50"/>
+    <mergeCell ref="D56:E56"/>
+    <mergeCell ref="D62:E62"/>
+    <mergeCell ref="D69:E69"/>
+    <mergeCell ref="D82:E82"/>
+    <mergeCell ref="D86:E86"/>
+    <mergeCell ref="D92:E92"/>
+    <mergeCell ref="D107:E107"/>
+    <mergeCell ref="D114:E114"/>
+    <mergeCell ref="D129:E129"/>
+    <mergeCell ref="D136:E136"/>
+    <mergeCell ref="D152:E152"/>
+    <mergeCell ref="D159:E159"/>
+    <mergeCell ref="D178:E178"/>
+    <mergeCell ref="D185:E185"/>
+    <mergeCell ref="D198:E198"/>
+    <mergeCell ref="D217:E217"/>
+    <mergeCell ref="D241:E241"/>
+    <mergeCell ref="A247:B247"/>
+    <mergeCell ref="A276:B276"/>
+    <mergeCell ref="A203:B203"/>
+    <mergeCell ref="A209:B209"/>
+    <mergeCell ref="A223:B223"/>
+    <mergeCell ref="A229:B229"/>
+    <mergeCell ref="A303:B303"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <extLst>
@@ -10728,7 +10715,7 @@
 </file>
 
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0800-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:D6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -10830,16 +10817,16 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="D2" r:id="rId1" xr:uid="{252E13F2-3753-4734-A7FA-68C62D1CCAEE}"/>
-    <hyperlink ref="C2" r:id="rId2" xr:uid="{D4E61AB8-0B39-4E44-8A04-F4606F5CB7A1}"/>
-    <hyperlink ref="D3" r:id="rId3" xr:uid="{EB467D75-193E-4865-9CBD-AE140A85BBFB}"/>
-    <hyperlink ref="C3" r:id="rId4" xr:uid="{D4E7A9B6-7F14-4E68-9B61-0784BAC28452}"/>
-    <hyperlink ref="D4" r:id="rId5" xr:uid="{A858A791-9723-452F-89D8-0FB104B074F4}"/>
-    <hyperlink ref="C4" r:id="rId6" xr:uid="{A8523359-D175-4E7E-92DA-D3FCE8F6B5C1}"/>
-    <hyperlink ref="D5" r:id="rId7" xr:uid="{EB2D6F93-B07D-433F-A18B-03100CA64262}"/>
-    <hyperlink ref="C5" r:id="rId8" xr:uid="{1C7889FE-175E-4FDE-9812-24814442494A}"/>
-    <hyperlink ref="D6" r:id="rId9" xr:uid="{FC84ED5B-FE48-4699-99C9-517F6F21B989}"/>
-    <hyperlink ref="C6" r:id="rId10" xr:uid="{88D58CCE-22C5-4121-8242-DF16310409AD}"/>
+    <hyperlink ref="D2" r:id="rId1"/>
+    <hyperlink ref="C2" r:id="rId2"/>
+    <hyperlink ref="D3" r:id="rId3"/>
+    <hyperlink ref="C3" r:id="rId4"/>
+    <hyperlink ref="D4" r:id="rId5"/>
+    <hyperlink ref="C4" r:id="rId6"/>
+    <hyperlink ref="D5" r:id="rId7"/>
+    <hyperlink ref="C5" r:id="rId8"/>
+    <hyperlink ref="D6" r:id="rId9"/>
+    <hyperlink ref="C6" r:id="rId10"/>
   </hyperlinks>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <extLst>

--- a/TestData.xlsx
+++ b/TestData.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="177" uniqueCount="160">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="177" uniqueCount="159">
   <si>
     <t>TEST CASE NAME</t>
   </si>
@@ -86,9 +86,6 @@
     <t>blankLessonOneQuestionOption2</t>
   </si>
   <si>
-    <t>C:\Users\Shavinlal E\Desktop\Boats_Thailand.jpg</t>
-  </si>
-  <si>
     <t>blankLessonOneUploadLink</t>
   </si>
   <si>
@@ -98,24 +95,15 @@
     <t>blankLessonOneImageCard2</t>
   </si>
   <si>
-    <t>C:\Users\Shavinlal E\Desktop\Beautiful-Places.jpg</t>
-  </si>
-  <si>
     <t>blankLessonOneImageCard1</t>
   </si>
   <si>
-    <t>C:\Users\Shavinlal E\Desktop\Wildlife.wmv</t>
-  </si>
-  <si>
     <t>blankLessonOneVideoCard</t>
   </si>
   <si>
     <t>blankLessonOneDocumentCard</t>
   </si>
   <si>
-    <t>C:\Users\Shavinlal E\Desktop\SampleWord.docx</t>
-  </si>
-  <si>
     <t>blankLessonname</t>
   </si>
   <si>
@@ -495,6 +483,15 @@
   </si>
   <si>
     <t>By the way</t>
+  </si>
+  <si>
+    <t>/home/ubuntu/Grovo_Shavin/TestData/test.jpg</t>
+  </si>
+  <si>
+    <t>/home/ubuntu/Grovo_Shavin/TestData/test.wmv</t>
+  </si>
+  <si>
+    <t>/home/ubuntu/Grovo_Shavin/TestData/test.pdf</t>
   </si>
 </sst>
 </file>
@@ -1076,8 +1073,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:J58"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A45" workbookViewId="0">
-      <selection activeCell="A49" sqref="A49"/>
+    <sheetView tabSelected="1" topLeftCell="F1" workbookViewId="0">
+      <selection activeCell="I2" sqref="I2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -1096,7 +1093,7 @@
   <sheetData>
     <row r="1" spans="1:10">
       <c r="A1" s="6" t="s">
-        <v>33</v>
+        <v>29</v>
       </c>
       <c r="B1" s="6" t="s">
         <v>16</v>
@@ -1111,19 +1108,19 @@
         <v>22</v>
       </c>
       <c r="F1" s="6" t="s">
+        <v>26</v>
+      </c>
+      <c r="G1" s="6" t="s">
+        <v>23</v>
+      </c>
+      <c r="H1" s="6" t="s">
+        <v>25</v>
+      </c>
+      <c r="I1" s="6" t="s">
+        <v>27</v>
+      </c>
+      <c r="J1" s="6" t="s">
         <v>28</v>
-      </c>
-      <c r="G1" s="6" t="s">
-        <v>24</v>
-      </c>
-      <c r="H1" s="6" t="s">
-        <v>26</v>
-      </c>
-      <c r="I1" s="6" t="s">
-        <v>30</v>
-      </c>
-      <c r="J1" s="6" t="s">
-        <v>31</v>
       </c>
     </row>
     <row r="2" spans="1:10">
@@ -1143,248 +1140,248 @@
         <v>21</v>
       </c>
       <c r="F2" t="s">
-        <v>23</v>
+        <v>156</v>
       </c>
       <c r="G2" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="H2" t="s">
-        <v>27</v>
+        <v>156</v>
       </c>
       <c r="I2" t="s">
-        <v>29</v>
+        <v>157</v>
       </c>
       <c r="J2" t="s">
-        <v>32</v>
+        <v>158</v>
       </c>
     </row>
     <row r="3" spans="1:10">
       <c r="A3" t="s">
-        <v>34</v>
+        <v>30</v>
       </c>
       <c r="B3" t="s">
-        <v>35</v>
+        <v>31</v>
       </c>
       <c r="C3" t="s">
-        <v>37</v>
+        <v>33</v>
       </c>
     </row>
     <row r="4" spans="1:10">
       <c r="B4" t="s">
-        <v>36</v>
+        <v>32</v>
       </c>
     </row>
     <row r="5" spans="1:10">
       <c r="A5" t="s">
-        <v>38</v>
+        <v>34</v>
       </c>
       <c r="B5" t="s">
-        <v>39</v>
+        <v>35</v>
       </c>
     </row>
     <row r="6" spans="1:10">
       <c r="B6" t="s">
-        <v>40</v>
+        <v>36</v>
       </c>
     </row>
     <row r="7" spans="1:10">
       <c r="B7" t="s">
-        <v>41</v>
+        <v>37</v>
       </c>
     </row>
     <row r="8" spans="1:10">
       <c r="B8" t="s">
-        <v>42</v>
+        <v>38</v>
       </c>
     </row>
     <row r="9" spans="1:10">
       <c r="B9" t="s">
-        <v>43</v>
+        <v>39</v>
       </c>
     </row>
     <row r="10" spans="1:10">
       <c r="A10" t="s">
-        <v>44</v>
+        <v>40</v>
       </c>
     </row>
     <row r="11" spans="1:10">
       <c r="A11" t="s">
-        <v>130</v>
+        <v>126</v>
       </c>
       <c r="B11" t="s">
-        <v>45</v>
+        <v>41</v>
       </c>
     </row>
     <row r="12" spans="1:10">
       <c r="B12" t="s">
-        <v>46</v>
+        <v>42</v>
       </c>
     </row>
     <row r="13" spans="1:10">
       <c r="B13" t="s">
-        <v>47</v>
+        <v>43</v>
       </c>
     </row>
     <row r="14" spans="1:10">
       <c r="B14" t="s">
-        <v>48</v>
+        <v>44</v>
       </c>
     </row>
     <row r="15" spans="1:10">
       <c r="B15" t="s">
-        <v>49</v>
+        <v>45</v>
       </c>
     </row>
     <row r="16" spans="1:10">
       <c r="B16" t="s">
-        <v>50</v>
+        <v>46</v>
       </c>
     </row>
     <row r="17" spans="1:7">
       <c r="B17" t="s">
-        <v>51</v>
+        <v>47</v>
       </c>
     </row>
     <row r="18" spans="1:7">
       <c r="B18" t="s">
-        <v>52</v>
+        <v>48</v>
       </c>
     </row>
     <row r="19" spans="1:7">
       <c r="B19" t="s">
-        <v>53</v>
+        <v>49</v>
       </c>
     </row>
     <row r="20" spans="1:7">
       <c r="B20" t="s">
-        <v>54</v>
+        <v>50</v>
       </c>
     </row>
     <row r="21" spans="1:7">
       <c r="A21" s="7" t="s">
-        <v>55</v>
+        <v>51</v>
       </c>
     </row>
     <row r="22" spans="1:7" ht="51.75" customHeight="1">
       <c r="A22" s="8" t="s">
+        <v>52</v>
+      </c>
+      <c r="B22" s="8" t="s">
+        <v>53</v>
+      </c>
+      <c r="C22" s="8" t="s">
+        <v>54</v>
+      </c>
+      <c r="D22" s="8" t="s">
+        <v>55</v>
+      </c>
+      <c r="E22" s="8" t="s">
         <v>56</v>
       </c>
-      <c r="B22" s="8" t="s">
+      <c r="F22" s="8" t="s">
         <v>57</v>
       </c>
-      <c r="C22" s="8" t="s">
+      <c r="G22" s="8" t="s">
         <v>58</v>
-      </c>
-      <c r="D22" s="8" t="s">
-        <v>59</v>
-      </c>
-      <c r="E22" s="8" t="s">
-        <v>60</v>
-      </c>
-      <c r="F22" s="8" t="s">
-        <v>61</v>
-      </c>
-      <c r="G22" s="8" t="s">
-        <v>62</v>
       </c>
     </row>
     <row r="23" spans="1:7" ht="28.5" customHeight="1">
       <c r="A23" s="8" t="s">
-        <v>63</v>
+        <v>59</v>
       </c>
       <c r="B23" s="8" t="s">
-        <v>66</v>
+        <v>62</v>
       </c>
       <c r="C23" t="s">
-        <v>64</v>
+        <v>60</v>
       </c>
       <c r="D23" t="s">
-        <v>65</v>
+        <v>61</v>
       </c>
     </row>
     <row r="24" spans="1:7" ht="21" customHeight="1">
       <c r="A24" s="8" t="s">
-        <v>156</v>
+        <v>152</v>
       </c>
       <c r="B24" s="8"/>
     </row>
     <row r="25" spans="1:7">
       <c r="A25" t="s">
-        <v>67</v>
+        <v>63</v>
       </c>
       <c r="B25" t="s">
-        <v>68</v>
+        <v>64</v>
       </c>
       <c r="C25" t="s">
-        <v>69</v>
+        <v>65</v>
       </c>
       <c r="D25" t="s">
-        <v>64</v>
+        <v>60</v>
       </c>
       <c r="E25" t="s">
-        <v>70</v>
+        <v>66</v>
       </c>
     </row>
     <row r="26" spans="1:7">
       <c r="A26" s="8" t="s">
-        <v>157</v>
+        <v>153</v>
       </c>
     </row>
     <row r="27" spans="1:7" ht="165">
       <c r="A27" s="8" t="s">
-        <v>71</v>
+        <v>67</v>
       </c>
       <c r="B27" s="8" t="s">
-        <v>64</v>
+        <v>60</v>
       </c>
       <c r="C27" s="8" t="s">
-        <v>72</v>
+        <v>68</v>
       </c>
     </row>
     <row r="28" spans="1:7">
       <c r="A28" s="8" t="s">
-        <v>158</v>
+        <v>154</v>
       </c>
     </row>
     <row r="29" spans="1:7" ht="90">
       <c r="A29" s="8" t="s">
+        <v>69</v>
+      </c>
+      <c r="B29" t="s">
+        <v>70</v>
+      </c>
+      <c r="C29" t="s">
+        <v>71</v>
+      </c>
+      <c r="D29" t="s">
+        <v>60</v>
+      </c>
+      <c r="E29" s="8" t="s">
+        <v>72</v>
+      </c>
+      <c r="F29" s="8" t="s">
         <v>73</v>
-      </c>
-      <c r="B29" t="s">
-        <v>74</v>
-      </c>
-      <c r="C29" t="s">
-        <v>75</v>
-      </c>
-      <c r="D29" t="s">
-        <v>64</v>
-      </c>
-      <c r="E29" s="8" t="s">
-        <v>76</v>
-      </c>
-      <c r="F29" s="8" t="s">
-        <v>77</v>
       </c>
     </row>
     <row r="30" spans="1:7" ht="45">
       <c r="A30" s="8" t="s">
-        <v>78</v>
+        <v>74</v>
       </c>
       <c r="B30" s="8" t="s">
-        <v>79</v>
+        <v>75</v>
       </c>
       <c r="C30" s="8" t="s">
-        <v>80</v>
+        <v>76</v>
       </c>
     </row>
     <row r="31" spans="1:7">
       <c r="A31" s="8" t="s">
-        <v>81</v>
+        <v>77</v>
       </c>
     </row>
     <row r="33" spans="1:9">
       <c r="A33" s="9" t="s">
-        <v>82</v>
+        <v>78</v>
       </c>
     </row>
     <row r="34" spans="1:9" ht="46.5" customHeight="1">
@@ -1392,143 +1389,143 @@
         <v>12</v>
       </c>
       <c r="B34" t="s">
+        <v>79</v>
+      </c>
+      <c r="C34" t="s">
+        <v>80</v>
+      </c>
+      <c r="D34" s="8" t="s">
+        <v>81</v>
+      </c>
+      <c r="E34" s="8" t="s">
+        <v>82</v>
+      </c>
+      <c r="F34" s="8" t="s">
         <v>83</v>
       </c>
-      <c r="C34" t="s">
+      <c r="G34" s="8" t="s">
+        <v>56</v>
+      </c>
+      <c r="H34" s="8" t="s">
         <v>84</v>
       </c>
-      <c r="D34" s="8" t="s">
-        <v>85</v>
-      </c>
-      <c r="E34" s="8" t="s">
-        <v>86</v>
-      </c>
-      <c r="F34" s="8" t="s">
-        <v>87</v>
-      </c>
-      <c r="G34" s="8" t="s">
-        <v>60</v>
-      </c>
-      <c r="H34" s="8" t="s">
-        <v>88</v>
-      </c>
       <c r="I34" s="8" t="s">
-        <v>62</v>
+        <v>58</v>
       </c>
     </row>
     <row r="35" spans="1:9">
       <c r="A35" t="s">
-        <v>90</v>
+        <v>86</v>
       </c>
       <c r="B35" t="s">
-        <v>89</v>
+        <v>85</v>
       </c>
     </row>
     <row r="36" spans="1:9" ht="90">
       <c r="A36" t="s">
-        <v>91</v>
+        <v>87</v>
       </c>
       <c r="B36" t="s">
-        <v>92</v>
+        <v>88</v>
       </c>
       <c r="C36" s="8" t="s">
-        <v>93</v>
+        <v>89</v>
       </c>
     </row>
     <row r="37" spans="1:9">
       <c r="A37" t="s">
-        <v>94</v>
+        <v>90</v>
       </c>
       <c r="B37" t="s">
-        <v>95</v>
+        <v>91</v>
       </c>
     </row>
     <row r="38" spans="1:9" ht="60">
       <c r="A38" s="8" t="s">
-        <v>96</v>
+        <v>92</v>
       </c>
       <c r="B38" t="s">
-        <v>97</v>
+        <v>93</v>
       </c>
       <c r="C38" s="8" t="s">
-        <v>98</v>
+        <v>94</v>
       </c>
     </row>
     <row r="39" spans="1:9">
       <c r="A39" t="s">
-        <v>99</v>
+        <v>95</v>
       </c>
       <c r="B39" t="s">
-        <v>100</v>
+        <v>96</v>
       </c>
     </row>
     <row r="40" spans="1:9" ht="45">
       <c r="A40" t="s">
-        <v>101</v>
+        <v>97</v>
       </c>
       <c r="B40" s="8" t="s">
-        <v>102</v>
+        <v>98</v>
       </c>
       <c r="C40" t="s">
-        <v>103</v>
+        <v>99</v>
       </c>
       <c r="D40" t="s">
-        <v>131</v>
+        <v>127</v>
       </c>
     </row>
     <row r="41" spans="1:9" ht="45">
       <c r="A41" t="s">
-        <v>104</v>
+        <v>100</v>
       </c>
       <c r="B41" s="8" t="s">
-        <v>105</v>
+        <v>101</v>
       </c>
       <c r="C41" s="8" t="s">
-        <v>106</v>
+        <v>102</v>
       </c>
       <c r="D41" t="s">
-        <v>131</v>
+        <v>127</v>
       </c>
     </row>
     <row r="42" spans="1:9" ht="60">
       <c r="A42" s="8" t="s">
-        <v>107</v>
+        <v>103</v>
       </c>
       <c r="B42" s="11" t="s">
-        <v>108</v>
+        <v>104</v>
       </c>
       <c r="C42" s="8" t="s">
-        <v>109</v>
+        <v>105</v>
       </c>
     </row>
     <row r="43" spans="1:9">
       <c r="A43" t="s">
-        <v>110</v>
+        <v>106</v>
       </c>
       <c r="B43" t="s">
-        <v>111</v>
+        <v>107</v>
       </c>
     </row>
     <row r="44" spans="1:9" ht="90">
       <c r="A44" s="8" t="s">
+        <v>108</v>
+      </c>
+      <c r="B44" s="8" t="s">
+        <v>109</v>
+      </c>
+      <c r="C44" s="8" t="s">
+        <v>110</v>
+      </c>
+      <c r="D44" s="8" t="s">
+        <v>111</v>
+      </c>
+      <c r="E44" s="8" t="s">
         <v>112</v>
-      </c>
-      <c r="B44" s="8" t="s">
-        <v>113</v>
-      </c>
-      <c r="C44" s="8" t="s">
-        <v>114</v>
-      </c>
-      <c r="D44" s="8" t="s">
-        <v>115</v>
-      </c>
-      <c r="E44" s="8" t="s">
-        <v>116</v>
       </c>
     </row>
     <row r="45" spans="1:9" ht="23.25" customHeight="1">
       <c r="A45" s="9" t="s">
-        <v>117</v>
+        <v>113</v>
       </c>
     </row>
     <row r="46" spans="1:9" ht="58.5" customHeight="1">
@@ -1536,169 +1533,169 @@
         <v>11</v>
       </c>
       <c r="B46" s="8" t="s">
-        <v>118</v>
+        <v>114</v>
       </c>
       <c r="C46" s="8" t="s">
-        <v>119</v>
+        <v>115</v>
       </c>
       <c r="D46" s="8" t="s">
-        <v>120</v>
+        <v>116</v>
       </c>
       <c r="E46" s="8" t="s">
-        <v>121</v>
+        <v>117</v>
       </c>
       <c r="F46" s="8" t="s">
-        <v>87</v>
+        <v>83</v>
       </c>
       <c r="G46" s="8" t="s">
-        <v>60</v>
+        <v>56</v>
       </c>
       <c r="H46" s="8" t="s">
-        <v>88</v>
+        <v>84</v>
       </c>
       <c r="I46" s="8" t="s">
-        <v>62</v>
+        <v>58</v>
       </c>
     </row>
     <row r="47" spans="1:9" ht="60">
       <c r="A47" t="s">
+        <v>118</v>
+      </c>
+      <c r="B47" t="s">
+        <v>119</v>
+      </c>
+      <c r="C47" t="s">
+        <v>120</v>
+      </c>
+      <c r="D47" s="8" t="s">
+        <v>121</v>
+      </c>
+      <c r="E47" t="s">
+        <v>60</v>
+      </c>
+      <c r="F47" s="8" t="s">
         <v>122</v>
       </c>
-      <c r="B47" t="s">
+      <c r="G47" t="s">
         <v>123</v>
       </c>
-      <c r="C47" t="s">
+      <c r="H47" s="8" t="s">
         <v>124</v>
-      </c>
-      <c r="D47" s="8" t="s">
-        <v>125</v>
-      </c>
-      <c r="E47" t="s">
-        <v>64</v>
-      </c>
-      <c r="F47" s="8" t="s">
-        <v>126</v>
-      </c>
-      <c r="G47" t="s">
-        <v>127</v>
-      </c>
-      <c r="H47" s="8" t="s">
-        <v>128</v>
       </c>
     </row>
     <row r="48" spans="1:9">
       <c r="A48" t="s">
-        <v>129</v>
+        <v>125</v>
       </c>
       <c r="B48" s="8" t="s">
-        <v>132</v>
+        <v>128</v>
       </c>
     </row>
     <row r="49" spans="1:6" ht="135">
       <c r="A49" t="s">
+        <v>129</v>
+      </c>
+      <c r="B49" s="8" t="s">
+        <v>130</v>
+      </c>
+      <c r="C49" s="8" t="s">
+        <v>131</v>
+      </c>
+      <c r="D49" s="8" t="s">
+        <v>132</v>
+      </c>
+      <c r="E49" s="8" t="s">
+        <v>60</v>
+      </c>
+      <c r="F49" s="8" t="s">
         <v>133</v>
-      </c>
-      <c r="B49" s="8" t="s">
-        <v>134</v>
-      </c>
-      <c r="C49" s="8" t="s">
-        <v>135</v>
-      </c>
-      <c r="D49" s="8" t="s">
-        <v>136</v>
-      </c>
-      <c r="E49" s="8" t="s">
-        <v>64</v>
-      </c>
-      <c r="F49" s="8" t="s">
-        <v>137</v>
       </c>
     </row>
     <row r="50" spans="1:6" ht="27" customHeight="1">
       <c r="A50" t="s">
-        <v>159</v>
+        <v>155</v>
       </c>
       <c r="B50" s="8" t="s">
-        <v>138</v>
+        <v>134</v>
       </c>
       <c r="C50" t="s">
-        <v>139</v>
+        <v>135</v>
       </c>
       <c r="D50" s="8" t="s">
-        <v>140</v>
+        <v>136</v>
       </c>
     </row>
     <row r="51" spans="1:6">
       <c r="A51" t="s">
-        <v>141</v>
+        <v>137</v>
       </c>
       <c r="B51" s="8" t="s">
-        <v>152</v>
+        <v>148</v>
       </c>
     </row>
     <row r="52" spans="1:6" ht="150">
       <c r="A52" s="8" t="s">
-        <v>142</v>
+        <v>138</v>
       </c>
       <c r="B52" s="8" t="s">
-        <v>143</v>
+        <v>139</v>
       </c>
       <c r="C52" s="8" t="s">
-        <v>144</v>
+        <v>140</v>
       </c>
       <c r="D52" s="8" t="s">
-        <v>64</v>
+        <v>60</v>
       </c>
       <c r="E52" s="8" t="s">
-        <v>145</v>
+        <v>141</v>
       </c>
     </row>
     <row r="53" spans="1:6">
       <c r="A53" t="s">
-        <v>146</v>
+        <v>142</v>
       </c>
       <c r="B53" s="8" t="s">
-        <v>147</v>
+        <v>143</v>
       </c>
     </row>
     <row r="54" spans="1:6" ht="75">
       <c r="A54" t="s">
-        <v>148</v>
+        <v>144</v>
       </c>
       <c r="B54" s="8" t="s">
-        <v>149</v>
+        <v>145</v>
       </c>
       <c r="C54" t="s">
-        <v>64</v>
+        <v>60</v>
       </c>
       <c r="D54" s="8" t="s">
-        <v>150</v>
+        <v>146</v>
       </c>
     </row>
     <row r="55" spans="1:6" ht="60">
       <c r="A55" s="8" t="s">
-        <v>151</v>
+        <v>147</v>
       </c>
       <c r="B55" s="8" t="s">
-        <v>108</v>
+        <v>104</v>
       </c>
       <c r="C55" s="8" t="s">
-        <v>109</v>
+        <v>105</v>
       </c>
     </row>
     <row r="56" spans="1:6">
       <c r="A56" s="9" t="s">
-        <v>153</v>
+        <v>149</v>
       </c>
     </row>
     <row r="57" spans="1:6">
       <c r="A57" t="s">
-        <v>154</v>
+        <v>150</v>
       </c>
     </row>
     <row r="58" spans="1:6">
       <c r="A58" t="s">
-        <v>155</v>
+        <v>151</v>
       </c>
     </row>
   </sheetData>

--- a/TestData.xlsx
+++ b/TestData.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4507"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="2520" windowWidth="16650" windowHeight="5190" tabRatio="990" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="2520" windowWidth="16650" windowHeight="5190" tabRatio="990"/>
   </bookViews>
   <sheets>
     <sheet name="Login_Credentials" sheetId="1" r:id="rId1"/>
@@ -53,9 +53,6 @@
     <t>https://optislabs-playpen.grovo.com/</t>
   </si>
   <si>
-    <t>jibim@grovo.com</t>
-  </si>
-  <si>
     <t>Data@123</t>
   </si>
   <si>
@@ -492,6 +489,9 @@
   </si>
   <si>
     <t>/home/ubuntu/Grovo_Shavin/TestData/test.pdf</t>
+  </si>
+  <si>
+    <t>ShavinTest@gmail.com</t>
   </si>
 </sst>
 </file>
@@ -977,8 +977,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:AMK6"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="77" workbookViewId="0">
-      <selection activeCell="B13" sqref="B13"/>
+    <sheetView tabSelected="1" zoomScaleNormal="77" workbookViewId="0">
+      <selection activeCell="C9" sqref="C9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -1025,10 +1025,10 @@
         <v>5</v>
       </c>
       <c r="B4" s="4" t="s">
+        <v>158</v>
+      </c>
+      <c r="C4" s="4" t="s">
         <v>12</v>
-      </c>
-      <c r="C4" s="4" t="s">
-        <v>13</v>
       </c>
       <c r="D4" s="2"/>
     </row>
@@ -1073,7 +1073,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:J58"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="F1" workbookViewId="0">
+    <sheetView topLeftCell="F1" workbookViewId="0">
       <selection activeCell="I2" sqref="I2"/>
     </sheetView>
   </sheetViews>
@@ -1093,295 +1093,295 @@
   <sheetData>
     <row r="1" spans="1:10">
       <c r="A1" s="6" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="B1" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="C1" s="6" t="s">
         <v>16</v>
       </c>
-      <c r="C1" s="6" t="s">
-        <v>17</v>
-      </c>
       <c r="D1" s="6" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="E1" s="6" t="s">
+        <v>21</v>
+      </c>
+      <c r="F1" s="6" t="s">
+        <v>25</v>
+      </c>
+      <c r="G1" s="6" t="s">
         <v>22</v>
       </c>
-      <c r="F1" s="6" t="s">
+      <c r="H1" s="6" t="s">
+        <v>24</v>
+      </c>
+      <c r="I1" s="6" t="s">
         <v>26</v>
       </c>
-      <c r="G1" s="6" t="s">
-        <v>23</v>
-      </c>
-      <c r="H1" s="6" t="s">
-        <v>25</v>
-      </c>
-      <c r="I1" s="6" t="s">
+      <c r="J1" s="6" t="s">
         <v>27</v>
-      </c>
-      <c r="J1" s="6" t="s">
-        <v>28</v>
       </c>
     </row>
     <row r="2" spans="1:10">
       <c r="A2" t="s">
+        <v>13</v>
+      </c>
+      <c r="B2" t="s">
         <v>14</v>
       </c>
-      <c r="B2" t="s">
-        <v>15</v>
-      </c>
       <c r="C2" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="D2" t="s">
+        <v>19</v>
+      </c>
+      <c r="E2" t="s">
         <v>20</v>
       </c>
-      <c r="E2" t="s">
-        <v>21</v>
-      </c>
       <c r="F2" t="s">
+        <v>155</v>
+      </c>
+      <c r="G2" t="s">
+        <v>23</v>
+      </c>
+      <c r="H2" t="s">
+        <v>155</v>
+      </c>
+      <c r="I2" t="s">
         <v>156</v>
       </c>
-      <c r="G2" t="s">
-        <v>24</v>
-      </c>
-      <c r="H2" t="s">
-        <v>156</v>
-      </c>
-      <c r="I2" t="s">
+      <c r="J2" t="s">
         <v>157</v>
-      </c>
-      <c r="J2" t="s">
-        <v>158</v>
       </c>
     </row>
     <row r="3" spans="1:10">
       <c r="A3" t="s">
+        <v>29</v>
+      </c>
+      <c r="B3" t="s">
         <v>30</v>
       </c>
-      <c r="B3" t="s">
-        <v>31</v>
-      </c>
       <c r="C3" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
     </row>
     <row r="4" spans="1:10">
       <c r="B4" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
     </row>
     <row r="5" spans="1:10">
       <c r="A5" t="s">
+        <v>33</v>
+      </c>
+      <c r="B5" t="s">
         <v>34</v>
-      </c>
-      <c r="B5" t="s">
-        <v>35</v>
       </c>
     </row>
     <row r="6" spans="1:10">
       <c r="B6" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
     </row>
     <row r="7" spans="1:10">
       <c r="B7" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
     </row>
     <row r="8" spans="1:10">
       <c r="B8" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
     </row>
     <row r="9" spans="1:10">
       <c r="B9" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
     </row>
     <row r="10" spans="1:10">
       <c r="A10" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
     </row>
     <row r="11" spans="1:10">
       <c r="A11" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="B11" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
     </row>
     <row r="12" spans="1:10">
       <c r="B12" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
     </row>
     <row r="13" spans="1:10">
       <c r="B13" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
     </row>
     <row r="14" spans="1:10">
       <c r="B14" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
     </row>
     <row r="15" spans="1:10">
       <c r="B15" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
     </row>
     <row r="16" spans="1:10">
       <c r="B16" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
     </row>
     <row r="17" spans="1:7">
       <c r="B17" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
     </row>
     <row r="18" spans="1:7">
       <c r="B18" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
     </row>
     <row r="19" spans="1:7">
       <c r="B19" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
     </row>
     <row r="20" spans="1:7">
       <c r="B20" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
     </row>
     <row r="21" spans="1:7">
       <c r="A21" s="7" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
     </row>
     <row r="22" spans="1:7" ht="51.75" customHeight="1">
       <c r="A22" s="8" t="s">
+        <v>51</v>
+      </c>
+      <c r="B22" s="8" t="s">
         <v>52</v>
       </c>
-      <c r="B22" s="8" t="s">
+      <c r="C22" s="8" t="s">
         <v>53</v>
       </c>
-      <c r="C22" s="8" t="s">
+      <c r="D22" s="8" t="s">
         <v>54</v>
       </c>
-      <c r="D22" s="8" t="s">
+      <c r="E22" s="8" t="s">
         <v>55</v>
       </c>
-      <c r="E22" s="8" t="s">
+      <c r="F22" s="8" t="s">
         <v>56</v>
       </c>
-      <c r="F22" s="8" t="s">
+      <c r="G22" s="8" t="s">
         <v>57</v>
-      </c>
-      <c r="G22" s="8" t="s">
-        <v>58</v>
       </c>
     </row>
     <row r="23" spans="1:7" ht="28.5" customHeight="1">
       <c r="A23" s="8" t="s">
+        <v>58</v>
+      </c>
+      <c r="B23" s="8" t="s">
+        <v>61</v>
+      </c>
+      <c r="C23" t="s">
         <v>59</v>
       </c>
-      <c r="B23" s="8" t="s">
-        <v>62</v>
-      </c>
-      <c r="C23" t="s">
+      <c r="D23" t="s">
         <v>60</v>
-      </c>
-      <c r="D23" t="s">
-        <v>61</v>
       </c>
     </row>
     <row r="24" spans="1:7" ht="21" customHeight="1">
       <c r="A24" s="8" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="B24" s="8"/>
     </row>
     <row r="25" spans="1:7">
       <c r="A25" t="s">
+        <v>62</v>
+      </c>
+      <c r="B25" t="s">
         <v>63</v>
       </c>
-      <c r="B25" t="s">
+      <c r="C25" t="s">
         <v>64</v>
       </c>
-      <c r="C25" t="s">
+      <c r="D25" t="s">
+        <v>59</v>
+      </c>
+      <c r="E25" t="s">
         <v>65</v>
-      </c>
-      <c r="D25" t="s">
-        <v>60</v>
-      </c>
-      <c r="E25" t="s">
-        <v>66</v>
       </c>
     </row>
     <row r="26" spans="1:7">
       <c r="A26" s="8" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
     </row>
     <row r="27" spans="1:7" ht="165">
       <c r="A27" s="8" t="s">
+        <v>66</v>
+      </c>
+      <c r="B27" s="8" t="s">
+        <v>59</v>
+      </c>
+      <c r="C27" s="8" t="s">
         <v>67</v>
-      </c>
-      <c r="B27" s="8" t="s">
-        <v>60</v>
-      </c>
-      <c r="C27" s="8" t="s">
-        <v>68</v>
       </c>
     </row>
     <row r="28" spans="1:7">
       <c r="A28" s="8" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
     </row>
     <row r="29" spans="1:7" ht="90">
       <c r="A29" s="8" t="s">
+        <v>68</v>
+      </c>
+      <c r="B29" t="s">
         <v>69</v>
       </c>
-      <c r="B29" t="s">
+      <c r="C29" t="s">
         <v>70</v>
       </c>
-      <c r="C29" t="s">
+      <c r="D29" t="s">
+        <v>59</v>
+      </c>
+      <c r="E29" s="8" t="s">
         <v>71</v>
       </c>
-      <c r="D29" t="s">
-        <v>60</v>
-      </c>
-      <c r="E29" s="8" t="s">
+      <c r="F29" s="8" t="s">
         <v>72</v>
-      </c>
-      <c r="F29" s="8" t="s">
-        <v>73</v>
       </c>
     </row>
     <row r="30" spans="1:7" ht="45">
       <c r="A30" s="8" t="s">
+        <v>73</v>
+      </c>
+      <c r="B30" s="8" t="s">
         <v>74</v>
       </c>
-      <c r="B30" s="8" t="s">
+      <c r="C30" s="8" t="s">
         <v>75</v>
-      </c>
-      <c r="C30" s="8" t="s">
-        <v>76</v>
       </c>
     </row>
     <row r="31" spans="1:7">
       <c r="A31" s="8" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
     </row>
     <row r="33" spans="1:9">
       <c r="A33" s="9" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
     </row>
     <row r="34" spans="1:9" ht="46.5" customHeight="1">
@@ -1389,143 +1389,143 @@
         <v>12</v>
       </c>
       <c r="B34" t="s">
+        <v>78</v>
+      </c>
+      <c r="C34" t="s">
         <v>79</v>
       </c>
-      <c r="C34" t="s">
+      <c r="D34" s="8" t="s">
         <v>80</v>
       </c>
-      <c r="D34" s="8" t="s">
+      <c r="E34" s="8" t="s">
         <v>81</v>
       </c>
-      <c r="E34" s="8" t="s">
+      <c r="F34" s="8" t="s">
         <v>82</v>
       </c>
-      <c r="F34" s="8" t="s">
+      <c r="G34" s="8" t="s">
+        <v>55</v>
+      </c>
+      <c r="H34" s="8" t="s">
         <v>83</v>
       </c>
-      <c r="G34" s="8" t="s">
-        <v>56</v>
-      </c>
-      <c r="H34" s="8" t="s">
-        <v>84</v>
-      </c>
       <c r="I34" s="8" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
     </row>
     <row r="35" spans="1:9">
       <c r="A35" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="B35" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
     </row>
     <row r="36" spans="1:9" ht="90">
       <c r="A36" t="s">
+        <v>86</v>
+      </c>
+      <c r="B36" t="s">
         <v>87</v>
       </c>
-      <c r="B36" t="s">
+      <c r="C36" s="8" t="s">
         <v>88</v>
-      </c>
-      <c r="C36" s="8" t="s">
-        <v>89</v>
       </c>
     </row>
     <row r="37" spans="1:9">
       <c r="A37" t="s">
+        <v>89</v>
+      </c>
+      <c r="B37" t="s">
         <v>90</v>
-      </c>
-      <c r="B37" t="s">
-        <v>91</v>
       </c>
     </row>
     <row r="38" spans="1:9" ht="60">
       <c r="A38" s="8" t="s">
+        <v>91</v>
+      </c>
+      <c r="B38" t="s">
         <v>92</v>
       </c>
-      <c r="B38" t="s">
+      <c r="C38" s="8" t="s">
         <v>93</v>
-      </c>
-      <c r="C38" s="8" t="s">
-        <v>94</v>
       </c>
     </row>
     <row r="39" spans="1:9">
       <c r="A39" t="s">
+        <v>94</v>
+      </c>
+      <c r="B39" t="s">
         <v>95</v>
-      </c>
-      <c r="B39" t="s">
-        <v>96</v>
       </c>
     </row>
     <row r="40" spans="1:9" ht="45">
       <c r="A40" t="s">
+        <v>96</v>
+      </c>
+      <c r="B40" s="8" t="s">
         <v>97</v>
       </c>
-      <c r="B40" s="8" t="s">
+      <c r="C40" t="s">
         <v>98</v>
       </c>
-      <c r="C40" t="s">
-        <v>99</v>
-      </c>
       <c r="D40" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
     </row>
     <row r="41" spans="1:9" ht="45">
       <c r="A41" t="s">
+        <v>99</v>
+      </c>
+      <c r="B41" s="8" t="s">
         <v>100</v>
       </c>
-      <c r="B41" s="8" t="s">
+      <c r="C41" s="8" t="s">
         <v>101</v>
       </c>
-      <c r="C41" s="8" t="s">
-        <v>102</v>
-      </c>
       <c r="D41" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
     </row>
     <row r="42" spans="1:9" ht="60">
       <c r="A42" s="8" t="s">
+        <v>102</v>
+      </c>
+      <c r="B42" s="11" t="s">
         <v>103</v>
       </c>
-      <c r="B42" s="11" t="s">
+      <c r="C42" s="8" t="s">
         <v>104</v>
-      </c>
-      <c r="C42" s="8" t="s">
-        <v>105</v>
       </c>
     </row>
     <row r="43" spans="1:9">
       <c r="A43" t="s">
+        <v>105</v>
+      </c>
+      <c r="B43" t="s">
         <v>106</v>
-      </c>
-      <c r="B43" t="s">
-        <v>107</v>
       </c>
     </row>
     <row r="44" spans="1:9" ht="90">
       <c r="A44" s="8" t="s">
+        <v>107</v>
+      </c>
+      <c r="B44" s="8" t="s">
         <v>108</v>
       </c>
-      <c r="B44" s="8" t="s">
+      <c r="C44" s="8" t="s">
         <v>109</v>
       </c>
-      <c r="C44" s="8" t="s">
+      <c r="D44" s="8" t="s">
         <v>110</v>
       </c>
-      <c r="D44" s="8" t="s">
+      <c r="E44" s="8" t="s">
         <v>111</v>
-      </c>
-      <c r="E44" s="8" t="s">
-        <v>112</v>
       </c>
     </row>
     <row r="45" spans="1:9" ht="23.25" customHeight="1">
       <c r="A45" s="9" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
     </row>
     <row r="46" spans="1:9" ht="58.5" customHeight="1">
@@ -1533,169 +1533,169 @@
         <v>11</v>
       </c>
       <c r="B46" s="8" t="s">
+        <v>113</v>
+      </c>
+      <c r="C46" s="8" t="s">
         <v>114</v>
       </c>
-      <c r="C46" s="8" t="s">
+      <c r="D46" s="8" t="s">
         <v>115</v>
       </c>
-      <c r="D46" s="8" t="s">
+      <c r="E46" s="8" t="s">
         <v>116</v>
       </c>
-      <c r="E46" s="8" t="s">
-        <v>117</v>
-      </c>
       <c r="F46" s="8" t="s">
+        <v>82</v>
+      </c>
+      <c r="G46" s="8" t="s">
+        <v>55</v>
+      </c>
+      <c r="H46" s="8" t="s">
         <v>83</v>
       </c>
-      <c r="G46" s="8" t="s">
-        <v>56</v>
-      </c>
-      <c r="H46" s="8" t="s">
-        <v>84</v>
-      </c>
       <c r="I46" s="8" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
     </row>
     <row r="47" spans="1:9" ht="60">
       <c r="A47" t="s">
+        <v>117</v>
+      </c>
+      <c r="B47" t="s">
         <v>118</v>
       </c>
-      <c r="B47" t="s">
+      <c r="C47" t="s">
         <v>119</v>
       </c>
-      <c r="C47" t="s">
+      <c r="D47" s="8" t="s">
         <v>120</v>
       </c>
-      <c r="D47" s="8" t="s">
+      <c r="E47" t="s">
+        <v>59</v>
+      </c>
+      <c r="F47" s="8" t="s">
         <v>121</v>
       </c>
-      <c r="E47" t="s">
-        <v>60</v>
-      </c>
-      <c r="F47" s="8" t="s">
+      <c r="G47" t="s">
         <v>122</v>
       </c>
-      <c r="G47" t="s">
+      <c r="H47" s="8" t="s">
         <v>123</v>
-      </c>
-      <c r="H47" s="8" t="s">
-        <v>124</v>
       </c>
     </row>
     <row r="48" spans="1:9">
       <c r="A48" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="B48" s="8" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
     </row>
     <row r="49" spans="1:6" ht="135">
       <c r="A49" t="s">
+        <v>128</v>
+      </c>
+      <c r="B49" s="8" t="s">
         <v>129</v>
       </c>
-      <c r="B49" s="8" t="s">
+      <c r="C49" s="8" t="s">
         <v>130</v>
       </c>
-      <c r="C49" s="8" t="s">
+      <c r="D49" s="8" t="s">
         <v>131</v>
       </c>
-      <c r="D49" s="8" t="s">
+      <c r="E49" s="8" t="s">
+        <v>59</v>
+      </c>
+      <c r="F49" s="8" t="s">
         <v>132</v>
-      </c>
-      <c r="E49" s="8" t="s">
-        <v>60</v>
-      </c>
-      <c r="F49" s="8" t="s">
-        <v>133</v>
       </c>
     </row>
     <row r="50" spans="1:6" ht="27" customHeight="1">
       <c r="A50" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="B50" s="8" t="s">
+        <v>133</v>
+      </c>
+      <c r="C50" t="s">
         <v>134</v>
       </c>
-      <c r="C50" t="s">
+      <c r="D50" s="8" t="s">
         <v>135</v>
-      </c>
-      <c r="D50" s="8" t="s">
-        <v>136</v>
       </c>
     </row>
     <row r="51" spans="1:6">
       <c r="A51" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="B51" s="8" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
     </row>
     <row r="52" spans="1:6" ht="150">
       <c r="A52" s="8" t="s">
+        <v>137</v>
+      </c>
+      <c r="B52" s="8" t="s">
         <v>138</v>
       </c>
-      <c r="B52" s="8" t="s">
+      <c r="C52" s="8" t="s">
         <v>139</v>
       </c>
-      <c r="C52" s="8" t="s">
+      <c r="D52" s="8" t="s">
+        <v>59</v>
+      </c>
+      <c r="E52" s="8" t="s">
         <v>140</v>
-      </c>
-      <c r="D52" s="8" t="s">
-        <v>60</v>
-      </c>
-      <c r="E52" s="8" t="s">
-        <v>141</v>
       </c>
     </row>
     <row r="53" spans="1:6">
       <c r="A53" t="s">
+        <v>141</v>
+      </c>
+      <c r="B53" s="8" t="s">
         <v>142</v>
-      </c>
-      <c r="B53" s="8" t="s">
-        <v>143</v>
       </c>
     </row>
     <row r="54" spans="1:6" ht="75">
       <c r="A54" t="s">
+        <v>143</v>
+      </c>
+      <c r="B54" s="8" t="s">
         <v>144</v>
       </c>
-      <c r="B54" s="8" t="s">
+      <c r="C54" t="s">
+        <v>59</v>
+      </c>
+      <c r="D54" s="8" t="s">
         <v>145</v>
-      </c>
-      <c r="C54" t="s">
-        <v>60</v>
-      </c>
-      <c r="D54" s="8" t="s">
-        <v>146</v>
       </c>
     </row>
     <row r="55" spans="1:6" ht="60">
       <c r="A55" s="8" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="B55" s="8" t="s">
+        <v>103</v>
+      </c>
+      <c r="C55" s="8" t="s">
         <v>104</v>
-      </c>
-      <c r="C55" s="8" t="s">
-        <v>105</v>
       </c>
     </row>
     <row r="56" spans="1:6">
       <c r="A56" s="9" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
     </row>
     <row r="57" spans="1:6">
       <c r="A57" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
     </row>
     <row r="58" spans="1:6">
       <c r="A58" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
     </row>
   </sheetData>

--- a/TestData.xlsx
+++ b/TestData.xlsx
@@ -4,18 +4,19 @@
   <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4507"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="2520" windowWidth="16650" windowHeight="5190" tabRatio="990"/>
+    <workbookView xWindow="0" yWindow="2520" windowWidth="16650" windowHeight="5190" tabRatio="990" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="Login_Credentials" sheetId="1" r:id="rId1"/>
     <sheet name="MultiCardLesson" sheetId="18" r:id="rId2"/>
+    <sheet name="API testing" sheetId="19" r:id="rId3"/>
   </sheets>
   <calcPr calcId="125725"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="177" uniqueCount="159">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="201" uniqueCount="173">
   <si>
     <t>TEST CASE NAME</t>
   </si>
@@ -492,13 +493,55 @@
   </si>
   <si>
     <t>ShavinTest@gmail.com</t>
+  </si>
+  <si>
+    <t>Test Script Name</t>
+  </si>
+  <si>
+    <t>searchlastName</t>
+  </si>
+  <si>
+    <t>Currentpassword</t>
+  </si>
+  <si>
+    <t>Newpassword</t>
+  </si>
+  <si>
+    <t>TC_27</t>
+  </si>
+  <si>
+    <t>L27</t>
+  </si>
+  <si>
+    <t>TC_28</t>
+  </si>
+  <si>
+    <t>L28</t>
+  </si>
+  <si>
+    <t>TC_33</t>
+  </si>
+  <si>
+    <t>L33</t>
+  </si>
+  <si>
+    <t>TC_35</t>
+  </si>
+  <si>
+    <t>L35</t>
+  </si>
+  <si>
+    <t>TC_45</t>
+  </si>
+  <si>
+    <t>%^&amp;*((CUI</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="7">
+  <fonts count="8">
     <font>
       <sz val="11"/>
       <color rgb="FF000000"/>
@@ -549,6 +592,13 @@
       <name val="Calibri"/>
       <family val="2"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="Bitstream Charter"/>
+      <family val="1"/>
+      <charset val="1"/>
+    </font>
   </fonts>
   <fills count="5">
     <fill>
@@ -576,10 +626,34 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="1">
+  <borders count="3">
     <border>
       <left/>
       <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFE7E6E6"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFE7E6E6"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFE7E6E6"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFE7E6E6"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color rgb="FFE7E6E6"/>
+      </right>
       <top/>
       <bottom/>
       <diagonal/>
@@ -591,7 +665,7 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="12">
+  <cellXfs count="15">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -610,6 +684,9 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="4">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -977,8 +1054,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:AMK6"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="77" workbookViewId="0">
-      <selection activeCell="C9" sqref="C9"/>
+    <sheetView zoomScaleNormal="77" workbookViewId="0">
+      <selection activeCell="B11" sqref="B11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -1702,4 +1779,122 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:D6"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C17" sqref="C17"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <cols>
+    <col min="1" max="1" width="16.42578125" customWidth="1"/>
+    <col min="2" max="2" width="20.85546875" customWidth="1"/>
+    <col min="3" max="3" width="16.42578125" customWidth="1"/>
+    <col min="4" max="4" width="13.140625" customWidth="1"/>
+    <col min="5" max="5" width="18.28515625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:4">
+      <c r="A1" s="12" t="s">
+        <v>159</v>
+      </c>
+      <c r="B1" s="13" t="s">
+        <v>160</v>
+      </c>
+      <c r="C1" s="13" t="s">
+        <v>161</v>
+      </c>
+      <c r="D1" s="14" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4">
+      <c r="A2" t="s">
+        <v>163</v>
+      </c>
+      <c r="B2" t="s">
+        <v>164</v>
+      </c>
+      <c r="C2" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="D2" s="5" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4">
+      <c r="A3" t="s">
+        <v>165</v>
+      </c>
+      <c r="B3" t="s">
+        <v>166</v>
+      </c>
+      <c r="C3" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="D3" s="5" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4">
+      <c r="A4" t="s">
+        <v>167</v>
+      </c>
+      <c r="B4" t="s">
+        <v>168</v>
+      </c>
+      <c r="C4" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="D4" s="5" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4">
+      <c r="A5" t="s">
+        <v>169</v>
+      </c>
+      <c r="B5" t="s">
+        <v>170</v>
+      </c>
+      <c r="C5" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="D5" s="5" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4">
+      <c r="A6" t="s">
+        <v>171</v>
+      </c>
+      <c r="B6" t="s">
+        <v>172</v>
+      </c>
+      <c r="C6" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="D6" s="5" t="s">
+        <v>12</v>
+      </c>
+    </row>
+  </sheetData>
+  <hyperlinks>
+    <hyperlink ref="D2" r:id="rId1"/>
+    <hyperlink ref="C2" r:id="rId2"/>
+    <hyperlink ref="D3" r:id="rId3"/>
+    <hyperlink ref="C3" r:id="rId4"/>
+    <hyperlink ref="D4" r:id="rId5"/>
+    <hyperlink ref="C4" r:id="rId6"/>
+    <hyperlink ref="D5" r:id="rId7"/>
+    <hyperlink ref="C5" r:id="rId8"/>
+    <hyperlink ref="D6" r:id="rId9"/>
+    <hyperlink ref="C6" r:id="rId10"/>
+  </hyperlinks>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/TestData.xlsx
+++ b/TestData.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4507"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="2520" windowWidth="16650" windowHeight="5190" tabRatio="990" activeTab="2"/>
+    <workbookView xWindow="0" yWindow="2520" windowWidth="16650" windowHeight="5190" tabRatio="990" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Login_Credentials" sheetId="1" r:id="rId1"/>
@@ -465,9 +465,6 @@
     <t>ScormAndPowerPoint</t>
   </si>
   <si>
-    <t>C:\Users\Shavinlal E\Desktop\Appiz.pptx</t>
-  </si>
-  <si>
     <t>Appiz</t>
   </si>
   <si>
@@ -535,6 +532,9 @@
   </si>
   <si>
     <t>%^&amp;*((CUI</t>
+  </si>
+  <si>
+    <t>/home/ubuntu/Grovo_Shavin/TestData/Appiz.pptx</t>
   </si>
 </sst>
 </file>
@@ -1102,7 +1102,7 @@
         <v>5</v>
       </c>
       <c r="B4" s="4" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="C4" s="4" t="s">
         <v>12</v>
@@ -1150,8 +1150,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:J58"/>
   <sheetViews>
-    <sheetView topLeftCell="F1" workbookViewId="0">
-      <selection activeCell="I2" sqref="I2"/>
+    <sheetView tabSelected="1" topLeftCell="A38" workbookViewId="0">
+      <selection activeCell="A54" sqref="A54"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -1217,19 +1217,19 @@
         <v>20</v>
       </c>
       <c r="F2" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="G2" t="s">
         <v>23</v>
       </c>
       <c r="H2" t="s">
+        <v>154</v>
+      </c>
+      <c r="I2" t="s">
         <v>155</v>
       </c>
-      <c r="I2" t="s">
+      <c r="J2" t="s">
         <v>156</v>
-      </c>
-      <c r="J2" t="s">
-        <v>157</v>
       </c>
     </row>
     <row r="3" spans="1:10">
@@ -1378,7 +1378,7 @@
     </row>
     <row r="24" spans="1:7" ht="21" customHeight="1">
       <c r="A24" s="8" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="B24" s="8"/>
     </row>
@@ -1401,7 +1401,7 @@
     </row>
     <row r="26" spans="1:7">
       <c r="A26" s="8" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
     </row>
     <row r="27" spans="1:7" ht="165">
@@ -1417,7 +1417,7 @@
     </row>
     <row r="28" spans="1:7">
       <c r="A28" s="8" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
     </row>
     <row r="29" spans="1:7" ht="90">
@@ -1690,7 +1690,7 @@
     </row>
     <row r="50" spans="1:6" ht="27" customHeight="1">
       <c r="A50" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="B50" s="8" t="s">
         <v>133</v>
@@ -1767,12 +1767,12 @@
     </row>
     <row r="57" spans="1:6">
       <c r="A57" t="s">
-        <v>149</v>
+        <v>172</v>
       </c>
     </row>
     <row r="58" spans="1:6">
       <c r="A58" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
     </row>
   </sheetData>
@@ -1785,7 +1785,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:D6"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="C17" sqref="C17"/>
     </sheetView>
   </sheetViews>
@@ -1800,24 +1800,24 @@
   <sheetData>
     <row r="1" spans="1:4">
       <c r="A1" s="12" t="s">
+        <v>158</v>
+      </c>
+      <c r="B1" s="13" t="s">
         <v>159</v>
       </c>
-      <c r="B1" s="13" t="s">
+      <c r="C1" s="13" t="s">
         <v>160</v>
       </c>
-      <c r="C1" s="13" t="s">
+      <c r="D1" s="14" t="s">
         <v>161</v>
-      </c>
-      <c r="D1" s="14" t="s">
-        <v>162</v>
       </c>
     </row>
     <row r="2" spans="1:4">
       <c r="A2" t="s">
+        <v>162</v>
+      </c>
+      <c r="B2" t="s">
         <v>163</v>
-      </c>
-      <c r="B2" t="s">
-        <v>164</v>
       </c>
       <c r="C2" s="5" t="s">
         <v>12</v>
@@ -1828,10 +1828,10 @@
     </row>
     <row r="3" spans="1:4">
       <c r="A3" t="s">
+        <v>164</v>
+      </c>
+      <c r="B3" t="s">
         <v>165</v>
-      </c>
-      <c r="B3" t="s">
-        <v>166</v>
       </c>
       <c r="C3" s="5" t="s">
         <v>12</v>
@@ -1842,10 +1842,10 @@
     </row>
     <row r="4" spans="1:4">
       <c r="A4" t="s">
+        <v>166</v>
+      </c>
+      <c r="B4" t="s">
         <v>167</v>
-      </c>
-      <c r="B4" t="s">
-        <v>168</v>
       </c>
       <c r="C4" s="5" t="s">
         <v>12</v>
@@ -1856,10 +1856,10 @@
     </row>
     <row r="5" spans="1:4">
       <c r="A5" t="s">
+        <v>168</v>
+      </c>
+      <c r="B5" t="s">
         <v>169</v>
-      </c>
-      <c r="B5" t="s">
-        <v>170</v>
       </c>
       <c r="C5" s="5" t="s">
         <v>12</v>
@@ -1870,10 +1870,10 @@
     </row>
     <row r="6" spans="1:4">
       <c r="A6" t="s">
+        <v>170</v>
+      </c>
+      <c r="B6" t="s">
         <v>171</v>
-      </c>
-      <c r="B6" t="s">
-        <v>172</v>
       </c>
       <c r="C6" s="5" t="s">
         <v>12</v>

--- a/TestData.xlsx
+++ b/TestData.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="201" uniqueCount="173">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="216" uniqueCount="188">
   <si>
     <t>TEST CASE NAME</t>
   </si>
@@ -535,6 +535,51 @@
   </si>
   <si>
     <t>/home/ubuntu/Grovo_Shavin/TestData/Appiz.pptx</t>
+  </si>
+  <si>
+    <t>LessonEdit</t>
+  </si>
+  <si>
+    <t>Sample Content for Text Card</t>
+  </si>
+  <si>
+    <t>How many colors in rainbow?</t>
+  </si>
+  <si>
+    <t>Sample Content for Text Card after edit</t>
+  </si>
+  <si>
+    <t>Question after edit with options</t>
+  </si>
+  <si>
+    <t>C</t>
+  </si>
+  <si>
+    <t>D</t>
+  </si>
+  <si>
+    <t>LessonDuplicate</t>
+  </si>
+  <si>
+    <t>Duplicate lesson</t>
+  </si>
+  <si>
+    <t xml:space="preserve">You will be creating a copy of </t>
+  </si>
+  <si>
+    <t>Name the copy</t>
+  </si>
+  <si>
+    <t>Copy of</t>
+  </si>
+  <si>
+    <t>CANCEL</t>
+  </si>
+  <si>
+    <t>SAVE</t>
+  </si>
+  <si>
+    <t>Lesson_for_Checking_edit7</t>
   </si>
 </sst>
 </file>
@@ -665,7 +710,7 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="15">
+  <cellXfs count="16">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -687,6 +732,9 @@
     <xf numFmtId="0" fontId="7" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="7" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="7" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
   </cellXfs>
   <cellStyles count="4">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -1148,10 +1196,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:J58"/>
+  <dimension ref="A1:J62"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A38" workbookViewId="0">
-      <selection activeCell="A54" sqref="A54"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E3" sqref="E3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -1668,7 +1716,7 @@
         <v>127</v>
       </c>
     </row>
-    <row r="49" spans="1:6" ht="135">
+    <row r="49" spans="1:7" ht="135">
       <c r="A49" t="s">
         <v>128</v>
       </c>
@@ -1688,7 +1736,7 @@
         <v>132</v>
       </c>
     </row>
-    <row r="50" spans="1:6" ht="27" customHeight="1">
+    <row r="50" spans="1:7" ht="27" customHeight="1">
       <c r="A50" t="s">
         <v>153</v>
       </c>
@@ -1702,7 +1750,7 @@
         <v>135</v>
       </c>
     </row>
-    <row r="51" spans="1:6">
+    <row r="51" spans="1:7">
       <c r="A51" t="s">
         <v>136</v>
       </c>
@@ -1710,7 +1758,7 @@
         <v>147</v>
       </c>
     </row>
-    <row r="52" spans="1:6" ht="150">
+    <row r="52" spans="1:7" ht="150">
       <c r="A52" s="8" t="s">
         <v>137</v>
       </c>
@@ -1727,7 +1775,7 @@
         <v>140</v>
       </c>
     </row>
-    <row r="53" spans="1:6">
+    <row r="53" spans="1:7">
       <c r="A53" t="s">
         <v>141</v>
       </c>
@@ -1735,7 +1783,7 @@
         <v>142</v>
       </c>
     </row>
-    <row r="54" spans="1:6" ht="75">
+    <row r="54" spans="1:7" ht="75">
       <c r="A54" t="s">
         <v>143</v>
       </c>
@@ -1749,7 +1797,7 @@
         <v>145</v>
       </c>
     </row>
-    <row r="55" spans="1:6" ht="60">
+    <row r="55" spans="1:7" ht="60">
       <c r="A55" s="8" t="s">
         <v>146</v>
       </c>
@@ -1760,19 +1808,72 @@
         <v>104</v>
       </c>
     </row>
-    <row r="56" spans="1:6">
+    <row r="56" spans="1:7">
       <c r="A56" s="9" t="s">
         <v>148</v>
       </c>
     </row>
-    <row r="57" spans="1:6">
+    <row r="57" spans="1:7">
       <c r="A57" t="s">
         <v>172</v>
       </c>
     </row>
-    <row r="58" spans="1:6">
+    <row r="58" spans="1:7">
       <c r="A58" t="s">
         <v>149</v>
+      </c>
+    </row>
+    <row r="59" spans="1:7">
+      <c r="A59" s="9" t="s">
+        <v>173</v>
+      </c>
+    </row>
+    <row r="60" spans="1:7">
+      <c r="A60" t="s">
+        <v>187</v>
+      </c>
+      <c r="B60" t="s">
+        <v>174</v>
+      </c>
+      <c r="C60" t="s">
+        <v>175</v>
+      </c>
+      <c r="D60" s="15" t="s">
+        <v>176</v>
+      </c>
+      <c r="E60" s="15" t="s">
+        <v>177</v>
+      </c>
+      <c r="F60" t="s">
+        <v>178</v>
+      </c>
+      <c r="G60" t="s">
+        <v>179</v>
+      </c>
+    </row>
+    <row r="61" spans="1:7">
+      <c r="A61" s="9" t="s">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="62" spans="1:7">
+      <c r="A62" t="s">
+        <v>181</v>
+      </c>
+      <c r="B62" t="s">
+        <v>182</v>
+      </c>
+      <c r="C62" t="s">
+        <v>183</v>
+      </c>
+      <c r="D62" t="s">
+        <v>184</v>
+      </c>
+      <c r="E62" t="s">
+        <v>185</v>
+      </c>
+      <c r="F62" t="s">
+        <v>186</v>
       </c>
     </row>
   </sheetData>
